--- a/バックログ/02班スプリントバックログ.xlsx
+++ b/バックログ/02班スプリントバックログ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M-Ishida\Desktop\sotuten\02_Document\team02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M-Ishida\Desktop\201718team2alpha\バックログ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2541,27 +2541,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color auto="1"/>
       </font>
       <fill>
@@ -2894,6 +2873,27 @@
       <font>
         <b/>
         <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="12"/>
@@ -8964,7 +8964,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P41" sqref="P41"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13408,46 +13408,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD103">
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B65535">
-    <cfRule type="expression" dxfId="44" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="7" stopIfTrue="1">
       <formula>D104="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="8" stopIfTrue="1">
       <formula>D104="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="9" stopIfTrue="1">
       <formula>OR(D104="終了",D104="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104:C65535">
-    <cfRule type="expression" dxfId="41" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="10" stopIfTrue="1">
       <formula>D104="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="11" stopIfTrue="1">
       <formula>D104="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="12" stopIfTrue="1">
       <formula>OR(D104="終了",D104="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104:Q65535">
-    <cfRule type="expression" dxfId="38" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="13" stopIfTrue="1">
       <formula>$D104="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="14" stopIfTrue="1">
       <formula>$D104="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="15" stopIfTrue="1">
       <formula>OR($D104="終了",$D104="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17253,57 +17253,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="32" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="29" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:S65536">
-    <cfRule type="expression" dxfId="23" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20539,57 +20539,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:P65536">
-    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21403,13 +21403,13 @@
   <autoFilter ref="B1:K51"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>$D2="要望"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$D2="確認済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$D2="対応"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/バックログ/02班スプリントバックログ.xlsx
+++ b/バックログ/02班スプリントバックログ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M-Ishida\Desktop\201718team2alpha\バックログ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M-Ishida\Desktop\team02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="3045" windowWidth="19230" windowHeight="12120" tabRatio="658" activeTab="1"/>
+    <workbookView xWindow="3885" yWindow="3045" windowWidth="19230" windowHeight="12120" tabRatio="658" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="スケジュール" sheetId="1" r:id="rId1"/>
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="176">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -1003,6 +1003,45 @@
     <t>地面からジャンプで木登り</t>
   </si>
   <si>
+    <t>地面移動のカメラ</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>木登り時のカメラ</t>
+    <rPh sb="0" eb="2">
+      <t>キノボ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>一人称視点と三人称視点の切り替え</t>
+    <rPh sb="0" eb="3">
+      <t>イチニンショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="6" eb="11">
+      <t>サンニンショウシテン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>画面中央にカーソル</t>
   </si>
   <si>
@@ -1045,17 +1084,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>杉浦</t>
-    <rPh sb="0" eb="2">
-      <t>スギウラ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>木枝糸関係</t>
-  </si>
-  <si>
-    <t>糸の敵味方の区別</t>
   </si>
   <si>
     <t>木のα用モデリング</t>
@@ -1063,6 +1092,9 @@
       <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>糸の敵味方の区別</t>
   </si>
   <si>
     <t>敵の糸から味方の糸に上書きされる</t>
@@ -1080,9 +1112,23 @@
     <t>糸の多い方に陣地が切り替わる</t>
   </si>
   <si>
-    <t>野澤</t>
-    <rPh sb="0" eb="2">
-      <t>ノザワ</t>
+    <t>UI　ステージ関係</t>
+    <rPh sb="7" eb="9">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>プレイヤーの陣地ゲージ</t>
+    <rPh sb="6" eb="8">
+      <t>ジンチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>敵の陣地ゲージ</t>
+    <rPh sb="2" eb="4">
+      <t>ジンチ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1100,135 +1146,34 @@
     <t>右下に立体マップ</t>
   </si>
   <si>
-    <t>中山</t>
+    <t>ステージセレクト</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ステージセレクトの糸の選択</t>
+    <rPh sb="9" eb="10">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>決定時のシーン移行</t>
     <rPh sb="0" eb="2">
-      <t>ナカヤマ</t>
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イコウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ＡＩ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>南雲</t>
-    <rPh sb="0" eb="2">
-      <t>ナグモ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>プランナー</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>樋田</t>
-    <rPh sb="0" eb="2">
-      <t>ヒダ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>石田</t>
-    <rPh sb="0" eb="2">
-      <t>イシダ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>縄張りの奪い合いの練りこみ</t>
-    <rPh sb="0" eb="2">
-      <t>ナワバ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ウバ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ネ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>仕様書　プレイヤー</t>
-    <rPh sb="0" eb="3">
-      <t>シヨウショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>一人称視点と三人称視点の切り替え</t>
-    <rPh sb="0" eb="3">
-      <t>イチニンショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シテン</t>
-    </rPh>
-    <rPh sb="6" eb="11">
-      <t>サンニンショウシテン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>木登り時のカメラ</t>
-    <rPh sb="0" eb="2">
-      <t>キノボ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>地面移動のカメラ</t>
-    <rPh sb="0" eb="2">
-      <t>ジメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>仕様書　AI</t>
-    <rPh sb="0" eb="3">
-      <t>シヨウショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>仕様書UI</t>
-    <rPh sb="0" eb="3">
-      <t>シヨウショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>仕様書　カメラ</t>
-    <rPh sb="0" eb="3">
-      <t>シヨウショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>仕様書　操作説明</t>
-    <rPh sb="0" eb="3">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セツメイ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1260,54 +1205,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>南雲</t>
-    <rPh sb="0" eb="2">
-      <t>ナグモ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>UI　ステージ関係</t>
-    <rPh sb="7" eb="9">
-      <t>カンケイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ステージセレクト</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>中山</t>
-    <rPh sb="0" eb="2">
-      <t>ナカヤマ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ステージセレクトの糸の選択</t>
-    <rPh sb="9" eb="10">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>決定時のシーン移行</t>
-    <rPh sb="0" eb="2">
-      <t>ケッテイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>イコウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>木の場所の判断</t>
     <rPh sb="0" eb="1">
       <t>キ</t>
@@ -1321,31 +1218,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>石田</t>
-    <rPh sb="0" eb="2">
-      <t>イシダ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>野澤</t>
-    <rPh sb="0" eb="2">
-      <t>ノザワ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>杉浦</t>
-    <rPh sb="0" eb="2">
-      <t>スギウラ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>樋田</t>
-    <rPh sb="0" eb="2">
-      <t>ヒダ</t>
-    </rPh>
+    <t>プランナー</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1357,6 +1230,69 @@
   </si>
   <si>
     <t>仕様書 AI③</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仕様書UI</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>縄張りの奪い合いの練りこみ</t>
+    <rPh sb="0" eb="2">
+      <t>ナワバ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウバ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仕様書　操作説明</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仕様書　カメラ</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仕様書の統合 α版</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仕様書　プレイヤー</t>
     <rPh sb="0" eb="3">
       <t>シヨウショ</t>
     </rPh>
@@ -1386,29 +1322,486 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>仕様書の統合 α版</t>
-    <rPh sb="0" eb="3">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>トウゴウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>バン</t>
+    <t>杉浦</t>
+    <rPh sb="0" eb="2">
+      <t>スギウラ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>敵の陣地ゲージ</t>
-    <rPh sb="2" eb="4">
-      <t>ジンチ</t>
+    <t>野澤</t>
+    <rPh sb="0" eb="2">
+      <t>ノザワ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>プレイヤーの陣地ゲージ</t>
+    <t>中山</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヤマ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>南雲</t>
+    <rPh sb="0" eb="2">
+      <t>ナグモ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仕様書　AI　</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>現段階AIと糸の連動</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンダンカイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レンドウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タイトル画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ステージ画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リザルト画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>シーン遷移</t>
+    <rPh sb="3" eb="5">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タイマー仮リソース</t>
+    <rPh sb="4" eb="5">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>11/14日まで↓</t>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>中山</t>
+    <rPh sb="0" eb="2">
+      <t>ナカヤマ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>木の幹でのジャンプ</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>木の枝でのジャンプ</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>着地時の時間設定</t>
+    <rPh sb="0" eb="2">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
     <rPh sb="6" eb="8">
-      <t>ジンチ</t>
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1方向へのランダム選択とその移動</t>
+    <rPh sb="1" eb="3">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>移動での時間設定</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>跳ぶ前に選択範囲内に木があるか</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>枝と幹での別オブジェクト判定</t>
+    <rPh sb="0" eb="1">
+      <t>エダ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>奪った糸は消えなくする</t>
+    <rPh sb="0" eb="1">
+      <t>ウバ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ジャンプの予測線</t>
+    <rPh sb="5" eb="7">
+      <t>ヨソク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>回避アクション成功率設定</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>セイコウリツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>地面に落ちた時に再び木に登る</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フタタ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ノボ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クモの空中ジャンプアニメーション</t>
+    <rPh sb="3" eb="5">
+      <t>クウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>回避アクションアニメーション</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>樋田</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>石田</t>
+    <rPh sb="0" eb="2">
+      <t>イシダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>回避アクション失敗アニメーション</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>木のリソース</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>野澤</t>
+    <rPh sb="0" eb="2">
+      <t>ノザワ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>杉浦</t>
+    <rPh sb="0" eb="2">
+      <t>スギウラ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>南雲</t>
+    <rPh sb="0" eb="2">
+      <t>ナグモ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>中山</t>
+    <rPh sb="0" eb="2">
+      <t>ナカヤマ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>難易度選択のアイコン</t>
+  </si>
+  <si>
+    <t>タイトルのロゴ</t>
+  </si>
+  <si>
+    <t>石田</t>
+    <rPh sb="0" eb="2">
+      <t>イシダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>樋田</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>立体マップ</t>
+    <rPh sb="0" eb="2">
+      <t>リッタイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>野澤</t>
+    <rPh sb="0" eb="2">
+      <t>ノザワ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ステージ制作</t>
+  </si>
+  <si>
+    <t>GameStart　文字リソース</t>
+    <rPh sb="10" eb="12">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>操作説明　文字リソース</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ゲーム終了　文字リソース</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>トリガーでカーソルの糸か木の優先ONOFF</t>
+    <rPh sb="10" eb="11">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ユウセン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>杉浦</t>
+    <rPh sb="0" eb="2">
+      <t>スギウラ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AIで南雲と石田の話し合い</t>
+  </si>
+  <si>
+    <t>AIで南雲と石田の話し合い</t>
+    <rPh sb="6" eb="8">
+      <t>イシダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>南雲</t>
+    <rPh sb="0" eb="2">
+      <t>ナグモ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仕様書作成</t>
+    <rPh sb="0" eb="5">
+      <t>シヨウショサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>樋田</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>石田</t>
+    <rPh sb="0" eb="2">
+      <t>イシダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>糸の上での移動</t>
+    <rPh sb="0" eb="1">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>回避アクション</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2536,7 +2929,49 @@
     <cellStyle name="標準_チーム編成" xfId="2"/>
     <cellStyle name="標準_バグシート" xfId="3"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="87">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -2697,6 +3132,195 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="55"/>
       </font>
     </dxf>
@@ -2799,6 +3423,48 @@
       <font>
         <b/>
         <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="12"/>
@@ -3089,27 +3755,6 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3190,28 +3835,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3640,51 +4264,34 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'スプリントバックログ(第１）'!$S$106:$S$115</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>野澤</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>南雲</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>杉浦</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>中山</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>石田</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>樋田</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'スプリントバックログ(第１）'!$S$107:$S$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第１）'!$U$106:$U$115</c:f>
+              <c:f>'スプリントバックログ(第１）'!$U$107:$U$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -3777,54 +4384,37 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'スプリントバックログ(第１）'!$S$106:$S$115</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>野澤</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>南雲</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>杉浦</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>中山</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>石田</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>樋田</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:numRef>
+              <c:f>'スプリントバックログ(第１）'!$S$107:$S$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第１）'!$V$106:$V$115</c:f>
+              <c:f>'スプリントバックログ(第１）'!$V$107:$V$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3915,27 +4505,27 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第１）'!$T$106:$T$115</c:f>
+              <c:f>'スプリントバックログ(第１）'!$T$107:$T$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -3963,7 +4553,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'スプリントバックログ(第１）'!$X$105</c:f>
+              <c:f>'スプリントバックログ(第１）'!$X$106</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4028,24 +4618,24 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第１）'!$X$106:$X$115</c:f>
+              <c:f>'スプリントバックログ(第１）'!$X$107:$X$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4934,18 +5524,36 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'スプリントバックログ(第２）'!$U$107:$U$116</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>野澤</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>杉浦</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>南雲</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>中山</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>石田</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>樋田</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5053,18 +5661,36 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'スプリントバックログ(第２）'!$U$107:$U$116</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>野澤</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>杉浦</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>南雲</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>中山</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>石田</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>樋田</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -5172,6 +5798,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5183,22 +5810,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -5284,6 +5911,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7274,7 +7902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E222"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -8960,17 +9588,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X187"/>
+  <dimension ref="A1:X188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="32.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
     <col min="5" max="6" width="6.875" style="5" customWidth="1"/>
@@ -9070,36 +9698,15 @@
       <c r="I3" s="114"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$Q$2))))</f>
-        <v>97</v>
-      </c>
-      <c r="K3" s="20">
-        <f t="shared" ref="K3:Q3" si="0">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$Q$2))))</f>
-        <v>84</v>
-      </c>
-      <c r="L3" s="20">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="M3" s="20">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="N3" s="20">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="O3" s="20">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="P3" s="20">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="Q3" s="20">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
     </row>
     <row r="4" spans="1:17" s="8" customFormat="1">
       <c r="A4" s="114"/>
@@ -9112,37 +9719,16 @@
       <c r="H4" s="119"/>
       <c r="I4" s="114"/>
       <c r="J4" s="21">
-        <f>SUM(J5:J103)</f>
-        <v>97</v>
-      </c>
-      <c r="K4" s="21">
-        <f t="shared" ref="K4:Q4" si="1">SUM(K5:K103)</f>
-        <v>97</v>
-      </c>
-      <c r="L4" s="21">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="M4" s="21">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="N4" s="21">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="O4" s="21">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="P4" s="21">
-        <f t="shared" si="1"/>
+        <f>SUM(J5:J104)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="16"/>
@@ -9155,10 +9741,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
-      <c r="I5" s="12" t="str">
-        <f ca="1">IF(ISBLANK(J5)=FALSE,OFFSET(I5,0,COUNTA(J5:Q5)),"")</f>
-        <v/>
-      </c>
+      <c r="I5" s="12"/>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
@@ -9174,37 +9757,20 @@
         <v>77</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="D6" s="12" t="str">
-        <f t="shared" ref="D6:D42" ca="1" si="2">IF(ISBLANK($B6),"",IF(ISBLANK($F6),"未着手",IF($I6=0,"完了","作業中")))</f>
-        <v>完了</v>
-      </c>
-      <c r="E6" s="4">
-        <v>43032</v>
-      </c>
-      <c r="F6" s="4">
-        <v>43032</v>
-      </c>
-      <c r="G6" s="19">
-        <v>1</v>
-      </c>
-      <c r="H6" s="19">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12">
-        <f t="shared" ref="I6:I68" ca="1" si="3">IF(ISBLANK(J6)=FALSE,OFFSET(I6,0,COUNTA(J6:Q6)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="22">
-        <v>1</v>
-      </c>
-      <c r="K6" s="22">
-        <v>1</v>
-      </c>
-      <c r="L6" s="22">
-        <v>0</v>
-      </c>
+        <f t="shared" ref="D6:D56" si="0">IF(ISBLANK($B6),"",IF(ISBLANK($F6),"未着手",IF($I6=0,"完了","作業中")))</f>
+        <v>未着手</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
@@ -9217,43 +9783,22 @@
         <v>78</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="D7" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>完了</v>
-      </c>
-      <c r="E7" s="4">
-        <v>43032</v>
-      </c>
-      <c r="F7" s="4">
-        <v>43032</v>
-      </c>
-      <c r="G7" s="19">
-        <v>3</v>
-      </c>
-      <c r="H7" s="19">
-        <v>3</v>
-      </c>
-      <c r="I7" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="22">
-        <v>3</v>
-      </c>
-      <c r="K7" s="22">
-        <v>3</v>
-      </c>
-      <c r="L7" s="22">
-        <v>2</v>
-      </c>
-      <c r="M7" s="22">
-        <v>1</v>
-      </c>
-      <c r="N7" s="22">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
@@ -9264,183 +9809,99 @@
         <v>79</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="D8" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E8" s="4">
-        <v>43042</v>
-      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="19">
-        <v>2</v>
-      </c>
+      <c r="G8" s="19"/>
       <c r="H8" s="19"/>
-      <c r="I8" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="J8" s="22">
-        <v>2</v>
-      </c>
-      <c r="K8" s="22">
-        <v>2</v>
-      </c>
-      <c r="L8" s="22">
-        <v>2</v>
-      </c>
-      <c r="M8" s="22">
-        <v>2</v>
-      </c>
-      <c r="N8" s="22">
-        <v>2</v>
-      </c>
-      <c r="O8" s="22">
-        <v>2</v>
-      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="16"/>
       <c r="B9" s="86" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="D9" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
-      </c>
-      <c r="E9" s="4">
-        <v>43032</v>
-      </c>
-      <c r="F9" s="4">
-        <v>43032</v>
-      </c>
-      <c r="G9" s="19">
-        <v>3</v>
-      </c>
-      <c r="H9" s="19">
-        <v>3</v>
-      </c>
-      <c r="I9" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J9" s="22">
-        <v>3</v>
-      </c>
-      <c r="K9" s="22">
-        <v>3</v>
-      </c>
-      <c r="L9" s="22">
-        <v>1</v>
-      </c>
-      <c r="M9" s="22">
-        <v>1</v>
-      </c>
-      <c r="N9" s="22">
-        <v>1</v>
-      </c>
-      <c r="O9" s="22">
-        <v>1</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="16"/>
       <c r="B10" s="85" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="D10" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
-      </c>
-      <c r="E10" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F10" s="4">
-        <v>43035</v>
-      </c>
-      <c r="G10" s="19">
-        <v>6</v>
-      </c>
-      <c r="H10" s="19">
-        <v>5</v>
-      </c>
-      <c r="I10" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="J10" s="22">
-        <v>6</v>
-      </c>
-      <c r="K10" s="22">
-        <v>6</v>
-      </c>
-      <c r="L10" s="22">
-        <v>6</v>
-      </c>
-      <c r="M10" s="22">
-        <v>4</v>
-      </c>
-      <c r="N10" s="22">
-        <v>2</v>
-      </c>
-      <c r="O10" s="22">
-        <v>2</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="16"/>
       <c r="B11" s="85" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="D11" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>完了</v>
-      </c>
-      <c r="E11" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F11" s="4">
-        <v>43035</v>
-      </c>
-      <c r="G11" s="19">
-        <v>1</v>
-      </c>
-      <c r="H11" s="19">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="22">
-        <v>1</v>
-      </c>
-      <c r="K11" s="22">
-        <v>1</v>
-      </c>
-      <c r="L11" s="22">
-        <v>1</v>
-      </c>
-      <c r="M11" s="22">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
@@ -9449,138 +9910,77 @@
     <row r="12" spans="1:17">
       <c r="A12" s="16"/>
       <c r="B12" s="86" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="D12" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
-      </c>
-      <c r="E12" s="4">
-        <v>43039</v>
-      </c>
-      <c r="F12" s="4">
-        <v>43039</v>
-      </c>
-      <c r="G12" s="19">
-        <v>1</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="22">
-        <v>1</v>
-      </c>
-      <c r="K12" s="22">
-        <v>1</v>
-      </c>
-      <c r="L12" s="22">
-        <v>1</v>
-      </c>
-      <c r="M12" s="22">
-        <v>1</v>
-      </c>
-      <c r="N12" s="22">
-        <v>1</v>
-      </c>
-      <c r="O12" s="22">
-        <v>1</v>
-      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="16"/>
       <c r="B13" s="85" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="D13" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
-      </c>
-      <c r="E13" s="4">
-        <v>43039</v>
-      </c>
-      <c r="F13" s="4">
-        <v>43039</v>
-      </c>
-      <c r="G13" s="19">
-        <v>1</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="19"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="22">
-        <v>1</v>
-      </c>
-      <c r="K13" s="22">
-        <v>1</v>
-      </c>
-      <c r="L13" s="22">
-        <v>1</v>
-      </c>
-      <c r="M13" s="22">
-        <v>1</v>
-      </c>
-      <c r="N13" s="22">
-        <v>1</v>
-      </c>
-      <c r="O13" s="22">
-        <v>1</v>
-      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="16"/>
       <c r="B14" s="85" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="D14" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>完了</v>
-      </c>
-      <c r="E14" s="4">
-        <v>43039</v>
-      </c>
-      <c r="F14" s="4">
-        <v>43039</v>
-      </c>
-      <c r="G14" s="19">
-        <v>1</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="19"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="22">
-        <v>1</v>
-      </c>
-      <c r="K14" s="22">
-        <v>1</v>
-      </c>
-      <c r="L14" s="22">
-        <v>1</v>
-      </c>
-      <c r="M14" s="22">
-        <v>1</v>
-      </c>
-      <c r="N14" s="22">
-        <v>0</v>
-      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
@@ -9588,49 +9988,26 @@
     <row r="15" spans="1:17">
       <c r="A15" s="16"/>
       <c r="B15" s="85" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="D15" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>完了</v>
-      </c>
-      <c r="E15" s="4">
-        <v>43042</v>
-      </c>
-      <c r="F15" s="4">
-        <v>43042</v>
-      </c>
-      <c r="G15" s="19">
-        <v>3</v>
-      </c>
-      <c r="H15" s="19">
-        <v>3</v>
-      </c>
-      <c r="I15" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="22">
-        <v>3</v>
-      </c>
-      <c r="K15" s="22">
-        <v>3</v>
-      </c>
-      <c r="L15" s="22">
-        <v>3</v>
-      </c>
-      <c r="M15" s="22">
-        <v>3</v>
-      </c>
-      <c r="N15" s="22">
-        <v>3</v>
-      </c>
-      <c r="O15" s="22">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
     </row>
@@ -9639,17 +10016,14 @@
       <c r="B16" s="85"/>
       <c r="C16" s="18"/>
       <c r="D16" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I16" s="12"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
@@ -9662,7 +10036,7 @@
     <row r="17" spans="1:17">
       <c r="A17" s="16"/>
       <c r="B17" s="100" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="12"/>
@@ -9670,10 +10044,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I17" s="12"/>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
@@ -9686,92 +10057,50 @@
     <row r="18" spans="1:17">
       <c r="A18" s="16"/>
       <c r="B18" s="85" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="D18" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>完了</v>
-      </c>
-      <c r="E18" s="4">
-        <v>43032</v>
-      </c>
-      <c r="F18" s="4">
-        <v>43032</v>
-      </c>
-      <c r="G18" s="19">
-        <v>6</v>
-      </c>
-      <c r="H18" s="19">
-        <v>7</v>
-      </c>
-      <c r="I18" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="22">
-        <v>6</v>
-      </c>
-      <c r="K18" s="22">
-        <v>6</v>
-      </c>
-      <c r="L18" s="22">
-        <v>4</v>
-      </c>
-      <c r="M18" s="22">
-        <v>4</v>
-      </c>
-      <c r="N18" s="22">
-        <v>2</v>
-      </c>
-      <c r="O18" s="22">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="22"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="16"/>
       <c r="B19" s="85" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="D19" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>完了</v>
-      </c>
-      <c r="E19" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F19" s="4">
-        <v>43035</v>
-      </c>
-      <c r="G19" s="19">
-        <v>3</v>
-      </c>
-      <c r="H19" s="19">
-        <v>3</v>
-      </c>
-      <c r="I19" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="22">
-        <v>3</v>
-      </c>
-      <c r="K19" s="22">
-        <v>3</v>
-      </c>
-      <c r="L19" s="22">
-        <v>3</v>
-      </c>
-      <c r="M19" s="22">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
@@ -9780,27 +10109,20 @@
     <row r="20" spans="1:17">
       <c r="A20" s="16"/>
       <c r="B20" s="85" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="D20" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E20" s="4">
-        <v>43042</v>
-      </c>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="19">
-        <v>3</v>
-      </c>
+      <c r="G20" s="19"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I20" s="12"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
@@ -9813,27 +10135,20 @@
     <row r="21" spans="1:17">
       <c r="A21" s="16"/>
       <c r="B21" s="85" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="D21" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E21" s="4">
-        <v>43042</v>
-      </c>
+      <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="19">
-        <v>3</v>
-      </c>
+      <c r="G21" s="19"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I21" s="12"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
@@ -9846,143 +10161,78 @@
     <row r="22" spans="1:17">
       <c r="A22" s="16"/>
       <c r="B22" s="85" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="D22" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>完了</v>
-      </c>
-      <c r="E22" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F22" s="4">
-        <v>43035</v>
-      </c>
-      <c r="G22" s="19">
-        <v>3</v>
-      </c>
-      <c r="H22" s="19">
-        <v>2</v>
-      </c>
-      <c r="I22" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="22">
-        <v>3</v>
-      </c>
-      <c r="K22" s="22">
-        <v>3</v>
-      </c>
-      <c r="L22" s="22">
-        <v>3</v>
-      </c>
-      <c r="M22" s="22">
-        <v>1</v>
-      </c>
-      <c r="N22" s="22">
-        <v>1</v>
-      </c>
-      <c r="O22" s="22">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
       <c r="P22" s="22"/>
       <c r="Q22" s="22"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="16"/>
       <c r="B23" s="85" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="D23" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
-      </c>
-      <c r="E23" s="4">
-        <v>43039</v>
-      </c>
-      <c r="F23" s="4">
-        <v>43039</v>
-      </c>
-      <c r="G23" s="19">
-        <v>3</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="19"/>
       <c r="H23" s="19"/>
-      <c r="I23" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J23" s="22">
-        <v>3</v>
-      </c>
-      <c r="K23" s="22">
-        <v>3</v>
-      </c>
-      <c r="L23" s="22">
-        <v>3</v>
-      </c>
-      <c r="M23" s="22">
-        <v>3</v>
-      </c>
-      <c r="N23" s="22">
-        <v>3</v>
-      </c>
-      <c r="O23" s="22">
-        <v>1</v>
-      </c>
+      <c r="I23" s="12"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
       <c r="P23" s="22"/>
       <c r="Q23" s="22"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="16"/>
       <c r="B24" s="85" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="D24" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
-      </c>
-      <c r="E24" s="4">
-        <v>43039</v>
-      </c>
-      <c r="F24" s="4">
-        <v>43039</v>
-      </c>
-      <c r="G24" s="19">
-        <v>3</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="19"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J24" s="22">
-        <v>3</v>
-      </c>
-      <c r="K24" s="22">
-        <v>3</v>
-      </c>
-      <c r="L24" s="22">
-        <v>3</v>
-      </c>
-      <c r="M24" s="22">
-        <v>3</v>
-      </c>
-      <c r="N24" s="22">
-        <v>3</v>
-      </c>
-      <c r="O24" s="22">
-        <v>1</v>
-      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
       <c r="P24" s="22"/>
       <c r="Q24" s="22"/>
     </row>
@@ -9991,17 +10241,14 @@
       <c r="B25" s="85"/>
       <c r="C25" s="18"/>
       <c r="D25" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I25" s="12"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
@@ -10016,17 +10263,14 @@
       <c r="B26" s="85"/>
       <c r="C26" s="18"/>
       <c r="D26" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I26" s="12"/>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
@@ -10039,7 +10283,7 @@
     <row r="27" spans="1:17">
       <c r="A27" s="16"/>
       <c r="B27" s="100" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="12"/>
@@ -10047,10 +10291,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
-      <c r="I27" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I27" s="12"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
@@ -10063,23 +10304,20 @@
     <row r="28" spans="1:17">
       <c r="A28" s="16"/>
       <c r="B28" s="85" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D28" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I28" s="12"/>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
@@ -10092,23 +10330,20 @@
     <row r="29" spans="1:17">
       <c r="A29" s="16"/>
       <c r="B29" s="85" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D29" s="12" t="str">
-        <f>IF(ISBLANK($B29),"",IF(ISBLANK($F29),"未着手",IF($I29=0,"完了","作業中")))</f>
+        <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I29" s="12"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
@@ -10121,40 +10356,23 @@
     <row r="30" spans="1:17">
       <c r="A30" s="16"/>
       <c r="B30" s="85" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="D30" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>完了</v>
-      </c>
-      <c r="E30" s="4">
-        <v>43032</v>
-      </c>
-      <c r="F30" s="4">
-        <v>43032</v>
-      </c>
-      <c r="G30" s="19">
-        <v>2</v>
-      </c>
-      <c r="H30" s="19">
-        <v>2</v>
-      </c>
-      <c r="I30" s="12">
-        <f t="shared" ref="I30" ca="1" si="4">IF(ISBLANK(J30)=FALSE,OFFSET(I30,0,COUNTA(J30:Q30)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="22">
-        <v>2</v>
-      </c>
-      <c r="K30" s="22">
-        <v>2</v>
-      </c>
-      <c r="L30" s="22">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
@@ -10164,25 +10382,20 @@
     <row r="31" spans="1:17">
       <c r="A31" s="16"/>
       <c r="B31" s="85" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D31" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E31" s="4">
-        <v>43046</v>
-      </c>
+      <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
-      <c r="I31" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I31" s="12"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
@@ -10195,29 +10408,20 @@
     <row r="32" spans="1:17">
       <c r="A32" s="16"/>
       <c r="B32" s="85" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D32" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B32),"",IF(ISBLANK($F32),"未着手",IF($I32=0,"完了","作業中")))</f>
-        <v>作業中</v>
-      </c>
-      <c r="E32" s="4">
-        <v>43039</v>
-      </c>
-      <c r="F32" s="4">
-        <v>43039</v>
-      </c>
-      <c r="G32" s="19">
-        <v>2</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="19"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I32" s="12"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
@@ -10230,27 +10434,20 @@
     <row r="33" spans="1:17">
       <c r="A33" s="16"/>
       <c r="B33" s="85" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D33" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E33" s="4">
-        <v>43042</v>
-      </c>
+      <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="19">
-        <v>3</v>
-      </c>
+      <c r="G33" s="19"/>
       <c r="H33" s="19"/>
-      <c r="I33" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I33" s="12"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
@@ -10263,29 +10460,20 @@
     <row r="34" spans="1:17">
       <c r="A34" s="16"/>
       <c r="B34" s="85" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D34" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
-      </c>
-      <c r="E34" s="4">
-        <v>43039</v>
-      </c>
-      <c r="F34" s="4">
-        <v>43039</v>
-      </c>
-      <c r="G34" s="19">
-        <v>1</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="19"/>
       <c r="H34" s="19"/>
-      <c r="I34" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I34" s="12"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
@@ -10300,17 +10488,14 @@
       <c r="B35" s="85"/>
       <c r="C35" s="18"/>
       <c r="D35" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
-      <c r="I35" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I35" s="12"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
@@ -10323,18 +10508,18 @@
     <row r="36" spans="1:17">
       <c r="A36" s="16"/>
       <c r="B36" s="100" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C36" s="18"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I36" s="12"/>
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
@@ -10347,43 +10532,24 @@
     <row r="37" spans="1:17">
       <c r="A37" s="16"/>
       <c r="B37" s="85" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="D37" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>完了</v>
-      </c>
-      <c r="E37" s="4">
-        <v>43032</v>
-      </c>
-      <c r="F37" s="4">
-        <v>43032</v>
-      </c>
-      <c r="G37" s="19">
-        <v>6</v>
-      </c>
-      <c r="H37" s="19">
-        <v>2</v>
-      </c>
-      <c r="I37" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="22">
-        <v>6</v>
-      </c>
-      <c r="K37" s="22">
-        <v>6</v>
-      </c>
-      <c r="L37" s="22">
-        <v>6</v>
-      </c>
-      <c r="M37" s="22">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
@@ -10392,43 +10558,24 @@
     <row r="38" spans="1:17">
       <c r="A38" s="16"/>
       <c r="B38" s="85" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D38" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>完了</v>
-      </c>
-      <c r="E38" s="4">
-        <v>43032</v>
-      </c>
-      <c r="F38" s="4">
-        <v>43032</v>
-      </c>
-      <c r="G38" s="19">
-        <v>6</v>
-      </c>
-      <c r="H38" s="19">
-        <v>2</v>
-      </c>
-      <c r="I38" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="22">
-        <v>6</v>
-      </c>
-      <c r="K38" s="22">
-        <v>6</v>
-      </c>
-      <c r="L38" s="22">
-        <v>6</v>
-      </c>
-      <c r="M38" s="22">
-        <v>0</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
@@ -10437,74 +10584,46 @@
     <row r="39" spans="1:17">
       <c r="A39" s="16"/>
       <c r="B39" s="85" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D39" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
-      </c>
-      <c r="E39" s="4">
-        <v>43032</v>
-      </c>
-      <c r="F39" s="4">
-        <v>43032</v>
-      </c>
-      <c r="G39" s="19">
-        <v>6</v>
-      </c>
-      <c r="H39" s="19">
-        <v>5</v>
-      </c>
-      <c r="I39" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="J39" s="22">
-        <v>6</v>
-      </c>
-      <c r="K39" s="22">
-        <v>6</v>
-      </c>
-      <c r="L39" s="22">
-        <v>6</v>
-      </c>
-      <c r="M39" s="22">
-        <v>3</v>
-      </c>
-      <c r="N39" s="22">
-        <v>2</v>
-      </c>
-      <c r="O39" s="22">
-        <v>2</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
       <c r="P39" s="22"/>
       <c r="Q39" s="22"/>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="16"/>
       <c r="B40" s="85" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D40" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E40" s="4">
-        <v>43032</v>
-      </c>
+      <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I40" s="12"/>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
@@ -10517,49 +10636,26 @@
     <row r="41" spans="1:17">
       <c r="A41" s="16"/>
       <c r="B41" s="85" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D41" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
-      </c>
-      <c r="E41" s="4">
-        <v>43032</v>
-      </c>
-      <c r="F41" s="4">
-        <v>43032</v>
-      </c>
-      <c r="G41" s="19">
-        <v>6</v>
-      </c>
-      <c r="H41" s="19">
-        <v>1</v>
-      </c>
-      <c r="I41" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="J41" s="22">
-        <v>6</v>
-      </c>
-      <c r="K41" s="22">
-        <v>6</v>
-      </c>
-      <c r="L41" s="22">
-        <v>6</v>
-      </c>
-      <c r="M41" s="22">
-        <v>3</v>
-      </c>
-      <c r="N41" s="22">
-        <v>2</v>
-      </c>
-      <c r="O41" s="22">
-        <v>2</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
       <c r="P41" s="22"/>
       <c r="Q41" s="22"/>
     </row>
@@ -10568,17 +10664,14 @@
       <c r="B42" s="85"/>
       <c r="C42" s="18"/>
       <c r="D42" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
-      <c r="I42" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I42" s="12"/>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
@@ -10592,15 +10685,15 @@
       <c r="A43" s="16"/>
       <c r="B43" s="100"/>
       <c r="C43" s="18"/>
-      <c r="D43" s="12"/>
+      <c r="D43" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
-      <c r="I43" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I43" s="12"/>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
@@ -10615,17 +10708,14 @@
       <c r="B44" s="85"/>
       <c r="C44" s="18"/>
       <c r="D44" s="12" t="str">
-        <f t="shared" ref="D44:D51" si="5">IF(ISBLANK($B44),"",IF(ISBLANK($F44),"未着手",IF($I44=0,"完了","作業中")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I44" s="12"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
@@ -10640,17 +10730,14 @@
       <c r="B45" s="85"/>
       <c r="C45" s="18"/>
       <c r="D45" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I45" s="12"/>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
@@ -10665,17 +10752,14 @@
       <c r="B46" s="85"/>
       <c r="C46" s="18"/>
       <c r="D46" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I46" s="12"/>
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
@@ -10690,17 +10774,14 @@
       <c r="B47" s="85"/>
       <c r="C47" s="18"/>
       <c r="D47" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
-      <c r="I47" s="12" t="str">
-        <f ca="1">IF(ISBLANK(J47)=FALSE,OFFSET(I47,0,COUNTA(J47:Q47)),"")</f>
-        <v/>
-      </c>
+      <c r="I47" s="12"/>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
@@ -10715,7 +10796,7 @@
       <c r="B48" s="85"/>
       <c r="C48" s="18"/>
       <c r="D48" s="12" t="str">
-        <f>IF(ISBLANK($B48),"",IF(ISBLANK($F48),"未着手",IF($I48=0,"完了","作業中")))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E48" s="4"/>
@@ -10737,17 +10818,14 @@
       <c r="B49" s="85"/>
       <c r="C49" s="18"/>
       <c r="D49" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I49" s="12"/>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
@@ -10762,17 +10840,14 @@
       <c r="B50" s="85"/>
       <c r="C50" s="18"/>
       <c r="D50" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
-      <c r="I50" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I50" s="12"/>
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
@@ -10787,17 +10862,14 @@
       <c r="B51" s="85"/>
       <c r="C51" s="18"/>
       <c r="D51" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
-      <c r="I51" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v/>
-      </c>
+      <c r="I51" s="12"/>
       <c r="J51" s="22"/>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
@@ -10810,7 +10882,7 @@
     <row r="52" spans="1:17">
       <c r="A52" s="16"/>
       <c r="B52" s="100" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C52" s="18"/>
       <c r="D52" s="12"/>
@@ -10818,10 +10890,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="12" t="str">
-        <f t="shared" ref="I52:I55" ca="1" si="6">IF(ISBLANK(J52)=FALSE,OFFSET(I52,0,COUNTA(J52:Q52)),"")</f>
-        <v/>
-      </c>
+      <c r="I52" s="12"/>
       <c r="J52" s="22"/>
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
@@ -10834,39 +10903,22 @@
     <row r="53" spans="1:17">
       <c r="A53" s="16"/>
       <c r="B53" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>101</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C53" s="18"/>
       <c r="D53" s="12" t="str">
-        <f t="shared" ref="D53:D68" si="7">IF(ISBLANK($B53),"",IF(ISBLANK($F53),"未着手",IF($I53=0,"完了","作業中")))</f>
+        <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E53" s="4">
-        <v>43035</v>
-      </c>
+      <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="19">
-        <v>3</v>
-      </c>
+      <c r="G53" s="19"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J53" s="22">
-        <v>3</v>
-      </c>
-      <c r="K53" s="22">
-        <v>3</v>
-      </c>
-      <c r="L53" s="22">
-        <v>3</v>
-      </c>
-      <c r="M53" s="22">
-        <v>3</v>
-      </c>
+      <c r="I53" s="12"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
       <c r="P53" s="22"/>
@@ -10875,39 +10927,22 @@
     <row r="54" spans="1:17">
       <c r="A54" s="16"/>
       <c r="B54" s="85" t="s">
-        <v>126</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>101</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C54" s="18"/>
       <c r="D54" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E54" s="4">
-        <v>43039</v>
-      </c>
+      <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="19">
-        <v>3</v>
-      </c>
+      <c r="G54" s="19"/>
       <c r="H54" s="19"/>
-      <c r="I54" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J54" s="22">
-        <v>3</v>
-      </c>
-      <c r="K54" s="22">
-        <v>3</v>
-      </c>
-      <c r="L54" s="22">
-        <v>3</v>
-      </c>
-      <c r="M54" s="22">
-        <v>3</v>
-      </c>
+      <c r="I54" s="12"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
       <c r="P54" s="22"/>
@@ -10916,39 +10951,22 @@
     <row r="55" spans="1:17">
       <c r="A55" s="16"/>
       <c r="B55" s="85" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>101</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C55" s="18"/>
       <c r="D55" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="0"/>
         <v>未着手</v>
       </c>
-      <c r="E55" s="4">
-        <v>43042</v>
-      </c>
+      <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="19">
-        <v>3</v>
-      </c>
+      <c r="G55" s="19"/>
       <c r="H55" s="19"/>
-      <c r="I55" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="J55" s="22">
-        <v>3</v>
-      </c>
-      <c r="K55" s="22">
-        <v>3</v>
-      </c>
-      <c r="L55" s="22">
-        <v>3</v>
-      </c>
-      <c r="M55" s="22">
-        <v>3</v>
-      </c>
+      <c r="I55" s="12"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
       <c r="P55" s="22"/>
@@ -10957,43 +10975,22 @@
     <row r="56" spans="1:17">
       <c r="A56" s="16"/>
       <c r="B56" s="85" t="s">
-        <v>108</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>101</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C56" s="18"/>
       <c r="D56" s="12" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>作業中</v>
-      </c>
-      <c r="E56" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F56" s="4">
-        <v>43035</v>
-      </c>
-      <c r="G56" s="19">
-        <v>3</v>
-      </c>
-      <c r="H56" s="19">
-        <v>3</v>
-      </c>
-      <c r="I56" s="12">
-        <f t="shared" ref="I56:I57" ca="1" si="8">IF(ISBLANK(J56)=FALSE,OFFSET(I56,0,COUNTA(J56:Q56)),"")</f>
-        <v>2</v>
-      </c>
-      <c r="J56" s="22">
-        <v>3</v>
-      </c>
-      <c r="K56" s="22">
-        <v>3</v>
-      </c>
-      <c r="L56" s="22">
-        <v>3</v>
-      </c>
-      <c r="M56" s="22">
-        <v>2</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
       <c r="P56" s="22"/>
@@ -11002,39 +10999,25 @@
     <row r="57" spans="1:17">
       <c r="A57" s="16"/>
       <c r="B57" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>101</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C57" s="18"/>
       <c r="D57" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D57:D69" si="1">IF(ISBLANK($B57),"",IF(ISBLANK($F57),"未着手",IF($I57=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
-      <c r="E57" s="4">
-        <v>43039</v>
-      </c>
+      <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="19">
-        <v>3</v>
-      </c>
+      <c r="G57" s="19"/>
       <c r="H57" s="19"/>
-      <c r="I57" s="12">
-        <f t="shared" ca="1" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="J57" s="22">
-        <v>3</v>
-      </c>
-      <c r="K57" s="22">
-        <v>3</v>
-      </c>
-      <c r="L57" s="22">
-        <v>3</v>
-      </c>
-      <c r="M57" s="22">
-        <v>3</v>
-      </c>
+      <c r="I57" s="12" t="str">
+        <f t="shared" ref="I57:I104" ca="1" si="2">IF(ISBLANK(J57)=FALSE,OFFSET(I57,0,COUNTA(J57:Q57)),"")</f>
+        <v/>
+      </c>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
       <c r="N57" s="22"/>
       <c r="O57" s="22"/>
       <c r="P57" s="22"/>
@@ -11043,43 +11026,25 @@
     <row r="58" spans="1:17">
       <c r="A58" s="16"/>
       <c r="B58" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>101</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C58" s="18"/>
       <c r="D58" s="12" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>作業中</v>
-      </c>
-      <c r="E58" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F58" s="4">
-        <v>43035</v>
-      </c>
-      <c r="G58" s="19">
-        <v>3</v>
-      </c>
-      <c r="H58" s="19">
-        <v>2</v>
-      </c>
-      <c r="I58" s="12">
-        <f ca="1">IF(ISBLANK(J58)=FALSE,OFFSET(I58,0,COUNTA(J58:Q58)),"")</f>
-        <v>2</v>
-      </c>
-      <c r="J58" s="22">
-        <v>3</v>
-      </c>
-      <c r="K58" s="22">
-        <v>3</v>
-      </c>
-      <c r="L58" s="22">
-        <v>3</v>
-      </c>
-      <c r="M58" s="22">
-        <v>2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>未着手</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
       <c r="N58" s="22"/>
       <c r="O58" s="22"/>
       <c r="P58" s="22"/>
@@ -11088,43 +11053,25 @@
     <row r="59" spans="1:17">
       <c r="A59" s="16"/>
       <c r="B59" s="85" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>101</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C59" s="18"/>
       <c r="D59" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B59),"",IF(ISBLANK($F59),"未着手",IF($I59=0,"完了","作業中")))</f>
-        <v>完了</v>
-      </c>
-      <c r="E59" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F59" s="4">
-        <v>43035</v>
-      </c>
-      <c r="G59" s="19">
-        <v>3</v>
-      </c>
-      <c r="H59" s="19">
-        <v>3</v>
-      </c>
-      <c r="I59" s="12">
-        <f ca="1">IF(ISBLANK(J59)=FALSE,OFFSET(I59,0,COUNTA(J59:Q59)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="22">
-        <v>3</v>
-      </c>
-      <c r="K59" s="22">
-        <v>3</v>
-      </c>
-      <c r="L59" s="22">
-        <v>3</v>
-      </c>
-      <c r="M59" s="22">
-        <v>0</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>未着手</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
       <c r="N59" s="22"/>
       <c r="O59" s="22"/>
       <c r="P59" s="22"/>
@@ -11133,39 +11080,25 @@
     <row r="60" spans="1:17">
       <c r="A60" s="16"/>
       <c r="B60" s="85" t="s">
-        <v>130</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>122</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C60" s="18"/>
       <c r="D60" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
-      <c r="E60" s="4">
-        <v>43039</v>
-      </c>
+      <c r="E60" s="4"/>
       <c r="F60" s="4"/>
-      <c r="G60" s="19">
-        <v>1</v>
-      </c>
+      <c r="G60" s="19"/>
       <c r="H60" s="19"/>
-      <c r="I60" s="12">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="J60" s="22">
-        <v>1</v>
-      </c>
-      <c r="K60" s="22">
-        <v>1</v>
-      </c>
-      <c r="L60" s="22">
-        <v>1</v>
-      </c>
-      <c r="M60" s="22">
-        <v>1</v>
-      </c>
+      <c r="I60" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
       <c r="N60" s="22"/>
       <c r="O60" s="22"/>
       <c r="P60" s="22"/>
@@ -11176,7 +11109,7 @@
       <c r="B61" s="85"/>
       <c r="C61" s="18"/>
       <c r="D61" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E61" s="4"/>
@@ -11184,7 +11117,7 @@
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
       <c r="I61" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J61" s="22"/>
@@ -11200,12 +11133,18 @@
       <c r="A62" s="16"/>
       <c r="B62" s="85"/>
       <c r="C62" s="18"/>
-      <c r="D62" s="12"/>
+      <c r="D62" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="19"/>
       <c r="H62" s="19"/>
-      <c r="I62" s="12"/>
+      <c r="I62" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
@@ -11219,12 +11158,18 @@
       <c r="A63" s="16"/>
       <c r="B63" s="85"/>
       <c r="C63" s="18"/>
-      <c r="D63" s="12"/>
+      <c r="D63" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
-      <c r="I63" s="12"/>
+      <c r="I63" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
       <c r="J63" s="22"/>
       <c r="K63" s="22"/>
       <c r="L63" s="22"/>
@@ -11237,143 +11182,81 @@
     <row r="64" spans="1:17">
       <c r="A64" s="16"/>
       <c r="B64" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>100</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C64" s="18"/>
       <c r="D64" s="12" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>完了</v>
-      </c>
-      <c r="E64" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F64" s="4">
-        <v>43035</v>
-      </c>
-      <c r="G64" s="19">
-        <v>3</v>
-      </c>
-      <c r="H64" s="19">
-        <v>3</v>
-      </c>
-      <c r="I64" s="12">
-        <f t="shared" ref="I64:I66" ca="1" si="9">IF(ISBLANK(J64)=FALSE,OFFSET(I64,0,COUNTA(J64:Q64)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="J64" s="22">
-        <v>3</v>
-      </c>
-      <c r="K64" s="22">
-        <v>3</v>
-      </c>
-      <c r="L64" s="22">
-        <v>3</v>
-      </c>
-      <c r="M64" s="22">
-        <v>3</v>
-      </c>
-      <c r="N64" s="22">
-        <v>0</v>
-      </c>
-      <c r="O64" s="22">
-        <v>0</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>未着手</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
       <c r="P64" s="22"/>
       <c r="Q64" s="22"/>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="16"/>
       <c r="B65" s="85" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>100</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C65" s="18"/>
       <c r="D65" s="12" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>完了</v>
-      </c>
-      <c r="E65" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F65" s="4">
-        <v>43036</v>
-      </c>
-      <c r="G65" s="19">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>未着手</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="19"/>
       <c r="H65" s="19"/>
-      <c r="I65" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="22">
-        <v>3</v>
-      </c>
-      <c r="K65" s="22">
-        <v>3</v>
-      </c>
-      <c r="L65" s="22">
-        <v>3</v>
-      </c>
-      <c r="M65" s="22">
-        <v>3</v>
-      </c>
-      <c r="N65" s="22">
-        <v>3</v>
-      </c>
-      <c r="O65" s="22">
-        <v>0</v>
-      </c>
+      <c r="I65" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
       <c r="P65" s="22"/>
       <c r="Q65" s="22"/>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="16"/>
       <c r="B66" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>100</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C66" s="18"/>
       <c r="D66" s="12" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>完了</v>
-      </c>
-      <c r="E66" s="4">
-        <v>43035</v>
-      </c>
-      <c r="F66" s="4">
-        <v>43037</v>
-      </c>
-      <c r="G66" s="19">
-        <v>3</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>未着手</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="19"/>
       <c r="H66" s="19"/>
-      <c r="I66" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="22">
-        <v>3</v>
-      </c>
-      <c r="K66" s="22">
-        <v>3</v>
-      </c>
-      <c r="L66" s="22">
-        <v>3</v>
-      </c>
-      <c r="M66" s="22">
-        <v>3</v>
-      </c>
-      <c r="N66" s="22">
-        <v>3</v>
-      </c>
-      <c r="O66" s="22">
-        <v>0</v>
-      </c>
+      <c r="I66" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
       <c r="P66" s="22"/>
       <c r="Q66" s="22"/>
     </row>
@@ -11382,7 +11265,7 @@
       <c r="B67" s="17"/>
       <c r="C67" s="18"/>
       <c r="D67" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E67" s="4"/>
@@ -11390,7 +11273,7 @@
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
       <c r="I67" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J67" s="22"/>
@@ -11407,7 +11290,7 @@
       <c r="B68" s="17"/>
       <c r="C68" s="18"/>
       <c r="D68" s="12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E68" s="4"/>
@@ -11415,7 +11298,7 @@
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
       <c r="I68" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J68" s="22"/>
@@ -11432,7 +11315,7 @@
       <c r="B69" s="17"/>
       <c r="C69" s="18"/>
       <c r="D69" s="12" t="str">
-        <f t="shared" ref="D69:D103" si="10">IF(ISBLANK($B69),"",IF(ISBLANK($F69),"未着手",IF($I69=0,"完了","作業中")))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E69" s="4"/>
@@ -11440,7 +11323,7 @@
       <c r="G69" s="19"/>
       <c r="H69" s="19"/>
       <c r="I69" s="12" t="str">
-        <f t="shared" ref="I69:I103" ca="1" si="11">IF(ISBLANK(J69)=FALSE,OFFSET(I69,0,COUNTA(J69:Q69)),"")</f>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J69" s="22"/>
@@ -11454,18 +11337,17 @@
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="16"/>
-      <c r="B70" s="17"/>
+      <c r="B70" s="100" t="s">
+        <v>131</v>
+      </c>
       <c r="C70" s="18"/>
-      <c r="D70" s="12" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
+      <c r="D70" s="12"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="19"/>
       <c r="H70" s="19"/>
       <c r="I70" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J70" s="22"/>
@@ -11479,18 +11361,22 @@
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="16"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18"/>
+      <c r="B71" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>123</v>
+      </c>
       <c r="D71" s="12" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+        <f t="shared" ref="D71:D104" si="3">IF(ISBLANK($B71),"",IF(ISBLANK($F71),"未着手",IF($I71=0,"完了","作業中")))</f>
+        <v>未着手</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="19"/>
       <c r="H71" s="19"/>
       <c r="I71" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J71" s="22"/>
@@ -11504,18 +11390,22 @@
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="16"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
+      <c r="B72" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>132</v>
+      </c>
       <c r="D72" s="12" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="19"/>
       <c r="H72" s="19"/>
       <c r="I72" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J72" s="22"/>
@@ -11529,18 +11419,22 @@
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="16"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="18"/>
+      <c r="B73" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>132</v>
+      </c>
       <c r="D73" s="12" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="19"/>
       <c r="H73" s="19"/>
       <c r="I73" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J73" s="22"/>
@@ -11554,18 +11448,22 @@
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="16"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="18"/>
+      <c r="B74" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>132</v>
+      </c>
       <c r="D74" s="12" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
       <c r="I74" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J74" s="22"/>
@@ -11579,18 +11477,22 @@
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="16"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="18"/>
+      <c r="B75" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>121</v>
+      </c>
       <c r="D75" s="12" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="19"/>
       <c r="H75" s="19"/>
       <c r="I75" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J75" s="22"/>
@@ -11604,18 +11506,22 @@
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="16"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
+      <c r="B76" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="D76" s="12" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="19"/>
       <c r="H76" s="19"/>
       <c r="I76" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J76" s="22"/>
@@ -11632,7 +11538,7 @@
       <c r="B77" s="17"/>
       <c r="C77" s="18"/>
       <c r="D77" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E77" s="4"/>
@@ -11640,7 +11546,7 @@
       <c r="G77" s="19"/>
       <c r="H77" s="19"/>
       <c r="I77" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J77" s="22"/>
@@ -11657,7 +11563,7 @@
       <c r="B78" s="17"/>
       <c r="C78" s="18"/>
       <c r="D78" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E78" s="4"/>
@@ -11665,7 +11571,7 @@
       <c r="G78" s="19"/>
       <c r="H78" s="19"/>
       <c r="I78" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J78" s="22"/>
@@ -11682,7 +11588,7 @@
       <c r="B79" s="17"/>
       <c r="C79" s="18"/>
       <c r="D79" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E79" s="4"/>
@@ -11690,7 +11596,7 @@
       <c r="G79" s="19"/>
       <c r="H79" s="19"/>
       <c r="I79" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J79" s="22"/>
@@ -11707,7 +11613,7 @@
       <c r="B80" s="17"/>
       <c r="C80" s="18"/>
       <c r="D80" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E80" s="4"/>
@@ -11715,7 +11621,7 @@
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
       <c r="I80" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J80" s="22"/>
@@ -11732,7 +11638,7 @@
       <c r="B81" s="17"/>
       <c r="C81" s="18"/>
       <c r="D81" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E81" s="4"/>
@@ -11740,7 +11646,7 @@
       <c r="G81" s="19"/>
       <c r="H81" s="19"/>
       <c r="I81" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J81" s="22"/>
@@ -11757,7 +11663,7 @@
       <c r="B82" s="17"/>
       <c r="C82" s="18"/>
       <c r="D82" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E82" s="4"/>
@@ -11765,7 +11671,7 @@
       <c r="G82" s="19"/>
       <c r="H82" s="19"/>
       <c r="I82" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J82" s="22"/>
@@ -11782,7 +11688,7 @@
       <c r="B83" s="17"/>
       <c r="C83" s="18"/>
       <c r="D83" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E83" s="4"/>
@@ -11790,7 +11696,7 @@
       <c r="G83" s="19"/>
       <c r="H83" s="19"/>
       <c r="I83" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J83" s="22"/>
@@ -11807,7 +11713,7 @@
       <c r="B84" s="17"/>
       <c r="C84" s="18"/>
       <c r="D84" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E84" s="4"/>
@@ -11815,7 +11721,7 @@
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
       <c r="I84" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J84" s="22"/>
@@ -11832,7 +11738,7 @@
       <c r="B85" s="17"/>
       <c r="C85" s="18"/>
       <c r="D85" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E85" s="4"/>
@@ -11840,7 +11746,7 @@
       <c r="G85" s="19"/>
       <c r="H85" s="19"/>
       <c r="I85" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J85" s="22"/>
@@ -11857,7 +11763,7 @@
       <c r="B86" s="17"/>
       <c r="C86" s="18"/>
       <c r="D86" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E86" s="4"/>
@@ -11865,7 +11771,7 @@
       <c r="G86" s="19"/>
       <c r="H86" s="19"/>
       <c r="I86" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J86" s="22"/>
@@ -11882,7 +11788,7 @@
       <c r="B87" s="17"/>
       <c r="C87" s="18"/>
       <c r="D87" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E87" s="4"/>
@@ -11890,7 +11796,7 @@
       <c r="G87" s="19"/>
       <c r="H87" s="19"/>
       <c r="I87" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J87" s="22"/>
@@ -11907,7 +11813,7 @@
       <c r="B88" s="17"/>
       <c r="C88" s="18"/>
       <c r="D88" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E88" s="4"/>
@@ -11915,7 +11821,7 @@
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
       <c r="I88" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J88" s="22"/>
@@ -11932,7 +11838,7 @@
       <c r="B89" s="17"/>
       <c r="C89" s="18"/>
       <c r="D89" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E89" s="4"/>
@@ -11940,7 +11846,7 @@
       <c r="G89" s="19"/>
       <c r="H89" s="19"/>
       <c r="I89" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J89" s="22"/>
@@ -11957,7 +11863,7 @@
       <c r="B90" s="17"/>
       <c r="C90" s="18"/>
       <c r="D90" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E90" s="4"/>
@@ -11965,7 +11871,7 @@
       <c r="G90" s="19"/>
       <c r="H90" s="19"/>
       <c r="I90" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J90" s="22"/>
@@ -11982,7 +11888,7 @@
       <c r="B91" s="17"/>
       <c r="C91" s="18"/>
       <c r="D91" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E91" s="4"/>
@@ -11990,7 +11896,7 @@
       <c r="G91" s="19"/>
       <c r="H91" s="19"/>
       <c r="I91" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J91" s="22"/>
@@ -12007,7 +11913,7 @@
       <c r="B92" s="17"/>
       <c r="C92" s="18"/>
       <c r="D92" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E92" s="4"/>
@@ -12015,7 +11921,7 @@
       <c r="G92" s="19"/>
       <c r="H92" s="19"/>
       <c r="I92" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J92" s="22"/>
@@ -12032,7 +11938,7 @@
       <c r="B93" s="17"/>
       <c r="C93" s="18"/>
       <c r="D93" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E93" s="4"/>
@@ -12040,7 +11946,7 @@
       <c r="G93" s="19"/>
       <c r="H93" s="19"/>
       <c r="I93" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J93" s="22"/>
@@ -12057,7 +11963,7 @@
       <c r="B94" s="17"/>
       <c r="C94" s="18"/>
       <c r="D94" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E94" s="4"/>
@@ -12065,7 +11971,7 @@
       <c r="G94" s="19"/>
       <c r="H94" s="19"/>
       <c r="I94" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J94" s="22"/>
@@ -12082,7 +11988,7 @@
       <c r="B95" s="17"/>
       <c r="C95" s="18"/>
       <c r="D95" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E95" s="4"/>
@@ -12090,7 +11996,7 @@
       <c r="G95" s="19"/>
       <c r="H95" s="19"/>
       <c r="I95" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J95" s="22"/>
@@ -12107,7 +12013,7 @@
       <c r="B96" s="17"/>
       <c r="C96" s="18"/>
       <c r="D96" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E96" s="4"/>
@@ -12115,7 +12021,7 @@
       <c r="G96" s="19"/>
       <c r="H96" s="19"/>
       <c r="I96" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J96" s="22"/>
@@ -12132,7 +12038,7 @@
       <c r="B97" s="17"/>
       <c r="C97" s="18"/>
       <c r="D97" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E97" s="4"/>
@@ -12140,7 +12046,7 @@
       <c r="G97" s="19"/>
       <c r="H97" s="19"/>
       <c r="I97" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J97" s="22"/>
@@ -12157,7 +12063,7 @@
       <c r="B98" s="17"/>
       <c r="C98" s="18"/>
       <c r="D98" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E98" s="4"/>
@@ -12165,7 +12071,7 @@
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
       <c r="I98" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J98" s="22"/>
@@ -12182,7 +12088,7 @@
       <c r="B99" s="17"/>
       <c r="C99" s="18"/>
       <c r="D99" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E99" s="4"/>
@@ -12190,7 +12096,7 @@
       <c r="G99" s="19"/>
       <c r="H99" s="19"/>
       <c r="I99" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J99" s="22"/>
@@ -12207,7 +12113,7 @@
       <c r="B100" s="17"/>
       <c r="C100" s="18"/>
       <c r="D100" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E100" s="4"/>
@@ -12215,7 +12121,7 @@
       <c r="G100" s="19"/>
       <c r="H100" s="19"/>
       <c r="I100" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J100" s="22"/>
@@ -12232,7 +12138,7 @@
       <c r="B101" s="17"/>
       <c r="C101" s="18"/>
       <c r="D101" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E101" s="4"/>
@@ -12240,7 +12146,7 @@
       <c r="G101" s="19"/>
       <c r="H101" s="19"/>
       <c r="I101" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J101" s="22"/>
@@ -12257,7 +12163,7 @@
       <c r="B102" s="17"/>
       <c r="C102" s="18"/>
       <c r="D102" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E102" s="4"/>
@@ -12265,7 +12171,7 @@
       <c r="G102" s="19"/>
       <c r="H102" s="19"/>
       <c r="I102" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J102" s="22"/>
@@ -12282,7 +12188,7 @@
       <c r="B103" s="17"/>
       <c r="C103" s="18"/>
       <c r="D103" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E103" s="4"/>
@@ -12290,7 +12196,7 @@
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
       <c r="I103" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J103" s="22"/>
@@ -12302,17 +12208,32 @@
       <c r="P103" s="22"/>
       <c r="Q103" s="22"/>
     </row>
-    <row r="104" spans="1:24" ht="10.5" customHeight="1">
-      <c r="J104" s="6"/>
-      <c r="K104" s="6"/>
-      <c r="L104" s="6"/>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
-      <c r="O104" s="6"/>
-      <c r="P104" s="6"/>
-      <c r="Q104" s="6"/>
-    </row>
-    <row r="105" spans="1:24">
+    <row r="104" spans="1:24">
+      <c r="A104" s="16"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="J104" s="22"/>
+      <c r="K104" s="22"/>
+      <c r="L104" s="22"/>
+      <c r="M104" s="22"/>
+      <c r="N104" s="22"/>
+      <c r="O104" s="22"/>
+      <c r="P104" s="22"/>
+      <c r="Q104" s="22"/>
+    </row>
+    <row r="105" spans="1:24" ht="10.5" customHeight="1">
       <c r="J105" s="6"/>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
@@ -12321,24 +12242,6 @@
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
-      <c r="S105" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="T105" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="U105" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="V105" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="W105" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="X105" s="13" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="106" spans="1:24">
       <c r="J106" s="6"/>
@@ -12349,28 +12252,23 @@
       <c r="O106" s="6"/>
       <c r="P106" s="6"/>
       <c r="Q106" s="6"/>
-      <c r="S106" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="T106" s="10">
-        <f t="shared" ref="T106:T115" si="12">SUMIF($C$5:$C$103,S106,$G$5:$G$103)</f>
-        <v>24</v>
-      </c>
-      <c r="U106" s="10">
-        <f t="shared" ref="U106:U115" ca="1" si="13">SUMIF($C$5:$C$103,S106,$I$5:$I$103)</f>
-        <v>2</v>
-      </c>
-      <c r="V106" s="10">
-        <f t="shared" ref="V106:V115" si="14">SUMIF($C$5:$C$103,S106,$H$5:$H$103)</f>
+      <c r="S106" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="T106" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="U106" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="V106" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="W106" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="W106" s="14">
-        <f t="shared" ref="W106:W115" si="15">COUNTA($J$2:$Q$2)*6-COUNTA($J$4:$Q$4)*6</f>
-        <v>0</v>
-      </c>
-      <c r="X106" s="15">
-        <f ca="1">IF(W106&gt;U106,0,U106-W106)</f>
-        <v>2</v>
+      <c r="X106" s="13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:24">
@@ -12382,28 +12280,26 @@
       <c r="O107" s="6"/>
       <c r="P107" s="6"/>
       <c r="Q107" s="6"/>
-      <c r="S107" s="11" t="s">
-        <v>115</v>
-      </c>
+      <c r="S107" s="11"/>
       <c r="T107" s="10">
-        <f t="shared" si="12"/>
-        <v>24</v>
+        <f t="shared" ref="T107:T116" si="4">SUMIF($C$5:$C$104,S107,$G$5:$G$104)</f>
+        <v>0</v>
       </c>
       <c r="U107" s="10">
-        <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <f t="shared" ref="U107:U116" si="5">SUMIF($C$5:$C$104,S107,$I$5:$I$104)</f>
+        <v>0</v>
       </c>
       <c r="V107" s="10">
-        <f t="shared" si="14"/>
-        <v>10</v>
+        <f t="shared" ref="V107:V116" si="6">SUMIF($C$5:$C$104,S107,$H$5:$H$104)</f>
+        <v>0</v>
       </c>
       <c r="W107" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="W107:W116" si="7">COUNTA($J$2:$Q$2)*6-COUNTA($J$4:$Q$4)*6</f>
+        <v>42</v>
+      </c>
+      <c r="X107" s="15">
+        <f>IF(W107&gt;U107,0,U107-W107)</f>
         <v>0</v>
-      </c>
-      <c r="X107" s="15">
-        <f t="shared" ref="X107:X115" ca="1" si="16">IF(W107&gt;U107,0,U107-W107)</f>
-        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:24">
@@ -12415,28 +12311,26 @@
       <c r="O108" s="6"/>
       <c r="P108" s="6"/>
       <c r="Q108" s="6"/>
-      <c r="S108" s="11" t="s">
-        <v>124</v>
-      </c>
+      <c r="S108" s="11"/>
       <c r="T108" s="10">
-        <f t="shared" si="12"/>
-        <v>22</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="U108" s="10">
-        <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="V108" s="10">
-        <f t="shared" si="14"/>
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="W108" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="X108" s="15">
+        <f t="shared" ref="X108:X116" si="8">IF(W108&gt;U108,0,U108-W108)</f>
         <v>0</v>
-      </c>
-      <c r="X108" s="15">
-        <f t="shared" ca="1" si="16"/>
-        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:24">
@@ -12448,27 +12342,25 @@
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
       <c r="Q109" s="6"/>
-      <c r="S109" s="11" t="s">
-        <v>118</v>
-      </c>
+      <c r="S109" s="11"/>
       <c r="T109" s="10">
-        <f t="shared" si="12"/>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="U109" s="10">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V109" s="10">
-        <f t="shared" si="14"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="W109" s="14">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>42</v>
       </c>
       <c r="X109" s="15">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12481,28 +12373,26 @@
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
-      <c r="S110" s="11" t="s">
-        <v>122</v>
-      </c>
+      <c r="S110" s="11"/>
       <c r="T110" s="10">
-        <f t="shared" si="12"/>
-        <v>22</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="U110" s="10">
-        <f t="shared" ca="1" si="13"/>
-        <v>17</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="V110" s="10">
-        <f t="shared" si="14"/>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="W110" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="X110" s="15">
+        <f t="shared" si="8"/>
         <v>0</v>
-      </c>
-      <c r="X110" s="15">
-        <f t="shared" ca="1" si="16"/>
-        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:24">
@@ -12514,27 +12404,25 @@
       <c r="O111" s="6"/>
       <c r="P111" s="6"/>
       <c r="Q111" s="6"/>
-      <c r="S111" s="11" t="s">
-        <v>125</v>
-      </c>
+      <c r="S111" s="11"/>
       <c r="T111" s="10">
-        <f t="shared" si="12"/>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="U111" s="10">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V111" s="10">
-        <f t="shared" si="14"/>
-        <v>3</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="W111" s="14">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>42</v>
       </c>
       <c r="X111" s="15">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12549,23 +12437,23 @@
       <c r="Q112" s="6"/>
       <c r="S112" s="11"/>
       <c r="T112" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U112" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V112" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W112" s="14">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>42</v>
       </c>
       <c r="X112" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12580,23 +12468,23 @@
       <c r="Q113" s="6"/>
       <c r="S113" s="11"/>
       <c r="T113" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U113" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V113" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W113" s="14">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>42</v>
       </c>
       <c r="X113" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12611,23 +12499,23 @@
       <c r="Q114" s="6"/>
       <c r="S114" s="11"/>
       <c r="T114" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U114" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V114" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W114" s="14">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>42</v>
       </c>
       <c r="X114" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12642,23 +12530,23 @@
       <c r="Q115" s="6"/>
       <c r="S115" s="11"/>
       <c r="T115" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U115" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V115" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W115" s="14">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>42</v>
       </c>
       <c r="X115" s="15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12671,6 +12559,27 @@
       <c r="O116" s="6"/>
       <c r="P116" s="6"/>
       <c r="Q116" s="6"/>
+      <c r="S116" s="11"/>
+      <c r="T116" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U116" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V116" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W116" s="14">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="X116" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="10:24">
       <c r="J117" s="6"/>
@@ -13381,6 +13290,16 @@
       <c r="O187" s="6"/>
       <c r="P187" s="6"/>
       <c r="Q187" s="6"/>
+    </row>
+    <row r="188" spans="10:17">
+      <c r="J188" s="6"/>
+      <c r="K188" s="6"/>
+      <c r="L188" s="6"/>
+      <c r="M188" s="6"/>
+      <c r="N188" s="6"/>
+      <c r="O188" s="6"/>
+      <c r="P188" s="6"/>
+      <c r="Q188" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -13396,59 +13315,81 @@
     <mergeCell ref="H1:H4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="D104:D65535">
-    <cfRule type="expression" dxfId="47" priority="1" stopIfTrue="1">
-      <formula>D104="未着手"</formula>
+  <conditionalFormatting sqref="D105:D65536">
+    <cfRule type="expression" dxfId="86" priority="7" stopIfTrue="1">
+      <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="2" stopIfTrue="1">
-      <formula>D104="作業中"</formula>
+    <cfRule type="expression" dxfId="85" priority="8" stopIfTrue="1">
+      <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="3" stopIfTrue="1">
-      <formula>OR(D104="終了",D104="完了")</formula>
+    <cfRule type="expression" dxfId="84" priority="9" stopIfTrue="1">
+      <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:XFD103">
-    <cfRule type="expression" dxfId="44" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="A67:XFD69 A5:A66 A77:XFD104 A70:A76 D70:XFD76 C5:XFD66">
+    <cfRule type="expression" dxfId="83" priority="10" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="11" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="12" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B104:B65535">
-    <cfRule type="expression" dxfId="41" priority="7" stopIfTrue="1">
-      <formula>D104="未着手"</formula>
+  <conditionalFormatting sqref="B105:B65536">
+    <cfRule type="expression" dxfId="80" priority="13" stopIfTrue="1">
+      <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="8" stopIfTrue="1">
-      <formula>D104="作業中"</formula>
+    <cfRule type="expression" dxfId="79" priority="14" stopIfTrue="1">
+      <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="9" stopIfTrue="1">
-      <formula>OR(D104="終了",D104="完了")</formula>
+    <cfRule type="expression" dxfId="78" priority="15" stopIfTrue="1">
+      <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C104:C65535">
-    <cfRule type="expression" dxfId="38" priority="10" stopIfTrue="1">
-      <formula>D104="未着手"</formula>
+  <conditionalFormatting sqref="C105:C65536">
+    <cfRule type="expression" dxfId="77" priority="16" stopIfTrue="1">
+      <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="11" stopIfTrue="1">
-      <formula>D104="作業中"</formula>
+    <cfRule type="expression" dxfId="76" priority="17" stopIfTrue="1">
+      <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="12" stopIfTrue="1">
-      <formula>OR(D104="終了",D104="完了")</formula>
+    <cfRule type="expression" dxfId="75" priority="18" stopIfTrue="1">
+      <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E104:Q65535">
-    <cfRule type="expression" dxfId="35" priority="13" stopIfTrue="1">
-      <formula>$D104="未着手"</formula>
+  <conditionalFormatting sqref="E105:Q65536">
+    <cfRule type="expression" dxfId="74" priority="19" stopIfTrue="1">
+      <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="14" stopIfTrue="1">
-      <formula>$D104="作業中"</formula>
+    <cfRule type="expression" dxfId="73" priority="20" stopIfTrue="1">
+      <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="15" stopIfTrue="1">
-      <formula>OR($D104="終了",$D104="完了")</formula>
+    <cfRule type="expression" dxfId="72" priority="21" stopIfTrue="1">
+      <formula>OR($D105="終了",$D105="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B66">
+    <cfRule type="expression" dxfId="71" priority="4" stopIfTrue="1">
+      <formula>$D5="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="5" stopIfTrue="1">
+      <formula>$D5="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="6" stopIfTrue="1">
+      <formula>OR($D5="終了",$D5="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70:C76">
+    <cfRule type="expression" dxfId="68" priority="1" stopIfTrue="1">
+      <formula>$D70="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="2" stopIfTrue="1">
+      <formula>$D70="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="3" stopIfTrue="1">
+      <formula>OR($D70="終了",$D70="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -13463,14 +13404,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z188"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="27" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
     <col min="5" max="6" width="6.875" style="5" customWidth="1"/>
@@ -13616,7 +13558,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="16"/>
-      <c r="B5" s="85"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="18"/>
       <c r="D5" s="12"/>
       <c r="E5" s="4"/>
@@ -13637,14 +13579,28 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="16"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="12" t="str">
+        <f>IF(ISBLANK($B6),"",IF(ISBLANK($F6),"未着手",IF($I6=0,"完了","作業中")))</f>
+        <v>未着手</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43081</v>
+      </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="19"/>
+      <c r="G6" s="19">
+        <v>4</v>
+      </c>
       <c r="H6" s="19"/>
-      <c r="I6" s="12"/>
+      <c r="I6" s="12" t="str">
+        <f ca="1">IF(ISBLANK(J6)=FALSE,OFFSET(I6,0,COUNTA(J6:Q6)),"")</f>
+        <v/>
+      </c>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
@@ -13658,14 +13614,30 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="16"/>
-      <c r="B7" s="85"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="19"/>
+      <c r="B7" s="86" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="12" t="str">
+        <f t="shared" ref="D7:D70" ca="1" si="0">IF(ISBLANK($B7),"",IF(ISBLANK($F7),"未着手",IF($I7=0,"完了","作業中")))</f>
+        <v>作業中</v>
+      </c>
+      <c r="E7" s="4">
+        <v>43049</v>
+      </c>
+      <c r="F7" s="4">
+        <v>43049</v>
+      </c>
+      <c r="G7" s="19">
+        <v>2</v>
+      </c>
       <c r="H7" s="19"/>
-      <c r="I7" s="12"/>
+      <c r="I7" s="12" t="str">
+        <f t="shared" ref="I7:I70" ca="1" si="1">IF(ISBLANK(J7)=FALSE,OFFSET(I7,0,COUNTA(J7:Q7)),"")</f>
+        <v/>
+      </c>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
@@ -13679,14 +13651,30 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="16"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="19"/>
+      <c r="B8" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>作業中</v>
+      </c>
+      <c r="E8" s="4">
+        <v>43049</v>
+      </c>
+      <c r="F8" s="4">
+        <v>43049</v>
+      </c>
+      <c r="G8" s="19">
+        <v>1</v>
+      </c>
       <c r="H8" s="19"/>
-      <c r="I8" s="12"/>
+      <c r="I8" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
@@ -13700,14 +13688,28 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="16"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E9" s="4">
+        <v>43060</v>
+      </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="19"/>
+      <c r="G9" s="19">
+        <v>5</v>
+      </c>
       <c r="H9" s="19"/>
-      <c r="I9" s="12"/>
+      <c r="I9" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
@@ -13721,14 +13723,28 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="16"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E10" s="4">
+        <v>43053</v>
+      </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="19"/>
+      <c r="G10" s="19">
+        <v>2</v>
+      </c>
       <c r="H10" s="19"/>
-      <c r="I10" s="12"/>
+      <c r="I10" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
@@ -13742,14 +13758,30 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="16"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="19"/>
+      <c r="B11" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>作業中</v>
+      </c>
+      <c r="E11" s="4">
+        <v>43049</v>
+      </c>
+      <c r="F11" s="4">
+        <v>43049</v>
+      </c>
+      <c r="G11" s="19">
+        <v>6</v>
+      </c>
       <c r="H11" s="19"/>
-      <c r="I11" s="12"/>
+      <c r="I11" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
@@ -13763,14 +13795,28 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="16"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="4"/>
+      <c r="B12" s="85" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E12" s="4">
+        <v>43063</v>
+      </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="19"/>
+      <c r="G12" s="19">
+        <v>6</v>
+      </c>
       <c r="H12" s="19"/>
-      <c r="I12" s="12"/>
+      <c r="I12" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
@@ -13786,12 +13832,18 @@
       <c r="A13" s="16"/>
       <c r="B13" s="85"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="12"/>
+      <c r="I13" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
@@ -13805,14 +13857,28 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="16"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="4"/>
+      <c r="B14" s="85" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E14" s="4">
+        <v>43067</v>
+      </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="19"/>
+      <c r="G14" s="19">
+        <v>3</v>
+      </c>
       <c r="H14" s="19"/>
-      <c r="I14" s="12"/>
+      <c r="I14" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
@@ -13826,14 +13892,28 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="16"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="85" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E15" s="4">
+        <v>43056</v>
+      </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="19"/>
+      <c r="G15" s="19">
+        <v>4</v>
+      </c>
       <c r="H15" s="19"/>
-      <c r="I15" s="12"/>
+      <c r="I15" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
@@ -13847,14 +13927,28 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="16"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="4"/>
+      <c r="B16" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E16" s="4">
+        <v>43067</v>
+      </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="19"/>
+      <c r="G16" s="19">
+        <v>3</v>
+      </c>
       <c r="H16" s="19"/>
-      <c r="I16" s="12"/>
+      <c r="I16" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
@@ -13868,14 +13962,28 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="16"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E17" s="4">
+        <v>43053</v>
+      </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="19"/>
+      <c r="G17" s="19">
+        <v>6</v>
+      </c>
       <c r="H17" s="19"/>
-      <c r="I17" s="12"/>
+      <c r="I17" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
@@ -13891,12 +13999,18 @@
       <c r="A18" s="16"/>
       <c r="B18" s="85"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="12"/>
+      <c r="I18" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
@@ -13910,14 +14024,28 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="16"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="4"/>
+      <c r="B19" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E19" s="4">
+        <v>43053</v>
+      </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="19"/>
+      <c r="G19" s="19">
+        <v>3</v>
+      </c>
       <c r="H19" s="19"/>
-      <c r="I19" s="12"/>
+      <c r="I19" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J19" s="22"/>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
@@ -13931,14 +14059,28 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="16"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="4"/>
+      <c r="B20" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E20" s="4">
+        <v>43053</v>
+      </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="19"/>
+      <c r="G20" s="19">
+        <v>3</v>
+      </c>
       <c r="H20" s="19"/>
-      <c r="I20" s="12"/>
+      <c r="I20" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
@@ -13952,14 +14094,28 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="16"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="4"/>
+      <c r="B21" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E21" s="4">
+        <v>43053</v>
+      </c>
       <c r="F21" s="4"/>
-      <c r="G21" s="19"/>
+      <c r="G21" s="19">
+        <v>6</v>
+      </c>
       <c r="H21" s="19"/>
-      <c r="I21" s="12"/>
+      <c r="I21" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
@@ -13973,14 +14129,30 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="16"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="19"/>
+      <c r="B22" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>作業中</v>
+      </c>
+      <c r="E22" s="4">
+        <v>43049</v>
+      </c>
+      <c r="F22" s="4">
+        <v>43049</v>
+      </c>
+      <c r="G22" s="19">
+        <v>2</v>
+      </c>
       <c r="H22" s="19"/>
-      <c r="I22" s="12"/>
+      <c r="I22" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
@@ -13994,14 +14166,30 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="16"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="19"/>
+      <c r="B23" s="85" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>作業中</v>
+      </c>
+      <c r="E23" s="4">
+        <v>43049</v>
+      </c>
+      <c r="F23" s="4">
+        <v>43049</v>
+      </c>
+      <c r="G23" s="19">
+        <v>2</v>
+      </c>
       <c r="H23" s="19"/>
-      <c r="I23" s="12"/>
+      <c r="I23" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
@@ -14015,14 +14203,30 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="16"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="19"/>
+      <c r="B24" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>作業中</v>
+      </c>
+      <c r="E24" s="4">
+        <v>43049</v>
+      </c>
+      <c r="F24" s="4">
+        <v>43049</v>
+      </c>
+      <c r="G24" s="19">
+        <v>2</v>
+      </c>
       <c r="H24" s="19"/>
-      <c r="I24" s="12"/>
+      <c r="I24" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
@@ -14038,12 +14242,18 @@
       <c r="A25" s="16"/>
       <c r="B25" s="85"/>
       <c r="C25" s="18"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="12"/>
+      <c r="I25" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
@@ -14059,12 +14269,18 @@
       <c r="A26" s="16"/>
       <c r="B26" s="85"/>
       <c r="C26" s="18"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="12"/>
+      <c r="I26" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
@@ -14080,12 +14296,18 @@
       <c r="A27" s="16"/>
       <c r="B27" s="85"/>
       <c r="C27" s="18"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
-      <c r="I27" s="12"/>
+      <c r="I27" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
@@ -14099,14 +14321,30 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="16"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="19"/>
+      <c r="B28" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>作業中</v>
+      </c>
+      <c r="E28" s="4">
+        <v>43049</v>
+      </c>
+      <c r="F28" s="4">
+        <v>43049</v>
+      </c>
+      <c r="G28" s="19">
+        <v>4</v>
+      </c>
       <c r="H28" s="19"/>
-      <c r="I28" s="12"/>
+      <c r="I28" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J28" s="22"/>
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
@@ -14120,14 +14358,28 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="16"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="4"/>
+      <c r="B29" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E29" s="4">
+        <v>43056</v>
+      </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="19"/>
+      <c r="G29" s="19">
+        <v>4</v>
+      </c>
       <c r="H29" s="19"/>
-      <c r="I29" s="12"/>
+      <c r="I29" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
@@ -14141,14 +14393,28 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="16"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="4"/>
+      <c r="B30" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E30" s="4">
+        <v>43056</v>
+      </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="19"/>
+      <c r="G30" s="19">
+        <v>6</v>
+      </c>
       <c r="H30" s="19"/>
-      <c r="I30" s="12"/>
+      <c r="I30" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
@@ -14162,14 +14428,30 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="16"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="19"/>
+      <c r="B31" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>作業中</v>
+      </c>
+      <c r="E31" s="4">
+        <v>43049</v>
+      </c>
+      <c r="F31" s="4">
+        <v>43049</v>
+      </c>
+      <c r="G31" s="19">
+        <v>3</v>
+      </c>
       <c r="H31" s="19"/>
-      <c r="I31" s="12"/>
+      <c r="I31" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
@@ -14183,14 +14465,30 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="16"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="19"/>
+      <c r="B32" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>作業中</v>
+      </c>
+      <c r="E32" s="4">
+        <v>43049</v>
+      </c>
+      <c r="F32" s="4">
+        <v>43049</v>
+      </c>
+      <c r="G32" s="19">
+        <v>2</v>
+      </c>
       <c r="H32" s="19"/>
-      <c r="I32" s="12"/>
+      <c r="I32" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
@@ -14204,14 +14502,30 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="16"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="19"/>
+      <c r="B33" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>作業中</v>
+      </c>
+      <c r="E33" s="4">
+        <v>43049</v>
+      </c>
+      <c r="F33" s="4">
+        <v>43049</v>
+      </c>
+      <c r="G33" s="19">
+        <v>3</v>
+      </c>
       <c r="H33" s="19"/>
-      <c r="I33" s="12"/>
+      <c r="I33" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
@@ -14225,14 +14539,30 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="16"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="19"/>
+      <c r="B34" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>作業中</v>
+      </c>
+      <c r="E34" s="4">
+        <v>43049</v>
+      </c>
+      <c r="F34" s="4">
+        <v>43049</v>
+      </c>
+      <c r="G34" s="19">
+        <v>2</v>
+      </c>
       <c r="H34" s="19"/>
-      <c r="I34" s="12"/>
+      <c r="I34" s="12" t="str">
+        <f ca="1">IF(ISBLANK(J34)=FALSE,OFFSET(I34,0,COUNTA(J34:Q34)),"")</f>
+        <v/>
+      </c>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
@@ -14246,14 +14576,28 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="16"/>
-      <c r="B35" s="85"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="4"/>
+      <c r="B35" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D35" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E35" s="4">
+        <v>43053</v>
+      </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="19"/>
+      <c r="G35" s="19">
+        <v>6</v>
+      </c>
       <c r="H35" s="19"/>
-      <c r="I35" s="12"/>
+      <c r="I35" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
@@ -14267,14 +14611,28 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="16"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="4"/>
+      <c r="B36" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E36" s="4">
+        <v>43053</v>
+      </c>
       <c r="F36" s="4"/>
-      <c r="G36" s="19"/>
+      <c r="G36" s="19">
+        <v>4</v>
+      </c>
       <c r="H36" s="19"/>
-      <c r="I36" s="12"/>
+      <c r="I36" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J36" s="22"/>
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
@@ -14288,14 +14646,30 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="16"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="19"/>
+      <c r="B37" s="85" t="s">
+        <v>169</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>作業中</v>
+      </c>
+      <c r="E37" s="4">
+        <v>43049</v>
+      </c>
+      <c r="F37" s="4">
+        <v>43049</v>
+      </c>
+      <c r="G37" s="19">
+        <v>6</v>
+      </c>
       <c r="H37" s="19"/>
-      <c r="I37" s="12"/>
+      <c r="I37" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
@@ -14311,12 +14685,18 @@
       <c r="A38" s="16"/>
       <c r="B38" s="85"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
-      <c r="I38" s="12"/>
+      <c r="I38" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
@@ -14332,12 +14712,18 @@
       <c r="A39" s="16"/>
       <c r="B39" s="85"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
-      <c r="I39" s="12"/>
+      <c r="I39" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
@@ -14353,12 +14739,18 @@
       <c r="A40" s="16"/>
       <c r="B40" s="85"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="12"/>
+      <c r="D40" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="12"/>
+      <c r="I40" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
       <c r="L40" s="22"/>
@@ -14374,12 +14766,18 @@
       <c r="A41" s="16"/>
       <c r="B41" s="85"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="12"/>
+      <c r="D41" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="12"/>
+      <c r="I41" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
@@ -14395,12 +14793,18 @@
       <c r="A42" s="16"/>
       <c r="B42" s="85"/>
       <c r="C42" s="18"/>
-      <c r="D42" s="12"/>
+      <c r="D42" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
-      <c r="I42" s="12"/>
+      <c r="I42" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
@@ -14416,12 +14820,18 @@
       <c r="A43" s="16"/>
       <c r="B43" s="85"/>
       <c r="C43" s="18"/>
-      <c r="D43" s="12"/>
+      <c r="D43" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
-      <c r="I43" s="12"/>
+      <c r="I43" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J43" s="22"/>
       <c r="K43" s="22"/>
       <c r="L43" s="22"/>
@@ -14437,12 +14847,18 @@
       <c r="A44" s="16"/>
       <c r="B44" s="85"/>
       <c r="C44" s="18"/>
-      <c r="D44" s="12"/>
+      <c r="D44" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="12"/>
+      <c r="I44" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
@@ -14458,12 +14874,18 @@
       <c r="A45" s="16"/>
       <c r="B45" s="85"/>
       <c r="C45" s="18"/>
-      <c r="D45" s="12"/>
+      <c r="D45" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="12"/>
+      <c r="I45" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J45" s="22"/>
       <c r="K45" s="22"/>
       <c r="L45" s="22"/>
@@ -14479,12 +14901,18 @@
       <c r="A46" s="16"/>
       <c r="B46" s="85"/>
       <c r="C46" s="18"/>
-      <c r="D46" s="12"/>
+      <c r="D46" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="12"/>
+      <c r="I46" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
@@ -14498,14 +14926,28 @@
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="16"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="4"/>
+      <c r="B47" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E47" s="4">
+        <v>43053</v>
+      </c>
       <c r="F47" s="4"/>
-      <c r="G47" s="19"/>
+      <c r="G47" s="19">
+        <v>6</v>
+      </c>
       <c r="H47" s="19"/>
-      <c r="I47" s="12"/>
+      <c r="I47" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
@@ -14519,14 +14961,28 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="16"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="4"/>
+      <c r="B48" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E48" s="4">
+        <v>43056</v>
+      </c>
       <c r="F48" s="4"/>
-      <c r="G48" s="19"/>
+      <c r="G48" s="19">
+        <v>6</v>
+      </c>
       <c r="H48" s="19"/>
-      <c r="I48" s="12"/>
+      <c r="I48" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
@@ -14540,14 +14996,28 @@
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="16"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="4"/>
+      <c r="B49" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E49" s="4">
+        <v>43060</v>
+      </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="19"/>
+      <c r="G49" s="19">
+        <v>6</v>
+      </c>
       <c r="H49" s="19"/>
-      <c r="I49" s="12"/>
+      <c r="I49" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
@@ -14561,14 +15031,28 @@
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="16"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="4"/>
+      <c r="B50" s="85" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E50" s="4">
+        <v>43067</v>
+      </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="19"/>
+      <c r="G50" s="19">
+        <v>3</v>
+      </c>
       <c r="H50" s="19"/>
-      <c r="I50" s="12"/>
+      <c r="I50" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
@@ -14582,14 +15066,28 @@
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="16"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="4"/>
+      <c r="B51" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E51" s="4">
+        <v>43067</v>
+      </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="19"/>
+      <c r="G51" s="19">
+        <v>3</v>
+      </c>
       <c r="H51" s="19"/>
-      <c r="I51" s="12"/>
+      <c r="I51" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J51" s="22"/>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
@@ -14603,14 +15101,28 @@
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="16"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="4"/>
+      <c r="B52" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E52" s="4">
+        <v>43056</v>
+      </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="19"/>
+      <c r="G52" s="19">
+        <v>3</v>
+      </c>
       <c r="H52" s="19"/>
-      <c r="I52" s="12"/>
+      <c r="I52" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J52" s="22"/>
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
@@ -14626,12 +15138,18 @@
       <c r="A53" s="16"/>
       <c r="B53" s="85"/>
       <c r="C53" s="18"/>
-      <c r="D53" s="12"/>
+      <c r="D53" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="12"/>
+      <c r="I53" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J53" s="22"/>
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
@@ -14647,12 +15165,18 @@
       <c r="A54" s="16"/>
       <c r="B54" s="85"/>
       <c r="C54" s="18"/>
-      <c r="D54" s="12"/>
+      <c r="D54" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
-      <c r="I54" s="12"/>
+      <c r="I54" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
@@ -14666,14 +15190,28 @@
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="16"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="4"/>
+      <c r="B55" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E55" s="4">
+        <v>43066</v>
+      </c>
       <c r="F55" s="4"/>
-      <c r="G55" s="19"/>
+      <c r="G55" s="19">
+        <v>6</v>
+      </c>
       <c r="H55" s="19"/>
-      <c r="I55" s="12"/>
+      <c r="I55" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J55" s="22"/>
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
@@ -14687,14 +15225,28 @@
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="16"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="4"/>
+      <c r="B56" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E56" s="4">
+        <v>43053</v>
+      </c>
       <c r="F56" s="4"/>
-      <c r="G56" s="19"/>
+      <c r="G56" s="19">
+        <v>6</v>
+      </c>
       <c r="H56" s="19"/>
-      <c r="I56" s="12"/>
+      <c r="I56" s="12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
       <c r="J56" s="22"/>
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
@@ -14708,18 +15260,26 @@
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="16"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="18"/>
+      <c r="B57" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>159</v>
+      </c>
       <c r="D57" s="12" t="str">
-        <f t="shared" ref="D57:D104" si="0">IF(ISBLANK($B57),"",IF(ISBLANK($F57),"未着手",IF($I57=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="E57" s="4"/>
+        <f t="shared" si="0"/>
+        <v>未着手</v>
+      </c>
+      <c r="E57" s="4">
+        <v>43060</v>
+      </c>
       <c r="F57" s="4"/>
-      <c r="G57" s="19"/>
+      <c r="G57" s="19">
+        <v>6</v>
+      </c>
       <c r="H57" s="19"/>
       <c r="I57" s="12" t="str">
-        <f t="shared" ref="I57:I104" ca="1" si="1">IF(ISBLANK(J57)=FALSE,OFFSET(I57,0,COUNTA(J57:S57)),"")</f>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J57" s="22"/>
@@ -14735,15 +15295,23 @@
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="16"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="18"/>
+      <c r="B58" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>147</v>
+      </c>
       <c r="D58" s="12" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E58" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="E58" s="4">
+        <v>43070</v>
+      </c>
       <c r="F58" s="4"/>
-      <c r="G58" s="19"/>
+      <c r="G58" s="19">
+        <v>3</v>
+      </c>
       <c r="H58" s="19"/>
       <c r="I58" s="12" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -14762,18 +15330,26 @@
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="16"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="18"/>
+      <c r="B59" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>173</v>
+      </c>
       <c r="D59" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E59" s="4"/>
+        <f>IF(ISBLANK($B59),"",IF(ISBLANK($F59),"未着手",IF($I59=0,"完了","作業中")))</f>
+        <v>未着手</v>
+      </c>
+      <c r="E59" s="4">
+        <v>43070</v>
+      </c>
       <c r="F59" s="4"/>
-      <c r="G59" s="19"/>
+      <c r="G59" s="19">
+        <v>3</v>
+      </c>
       <c r="H59" s="19"/>
       <c r="I59" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(ISBLANK(J59)=FALSE,OFFSET(I59,0,COUNTA(J59:Q59)),"")</f>
         <v/>
       </c>
       <c r="J59" s="22"/>
@@ -14789,15 +15365,23 @@
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="16"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="18"/>
+      <c r="B60" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>173</v>
+      </c>
       <c r="D60" s="12" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E60" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="E60" s="4">
+        <v>43070</v>
+      </c>
       <c r="F60" s="4"/>
-      <c r="G60" s="19"/>
+      <c r="G60" s="19">
+        <v>3</v>
+      </c>
       <c r="H60" s="19"/>
       <c r="I60" s="12" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -14924,7 +15508,7 @@
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="16"/>
-      <c r="B65" s="17"/>
+      <c r="B65" s="85"/>
       <c r="C65" s="18"/>
       <c r="D65" s="12" t="str">
         <f t="shared" si="0"/>
@@ -14951,15 +15535,23 @@
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="16"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="18"/>
+      <c r="B66" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>147</v>
+      </c>
       <c r="D66" s="12" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E66" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="E66" s="4">
+        <v>43053</v>
+      </c>
       <c r="F66" s="4"/>
-      <c r="G66" s="19"/>
+      <c r="G66" s="19">
+        <v>6</v>
+      </c>
       <c r="H66" s="19"/>
       <c r="I66" s="12" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -14978,15 +15570,25 @@
     </row>
     <row r="67" spans="1:19">
       <c r="A67" s="16"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="18"/>
+      <c r="B67" s="85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>172</v>
+      </c>
       <c r="D67" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="19"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>作業中</v>
+      </c>
+      <c r="E67" s="4">
+        <v>43053</v>
+      </c>
+      <c r="F67" s="4">
+        <v>43053</v>
+      </c>
+      <c r="G67" s="19">
+        <v>6</v>
+      </c>
       <c r="H67" s="19"/>
       <c r="I67" s="12" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -15089,7 +15691,7 @@
       <c r="B71" s="17"/>
       <c r="C71" s="18"/>
       <c r="D71" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D71:D104" si="2">IF(ISBLANK($B71),"",IF(ISBLANK($F71),"未着手",IF($I71=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="E71" s="4"/>
@@ -15097,7 +15699,7 @@
       <c r="G71" s="19"/>
       <c r="H71" s="19"/>
       <c r="I71" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="I71:I104" ca="1" si="3">IF(ISBLANK(J71)=FALSE,OFFSET(I71,0,COUNTA(J71:Q71)),"")</f>
         <v/>
       </c>
       <c r="J71" s="22"/>
@@ -15116,7 +15718,7 @@
       <c r="B72" s="17"/>
       <c r="C72" s="18"/>
       <c r="D72" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E72" s="4"/>
@@ -15124,7 +15726,7 @@
       <c r="G72" s="19"/>
       <c r="H72" s="19"/>
       <c r="I72" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J72" s="22"/>
@@ -15143,7 +15745,7 @@
       <c r="B73" s="17"/>
       <c r="C73" s="18"/>
       <c r="D73" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E73" s="4"/>
@@ -15151,7 +15753,7 @@
       <c r="G73" s="19"/>
       <c r="H73" s="19"/>
       <c r="I73" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J73" s="22"/>
@@ -15170,7 +15772,7 @@
       <c r="B74" s="17"/>
       <c r="C74" s="18"/>
       <c r="D74" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E74" s="4"/>
@@ -15178,7 +15780,7 @@
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
       <c r="I74" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J74" s="22"/>
@@ -15197,7 +15799,7 @@
       <c r="B75" s="17"/>
       <c r="C75" s="18"/>
       <c r="D75" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E75" s="4"/>
@@ -15205,7 +15807,7 @@
       <c r="G75" s="19"/>
       <c r="H75" s="19"/>
       <c r="I75" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J75" s="22"/>
@@ -15224,7 +15826,7 @@
       <c r="B76" s="17"/>
       <c r="C76" s="18"/>
       <c r="D76" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E76" s="4"/>
@@ -15232,7 +15834,7 @@
       <c r="G76" s="19"/>
       <c r="H76" s="19"/>
       <c r="I76" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J76" s="22"/>
@@ -15251,7 +15853,7 @@
       <c r="B77" s="17"/>
       <c r="C77" s="18"/>
       <c r="D77" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E77" s="4"/>
@@ -15259,7 +15861,7 @@
       <c r="G77" s="19"/>
       <c r="H77" s="19"/>
       <c r="I77" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J77" s="22"/>
@@ -15278,7 +15880,7 @@
       <c r="B78" s="17"/>
       <c r="C78" s="18"/>
       <c r="D78" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E78" s="4"/>
@@ -15286,7 +15888,7 @@
       <c r="G78" s="19"/>
       <c r="H78" s="19"/>
       <c r="I78" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J78" s="22"/>
@@ -15305,7 +15907,7 @@
       <c r="B79" s="17"/>
       <c r="C79" s="18"/>
       <c r="D79" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E79" s="4"/>
@@ -15313,7 +15915,7 @@
       <c r="G79" s="19"/>
       <c r="H79" s="19"/>
       <c r="I79" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J79" s="22"/>
@@ -15332,7 +15934,7 @@
       <c r="B80" s="17"/>
       <c r="C80" s="18"/>
       <c r="D80" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E80" s="4"/>
@@ -15340,7 +15942,7 @@
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
       <c r="I80" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J80" s="22"/>
@@ -15359,7 +15961,7 @@
       <c r="B81" s="17"/>
       <c r="C81" s="18"/>
       <c r="D81" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E81" s="4"/>
@@ -15367,7 +15969,7 @@
       <c r="G81" s="19"/>
       <c r="H81" s="19"/>
       <c r="I81" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J81" s="22"/>
@@ -15386,7 +15988,7 @@
       <c r="B82" s="17"/>
       <c r="C82" s="18"/>
       <c r="D82" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E82" s="4"/>
@@ -15394,7 +15996,7 @@
       <c r="G82" s="19"/>
       <c r="H82" s="19"/>
       <c r="I82" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J82" s="22"/>
@@ -15413,7 +16015,7 @@
       <c r="B83" s="17"/>
       <c r="C83" s="18"/>
       <c r="D83" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E83" s="4"/>
@@ -15421,7 +16023,7 @@
       <c r="G83" s="19"/>
       <c r="H83" s="19"/>
       <c r="I83" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J83" s="22"/>
@@ -15440,7 +16042,7 @@
       <c r="B84" s="17"/>
       <c r="C84" s="18"/>
       <c r="D84" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E84" s="4"/>
@@ -15448,7 +16050,7 @@
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
       <c r="I84" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J84" s="22"/>
@@ -15467,7 +16069,7 @@
       <c r="B85" s="17"/>
       <c r="C85" s="18"/>
       <c r="D85" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E85" s="4"/>
@@ -15475,7 +16077,7 @@
       <c r="G85" s="19"/>
       <c r="H85" s="19"/>
       <c r="I85" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J85" s="22"/>
@@ -15494,7 +16096,7 @@
       <c r="B86" s="17"/>
       <c r="C86" s="18"/>
       <c r="D86" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E86" s="4"/>
@@ -15502,7 +16104,7 @@
       <c r="G86" s="19"/>
       <c r="H86" s="19"/>
       <c r="I86" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J86" s="22"/>
@@ -15521,7 +16123,7 @@
       <c r="B87" s="17"/>
       <c r="C87" s="18"/>
       <c r="D87" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E87" s="4"/>
@@ -15529,7 +16131,7 @@
       <c r="G87" s="19"/>
       <c r="H87" s="19"/>
       <c r="I87" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J87" s="22"/>
@@ -15548,7 +16150,7 @@
       <c r="B88" s="17"/>
       <c r="C88" s="18"/>
       <c r="D88" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E88" s="4"/>
@@ -15556,7 +16158,7 @@
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
       <c r="I88" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J88" s="22"/>
@@ -15575,7 +16177,7 @@
       <c r="B89" s="17"/>
       <c r="C89" s="18"/>
       <c r="D89" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E89" s="4"/>
@@ -15583,7 +16185,7 @@
       <c r="G89" s="19"/>
       <c r="H89" s="19"/>
       <c r="I89" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J89" s="22"/>
@@ -15602,7 +16204,7 @@
       <c r="B90" s="17"/>
       <c r="C90" s="18"/>
       <c r="D90" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E90" s="4"/>
@@ -15610,7 +16212,7 @@
       <c r="G90" s="19"/>
       <c r="H90" s="19"/>
       <c r="I90" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J90" s="22"/>
@@ -15629,7 +16231,7 @@
       <c r="B91" s="17"/>
       <c r="C91" s="18"/>
       <c r="D91" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E91" s="4"/>
@@ -15637,7 +16239,7 @@
       <c r="G91" s="19"/>
       <c r="H91" s="19"/>
       <c r="I91" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J91" s="22"/>
@@ -15656,7 +16258,7 @@
       <c r="B92" s="17"/>
       <c r="C92" s="18"/>
       <c r="D92" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E92" s="4"/>
@@ -15664,7 +16266,7 @@
       <c r="G92" s="19"/>
       <c r="H92" s="19"/>
       <c r="I92" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J92" s="22"/>
@@ -15683,7 +16285,7 @@
       <c r="B93" s="17"/>
       <c r="C93" s="18"/>
       <c r="D93" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E93" s="4"/>
@@ -15691,7 +16293,7 @@
       <c r="G93" s="19"/>
       <c r="H93" s="19"/>
       <c r="I93" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J93" s="22"/>
@@ -15710,7 +16312,7 @@
       <c r="B94" s="17"/>
       <c r="C94" s="18"/>
       <c r="D94" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E94" s="4"/>
@@ -15718,7 +16320,7 @@
       <c r="G94" s="19"/>
       <c r="H94" s="19"/>
       <c r="I94" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J94" s="22"/>
@@ -15737,7 +16339,7 @@
       <c r="B95" s="17"/>
       <c r="C95" s="18"/>
       <c r="D95" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E95" s="4"/>
@@ -15745,7 +16347,7 @@
       <c r="G95" s="19"/>
       <c r="H95" s="19"/>
       <c r="I95" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J95" s="22"/>
@@ -15764,7 +16366,7 @@
       <c r="B96" s="17"/>
       <c r="C96" s="18"/>
       <c r="D96" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E96" s="4"/>
@@ -15772,7 +16374,7 @@
       <c r="G96" s="19"/>
       <c r="H96" s="19"/>
       <c r="I96" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J96" s="22"/>
@@ -15791,7 +16393,7 @@
       <c r="B97" s="17"/>
       <c r="C97" s="18"/>
       <c r="D97" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E97" s="4"/>
@@ -15799,7 +16401,7 @@
       <c r="G97" s="19"/>
       <c r="H97" s="19"/>
       <c r="I97" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J97" s="22"/>
@@ -15818,7 +16420,7 @@
       <c r="B98" s="17"/>
       <c r="C98" s="18"/>
       <c r="D98" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E98" s="4"/>
@@ -15826,7 +16428,7 @@
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
       <c r="I98" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J98" s="22"/>
@@ -15845,7 +16447,7 @@
       <c r="B99" s="17"/>
       <c r="C99" s="18"/>
       <c r="D99" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E99" s="4"/>
@@ -15853,7 +16455,7 @@
       <c r="G99" s="19"/>
       <c r="H99" s="19"/>
       <c r="I99" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J99" s="22"/>
@@ -15872,7 +16474,7 @@
       <c r="B100" s="17"/>
       <c r="C100" s="18"/>
       <c r="D100" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E100" s="4"/>
@@ -15880,7 +16482,7 @@
       <c r="G100" s="19"/>
       <c r="H100" s="19"/>
       <c r="I100" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J100" s="22"/>
@@ -15899,7 +16501,7 @@
       <c r="B101" s="17"/>
       <c r="C101" s="18"/>
       <c r="D101" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E101" s="4"/>
@@ -15907,7 +16509,7 @@
       <c r="G101" s="19"/>
       <c r="H101" s="19"/>
       <c r="I101" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J101" s="22"/>
@@ -15926,7 +16528,7 @@
       <c r="B102" s="17"/>
       <c r="C102" s="18"/>
       <c r="D102" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E102" s="4"/>
@@ -15934,7 +16536,7 @@
       <c r="G102" s="19"/>
       <c r="H102" s="19"/>
       <c r="I102" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J102" s="22"/>
@@ -15953,7 +16555,7 @@
       <c r="B103" s="17"/>
       <c r="C103" s="18"/>
       <c r="D103" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E103" s="4"/>
@@ -15961,7 +16563,7 @@
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
       <c r="I103" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J103" s="22"/>
@@ -15980,7 +16582,7 @@
       <c r="B104" s="17"/>
       <c r="C104" s="18"/>
       <c r="D104" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E104" s="4"/>
@@ -15988,7 +16590,7 @@
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
       <c r="I104" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="J104" s="22"/>
@@ -16055,25 +16657,27 @@
       <c r="Q107" s="6"/>
       <c r="R107" s="6"/>
       <c r="S107" s="6"/>
-      <c r="U107" s="11"/>
+      <c r="U107" s="11" t="s">
+        <v>152</v>
+      </c>
       <c r="V107" s="10">
-        <f t="shared" ref="V107:V116" si="2">SUMIF($C$5:$C$104,U107,$G$5:$G$104)</f>
+        <f>SUMIF($C$5:$C$104,U107,$G$5:$G$104)</f>
+        <v>16</v>
+      </c>
+      <c r="W107" s="10">
+        <f t="shared" ref="W107:W116" ca="1" si="4">SUMIF($C$5:$C$104,U107,$I$5:$I$104)</f>
         <v>0</v>
       </c>
-      <c r="W107" s="10">
-        <f t="shared" ref="W107:W116" si="3">SUMIF($C$5:$C$104,U107,$I$5:$I$104)</f>
+      <c r="X107" s="10">
+        <f t="shared" ref="X107:X116" si="5">SUMIF($C$5:$C$104,U107,$H$5:$H$104)</f>
         <v>0</v>
       </c>
-      <c r="X107" s="10">
-        <f t="shared" ref="X107:X116" si="4">SUMIF($C$5:$C$104,U107,$H$5:$H$104)</f>
-        <v>0</v>
-      </c>
       <c r="Y107" s="14">
-        <f t="shared" ref="Y107:Y116" si="5">COUNTA($J$2:$S$2)*6-COUNTA($J$4:$S$4)*6</f>
+        <f t="shared" ref="Y107:Y116" si="6">COUNTA($J$2:$S$2)*6-COUNTA($J$4:$S$4)*6</f>
         <v>54</v>
       </c>
       <c r="Z107" s="15">
-        <f>IF(Y107&gt;W107,0,W107-Y107)</f>
+        <f ca="1">IF(Y107&gt;W107,0,W107-Y107)</f>
         <v>0</v>
       </c>
     </row>
@@ -16088,25 +16692,27 @@
       <c r="Q108" s="6"/>
       <c r="R108" s="6"/>
       <c r="S108" s="6"/>
-      <c r="U108" s="11"/>
+      <c r="U108" s="11" t="s">
+        <v>153</v>
+      </c>
       <c r="V108" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="V108:V116" si="7">SUMIF($C$5:$C$104,U108,$G$5:$G$104)</f>
+        <v>26</v>
+      </c>
+      <c r="W108" s="10">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="W108" s="10">
-        <f t="shared" si="3"/>
+      <c r="X108" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X108" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="Y108" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="Z108" s="15">
-        <f t="shared" ref="Z108:Z116" si="6">IF(Y108&gt;W108,0,W108-Y108)</f>
+        <f t="shared" ref="Z108:Z116" ca="1" si="8">IF(Y108&gt;W108,0,W108-Y108)</f>
         <v>0</v>
       </c>
     </row>
@@ -16121,25 +16727,27 @@
       <c r="Q109" s="6"/>
       <c r="R109" s="6"/>
       <c r="S109" s="6"/>
-      <c r="U109" s="11"/>
+      <c r="U109" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="V109" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="W109" s="10">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="W109" s="10">
-        <f t="shared" si="3"/>
+      <c r="X109" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X109" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="Y109" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="Z109" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16154,25 +16762,27 @@
       <c r="Q110" s="6"/>
       <c r="R110" s="6"/>
       <c r="S110" s="6"/>
-      <c r="U110" s="11"/>
+      <c r="U110" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="V110" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="W110" s="10">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="W110" s="10">
-        <f t="shared" si="3"/>
+      <c r="X110" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X110" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="Y110" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="Z110" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16187,25 +16797,27 @@
       <c r="Q111" s="6"/>
       <c r="R111" s="6"/>
       <c r="S111" s="6"/>
-      <c r="U111" s="11"/>
+      <c r="U111" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="V111" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="W111" s="10">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="W111" s="10">
-        <f t="shared" si="3"/>
+      <c r="X111" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X111" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="Y111" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="Z111" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16220,25 +16832,27 @@
       <c r="Q112" s="6"/>
       <c r="R112" s="6"/>
       <c r="S112" s="6"/>
-      <c r="U112" s="11"/>
+      <c r="U112" s="11" t="s">
+        <v>146</v>
+      </c>
       <c r="V112" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="W112" s="10">
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="W112" s="10">
-        <f t="shared" si="3"/>
+      <c r="X112" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X112" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="Y112" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="Z112" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16255,23 +16869,23 @@
       <c r="S113" s="6"/>
       <c r="U113" s="11"/>
       <c r="V113" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W113" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X113" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="X113" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="Y113" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="Z113" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16288,23 +16902,23 @@
       <c r="S114" s="6"/>
       <c r="U114" s="11"/>
       <c r="V114" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W114" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X114" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="X114" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="Y114" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="Z114" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16321,23 +16935,23 @@
       <c r="S115" s="6"/>
       <c r="U115" s="11"/>
       <c r="V115" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W115" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X115" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="X115" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="Y115" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="Z115" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16354,23 +16968,23 @@
       <c r="S116" s="6"/>
       <c r="U116" s="11"/>
       <c r="V116" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W116" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X116" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
+      <c r="X116" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="Y116" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="Z116" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -17253,58 +17867,168 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="32" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="34" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="35" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="36" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="29" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="A5:XFD5 A6:A18 C6:XFD8 C14:C24 A19:XFD104 C11:XFD18 D9:XFD10">
+    <cfRule type="expression" dxfId="62" priority="37" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="38" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="39" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="40" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="41" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="42" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="23" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="43" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="44" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="45" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:S65536">
-    <cfRule type="expression" dxfId="20" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="46" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="47" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="48" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="expression" dxfId="50" priority="31" stopIfTrue="1">
+      <formula>$D6="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="32" stopIfTrue="1">
+      <formula>$D6="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="33" stopIfTrue="1">
+      <formula>OR($D6="終了",$D6="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:B8">
+    <cfRule type="expression" dxfId="47" priority="28" stopIfTrue="1">
+      <formula>$D7="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="29" stopIfTrue="1">
+      <formula>$D7="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="30" stopIfTrue="1">
+      <formula>OR($D7="終了",$D7="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:B12">
+    <cfRule type="expression" dxfId="41" priority="22" stopIfTrue="1">
+      <formula>$D11="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="23" stopIfTrue="1">
+      <formula>$D11="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="24" stopIfTrue="1">
+      <formula>OR($D11="終了",$D11="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:B14">
+    <cfRule type="expression" dxfId="38" priority="19" stopIfTrue="1">
+      <formula>$D13="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="20" stopIfTrue="1">
+      <formula>$D13="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="21" stopIfTrue="1">
+      <formula>OR($D13="終了",$D13="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:B24">
+    <cfRule type="expression" dxfId="35" priority="16" stopIfTrue="1">
+      <formula>$D15="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="17" stopIfTrue="1">
+      <formula>$D15="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="18" stopIfTrue="1">
+      <formula>OR($D15="終了",$D15="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:B15">
+    <cfRule type="expression" dxfId="32" priority="13" stopIfTrue="1">
+      <formula>$D14="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="14" stopIfTrue="1">
+      <formula>$D14="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="15" stopIfTrue="1">
+      <formula>OR($D14="終了",$D14="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B17">
+    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
+      <formula>$D16="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="11" stopIfTrue="1">
+      <formula>$D16="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
+      <formula>OR($D16="終了",$D16="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B20">
+    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
+      <formula>$D19="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
+      <formula>$D19="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
+      <formula>OR($D19="終了",$D19="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C10">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+      <formula>$D9="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+      <formula>$D9="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+      <formula>OR($D9="終了",$D9="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B10">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>$D9="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>$D9="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+      <formula>OR($D9="終了",$D9="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -17320,7 +18044,7 @@
   <dimension ref="A1:W188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20539,62 +21263,62 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:P65536">
-    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="360" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -21403,13 +22127,13 @@
   <autoFilter ref="B1:K51"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>$D2="要望"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
       <formula>$D2="確認済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
       <formula>$D2="対応"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/バックログ/02班スプリントバックログ.xlsx
+++ b/バックログ/02班スプリントバックログ.xlsx
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="245">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -1580,13 +1580,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>クモの空中ジャンプアニメーション</t>
-    <rPh sb="3" eb="5">
-      <t>クウチュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>回避アクションアニメーション</t>
     <rPh sb="0" eb="2">
       <t>カイヒ</t>
@@ -1681,13 +1674,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>立体マップ</t>
-    <rPh sb="0" eb="2">
-      <t>リッタイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>野澤</t>
     <rPh sb="0" eb="2">
       <t>ノザワ</t>
@@ -1802,6 +1788,558 @@
     <t>回避アクション</t>
     <rPh sb="0" eb="2">
       <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ジャンプ時のモーション導入</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>地面にいるときのモーション導入</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ドウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>立体マップとカメラの連動</t>
+    <rPh sb="0" eb="2">
+      <t>リッタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>レンドウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クモの陣地ジャンプアニメーション</t>
+    <rPh sb="3" eb="5">
+      <t>ジンチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>枝同士に糸を貼る</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>右下の立体マップの同じ位置に糸を出現</t>
+    <rPh sb="0" eb="2">
+      <t>ミギシタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リッタイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>野澤</t>
+    <rPh sb="0" eb="2">
+      <t>ノザワ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>前進のアニメーション導入</t>
+    <rPh sb="10" eb="12">
+      <t>ドウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>後退のアニメーション導入</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>左移動のアニメーション導入</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>右移動のアニメーション導入</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>右斜め前進のアニメーション導入</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>左斜め前進のアニメーション導入</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>のアニメーション導入</t>
+  </si>
+  <si>
+    <t>左斜め後退のアニメーション導入</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>その場で右に旋回のアニメーション導入</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>その場で左に旋回のアニメーション導入</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>【プレイヤーアニメーション】</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>地面でのジャンプ</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>地面に落下して起き上がる</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>陣地ジャンプ</t>
+  </si>
+  <si>
+    <t>空中に浮いてるアニメーション</t>
+  </si>
+  <si>
+    <t>回避アクションアニメーション</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>敵の糸に引っかかるアニメーション</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>引っかかり地面に落ちる</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>前進(糸に乗ってる時専用アニメーション)</t>
+  </si>
+  <si>
+    <t>後退(糸に乗ってる時専用アニメーション)</t>
+  </si>
+  <si>
+    <t>左移動(糸に乗ってる時専用アニメーション)</t>
+  </si>
+  <si>
+    <t>右斜め前進(糸に乗ってる時専用アニメーション)</t>
+  </si>
+  <si>
+    <t>左斜め前進(糸に乗ってる時専用アニメーション)</t>
+  </si>
+  <si>
+    <t>右斜め後退(糸に乗ってる時専用アニメーション)</t>
+  </si>
+  <si>
+    <t>左斜め後退(糸に乗ってる時専用アニメーション)</t>
+  </si>
+  <si>
+    <t>その場で右に旋回(糸に乗ってる時専用アニメーション)</t>
+  </si>
+  <si>
+    <t>その場で左に旋回(糸に乗ってる時専用アニメーション)</t>
+  </si>
+  <si>
+    <t>カニ歩きでの前進</t>
+  </si>
+  <si>
+    <t>カニ歩きでの後退</t>
+  </si>
+  <si>
+    <t>右移動(糸に乗ってる時専用アニメーション)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>【エネミー専用アニメーション】</t>
+    <rPh sb="5" eb="7">
+      <t>センヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>杉浦</t>
+    <rPh sb="0" eb="2">
+      <t>スギウラ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>右斜め後退のアニメーション導入</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ナナ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウタイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>南雲</t>
+    <rPh sb="0" eb="2">
+      <t>ナグモ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>【グラフィック】</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>味方の通常糸のグラフィック</t>
+    <rPh sb="0" eb="2">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>敵の通常糸のグラフィック</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>敵から味方に上書きした糸のグラフィック</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>自分から敵に上書きした糸のグラフィック</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウワガ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>どの陣地にも属してない初期時の木のグラフィック</t>
+    <rPh sb="2" eb="4">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>自分の陣地になった木のグラフィック</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>敵の陣地になった木のグラフィック</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カーソルの２Dリソース</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>石田</t>
+    <rPh sb="0" eb="2">
+      <t>イシダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>背景の２Dリソース</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>地面リソース</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>WINとLOSEの２Dリソース</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ミニマップの地面の色</t>
+    <rPh sb="6" eb="8">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>マップ内にある自分の糸</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>マップ内にある敵の糸</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>マップ内の自分の陣地になった木のグラフィック</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>マップ内の敵の陣地になった木のグラフィック</t>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>【パーティクル】</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>陣地ジャンプした瞬間の小さな砂煙</t>
+    <rPh sb="0" eb="2">
+      <t>ジンチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュンカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>スナケムリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>回避アクション時のクモの周りに出す小さな風</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カゼ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>木に着地した時の小さな煙</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ケムリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>糸を奪った色が変わった瞬間</t>
+    <rPh sb="0" eb="1">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウバ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュンカン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>石田</t>
+    <rPh sb="0" eb="2">
+      <t>イシダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>樋田</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仕様書AI作成</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仕様書回避アクション作成</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タイトルの後ろでAIが試合している</t>
+    <rPh sb="5" eb="6">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シアイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>中山</t>
+    <rPh sb="0" eb="2">
+      <t>ナカヤマ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仕様書　リザルト</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2934,48 +3472,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color auto="1"/>
       </font>
       <fill>
@@ -3116,6 +3612,48 @@
       <font>
         <b/>
         <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="12"/>
@@ -5015,7 +5553,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5101,7 +5642,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5562,22 +6130,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -5699,22 +6267,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -5810,22 +6378,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -5935,7 +6503,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -9591,7 +10159,7 @@
   <dimension ref="A1:X188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
@@ -13402,17 +13970,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z188"/>
+  <dimension ref="A1:Z219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="29.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.625" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
     <col min="5" max="6" width="6.875" style="5" customWidth="1"/>
@@ -13520,17 +14088,44 @@
       <c r="I3" s="114"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$S$2))))</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
+        <v>168</v>
+      </c>
+      <c r="K3" s="20">
+        <f t="shared" ref="K3:S3" si="0">INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$S$2))))</f>
+        <v>151</v>
+      </c>
+      <c r="L3" s="20">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="M3" s="20">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="N3" s="20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="O3" s="20">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="P3" s="20">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="Q3" s="20">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="R3" s="20">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="S3" s="20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:19" s="8" customFormat="1">
       <c r="A4" s="114"/>
@@ -13544,9 +14139,12 @@
       <c r="I4" s="114"/>
       <c r="J4" s="21">
         <f>SUM(J5:J104)</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="21"/>
+        <v>168</v>
+      </c>
+      <c r="K4" s="21">
+        <f>SUM(K5:K104)</f>
+        <v>7</v>
+      </c>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
       <c r="N4" s="21"/>
@@ -13590,18 +14188,20 @@
         <v>未着手</v>
       </c>
       <c r="E6" s="4">
-        <v>43081</v>
+        <v>43074</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="19">
         <v>4</v>
       </c>
       <c r="H6" s="19"/>
-      <c r="I6" s="12" t="str">
+      <c r="I6" s="12">
         <f ca="1">IF(ISBLANK(J6)=FALSE,OFFSET(I6,0,COUNTA(J6:Q6)),"")</f>
-        <v/>
-      </c>
-      <c r="J6" s="22"/>
+        <v>4</v>
+      </c>
+      <c r="J6" s="22">
+        <v>4</v>
+      </c>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
@@ -13621,7 +14221,7 @@
         <v>120</v>
       </c>
       <c r="D7" s="12" t="str">
-        <f t="shared" ref="D7:D70" ca="1" si="0">IF(ISBLANK($B7),"",IF(ISBLANK($F7),"未着手",IF($I7=0,"完了","作業中")))</f>
+        <f t="shared" ref="D7:D70" ca="1" si="1">IF(ISBLANK($B7),"",IF(ISBLANK($F7),"未着手",IF($I7=0,"完了","作業中")))</f>
         <v>作業中</v>
       </c>
       <c r="E7" s="4">
@@ -13633,12 +14233,16 @@
       <c r="G7" s="19">
         <v>2</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="12" t="str">
-        <f t="shared" ref="I7:I70" ca="1" si="1">IF(ISBLANK(J7)=FALSE,OFFSET(I7,0,COUNTA(J7:Q7)),"")</f>
-        <v/>
-      </c>
-      <c r="J7" s="22"/>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <f t="shared" ref="I7:I70" ca="1" si="2">IF(ISBLANK(J7)=FALSE,OFFSET(I7,0,COUNTA(J7:Q7)),"")</f>
+        <v>2</v>
+      </c>
+      <c r="J7" s="22">
+        <v>2</v>
+      </c>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
@@ -13658,7 +14262,7 @@
         <v>120</v>
       </c>
       <c r="D8" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>作業中</v>
       </c>
       <c r="E8" s="4">
@@ -13670,12 +14274,16 @@
       <c r="G8" s="19">
         <v>1</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J8" s="22"/>
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="22">
+        <v>1</v>
+      </c>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
@@ -13695,23 +14303,31 @@
         <v>120</v>
       </c>
       <c r="D9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
       </c>
       <c r="E9" s="4">
         <v>43060</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4">
+        <v>43056</v>
+      </c>
       <c r="G9" s="19">
         <v>5</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
+      <c r="H9" s="19">
+        <v>4</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
+        <v>5</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
@@ -13724,28 +14340,34 @@
     <row r="10" spans="1:19">
       <c r="A10" s="16"/>
       <c r="B10" s="85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E10" s="4">
         <v>43053</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4">
+        <v>43053</v>
+      </c>
       <c r="G10" s="19">
         <v>2</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J10" s="22"/>
+      <c r="H10" s="19">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="22">
+        <v>1</v>
+      </c>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
@@ -13759,13 +14381,13 @@
     <row r="11" spans="1:19">
       <c r="A11" s="16"/>
       <c r="B11" s="85" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D11" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>作業中</v>
       </c>
       <c r="E11" s="4">
@@ -13777,12 +14399,16 @@
       <c r="G11" s="19">
         <v>6</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J11" s="22"/>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J11" s="22">
+        <v>5</v>
+      </c>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
@@ -13796,28 +14422,34 @@
     <row r="12" spans="1:19">
       <c r="A12" s="16"/>
       <c r="B12" s="85" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E12" s="4">
-        <v>43063</v>
-      </c>
-      <c r="F12" s="4"/>
+        <v>43053</v>
+      </c>
+      <c r="F12" s="4">
+        <v>43053</v>
+      </c>
       <c r="G12" s="19">
         <v>6</v>
       </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J12" s="22"/>
+      <c r="H12" s="19">
+        <v>2</v>
+      </c>
+      <c r="I12" s="12">
+        <f ca="1">IF(ISBLANK(J12)=FALSE,OFFSET(I12,0,COUNTA(J12:Q12)),"")</f>
+        <v>4</v>
+      </c>
+      <c r="J12" s="22">
+        <v>4</v>
+      </c>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
@@ -13833,7 +14465,7 @@
       <c r="B13" s="85"/>
       <c r="C13" s="18"/>
       <c r="D13" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E13" s="4"/>
@@ -13841,7 +14473,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J13" s="22"/>
@@ -13864,23 +14496,31 @@
         <v>121</v>
       </c>
       <c r="D14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
       </c>
       <c r="E14" s="4">
         <v>43067</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4">
+        <v>43056</v>
+      </c>
       <c r="G14" s="19">
         <v>3</v>
       </c>
-      <c r="H14" s="19"/>
-      <c r="I14" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
+      <c r="H14" s="19">
+        <v>4</v>
+      </c>
+      <c r="I14" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="22">
+        <v>3</v>
+      </c>
+      <c r="K14" s="22">
+        <v>0</v>
+      </c>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
@@ -13893,13 +14533,13 @@
     <row r="15" spans="1:19">
       <c r="A15" s="16"/>
       <c r="B15" s="85" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D15" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E15" s="4">
@@ -13910,12 +14550,16 @@
         <v>4</v>
       </c>
       <c r="H15" s="19"/>
-      <c r="I15" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
+      <c r="I15" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J15" s="22">
+        <v>4</v>
+      </c>
+      <c r="K15" s="22">
+        <v>4</v>
+      </c>
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
@@ -13934,22 +14578,28 @@
         <v>121</v>
       </c>
       <c r="D16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E16" s="4">
         <v>43067</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="4">
+        <v>43056</v>
+      </c>
       <c r="G16" s="19">
         <v>3</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J16" s="22"/>
+      <c r="H16" s="19">
+        <v>0</v>
+      </c>
+      <c r="I16" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J16" s="22">
+        <v>3</v>
+      </c>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
@@ -13963,28 +14613,32 @@
     <row r="17" spans="1:19">
       <c r="A17" s="16"/>
       <c r="B17" s="85" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
       </c>
       <c r="E17" s="4">
         <v>43053</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4">
+        <v>43053</v>
+      </c>
       <c r="G17" s="19">
         <v>6</v>
       </c>
       <c r="H17" s="19"/>
-      <c r="I17" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J17" s="22"/>
+      <c r="I17" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="22">
+        <v>0</v>
+      </c>
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
@@ -13997,21 +14651,33 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="16"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>180</v>
+      </c>
       <c r="D18" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="19"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
+      </c>
+      <c r="E18" s="4">
+        <v>43056</v>
+      </c>
+      <c r="F18" s="4">
+        <v>43053</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1</v>
+      </c>
       <c r="H18" s="19"/>
-      <c r="I18" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J18" s="22"/>
+      <c r="I18" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="22">
+        <v>0</v>
+      </c>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
@@ -14031,22 +14697,28 @@
         <v>132</v>
       </c>
       <c r="D19" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
       </c>
       <c r="E19" s="4">
         <v>43053</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4">
+        <v>43053</v>
+      </c>
       <c r="G19" s="19">
         <v>3</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J19" s="22"/>
+      <c r="H19" s="19">
+        <v>3</v>
+      </c>
+      <c r="I19" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="22">
+        <v>0</v>
+      </c>
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
@@ -14066,22 +14738,28 @@
         <v>132</v>
       </c>
       <c r="D20" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
       </c>
       <c r="E20" s="4">
         <v>43053</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4">
+        <v>43053</v>
+      </c>
       <c r="G20" s="19">
         <v>3</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J20" s="22"/>
+      <c r="H20" s="19">
+        <v>3</v>
+      </c>
+      <c r="I20" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="22">
+        <v>0</v>
+      </c>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
@@ -14101,7 +14779,7 @@
         <v>132</v>
       </c>
       <c r="D21" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E21" s="4">
@@ -14112,11 +14790,13 @@
         <v>6</v>
       </c>
       <c r="H21" s="19"/>
-      <c r="I21" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J21" s="22"/>
+      <c r="I21" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J21" s="22">
+        <v>6</v>
+      </c>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
@@ -14136,7 +14816,7 @@
         <v>132</v>
       </c>
       <c r="D22" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>作業中</v>
       </c>
       <c r="E22" s="4">
@@ -14149,11 +14829,13 @@
         <v>2</v>
       </c>
       <c r="H22" s="19"/>
-      <c r="I22" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J22" s="22"/>
+      <c r="I22" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J22" s="22">
+        <v>2</v>
+      </c>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
@@ -14173,7 +14855,7 @@
         <v>132</v>
       </c>
       <c r="D23" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>作業中</v>
       </c>
       <c r="E23" s="4">
@@ -14186,11 +14868,13 @@
         <v>2</v>
       </c>
       <c r="H23" s="19"/>
-      <c r="I23" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J23" s="22"/>
+      <c r="I23" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J23" s="22">
+        <v>2</v>
+      </c>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
@@ -14210,8 +14894,8 @@
         <v>132</v>
       </c>
       <c r="D24" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
       </c>
       <c r="E24" s="4">
         <v>43049</v>
@@ -14222,12 +14906,16 @@
       <c r="G24" s="19">
         <v>2</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J24" s="22"/>
+      <c r="H24" s="19">
+        <v>2</v>
+      </c>
+      <c r="I24" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="22">
+        <v>0</v>
+      </c>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
@@ -14240,21 +14928,33 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="16"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="85" t="s">
+        <v>242</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>243</v>
+      </c>
       <c r="D25" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="19"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
+      </c>
+      <c r="E25" s="4">
+        <v>43056</v>
+      </c>
+      <c r="F25" s="4">
+        <v>43056</v>
+      </c>
+      <c r="G25" s="19">
+        <v>2</v>
+      </c>
       <c r="H25" s="19"/>
-      <c r="I25" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J25" s="22"/>
+      <c r="I25" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J25" s="22">
+        <v>2</v>
+      </c>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
@@ -14270,7 +14970,7 @@
       <c r="B26" s="85"/>
       <c r="C26" s="18"/>
       <c r="D26" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E26" s="4"/>
@@ -14278,7 +14978,7 @@
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J26" s="22"/>
@@ -14297,7 +14997,7 @@
       <c r="B27" s="85"/>
       <c r="C27" s="18"/>
       <c r="D27" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E27" s="4"/>
@@ -14305,7 +15005,7 @@
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
       <c r="I27" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J27" s="22"/>
@@ -14328,7 +15028,7 @@
         <v>123</v>
       </c>
       <c r="D28" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>作業中</v>
       </c>
       <c r="E28" s="4">
@@ -14341,11 +15041,13 @@
         <v>4</v>
       </c>
       <c r="H28" s="19"/>
-      <c r="I28" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J28" s="22"/>
+      <c r="I28" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J28" s="22">
+        <v>3</v>
+      </c>
       <c r="K28" s="22"/>
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
@@ -14365,7 +15067,7 @@
         <v>123</v>
       </c>
       <c r="D29" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E29" s="4">
@@ -14376,11 +15078,13 @@
         <v>4</v>
       </c>
       <c r="H29" s="19"/>
-      <c r="I29" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J29" s="22"/>
+      <c r="I29" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J29" s="22">
+        <v>4</v>
+      </c>
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
@@ -14400,7 +15104,7 @@
         <v>123</v>
       </c>
       <c r="D30" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E30" s="4">
@@ -14411,11 +15115,13 @@
         <v>6</v>
       </c>
       <c r="H30" s="19"/>
-      <c r="I30" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J30" s="22"/>
+      <c r="I30" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J30" s="22">
+        <v>6</v>
+      </c>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
@@ -14435,7 +15141,7 @@
         <v>123</v>
       </c>
       <c r="D31" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>作業中</v>
       </c>
       <c r="E31" s="4">
@@ -14448,11 +15154,13 @@
         <v>3</v>
       </c>
       <c r="H31" s="19"/>
-      <c r="I31" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J31" s="22"/>
+      <c r="I31" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J31" s="22">
+        <v>2</v>
+      </c>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
@@ -14472,7 +15180,7 @@
         <v>123</v>
       </c>
       <c r="D32" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>作業中</v>
       </c>
       <c r="E32" s="4">
@@ -14485,11 +15193,13 @@
         <v>2</v>
       </c>
       <c r="H32" s="19"/>
-      <c r="I32" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J32" s="22"/>
+      <c r="I32" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J32" s="22">
+        <v>2</v>
+      </c>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
@@ -14509,7 +15219,7 @@
         <v>123</v>
       </c>
       <c r="D33" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>作業中</v>
       </c>
       <c r="E33" s="4">
@@ -14522,11 +15232,13 @@
         <v>3</v>
       </c>
       <c r="H33" s="19"/>
-      <c r="I33" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J33" s="22"/>
+      <c r="I33" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J33" s="22">
+        <v>3</v>
+      </c>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
@@ -14546,7 +15258,7 @@
         <v>123</v>
       </c>
       <c r="D34" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>作業中</v>
       </c>
       <c r="E34" s="4">
@@ -14559,11 +15271,13 @@
         <v>2</v>
       </c>
       <c r="H34" s="19"/>
-      <c r="I34" s="12" t="str">
+      <c r="I34" s="12">
         <f ca="1">IF(ISBLANK(J34)=FALSE,OFFSET(I34,0,COUNTA(J34:Q34)),"")</f>
-        <v/>
-      </c>
-      <c r="J34" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="J34" s="22">
+        <v>1</v>
+      </c>
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
@@ -14583,7 +15297,7 @@
         <v>123</v>
       </c>
       <c r="D35" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E35" s="4">
@@ -14594,11 +15308,13 @@
         <v>6</v>
       </c>
       <c r="H35" s="19"/>
-      <c r="I35" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J35" s="22"/>
+      <c r="I35" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J35" s="22">
+        <v>6</v>
+      </c>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
@@ -14618,7 +15334,7 @@
         <v>123</v>
       </c>
       <c r="D36" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E36" s="4">
@@ -14629,11 +15345,13 @@
         <v>4</v>
       </c>
       <c r="H36" s="19"/>
-      <c r="I36" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J36" s="22"/>
+      <c r="I36" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J36" s="22">
+        <v>4</v>
+      </c>
       <c r="K36" s="22"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
@@ -14647,13 +15365,13 @@
     <row r="37" spans="1:19">
       <c r="A37" s="16"/>
       <c r="B37" s="85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D37" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>作業中</v>
       </c>
       <c r="E37" s="4">
@@ -14666,11 +15384,13 @@
         <v>6</v>
       </c>
       <c r="H37" s="19"/>
-      <c r="I37" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J37" s="22"/>
+      <c r="I37" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J37" s="22">
+        <v>6</v>
+      </c>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
@@ -14683,21 +15403,31 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="16"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="18"/>
+      <c r="B38" s="85" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>123</v>
+      </c>
       <c r="D38" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E38" s="4"/>
+        <f t="shared" si="1"/>
+        <v>未着手</v>
+      </c>
+      <c r="E38" s="4">
+        <v>43063</v>
+      </c>
       <c r="F38" s="4"/>
-      <c r="G38" s="19"/>
+      <c r="G38" s="19">
+        <v>3</v>
+      </c>
       <c r="H38" s="19"/>
-      <c r="I38" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J38" s="22"/>
+      <c r="I38" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J38" s="22">
+        <v>3</v>
+      </c>
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
@@ -14710,21 +15440,31 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="16"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="18"/>
+      <c r="B39" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>123</v>
+      </c>
       <c r="D39" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E39" s="4"/>
+        <f t="shared" si="1"/>
+        <v>未着手</v>
+      </c>
+      <c r="E39" s="4">
+        <v>43063</v>
+      </c>
       <c r="F39" s="4"/>
-      <c r="G39" s="19"/>
+      <c r="G39" s="19">
+        <v>3</v>
+      </c>
       <c r="H39" s="19"/>
-      <c r="I39" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J39" s="22"/>
+      <c r="I39" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J39" s="22">
+        <v>3</v>
+      </c>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
@@ -14740,7 +15480,7 @@
       <c r="B40" s="85"/>
       <c r="C40" s="18"/>
       <c r="D40" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E40" s="4"/>
@@ -14748,7 +15488,7 @@
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
       <c r="I40" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J40" s="22"/>
@@ -14767,7 +15507,7 @@
       <c r="B41" s="85"/>
       <c r="C41" s="18"/>
       <c r="D41" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E41" s="4"/>
@@ -14775,7 +15515,7 @@
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
       <c r="I41" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J41" s="22"/>
@@ -14794,7 +15534,7 @@
       <c r="B42" s="85"/>
       <c r="C42" s="18"/>
       <c r="D42" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E42" s="4"/>
@@ -14802,7 +15542,7 @@
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
       <c r="I42" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J42" s="22"/>
@@ -14821,7 +15561,7 @@
       <c r="B43" s="85"/>
       <c r="C43" s="18"/>
       <c r="D43" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E43" s="4"/>
@@ -14829,7 +15569,7 @@
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
       <c r="I43" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J43" s="22"/>
@@ -14848,7 +15588,7 @@
       <c r="B44" s="85"/>
       <c r="C44" s="18"/>
       <c r="D44" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E44" s="4"/>
@@ -14856,7 +15596,7 @@
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
       <c r="I44" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J44" s="22"/>
@@ -14875,7 +15615,7 @@
       <c r="B45" s="85"/>
       <c r="C45" s="18"/>
       <c r="D45" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E45" s="4"/>
@@ -14883,7 +15623,7 @@
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
       <c r="I45" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J45" s="22"/>
@@ -14902,7 +15642,7 @@
       <c r="B46" s="85"/>
       <c r="C46" s="18"/>
       <c r="D46" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E46" s="4"/>
@@ -14910,7 +15650,7 @@
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
       <c r="I46" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J46" s="22"/>
@@ -14927,13 +15667,13 @@
     <row r="47" spans="1:19">
       <c r="A47" s="16"/>
       <c r="B47" s="85" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E47" s="4">
@@ -14944,11 +15684,13 @@
         <v>6</v>
       </c>
       <c r="H47" s="19"/>
-      <c r="I47" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J47" s="22"/>
+      <c r="I47" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J47" s="22">
+        <v>6</v>
+      </c>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
@@ -14962,13 +15704,13 @@
     <row r="48" spans="1:19">
       <c r="A48" s="16"/>
       <c r="B48" s="85" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E48" s="4">
@@ -14979,11 +15721,13 @@
         <v>6</v>
       </c>
       <c r="H48" s="19"/>
-      <c r="I48" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J48" s="22"/>
+      <c r="I48" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J48" s="22">
+        <v>6</v>
+      </c>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
@@ -14997,13 +15741,13 @@
     <row r="49" spans="1:19">
       <c r="A49" s="16"/>
       <c r="B49" s="85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E49" s="4">
@@ -15014,11 +15758,13 @@
         <v>6</v>
       </c>
       <c r="H49" s="19"/>
-      <c r="I49" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J49" s="22"/>
+      <c r="I49" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J49" s="22">
+        <v>6</v>
+      </c>
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
@@ -15032,13 +15778,13 @@
     <row r="50" spans="1:19">
       <c r="A50" s="16"/>
       <c r="B50" s="85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E50" s="4">
@@ -15049,11 +15795,13 @@
         <v>3</v>
       </c>
       <c r="H50" s="19"/>
-      <c r="I50" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J50" s="22"/>
+      <c r="I50" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J50" s="22">
+        <v>3</v>
+      </c>
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
@@ -15067,13 +15815,13 @@
     <row r="51" spans="1:19">
       <c r="A51" s="16"/>
       <c r="B51" s="85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D51" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E51" s="4">
@@ -15084,11 +15832,13 @@
         <v>3</v>
       </c>
       <c r="H51" s="19"/>
-      <c r="I51" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J51" s="22"/>
+      <c r="I51" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J51" s="22">
+        <v>3</v>
+      </c>
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
@@ -15102,28 +15852,34 @@
     <row r="52" spans="1:19">
       <c r="A52" s="16"/>
       <c r="B52" s="85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D52" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>完了</v>
       </c>
       <c r="E52" s="4">
         <v>43056</v>
       </c>
-      <c r="F52" s="4"/>
+      <c r="F52" s="4">
+        <v>43053</v>
+      </c>
       <c r="G52" s="19">
         <v>3</v>
       </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J52" s="22"/>
+      <c r="H52" s="19">
+        <v>3</v>
+      </c>
+      <c r="I52" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="22">
+        <v>0</v>
+      </c>
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
@@ -15136,21 +15892,31 @@
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="16"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="18"/>
+      <c r="B53" s="85" t="s">
+        <v>225</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>239</v>
+      </c>
       <c r="D53" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E53" s="4"/>
+        <f t="shared" si="1"/>
+        <v>未着手</v>
+      </c>
+      <c r="E53" s="4">
+        <v>43070</v>
+      </c>
       <c r="F53" s="4"/>
-      <c r="G53" s="19"/>
+      <c r="G53" s="19">
+        <v>3</v>
+      </c>
       <c r="H53" s="19"/>
-      <c r="I53" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J53" s="22"/>
+      <c r="I53" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J53" s="22">
+        <v>3</v>
+      </c>
       <c r="K53" s="22"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
@@ -15163,21 +15929,31 @@
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="16"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="18"/>
+      <c r="B54" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>239</v>
+      </c>
       <c r="D54" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E54" s="4"/>
+        <f t="shared" si="1"/>
+        <v>未着手</v>
+      </c>
+      <c r="E54" s="4">
+        <v>43070</v>
+      </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="19"/>
+      <c r="G54" s="19">
+        <v>3</v>
+      </c>
       <c r="H54" s="19"/>
-      <c r="I54" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J54" s="22"/>
+      <c r="I54" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J54" s="22">
+        <v>3</v>
+      </c>
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
@@ -15191,13 +15967,13 @@
     <row r="55" spans="1:19">
       <c r="A55" s="16"/>
       <c r="B55" s="85" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D55" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E55" s="4">
@@ -15208,11 +15984,13 @@
         <v>6</v>
       </c>
       <c r="H55" s="19"/>
-      <c r="I55" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J55" s="22"/>
+      <c r="I55" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J55" s="22">
+        <v>6</v>
+      </c>
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
@@ -15226,13 +16004,13 @@
     <row r="56" spans="1:19">
       <c r="A56" s="16"/>
       <c r="B56" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="C56" s="18" t="s">
-        <v>158</v>
-      </c>
       <c r="D56" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E56" s="4">
@@ -15243,11 +16021,13 @@
         <v>6</v>
       </c>
       <c r="H56" s="19"/>
-      <c r="I56" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J56" s="22"/>
+      <c r="I56" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J56" s="22">
+        <v>6</v>
+      </c>
       <c r="K56" s="22"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
@@ -15261,28 +16041,32 @@
     <row r="57" spans="1:19">
       <c r="A57" s="16"/>
       <c r="B57" s="85" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D57" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E57" s="4">
         <v>43060</v>
       </c>
-      <c r="F57" s="4"/>
+      <c r="F57" s="4">
+        <v>43056</v>
+      </c>
       <c r="G57" s="19">
         <v>6</v>
       </c>
       <c r="H57" s="19"/>
-      <c r="I57" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J57" s="22"/>
+      <c r="I57" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J57" s="22">
+        <v>6</v>
+      </c>
       <c r="K57" s="22"/>
       <c r="L57" s="22"/>
       <c r="M57" s="22"/>
@@ -15296,13 +16080,13 @@
     <row r="58" spans="1:19">
       <c r="A58" s="16"/>
       <c r="B58" s="85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D58" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E58" s="4">
@@ -15313,11 +16097,13 @@
         <v>3</v>
       </c>
       <c r="H58" s="19"/>
-      <c r="I58" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J58" s="22"/>
+      <c r="I58" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J58" s="22">
+        <v>3</v>
+      </c>
       <c r="K58" s="22"/>
       <c r="L58" s="22"/>
       <c r="M58" s="22"/>
@@ -15331,10 +16117,10 @@
     <row r="59" spans="1:19">
       <c r="A59" s="16"/>
       <c r="B59" s="85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="12" t="str">
         <f>IF(ISBLANK($B59),"",IF(ISBLANK($F59),"未着手",IF($I59=0,"完了","作業中")))</f>
@@ -15348,11 +16134,13 @@
         <v>3</v>
       </c>
       <c r="H59" s="19"/>
-      <c r="I59" s="12" t="str">
+      <c r="I59" s="12">
         <f ca="1">IF(ISBLANK(J59)=FALSE,OFFSET(I59,0,COUNTA(J59:Q59)),"")</f>
-        <v/>
-      </c>
-      <c r="J59" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="J59" s="22">
+        <v>3</v>
+      </c>
       <c r="K59" s="22"/>
       <c r="L59" s="22"/>
       <c r="M59" s="22"/>
@@ -15366,13 +16154,13 @@
     <row r="60" spans="1:19">
       <c r="A60" s="16"/>
       <c r="B60" s="85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D60" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>未着手</v>
       </c>
       <c r="E60" s="4">
@@ -15383,11 +16171,13 @@
         <v>3</v>
       </c>
       <c r="H60" s="19"/>
-      <c r="I60" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J60" s="22"/>
+      <c r="I60" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J60" s="22">
+        <v>3</v>
+      </c>
       <c r="K60" s="22"/>
       <c r="L60" s="22"/>
       <c r="M60" s="22"/>
@@ -15400,21 +16190,31 @@
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="16"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="18"/>
+      <c r="B61" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>224</v>
+      </c>
       <c r="D61" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E61" s="4"/>
+        <f t="shared" si="1"/>
+        <v>未着手</v>
+      </c>
+      <c r="E61" s="4">
+        <v>43074</v>
+      </c>
       <c r="F61" s="4"/>
-      <c r="G61" s="19"/>
+      <c r="G61" s="19">
+        <v>3</v>
+      </c>
       <c r="H61" s="19"/>
-      <c r="I61" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J61" s="22"/>
+      <c r="I61" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J61" s="22">
+        <v>3</v>
+      </c>
       <c r="K61" s="22"/>
       <c r="L61" s="22"/>
       <c r="M61" s="22"/>
@@ -15427,21 +16227,31 @@
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="16"/>
-      <c r="B62" s="85"/>
-      <c r="C62" s="18"/>
+      <c r="B62" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>238</v>
+      </c>
       <c r="D62" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E62" s="4"/>
+        <f t="shared" si="1"/>
+        <v>未着手</v>
+      </c>
+      <c r="E62" s="4">
+        <v>43074</v>
+      </c>
       <c r="F62" s="4"/>
-      <c r="G62" s="19"/>
+      <c r="G62" s="19">
+        <v>3</v>
+      </c>
       <c r="H62" s="19"/>
-      <c r="I62" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J62" s="22"/>
+      <c r="I62" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J62" s="22">
+        <v>3</v>
+      </c>
       <c r="K62" s="22"/>
       <c r="L62" s="22"/>
       <c r="M62" s="22"/>
@@ -15457,7 +16267,7 @@
       <c r="B63" s="85"/>
       <c r="C63" s="18"/>
       <c r="D63" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E63" s="4"/>
@@ -15465,7 +16275,7 @@
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
       <c r="I63" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J63" s="22"/>
@@ -15484,7 +16294,7 @@
       <c r="B64" s="17"/>
       <c r="C64" s="18"/>
       <c r="D64" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E64" s="4"/>
@@ -15492,7 +16302,7 @@
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
       <c r="I64" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J64" s="22"/>
@@ -15511,7 +16321,7 @@
       <c r="B65" s="85"/>
       <c r="C65" s="18"/>
       <c r="D65" s="12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E65" s="4"/>
@@ -15519,7 +16329,7 @@
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
       <c r="I65" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="J65" s="22"/>
@@ -15536,28 +16346,34 @@
     <row r="66" spans="1:19">
       <c r="A66" s="16"/>
       <c r="B66" s="85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D66" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>作業中</v>
       </c>
       <c r="E66" s="4">
         <v>43053</v>
       </c>
-      <c r="F66" s="4"/>
+      <c r="F66" s="4">
+        <v>43053</v>
+      </c>
       <c r="G66" s="19">
         <v>6</v>
       </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J66" s="22"/>
+      <c r="H66" s="19">
+        <v>6</v>
+      </c>
+      <c r="I66" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J66" s="22">
+        <v>6</v>
+      </c>
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
       <c r="M66" s="22"/>
@@ -15571,13 +16387,13 @@
     <row r="67" spans="1:19">
       <c r="A67" s="16"/>
       <c r="B67" s="85" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D67" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>作業中</v>
       </c>
       <c r="E67" s="4">
@@ -15589,13 +16405,19 @@
       <c r="G67" s="19">
         <v>6</v>
       </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
+      <c r="H67" s="19">
+        <v>6</v>
+      </c>
+      <c r="I67" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J67" s="22">
+        <v>3</v>
+      </c>
+      <c r="K67" s="22">
+        <v>3</v>
+      </c>
       <c r="L67" s="22"/>
       <c r="M67" s="22"/>
       <c r="N67" s="22"/>
@@ -15607,21 +16429,35 @@
     </row>
     <row r="68" spans="1:19">
       <c r="A68" s="16"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="18"/>
+      <c r="B68" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>146</v>
+      </c>
       <c r="D68" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J68" s="22"/>
+        <v>作業中</v>
+      </c>
+      <c r="E68" s="4">
+        <v>43053</v>
+      </c>
+      <c r="F68" s="4">
+        <v>43053</v>
+      </c>
+      <c r="G68" s="19">
+        <v>6</v>
+      </c>
+      <c r="H68" s="19">
+        <v>6</v>
+      </c>
+      <c r="I68" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J68" s="22">
+        <v>3</v>
+      </c>
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
       <c r="M68" s="22"/>
@@ -15634,21 +16470,35 @@
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="16"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
+      <c r="B69" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>238</v>
+      </c>
       <c r="D69" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J69" s="22"/>
+        <v>作業中</v>
+      </c>
+      <c r="E69" s="4">
+        <v>43053</v>
+      </c>
+      <c r="F69" s="4">
+        <v>43053</v>
+      </c>
+      <c r="G69" s="19">
+        <v>6</v>
+      </c>
+      <c r="H69" s="19">
+        <v>6</v>
+      </c>
+      <c r="I69" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J69" s="22">
+        <v>3</v>
+      </c>
       <c r="K69" s="22"/>
       <c r="L69" s="22"/>
       <c r="M69" s="22"/>
@@ -15661,21 +16511,31 @@
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="16"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="18"/>
+      <c r="B70" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>145</v>
+      </c>
       <c r="D70" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E70" s="4"/>
+        <f t="shared" si="1"/>
+        <v>未着手</v>
+      </c>
+      <c r="E70" s="4">
+        <v>43056</v>
+      </c>
       <c r="F70" s="4"/>
-      <c r="G70" s="19"/>
+      <c r="G70" s="19">
+        <v>3</v>
+      </c>
       <c r="H70" s="19"/>
-      <c r="I70" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="J70" s="22"/>
+      <c r="I70" s="12">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J70" s="22">
+        <v>3</v>
+      </c>
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
       <c r="M70" s="22"/>
@@ -15691,7 +16551,7 @@
       <c r="B71" s="17"/>
       <c r="C71" s="18"/>
       <c r="D71" s="12" t="str">
-        <f t="shared" ref="D71:D104" si="2">IF(ISBLANK($B71),"",IF(ISBLANK($F71),"未着手",IF($I71=0,"完了","作業中")))</f>
+        <f t="shared" ref="D71:D134" si="3">IF(ISBLANK($B71),"",IF(ISBLANK($F71),"未着手",IF($I71=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="E71" s="4"/>
@@ -15699,7 +16559,7 @@
       <c r="G71" s="19"/>
       <c r="H71" s="19"/>
       <c r="I71" s="12" t="str">
-        <f t="shared" ref="I71:I104" ca="1" si="3">IF(ISBLANK(J71)=FALSE,OFFSET(I71,0,COUNTA(J71:Q71)),"")</f>
+        <f t="shared" ref="I71:I104" ca="1" si="4">IF(ISBLANK(J71)=FALSE,OFFSET(I71,0,COUNTA(J71:Q71)),"")</f>
         <v/>
       </c>
       <c r="J71" s="22"/>
@@ -15718,7 +16578,7 @@
       <c r="B72" s="17"/>
       <c r="C72" s="18"/>
       <c r="D72" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E72" s="4"/>
@@ -15726,7 +16586,7 @@
       <c r="G72" s="19"/>
       <c r="H72" s="19"/>
       <c r="I72" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J72" s="22"/>
@@ -15745,7 +16605,7 @@
       <c r="B73" s="17"/>
       <c r="C73" s="18"/>
       <c r="D73" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E73" s="4"/>
@@ -15753,7 +16613,7 @@
       <c r="G73" s="19"/>
       <c r="H73" s="19"/>
       <c r="I73" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J73" s="22"/>
@@ -15769,18 +16629,17 @@
     </row>
     <row r="74" spans="1:19">
       <c r="A74" s="16"/>
-      <c r="B74" s="17"/>
+      <c r="B74" s="17" t="s">
+        <v>191</v>
+      </c>
       <c r="C74" s="18"/>
-      <c r="D74" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D74" s="12"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
       <c r="I74" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J74" s="22"/>
@@ -15796,18 +16655,22 @@
     </row>
     <row r="75" spans="1:19">
       <c r="A75" s="16"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="18"/>
+      <c r="B75" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D75" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="19"/>
       <c r="H75" s="19"/>
       <c r="I75" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J75" s="22"/>
@@ -15823,18 +16686,22 @@
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="16"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
+      <c r="B76" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D76" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="19"/>
       <c r="H76" s="19"/>
       <c r="I76" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J76" s="22"/>
@@ -15850,18 +16717,22 @@
     </row>
     <row r="77" spans="1:19">
       <c r="A77" s="16"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="B77" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D77" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="19"/>
       <c r="H77" s="19"/>
       <c r="I77" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J77" s="22"/>
@@ -15877,18 +16748,22 @@
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="16"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="B78" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D78" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="19"/>
       <c r="H78" s="19"/>
       <c r="I78" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J78" s="22"/>
@@ -15904,18 +16779,22 @@
     </row>
     <row r="79" spans="1:19">
       <c r="A79" s="16"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="B79" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D79" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="19"/>
       <c r="H79" s="19"/>
       <c r="I79" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J79" s="22"/>
@@ -15931,18 +16810,22 @@
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="16"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="B80" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D80" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
       <c r="I80" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J80" s="22"/>
@@ -15958,18 +16841,22 @@
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="16"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="18"/>
+      <c r="B81" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D81" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="19"/>
       <c r="H81" s="19"/>
       <c r="I81" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J81" s="22"/>
@@ -15985,18 +16872,22 @@
     </row>
     <row r="82" spans="1:19">
       <c r="A82" s="16"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="18"/>
+      <c r="B82" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D82" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="19"/>
       <c r="H82" s="19"/>
       <c r="I82" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J82" s="22"/>
@@ -16012,18 +16903,22 @@
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="16"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="18"/>
+      <c r="B83" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D83" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="19"/>
       <c r="H83" s="19"/>
       <c r="I83" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J83" s="22"/>
@@ -16039,18 +16934,22 @@
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="16"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="18"/>
+      <c r="B84" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D84" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
       <c r="I84" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J84" s="22"/>
@@ -16066,18 +16965,22 @@
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="16"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="18"/>
+      <c r="B85" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D85" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="19"/>
       <c r="H85" s="19"/>
       <c r="I85" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J85" s="22"/>
@@ -16093,18 +16996,22 @@
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="16"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="18"/>
+      <c r="B86" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D86" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="19"/>
       <c r="H86" s="19"/>
       <c r="I86" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J86" s="22"/>
@@ -16120,18 +17027,22 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="16"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="18"/>
+      <c r="B87" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D87" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="19"/>
       <c r="H87" s="19"/>
       <c r="I87" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J87" s="22"/>
@@ -16147,18 +17058,22 @@
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="16"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="18"/>
+      <c r="B88" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D88" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
       <c r="I88" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J88" s="22"/>
@@ -16174,18 +17089,22 @@
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="16"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="18"/>
+      <c r="B89" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D89" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="19"/>
       <c r="H89" s="19"/>
       <c r="I89" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J89" s="22"/>
@@ -16201,18 +17120,22 @@
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="16"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="18"/>
+      <c r="B90" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D90" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>IF(ISBLANK($B90),"",IF(ISBLANK($F90),"未着手",IF($I90=0,"完了","作業中")))</f>
+        <v>未着手</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="19"/>
       <c r="H90" s="19"/>
       <c r="I90" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J90" s="22"/>
@@ -16228,18 +17151,22 @@
     </row>
     <row r="91" spans="1:19">
       <c r="A91" s="16"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="18"/>
+      <c r="B91" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D91" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="19"/>
       <c r="H91" s="19"/>
       <c r="I91" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J91" s="22"/>
@@ -16255,18 +17182,22 @@
     </row>
     <row r="92" spans="1:19">
       <c r="A92" s="16"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="18"/>
+      <c r="B92" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D92" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="19"/>
       <c r="H92" s="19"/>
       <c r="I92" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J92" s="22"/>
@@ -16282,18 +17213,22 @@
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="16"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="18"/>
+      <c r="B93" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D93" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="19"/>
       <c r="H93" s="19"/>
       <c r="I93" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J93" s="22"/>
@@ -16309,18 +17244,22 @@
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="16"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="18"/>
+      <c r="B94" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D94" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="19"/>
       <c r="H94" s="19"/>
       <c r="I94" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J94" s="22"/>
@@ -16336,18 +17275,22 @@
     </row>
     <row r="95" spans="1:19">
       <c r="A95" s="16"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="18"/>
+      <c r="B95" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D95" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="19"/>
       <c r="H95" s="19"/>
       <c r="I95" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J95" s="22"/>
@@ -16363,18 +17306,22 @@
     </row>
     <row r="96" spans="1:19">
       <c r="A96" s="16"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="18"/>
+      <c r="B96" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D96" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="19"/>
       <c r="H96" s="19"/>
       <c r="I96" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J96" s="22"/>
@@ -16390,18 +17337,22 @@
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="16"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="18"/>
+      <c r="B97" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D97" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="19"/>
       <c r="H97" s="19"/>
       <c r="I97" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J97" s="22"/>
@@ -16417,18 +17368,22 @@
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="16"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="18"/>
+      <c r="B98" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D98" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
       <c r="I98" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J98" s="22"/>
@@ -16444,18 +17399,22 @@
     </row>
     <row r="99" spans="1:26">
       <c r="A99" s="16"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="18"/>
+      <c r="B99" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D99" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="19"/>
       <c r="H99" s="19"/>
       <c r="I99" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J99" s="22"/>
@@ -16471,18 +17430,22 @@
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="16"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="18"/>
+      <c r="B100" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D100" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="19"/>
       <c r="H100" s="19"/>
       <c r="I100" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J100" s="22"/>
@@ -16498,18 +17461,22 @@
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="16"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="18"/>
+      <c r="B101" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D101" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="19"/>
       <c r="H101" s="19"/>
       <c r="I101" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J101" s="22"/>
@@ -16525,18 +17492,22 @@
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="16"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="18"/>
+      <c r="B102" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D102" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="19"/>
       <c r="H102" s="19"/>
       <c r="I102" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J102" s="22"/>
@@ -16552,18 +17523,22 @@
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="16"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="18"/>
+      <c r="B103" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>212</v>
+      </c>
       <c r="D103" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>未着手</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
       <c r="I103" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J103" s="22"/>
@@ -16582,7 +17557,7 @@
       <c r="B104" s="17"/>
       <c r="C104" s="18"/>
       <c r="D104" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E104" s="4"/>
@@ -16590,7 +17565,7 @@
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
       <c r="I104" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="J104" s="22"/>
@@ -16605,28 +17580,61 @@
       <c r="S104" s="22"/>
     </row>
     <row r="105" spans="1:26" ht="10.5" customHeight="1">
-      <c r="J105" s="6"/>
-      <c r="K105" s="6"/>
-      <c r="L105" s="6"/>
-      <c r="M105" s="6"/>
-      <c r="N105" s="6"/>
-      <c r="O105" s="6"/>
-      <c r="P105" s="6"/>
-      <c r="Q105" s="6"/>
-      <c r="R105" s="6"/>
-      <c r="S105" s="6"/>
+      <c r="A105" s="16"/>
+      <c r="B105" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" s="18"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="12" t="str">
+        <f t="shared" ref="I105:I135" ca="1" si="5">IF(ISBLANK(J105)=FALSE,OFFSET(I105,0,COUNTA(J105:Q105)),"")</f>
+        <v/>
+      </c>
+      <c r="J105" s="22"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="22"/>
+      <c r="M105" s="22"/>
+      <c r="N105" s="22"/>
+      <c r="O105" s="22"/>
+      <c r="P105" s="22"/>
+      <c r="Q105" s="22"/>
+      <c r="R105" s="22"/>
+      <c r="S105" s="22"/>
     </row>
     <row r="106" spans="1:26">
-      <c r="J106" s="6"/>
-      <c r="K106" s="6"/>
-      <c r="L106" s="6"/>
-      <c r="M106" s="6"/>
-      <c r="N106" s="6"/>
-      <c r="O106" s="6"/>
-      <c r="P106" s="6"/>
-      <c r="Q106" s="6"/>
-      <c r="R106" s="6"/>
-      <c r="S106" s="6"/>
+      <c r="A106" s="16"/>
+      <c r="B106" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D106" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="19"/>
+      <c r="H106" s="19"/>
+      <c r="I106" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J106" s="22"/>
+      <c r="K106" s="22"/>
+      <c r="L106" s="22"/>
+      <c r="M106" s="22"/>
+      <c r="N106" s="22"/>
+      <c r="O106" s="22"/>
+      <c r="P106" s="22"/>
+      <c r="Q106" s="22"/>
+      <c r="R106" s="22"/>
+      <c r="S106" s="22"/>
       <c r="U106" s="13" t="s">
         <v>11</v>
       </c>
@@ -16647,34 +17655,53 @@
       </c>
     </row>
     <row r="107" spans="1:26">
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-      <c r="L107" s="6"/>
-      <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
-      <c r="P107" s="6"/>
-      <c r="Q107" s="6"/>
-      <c r="R107" s="6"/>
-      <c r="S107" s="6"/>
+      <c r="A107" s="16"/>
+      <c r="B107" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D107" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="19"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J107" s="22"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="22"/>
+      <c r="M107" s="22"/>
+      <c r="N107" s="22"/>
+      <c r="O107" s="22"/>
+      <c r="P107" s="22"/>
+      <c r="Q107" s="22"/>
+      <c r="R107" s="22"/>
+      <c r="S107" s="22"/>
       <c r="U107" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V107" s="10">
         <f>SUMIF($C$5:$C$104,U107,$G$5:$G$104)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W107" s="10">
-        <f t="shared" ref="W107:W116" ca="1" si="4">SUMIF($C$5:$C$104,U107,$I$5:$I$104)</f>
-        <v>0</v>
+        <f t="shared" ref="W107:W116" ca="1" si="6">SUMIF($C$5:$C$104,U107,$I$5:$I$104)</f>
+        <v>7</v>
       </c>
       <c r="X107" s="10">
-        <f t="shared" ref="X107:X116" si="5">SUMIF($C$5:$C$104,U107,$H$5:$H$104)</f>
-        <v>0</v>
+        <f t="shared" ref="X107:X116" si="7">SUMIF($C$5:$C$104,U107,$H$5:$H$104)</f>
+        <v>4</v>
       </c>
       <c r="Y107" s="14">
-        <f t="shared" ref="Y107:Y116" si="6">COUNTA($J$2:$S$2)*6-COUNTA($J$4:$S$4)*6</f>
-        <v>54</v>
+        <f t="shared" ref="Y107:Y116" si="8">COUNTA($J$2:$S$2)*6-COUNTA($J$4:$S$4)*6</f>
+        <v>48</v>
       </c>
       <c r="Z107" s="15">
         <f ca="1">IF(Y107&gt;W107,0,W107-Y107)</f>
@@ -16682,1175 +17709,3397 @@
       </c>
     </row>
     <row r="108" spans="1:26">
-      <c r="J108" s="6"/>
-      <c r="K108" s="6"/>
-      <c r="L108" s="6"/>
-      <c r="M108" s="6"/>
-      <c r="N108" s="6"/>
-      <c r="O108" s="6"/>
-      <c r="P108" s="6"/>
-      <c r="Q108" s="6"/>
-      <c r="R108" s="6"/>
-      <c r="S108" s="6"/>
+      <c r="A108" s="16"/>
+      <c r="B108" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D108" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J108" s="22"/>
+      <c r="K108" s="22"/>
+      <c r="L108" s="22"/>
+      <c r="M108" s="22"/>
+      <c r="N108" s="22"/>
+      <c r="O108" s="22"/>
+      <c r="P108" s="22"/>
+      <c r="Q108" s="22"/>
+      <c r="R108" s="22"/>
+      <c r="S108" s="22"/>
       <c r="U108" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="V108" s="10">
+        <f t="shared" ref="V108:V116" si="9">SUMIF($C$5:$C$104,U108,$G$5:$G$104)</f>
+        <v>26</v>
+      </c>
+      <c r="W108" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="X108" s="10">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="Y108" s="14">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="Z108" s="15">
+        <f t="shared" ref="Z108:Z116" ca="1" si="10">IF(Y108&gt;W108,0,W108-Y108)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26">
+      <c r="A109" s="16"/>
+      <c r="B109" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D109" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="19"/>
+      <c r="H109" s="19"/>
+      <c r="I109" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J109" s="22"/>
+      <c r="K109" s="22"/>
+      <c r="L109" s="22"/>
+      <c r="M109" s="22"/>
+      <c r="N109" s="22"/>
+      <c r="O109" s="22"/>
+      <c r="P109" s="22"/>
+      <c r="Q109" s="22"/>
+      <c r="R109" s="22"/>
+      <c r="S109" s="22"/>
+      <c r="U109" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="V108" s="10">
-        <f t="shared" ref="V108:V116" si="7">SUMIF($C$5:$C$104,U108,$G$5:$G$104)</f>
-        <v>26</v>
-      </c>
-      <c r="W108" s="10">
-        <f t="shared" ca="1" si="4"/>
+      <c r="V109" s="10">
+        <f t="shared" si="9"/>
+        <v>46</v>
+      </c>
+      <c r="W109" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="X109" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X108" s="10">
-        <f t="shared" si="5"/>
+      <c r="Y109" s="14">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="Z109" s="15">
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="Y108" s="14">
-        <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="Z108" s="15">
-        <f t="shared" ref="Z108:Z116" ca="1" si="8">IF(Y108&gt;W108,0,W108-Y108)</f>
+    </row>
+    <row r="110" spans="1:26">
+      <c r="A110" s="16"/>
+      <c r="B110" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D110" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="19"/>
+      <c r="H110" s="19"/>
+      <c r="I110" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J110" s="22"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="22"/>
+      <c r="N110" s="22"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="22"/>
+      <c r="Q110" s="22"/>
+      <c r="R110" s="22"/>
+      <c r="S110" s="22"/>
+      <c r="U110" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="V110" s="10">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="W110" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="X110" s="10">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="Y110" s="14">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="Z110" s="15">
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:26">
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
-      <c r="M109" s="6"/>
-      <c r="N109" s="6"/>
-      <c r="O109" s="6"/>
-      <c r="P109" s="6"/>
-      <c r="Q109" s="6"/>
-      <c r="R109" s="6"/>
-      <c r="S109" s="6"/>
-      <c r="U109" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="V109" s="10">
-        <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="W109" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X109" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y109" s="14">
-        <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="Z109" s="15">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:26">
-      <c r="J110" s="6"/>
-      <c r="K110" s="6"/>
-      <c r="L110" s="6"/>
-      <c r="M110" s="6"/>
-      <c r="N110" s="6"/>
-      <c r="O110" s="6"/>
-      <c r="P110" s="6"/>
-      <c r="Q110" s="6"/>
-      <c r="R110" s="6"/>
-      <c r="S110" s="6"/>
-      <c r="U110" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="V110" s="10">
+    <row r="111" spans="1:26">
+      <c r="A111" s="16"/>
+      <c r="B111" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D111" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="19"/>
+      <c r="I111" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J111" s="22"/>
+      <c r="K111" s="22"/>
+      <c r="L111" s="22"/>
+      <c r="M111" s="22"/>
+      <c r="N111" s="22"/>
+      <c r="O111" s="22"/>
+      <c r="P111" s="22"/>
+      <c r="Q111" s="22"/>
+      <c r="R111" s="22"/>
+      <c r="S111" s="22"/>
+      <c r="U111" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="V111" s="10">
+        <f t="shared" si="9"/>
+        <v>63</v>
+      </c>
+      <c r="W111" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>57</v>
+      </c>
+      <c r="X111" s="10">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="W110" s="10">
-        <f t="shared" ca="1" si="4"/>
+      <c r="Y111" s="14">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="Z111" s="15">
+        <f t="shared" ca="1" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26">
+      <c r="A112" s="16"/>
+      <c r="B112" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D112" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J112" s="22"/>
+      <c r="K112" s="22"/>
+      <c r="L112" s="22"/>
+      <c r="M112" s="22"/>
+      <c r="N112" s="22"/>
+      <c r="O112" s="22"/>
+      <c r="P112" s="22"/>
+      <c r="Q112" s="22"/>
+      <c r="R112" s="22"/>
+      <c r="S112" s="22"/>
+      <c r="U112" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="V112" s="10">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+      <c r="W112" s="10">
+        <f t="shared" ca="1" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="X112" s="10">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="Y112" s="14">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="Z112" s="15">
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="X110" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y110" s="14">
-        <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="Z110" s="15">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:26">
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
-      <c r="M111" s="6"/>
-      <c r="N111" s="6"/>
-      <c r="O111" s="6"/>
-      <c r="P111" s="6"/>
-      <c r="Q111" s="6"/>
-      <c r="R111" s="6"/>
-      <c r="S111" s="6"/>
-      <c r="U111" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="V111" s="10">
-        <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
-      <c r="W111" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X111" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y111" s="14">
-        <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="Z111" s="15">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:26">
-      <c r="J112" s="6"/>
-      <c r="K112" s="6"/>
-      <c r="L112" s="6"/>
-      <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
-      <c r="P112" s="6"/>
-      <c r="Q112" s="6"/>
-      <c r="R112" s="6"/>
-      <c r="S112" s="6"/>
-      <c r="U112" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="V112" s="10">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="W112" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="X112" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y112" s="14">
-        <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="Z112" s="15">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="10:26">
-      <c r="J113" s="6"/>
-      <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
-      <c r="M113" s="6"/>
-      <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
-      <c r="P113" s="6"/>
-      <c r="Q113" s="6"/>
-      <c r="R113" s="6"/>
-      <c r="S113" s="6"/>
+    </row>
+    <row r="113" spans="1:26">
+      <c r="A113" s="16"/>
+      <c r="B113" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D113" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J113" s="22"/>
+      <c r="K113" s="22"/>
+      <c r="L113" s="22"/>
+      <c r="M113" s="22"/>
+      <c r="N113" s="22"/>
+      <c r="O113" s="22"/>
+      <c r="P113" s="22"/>
+      <c r="Q113" s="22"/>
+      <c r="R113" s="22"/>
+      <c r="S113" s="22"/>
       <c r="U113" s="11"/>
       <c r="V113" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W113" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X113" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W113" s="10">
-        <f t="shared" si="4"/>
+      <c r="Y113" s="14">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="Z113" s="15">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X113" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y113" s="14">
-        <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="Z113" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="10:26">
-      <c r="J114" s="6"/>
-      <c r="K114" s="6"/>
-      <c r="L114" s="6"/>
-      <c r="M114" s="6"/>
-      <c r="N114" s="6"/>
-      <c r="O114" s="6"/>
-      <c r="P114" s="6"/>
-      <c r="Q114" s="6"/>
-      <c r="R114" s="6"/>
-      <c r="S114" s="6"/>
+    </row>
+    <row r="114" spans="1:26">
+      <c r="A114" s="16"/>
+      <c r="B114" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D114" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J114" s="22"/>
+      <c r="K114" s="22"/>
+      <c r="L114" s="22"/>
+      <c r="M114" s="22"/>
+      <c r="N114" s="22"/>
+      <c r="O114" s="22"/>
+      <c r="P114" s="22"/>
+      <c r="Q114" s="22"/>
+      <c r="R114" s="22"/>
+      <c r="S114" s="22"/>
       <c r="U114" s="11"/>
       <c r="V114" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W114" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X114" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W114" s="10">
-        <f t="shared" si="4"/>
+      <c r="Y114" s="14">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="Z114" s="15">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X114" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y114" s="14">
-        <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="Z114" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="10:26">
-      <c r="J115" s="6"/>
-      <c r="K115" s="6"/>
-      <c r="L115" s="6"/>
-      <c r="M115" s="6"/>
-      <c r="N115" s="6"/>
-      <c r="O115" s="6"/>
-      <c r="P115" s="6"/>
-      <c r="Q115" s="6"/>
-      <c r="R115" s="6"/>
-      <c r="S115" s="6"/>
+    </row>
+    <row r="115" spans="1:26">
+      <c r="A115" s="16"/>
+      <c r="B115" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D115" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J115" s="22"/>
+      <c r="K115" s="22"/>
+      <c r="L115" s="22"/>
+      <c r="M115" s="22"/>
+      <c r="N115" s="22"/>
+      <c r="O115" s="22"/>
+      <c r="P115" s="22"/>
+      <c r="Q115" s="22"/>
+      <c r="R115" s="22"/>
+      <c r="S115" s="22"/>
       <c r="U115" s="11"/>
       <c r="V115" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W115" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X115" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W115" s="10">
-        <f t="shared" si="4"/>
+      <c r="Y115" s="14">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="Z115" s="15">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X115" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y115" s="14">
-        <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="Z115" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="10:26">
-      <c r="J116" s="6"/>
-      <c r="K116" s="6"/>
-      <c r="L116" s="6"/>
-      <c r="M116" s="6"/>
-      <c r="N116" s="6"/>
-      <c r="O116" s="6"/>
-      <c r="P116" s="6"/>
-      <c r="Q116" s="6"/>
-      <c r="R116" s="6"/>
-      <c r="S116" s="6"/>
+    </row>
+    <row r="116" spans="1:26">
+      <c r="A116" s="16"/>
+      <c r="B116" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D116" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="19"/>
+      <c r="I116" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J116" s="22"/>
+      <c r="K116" s="22"/>
+      <c r="L116" s="22"/>
+      <c r="M116" s="22"/>
+      <c r="N116" s="22"/>
+      <c r="O116" s="22"/>
+      <c r="P116" s="22"/>
+      <c r="Q116" s="22"/>
+      <c r="R116" s="22"/>
+      <c r="S116" s="22"/>
       <c r="U116" s="11"/>
       <c r="V116" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W116" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X116" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W116" s="10">
-        <f t="shared" si="4"/>
+      <c r="Y116" s="14">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="Z116" s="15">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="X116" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y116" s="14">
-        <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="Z116" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="10:26">
-      <c r="J117" s="6"/>
-      <c r="K117" s="6"/>
-      <c r="L117" s="6"/>
-      <c r="M117" s="6"/>
-      <c r="N117" s="6"/>
-      <c r="O117" s="6"/>
-      <c r="P117" s="6"/>
-      <c r="Q117" s="6"/>
-      <c r="R117" s="6"/>
-      <c r="S117" s="6"/>
-    </row>
-    <row r="118" spans="10:26">
-      <c r="J118" s="6"/>
-      <c r="K118" s="6"/>
-      <c r="L118" s="6"/>
-      <c r="M118" s="6"/>
-      <c r="N118" s="6"/>
-      <c r="O118" s="6"/>
-      <c r="P118" s="6"/>
-      <c r="Q118" s="6"/>
-      <c r="R118" s="6"/>
-      <c r="S118" s="6"/>
-    </row>
-    <row r="119" spans="10:26">
-      <c r="J119" s="6"/>
-      <c r="K119" s="6"/>
-      <c r="L119" s="6"/>
-      <c r="M119" s="6"/>
-      <c r="N119" s="6"/>
-      <c r="O119" s="6"/>
-      <c r="P119" s="6"/>
-      <c r="Q119" s="6"/>
-      <c r="R119" s="6"/>
-      <c r="S119" s="6"/>
-    </row>
-    <row r="120" spans="10:26">
-      <c r="J120" s="6"/>
-      <c r="K120" s="6"/>
-      <c r="L120" s="6"/>
-      <c r="M120" s="6"/>
-      <c r="N120" s="6"/>
-      <c r="O120" s="6"/>
-      <c r="P120" s="6"/>
-      <c r="Q120" s="6"/>
-      <c r="R120" s="6"/>
-      <c r="S120" s="6"/>
-    </row>
-    <row r="121" spans="10:26">
-      <c r="J121" s="6"/>
-      <c r="K121" s="6"/>
-      <c r="L121" s="6"/>
-      <c r="M121" s="6"/>
-      <c r="N121" s="6"/>
-      <c r="O121" s="6"/>
-      <c r="P121" s="6"/>
-      <c r="Q121" s="6"/>
-      <c r="R121" s="6"/>
-      <c r="S121" s="6"/>
-    </row>
-    <row r="122" spans="10:26">
-      <c r="J122" s="6"/>
-      <c r="K122" s="6"/>
-      <c r="L122" s="6"/>
-      <c r="M122" s="6"/>
-      <c r="N122" s="6"/>
-      <c r="O122" s="6"/>
-      <c r="P122" s="6"/>
-      <c r="Q122" s="6"/>
-      <c r="R122" s="6"/>
-      <c r="S122" s="6"/>
-    </row>
-    <row r="123" spans="10:26">
-      <c r="J123" s="6"/>
-      <c r="K123" s="6"/>
-      <c r="L123" s="6"/>
-      <c r="M123" s="6"/>
-      <c r="N123" s="6"/>
-      <c r="O123" s="6"/>
-      <c r="P123" s="6"/>
-      <c r="Q123" s="6"/>
-      <c r="R123" s="6"/>
-      <c r="S123" s="6"/>
-    </row>
-    <row r="124" spans="10:26">
-      <c r="J124" s="6"/>
-      <c r="K124" s="6"/>
-      <c r="L124" s="6"/>
-      <c r="M124" s="6"/>
-      <c r="N124" s="6"/>
-      <c r="O124" s="6"/>
-      <c r="P124" s="6"/>
-      <c r="Q124" s="6"/>
-      <c r="R124" s="6"/>
-      <c r="S124" s="6"/>
-    </row>
-    <row r="125" spans="10:26">
-      <c r="J125" s="6"/>
-      <c r="K125" s="6"/>
-      <c r="L125" s="6"/>
-      <c r="M125" s="6"/>
-      <c r="N125" s="6"/>
-      <c r="O125" s="6"/>
-      <c r="P125" s="6"/>
-      <c r="Q125" s="6"/>
-      <c r="R125" s="6"/>
-      <c r="S125" s="6"/>
-    </row>
-    <row r="126" spans="10:26">
-      <c r="J126" s="6"/>
-      <c r="K126" s="6"/>
-      <c r="L126" s="6"/>
-      <c r="M126" s="6"/>
-      <c r="N126" s="6"/>
-      <c r="O126" s="6"/>
-      <c r="P126" s="6"/>
-      <c r="Q126" s="6"/>
-      <c r="R126" s="6"/>
-      <c r="S126" s="6"/>
-    </row>
-    <row r="127" spans="10:26">
-      <c r="J127" s="6"/>
-      <c r="K127" s="6"/>
-      <c r="L127" s="6"/>
-      <c r="M127" s="6"/>
-      <c r="N127" s="6"/>
-      <c r="O127" s="6"/>
-      <c r="P127" s="6"/>
-      <c r="Q127" s="6"/>
-      <c r="R127" s="6"/>
-      <c r="S127" s="6"/>
-    </row>
-    <row r="128" spans="10:26">
-      <c r="J128" s="6"/>
-      <c r="K128" s="6"/>
-      <c r="L128" s="6"/>
-      <c r="M128" s="6"/>
-      <c r="N128" s="6"/>
-      <c r="O128" s="6"/>
-      <c r="P128" s="6"/>
-      <c r="Q128" s="6"/>
-      <c r="R128" s="6"/>
-      <c r="S128" s="6"/>
-    </row>
-    <row r="129" spans="10:19">
-      <c r="J129" s="6"/>
-      <c r="K129" s="6"/>
-      <c r="L129" s="6"/>
-      <c r="M129" s="6"/>
-      <c r="N129" s="6"/>
-      <c r="O129" s="6"/>
-      <c r="P129" s="6"/>
-      <c r="Q129" s="6"/>
-      <c r="R129" s="6"/>
-      <c r="S129" s="6"/>
-    </row>
-    <row r="130" spans="10:19">
-      <c r="J130" s="6"/>
-      <c r="K130" s="6"/>
-      <c r="L130" s="6"/>
-      <c r="M130" s="6"/>
-      <c r="N130" s="6"/>
-      <c r="O130" s="6"/>
-      <c r="P130" s="6"/>
-      <c r="Q130" s="6"/>
-      <c r="R130" s="6"/>
-      <c r="S130" s="6"/>
-    </row>
-    <row r="131" spans="10:19">
-      <c r="J131" s="6"/>
-      <c r="K131" s="6"/>
-      <c r="L131" s="6"/>
-      <c r="M131" s="6"/>
-      <c r="N131" s="6"/>
-      <c r="O131" s="6"/>
-      <c r="P131" s="6"/>
-      <c r="Q131" s="6"/>
-      <c r="R131" s="6"/>
-      <c r="S131" s="6"/>
-    </row>
-    <row r="132" spans="10:19">
-      <c r="J132" s="6"/>
-      <c r="K132" s="6"/>
-      <c r="L132" s="6"/>
-      <c r="M132" s="6"/>
-      <c r="N132" s="6"/>
-      <c r="O132" s="6"/>
-      <c r="P132" s="6"/>
-      <c r="Q132" s="6"/>
-      <c r="R132" s="6"/>
-      <c r="S132" s="6"/>
-    </row>
-    <row r="133" spans="10:19">
-      <c r="J133" s="6"/>
-      <c r="K133" s="6"/>
-      <c r="L133" s="6"/>
-      <c r="M133" s="6"/>
-      <c r="N133" s="6"/>
-      <c r="O133" s="6"/>
-      <c r="P133" s="6"/>
-      <c r="Q133" s="6"/>
-      <c r="R133" s="6"/>
-      <c r="S133" s="6"/>
-    </row>
-    <row r="134" spans="10:19">
-      <c r="J134" s="6"/>
-      <c r="K134" s="6"/>
-      <c r="L134" s="6"/>
-      <c r="M134" s="6"/>
-      <c r="N134" s="6"/>
-      <c r="O134" s="6"/>
-      <c r="P134" s="6"/>
-      <c r="Q134" s="6"/>
-      <c r="R134" s="6"/>
-      <c r="S134" s="6"/>
-    </row>
-    <row r="135" spans="10:19">
-      <c r="J135" s="6"/>
-      <c r="K135" s="6"/>
-      <c r="L135" s="6"/>
-      <c r="M135" s="6"/>
-      <c r="N135" s="6"/>
-      <c r="O135" s="6"/>
-      <c r="P135" s="6"/>
-      <c r="Q135" s="6"/>
-      <c r="R135" s="6"/>
-      <c r="S135" s="6"/>
-    </row>
-    <row r="136" spans="10:19">
-      <c r="J136" s="6"/>
-      <c r="K136" s="6"/>
-      <c r="L136" s="6"/>
-      <c r="M136" s="6"/>
-      <c r="N136" s="6"/>
-      <c r="O136" s="6"/>
-      <c r="P136" s="6"/>
-      <c r="Q136" s="6"/>
-      <c r="R136" s="6"/>
-      <c r="S136" s="6"/>
-    </row>
-    <row r="137" spans="10:19">
-      <c r="J137" s="6"/>
-      <c r="K137" s="6"/>
-      <c r="L137" s="6"/>
-      <c r="M137" s="6"/>
-      <c r="N137" s="6"/>
-      <c r="O137" s="6"/>
-      <c r="P137" s="6"/>
-      <c r="Q137" s="6"/>
-      <c r="R137" s="6"/>
-      <c r="S137" s="6"/>
-    </row>
-    <row r="138" spans="10:19">
-      <c r="J138" s="6"/>
-      <c r="K138" s="6"/>
-      <c r="L138" s="6"/>
-      <c r="M138" s="6"/>
-      <c r="N138" s="6"/>
-      <c r="O138" s="6"/>
-      <c r="P138" s="6"/>
-      <c r="Q138" s="6"/>
-      <c r="R138" s="6"/>
-      <c r="S138" s="6"/>
-    </row>
-    <row r="139" spans="10:19">
-      <c r="J139" s="6"/>
-      <c r="K139" s="6"/>
-      <c r="L139" s="6"/>
-      <c r="M139" s="6"/>
-      <c r="N139" s="6"/>
-      <c r="O139" s="6"/>
-      <c r="P139" s="6"/>
-      <c r="Q139" s="6"/>
-      <c r="R139" s="6"/>
-      <c r="S139" s="6"/>
-    </row>
-    <row r="140" spans="10:19">
-      <c r="J140" s="6"/>
-      <c r="K140" s="6"/>
-      <c r="L140" s="6"/>
-      <c r="M140" s="6"/>
-      <c r="N140" s="6"/>
-      <c r="O140" s="6"/>
-      <c r="P140" s="6"/>
-      <c r="Q140" s="6"/>
-      <c r="R140" s="6"/>
-      <c r="S140" s="6"/>
-    </row>
-    <row r="141" spans="10:19">
-      <c r="J141" s="6"/>
-      <c r="K141" s="6"/>
-      <c r="L141" s="6"/>
-      <c r="M141" s="6"/>
-      <c r="N141" s="6"/>
-      <c r="O141" s="6"/>
-      <c r="P141" s="6"/>
-      <c r="Q141" s="6"/>
-      <c r="R141" s="6"/>
-      <c r="S141" s="6"/>
-    </row>
-    <row r="142" spans="10:19">
-      <c r="J142" s="6"/>
-      <c r="K142" s="6"/>
-      <c r="L142" s="6"/>
-      <c r="M142" s="6"/>
-      <c r="N142" s="6"/>
-      <c r="O142" s="6"/>
-      <c r="P142" s="6"/>
-      <c r="Q142" s="6"/>
-      <c r="R142" s="6"/>
-      <c r="S142" s="6"/>
-    </row>
-    <row r="143" spans="10:19">
-      <c r="J143" s="6"/>
-      <c r="K143" s="6"/>
-      <c r="L143" s="6"/>
-      <c r="M143" s="6"/>
-      <c r="N143" s="6"/>
-      <c r="O143" s="6"/>
-      <c r="P143" s="6"/>
-      <c r="Q143" s="6"/>
-      <c r="R143" s="6"/>
-      <c r="S143" s="6"/>
-    </row>
-    <row r="144" spans="10:19">
-      <c r="J144" s="6"/>
-      <c r="K144" s="6"/>
-      <c r="L144" s="6"/>
-      <c r="M144" s="6"/>
-      <c r="N144" s="6"/>
-      <c r="O144" s="6"/>
-      <c r="P144" s="6"/>
-      <c r="Q144" s="6"/>
-      <c r="R144" s="6"/>
-      <c r="S144" s="6"/>
-    </row>
-    <row r="145" spans="10:19">
-      <c r="J145" s="6"/>
-      <c r="K145" s="6"/>
-      <c r="L145" s="6"/>
-      <c r="M145" s="6"/>
-      <c r="N145" s="6"/>
-      <c r="O145" s="6"/>
-      <c r="P145" s="6"/>
-      <c r="Q145" s="6"/>
-      <c r="R145" s="6"/>
-      <c r="S145" s="6"/>
-    </row>
-    <row r="146" spans="10:19">
-      <c r="J146" s="6"/>
-      <c r="K146" s="6"/>
-      <c r="L146" s="6"/>
-      <c r="M146" s="6"/>
-      <c r="N146" s="6"/>
-      <c r="O146" s="6"/>
-      <c r="P146" s="6"/>
-      <c r="Q146" s="6"/>
-      <c r="R146" s="6"/>
-      <c r="S146" s="6"/>
-    </row>
-    <row r="147" spans="10:19">
-      <c r="J147" s="6"/>
-      <c r="K147" s="6"/>
-      <c r="L147" s="6"/>
-      <c r="M147" s="6"/>
-      <c r="N147" s="6"/>
-      <c r="O147" s="6"/>
-      <c r="P147" s="6"/>
-      <c r="Q147" s="6"/>
-      <c r="R147" s="6"/>
-      <c r="S147" s="6"/>
-    </row>
-    <row r="148" spans="10:19">
-      <c r="J148" s="6"/>
-      <c r="K148" s="6"/>
-      <c r="L148" s="6"/>
-      <c r="M148" s="6"/>
-      <c r="N148" s="6"/>
-      <c r="O148" s="6"/>
-      <c r="P148" s="6"/>
-      <c r="Q148" s="6"/>
-      <c r="R148" s="6"/>
-      <c r="S148" s="6"/>
-    </row>
-    <row r="149" spans="10:19">
-      <c r="J149" s="6"/>
-      <c r="K149" s="6"/>
-      <c r="L149" s="6"/>
-      <c r="M149" s="6"/>
-      <c r="N149" s="6"/>
-      <c r="O149" s="6"/>
-      <c r="P149" s="6"/>
-      <c r="Q149" s="6"/>
-      <c r="R149" s="6"/>
-      <c r="S149" s="6"/>
-    </row>
-    <row r="150" spans="10:19">
-      <c r="J150" s="6"/>
-      <c r="K150" s="6"/>
-      <c r="L150" s="6"/>
-      <c r="M150" s="6"/>
-      <c r="N150" s="6"/>
-      <c r="O150" s="6"/>
-      <c r="P150" s="6"/>
-      <c r="Q150" s="6"/>
-      <c r="R150" s="6"/>
-      <c r="S150" s="6"/>
-    </row>
-    <row r="151" spans="10:19">
-      <c r="J151" s="6"/>
-      <c r="K151" s="6"/>
-      <c r="L151" s="6"/>
-      <c r="M151" s="6"/>
-      <c r="N151" s="6"/>
-      <c r="O151" s="6"/>
-      <c r="P151" s="6"/>
-      <c r="Q151" s="6"/>
-      <c r="R151" s="6"/>
-      <c r="S151" s="6"/>
-    </row>
-    <row r="152" spans="10:19">
-      <c r="J152" s="6"/>
-      <c r="K152" s="6"/>
-      <c r="L152" s="6"/>
-      <c r="M152" s="6"/>
-      <c r="N152" s="6"/>
-      <c r="O152" s="6"/>
-      <c r="P152" s="6"/>
-      <c r="Q152" s="6"/>
-      <c r="R152" s="6"/>
-      <c r="S152" s="6"/>
-    </row>
-    <row r="153" spans="10:19">
-      <c r="J153" s="6"/>
-      <c r="K153" s="6"/>
-      <c r="L153" s="6"/>
-      <c r="M153" s="6"/>
-      <c r="N153" s="6"/>
-      <c r="O153" s="6"/>
-      <c r="P153" s="6"/>
-      <c r="Q153" s="6"/>
-      <c r="R153" s="6"/>
-      <c r="S153" s="6"/>
-    </row>
-    <row r="154" spans="10:19">
-      <c r="J154" s="6"/>
-      <c r="K154" s="6"/>
-      <c r="L154" s="6"/>
-      <c r="M154" s="6"/>
-      <c r="N154" s="6"/>
-      <c r="O154" s="6"/>
-      <c r="P154" s="6"/>
-      <c r="Q154" s="6"/>
-      <c r="R154" s="6"/>
-      <c r="S154" s="6"/>
-    </row>
-    <row r="155" spans="10:19">
-      <c r="J155" s="6"/>
-      <c r="K155" s="6"/>
-      <c r="L155" s="6"/>
-      <c r="M155" s="6"/>
-      <c r="N155" s="6"/>
-      <c r="O155" s="6"/>
-      <c r="P155" s="6"/>
-      <c r="Q155" s="6"/>
-      <c r="R155" s="6"/>
-      <c r="S155" s="6"/>
-    </row>
-    <row r="156" spans="10:19">
-      <c r="J156" s="6"/>
-      <c r="K156" s="6"/>
-      <c r="L156" s="6"/>
-      <c r="M156" s="6"/>
-      <c r="N156" s="6"/>
-      <c r="O156" s="6"/>
-      <c r="P156" s="6"/>
-      <c r="Q156" s="6"/>
-      <c r="R156" s="6"/>
-      <c r="S156" s="6"/>
-    </row>
-    <row r="157" spans="10:19">
-      <c r="J157" s="6"/>
-      <c r="K157" s="6"/>
-      <c r="L157" s="6"/>
-      <c r="M157" s="6"/>
-      <c r="N157" s="6"/>
-      <c r="O157" s="6"/>
-      <c r="P157" s="6"/>
-      <c r="Q157" s="6"/>
-      <c r="R157" s="6"/>
-      <c r="S157" s="6"/>
-    </row>
-    <row r="158" spans="10:19">
-      <c r="J158" s="6"/>
-      <c r="K158" s="6"/>
-      <c r="L158" s="6"/>
-      <c r="M158" s="6"/>
-      <c r="N158" s="6"/>
-      <c r="O158" s="6"/>
-      <c r="P158" s="6"/>
-      <c r="Q158" s="6"/>
-      <c r="R158" s="6"/>
-      <c r="S158" s="6"/>
-    </row>
-    <row r="159" spans="10:19">
-      <c r="J159" s="6"/>
-      <c r="K159" s="6"/>
-      <c r="L159" s="6"/>
-      <c r="M159" s="6"/>
-      <c r="N159" s="6"/>
-      <c r="O159" s="6"/>
-      <c r="P159" s="6"/>
-      <c r="Q159" s="6"/>
-      <c r="R159" s="6"/>
-      <c r="S159" s="6"/>
-    </row>
-    <row r="160" spans="10:19">
-      <c r="J160" s="6"/>
-      <c r="K160" s="6"/>
-      <c r="L160" s="6"/>
-      <c r="M160" s="6"/>
-      <c r="N160" s="6"/>
-      <c r="O160" s="6"/>
-      <c r="P160" s="6"/>
-      <c r="Q160" s="6"/>
-      <c r="R160" s="6"/>
-      <c r="S160" s="6"/>
-    </row>
-    <row r="161" spans="10:19">
-      <c r="J161" s="6"/>
-      <c r="K161" s="6"/>
-      <c r="L161" s="6"/>
-      <c r="M161" s="6"/>
-      <c r="N161" s="6"/>
-      <c r="O161" s="6"/>
-      <c r="P161" s="6"/>
-      <c r="Q161" s="6"/>
-      <c r="R161" s="6"/>
-      <c r="S161" s="6"/>
-    </row>
-    <row r="162" spans="10:19">
-      <c r="J162" s="6"/>
-      <c r="K162" s="6"/>
-      <c r="L162" s="6"/>
-      <c r="M162" s="6"/>
-      <c r="N162" s="6"/>
-      <c r="O162" s="6"/>
-      <c r="P162" s="6"/>
-      <c r="Q162" s="6"/>
-      <c r="R162" s="6"/>
-      <c r="S162" s="6"/>
-    </row>
-    <row r="163" spans="10:19">
-      <c r="J163" s="6"/>
-      <c r="K163" s="6"/>
-      <c r="L163" s="6"/>
-      <c r="M163" s="6"/>
-      <c r="N163" s="6"/>
-      <c r="O163" s="6"/>
-      <c r="P163" s="6"/>
-      <c r="Q163" s="6"/>
-      <c r="R163" s="6"/>
-      <c r="S163" s="6"/>
-    </row>
-    <row r="164" spans="10:19">
-      <c r="J164" s="6"/>
-      <c r="K164" s="6"/>
-      <c r="L164" s="6"/>
-      <c r="M164" s="6"/>
-      <c r="N164" s="6"/>
-      <c r="O164" s="6"/>
-      <c r="P164" s="6"/>
-      <c r="Q164" s="6"/>
-      <c r="R164" s="6"/>
-      <c r="S164" s="6"/>
-    </row>
-    <row r="165" spans="10:19">
-      <c r="J165" s="6"/>
-      <c r="K165" s="6"/>
-      <c r="L165" s="6"/>
-      <c r="M165" s="6"/>
-      <c r="N165" s="6"/>
-      <c r="O165" s="6"/>
-      <c r="P165" s="6"/>
-      <c r="Q165" s="6"/>
-      <c r="R165" s="6"/>
-      <c r="S165" s="6"/>
-    </row>
-    <row r="166" spans="10:19">
-      <c r="J166" s="6"/>
-      <c r="K166" s="6"/>
-      <c r="L166" s="6"/>
-      <c r="M166" s="6"/>
-      <c r="N166" s="6"/>
-      <c r="O166" s="6"/>
-      <c r="P166" s="6"/>
-      <c r="Q166" s="6"/>
-      <c r="R166" s="6"/>
-      <c r="S166" s="6"/>
-    </row>
-    <row r="167" spans="10:19">
-      <c r="J167" s="6"/>
-      <c r="K167" s="6"/>
-      <c r="L167" s="6"/>
-      <c r="M167" s="6"/>
-      <c r="N167" s="6"/>
-      <c r="O167" s="6"/>
-      <c r="P167" s="6"/>
-      <c r="Q167" s="6"/>
-      <c r="R167" s="6"/>
-      <c r="S167" s="6"/>
-    </row>
-    <row r="168" spans="10:19">
-      <c r="J168" s="6"/>
-      <c r="K168" s="6"/>
-      <c r="L168" s="6"/>
-      <c r="M168" s="6"/>
-      <c r="N168" s="6"/>
-      <c r="O168" s="6"/>
-      <c r="P168" s="6"/>
-      <c r="Q168" s="6"/>
-      <c r="R168" s="6"/>
-      <c r="S168" s="6"/>
-    </row>
-    <row r="169" spans="10:19">
-      <c r="J169" s="6"/>
-      <c r="K169" s="6"/>
-      <c r="L169" s="6"/>
-      <c r="M169" s="6"/>
-      <c r="N169" s="6"/>
-      <c r="O169" s="6"/>
-      <c r="P169" s="6"/>
-      <c r="Q169" s="6"/>
-      <c r="R169" s="6"/>
-      <c r="S169" s="6"/>
-    </row>
-    <row r="170" spans="10:19">
-      <c r="J170" s="6"/>
-      <c r="K170" s="6"/>
-      <c r="L170" s="6"/>
-      <c r="M170" s="6"/>
-      <c r="N170" s="6"/>
-      <c r="O170" s="6"/>
-      <c r="P170" s="6"/>
-      <c r="Q170" s="6"/>
-      <c r="R170" s="6"/>
-      <c r="S170" s="6"/>
-    </row>
-    <row r="171" spans="10:19">
-      <c r="J171" s="6"/>
-      <c r="K171" s="6"/>
-      <c r="L171" s="6"/>
-      <c r="M171" s="6"/>
-      <c r="N171" s="6"/>
-      <c r="O171" s="6"/>
-      <c r="P171" s="6"/>
-      <c r="Q171" s="6"/>
-      <c r="R171" s="6"/>
-      <c r="S171" s="6"/>
-    </row>
-    <row r="172" spans="10:19">
-      <c r="J172" s="6"/>
-      <c r="K172" s="6"/>
-      <c r="L172" s="6"/>
-      <c r="M172" s="6"/>
-      <c r="N172" s="6"/>
-      <c r="O172" s="6"/>
-      <c r="P172" s="6"/>
-      <c r="Q172" s="6"/>
-      <c r="R172" s="6"/>
-      <c r="S172" s="6"/>
-    </row>
-    <row r="173" spans="10:19">
-      <c r="J173" s="6"/>
-      <c r="K173" s="6"/>
-      <c r="L173" s="6"/>
-      <c r="M173" s="6"/>
-      <c r="N173" s="6"/>
-      <c r="O173" s="6"/>
-      <c r="P173" s="6"/>
-      <c r="Q173" s="6"/>
-      <c r="R173" s="6"/>
-      <c r="S173" s="6"/>
-    </row>
-    <row r="174" spans="10:19">
-      <c r="J174" s="6"/>
-      <c r="K174" s="6"/>
-      <c r="L174" s="6"/>
-      <c r="M174" s="6"/>
-      <c r="N174" s="6"/>
-      <c r="O174" s="6"/>
-      <c r="P174" s="6"/>
-      <c r="Q174" s="6"/>
-      <c r="R174" s="6"/>
-      <c r="S174" s="6"/>
-    </row>
-    <row r="175" spans="10:19">
-      <c r="J175" s="6"/>
-      <c r="K175" s="6"/>
-      <c r="L175" s="6"/>
-      <c r="M175" s="6"/>
-      <c r="N175" s="6"/>
-      <c r="O175" s="6"/>
-      <c r="P175" s="6"/>
-      <c r="Q175" s="6"/>
-      <c r="R175" s="6"/>
-      <c r="S175" s="6"/>
-    </row>
-    <row r="176" spans="10:19">
-      <c r="J176" s="6"/>
-      <c r="K176" s="6"/>
-      <c r="L176" s="6"/>
-      <c r="M176" s="6"/>
-      <c r="N176" s="6"/>
-      <c r="O176" s="6"/>
-      <c r="P176" s="6"/>
-      <c r="Q176" s="6"/>
-      <c r="R176" s="6"/>
-      <c r="S176" s="6"/>
-    </row>
-    <row r="177" spans="10:19">
-      <c r="J177" s="6"/>
-      <c r="K177" s="6"/>
-      <c r="L177" s="6"/>
-      <c r="M177" s="6"/>
-      <c r="N177" s="6"/>
-      <c r="O177" s="6"/>
-      <c r="P177" s="6"/>
-      <c r="Q177" s="6"/>
-      <c r="R177" s="6"/>
-      <c r="S177" s="6"/>
-    </row>
-    <row r="178" spans="10:19">
-      <c r="J178" s="6"/>
-      <c r="K178" s="6"/>
-      <c r="L178" s="6"/>
-      <c r="M178" s="6"/>
-      <c r="N178" s="6"/>
-      <c r="O178" s="6"/>
-      <c r="P178" s="6"/>
-      <c r="Q178" s="6"/>
-      <c r="R178" s="6"/>
-      <c r="S178" s="6"/>
-    </row>
-    <row r="179" spans="10:19">
-      <c r="J179" s="6"/>
-      <c r="K179" s="6"/>
-      <c r="L179" s="6"/>
-      <c r="M179" s="6"/>
-      <c r="N179" s="6"/>
-      <c r="O179" s="6"/>
-      <c r="P179" s="6"/>
-      <c r="Q179" s="6"/>
-      <c r="R179" s="6"/>
-      <c r="S179" s="6"/>
-    </row>
-    <row r="180" spans="10:19">
-      <c r="J180" s="6"/>
-      <c r="K180" s="6"/>
-      <c r="L180" s="6"/>
-      <c r="M180" s="6"/>
-      <c r="N180" s="6"/>
-      <c r="O180" s="6"/>
-      <c r="P180" s="6"/>
-      <c r="Q180" s="6"/>
-      <c r="R180" s="6"/>
-      <c r="S180" s="6"/>
-    </row>
-    <row r="181" spans="10:19">
-      <c r="J181" s="6"/>
-      <c r="K181" s="6"/>
-      <c r="L181" s="6"/>
-      <c r="M181" s="6"/>
-      <c r="N181" s="6"/>
-      <c r="O181" s="6"/>
-      <c r="P181" s="6"/>
-      <c r="Q181" s="6"/>
-      <c r="R181" s="6"/>
-      <c r="S181" s="6"/>
-    </row>
-    <row r="182" spans="10:19">
-      <c r="J182" s="6"/>
-      <c r="K182" s="6"/>
-      <c r="L182" s="6"/>
-      <c r="M182" s="6"/>
-      <c r="N182" s="6"/>
-      <c r="O182" s="6"/>
-      <c r="P182" s="6"/>
-      <c r="Q182" s="6"/>
-      <c r="R182" s="6"/>
-      <c r="S182" s="6"/>
-    </row>
-    <row r="183" spans="10:19">
-      <c r="J183" s="6"/>
-      <c r="K183" s="6"/>
-      <c r="L183" s="6"/>
-      <c r="M183" s="6"/>
-      <c r="N183" s="6"/>
-      <c r="O183" s="6"/>
-      <c r="P183" s="6"/>
-      <c r="Q183" s="6"/>
-      <c r="R183" s="6"/>
-      <c r="S183" s="6"/>
-    </row>
-    <row r="184" spans="10:19">
-      <c r="J184" s="6"/>
-      <c r="K184" s="6"/>
-      <c r="L184" s="6"/>
-      <c r="M184" s="6"/>
-      <c r="N184" s="6"/>
-      <c r="O184" s="6"/>
-      <c r="P184" s="6"/>
-      <c r="Q184" s="6"/>
-      <c r="R184" s="6"/>
-      <c r="S184" s="6"/>
-    </row>
-    <row r="185" spans="10:19">
-      <c r="J185" s="6"/>
-      <c r="K185" s="6"/>
-      <c r="L185" s="6"/>
-      <c r="M185" s="6"/>
-      <c r="N185" s="6"/>
-      <c r="O185" s="6"/>
-      <c r="P185" s="6"/>
-      <c r="Q185" s="6"/>
-      <c r="R185" s="6"/>
-      <c r="S185" s="6"/>
-    </row>
-    <row r="186" spans="10:19">
-      <c r="J186" s="6"/>
-      <c r="K186" s="6"/>
-      <c r="L186" s="6"/>
-      <c r="M186" s="6"/>
-      <c r="N186" s="6"/>
-      <c r="O186" s="6"/>
-      <c r="P186" s="6"/>
-      <c r="Q186" s="6"/>
-      <c r="R186" s="6"/>
-      <c r="S186" s="6"/>
-    </row>
-    <row r="187" spans="10:19">
-      <c r="J187" s="6"/>
-      <c r="K187" s="6"/>
-      <c r="L187" s="6"/>
-      <c r="M187" s="6"/>
-      <c r="N187" s="6"/>
-      <c r="O187" s="6"/>
-      <c r="P187" s="6"/>
-      <c r="Q187" s="6"/>
-      <c r="R187" s="6"/>
-      <c r="S187" s="6"/>
-    </row>
-    <row r="188" spans="10:19">
-      <c r="J188" s="6"/>
-      <c r="K188" s="6"/>
-      <c r="L188" s="6"/>
-      <c r="M188" s="6"/>
-      <c r="N188" s="6"/>
-      <c r="O188" s="6"/>
-      <c r="P188" s="6"/>
-      <c r="Q188" s="6"/>
-      <c r="R188" s="6"/>
-      <c r="S188" s="6"/>
+    </row>
+    <row r="117" spans="1:26">
+      <c r="A117" s="16"/>
+      <c r="B117" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D117" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="19"/>
+      <c r="I117" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J117" s="22"/>
+      <c r="K117" s="22"/>
+      <c r="L117" s="22"/>
+      <c r="M117" s="22"/>
+      <c r="N117" s="22"/>
+      <c r="O117" s="22"/>
+      <c r="P117" s="22"/>
+      <c r="Q117" s="22"/>
+      <c r="R117" s="22"/>
+      <c r="S117" s="22"/>
+    </row>
+    <row r="118" spans="1:26">
+      <c r="A118" s="16"/>
+      <c r="B118" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D118" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="19"/>
+      <c r="I118" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J118" s="22"/>
+      <c r="K118" s="22"/>
+      <c r="L118" s="22"/>
+      <c r="M118" s="22"/>
+      <c r="N118" s="22"/>
+      <c r="O118" s="22"/>
+      <c r="P118" s="22"/>
+      <c r="Q118" s="22"/>
+      <c r="R118" s="22"/>
+      <c r="S118" s="22"/>
+    </row>
+    <row r="119" spans="1:26">
+      <c r="A119" s="16"/>
+      <c r="B119" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D119" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19"/>
+      <c r="I119" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J119" s="22"/>
+      <c r="K119" s="22"/>
+      <c r="L119" s="22"/>
+      <c r="M119" s="22"/>
+      <c r="N119" s="22"/>
+      <c r="O119" s="22"/>
+      <c r="P119" s="22"/>
+      <c r="Q119" s="22"/>
+      <c r="R119" s="22"/>
+      <c r="S119" s="22"/>
+    </row>
+    <row r="120" spans="1:26">
+      <c r="A120" s="16"/>
+      <c r="B120" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D120" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="19"/>
+      <c r="I120" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J120" s="22"/>
+      <c r="K120" s="22"/>
+      <c r="L120" s="22"/>
+      <c r="M120" s="22"/>
+      <c r="N120" s="22"/>
+      <c r="O120" s="22"/>
+      <c r="P120" s="22"/>
+      <c r="Q120" s="22"/>
+      <c r="R120" s="22"/>
+      <c r="S120" s="22"/>
+    </row>
+    <row r="121" spans="1:26">
+      <c r="A121" s="16"/>
+      <c r="B121" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D121" s="12" t="str">
+        <f>IF(ISBLANK($B121),"",IF(ISBLANK($F121),"未着手",IF($I121=0,"完了","作業中")))</f>
+        <v>未着手</v>
+      </c>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="19"/>
+      <c r="H121" s="19"/>
+      <c r="I121" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J121" s="22"/>
+      <c r="K121" s="22"/>
+      <c r="L121" s="22"/>
+      <c r="M121" s="22"/>
+      <c r="N121" s="22"/>
+      <c r="O121" s="22"/>
+      <c r="P121" s="22"/>
+      <c r="Q121" s="22"/>
+      <c r="R121" s="22"/>
+      <c r="S121" s="22"/>
+    </row>
+    <row r="122" spans="1:26">
+      <c r="A122" s="16"/>
+      <c r="B122" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D122" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J122" s="22"/>
+      <c r="K122" s="22"/>
+      <c r="L122" s="22"/>
+      <c r="M122" s="22"/>
+      <c r="N122" s="22"/>
+      <c r="O122" s="22"/>
+      <c r="P122" s="22"/>
+      <c r="Q122" s="22"/>
+      <c r="R122" s="22"/>
+      <c r="S122" s="22"/>
+    </row>
+    <row r="123" spans="1:26">
+      <c r="A123" s="16"/>
+      <c r="B123" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D123" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J123" s="22"/>
+      <c r="K123" s="22"/>
+      <c r="L123" s="22"/>
+      <c r="M123" s="22"/>
+      <c r="N123" s="22"/>
+      <c r="O123" s="22"/>
+      <c r="P123" s="22"/>
+      <c r="Q123" s="22"/>
+      <c r="R123" s="22"/>
+      <c r="S123" s="22"/>
+    </row>
+    <row r="124" spans="1:26">
+      <c r="A124" s="16"/>
+      <c r="B124" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D124" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="19"/>
+      <c r="I124" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J124" s="22"/>
+      <c r="K124" s="22"/>
+      <c r="L124" s="22"/>
+      <c r="M124" s="22"/>
+      <c r="N124" s="22"/>
+      <c r="O124" s="22"/>
+      <c r="P124" s="22"/>
+      <c r="Q124" s="22"/>
+      <c r="R124" s="22"/>
+      <c r="S124" s="22"/>
+    </row>
+    <row r="125" spans="1:26">
+      <c r="A125" s="16"/>
+      <c r="B125" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D125" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19"/>
+      <c r="I125" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J125" s="22"/>
+      <c r="K125" s="22"/>
+      <c r="L125" s="22"/>
+      <c r="M125" s="22"/>
+      <c r="N125" s="22"/>
+      <c r="O125" s="22"/>
+      <c r="P125" s="22"/>
+      <c r="Q125" s="22"/>
+      <c r="R125" s="22"/>
+      <c r="S125" s="22"/>
+    </row>
+    <row r="126" spans="1:26">
+      <c r="A126" s="16"/>
+      <c r="B126" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D126" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J126" s="22"/>
+      <c r="K126" s="22"/>
+      <c r="L126" s="22"/>
+      <c r="M126" s="22"/>
+      <c r="N126" s="22"/>
+      <c r="O126" s="22"/>
+      <c r="P126" s="22"/>
+      <c r="Q126" s="22"/>
+      <c r="R126" s="22"/>
+      <c r="S126" s="22"/>
+    </row>
+    <row r="127" spans="1:26">
+      <c r="A127" s="16"/>
+      <c r="B127" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D127" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="19"/>
+      <c r="I127" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J127" s="22"/>
+      <c r="K127" s="22"/>
+      <c r="L127" s="22"/>
+      <c r="M127" s="22"/>
+      <c r="N127" s="22"/>
+      <c r="O127" s="22"/>
+      <c r="P127" s="22"/>
+      <c r="Q127" s="22"/>
+      <c r="R127" s="22"/>
+      <c r="S127" s="22"/>
+    </row>
+    <row r="128" spans="1:26">
+      <c r="A128" s="16"/>
+      <c r="B128" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D128" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="19"/>
+      <c r="H128" s="19"/>
+      <c r="I128" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J128" s="22"/>
+      <c r="K128" s="22"/>
+      <c r="L128" s="22"/>
+      <c r="M128" s="22"/>
+      <c r="N128" s="22"/>
+      <c r="O128" s="22"/>
+      <c r="P128" s="22"/>
+      <c r="Q128" s="22"/>
+      <c r="R128" s="22"/>
+      <c r="S128" s="22"/>
+    </row>
+    <row r="129" spans="1:19">
+      <c r="A129" s="16"/>
+      <c r="B129" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D129" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="19"/>
+      <c r="H129" s="19"/>
+      <c r="I129" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J129" s="22"/>
+      <c r="K129" s="22"/>
+      <c r="L129" s="22"/>
+      <c r="M129" s="22"/>
+      <c r="N129" s="22"/>
+      <c r="O129" s="22"/>
+      <c r="P129" s="22"/>
+      <c r="Q129" s="22"/>
+      <c r="R129" s="22"/>
+      <c r="S129" s="22"/>
+    </row>
+    <row r="130" spans="1:19">
+      <c r="A130" s="16"/>
+      <c r="B130" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D130" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J130" s="22"/>
+      <c r="K130" s="22"/>
+      <c r="L130" s="22"/>
+      <c r="M130" s="22"/>
+      <c r="N130" s="22"/>
+      <c r="O130" s="22"/>
+      <c r="P130" s="22"/>
+      <c r="Q130" s="22"/>
+      <c r="R130" s="22"/>
+      <c r="S130" s="22"/>
+    </row>
+    <row r="131" spans="1:19">
+      <c r="A131" s="16"/>
+      <c r="B131" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D131" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="19"/>
+      <c r="H131" s="19"/>
+      <c r="I131" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J131" s="22"/>
+      <c r="K131" s="22"/>
+      <c r="L131" s="22"/>
+      <c r="M131" s="22"/>
+      <c r="N131" s="22"/>
+      <c r="O131" s="22"/>
+      <c r="P131" s="22"/>
+      <c r="Q131" s="22"/>
+      <c r="R131" s="22"/>
+      <c r="S131" s="22"/>
+    </row>
+    <row r="132" spans="1:19">
+      <c r="A132" s="16"/>
+      <c r="B132" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D132" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="19"/>
+      <c r="H132" s="19"/>
+      <c r="I132" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J132" s="22"/>
+      <c r="K132" s="22"/>
+      <c r="L132" s="22"/>
+      <c r="M132" s="22"/>
+      <c r="N132" s="22"/>
+      <c r="O132" s="22"/>
+      <c r="P132" s="22"/>
+      <c r="Q132" s="22"/>
+      <c r="R132" s="22"/>
+      <c r="S132" s="22"/>
+    </row>
+    <row r="133" spans="1:19">
+      <c r="A133" s="16"/>
+      <c r="B133" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D133" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="19"/>
+      <c r="H133" s="19"/>
+      <c r="I133" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J133" s="22"/>
+      <c r="K133" s="22"/>
+      <c r="L133" s="22"/>
+      <c r="M133" s="22"/>
+      <c r="N133" s="22"/>
+      <c r="O133" s="22"/>
+      <c r="P133" s="22"/>
+      <c r="Q133" s="22"/>
+      <c r="R133" s="22"/>
+      <c r="S133" s="22"/>
+    </row>
+    <row r="134" spans="1:19">
+      <c r="A134" s="16"/>
+      <c r="B134" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D134" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>未着手</v>
+      </c>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="19"/>
+      <c r="I134" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J134" s="22"/>
+      <c r="K134" s="22"/>
+      <c r="L134" s="22"/>
+      <c r="M134" s="22"/>
+      <c r="N134" s="22"/>
+      <c r="O134" s="22"/>
+      <c r="P134" s="22"/>
+      <c r="Q134" s="22"/>
+      <c r="R134" s="22"/>
+      <c r="S134" s="22"/>
+    </row>
+    <row r="135" spans="1:19">
+      <c r="A135" s="16"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="18"/>
+      <c r="D135" s="12" t="str">
+        <f t="shared" ref="D135:D197" si="11">IF(ISBLANK($B135),"",IF(ISBLANK($F135),"未着手",IF($I135=0,"完了","作業中")))</f>
+        <v/>
+      </c>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="19"/>
+      <c r="H135" s="19"/>
+      <c r="I135" s="12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J135" s="22"/>
+      <c r="K135" s="22"/>
+      <c r="L135" s="22"/>
+      <c r="M135" s="22"/>
+      <c r="N135" s="22"/>
+      <c r="O135" s="22"/>
+      <c r="P135" s="22"/>
+      <c r="Q135" s="22"/>
+      <c r="R135" s="22"/>
+      <c r="S135" s="22"/>
+    </row>
+    <row r="136" spans="1:19">
+      <c r="A136" s="16"/>
+      <c r="B136" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C136" s="18"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="19"/>
+      <c r="H136" s="19"/>
+      <c r="I136" s="12" t="str">
+        <f t="shared" ref="I136:I198" ca="1" si="12">IF(ISBLANK(J136)=FALSE,OFFSET(I136,0,COUNTA(J136:Q136)),"")</f>
+        <v/>
+      </c>
+      <c r="J136" s="22"/>
+      <c r="K136" s="22"/>
+      <c r="L136" s="22"/>
+      <c r="M136" s="22"/>
+      <c r="N136" s="22"/>
+      <c r="O136" s="22"/>
+      <c r="P136" s="22"/>
+      <c r="Q136" s="22"/>
+      <c r="R136" s="22"/>
+      <c r="S136" s="22"/>
+    </row>
+    <row r="137" spans="1:19">
+      <c r="A137" s="16"/>
+      <c r="B137" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D137" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>未着手</v>
+      </c>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="19"/>
+      <c r="H137" s="19"/>
+      <c r="I137" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J137" s="22"/>
+      <c r="K137" s="22"/>
+      <c r="L137" s="22"/>
+      <c r="M137" s="22"/>
+      <c r="N137" s="22"/>
+      <c r="O137" s="22"/>
+      <c r="P137" s="22"/>
+      <c r="Q137" s="22"/>
+      <c r="R137" s="22"/>
+      <c r="S137" s="22"/>
+    </row>
+    <row r="138" spans="1:19">
+      <c r="A138" s="16"/>
+      <c r="B138" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D138" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>未着手</v>
+      </c>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="19"/>
+      <c r="H138" s="19"/>
+      <c r="I138" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J138" s="22"/>
+      <c r="K138" s="22"/>
+      <c r="L138" s="22"/>
+      <c r="M138" s="22"/>
+      <c r="N138" s="22"/>
+      <c r="O138" s="22"/>
+      <c r="P138" s="22"/>
+      <c r="Q138" s="22"/>
+      <c r="R138" s="22"/>
+      <c r="S138" s="22"/>
+    </row>
+    <row r="139" spans="1:19">
+      <c r="A139" s="16"/>
+      <c r="B139" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D139" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>未着手</v>
+      </c>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J139" s="22"/>
+      <c r="K139" s="22"/>
+      <c r="L139" s="22"/>
+      <c r="M139" s="22"/>
+      <c r="N139" s="22"/>
+      <c r="O139" s="22"/>
+      <c r="P139" s="22"/>
+      <c r="Q139" s="22"/>
+      <c r="R139" s="22"/>
+      <c r="S139" s="22"/>
+    </row>
+    <row r="140" spans="1:19">
+      <c r="A140" s="16"/>
+      <c r="B140" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D140" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>未着手</v>
+      </c>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="19"/>
+      <c r="H140" s="19"/>
+      <c r="I140" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J140" s="22"/>
+      <c r="K140" s="22"/>
+      <c r="L140" s="22"/>
+      <c r="M140" s="22"/>
+      <c r="N140" s="22"/>
+      <c r="O140" s="22"/>
+      <c r="P140" s="22"/>
+      <c r="Q140" s="22"/>
+      <c r="R140" s="22"/>
+      <c r="S140" s="22"/>
+    </row>
+    <row r="141" spans="1:19">
+      <c r="A141" s="16"/>
+      <c r="B141" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D141" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>未着手</v>
+      </c>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="19"/>
+      <c r="H141" s="19"/>
+      <c r="I141" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J141" s="22"/>
+      <c r="K141" s="22"/>
+      <c r="L141" s="22"/>
+      <c r="M141" s="22"/>
+      <c r="N141" s="22"/>
+      <c r="O141" s="22"/>
+      <c r="P141" s="22"/>
+      <c r="Q141" s="22"/>
+      <c r="R141" s="22"/>
+      <c r="S141" s="22"/>
+    </row>
+    <row r="142" spans="1:19">
+      <c r="A142" s="16"/>
+      <c r="B142" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D142" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>未着手</v>
+      </c>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="19"/>
+      <c r="H142" s="19"/>
+      <c r="I142" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J142" s="22"/>
+      <c r="K142" s="22"/>
+      <c r="L142" s="22"/>
+      <c r="M142" s="22"/>
+      <c r="N142" s="22"/>
+      <c r="O142" s="22"/>
+      <c r="P142" s="22"/>
+      <c r="Q142" s="22"/>
+      <c r="R142" s="22"/>
+      <c r="S142" s="22"/>
+    </row>
+    <row r="143" spans="1:19">
+      <c r="A143" s="16"/>
+      <c r="B143" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D143" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>未着手</v>
+      </c>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="19"/>
+      <c r="I143" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J143" s="22"/>
+      <c r="K143" s="22"/>
+      <c r="L143" s="22"/>
+      <c r="M143" s="22"/>
+      <c r="N143" s="22"/>
+      <c r="O143" s="22"/>
+      <c r="P143" s="22"/>
+      <c r="Q143" s="22"/>
+      <c r="R143" s="22"/>
+      <c r="S143" s="22"/>
+    </row>
+    <row r="144" spans="1:19">
+      <c r="A144" s="16"/>
+      <c r="B144" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D144" s="12" t="str">
+        <f>IF(ISBLANK($B144),"",IF(ISBLANK($F144),"未着手",IF($I144=0,"完了","作業中")))</f>
+        <v>未着手</v>
+      </c>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="19"/>
+      <c r="H144" s="19"/>
+      <c r="I144" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J144" s="22"/>
+      <c r="K144" s="22"/>
+      <c r="L144" s="22"/>
+      <c r="M144" s="22"/>
+      <c r="N144" s="22"/>
+      <c r="O144" s="22"/>
+      <c r="P144" s="22"/>
+      <c r="Q144" s="22"/>
+      <c r="R144" s="22"/>
+      <c r="S144" s="22"/>
+    </row>
+    <row r="145" spans="1:19">
+      <c r="A145" s="16"/>
+      <c r="B145" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D145" s="12" t="str">
+        <f>IF(ISBLANK($B145),"",IF(ISBLANK($F145),"未着手",IF($I145=0,"完了","作業中")))</f>
+        <v>未着手</v>
+      </c>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="19"/>
+      <c r="H145" s="19"/>
+      <c r="I145" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J145" s="22"/>
+      <c r="K145" s="22"/>
+      <c r="L145" s="22"/>
+      <c r="M145" s="22"/>
+      <c r="N145" s="22"/>
+      <c r="O145" s="22"/>
+      <c r="P145" s="22"/>
+      <c r="Q145" s="22"/>
+      <c r="R145" s="22"/>
+      <c r="S145" s="22"/>
+    </row>
+    <row r="146" spans="1:19">
+      <c r="A146" s="16"/>
+      <c r="B146" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C146" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D146" s="12" t="str">
+        <f>IF(ISBLANK($B146),"",IF(ISBLANK($F146),"未着手",IF($I146=0,"完了","作業中")))</f>
+        <v>未着手</v>
+      </c>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="19"/>
+      <c r="H146" s="19"/>
+      <c r="I146" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J146" s="22"/>
+      <c r="K146" s="22"/>
+      <c r="L146" s="22"/>
+      <c r="M146" s="22"/>
+      <c r="N146" s="22"/>
+      <c r="O146" s="22"/>
+      <c r="P146" s="22"/>
+      <c r="Q146" s="22"/>
+      <c r="R146" s="22"/>
+      <c r="S146" s="22"/>
+    </row>
+    <row r="147" spans="1:19">
+      <c r="A147" s="16"/>
+      <c r="B147" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D147" s="12" t="str">
+        <f>IF(ISBLANK($B147),"",IF(ISBLANK($F147),"未着手",IF($I147=0,"完了","作業中")))</f>
+        <v>未着手</v>
+      </c>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J147" s="22"/>
+      <c r="K147" s="22"/>
+      <c r="L147" s="22"/>
+      <c r="M147" s="22"/>
+      <c r="N147" s="22"/>
+      <c r="O147" s="22"/>
+      <c r="P147" s="22"/>
+      <c r="Q147" s="22"/>
+      <c r="R147" s="22"/>
+      <c r="S147" s="22"/>
+    </row>
+    <row r="148" spans="1:19">
+      <c r="A148" s="16"/>
+      <c r="B148" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D148" s="12" t="str">
+        <f>IF(ISBLANK($B148),"",IF(ISBLANK($F148),"未着手",IF($I148=0,"完了","作業中")))</f>
+        <v>未着手</v>
+      </c>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="19"/>
+      <c r="H148" s="19"/>
+      <c r="I148" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J148" s="22"/>
+      <c r="K148" s="22"/>
+      <c r="L148" s="22"/>
+      <c r="M148" s="22"/>
+      <c r="N148" s="22"/>
+      <c r="O148" s="22"/>
+      <c r="P148" s="22"/>
+      <c r="Q148" s="22"/>
+      <c r="R148" s="22"/>
+      <c r="S148" s="22"/>
+    </row>
+    <row r="149" spans="1:19">
+      <c r="A149" s="16"/>
+      <c r="B149" s="17"/>
+      <c r="C149" s="18"/>
+      <c r="D149" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="19"/>
+      <c r="H149" s="19"/>
+      <c r="I149" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J149" s="22"/>
+      <c r="K149" s="22"/>
+      <c r="L149" s="22"/>
+      <c r="M149" s="22"/>
+      <c r="N149" s="22"/>
+      <c r="O149" s="22"/>
+      <c r="P149" s="22"/>
+      <c r="Q149" s="22"/>
+      <c r="R149" s="22"/>
+      <c r="S149" s="22"/>
+    </row>
+    <row r="150" spans="1:19">
+      <c r="A150" s="16"/>
+      <c r="B150" s="17"/>
+      <c r="C150" s="18"/>
+      <c r="D150" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="19"/>
+      <c r="H150" s="19"/>
+      <c r="I150" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J150" s="22"/>
+      <c r="K150" s="22"/>
+      <c r="L150" s="22"/>
+      <c r="M150" s="22"/>
+      <c r="N150" s="22"/>
+      <c r="O150" s="22"/>
+      <c r="P150" s="22"/>
+      <c r="Q150" s="22"/>
+      <c r="R150" s="22"/>
+      <c r="S150" s="22"/>
+    </row>
+    <row r="151" spans="1:19">
+      <c r="A151" s="16"/>
+      <c r="B151" s="17"/>
+      <c r="C151" s="18"/>
+      <c r="D151" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="19"/>
+      <c r="I151" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J151" s="22"/>
+      <c r="K151" s="22"/>
+      <c r="L151" s="22"/>
+      <c r="M151" s="22"/>
+      <c r="N151" s="22"/>
+      <c r="O151" s="22"/>
+      <c r="P151" s="22"/>
+      <c r="Q151" s="22"/>
+      <c r="R151" s="22"/>
+      <c r="S151" s="22"/>
+    </row>
+    <row r="152" spans="1:19">
+      <c r="A152" s="16"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="18"/>
+      <c r="D152" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="19"/>
+      <c r="I152" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J152" s="22"/>
+      <c r="K152" s="22"/>
+      <c r="L152" s="22"/>
+      <c r="M152" s="22"/>
+      <c r="N152" s="22"/>
+      <c r="O152" s="22"/>
+      <c r="P152" s="22"/>
+      <c r="Q152" s="22"/>
+      <c r="R152" s="22"/>
+      <c r="S152" s="22"/>
+    </row>
+    <row r="153" spans="1:19">
+      <c r="A153" s="16"/>
+      <c r="B153" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C153" s="18"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J153" s="22"/>
+      <c r="K153" s="22"/>
+      <c r="L153" s="22"/>
+      <c r="M153" s="22"/>
+      <c r="N153" s="22"/>
+      <c r="O153" s="22"/>
+      <c r="P153" s="22"/>
+      <c r="Q153" s="22"/>
+      <c r="R153" s="22"/>
+      <c r="S153" s="22"/>
+    </row>
+    <row r="154" spans="1:19">
+      <c r="A154" s="16"/>
+      <c r="B154" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C154" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D154" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>未着手</v>
+      </c>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="19"/>
+      <c r="I154" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J154" s="22"/>
+      <c r="K154" s="22"/>
+      <c r="L154" s="22"/>
+      <c r="M154" s="22"/>
+      <c r="N154" s="22"/>
+      <c r="O154" s="22"/>
+      <c r="P154" s="22"/>
+      <c r="Q154" s="22"/>
+      <c r="R154" s="22"/>
+      <c r="S154" s="22"/>
+    </row>
+    <row r="155" spans="1:19">
+      <c r="A155" s="16"/>
+      <c r="B155" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C155" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D155" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>未着手</v>
+      </c>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="19"/>
+      <c r="I155" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J155" s="22"/>
+      <c r="K155" s="22"/>
+      <c r="L155" s="22"/>
+      <c r="M155" s="22"/>
+      <c r="N155" s="22"/>
+      <c r="O155" s="22"/>
+      <c r="P155" s="22"/>
+      <c r="Q155" s="22"/>
+      <c r="R155" s="22"/>
+      <c r="S155" s="22"/>
+    </row>
+    <row r="156" spans="1:19">
+      <c r="A156" s="16"/>
+      <c r="B156" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C156" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D156" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>未着手</v>
+      </c>
+      <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="19"/>
+      <c r="I156" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J156" s="22"/>
+      <c r="K156" s="22"/>
+      <c r="L156" s="22"/>
+      <c r="M156" s="22"/>
+      <c r="N156" s="22"/>
+      <c r="O156" s="22"/>
+      <c r="P156" s="22"/>
+      <c r="Q156" s="22"/>
+      <c r="R156" s="22"/>
+      <c r="S156" s="22"/>
+    </row>
+    <row r="157" spans="1:19">
+      <c r="A157" s="16"/>
+      <c r="B157" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="C157" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D157" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v>未着手</v>
+      </c>
+      <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
+      <c r="G157" s="19"/>
+      <c r="H157" s="19"/>
+      <c r="I157" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J157" s="22"/>
+      <c r="K157" s="22"/>
+      <c r="L157" s="22"/>
+      <c r="M157" s="22"/>
+      <c r="N157" s="22"/>
+      <c r="O157" s="22"/>
+      <c r="P157" s="22"/>
+      <c r="Q157" s="22"/>
+      <c r="R157" s="22"/>
+      <c r="S157" s="22"/>
+    </row>
+    <row r="158" spans="1:19">
+      <c r="A158" s="16"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="18"/>
+      <c r="D158" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J158" s="22"/>
+      <c r="K158" s="22"/>
+      <c r="L158" s="22"/>
+      <c r="M158" s="22"/>
+      <c r="N158" s="22"/>
+      <c r="O158" s="22"/>
+      <c r="P158" s="22"/>
+      <c r="Q158" s="22"/>
+      <c r="R158" s="22"/>
+      <c r="S158" s="22"/>
+    </row>
+    <row r="159" spans="1:19">
+      <c r="A159" s="16"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="18"/>
+      <c r="D159" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="19"/>
+      <c r="I159" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J159" s="22"/>
+      <c r="K159" s="22"/>
+      <c r="L159" s="22"/>
+      <c r="M159" s="22"/>
+      <c r="N159" s="22"/>
+      <c r="O159" s="22"/>
+      <c r="P159" s="22"/>
+      <c r="Q159" s="22"/>
+      <c r="R159" s="22"/>
+      <c r="S159" s="22"/>
+    </row>
+    <row r="160" spans="1:19">
+      <c r="A160" s="16"/>
+      <c r="B160" s="17"/>
+      <c r="C160" s="18"/>
+      <c r="D160" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="19"/>
+      <c r="I160" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J160" s="22"/>
+      <c r="K160" s="22"/>
+      <c r="L160" s="22"/>
+      <c r="M160" s="22"/>
+      <c r="N160" s="22"/>
+      <c r="O160" s="22"/>
+      <c r="P160" s="22"/>
+      <c r="Q160" s="22"/>
+      <c r="R160" s="22"/>
+      <c r="S160" s="22"/>
+    </row>
+    <row r="161" spans="1:19">
+      <c r="A161" s="16"/>
+      <c r="B161" s="17"/>
+      <c r="C161" s="18"/>
+      <c r="D161" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="19"/>
+      <c r="I161" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J161" s="22"/>
+      <c r="K161" s="22"/>
+      <c r="L161" s="22"/>
+      <c r="M161" s="22"/>
+      <c r="N161" s="22"/>
+      <c r="O161" s="22"/>
+      <c r="P161" s="22"/>
+      <c r="Q161" s="22"/>
+      <c r="R161" s="22"/>
+      <c r="S161" s="22"/>
+    </row>
+    <row r="162" spans="1:19">
+      <c r="A162" s="16"/>
+      <c r="B162" s="17"/>
+      <c r="C162" s="18"/>
+      <c r="D162" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="19"/>
+      <c r="I162" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J162" s="22"/>
+      <c r="K162" s="22"/>
+      <c r="L162" s="22"/>
+      <c r="M162" s="22"/>
+      <c r="N162" s="22"/>
+      <c r="O162" s="22"/>
+      <c r="P162" s="22"/>
+      <c r="Q162" s="22"/>
+      <c r="R162" s="22"/>
+      <c r="S162" s="22"/>
+    </row>
+    <row r="163" spans="1:19">
+      <c r="A163" s="16"/>
+      <c r="B163" s="17"/>
+      <c r="C163" s="18"/>
+      <c r="D163" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J163" s="22"/>
+      <c r="K163" s="22"/>
+      <c r="L163" s="22"/>
+      <c r="M163" s="22"/>
+      <c r="N163" s="22"/>
+      <c r="O163" s="22"/>
+      <c r="P163" s="22"/>
+      <c r="Q163" s="22"/>
+      <c r="R163" s="22"/>
+      <c r="S163" s="22"/>
+    </row>
+    <row r="164" spans="1:19">
+      <c r="A164" s="16"/>
+      <c r="B164" s="17"/>
+      <c r="C164" s="18"/>
+      <c r="D164" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="19"/>
+      <c r="I164" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J164" s="22"/>
+      <c r="K164" s="22"/>
+      <c r="L164" s="22"/>
+      <c r="M164" s="22"/>
+      <c r="N164" s="22"/>
+      <c r="O164" s="22"/>
+      <c r="P164" s="22"/>
+      <c r="Q164" s="22"/>
+      <c r="R164" s="22"/>
+      <c r="S164" s="22"/>
+    </row>
+    <row r="165" spans="1:19">
+      <c r="A165" s="16"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="18"/>
+      <c r="D165" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="19"/>
+      <c r="I165" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J165" s="22"/>
+      <c r="K165" s="22"/>
+      <c r="L165" s="22"/>
+      <c r="M165" s="22"/>
+      <c r="N165" s="22"/>
+      <c r="O165" s="22"/>
+      <c r="P165" s="22"/>
+      <c r="Q165" s="22"/>
+      <c r="R165" s="22"/>
+      <c r="S165" s="22"/>
+    </row>
+    <row r="166" spans="1:19">
+      <c r="A166" s="16"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="18"/>
+      <c r="D166" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J166" s="22"/>
+      <c r="K166" s="22"/>
+      <c r="L166" s="22"/>
+      <c r="M166" s="22"/>
+      <c r="N166" s="22"/>
+      <c r="O166" s="22"/>
+      <c r="P166" s="22"/>
+      <c r="Q166" s="22"/>
+      <c r="R166" s="22"/>
+      <c r="S166" s="22"/>
+    </row>
+    <row r="167" spans="1:19">
+      <c r="A167" s="16"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="18"/>
+      <c r="D167" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="19"/>
+      <c r="I167" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J167" s="22"/>
+      <c r="K167" s="22"/>
+      <c r="L167" s="22"/>
+      <c r="M167" s="22"/>
+      <c r="N167" s="22"/>
+      <c r="O167" s="22"/>
+      <c r="P167" s="22"/>
+      <c r="Q167" s="22"/>
+      <c r="R167" s="22"/>
+      <c r="S167" s="22"/>
+    </row>
+    <row r="168" spans="1:19">
+      <c r="A168" s="16"/>
+      <c r="B168" s="17"/>
+      <c r="C168" s="18"/>
+      <c r="D168" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="19"/>
+      <c r="I168" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J168" s="22"/>
+      <c r="K168" s="22"/>
+      <c r="L168" s="22"/>
+      <c r="M168" s="22"/>
+      <c r="N168" s="22"/>
+      <c r="O168" s="22"/>
+      <c r="P168" s="22"/>
+      <c r="Q168" s="22"/>
+      <c r="R168" s="22"/>
+      <c r="S168" s="22"/>
+    </row>
+    <row r="169" spans="1:19">
+      <c r="A169" s="16"/>
+      <c r="B169" s="17"/>
+      <c r="C169" s="18"/>
+      <c r="D169" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="19"/>
+      <c r="I169" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J169" s="22"/>
+      <c r="K169" s="22"/>
+      <c r="L169" s="22"/>
+      <c r="M169" s="22"/>
+      <c r="N169" s="22"/>
+      <c r="O169" s="22"/>
+      <c r="P169" s="22"/>
+      <c r="Q169" s="22"/>
+      <c r="R169" s="22"/>
+      <c r="S169" s="22"/>
+    </row>
+    <row r="170" spans="1:19">
+      <c r="A170" s="16"/>
+      <c r="B170" s="17"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="19"/>
+      <c r="H170" s="19"/>
+      <c r="I170" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J170" s="22"/>
+      <c r="K170" s="22"/>
+      <c r="L170" s="22"/>
+      <c r="M170" s="22"/>
+      <c r="N170" s="22"/>
+      <c r="O170" s="22"/>
+      <c r="P170" s="22"/>
+      <c r="Q170" s="22"/>
+      <c r="R170" s="22"/>
+      <c r="S170" s="22"/>
+    </row>
+    <row r="171" spans="1:19">
+      <c r="A171" s="16"/>
+      <c r="B171" s="17"/>
+      <c r="C171" s="18"/>
+      <c r="D171" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="19"/>
+      <c r="I171" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J171" s="22"/>
+      <c r="K171" s="22"/>
+      <c r="L171" s="22"/>
+      <c r="M171" s="22"/>
+      <c r="N171" s="22"/>
+      <c r="O171" s="22"/>
+      <c r="P171" s="22"/>
+      <c r="Q171" s="22"/>
+      <c r="R171" s="22"/>
+      <c r="S171" s="22"/>
+    </row>
+    <row r="172" spans="1:19">
+      <c r="A172" s="16"/>
+      <c r="B172" s="17"/>
+      <c r="C172" s="18"/>
+      <c r="D172" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="19"/>
+      <c r="H172" s="19"/>
+      <c r="I172" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J172" s="22"/>
+      <c r="K172" s="22"/>
+      <c r="L172" s="22"/>
+      <c r="M172" s="22"/>
+      <c r="N172" s="22"/>
+      <c r="O172" s="22"/>
+      <c r="P172" s="22"/>
+      <c r="Q172" s="22"/>
+      <c r="R172" s="22"/>
+      <c r="S172" s="22"/>
+    </row>
+    <row r="173" spans="1:19">
+      <c r="A173" s="16"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="18"/>
+      <c r="D173" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="19"/>
+      <c r="I173" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J173" s="22"/>
+      <c r="K173" s="22"/>
+      <c r="L173" s="22"/>
+      <c r="M173" s="22"/>
+      <c r="N173" s="22"/>
+      <c r="O173" s="22"/>
+      <c r="P173" s="22"/>
+      <c r="Q173" s="22"/>
+      <c r="R173" s="22"/>
+      <c r="S173" s="22"/>
+    </row>
+    <row r="174" spans="1:19">
+      <c r="A174" s="16"/>
+      <c r="B174" s="17"/>
+      <c r="C174" s="18"/>
+      <c r="D174" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="19"/>
+      <c r="I174" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J174" s="22"/>
+      <c r="K174" s="22"/>
+      <c r="L174" s="22"/>
+      <c r="M174" s="22"/>
+      <c r="N174" s="22"/>
+      <c r="O174" s="22"/>
+      <c r="P174" s="22"/>
+      <c r="Q174" s="22"/>
+      <c r="R174" s="22"/>
+      <c r="S174" s="22"/>
+    </row>
+    <row r="175" spans="1:19">
+      <c r="A175" s="16"/>
+      <c r="B175" s="17"/>
+      <c r="C175" s="18"/>
+      <c r="D175" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="19"/>
+      <c r="H175" s="19"/>
+      <c r="I175" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J175" s="22"/>
+      <c r="K175" s="22"/>
+      <c r="L175" s="22"/>
+      <c r="M175" s="22"/>
+      <c r="N175" s="22"/>
+      <c r="O175" s="22"/>
+      <c r="P175" s="22"/>
+      <c r="Q175" s="22"/>
+      <c r="R175" s="22"/>
+      <c r="S175" s="22"/>
+    </row>
+    <row r="176" spans="1:19">
+      <c r="A176" s="16"/>
+      <c r="B176" s="17"/>
+      <c r="C176" s="18"/>
+      <c r="D176" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="19"/>
+      <c r="H176" s="19"/>
+      <c r="I176" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J176" s="22"/>
+      <c r="K176" s="22"/>
+      <c r="L176" s="22"/>
+      <c r="M176" s="22"/>
+      <c r="N176" s="22"/>
+      <c r="O176" s="22"/>
+      <c r="P176" s="22"/>
+      <c r="Q176" s="22"/>
+      <c r="R176" s="22"/>
+      <c r="S176" s="22"/>
+    </row>
+    <row r="177" spans="1:19">
+      <c r="A177" s="16"/>
+      <c r="B177" s="17"/>
+      <c r="C177" s="18"/>
+      <c r="D177" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="19"/>
+      <c r="H177" s="19"/>
+      <c r="I177" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J177" s="22"/>
+      <c r="K177" s="22"/>
+      <c r="L177" s="22"/>
+      <c r="M177" s="22"/>
+      <c r="N177" s="22"/>
+      <c r="O177" s="22"/>
+      <c r="P177" s="22"/>
+      <c r="Q177" s="22"/>
+      <c r="R177" s="22"/>
+      <c r="S177" s="22"/>
+    </row>
+    <row r="178" spans="1:19">
+      <c r="A178" s="16"/>
+      <c r="B178" s="17"/>
+      <c r="C178" s="18"/>
+      <c r="D178" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="19"/>
+      <c r="I178" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J178" s="22"/>
+      <c r="K178" s="22"/>
+      <c r="L178" s="22"/>
+      <c r="M178" s="22"/>
+      <c r="N178" s="22"/>
+      <c r="O178" s="22"/>
+      <c r="P178" s="22"/>
+      <c r="Q178" s="22"/>
+      <c r="R178" s="22"/>
+      <c r="S178" s="22"/>
+    </row>
+    <row r="179" spans="1:19">
+      <c r="A179" s="16"/>
+      <c r="B179" s="17"/>
+      <c r="C179" s="18"/>
+      <c r="D179" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="19"/>
+      <c r="I179" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J179" s="22"/>
+      <c r="K179" s="22"/>
+      <c r="L179" s="22"/>
+      <c r="M179" s="22"/>
+      <c r="N179" s="22"/>
+      <c r="O179" s="22"/>
+      <c r="P179" s="22"/>
+      <c r="Q179" s="22"/>
+      <c r="R179" s="22"/>
+      <c r="S179" s="22"/>
+    </row>
+    <row r="180" spans="1:19">
+      <c r="A180" s="16"/>
+      <c r="B180" s="17"/>
+      <c r="C180" s="18"/>
+      <c r="D180" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="19"/>
+      <c r="I180" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J180" s="22"/>
+      <c r="K180" s="22"/>
+      <c r="L180" s="22"/>
+      <c r="M180" s="22"/>
+      <c r="N180" s="22"/>
+      <c r="O180" s="22"/>
+      <c r="P180" s="22"/>
+      <c r="Q180" s="22"/>
+      <c r="R180" s="22"/>
+      <c r="S180" s="22"/>
+    </row>
+    <row r="181" spans="1:19">
+      <c r="A181" s="16"/>
+      <c r="B181" s="17"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="19"/>
+      <c r="H181" s="19"/>
+      <c r="I181" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J181" s="22"/>
+      <c r="K181" s="22"/>
+      <c r="L181" s="22"/>
+      <c r="M181" s="22"/>
+      <c r="N181" s="22"/>
+      <c r="O181" s="22"/>
+      <c r="P181" s="22"/>
+      <c r="Q181" s="22"/>
+      <c r="R181" s="22"/>
+      <c r="S181" s="22"/>
+    </row>
+    <row r="182" spans="1:19">
+      <c r="A182" s="16"/>
+      <c r="B182" s="17"/>
+      <c r="C182" s="18"/>
+      <c r="D182" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="19"/>
+      <c r="H182" s="19"/>
+      <c r="I182" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J182" s="22"/>
+      <c r="K182" s="22"/>
+      <c r="L182" s="22"/>
+      <c r="M182" s="22"/>
+      <c r="N182" s="22"/>
+      <c r="O182" s="22"/>
+      <c r="P182" s="22"/>
+      <c r="Q182" s="22"/>
+      <c r="R182" s="22"/>
+      <c r="S182" s="22"/>
+    </row>
+    <row r="183" spans="1:19">
+      <c r="A183" s="16"/>
+      <c r="B183" s="17"/>
+      <c r="C183" s="18"/>
+      <c r="D183" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
+      <c r="G183" s="19"/>
+      <c r="H183" s="19"/>
+      <c r="I183" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J183" s="22"/>
+      <c r="K183" s="22"/>
+      <c r="L183" s="22"/>
+      <c r="M183" s="22"/>
+      <c r="N183" s="22"/>
+      <c r="O183" s="22"/>
+      <c r="P183" s="22"/>
+      <c r="Q183" s="22"/>
+      <c r="R183" s="22"/>
+      <c r="S183" s="22"/>
+    </row>
+    <row r="184" spans="1:19">
+      <c r="A184" s="16"/>
+      <c r="B184" s="17"/>
+      <c r="C184" s="18"/>
+      <c r="D184" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="19"/>
+      <c r="I184" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J184" s="22"/>
+      <c r="K184" s="22"/>
+      <c r="L184" s="22"/>
+      <c r="M184" s="22"/>
+      <c r="N184" s="22"/>
+      <c r="O184" s="22"/>
+      <c r="P184" s="22"/>
+      <c r="Q184" s="22"/>
+      <c r="R184" s="22"/>
+      <c r="S184" s="22"/>
+    </row>
+    <row r="185" spans="1:19">
+      <c r="A185" s="16"/>
+      <c r="B185" s="17"/>
+      <c r="C185" s="18"/>
+      <c r="D185" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="19"/>
+      <c r="H185" s="19"/>
+      <c r="I185" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J185" s="22"/>
+      <c r="K185" s="22"/>
+      <c r="L185" s="22"/>
+      <c r="M185" s="22"/>
+      <c r="N185" s="22"/>
+      <c r="O185" s="22"/>
+      <c r="P185" s="22"/>
+      <c r="Q185" s="22"/>
+      <c r="R185" s="22"/>
+      <c r="S185" s="22"/>
+    </row>
+    <row r="186" spans="1:19">
+      <c r="A186" s="16"/>
+      <c r="B186" s="17"/>
+      <c r="C186" s="18"/>
+      <c r="D186" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
+      <c r="G186" s="19"/>
+      <c r="H186" s="19"/>
+      <c r="I186" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J186" s="22"/>
+      <c r="K186" s="22"/>
+      <c r="L186" s="22"/>
+      <c r="M186" s="22"/>
+      <c r="N186" s="22"/>
+      <c r="O186" s="22"/>
+      <c r="P186" s="22"/>
+      <c r="Q186" s="22"/>
+      <c r="R186" s="22"/>
+      <c r="S186" s="22"/>
+    </row>
+    <row r="187" spans="1:19">
+      <c r="A187" s="16"/>
+      <c r="B187" s="17"/>
+      <c r="C187" s="18"/>
+      <c r="D187" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
+      <c r="G187" s="19"/>
+      <c r="H187" s="19"/>
+      <c r="I187" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J187" s="22"/>
+      <c r="K187" s="22"/>
+      <c r="L187" s="22"/>
+      <c r="M187" s="22"/>
+      <c r="N187" s="22"/>
+      <c r="O187" s="22"/>
+      <c r="P187" s="22"/>
+      <c r="Q187" s="22"/>
+      <c r="R187" s="22"/>
+      <c r="S187" s="22"/>
+    </row>
+    <row r="188" spans="1:19">
+      <c r="A188" s="16"/>
+      <c r="B188" s="17"/>
+      <c r="C188" s="18"/>
+      <c r="D188" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="19"/>
+      <c r="H188" s="19"/>
+      <c r="I188" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J188" s="22"/>
+      <c r="K188" s="22"/>
+      <c r="L188" s="22"/>
+      <c r="M188" s="22"/>
+      <c r="N188" s="22"/>
+      <c r="O188" s="22"/>
+      <c r="P188" s="22"/>
+      <c r="Q188" s="22"/>
+      <c r="R188" s="22"/>
+      <c r="S188" s="22"/>
+    </row>
+    <row r="189" spans="1:19">
+      <c r="A189" s="16"/>
+      <c r="B189" s="17"/>
+      <c r="C189" s="18"/>
+      <c r="D189" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E189" s="4"/>
+      <c r="F189" s="4"/>
+      <c r="G189" s="19"/>
+      <c r="H189" s="19"/>
+      <c r="I189" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J189" s="22"/>
+      <c r="K189" s="22"/>
+      <c r="L189" s="22"/>
+      <c r="M189" s="22"/>
+      <c r="N189" s="22"/>
+      <c r="O189" s="22"/>
+      <c r="P189" s="22"/>
+      <c r="Q189" s="22"/>
+      <c r="R189" s="22"/>
+      <c r="S189" s="22"/>
+    </row>
+    <row r="190" spans="1:19">
+      <c r="A190" s="16"/>
+      <c r="B190" s="17"/>
+      <c r="C190" s="18"/>
+      <c r="D190" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E190" s="4"/>
+      <c r="F190" s="4"/>
+      <c r="G190" s="19"/>
+      <c r="H190" s="19"/>
+      <c r="I190" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J190" s="22"/>
+      <c r="K190" s="22"/>
+      <c r="L190" s="22"/>
+      <c r="M190" s="22"/>
+      <c r="N190" s="22"/>
+      <c r="O190" s="22"/>
+      <c r="P190" s="22"/>
+      <c r="Q190" s="22"/>
+      <c r="R190" s="22"/>
+      <c r="S190" s="22"/>
+    </row>
+    <row r="191" spans="1:19">
+      <c r="A191" s="16"/>
+      <c r="B191" s="17"/>
+      <c r="C191" s="18"/>
+      <c r="D191" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E191" s="4"/>
+      <c r="F191" s="4"/>
+      <c r="G191" s="19"/>
+      <c r="H191" s="19"/>
+      <c r="I191" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J191" s="22"/>
+      <c r="K191" s="22"/>
+      <c r="L191" s="22"/>
+      <c r="M191" s="22"/>
+      <c r="N191" s="22"/>
+      <c r="O191" s="22"/>
+      <c r="P191" s="22"/>
+      <c r="Q191" s="22"/>
+      <c r="R191" s="22"/>
+      <c r="S191" s="22"/>
+    </row>
+    <row r="192" spans="1:19">
+      <c r="A192" s="16"/>
+      <c r="B192" s="17"/>
+      <c r="C192" s="18"/>
+      <c r="D192" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
+      <c r="G192" s="19"/>
+      <c r="H192" s="19"/>
+      <c r="I192" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J192" s="22"/>
+      <c r="K192" s="22"/>
+      <c r="L192" s="22"/>
+      <c r="M192" s="22"/>
+      <c r="N192" s="22"/>
+      <c r="O192" s="22"/>
+      <c r="P192" s="22"/>
+      <c r="Q192" s="22"/>
+      <c r="R192" s="22"/>
+      <c r="S192" s="22"/>
+    </row>
+    <row r="193" spans="1:19">
+      <c r="A193" s="16"/>
+      <c r="B193" s="17"/>
+      <c r="C193" s="18"/>
+      <c r="D193" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E193" s="4"/>
+      <c r="F193" s="4"/>
+      <c r="G193" s="19"/>
+      <c r="H193" s="19"/>
+      <c r="I193" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J193" s="22"/>
+      <c r="K193" s="22"/>
+      <c r="L193" s="22"/>
+      <c r="M193" s="22"/>
+      <c r="N193" s="22"/>
+      <c r="O193" s="22"/>
+      <c r="P193" s="22"/>
+      <c r="Q193" s="22"/>
+      <c r="R193" s="22"/>
+      <c r="S193" s="22"/>
+    </row>
+    <row r="194" spans="1:19">
+      <c r="A194" s="16"/>
+      <c r="B194" s="17"/>
+      <c r="C194" s="18"/>
+      <c r="D194" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
+      <c r="G194" s="19"/>
+      <c r="H194" s="19"/>
+      <c r="I194" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J194" s="22"/>
+      <c r="K194" s="22"/>
+      <c r="L194" s="22"/>
+      <c r="M194" s="22"/>
+      <c r="N194" s="22"/>
+      <c r="O194" s="22"/>
+      <c r="P194" s="22"/>
+      <c r="Q194" s="22"/>
+      <c r="R194" s="22"/>
+      <c r="S194" s="22"/>
+    </row>
+    <row r="195" spans="1:19">
+      <c r="A195" s="16"/>
+      <c r="B195" s="17"/>
+      <c r="C195" s="18"/>
+      <c r="D195" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
+      <c r="G195" s="19"/>
+      <c r="H195" s="19"/>
+      <c r="I195" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J195" s="22"/>
+      <c r="K195" s="22"/>
+      <c r="L195" s="22"/>
+      <c r="M195" s="22"/>
+      <c r="N195" s="22"/>
+      <c r="O195" s="22"/>
+      <c r="P195" s="22"/>
+      <c r="Q195" s="22"/>
+      <c r="R195" s="22"/>
+      <c r="S195" s="22"/>
+    </row>
+    <row r="196" spans="1:19">
+      <c r="A196" s="16"/>
+      <c r="B196" s="17"/>
+      <c r="C196" s="18"/>
+      <c r="D196" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="19"/>
+      <c r="H196" s="19"/>
+      <c r="I196" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J196" s="22"/>
+      <c r="K196" s="22"/>
+      <c r="L196" s="22"/>
+      <c r="M196" s="22"/>
+      <c r="N196" s="22"/>
+      <c r="O196" s="22"/>
+      <c r="P196" s="22"/>
+      <c r="Q196" s="22"/>
+      <c r="R196" s="22"/>
+      <c r="S196" s="22"/>
+    </row>
+    <row r="197" spans="1:19">
+      <c r="A197" s="16"/>
+      <c r="B197" s="17"/>
+      <c r="C197" s="18"/>
+      <c r="D197" s="12" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="E197" s="4"/>
+      <c r="F197" s="4"/>
+      <c r="G197" s="19"/>
+      <c r="H197" s="19"/>
+      <c r="I197" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J197" s="22"/>
+      <c r="K197" s="22"/>
+      <c r="L197" s="22"/>
+      <c r="M197" s="22"/>
+      <c r="N197" s="22"/>
+      <c r="O197" s="22"/>
+      <c r="P197" s="22"/>
+      <c r="Q197" s="22"/>
+      <c r="R197" s="22"/>
+      <c r="S197" s="22"/>
+    </row>
+    <row r="198" spans="1:19">
+      <c r="A198" s="16"/>
+      <c r="B198" s="17"/>
+      <c r="C198" s="18"/>
+      <c r="D198" s="12" t="str">
+        <f t="shared" ref="D198:D219" si="13">IF(ISBLANK($B198),"",IF(ISBLANK($F198),"未着手",IF($I198=0,"完了","作業中")))</f>
+        <v/>
+      </c>
+      <c r="E198" s="4"/>
+      <c r="F198" s="4"/>
+      <c r="G198" s="19"/>
+      <c r="H198" s="19"/>
+      <c r="I198" s="12" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v/>
+      </c>
+      <c r="J198" s="22"/>
+      <c r="K198" s="22"/>
+      <c r="L198" s="22"/>
+      <c r="M198" s="22"/>
+      <c r="N198" s="22"/>
+      <c r="O198" s="22"/>
+      <c r="P198" s="22"/>
+      <c r="Q198" s="22"/>
+      <c r="R198" s="22"/>
+      <c r="S198" s="22"/>
+    </row>
+    <row r="199" spans="1:19">
+      <c r="A199" s="16"/>
+      <c r="B199" s="17"/>
+      <c r="C199" s="18"/>
+      <c r="D199" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E199" s="4"/>
+      <c r="F199" s="4"/>
+      <c r="G199" s="19"/>
+      <c r="H199" s="19"/>
+      <c r="I199" s="12" t="str">
+        <f t="shared" ref="I199:I219" ca="1" si="14">IF(ISBLANK(J199)=FALSE,OFFSET(I199,0,COUNTA(J199:Q199)),"")</f>
+        <v/>
+      </c>
+      <c r="J199" s="22"/>
+      <c r="K199" s="22"/>
+      <c r="L199" s="22"/>
+      <c r="M199" s="22"/>
+      <c r="N199" s="22"/>
+      <c r="O199" s="22"/>
+      <c r="P199" s="22"/>
+      <c r="Q199" s="22"/>
+      <c r="R199" s="22"/>
+      <c r="S199" s="22"/>
+    </row>
+    <row r="200" spans="1:19">
+      <c r="A200" s="16"/>
+      <c r="B200" s="17"/>
+      <c r="C200" s="18"/>
+      <c r="D200" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E200" s="4"/>
+      <c r="F200" s="4"/>
+      <c r="G200" s="19"/>
+      <c r="H200" s="19"/>
+      <c r="I200" s="12" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J200" s="22"/>
+      <c r="K200" s="22"/>
+      <c r="L200" s="22"/>
+      <c r="M200" s="22"/>
+      <c r="N200" s="22"/>
+      <c r="O200" s="22"/>
+      <c r="P200" s="22"/>
+      <c r="Q200" s="22"/>
+      <c r="R200" s="22"/>
+      <c r="S200" s="22"/>
+    </row>
+    <row r="201" spans="1:19">
+      <c r="A201" s="16"/>
+      <c r="B201" s="17"/>
+      <c r="C201" s="18"/>
+      <c r="D201" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E201" s="4"/>
+      <c r="F201" s="4"/>
+      <c r="G201" s="19"/>
+      <c r="H201" s="19"/>
+      <c r="I201" s="12" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J201" s="22"/>
+      <c r="K201" s="22"/>
+      <c r="L201" s="22"/>
+      <c r="M201" s="22"/>
+      <c r="N201" s="22"/>
+      <c r="O201" s="22"/>
+      <c r="P201" s="22"/>
+      <c r="Q201" s="22"/>
+      <c r="R201" s="22"/>
+      <c r="S201" s="22"/>
+    </row>
+    <row r="202" spans="1:19">
+      <c r="A202" s="16"/>
+      <c r="B202" s="17"/>
+      <c r="C202" s="18"/>
+      <c r="D202" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E202" s="4"/>
+      <c r="F202" s="4"/>
+      <c r="G202" s="19"/>
+      <c r="H202" s="19"/>
+      <c r="I202" s="12" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J202" s="22"/>
+      <c r="K202" s="22"/>
+      <c r="L202" s="22"/>
+      <c r="M202" s="22"/>
+      <c r="N202" s="22"/>
+      <c r="O202" s="22"/>
+      <c r="P202" s="22"/>
+      <c r="Q202" s="22"/>
+      <c r="R202" s="22"/>
+      <c r="S202" s="22"/>
+    </row>
+    <row r="203" spans="1:19">
+      <c r="A203" s="16"/>
+      <c r="B203" s="17"/>
+      <c r="C203" s="18"/>
+      <c r="D203" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="19"/>
+      <c r="H203" s="19"/>
+      <c r="I203" s="12" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J203" s="22"/>
+      <c r="K203" s="22"/>
+      <c r="L203" s="22"/>
+      <c r="M203" s="22"/>
+      <c r="N203" s="22"/>
+      <c r="O203" s="22"/>
+      <c r="P203" s="22"/>
+      <c r="Q203" s="22"/>
+      <c r="R203" s="22"/>
+      <c r="S203" s="22"/>
+    </row>
+    <row r="204" spans="1:19">
+      <c r="A204" s="16"/>
+      <c r="B204" s="17"/>
+      <c r="C204" s="18"/>
+      <c r="D204" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
+      <c r="G204" s="19"/>
+      <c r="H204" s="19"/>
+      <c r="I204" s="12" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J204" s="22"/>
+      <c r="K204" s="22"/>
+      <c r="L204" s="22"/>
+      <c r="M204" s="22"/>
+      <c r="N204" s="22"/>
+      <c r="O204" s="22"/>
+      <c r="P204" s="22"/>
+      <c r="Q204" s="22"/>
+      <c r="R204" s="22"/>
+      <c r="S204" s="22"/>
+    </row>
+    <row r="205" spans="1:19">
+      <c r="A205" s="16"/>
+      <c r="B205" s="17"/>
+      <c r="C205" s="18"/>
+      <c r="D205" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
+      <c r="G205" s="19"/>
+      <c r="H205" s="19"/>
+      <c r="I205" s="12" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J205" s="22"/>
+      <c r="K205" s="22"/>
+      <c r="L205" s="22"/>
+      <c r="M205" s="22"/>
+      <c r="N205" s="22"/>
+      <c r="O205" s="22"/>
+      <c r="P205" s="22"/>
+      <c r="Q205" s="22"/>
+      <c r="R205" s="22"/>
+      <c r="S205" s="22"/>
+    </row>
+    <row r="206" spans="1:19">
+      <c r="A206" s="16"/>
+      <c r="B206" s="17"/>
+      <c r="C206" s="18"/>
+      <c r="D206" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
+      <c r="G206" s="19"/>
+      <c r="H206" s="19"/>
+      <c r="I206" s="12" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J206" s="22"/>
+      <c r="K206" s="22"/>
+      <c r="L206" s="22"/>
+      <c r="M206" s="22"/>
+      <c r="N206" s="22"/>
+      <c r="O206" s="22"/>
+      <c r="P206" s="22"/>
+      <c r="Q206" s="22"/>
+      <c r="R206" s="22"/>
+      <c r="S206" s="22"/>
+    </row>
+    <row r="207" spans="1:19">
+      <c r="A207" s="16"/>
+      <c r="B207" s="17"/>
+      <c r="C207" s="18"/>
+      <c r="D207" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E207" s="4"/>
+      <c r="F207" s="4"/>
+      <c r="G207" s="19"/>
+      <c r="H207" s="19"/>
+      <c r="I207" s="12" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J207" s="22"/>
+      <c r="K207" s="22"/>
+      <c r="L207" s="22"/>
+      <c r="M207" s="22"/>
+      <c r="N207" s="22"/>
+      <c r="O207" s="22"/>
+      <c r="P207" s="22"/>
+      <c r="Q207" s="22"/>
+      <c r="R207" s="22"/>
+      <c r="S207" s="22"/>
+    </row>
+    <row r="208" spans="1:19">
+      <c r="A208" s="16"/>
+      <c r="B208" s="17"/>
+      <c r="C208" s="18"/>
+      <c r="D208" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
+      <c r="G208" s="19"/>
+      <c r="H208" s="19"/>
+      <c r="I208" s="12" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J208" s="22"/>
+      <c r="K208" s="22"/>
+      <c r="L208" s="22"/>
+      <c r="M208" s="22"/>
+      <c r="N208" s="22"/>
+      <c r="O208" s="22"/>
+      <c r="P208" s="22"/>
+      <c r="Q208" s="22"/>
+      <c r="R208" s="22"/>
+      <c r="S208" s="22"/>
+    </row>
+    <row r="209" spans="1:19">
+      <c r="A209" s="16"/>
+      <c r="B209" s="17"/>
+      <c r="C209" s="18"/>
+      <c r="D209" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
+      <c r="G209" s="19"/>
+      <c r="H209" s="19"/>
+      <c r="I209" s="12" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J209" s="22"/>
+      <c r="K209" s="22"/>
+      <c r="L209" s="22"/>
+      <c r="M209" s="22"/>
+      <c r="N209" s="22"/>
+      <c r="O209" s="22"/>
+      <c r="P209" s="22"/>
+      <c r="Q209" s="22"/>
+      <c r="R209" s="22"/>
+      <c r="S209" s="22"/>
+    </row>
+    <row r="210" spans="1:19">
+      <c r="A210" s="16"/>
+      <c r="B210" s="17"/>
+      <c r="C210" s="18"/>
+      <c r="D210" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
+      <c r="G210" s="19"/>
+      <c r="H210" s="19"/>
+      <c r="I210" s="12" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J210" s="22"/>
+      <c r="K210" s="22"/>
+      <c r="L210" s="22"/>
+      <c r="M210" s="22"/>
+      <c r="N210" s="22"/>
+      <c r="O210" s="22"/>
+      <c r="P210" s="22"/>
+      <c r="Q210" s="22"/>
+      <c r="R210" s="22"/>
+      <c r="S210" s="22"/>
+    </row>
+    <row r="211" spans="1:19">
+      <c r="A211" s="16"/>
+      <c r="B211" s="17"/>
+      <c r="C211" s="18"/>
+      <c r="D211" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
+      <c r="G211" s="19"/>
+      <c r="H211" s="19"/>
+      <c r="I211" s="12" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J211" s="22"/>
+      <c r="K211" s="22"/>
+      <c r="L211" s="22"/>
+      <c r="M211" s="22"/>
+      <c r="N211" s="22"/>
+      <c r="O211" s="22"/>
+      <c r="P211" s="22"/>
+      <c r="Q211" s="22"/>
+      <c r="R211" s="22"/>
+      <c r="S211" s="22"/>
+    </row>
+    <row r="212" spans="1:19">
+      <c r="A212" s="16"/>
+      <c r="B212" s="17"/>
+      <c r="C212" s="18"/>
+      <c r="D212" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
+      <c r="G212" s="19"/>
+      <c r="H212" s="19"/>
+      <c r="I212" s="12" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J212" s="22"/>
+      <c r="K212" s="22"/>
+      <c r="L212" s="22"/>
+      <c r="M212" s="22"/>
+      <c r="N212" s="22"/>
+      <c r="O212" s="22"/>
+      <c r="P212" s="22"/>
+      <c r="Q212" s="22"/>
+      <c r="R212" s="22"/>
+      <c r="S212" s="22"/>
+    </row>
+    <row r="213" spans="1:19">
+      <c r="A213" s="16"/>
+      <c r="B213" s="17"/>
+      <c r="C213" s="18"/>
+      <c r="D213" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
+      <c r="G213" s="19"/>
+      <c r="H213" s="19"/>
+      <c r="I213" s="12" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J213" s="22"/>
+      <c r="K213" s="22"/>
+      <c r="L213" s="22"/>
+      <c r="M213" s="22"/>
+      <c r="N213" s="22"/>
+      <c r="O213" s="22"/>
+      <c r="P213" s="22"/>
+      <c r="Q213" s="22"/>
+      <c r="R213" s="22"/>
+      <c r="S213" s="22"/>
+    </row>
+    <row r="214" spans="1:19">
+      <c r="A214" s="16"/>
+      <c r="B214" s="17"/>
+      <c r="C214" s="18"/>
+      <c r="D214" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E214" s="4"/>
+      <c r="F214" s="4"/>
+      <c r="G214" s="19"/>
+      <c r="H214" s="19"/>
+      <c r="I214" s="12" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J214" s="22"/>
+      <c r="K214" s="22"/>
+      <c r="L214" s="22"/>
+      <c r="M214" s="22"/>
+      <c r="N214" s="22"/>
+      <c r="O214" s="22"/>
+      <c r="P214" s="22"/>
+      <c r="Q214" s="22"/>
+      <c r="R214" s="22"/>
+      <c r="S214" s="22"/>
+    </row>
+    <row r="215" spans="1:19">
+      <c r="A215" s="16"/>
+      <c r="B215" s="17"/>
+      <c r="C215" s="18"/>
+      <c r="D215" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E215" s="4"/>
+      <c r="F215" s="4"/>
+      <c r="G215" s="19"/>
+      <c r="H215" s="19"/>
+      <c r="I215" s="12" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J215" s="22"/>
+      <c r="K215" s="22"/>
+      <c r="L215" s="22"/>
+      <c r="M215" s="22"/>
+      <c r="N215" s="22"/>
+      <c r="O215" s="22"/>
+      <c r="P215" s="22"/>
+      <c r="Q215" s="22"/>
+      <c r="R215" s="22"/>
+      <c r="S215" s="22"/>
+    </row>
+    <row r="216" spans="1:19">
+      <c r="A216" s="16"/>
+      <c r="B216" s="17"/>
+      <c r="C216" s="18"/>
+      <c r="D216" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
+      <c r="G216" s="19"/>
+      <c r="H216" s="19"/>
+      <c r="I216" s="12" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J216" s="22"/>
+      <c r="K216" s="22"/>
+      <c r="L216" s="22"/>
+      <c r="M216" s="22"/>
+      <c r="N216" s="22"/>
+      <c r="O216" s="22"/>
+      <c r="P216" s="22"/>
+      <c r="Q216" s="22"/>
+      <c r="R216" s="22"/>
+      <c r="S216" s="22"/>
+    </row>
+    <row r="217" spans="1:19">
+      <c r="A217" s="16"/>
+      <c r="B217" s="17"/>
+      <c r="C217" s="18"/>
+      <c r="D217" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
+      <c r="G217" s="19"/>
+      <c r="H217" s="19"/>
+      <c r="I217" s="12" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J217" s="22"/>
+      <c r="K217" s="22"/>
+      <c r="L217" s="22"/>
+      <c r="M217" s="22"/>
+      <c r="N217" s="22"/>
+      <c r="O217" s="22"/>
+      <c r="P217" s="22"/>
+      <c r="Q217" s="22"/>
+      <c r="R217" s="22"/>
+      <c r="S217" s="22"/>
+    </row>
+    <row r="218" spans="1:19">
+      <c r="A218" s="16"/>
+      <c r="B218" s="17"/>
+      <c r="C218" s="18"/>
+      <c r="D218" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E218" s="4"/>
+      <c r="F218" s="4"/>
+      <c r="G218" s="19"/>
+      <c r="H218" s="19"/>
+      <c r="I218" s="12" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J218" s="22"/>
+      <c r="K218" s="22"/>
+      <c r="L218" s="22"/>
+      <c r="M218" s="22"/>
+      <c r="N218" s="22"/>
+      <c r="O218" s="22"/>
+      <c r="P218" s="22"/>
+      <c r="Q218" s="22"/>
+      <c r="R218" s="22"/>
+      <c r="S218" s="22"/>
+    </row>
+    <row r="219" spans="1:19">
+      <c r="A219" s="16"/>
+      <c r="B219" s="17"/>
+      <c r="C219" s="18"/>
+      <c r="D219" s="12" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E219" s="4"/>
+      <c r="F219" s="4"/>
+      <c r="G219" s="19"/>
+      <c r="H219" s="19"/>
+      <c r="I219" s="12" t="str">
+        <f t="shared" ca="1" si="14"/>
+        <v/>
+      </c>
+      <c r="J219" s="22"/>
+      <c r="K219" s="22"/>
+      <c r="L219" s="22"/>
+      <c r="M219" s="22"/>
+      <c r="N219" s="22"/>
+      <c r="O219" s="22"/>
+      <c r="P219" s="22"/>
+      <c r="Q219" s="22"/>
+      <c r="R219" s="22"/>
+      <c r="S219" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -17866,169 +21115,180 @@
     <mergeCell ref="F1:F4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
-  <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="65" priority="34" stopIfTrue="1">
-      <formula>D105="未着手"</formula>
+  <conditionalFormatting sqref="D220:D65535">
+    <cfRule type="expression" dxfId="65" priority="40" stopIfTrue="1">
+      <formula>D220="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="35" stopIfTrue="1">
-      <formula>D105="作業中"</formula>
+    <cfRule type="expression" dxfId="64" priority="41" stopIfTrue="1">
+      <formula>D220="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="36" stopIfTrue="1">
-      <formula>OR(D105="終了",D105="完了")</formula>
+    <cfRule type="expression" dxfId="63" priority="42" stopIfTrue="1">
+      <formula>OR(D220="終了",D220="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:XFD5 A6:A18 C6:XFD8 C14:C24 A19:XFD104 C11:XFD18 D9:XFD10">
-    <cfRule type="expression" dxfId="62" priority="37" stopIfTrue="1">
+  <conditionalFormatting sqref="A5:XFD5 A6:A18 C13:XFD17 A19:XFD104 D18:XFD18 A105:S219 D9:XFD9 T10:XFD12 D10:S10 C11:S12 C6:XFD8">
+    <cfRule type="expression" dxfId="62" priority="43" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="44" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="45" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="59" priority="40" stopIfTrue="1">
-      <formula>D105="未着手"</formula>
+  <conditionalFormatting sqref="B220:B65535">
+    <cfRule type="expression" dxfId="59" priority="46" stopIfTrue="1">
+      <formula>D220="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="41" stopIfTrue="1">
-      <formula>D105="作業中"</formula>
+    <cfRule type="expression" dxfId="58" priority="47" stopIfTrue="1">
+      <formula>D220="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="42" stopIfTrue="1">
-      <formula>OR(D105="終了",D105="完了")</formula>
+    <cfRule type="expression" dxfId="57" priority="48" stopIfTrue="1">
+      <formula>OR(D220="終了",D220="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="56" priority="43" stopIfTrue="1">
-      <formula>D105="未着手"</formula>
+  <conditionalFormatting sqref="C220:C65535">
+    <cfRule type="expression" dxfId="56" priority="49" stopIfTrue="1">
+      <formula>D220="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="44" stopIfTrue="1">
-      <formula>D105="作業中"</formula>
+    <cfRule type="expression" dxfId="55" priority="50" stopIfTrue="1">
+      <formula>D220="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="45" stopIfTrue="1">
-      <formula>OR(D105="終了",D105="完了")</formula>
+    <cfRule type="expression" dxfId="54" priority="51" stopIfTrue="1">
+      <formula>OR(D220="終了",D220="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E105:S65536">
-    <cfRule type="expression" dxfId="53" priority="46" stopIfTrue="1">
-      <formula>$D105="未着手"</formula>
+  <conditionalFormatting sqref="E220:S65535">
+    <cfRule type="expression" dxfId="53" priority="52" stopIfTrue="1">
+      <formula>$D220="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="47" stopIfTrue="1">
-      <formula>$D105="作業中"</formula>
+    <cfRule type="expression" dxfId="52" priority="53" stopIfTrue="1">
+      <formula>$D220="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="48" stopIfTrue="1">
-      <formula>OR($D105="終了",$D105="完了")</formula>
+    <cfRule type="expression" dxfId="51" priority="54" stopIfTrue="1">
+      <formula>OR($D220="終了",$D220="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="50" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="37" stopIfTrue="1">
       <formula>$D6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="38" stopIfTrue="1">
       <formula>$D6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="39" stopIfTrue="1">
       <formula>OR($D6="終了",$D6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B8">
-    <cfRule type="expression" dxfId="47" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="34" stopIfTrue="1">
       <formula>$D7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="35" stopIfTrue="1">
       <formula>$D7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="36" stopIfTrue="1">
       <formula>OR($D7="終了",$D7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:B12">
-    <cfRule type="expression" dxfId="41" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="28" stopIfTrue="1">
       <formula>$D11="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="29" stopIfTrue="1">
       <formula>$D11="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="30" stopIfTrue="1">
       <formula>OR($D11="終了",$D11="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B14">
-    <cfRule type="expression" dxfId="38" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="25" stopIfTrue="1">
       <formula>$D13="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="26" stopIfTrue="1">
       <formula>$D13="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="27" stopIfTrue="1">
       <formula>OR($D13="終了",$D13="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B24">
-    <cfRule type="expression" dxfId="35" priority="16" stopIfTrue="1">
+  <conditionalFormatting sqref="B15:B17 B19:B24">
+    <cfRule type="expression" dxfId="38" priority="22" stopIfTrue="1">
       <formula>$D15="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="23" stopIfTrue="1">
       <formula>$D15="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="24" stopIfTrue="1">
       <formula>OR($D15="終了",$D15="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:B15">
-    <cfRule type="expression" dxfId="32" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="19" stopIfTrue="1">
       <formula>$D14="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="20" stopIfTrue="1">
       <formula>$D14="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="21" stopIfTrue="1">
       <formula>OR($D14="終了",$D14="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B17">
-    <cfRule type="expression" dxfId="29" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="16" stopIfTrue="1">
       <formula>$D16="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="17" stopIfTrue="1">
       <formula>$D16="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="18" stopIfTrue="1">
       <formula>OR($D16="終了",$D16="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:B20">
-    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="13" stopIfTrue="1">
       <formula>$D19="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="14" stopIfTrue="1">
       <formula>$D19="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="15" stopIfTrue="1">
       <formula>OR($D19="終了",$D19="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C10">
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
       <formula>$D9="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
       <formula>$D9="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="12" stopIfTrue="1">
       <formula>OR($D9="終了",$D9="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9:B10">
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="7" stopIfTrue="1">
       <formula>$D9="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
       <formula>$D9="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
       <formula>OR($D9="終了",$D9="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:C18">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+      <formula>$D18="未着手"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+      <formula>$D18="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
+      <formula>OR($D18="終了",$D18="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -21263,57 +24523,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="23" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="20" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="17" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="14" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:P65536">
-    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22127,13 +25387,13 @@
   <autoFilter ref="B1:K51"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>$D2="要望"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$D2="確認済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$D2="対応"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/バックログ/02班スプリントバックログ.xlsx
+++ b/バックログ/02班スプリントバックログ.xlsx
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="277">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -1822,10 +1822,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>枝同士に糸を貼る</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>右下の立体マップの同じ位置に糸を出現</t>
     <rPh sb="0" eb="2">
       <t>ミギシタ</t>
@@ -1924,19 +1920,6 @@
     <t>後退(糸に乗ってる時専用アニメーション)</t>
   </si>
   <si>
-    <t>左移動(糸に乗ってる時専用アニメーション)</t>
-  </si>
-  <si>
-    <t>カニ歩きでの前進</t>
-  </si>
-  <si>
-    <t>カニ歩きでの後退</t>
-  </si>
-  <si>
-    <t>右移動(糸に乗ってる時専用アニメーション)</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>杉浦</t>
     <rPh sb="0" eb="2">
       <t>スギウラ</t>
@@ -2507,10 +2490,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>D</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>クモの巣の仕様</t>
     <rPh sb="3" eb="4">
       <t>ス</t>
@@ -2723,6 +2702,213 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カニ歩き左移動(糸に乗ってる時専用アニメーション)</t>
+    <rPh sb="2" eb="3">
+      <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カニ歩き右移動(糸に乗ってる時専用アニメーション)</t>
+    <rPh sb="2" eb="3">
+      <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>糸に着地した時に3秒間伸びる</t>
+    <rPh sb="0" eb="1">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>3秒間以内にジャンプすると威力が上がる</t>
+    <rPh sb="1" eb="3">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イリョク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>中間地点から糸貼っても巣になる</t>
+    <rPh sb="0" eb="2">
+      <t>チュウカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>蜘蛛の巣の条件を変更</t>
+    <rPh sb="0" eb="2">
+      <t>クモ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>スプリングジャンプ中の糸の破壊</t>
+    <rPh sb="9" eb="10">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハカイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Lトリガー長押しで自動で敵にカーソル向ける</t>
+    <rPh sb="5" eb="7">
+      <t>ナガオ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>敵を狙ってるときにジャンプすると体当たり</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ネラ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タイア</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>体当たりを受けた時の挙動</t>
+    <rPh sb="0" eb="2">
+      <t>タイア</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョドウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>蝶のランダム出現</t>
+    <rPh sb="0" eb="1">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>蝶の通るルート作成</t>
+    <rPh sb="0" eb="1">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>蝶が糸に触れると止まる</t>
+    <rPh sb="0" eb="1">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>蝶を捕食するとボーナスポイント</t>
+    <rPh sb="0" eb="1">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホショク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>蝶を捕らえるとその巣は消えなくなる</t>
+    <rPh sb="0" eb="1">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -5855,10 +6041,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>243</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>208</c:v>
+                <c:pt idx="2">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5944,34 +6136,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>243</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>218</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>194</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>170</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>145</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>121</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6432,22 +6624,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -6563,7 +6755,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14</c:v>
@@ -6575,10 +6767,10 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -6668,10 +6860,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>57</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>46</c:v>
@@ -6778,7 +6970,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -6787,7 +6979,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -14251,8 +14443,8 @@
   <dimension ref="A1:AA226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14278,7 +14470,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="125" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C1" s="119" t="s">
         <v>2</v>
@@ -14372,43 +14564,43 @@
       <c r="J3" s="119"/>
       <c r="K3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$T$2))))</f>
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="L3" s="20">
         <f t="shared" ref="L3:T3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$T$2))))</f>
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="0"/>
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="N3" s="20">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="O3" s="20">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="P3" s="20">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="Q3" s="20">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="R3" s="20">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="S3" s="20">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="T3" s="20">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="8" customFormat="1">
@@ -14424,14 +14616,20 @@
       <c r="J4" s="119"/>
       <c r="K4" s="21">
         <f>SUM(K5:K119)</f>
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="L4" s="21">
         <f>SUM(L5:L119)</f>
-        <v>208</v>
-      </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
+        <v>243</v>
+      </c>
+      <c r="M4" s="21">
+        <f t="shared" ref="M4:N4" si="1">SUM(M5:M119)</f>
+        <v>221</v>
+      </c>
+      <c r="N4" s="21">
+        <f t="shared" si="1"/>
+        <v>199</v>
+      </c>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -14449,7 +14647,7 @@
         <v>120</v>
       </c>
       <c r="E5" s="12" t="str">
-        <f t="shared" ref="E5:E11" si="1">IF(ISBLANK($C5),"",IF(ISBLANK($G5),"未着手",IF($J5=0,"完了","作業中")))</f>
+        <f t="shared" ref="E5:E11" si="2">IF(ISBLANK($C5),"",IF(ISBLANK($G5),"未着手",IF($J5=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F5" s="4">
@@ -14470,8 +14668,12 @@
       <c r="L5" s="22">
         <v>4</v>
       </c>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
+      <c r="M5" s="22">
+        <v>4</v>
+      </c>
+      <c r="N5" s="22">
+        <v>4</v>
+      </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
@@ -14489,7 +14691,7 @@
         <v>120</v>
       </c>
       <c r="E6" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F6" s="4">
@@ -14533,7 +14735,7 @@
         <v>120</v>
       </c>
       <c r="E7" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>作業中</v>
       </c>
       <c r="F7" s="4">
@@ -14549,7 +14751,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="12">
-        <f t="shared" ref="J7:J89" ca="1" si="2">IF(ISBLANK(K7)=FALSE,OFFSET(J7,0,COUNTA(K7:R7)),"")</f>
+        <f t="shared" ref="J7:J89" ca="1" si="3">IF(ISBLANK(K7)=FALSE,OFFSET(J7,0,COUNTA(K7:R7)),"")</f>
         <v>2</v>
       </c>
       <c r="K7" s="22">
@@ -14558,8 +14760,12 @@
       <c r="L7" s="22">
         <v>2</v>
       </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
+      <c r="M7" s="22">
+        <v>2</v>
+      </c>
+      <c r="N7" s="22">
+        <v>2</v>
+      </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
@@ -14577,7 +14783,7 @@
         <v>120</v>
       </c>
       <c r="E8" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F8" s="4">
@@ -14593,7 +14799,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="22">
@@ -14621,7 +14827,7 @@
         <v>165</v>
       </c>
       <c r="E9" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F9" s="4">
@@ -14637,7 +14843,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="22">
@@ -14665,7 +14871,7 @@
         <v>165</v>
       </c>
       <c r="E10" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>作業中</v>
       </c>
       <c r="F10" s="4">
@@ -14681,8 +14887,8 @@
         <v>2</v>
       </c>
       <c r="J10" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="K10" s="22">
         <v>5</v>
@@ -14690,8 +14896,12 @@
       <c r="L10" s="22">
         <v>4</v>
       </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
+      <c r="M10" s="22">
+        <v>2</v>
+      </c>
+      <c r="N10" s="22">
+        <v>2</v>
+      </c>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
@@ -14709,7 +14919,7 @@
         <v>165</v>
       </c>
       <c r="E11" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>作業中</v>
       </c>
       <c r="F11" s="4">
@@ -14726,16 +14936,20 @@
       </c>
       <c r="J11" s="12">
         <f ca="1">IF(ISBLANK(K11)=FALSE,OFFSET(J11,0,COUNTA(K11:R11)),"")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" s="22">
         <v>4</v>
       </c>
       <c r="L11" s="22">
-        <v>2</v>
-      </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="M11" s="22">
+        <v>3</v>
+      </c>
+      <c r="N11" s="22">
+        <v>3</v>
+      </c>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
@@ -14747,13 +14961,13 @@
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="85" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>120</v>
       </c>
       <c r="E12" s="12" t="str">
-        <f t="shared" ref="E12:E17" ca="1" si="3">IF(ISBLANK($C12),"",IF(ISBLANK($G12),"未着手",IF($J12=0,"完了","作業中")))</f>
+        <f t="shared" ref="E12:E17" ca="1" si="4">IF(ISBLANK($C12),"",IF(ISBLANK($G12),"未着手",IF($J12=0,"完了","作業中")))</f>
         <v>作業中</v>
       </c>
       <c r="F12" s="4">
@@ -14769,8 +14983,8 @@
         <v>3</v>
       </c>
       <c r="J12" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="K12" s="22">
         <v>6</v>
@@ -14778,8 +14992,12 @@
       <c r="L12" s="22">
         <v>3</v>
       </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
+      <c r="M12" s="22">
+        <v>2</v>
+      </c>
+      <c r="N12" s="22">
+        <v>1</v>
+      </c>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
@@ -14791,13 +15009,13 @@
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="85" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>120</v>
       </c>
       <c r="E13" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F13" s="4">
@@ -14809,7 +15027,7 @@
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="K13" s="22">
@@ -14818,8 +15036,12 @@
       <c r="L13" s="22">
         <v>6</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
+      <c r="M13" s="22">
+        <v>6</v>
+      </c>
+      <c r="N13" s="22">
+        <v>6</v>
+      </c>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
@@ -14831,13 +15053,13 @@
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="85" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>120</v>
       </c>
       <c r="E14" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F14" s="4">
@@ -14849,7 +15071,7 @@
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="K14" s="22">
@@ -14858,8 +15080,12 @@
       <c r="L14" s="22">
         <v>6</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
+      <c r="M14" s="22">
+        <v>6</v>
+      </c>
+      <c r="N14" s="22">
+        <v>6</v>
+      </c>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
@@ -14871,13 +15097,13 @@
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="85" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>120</v>
       </c>
       <c r="E15" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F15" s="4">
@@ -14889,7 +15115,7 @@
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="K15" s="22">
@@ -14898,8 +15124,12 @@
       <c r="L15" s="22">
         <v>2</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
+      <c r="M15" s="22">
+        <v>2</v>
+      </c>
+      <c r="N15" s="22">
+        <v>2</v>
+      </c>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
@@ -14913,7 +15143,7 @@
       <c r="C16" s="85"/>
       <c r="D16" s="18"/>
       <c r="E16" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F16" s="4"/>
@@ -14938,7 +15168,7 @@
       <c r="C17" s="85"/>
       <c r="D17" s="18"/>
       <c r="E17" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F17" s="4"/>
@@ -14946,7 +15176,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="12" t="str">
-        <f t="shared" ref="J17" ca="1" si="4">IF(ISBLANK(K17)=FALSE,OFFSET(J17,0,COUNTA(K17:R17)),"")</f>
+        <f t="shared" ref="J17" ca="1" si="5">IF(ISBLANK(K17)=FALSE,OFFSET(J17,0,COUNTA(K17:R17)),"")</f>
         <v/>
       </c>
       <c r="K17" s="22"/>
@@ -14970,7 +15200,7 @@
         <v>121</v>
       </c>
       <c r="E18" s="12" t="str">
-        <f t="shared" ref="E18:E31" ca="1" si="5">IF(ISBLANK($C18),"",IF(ISBLANK($G18),"未着手",IF($J18=0,"完了","作業中")))</f>
+        <f t="shared" ref="E18:E31" ca="1" si="6">IF(ISBLANK($C18),"",IF(ISBLANK($G18),"未着手",IF($J18=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F18" s="4">
@@ -14986,7 +15216,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="12">
-        <f t="shared" ref="J18:J25" ca="1" si="6">IF(ISBLANK(K18)=FALSE,OFFSET(J18,0,COUNTA(K18:R18)),"")</f>
+        <f t="shared" ref="J18:J25" ca="1" si="7">IF(ISBLANK(K18)=FALSE,OFFSET(J18,0,COUNTA(K18:R18)),"")</f>
         <v>0</v>
       </c>
       <c r="K18" s="22">
@@ -15007,34 +15237,22 @@
     <row r="19" spans="1:20">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="85" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>121</v>
-      </c>
+      <c r="C19" s="85"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
-      </c>
-      <c r="F19" s="4">
-        <v>43056</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="19">
-        <v>4</v>
-      </c>
+      <c r="H19" s="19"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="K19" s="22">
-        <v>4</v>
-      </c>
-      <c r="L19" s="22">
-        <v>4</v>
-      </c>
+      <c r="J19" s="12" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
@@ -15054,7 +15272,7 @@
         <v>121</v>
       </c>
       <c r="E20" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>完了</v>
       </c>
       <c r="F20" s="4">
@@ -15070,7 +15288,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K20" s="22">
@@ -15098,7 +15316,7 @@
         <v>159</v>
       </c>
       <c r="E21" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>完了</v>
       </c>
       <c r="F21" s="4">
@@ -15114,7 +15332,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K21" s="22">
@@ -15134,13 +15352,13 @@
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>179</v>
-      </c>
       <c r="E22" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v>完了</v>
       </c>
       <c r="F22" s="4">
@@ -15156,7 +15374,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K22" s="22">
@@ -15176,14 +15394,14 @@
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="17" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E23" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>完了</v>
       </c>
       <c r="F23" s="4">
         <v>43063</v>
@@ -15194,15 +15412,25 @@
       <c r="H23" s="19">
         <v>4</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
+      <c r="I23" s="19">
+        <v>2</v>
+      </c>
+      <c r="J23" s="12">
+        <f ca="1">IF(ISBLANK(K23)=FALSE,OFFSET(J23,0,COUNTA(K23:R23)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="22">
+        <v>4</v>
+      </c>
+      <c r="L23" s="22">
+        <v>4</v>
+      </c>
+      <c r="M23" s="22">
+        <v>4</v>
+      </c>
+      <c r="N23" s="22">
+        <v>0</v>
+      </c>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
       <c r="Q23" s="22"/>
@@ -15214,14 +15442,14 @@
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="17" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E24" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>完了</v>
       </c>
       <c r="F24" s="4">
         <v>43063</v>
@@ -15232,15 +15460,25 @@
       <c r="H24" s="19">
         <v>2</v>
       </c>
-      <c r="I24" s="19"/>
-      <c r="J24" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
+      <c r="I24" s="19">
+        <v>2</v>
+      </c>
+      <c r="J24" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="22">
+        <v>2</v>
+      </c>
+      <c r="L24" s="22">
+        <v>2</v>
+      </c>
+      <c r="M24" s="22">
+        <v>2</v>
+      </c>
+      <c r="N24" s="22">
+        <v>0</v>
+      </c>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
       <c r="Q24" s="22"/>
@@ -15252,13 +15490,13 @@
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E25" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="F25" s="4">
@@ -15269,14 +15507,22 @@
         <v>6</v>
       </c>
       <c r="I25" s="19"/>
-      <c r="J25" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
+      <c r="J25" s="12">
+        <f t="shared" ca="1" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="K25" s="22">
+        <v>6</v>
+      </c>
+      <c r="L25" s="22">
+        <v>6</v>
+      </c>
+      <c r="M25" s="22">
+        <v>6</v>
+      </c>
+      <c r="N25" s="22">
+        <v>6</v>
+      </c>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>
@@ -15288,13 +15534,13 @@
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="17" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E26" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="F26" s="4">
@@ -15305,14 +15551,22 @@
         <v>6</v>
       </c>
       <c r="I26" s="19"/>
-      <c r="J26" s="12" t="str">
-        <f t="shared" ref="J26:J29" ca="1" si="7">IF(ISBLANK(K26)=FALSE,OFFSET(J26,0,COUNTA(K26:R26)),"")</f>
-        <v/>
-      </c>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
+      <c r="J26" s="12">
+        <f t="shared" ref="J26:J29" ca="1" si="8">IF(ISBLANK(K26)=FALSE,OFFSET(J26,0,COUNTA(K26:R26)),"")</f>
+        <v>6</v>
+      </c>
+      <c r="K26" s="22">
+        <v>6</v>
+      </c>
+      <c r="L26" s="22">
+        <v>6</v>
+      </c>
+      <c r="M26" s="22">
+        <v>6</v>
+      </c>
+      <c r="N26" s="22">
+        <v>6</v>
+      </c>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
@@ -15324,13 +15578,13 @@
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="17" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E27" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="F27" s="4"/>
@@ -15339,14 +15593,22 @@
         <v>6</v>
       </c>
       <c r="I27" s="19"/>
-      <c r="J27" s="12" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
+      <c r="J27" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="K27" s="22">
+        <v>6</v>
+      </c>
+      <c r="L27" s="22">
+        <v>6</v>
+      </c>
+      <c r="M27" s="22">
+        <v>6</v>
+      </c>
+      <c r="N27" s="22">
+        <v>6</v>
+      </c>
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
       <c r="Q27" s="22"/>
@@ -15358,13 +15620,13 @@
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="17" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E28" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="F28" s="4">
@@ -15375,14 +15637,22 @@
         <v>6</v>
       </c>
       <c r="I28" s="19"/>
-      <c r="J28" s="12" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
+      <c r="J28" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="K28" s="22">
+        <v>6</v>
+      </c>
+      <c r="L28" s="22">
+        <v>6</v>
+      </c>
+      <c r="M28" s="22">
+        <v>6</v>
+      </c>
+      <c r="N28" s="22">
+        <v>6</v>
+      </c>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
       <c r="Q28" s="22"/>
@@ -15394,13 +15664,13 @@
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="17" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E29" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>未着手</v>
       </c>
       <c r="F29" s="4"/>
@@ -15409,14 +15679,22 @@
         <v>6</v>
       </c>
       <c r="I29" s="19"/>
-      <c r="J29" s="12" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
+      <c r="J29" s="12">
+        <f t="shared" ca="1" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="K29" s="22">
+        <v>6</v>
+      </c>
+      <c r="L29" s="22">
+        <v>6</v>
+      </c>
+      <c r="M29" s="22">
+        <v>6</v>
+      </c>
+      <c r="N29" s="22">
+        <v>6</v>
+      </c>
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
       <c r="Q29" s="22"/>
@@ -15428,31 +15706,43 @@
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="85" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E30" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>完了</v>
       </c>
       <c r="F30" s="4">
         <v>43067</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4">
+        <v>43063</v>
+      </c>
       <c r="H30" s="19">
         <v>2</v>
       </c>
-      <c r="I30" s="19"/>
-      <c r="J30" s="12" t="str">
+      <c r="I30" s="19">
+        <v>1</v>
+      </c>
+      <c r="J30" s="12">
         <f ca="1">IF(ISBLANK(K30)=FALSE,OFFSET(J30,0,COUNTA(K30:R30)),"")</f>
-        <v/>
-      </c>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="22">
+        <v>2</v>
+      </c>
+      <c r="L30" s="22">
+        <v>2</v>
+      </c>
+      <c r="M30" s="22">
+        <v>2</v>
+      </c>
+      <c r="N30" s="22">
+        <v>0</v>
+      </c>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
       <c r="Q30" s="22"/>
@@ -15464,31 +15754,43 @@
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="85" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E31" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>完了</v>
       </c>
       <c r="F31" s="4">
         <v>43067</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="4">
+        <v>43063</v>
+      </c>
       <c r="H31" s="19">
         <v>2</v>
       </c>
-      <c r="I31" s="19"/>
-      <c r="J31" s="12" t="str">
+      <c r="I31" s="19">
+        <v>1</v>
+      </c>
+      <c r="J31" s="12">
         <f ca="1">IF(ISBLANK(K31)=FALSE,OFFSET(J31,0,COUNTA(K31:R31)),"")</f>
-        <v/>
-      </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="22">
+        <v>2</v>
+      </c>
+      <c r="L31" s="22">
+        <v>2</v>
+      </c>
+      <c r="M31" s="22">
+        <v>2</v>
+      </c>
+      <c r="N31" s="22">
+        <v>0</v>
+      </c>
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
       <c r="Q31" s="22"/>
@@ -15550,7 +15852,7 @@
         <v>132</v>
       </c>
       <c r="E34" s="12" t="str">
-        <f t="shared" ref="E34:E75" ca="1" si="8">IF(ISBLANK($C34),"",IF(ISBLANK($G34),"未着手",IF($J34=0,"完了","作業中")))</f>
+        <f t="shared" ref="E34:E75" ca="1" si="9">IF(ISBLANK($C34),"",IF(ISBLANK($G34),"未着手",IF($J34=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F34" s="4">
@@ -15592,7 +15894,7 @@
         <v>132</v>
       </c>
       <c r="E35" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F35" s="4">
@@ -15608,7 +15910,7 @@
         <v>3</v>
       </c>
       <c r="J35" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K35" s="22">
@@ -15628,13 +15930,13 @@
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="85" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>132</v>
       </c>
       <c r="E36" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F36" s="4">
@@ -15646,7 +15948,7 @@
       </c>
       <c r="I36" s="19"/>
       <c r="J36" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="K36" s="22">
@@ -15655,8 +15957,12 @@
       <c r="L36" s="22">
         <v>6</v>
       </c>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
+      <c r="M36" s="22">
+        <v>6</v>
+      </c>
+      <c r="N36" s="22">
+        <v>6</v>
+      </c>
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
       <c r="Q36" s="22"/>
@@ -15674,8 +15980,8 @@
         <v>132</v>
       </c>
       <c r="E37" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>完了</v>
       </c>
       <c r="F37" s="4">
         <v>43049</v>
@@ -15690,8 +15996,8 @@
         <v>1</v>
       </c>
       <c r="J37" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="K37" s="22">
         <v>2</v>
@@ -15699,8 +16005,12 @@
       <c r="L37" s="22">
         <v>1</v>
       </c>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
+      <c r="M37" s="22">
+        <v>1</v>
+      </c>
+      <c r="N37" s="22">
+        <v>0</v>
+      </c>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="22"/>
@@ -15718,8 +16028,8 @@
         <v>132</v>
       </c>
       <c r="E38" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>完了</v>
       </c>
       <c r="F38" s="4">
         <v>43049</v>
@@ -15734,8 +16044,8 @@
         <v>1</v>
       </c>
       <c r="J38" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="K38" s="22">
         <v>2</v>
@@ -15743,8 +16053,12 @@
       <c r="L38" s="22">
         <v>1</v>
       </c>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
+      <c r="M38" s="22">
+        <v>1</v>
+      </c>
+      <c r="N38" s="22">
+        <v>0</v>
+      </c>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
       <c r="Q38" s="22"/>
@@ -15762,7 +16076,7 @@
         <v>132</v>
       </c>
       <c r="E39" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F39" s="4">
@@ -15778,7 +16092,7 @@
         <v>2</v>
       </c>
       <c r="J39" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K39" s="22">
@@ -15798,14 +16112,14 @@
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="85" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E40" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>完了</v>
       </c>
       <c r="F40" s="4">
         <v>43056</v>
@@ -15820,8 +16134,8 @@
         <v>1</v>
       </c>
       <c r="J40" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="K40" s="22">
         <v>2</v>
@@ -15829,8 +16143,12 @@
       <c r="L40" s="22">
         <v>1</v>
       </c>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
+      <c r="M40" s="22">
+        <v>1</v>
+      </c>
+      <c r="N40" s="22">
+        <v>0</v>
+      </c>
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
       <c r="Q40" s="22"/>
@@ -15842,13 +16160,13 @@
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="85" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>132</v>
       </c>
       <c r="E41" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F41" s="4">
@@ -15860,7 +16178,7 @@
       </c>
       <c r="I41" s="19"/>
       <c r="J41" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="K41" s="22">
@@ -15869,8 +16187,12 @@
       <c r="L41" s="22">
         <v>2</v>
       </c>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
+      <c r="M41" s="22">
+        <v>2</v>
+      </c>
+      <c r="N41" s="22">
+        <v>2</v>
+      </c>
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
       <c r="Q41" s="22"/>
@@ -15882,26 +16204,28 @@
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="85" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>132</v>
       </c>
       <c r="E42" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>完了</v>
       </c>
       <c r="F42" s="4">
         <v>43063</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="G42" s="4">
+        <v>43063</v>
+      </c>
       <c r="H42" s="19">
         <v>2</v>
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="12">
-        <f t="shared" ref="J42:J45" ca="1" si="9">IF(ISBLANK(K42)=FALSE,OFFSET(J42,0,COUNTA(K42:R42)),"")</f>
-        <v>2</v>
+        <f t="shared" ref="J42:J45" ca="1" si="10">IF(ISBLANK(K42)=FALSE,OFFSET(J42,0,COUNTA(K42:R42)),"")</f>
+        <v>0</v>
       </c>
       <c r="K42" s="22">
         <v>2</v>
@@ -15909,8 +16233,12 @@
       <c r="L42" s="22">
         <v>2</v>
       </c>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
+      <c r="M42" s="22">
+        <v>2</v>
+      </c>
+      <c r="N42" s="22">
+        <v>0</v>
+      </c>
       <c r="O42" s="22"/>
       <c r="P42" s="22"/>
       <c r="Q42" s="22"/>
@@ -15922,26 +16250,28 @@
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="85" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>132</v>
       </c>
       <c r="E43" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>完了</v>
       </c>
       <c r="F43" s="4">
         <v>43063</v>
       </c>
-      <c r="G43" s="4"/>
+      <c r="G43" s="4">
+        <v>43063</v>
+      </c>
       <c r="H43" s="19">
         <v>2</v>
       </c>
       <c r="I43" s="19"/>
       <c r="J43" s="12">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
       </c>
       <c r="K43" s="22">
         <v>2</v>
@@ -15949,8 +16279,12 @@
       <c r="L43" s="22">
         <v>2</v>
       </c>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
+      <c r="M43" s="22">
+        <v>2</v>
+      </c>
+      <c r="N43" s="22">
+        <v>0</v>
+      </c>
       <c r="O43" s="22"/>
       <c r="P43" s="22"/>
       <c r="Q43" s="22"/>
@@ -15964,7 +16298,7 @@
       <c r="C44" s="85"/>
       <c r="D44" s="18"/>
       <c r="E44" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F44" s="4"/>
@@ -15972,7 +16306,7 @@
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K44" s="22"/>
@@ -15992,7 +16326,7 @@
       <c r="C45" s="85"/>
       <c r="D45" s="18"/>
       <c r="E45" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F45" s="4"/>
@@ -16000,7 +16334,7 @@
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="12" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K45" s="22"/>
@@ -16024,7 +16358,7 @@
         <v>123</v>
       </c>
       <c r="E46" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>作業中</v>
       </c>
       <c r="F46" s="4">
@@ -16040,7 +16374,7 @@
         <v>7</v>
       </c>
       <c r="J46" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="K46" s="22">
@@ -16049,8 +16383,12 @@
       <c r="L46" s="22">
         <v>2</v>
       </c>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
+      <c r="M46" s="22">
+        <v>2</v>
+      </c>
+      <c r="N46" s="22">
+        <v>2</v>
+      </c>
       <c r="O46" s="22"/>
       <c r="P46" s="22"/>
       <c r="Q46" s="22"/>
@@ -16068,7 +16406,7 @@
         <v>123</v>
       </c>
       <c r="E47" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F47" s="4">
@@ -16080,7 +16418,7 @@
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="K47" s="22">
@@ -16089,8 +16427,12 @@
       <c r="L47" s="22">
         <v>4</v>
       </c>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
+      <c r="M47" s="22">
+        <v>4</v>
+      </c>
+      <c r="N47" s="22">
+        <v>4</v>
+      </c>
       <c r="O47" s="22"/>
       <c r="P47" s="22"/>
       <c r="Q47" s="22"/>
@@ -16108,7 +16450,7 @@
         <v>123</v>
       </c>
       <c r="E48" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F48" s="4">
@@ -16120,7 +16462,7 @@
       </c>
       <c r="I48" s="19"/>
       <c r="J48" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="K48" s="22">
@@ -16129,8 +16471,12 @@
       <c r="L48" s="22">
         <v>6</v>
       </c>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
+      <c r="M48" s="22">
+        <v>6</v>
+      </c>
+      <c r="N48" s="22">
+        <v>6</v>
+      </c>
       <c r="O48" s="22"/>
       <c r="P48" s="22"/>
       <c r="Q48" s="22"/>
@@ -16148,7 +16494,7 @@
         <v>123</v>
       </c>
       <c r="E49" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>作業中</v>
       </c>
       <c r="F49" s="4">
@@ -16164,7 +16510,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="K49" s="22">
@@ -16173,8 +16519,12 @@
       <c r="L49" s="22">
         <v>1</v>
       </c>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
+      <c r="M49" s="22">
+        <v>1</v>
+      </c>
+      <c r="N49" s="22">
+        <v>1</v>
+      </c>
       <c r="O49" s="22"/>
       <c r="P49" s="22"/>
       <c r="Q49" s="22"/>
@@ -16192,7 +16542,7 @@
         <v>123</v>
       </c>
       <c r="E50" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>作業中</v>
       </c>
       <c r="F50" s="4">
@@ -16208,7 +16558,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="K50" s="22">
@@ -16217,8 +16567,12 @@
       <c r="L50" s="22">
         <v>1</v>
       </c>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
+      <c r="M50" s="22">
+        <v>1</v>
+      </c>
+      <c r="N50" s="22">
+        <v>1</v>
+      </c>
       <c r="O50" s="22"/>
       <c r="P50" s="22"/>
       <c r="Q50" s="22"/>
@@ -16236,7 +16590,7 @@
         <v>123</v>
       </c>
       <c r="E51" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>作業中</v>
       </c>
       <c r="F51" s="4">
@@ -16252,7 +16606,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="K51" s="22">
@@ -16261,8 +16615,12 @@
       <c r="L51" s="22">
         <v>1</v>
       </c>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
+      <c r="M51" s="22">
+        <v>1</v>
+      </c>
+      <c r="N51" s="22">
+        <v>1</v>
+      </c>
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
       <c r="Q51" s="22"/>
@@ -16280,7 +16638,7 @@
         <v>123</v>
       </c>
       <c r="E52" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>作業中</v>
       </c>
       <c r="F52" s="4">
@@ -16305,8 +16663,12 @@
       <c r="L52" s="22">
         <v>1</v>
       </c>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
+      <c r="M52" s="22">
+        <v>1</v>
+      </c>
+      <c r="N52" s="22">
+        <v>1</v>
+      </c>
       <c r="O52" s="22"/>
       <c r="P52" s="22"/>
       <c r="Q52" s="22"/>
@@ -16324,7 +16686,7 @@
         <v>123</v>
       </c>
       <c r="E53" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F53" s="4">
@@ -16336,7 +16698,7 @@
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="K53" s="22">
@@ -16345,8 +16707,12 @@
       <c r="L53" s="22">
         <v>6</v>
       </c>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
+      <c r="M53" s="22">
+        <v>6</v>
+      </c>
+      <c r="N53" s="22">
+        <v>6</v>
+      </c>
       <c r="O53" s="22"/>
       <c r="P53" s="22"/>
       <c r="Q53" s="22"/>
@@ -16364,7 +16730,7 @@
         <v>123</v>
       </c>
       <c r="E54" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F54" s="4">
@@ -16376,7 +16742,7 @@
       </c>
       <c r="I54" s="19"/>
       <c r="J54" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="K54" s="22">
@@ -16385,8 +16751,12 @@
       <c r="L54" s="22">
         <v>4</v>
       </c>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
+      <c r="M54" s="22">
+        <v>4</v>
+      </c>
+      <c r="N54" s="22">
+        <v>4</v>
+      </c>
       <c r="O54" s="22"/>
       <c r="P54" s="22"/>
       <c r="Q54" s="22"/>
@@ -16404,7 +16774,7 @@
         <v>168</v>
       </c>
       <c r="E55" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>作業中</v>
       </c>
       <c r="F55" s="4">
@@ -16420,7 +16790,7 @@
         <v>2</v>
       </c>
       <c r="J55" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="K55" s="22">
@@ -16429,8 +16799,12 @@
       <c r="L55" s="22">
         <v>6</v>
       </c>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
+      <c r="M55" s="22">
+        <v>6</v>
+      </c>
+      <c r="N55" s="22">
+        <v>6</v>
+      </c>
       <c r="O55" s="22"/>
       <c r="P55" s="22"/>
       <c r="Q55" s="22"/>
@@ -16448,20 +16822,22 @@
         <v>123</v>
       </c>
       <c r="E56" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>完了</v>
       </c>
       <c r="F56" s="4">
         <v>43063</v>
       </c>
-      <c r="G56" s="4"/>
+      <c r="G56" s="4">
+        <v>43064</v>
+      </c>
       <c r="H56" s="19">
         <v>3</v>
       </c>
       <c r="I56" s="19"/>
       <c r="J56" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="K56" s="22">
         <v>3</v>
@@ -16469,8 +16845,12 @@
       <c r="L56" s="22">
         <v>3</v>
       </c>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
+      <c r="M56" s="22">
+        <v>0</v>
+      </c>
+      <c r="N56" s="22">
+        <v>0</v>
+      </c>
       <c r="O56" s="22"/>
       <c r="P56" s="22"/>
       <c r="Q56" s="22"/>
@@ -16488,7 +16868,7 @@
         <v>123</v>
       </c>
       <c r="E57" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F57" s="4">
@@ -16500,8 +16880,8 @@
       </c>
       <c r="I57" s="19"/>
       <c r="J57" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="K57" s="22">
         <v>3</v>
@@ -16509,8 +16889,12 @@
       <c r="L57" s="22">
         <v>3</v>
       </c>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
+      <c r="M57" s="22">
+        <v>1</v>
+      </c>
+      <c r="N57" s="22">
+        <v>1</v>
+      </c>
       <c r="O57" s="22"/>
       <c r="P57" s="22"/>
       <c r="Q57" s="22"/>
@@ -16524,7 +16908,7 @@
       <c r="C58" s="85"/>
       <c r="D58" s="18"/>
       <c r="E58" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F58" s="4"/>
@@ -16532,7 +16916,7 @@
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K58" s="22"/>
@@ -16552,7 +16936,7 @@
       <c r="C59" s="85"/>
       <c r="D59" s="18"/>
       <c r="E59" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F59" s="4"/>
@@ -16560,7 +16944,7 @@
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K59" s="22"/>
@@ -16580,7 +16964,7 @@
       <c r="C60" s="85"/>
       <c r="D60" s="18"/>
       <c r="E60" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F60" s="4"/>
@@ -16588,7 +16972,7 @@
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K60" s="22"/>
@@ -16608,7 +16992,7 @@
       <c r="C61" s="85"/>
       <c r="D61" s="18"/>
       <c r="E61" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F61" s="4"/>
@@ -16616,7 +17000,7 @@
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K61" s="22"/>
@@ -16636,7 +17020,7 @@
       <c r="C62" s="85"/>
       <c r="D62" s="18"/>
       <c r="E62" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F62" s="4"/>
@@ -16644,7 +17028,7 @@
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K62" s="22"/>
@@ -16664,7 +17048,7 @@
       <c r="C63" s="85"/>
       <c r="D63" s="18"/>
       <c r="E63" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F63" s="4"/>
@@ -16672,7 +17056,7 @@
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K63" s="22"/>
@@ -16692,7 +17076,7 @@
       <c r="C64" s="85"/>
       <c r="D64" s="18"/>
       <c r="E64" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F64" s="4"/>
@@ -16700,7 +17084,7 @@
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K64" s="22"/>
@@ -16724,19 +17108,21 @@
         <v>146</v>
       </c>
       <c r="E65" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>作業中</v>
       </c>
       <c r="F65" s="4">
         <v>43053</v>
       </c>
-      <c r="G65" s="4"/>
+      <c r="G65" s="4">
+        <v>43067</v>
+      </c>
       <c r="H65" s="19">
         <v>6</v>
       </c>
       <c r="I65" s="19"/>
       <c r="J65" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="K65" s="22">
@@ -16745,8 +17131,12 @@
       <c r="L65" s="22">
         <v>6</v>
       </c>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
+      <c r="M65" s="22">
+        <v>6</v>
+      </c>
+      <c r="N65" s="22">
+        <v>6</v>
+      </c>
       <c r="O65" s="22"/>
       <c r="P65" s="22"/>
       <c r="Q65" s="22"/>
@@ -16764,19 +17154,21 @@
         <v>146</v>
       </c>
       <c r="E66" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>作業中</v>
       </c>
       <c r="F66" s="4">
         <v>43056</v>
       </c>
-      <c r="G66" s="4"/>
+      <c r="G66" s="4">
+        <v>43067</v>
+      </c>
       <c r="H66" s="19">
         <v>6</v>
       </c>
       <c r="I66" s="19"/>
       <c r="J66" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="K66" s="22">
@@ -16785,8 +17177,12 @@
       <c r="L66" s="22">
         <v>6</v>
       </c>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
+      <c r="M66" s="22">
+        <v>6</v>
+      </c>
+      <c r="N66" s="22">
+        <v>6</v>
+      </c>
       <c r="O66" s="22"/>
       <c r="P66" s="22"/>
       <c r="Q66" s="22"/>
@@ -16804,19 +17200,21 @@
         <v>146</v>
       </c>
       <c r="E67" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>作業中</v>
       </c>
       <c r="F67" s="4">
         <v>43060</v>
       </c>
-      <c r="G67" s="4"/>
+      <c r="G67" s="4">
+        <v>43067</v>
+      </c>
       <c r="H67" s="19">
         <v>6</v>
       </c>
       <c r="I67" s="19"/>
       <c r="J67" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>6</v>
       </c>
       <c r="K67" s="22">
@@ -16825,8 +17223,12 @@
       <c r="L67" s="22">
         <v>6</v>
       </c>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
+      <c r="M67" s="22">
+        <v>6</v>
+      </c>
+      <c r="N67" s="22">
+        <v>6</v>
+      </c>
       <c r="O67" s="22"/>
       <c r="P67" s="22"/>
       <c r="Q67" s="22"/>
@@ -16844,7 +17246,7 @@
         <v>146</v>
       </c>
       <c r="E68" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F68" s="4">
@@ -16856,7 +17258,7 @@
       </c>
       <c r="I68" s="19"/>
       <c r="J68" s="12">
-        <f t="shared" ref="J68:J75" ca="1" si="10">IF(ISBLANK(K68)=FALSE,OFFSET(J68,0,COUNTA(K68:R68)),"")</f>
+        <f t="shared" ref="J68:J75" ca="1" si="11">IF(ISBLANK(K68)=FALSE,OFFSET(J68,0,COUNTA(K68:R68)),"")</f>
         <v>6</v>
       </c>
       <c r="K68" s="22">
@@ -16865,8 +17267,12 @@
       <c r="L68" s="22">
         <v>6</v>
       </c>
-      <c r="M68" s="22"/>
-      <c r="N68" s="22"/>
+      <c r="M68" s="22">
+        <v>6</v>
+      </c>
+      <c r="N68" s="22">
+        <v>6</v>
+      </c>
       <c r="O68" s="22"/>
       <c r="P68" s="22"/>
       <c r="Q68" s="22"/>
@@ -16884,7 +17290,7 @@
         <v>157</v>
       </c>
       <c r="E69" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F69" s="4">
@@ -16896,7 +17302,7 @@
       </c>
       <c r="I69" s="19"/>
       <c r="J69" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>6</v>
       </c>
       <c r="K69" s="22">
@@ -16905,8 +17311,12 @@
       <c r="L69" s="22">
         <v>6</v>
       </c>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
+      <c r="M69" s="22">
+        <v>6</v>
+      </c>
+      <c r="N69" s="22">
+        <v>6</v>
+      </c>
       <c r="O69" s="22"/>
       <c r="P69" s="22"/>
       <c r="Q69" s="22"/>
@@ -16918,13 +17328,13 @@
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="85" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E70" s="12" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
       <c r="F70" s="4">
@@ -16936,7 +17346,7 @@
       </c>
       <c r="I70" s="19"/>
       <c r="J70" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>3</v>
       </c>
       <c r="K70" s="22">
@@ -16945,8 +17355,12 @@
       <c r="L70" s="22">
         <v>3</v>
       </c>
-      <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
+      <c r="M70" s="22">
+        <v>3</v>
+      </c>
+      <c r="N70" s="22">
+        <v>3</v>
+      </c>
       <c r="O70" s="22"/>
       <c r="P70" s="22"/>
       <c r="Q70" s="22"/>
@@ -16958,25 +17372,29 @@
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="17" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E71" s="12" t="str">
-        <f t="shared" si="8"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>作業中</v>
       </c>
       <c r="F71" s="4">
         <v>43060</v>
       </c>
-      <c r="G71" s="4"/>
+      <c r="G71" s="4">
+        <v>43060</v>
+      </c>
       <c r="H71" s="19">
         <v>6</v>
       </c>
-      <c r="I71" s="19"/>
+      <c r="I71" s="19">
+        <v>5</v>
+      </c>
       <c r="J71" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>6</v>
       </c>
       <c r="K71" s="22">
@@ -16985,8 +17403,12 @@
       <c r="L71" s="22">
         <v>6</v>
       </c>
-      <c r="M71" s="22"/>
-      <c r="N71" s="22"/>
+      <c r="M71" s="22">
+        <v>6</v>
+      </c>
+      <c r="N71" s="22">
+        <v>6</v>
+      </c>
       <c r="O71" s="22"/>
       <c r="P71" s="22"/>
       <c r="Q71" s="22"/>
@@ -17004,7 +17426,7 @@
         <v>146</v>
       </c>
       <c r="E72" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>作業中</v>
       </c>
       <c r="F72" s="4">
@@ -17020,8 +17442,8 @@
         <v>6</v>
       </c>
       <c r="J72" s="12">
-        <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
       </c>
       <c r="K72" s="22">
         <v>6</v>
@@ -17029,8 +17451,12 @@
       <c r="L72" s="22">
         <v>6</v>
       </c>
-      <c r="M72" s="22"/>
-      <c r="N72" s="22"/>
+      <c r="M72" s="22">
+        <v>4</v>
+      </c>
+      <c r="N72" s="22">
+        <v>2</v>
+      </c>
       <c r="O72" s="22"/>
       <c r="P72" s="22"/>
       <c r="Q72" s="22"/>
@@ -17042,13 +17468,13 @@
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="17" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>146</v>
       </c>
       <c r="E73" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F73" s="4">
@@ -17064,7 +17490,7 @@
         <v>6</v>
       </c>
       <c r="J73" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="K73" s="22">
@@ -17086,13 +17512,13 @@
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="17" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E74" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F74" s="4">
@@ -17108,7 +17534,7 @@
         <v>6</v>
       </c>
       <c r="J74" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="K74" s="22">
@@ -17130,13 +17556,13 @@
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="17" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>146</v>
       </c>
       <c r="E75" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F75" s="4">
@@ -17152,7 +17578,7 @@
         <v>3</v>
       </c>
       <c r="J75" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="K75" s="22">
@@ -17176,13 +17602,13 @@
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="17" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>146</v>
       </c>
       <c r="E76" s="12" t="str">
-        <f t="shared" ref="E76:E78" si="11">IF(ISBLANK($C76),"",IF(ISBLANK($G76),"未着手",IF($J76=0,"完了","作業中")))</f>
+        <f t="shared" ref="E76:E78" si="12">IF(ISBLANK($C76),"",IF(ISBLANK($G76),"未着手",IF($J76=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F76" s="4">
@@ -17194,7 +17620,7 @@
       </c>
       <c r="I76" s="19"/>
       <c r="J76" s="12">
-        <f t="shared" ref="J76:J78" ca="1" si="12">IF(ISBLANK(K76)=FALSE,OFFSET(J76,0,COUNTA(K76:R76)),"")</f>
+        <f t="shared" ref="J76:J78" ca="1" si="13">IF(ISBLANK(K76)=FALSE,OFFSET(J76,0,COUNTA(K76:R76)),"")</f>
         <v>3</v>
       </c>
       <c r="K76" s="22">
@@ -17203,8 +17629,12 @@
       <c r="L76" s="22">
         <v>3</v>
       </c>
-      <c r="M76" s="22"/>
-      <c r="N76" s="22"/>
+      <c r="M76" s="22">
+        <v>3</v>
+      </c>
+      <c r="N76" s="22">
+        <v>3</v>
+      </c>
       <c r="O76" s="22"/>
       <c r="P76" s="22"/>
       <c r="Q76" s="22"/>
@@ -17240,7 +17670,7 @@
       <c r="C78" s="17"/>
       <c r="D78" s="18"/>
       <c r="E78" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F78" s="4"/>
@@ -17248,7 +17678,7 @@
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
       <c r="J78" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="K78" s="22"/>
@@ -17272,7 +17702,7 @@
         <v>145</v>
       </c>
       <c r="E79" s="12" t="str">
-        <f t="shared" ref="E79:E91" ca="1" si="13">IF(ISBLANK($C79),"",IF(ISBLANK($G79),"未着手",IF($J79=0,"完了","作業中")))</f>
+        <f t="shared" ref="E79:E91" ca="1" si="14">IF(ISBLANK($C79),"",IF(ISBLANK($G79),"未着手",IF($J79=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F79" s="4">
@@ -17288,15 +17718,21 @@
         <v>3</v>
       </c>
       <c r="J79" s="12">
-        <f t="shared" ref="J79:J88" ca="1" si="14">IF(ISBLANK(K79)=FALSE,OFFSET(J79,0,COUNTA(K79:R79)),"")</f>
+        <f t="shared" ref="J79:J88" ca="1" si="15">IF(ISBLANK(K79)=FALSE,OFFSET(J79,0,COUNTA(K79:R79)),"")</f>
         <v>0</v>
       </c>
       <c r="K79" s="22">
         <v>0</v>
       </c>
-      <c r="L79" s="22"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="22"/>
+      <c r="L79" s="22">
+        <v>0</v>
+      </c>
+      <c r="M79" s="22">
+        <v>0</v>
+      </c>
+      <c r="N79" s="22">
+        <v>0</v>
+      </c>
       <c r="O79" s="22"/>
       <c r="P79" s="22"/>
       <c r="Q79" s="22"/>
@@ -17308,13 +17744,13 @@
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="85" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E80" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="F80" s="4">
@@ -17326,7 +17762,7 @@
       </c>
       <c r="I80" s="19"/>
       <c r="J80" s="12">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
       <c r="K80" s="22">
@@ -17335,8 +17771,12 @@
       <c r="L80" s="22">
         <v>3</v>
       </c>
-      <c r="M80" s="22"/>
-      <c r="N80" s="22"/>
+      <c r="M80" s="22">
+        <v>3</v>
+      </c>
+      <c r="N80" s="22">
+        <v>3</v>
+      </c>
       <c r="O80" s="22"/>
       <c r="P80" s="22"/>
       <c r="Q80" s="22"/>
@@ -17348,13 +17788,13 @@
       <c r="A81" s="16"/>
       <c r="B81" s="16"/>
       <c r="C81" s="85" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E81" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="F81" s="4">
@@ -17366,7 +17806,7 @@
       </c>
       <c r="I81" s="19"/>
       <c r="J81" s="12">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
       <c r="K81" s="22">
@@ -17375,8 +17815,12 @@
       <c r="L81" s="22">
         <v>3</v>
       </c>
-      <c r="M81" s="22"/>
-      <c r="N81" s="22"/>
+      <c r="M81" s="22">
+        <v>3</v>
+      </c>
+      <c r="N81" s="22">
+        <v>3</v>
+      </c>
       <c r="O81" s="22"/>
       <c r="P81" s="22"/>
       <c r="Q81" s="22"/>
@@ -17394,7 +17838,7 @@
         <v>158</v>
       </c>
       <c r="E82" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v>作業中</v>
       </c>
       <c r="F82" s="4">
@@ -17410,7 +17854,7 @@
         <v>1</v>
       </c>
       <c r="J82" s="12">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>5</v>
       </c>
       <c r="K82" s="22">
@@ -17419,8 +17863,12 @@
       <c r="L82" s="22">
         <v>5</v>
       </c>
-      <c r="M82" s="22"/>
-      <c r="N82" s="22"/>
+      <c r="M82" s="22">
+        <v>5</v>
+      </c>
+      <c r="N82" s="22">
+        <v>5</v>
+      </c>
       <c r="O82" s="22"/>
       <c r="P82" s="22"/>
       <c r="Q82" s="22"/>
@@ -17438,7 +17886,7 @@
         <v>145</v>
       </c>
       <c r="E83" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="F83" s="4">
@@ -17450,7 +17898,7 @@
       </c>
       <c r="I83" s="19"/>
       <c r="J83" s="12">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
       <c r="K83" s="22">
@@ -17459,8 +17907,12 @@
       <c r="L83" s="22">
         <v>3</v>
       </c>
-      <c r="M83" s="22"/>
-      <c r="N83" s="22"/>
+      <c r="M83" s="22">
+        <v>3</v>
+      </c>
+      <c r="N83" s="22">
+        <v>3</v>
+      </c>
       <c r="O83" s="22"/>
       <c r="P83" s="22"/>
       <c r="Q83" s="22"/>
@@ -17478,7 +17930,7 @@
         <v>145</v>
       </c>
       <c r="E84" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="F84" s="4">
@@ -17490,7 +17942,7 @@
       </c>
       <c r="I84" s="19"/>
       <c r="J84" s="12">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
       <c r="K84" s="22">
@@ -17499,8 +17951,12 @@
       <c r="L84" s="22">
         <v>3</v>
       </c>
-      <c r="M84" s="22"/>
-      <c r="N84" s="22"/>
+      <c r="M84" s="22">
+        <v>3</v>
+      </c>
+      <c r="N84" s="22">
+        <v>3</v>
+      </c>
       <c r="O84" s="22"/>
       <c r="P84" s="22"/>
       <c r="Q84" s="22"/>
@@ -17518,7 +17974,7 @@
         <v>145</v>
       </c>
       <c r="E85" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="F85" s="4">
@@ -17530,7 +17986,7 @@
       </c>
       <c r="I85" s="19"/>
       <c r="J85" s="12">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
       <c r="K85" s="22">
@@ -17539,8 +17995,12 @@
       <c r="L85" s="22">
         <v>3</v>
       </c>
-      <c r="M85" s="22"/>
-      <c r="N85" s="22"/>
+      <c r="M85" s="22">
+        <v>3</v>
+      </c>
+      <c r="N85" s="22">
+        <v>3</v>
+      </c>
       <c r="O85" s="22"/>
       <c r="P85" s="22"/>
       <c r="Q85" s="22"/>
@@ -17552,13 +18012,13 @@
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="85" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D86" s="18" t="s">
         <v>145</v>
       </c>
       <c r="E86" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="F86" s="4">
@@ -17570,7 +18030,7 @@
       </c>
       <c r="I86" s="19"/>
       <c r="J86" s="12">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
       <c r="K86" s="22">
@@ -17579,8 +18039,12 @@
       <c r="L86" s="22">
         <v>3</v>
       </c>
-      <c r="M86" s="22"/>
-      <c r="N86" s="22"/>
+      <c r="M86" s="22">
+        <v>3</v>
+      </c>
+      <c r="N86" s="22">
+        <v>3</v>
+      </c>
       <c r="O86" s="22"/>
       <c r="P86" s="22"/>
       <c r="Q86" s="22"/>
@@ -17592,13 +18056,13 @@
       <c r="A87" s="16"/>
       <c r="B87" s="16"/>
       <c r="C87" s="85" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D87" s="18" t="s">
         <v>145</v>
       </c>
       <c r="E87" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="F87" s="4">
@@ -17610,7 +18074,7 @@
       </c>
       <c r="I87" s="19"/>
       <c r="J87" s="12">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="15"/>
         <v>3</v>
       </c>
       <c r="K87" s="22">
@@ -17619,8 +18083,12 @@
       <c r="L87" s="22">
         <v>3</v>
       </c>
-      <c r="M87" s="22"/>
-      <c r="N87" s="22"/>
+      <c r="M87" s="22">
+        <v>3</v>
+      </c>
+      <c r="N87" s="22">
+        <v>3</v>
+      </c>
       <c r="O87" s="22"/>
       <c r="P87" s="22"/>
       <c r="Q87" s="22"/>
@@ -17638,8 +18106,8 @@
         <v>170</v>
       </c>
       <c r="E88" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>完了</v>
       </c>
       <c r="F88" s="4">
         <v>43053</v>
@@ -17654,8 +18122,8 @@
         <v>6</v>
       </c>
       <c r="J88" s="12">
-        <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
       </c>
       <c r="K88" s="22">
         <v>3</v>
@@ -17663,8 +18131,12 @@
       <c r="L88" s="22">
         <v>3</v>
       </c>
-      <c r="M88" s="22"/>
-      <c r="N88" s="22"/>
+      <c r="M88" s="22">
+        <v>0</v>
+      </c>
+      <c r="N88" s="22">
+        <v>0</v>
+      </c>
       <c r="O88" s="22"/>
       <c r="P88" s="22"/>
       <c r="Q88" s="22"/>
@@ -17676,26 +18148,30 @@
       <c r="A89" s="16"/>
       <c r="B89" s="16"/>
       <c r="C89" s="17" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>145</v>
       </c>
       <c r="E89" s="12" t="str">
-        <f t="shared" si="13"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>完了</v>
       </c>
       <c r="F89" s="4">
         <v>43056</v>
       </c>
-      <c r="G89" s="4"/>
+      <c r="G89" s="4">
+        <v>43063</v>
+      </c>
       <c r="H89" s="19">
         <v>3</v>
       </c>
-      <c r="I89" s="19"/>
+      <c r="I89" s="19">
+        <v>3</v>
+      </c>
       <c r="J89" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
       <c r="K89" s="22">
         <v>3</v>
@@ -17703,8 +18179,12 @@
       <c r="L89" s="22">
         <v>3</v>
       </c>
-      <c r="M89" s="22"/>
-      <c r="N89" s="22"/>
+      <c r="M89" s="22">
+        <v>0</v>
+      </c>
+      <c r="N89" s="22">
+        <v>0</v>
+      </c>
       <c r="O89" s="22"/>
       <c r="P89" s="22"/>
       <c r="Q89" s="22"/>
@@ -17722,7 +18202,7 @@
         <v>145</v>
       </c>
       <c r="E90" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="F90" s="4">
@@ -17735,7 +18215,7 @@
       <c r="I90" s="19"/>
       <c r="J90" s="12">
         <f ca="1">IF(ISBLANK(K90)=FALSE,OFFSET(J90,0,COUNTA(K90:R90)),"")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K90" s="22">
         <v>3</v>
@@ -17743,8 +18223,12 @@
       <c r="L90" s="22">
         <v>3</v>
       </c>
-      <c r="M90" s="22"/>
-      <c r="N90" s="22"/>
+      <c r="M90" s="22">
+        <v>3</v>
+      </c>
+      <c r="N90" s="22">
+        <v>1</v>
+      </c>
       <c r="O90" s="22"/>
       <c r="P90" s="22"/>
       <c r="Q90" s="22"/>
@@ -17762,7 +18246,7 @@
         <v>145</v>
       </c>
       <c r="E91" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="F91" s="4">
@@ -17783,8 +18267,12 @@
       <c r="L91" s="22">
         <v>3</v>
       </c>
-      <c r="M91" s="22"/>
-      <c r="N91" s="22"/>
+      <c r="M91" s="22">
+        <v>3</v>
+      </c>
+      <c r="N91" s="22">
+        <v>3</v>
+      </c>
       <c r="O91" s="22"/>
       <c r="P91" s="22"/>
       <c r="Q91" s="22"/>
@@ -17864,7 +18352,7 @@
       <c r="C96" s="17"/>
       <c r="D96" s="18"/>
       <c r="E96" s="12" t="str">
-        <f t="shared" ref="E96:E141" si="15">IF(ISBLANK($C96),"",IF(ISBLANK($G96),"未着手",IF($J96=0,"完了","作業中")))</f>
+        <f t="shared" ref="E96:E139" si="16">IF(ISBLANK($C96),"",IF(ISBLANK($G96),"未着手",IF($J96=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F96" s="4"/>
@@ -17872,7 +18360,7 @@
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
       <c r="J96" s="12" t="str">
-        <f t="shared" ref="J96:J119" ca="1" si="16">IF(ISBLANK(K96)=FALSE,OFFSET(J96,0,COUNTA(K96:R96)),"")</f>
+        <f t="shared" ref="J96:J119" ca="1" si="17">IF(ISBLANK(K96)=FALSE,OFFSET(J96,0,COUNTA(K96:R96)),"")</f>
         <v/>
       </c>
       <c r="K96" s="22"/>
@@ -17890,7 +18378,7 @@
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="17" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="12"/>
@@ -17899,7 +18387,7 @@
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
       <c r="J97" s="12" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K97" s="22"/>
@@ -17916,16 +18404,16 @@
     <row r="98" spans="1:20">
       <c r="A98" s="16"/>
       <c r="B98" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E98" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F98" s="4">
@@ -17937,7 +18425,7 @@
       </c>
       <c r="I98" s="19"/>
       <c r="J98" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="K98" s="22">
@@ -17946,8 +18434,12 @@
       <c r="L98" s="22">
         <v>1</v>
       </c>
-      <c r="M98" s="22"/>
-      <c r="N98" s="22"/>
+      <c r="M98" s="22">
+        <v>1</v>
+      </c>
+      <c r="N98" s="22">
+        <v>1</v>
+      </c>
       <c r="O98" s="22"/>
       <c r="P98" s="22"/>
       <c r="Q98" s="22"/>
@@ -17958,16 +18450,16 @@
     <row r="99" spans="1:20">
       <c r="A99" s="16"/>
       <c r="B99" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E99" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F99" s="4">
@@ -17979,7 +18471,7 @@
       </c>
       <c r="I99" s="19"/>
       <c r="J99" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="K99" s="22">
@@ -17988,8 +18480,12 @@
       <c r="L99" s="22">
         <v>1</v>
       </c>
-      <c r="M99" s="22"/>
-      <c r="N99" s="22"/>
+      <c r="M99" s="22">
+        <v>1</v>
+      </c>
+      <c r="N99" s="22">
+        <v>1</v>
+      </c>
       <c r="O99" s="22"/>
       <c r="P99" s="22"/>
       <c r="Q99" s="22"/>
@@ -18000,16 +18496,16 @@
     <row r="100" spans="1:20">
       <c r="A100" s="16"/>
       <c r="B100" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E100" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F100" s="4">
@@ -18021,7 +18517,7 @@
       </c>
       <c r="I100" s="19"/>
       <c r="J100" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="K100" s="22">
@@ -18030,8 +18526,12 @@
       <c r="L100" s="22">
         <v>1</v>
       </c>
-      <c r="M100" s="22"/>
-      <c r="N100" s="22"/>
+      <c r="M100" s="22">
+        <v>1</v>
+      </c>
+      <c r="N100" s="22">
+        <v>1</v>
+      </c>
       <c r="O100" s="22"/>
       <c r="P100" s="22"/>
       <c r="Q100" s="22"/>
@@ -18042,16 +18542,16 @@
     <row r="101" spans="1:20">
       <c r="A101" s="16"/>
       <c r="B101" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E101" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F101" s="4">
@@ -18063,7 +18563,7 @@
       </c>
       <c r="I101" s="19"/>
       <c r="J101" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="K101" s="22">
@@ -18072,8 +18572,12 @@
       <c r="L101" s="22">
         <v>1</v>
       </c>
-      <c r="M101" s="22"/>
-      <c r="N101" s="22"/>
+      <c r="M101" s="22">
+        <v>1</v>
+      </c>
+      <c r="N101" s="22">
+        <v>1</v>
+      </c>
       <c r="O101" s="22"/>
       <c r="P101" s="22"/>
       <c r="Q101" s="22"/>
@@ -18084,16 +18588,16 @@
     <row r="102" spans="1:20">
       <c r="A102" s="16"/>
       <c r="B102" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E102" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F102" s="4">
@@ -18105,7 +18609,7 @@
       </c>
       <c r="I102" s="19"/>
       <c r="J102" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="K102" s="22">
@@ -18114,8 +18618,12 @@
       <c r="L102" s="22">
         <v>1</v>
       </c>
-      <c r="M102" s="22"/>
-      <c r="N102" s="22"/>
+      <c r="M102" s="22">
+        <v>1</v>
+      </c>
+      <c r="N102" s="22">
+        <v>1</v>
+      </c>
       <c r="O102" s="22"/>
       <c r="P102" s="22"/>
       <c r="Q102" s="22"/>
@@ -18126,16 +18634,16 @@
     <row r="103" spans="1:20">
       <c r="A103" s="16"/>
       <c r="B103" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E103" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F103" s="4">
@@ -18147,7 +18655,7 @@
       </c>
       <c r="I103" s="19"/>
       <c r="J103" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="K103" s="22">
@@ -18156,8 +18664,12 @@
       <c r="L103" s="22">
         <v>1</v>
       </c>
-      <c r="M103" s="22"/>
-      <c r="N103" s="22"/>
+      <c r="M103" s="22">
+        <v>1</v>
+      </c>
+      <c r="N103" s="22">
+        <v>1</v>
+      </c>
       <c r="O103" s="22"/>
       <c r="P103" s="22"/>
       <c r="Q103" s="22"/>
@@ -18168,16 +18680,16 @@
     <row r="104" spans="1:20">
       <c r="A104" s="16"/>
       <c r="B104" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E104" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F104" s="4">
@@ -18189,7 +18701,7 @@
       </c>
       <c r="I104" s="19"/>
       <c r="J104" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="K104" s="22">
@@ -18198,8 +18710,12 @@
       <c r="L104" s="22">
         <v>1</v>
       </c>
-      <c r="M104" s="22"/>
-      <c r="N104" s="22"/>
+      <c r="M104" s="22">
+        <v>1</v>
+      </c>
+      <c r="N104" s="22">
+        <v>1</v>
+      </c>
       <c r="O104" s="22"/>
       <c r="P104" s="22"/>
       <c r="Q104" s="22"/>
@@ -18210,16 +18726,16 @@
     <row r="105" spans="1:20">
       <c r="A105" s="16"/>
       <c r="B105" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E105" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F105" s="4">
@@ -18231,7 +18747,7 @@
       </c>
       <c r="I105" s="19"/>
       <c r="J105" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="K105" s="22">
@@ -18240,8 +18756,12 @@
       <c r="L105" s="22">
         <v>1</v>
       </c>
-      <c r="M105" s="22"/>
-      <c r="N105" s="22"/>
+      <c r="M105" s="22">
+        <v>1</v>
+      </c>
+      <c r="N105" s="22">
+        <v>1</v>
+      </c>
       <c r="O105" s="22"/>
       <c r="P105" s="22"/>
       <c r="Q105" s="22"/>
@@ -18252,16 +18772,16 @@
     <row r="106" spans="1:20">
       <c r="A106" s="16"/>
       <c r="B106" s="16" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E106" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F106" s="4">
@@ -18273,7 +18793,7 @@
       </c>
       <c r="I106" s="19"/>
       <c r="J106" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="K106" s="22">
@@ -18282,8 +18802,12 @@
       <c r="L106" s="22">
         <v>2</v>
       </c>
-      <c r="M106" s="22"/>
-      <c r="N106" s="22"/>
+      <c r="M106" s="22">
+        <v>2</v>
+      </c>
+      <c r="N106" s="22">
+        <v>2</v>
+      </c>
       <c r="O106" s="22"/>
       <c r="P106" s="22"/>
       <c r="Q106" s="22"/>
@@ -18294,16 +18818,16 @@
     <row r="107" spans="1:20">
       <c r="A107" s="16"/>
       <c r="B107" s="16" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E107" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F107" s="4">
@@ -18315,7 +18839,7 @@
       </c>
       <c r="I107" s="19"/>
       <c r="J107" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="K107" s="22">
@@ -18324,8 +18848,12 @@
       <c r="L107" s="22">
         <v>2</v>
       </c>
-      <c r="M107" s="22"/>
-      <c r="N107" s="22"/>
+      <c r="M107" s="22">
+        <v>2</v>
+      </c>
+      <c r="N107" s="22">
+        <v>2</v>
+      </c>
       <c r="O107" s="22"/>
       <c r="P107" s="22"/>
       <c r="Q107" s="22"/>
@@ -18336,16 +18864,16 @@
     <row r="108" spans="1:20">
       <c r="A108" s="16"/>
       <c r="B108" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E108" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F108" s="4">
@@ -18357,7 +18885,7 @@
       </c>
       <c r="I108" s="19"/>
       <c r="J108" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>3</v>
       </c>
       <c r="K108" s="22">
@@ -18366,8 +18894,12 @@
       <c r="L108" s="22">
         <v>3</v>
       </c>
-      <c r="M108" s="22"/>
-      <c r="N108" s="22"/>
+      <c r="M108" s="22">
+        <v>3</v>
+      </c>
+      <c r="N108" s="22">
+        <v>3</v>
+      </c>
       <c r="O108" s="22"/>
       <c r="P108" s="22"/>
       <c r="Q108" s="22"/>
@@ -18378,16 +18910,16 @@
     <row r="109" spans="1:20">
       <c r="A109" s="16"/>
       <c r="B109" s="16" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E109" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F109" s="4">
@@ -18399,7 +18931,7 @@
       </c>
       <c r="I109" s="19"/>
       <c r="J109" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="K109" s="22">
@@ -18408,8 +18940,12 @@
       <c r="L109" s="22">
         <v>1</v>
       </c>
-      <c r="M109" s="22"/>
-      <c r="N109" s="22"/>
+      <c r="M109" s="22">
+        <v>1</v>
+      </c>
+      <c r="N109" s="22">
+        <v>1</v>
+      </c>
       <c r="O109" s="22"/>
       <c r="P109" s="22"/>
       <c r="Q109" s="22"/>
@@ -18420,16 +18956,16 @@
     <row r="110" spans="1:20">
       <c r="A110" s="16"/>
       <c r="B110" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E110" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F110" s="4">
@@ -18441,7 +18977,7 @@
       </c>
       <c r="I110" s="19"/>
       <c r="J110" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>4</v>
       </c>
       <c r="K110" s="22">
@@ -18450,8 +18986,12 @@
       <c r="L110" s="22">
         <v>4</v>
       </c>
-      <c r="M110" s="22"/>
-      <c r="N110" s="22"/>
+      <c r="M110" s="22">
+        <v>4</v>
+      </c>
+      <c r="N110" s="22">
+        <v>4</v>
+      </c>
       <c r="O110" s="22"/>
       <c r="P110" s="22"/>
       <c r="Q110" s="22"/>
@@ -18462,13 +19002,13 @@
     <row r="111" spans="1:20">
       <c r="A111" s="16"/>
       <c r="B111" s="16" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E111" s="12" t="str">
         <f>IF(ISBLANK($C111),"",IF(ISBLANK($G111),"未着手",IF($J111=0,"完了","作業中")))</f>
@@ -18483,7 +19023,7 @@
       </c>
       <c r="I111" s="19"/>
       <c r="J111" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="K111" s="22">
@@ -18492,8 +19032,12 @@
       <c r="L111" s="22">
         <v>2</v>
       </c>
-      <c r="M111" s="22"/>
-      <c r="N111" s="22"/>
+      <c r="M111" s="22">
+        <v>2</v>
+      </c>
+      <c r="N111" s="22">
+        <v>2</v>
+      </c>
       <c r="O111" s="22"/>
       <c r="P111" s="22"/>
       <c r="Q111" s="22"/>
@@ -18504,16 +19048,16 @@
     <row r="112" spans="1:20">
       <c r="A112" s="16"/>
       <c r="B112" s="16" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E112" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F112" s="4">
@@ -18525,7 +19069,7 @@
       </c>
       <c r="I112" s="19"/>
       <c r="J112" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>2</v>
       </c>
       <c r="K112" s="22">
@@ -18534,8 +19078,12 @@
       <c r="L112" s="22">
         <v>2</v>
       </c>
-      <c r="M112" s="22"/>
-      <c r="N112" s="22"/>
+      <c r="M112" s="22">
+        <v>2</v>
+      </c>
+      <c r="N112" s="22">
+        <v>2</v>
+      </c>
       <c r="O112" s="22"/>
       <c r="P112" s="22"/>
       <c r="Q112" s="22"/>
@@ -18546,16 +19094,16 @@
     <row r="113" spans="1:27">
       <c r="A113" s="16"/>
       <c r="B113" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E113" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F113" s="4">
@@ -18567,7 +19115,7 @@
       </c>
       <c r="I113" s="19"/>
       <c r="J113" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="K113" s="22">
@@ -18576,8 +19124,12 @@
       <c r="L113" s="22">
         <v>1</v>
       </c>
-      <c r="M113" s="22"/>
-      <c r="N113" s="22"/>
+      <c r="M113" s="22">
+        <v>1</v>
+      </c>
+      <c r="N113" s="22">
+        <v>1</v>
+      </c>
       <c r="O113" s="22"/>
       <c r="P113" s="22"/>
       <c r="Q113" s="22"/>
@@ -18588,16 +19140,16 @@
     <row r="114" spans="1:27">
       <c r="A114" s="16"/>
       <c r="B114" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C114" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D114" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="D114" s="18" t="s">
-        <v>200</v>
-      </c>
       <c r="E114" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F114" s="4">
@@ -18609,7 +19161,7 @@
       </c>
       <c r="I114" s="19"/>
       <c r="J114" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="K114" s="22">
@@ -18618,8 +19170,12 @@
       <c r="L114" s="22">
         <v>1</v>
       </c>
-      <c r="M114" s="22"/>
-      <c r="N114" s="22"/>
+      <c r="M114" s="22">
+        <v>1</v>
+      </c>
+      <c r="N114" s="22">
+        <v>1</v>
+      </c>
       <c r="O114" s="22"/>
       <c r="P114" s="22"/>
       <c r="Q114" s="22"/>
@@ -18630,16 +19186,16 @@
     <row r="115" spans="1:27">
       <c r="A115" s="16"/>
       <c r="B115" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E115" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F115" s="4">
@@ -18651,7 +19207,7 @@
       </c>
       <c r="I115" s="19"/>
       <c r="J115" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="K115" s="22">
@@ -18660,8 +19216,12 @@
       <c r="L115" s="22">
         <v>1</v>
       </c>
-      <c r="M115" s="22"/>
-      <c r="N115" s="22"/>
+      <c r="M115" s="22">
+        <v>1</v>
+      </c>
+      <c r="N115" s="22">
+        <v>1</v>
+      </c>
       <c r="O115" s="22"/>
       <c r="P115" s="22"/>
       <c r="Q115" s="22"/>
@@ -18672,16 +19232,16 @@
     <row r="116" spans="1:27">
       <c r="A116" s="16"/>
       <c r="B116" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E116" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F116" s="4">
@@ -18693,7 +19253,7 @@
       </c>
       <c r="I116" s="19"/>
       <c r="J116" s="12">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1</v>
       </c>
       <c r="K116" s="22">
@@ -18702,8 +19262,12 @@
       <c r="L116" s="22">
         <v>1</v>
       </c>
-      <c r="M116" s="22"/>
-      <c r="N116" s="22"/>
+      <c r="M116" s="22">
+        <v>1</v>
+      </c>
+      <c r="N116" s="22">
+        <v>1</v>
+      </c>
       <c r="O116" s="22"/>
       <c r="P116" s="22"/>
       <c r="Q116" s="22"/>
@@ -18713,37 +19277,17 @@
     </row>
     <row r="117" spans="1:27">
       <c r="A117" s="16"/>
-      <c r="B117" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="C117" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D117" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="E117" s="12" t="str">
-        <f t="shared" si="15"/>
-        <v>未着手</v>
-      </c>
-      <c r="F117" s="4">
-        <v>43067</v>
-      </c>
+      <c r="B117" s="16"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="4"/>
       <c r="G117" s="4"/>
-      <c r="H117" s="19">
-        <v>1</v>
-      </c>
+      <c r="H117" s="19"/>
       <c r="I117" s="19"/>
-      <c r="J117" s="12">
-        <f t="shared" ca="1" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="K117" s="22">
-        <v>1</v>
-      </c>
-      <c r="L117" s="22">
-        <v>1</v>
-      </c>
+      <c r="J117" s="12"/>
+      <c r="K117" s="22"/>
+      <c r="L117" s="22"/>
       <c r="M117" s="22"/>
       <c r="N117" s="22"/>
       <c r="O117" s="22"/>
@@ -18755,37 +19299,17 @@
     </row>
     <row r="118" spans="1:27">
       <c r="A118" s="16"/>
-      <c r="B118" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="C118" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D118" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="E118" s="12" t="str">
-        <f t="shared" si="15"/>
-        <v>未着手</v>
-      </c>
-      <c r="F118" s="4">
-        <v>43067</v>
-      </c>
+      <c r="B118" s="16"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="4"/>
       <c r="G118" s="4"/>
-      <c r="H118" s="19">
-        <v>1</v>
-      </c>
+      <c r="H118" s="19"/>
       <c r="I118" s="19"/>
-      <c r="J118" s="12">
-        <f t="shared" ca="1" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="K118" s="22">
-        <v>1</v>
-      </c>
-      <c r="L118" s="22">
-        <v>1</v>
-      </c>
+      <c r="J118" s="12"/>
+      <c r="K118" s="22"/>
+      <c r="L118" s="22"/>
       <c r="M118" s="22"/>
       <c r="N118" s="22"/>
       <c r="O118" s="22"/>
@@ -18801,7 +19325,7 @@
       <c r="C119" s="17"/>
       <c r="D119" s="18"/>
       <c r="E119" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="F119" s="4"/>
@@ -18809,7 +19333,7 @@
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
       <c r="J119" s="12" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="17"/>
         <v/>
       </c>
       <c r="K119" s="22"/>
@@ -18827,7 +19351,7 @@
       <c r="A120" s="16"/>
       <c r="B120" s="16"/>
       <c r="C120" s="17" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D120" s="18"/>
       <c r="E120" s="12"/>
@@ -18836,7 +19360,7 @@
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
       <c r="J120" s="12" t="str">
-        <f t="shared" ref="J120:J142" ca="1" si="17">IF(ISBLANK(K120)=FALSE,OFFSET(J120,0,COUNTA(K120:R120)),"")</f>
+        <f t="shared" ref="J120:J142" ca="1" si="18">IF(ISBLANK(K120)=FALSE,OFFSET(J120,0,COUNTA(K120:R120)),"")</f>
         <v/>
       </c>
       <c r="K120" s="22"/>
@@ -18853,29 +19377,31 @@
     <row r="121" spans="1:27">
       <c r="A121" s="16"/>
       <c r="B121" s="16" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E121" s="12" t="str">
-        <f t="shared" si="15"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>完了</v>
       </c>
       <c r="F121" s="4">
         <v>43067</v>
       </c>
-      <c r="G121" s="4"/>
+      <c r="G121" s="4">
+        <v>43060</v>
+      </c>
       <c r="H121" s="19">
         <v>1</v>
       </c>
       <c r="I121" s="19"/>
       <c r="J121" s="12">
-        <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
       <c r="K121" s="22">
         <v>1</v>
@@ -18883,8 +19409,12 @@
       <c r="L121" s="22">
         <v>1</v>
       </c>
-      <c r="M121" s="22"/>
-      <c r="N121" s="22"/>
+      <c r="M121" s="22">
+        <v>0</v>
+      </c>
+      <c r="N121" s="22">
+        <v>0</v>
+      </c>
       <c r="O121" s="22"/>
       <c r="P121" s="22"/>
       <c r="Q121" s="22"/>
@@ -18913,29 +19443,31 @@
     <row r="122" spans="1:27">
       <c r="A122" s="16"/>
       <c r="B122" s="16" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E122" s="12" t="str">
-        <f t="shared" si="15"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>完了</v>
       </c>
       <c r="F122" s="4">
         <v>43067</v>
       </c>
-      <c r="G122" s="4"/>
+      <c r="G122" s="4">
+        <v>43060</v>
+      </c>
       <c r="H122" s="19">
         <v>1</v>
       </c>
       <c r="I122" s="19"/>
       <c r="J122" s="12">
-        <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
       <c r="K122" s="22">
         <v>1</v>
@@ -18943,8 +19475,12 @@
       <c r="L122" s="22">
         <v>1</v>
       </c>
-      <c r="M122" s="22"/>
-      <c r="N122" s="22"/>
+      <c r="M122" s="22">
+        <v>0</v>
+      </c>
+      <c r="N122" s="22">
+        <v>0</v>
+      </c>
       <c r="O122" s="22"/>
       <c r="P122" s="22"/>
       <c r="Q122" s="22"/>
@@ -18955,20 +19491,20 @@
         <v>151</v>
       </c>
       <c r="W122" s="10">
-        <f t="shared" ref="W122:W129" si="18">SUMIF($D$5:$D$119,V122,$H$5:$H$119)</f>
-        <v>57</v>
+        <f t="shared" ref="W122:W129" si="19">SUMIF($D$5:$D$119,V122,$H$5:$H$119)</f>
+        <v>53</v>
       </c>
       <c r="X122" s="10">
-        <f t="shared" ref="X122:X129" ca="1" si="19">SUMIF($D$5:$D$119,V122,$J$5:$J$119)</f>
-        <v>4</v>
+        <f t="shared" ref="X122:X129" ca="1" si="20">SUMIF($D$5:$D$119,V122,$J$5:$J$119)</f>
+        <v>30</v>
       </c>
       <c r="Y122" s="10">
-        <f t="shared" ref="Y122:Y129" si="20">SUMIF($D$5:$D$119,V122,$I$5:$I$119)</f>
-        <v>9</v>
+        <f t="shared" ref="Y122:Y129" si="21">SUMIF($D$5:$D$119,V122,$I$5:$I$119)</f>
+        <v>15</v>
       </c>
       <c r="Z122" s="14">
-        <f t="shared" ref="Z122:Z129" si="21">COUNTA($K$2:$T$2)*6-COUNTA($K$4:$T$4)*6</f>
-        <v>48</v>
+        <f t="shared" ref="Z122:Z129" si="22">COUNTA($K$2:$T$2)*6-COUNTA($K$4:$T$4)*6</f>
+        <v>36</v>
       </c>
       <c r="AA122" s="15">
         <f ca="1">IF(Z122&gt;X122,0,X122-Z122)</f>
@@ -18978,29 +19514,31 @@
     <row r="123" spans="1:27">
       <c r="A123" s="16"/>
       <c r="B123" s="16" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E123" s="12" t="str">
-        <f t="shared" si="15"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>完了</v>
       </c>
       <c r="F123" s="4">
         <v>43067</v>
       </c>
-      <c r="G123" s="4"/>
+      <c r="G123" s="4">
+        <v>43060</v>
+      </c>
       <c r="H123" s="19">
         <v>1</v>
       </c>
       <c r="I123" s="19"/>
       <c r="J123" s="12">
-        <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
       <c r="K123" s="22">
         <v>1</v>
@@ -19008,8 +19546,12 @@
       <c r="L123" s="22">
         <v>1</v>
       </c>
-      <c r="M123" s="22"/>
-      <c r="N123" s="22"/>
+      <c r="M123" s="22">
+        <v>0</v>
+      </c>
+      <c r="N123" s="22">
+        <v>0</v>
+      </c>
       <c r="O123" s="22"/>
       <c r="P123" s="22"/>
       <c r="Q123" s="22"/>
@@ -19020,52 +19562,54 @@
         <v>152</v>
       </c>
       <c r="W123" s="10">
-        <f t="shared" si="18"/>
-        <v>77</v>
+        <f t="shared" si="19"/>
+        <v>75</v>
       </c>
       <c r="X123" s="10">
-        <f t="shared" ca="1" si="19"/>
-        <v>59</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>54</v>
       </c>
       <c r="Y123" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="Z123" s="14">
-        <f t="shared" si="21"/>
-        <v>48</v>
+        <f t="shared" si="22"/>
+        <v>36</v>
       </c>
       <c r="AA123" s="15">
-        <f t="shared" ref="AA123:AA129" ca="1" si="22">IF(Z123&gt;X123,0,X123-Z123)</f>
-        <v>11</v>
+        <f t="shared" ref="AA123:AA129" ca="1" si="23">IF(Z123&gt;X123,0,X123-Z123)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:27">
       <c r="A124" s="16"/>
       <c r="B124" s="16" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E124" s="12" t="str">
-        <f t="shared" si="15"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>完了</v>
       </c>
       <c r="F124" s="4">
         <v>43067</v>
       </c>
-      <c r="G124" s="4"/>
+      <c r="G124" s="4">
+        <v>43060</v>
+      </c>
       <c r="H124" s="19">
         <v>1</v>
       </c>
       <c r="I124" s="19"/>
       <c r="J124" s="12">
-        <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
       <c r="K124" s="22">
         <v>1</v>
@@ -19073,8 +19617,12 @@
       <c r="L124" s="22">
         <v>1</v>
       </c>
-      <c r="M124" s="22"/>
-      <c r="N124" s="22"/>
+      <c r="M124" s="22">
+        <v>0</v>
+      </c>
+      <c r="N124" s="22">
+        <v>0</v>
+      </c>
       <c r="O124" s="22"/>
       <c r="P124" s="22"/>
       <c r="Q124" s="22"/>
@@ -19085,39 +19633,39 @@
         <v>153</v>
       </c>
       <c r="W124" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>46</v>
       </c>
       <c r="X124" s="10">
-        <f t="shared" ca="1" si="19"/>
-        <v>38</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>33</v>
       </c>
       <c r="Y124" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="Z124" s="14">
-        <f t="shared" si="21"/>
-        <v>48</v>
+        <f t="shared" si="22"/>
+        <v>36</v>
       </c>
       <c r="AA124" s="15">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:27">
       <c r="A125" s="16"/>
       <c r="B125" s="16" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E125" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F125" s="4">
@@ -19129,7 +19677,7 @@
       </c>
       <c r="I125" s="19"/>
       <c r="J125" s="12">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="K125" s="22">
@@ -19138,8 +19686,12 @@
       <c r="L125" s="22">
         <v>1</v>
       </c>
-      <c r="M125" s="22"/>
-      <c r="N125" s="22"/>
+      <c r="M125" s="22">
+        <v>1</v>
+      </c>
+      <c r="N125" s="22">
+        <v>1</v>
+      </c>
       <c r="O125" s="22"/>
       <c r="P125" s="22"/>
       <c r="Q125" s="22"/>
@@ -19150,39 +19702,39 @@
         <v>154</v>
       </c>
       <c r="W125" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>26</v>
       </c>
       <c r="X125" s="10">
-        <f t="shared" ca="1" si="19"/>
-        <v>15</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>8</v>
       </c>
       <c r="Y125" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="Z125" s="14">
-        <f t="shared" si="21"/>
-        <v>48</v>
+        <f t="shared" si="22"/>
+        <v>36</v>
       </c>
       <c r="AA125" s="15">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:27">
       <c r="A126" s="16"/>
       <c r="B126" s="16" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E126" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F126" s="4">
@@ -19194,7 +19746,7 @@
       </c>
       <c r="I126" s="19"/>
       <c r="J126" s="12">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="K126" s="22">
@@ -19203,8 +19755,12 @@
       <c r="L126" s="22">
         <v>1</v>
       </c>
-      <c r="M126" s="22"/>
-      <c r="N126" s="22"/>
+      <c r="M126" s="22">
+        <v>1</v>
+      </c>
+      <c r="N126" s="22">
+        <v>1</v>
+      </c>
       <c r="O126" s="22"/>
       <c r="P126" s="22"/>
       <c r="Q126" s="22"/>
@@ -19215,39 +19771,39 @@
         <v>146</v>
       </c>
       <c r="W126" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>66</v>
       </c>
       <c r="X126" s="10">
-        <f t="shared" ca="1" si="19"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>44</v>
       </c>
       <c r="Y126" s="10">
-        <f t="shared" si="20"/>
-        <v>21</v>
+        <f t="shared" si="21"/>
+        <v>26</v>
       </c>
       <c r="Z126" s="14">
-        <f t="shared" si="21"/>
-        <v>48</v>
+        <f t="shared" si="22"/>
+        <v>36</v>
       </c>
       <c r="AA126" s="15">
         <f ca="1">IF(Z126&gt;X126,0,X126-Z126)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:27">
       <c r="A127" s="16"/>
       <c r="B127" s="16" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E127" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F127" s="4">
@@ -19259,7 +19815,7 @@
       </c>
       <c r="I127" s="19"/>
       <c r="J127" s="12">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="K127" s="22">
@@ -19268,8 +19824,12 @@
       <c r="L127" s="22">
         <v>1</v>
       </c>
-      <c r="M127" s="22"/>
-      <c r="N127" s="22"/>
+      <c r="M127" s="22">
+        <v>1</v>
+      </c>
+      <c r="N127" s="22">
+        <v>1</v>
+      </c>
       <c r="O127" s="22"/>
       <c r="P127" s="22"/>
       <c r="Q127" s="22"/>
@@ -19280,39 +19840,39 @@
         <v>145</v>
       </c>
       <c r="W127" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>45</v>
       </c>
       <c r="X127" s="10">
-        <f t="shared" ca="1" si="19"/>
-        <v>38</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>30</v>
       </c>
       <c r="Y127" s="10">
-        <f t="shared" si="20"/>
-        <v>10</v>
+        <f t="shared" si="21"/>
+        <v>13</v>
       </c>
       <c r="Z127" s="14">
-        <f t="shared" si="21"/>
-        <v>48</v>
+        <f t="shared" si="22"/>
+        <v>36</v>
       </c>
       <c r="AA127" s="15">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:27">
       <c r="A128" s="16"/>
       <c r="B128" s="16" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E128" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F128" s="4">
@@ -19324,7 +19884,7 @@
       </c>
       <c r="I128" s="19"/>
       <c r="J128" s="12">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="K128" s="22">
@@ -19333,8 +19893,12 @@
       <c r="L128" s="22">
         <v>1</v>
       </c>
-      <c r="M128" s="22"/>
-      <c r="N128" s="22"/>
+      <c r="M128" s="22">
+        <v>1</v>
+      </c>
+      <c r="N128" s="22">
+        <v>1</v>
+      </c>
       <c r="O128" s="22"/>
       <c r="P128" s="22"/>
       <c r="Q128" s="22"/>
@@ -19343,52 +19907,54 @@
       <c r="T128" s="22"/>
       <c r="V128" s="11"/>
       <c r="W128" s="10">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="X128" s="10">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="Y128" s="10">
+      <c r="X128" s="10">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
+      <c r="Y128" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="Z128" s="14">
-        <f t="shared" si="21"/>
-        <v>48</v>
+        <f t="shared" si="22"/>
+        <v>36</v>
       </c>
       <c r="AA128" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:27">
       <c r="A129" s="16"/>
       <c r="B129" s="16" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E129" s="12" t="str">
-        <f t="shared" si="15"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>完了</v>
       </c>
       <c r="F129" s="4">
         <v>43067</v>
       </c>
-      <c r="G129" s="4"/>
+      <c r="G129" s="4">
+        <v>43060</v>
+      </c>
       <c r="H129" s="19">
         <v>1</v>
       </c>
       <c r="I129" s="19"/>
       <c r="J129" s="12">
-        <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
       <c r="K129" s="22">
         <v>1</v>
@@ -19396,8 +19962,12 @@
       <c r="L129" s="22">
         <v>1</v>
       </c>
-      <c r="M129" s="22"/>
-      <c r="N129" s="22"/>
+      <c r="M129" s="22">
+        <v>0</v>
+      </c>
+      <c r="N129" s="22">
+        <v>0</v>
+      </c>
       <c r="O129" s="22"/>
       <c r="P129" s="22"/>
       <c r="Q129" s="22"/>
@@ -19406,39 +19976,39 @@
       <c r="T129" s="22"/>
       <c r="V129" s="11"/>
       <c r="W129" s="10">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="X129" s="10">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="Y129" s="10">
+      <c r="X129" s="10">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
+      <c r="Y129" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
       <c r="Z129" s="14">
-        <f t="shared" si="21"/>
-        <v>48</v>
+        <f t="shared" si="22"/>
+        <v>36</v>
       </c>
       <c r="AA129" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:27">
       <c r="A130" s="16"/>
       <c r="B130" s="16" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E130" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F130" s="4">
@@ -19450,7 +20020,7 @@
       </c>
       <c r="I130" s="19"/>
       <c r="J130" s="12">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="K130" s="22">
@@ -19459,8 +20029,12 @@
       <c r="L130" s="22">
         <v>1</v>
       </c>
-      <c r="M130" s="22"/>
-      <c r="N130" s="22"/>
+      <c r="M130" s="22">
+        <v>1</v>
+      </c>
+      <c r="N130" s="22">
+        <v>1</v>
+      </c>
       <c r="O130" s="22"/>
       <c r="P130" s="22"/>
       <c r="Q130" s="22"/>
@@ -19471,29 +20045,31 @@
     <row r="131" spans="1:27">
       <c r="A131" s="16"/>
       <c r="B131" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E131" s="12" t="str">
-        <f t="shared" si="15"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>完了</v>
       </c>
       <c r="F131" s="4">
         <v>43067</v>
       </c>
-      <c r="G131" s="4"/>
+      <c r="G131" s="4">
+        <v>43060</v>
+      </c>
       <c r="H131" s="19">
         <v>1</v>
       </c>
       <c r="I131" s="19"/>
       <c r="J131" s="12">
-        <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
       </c>
       <c r="K131" s="22">
         <v>1</v>
@@ -19501,8 +20077,12 @@
       <c r="L131" s="22">
         <v>1</v>
       </c>
-      <c r="M131" s="22"/>
-      <c r="N131" s="22"/>
+      <c r="M131" s="22">
+        <v>0</v>
+      </c>
+      <c r="N131" s="22">
+        <v>0</v>
+      </c>
       <c r="O131" s="22"/>
       <c r="P131" s="22"/>
       <c r="Q131" s="22"/>
@@ -19513,16 +20093,16 @@
     <row r="132" spans="1:27">
       <c r="A132" s="16"/>
       <c r="B132" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D132" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E132" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F132" s="4">
@@ -19534,7 +20114,7 @@
       </c>
       <c r="I132" s="19"/>
       <c r="J132" s="12">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="K132" s="22">
@@ -19543,8 +20123,12 @@
       <c r="L132" s="22">
         <v>1</v>
       </c>
-      <c r="M132" s="22"/>
-      <c r="N132" s="22"/>
+      <c r="M132" s="22">
+        <v>1</v>
+      </c>
+      <c r="N132" s="22">
+        <v>1</v>
+      </c>
       <c r="O132" s="22"/>
       <c r="P132" s="22"/>
       <c r="Q132" s="22"/>
@@ -19555,16 +20139,16 @@
     <row r="133" spans="1:27">
       <c r="A133" s="16"/>
       <c r="B133" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D133" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E133" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F133" s="4">
@@ -19576,7 +20160,7 @@
       </c>
       <c r="I133" s="19"/>
       <c r="J133" s="12">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="K133" s="22">
@@ -19585,8 +20169,12 @@
       <c r="L133" s="22">
         <v>1</v>
       </c>
-      <c r="M133" s="22"/>
-      <c r="N133" s="22"/>
+      <c r="M133" s="22">
+        <v>1</v>
+      </c>
+      <c r="N133" s="22">
+        <v>1</v>
+      </c>
       <c r="O133" s="22"/>
       <c r="P133" s="22"/>
       <c r="Q133" s="22"/>
@@ -19597,13 +20185,13 @@
     <row r="134" spans="1:27">
       <c r="A134" s="16"/>
       <c r="B134" s="16" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D134" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E134" s="12" t="str">
         <f>IF(ISBLANK($C134),"",IF(ISBLANK($G134),"未着手",IF($J134=0,"完了","作業中")))</f>
@@ -19618,7 +20206,7 @@
       </c>
       <c r="I134" s="19"/>
       <c r="J134" s="12">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="K134" s="22">
@@ -19627,8 +20215,12 @@
       <c r="L134" s="22">
         <v>1</v>
       </c>
-      <c r="M134" s="22"/>
-      <c r="N134" s="22"/>
+      <c r="M134" s="22">
+        <v>1</v>
+      </c>
+      <c r="N134" s="22">
+        <v>1</v>
+      </c>
       <c r="O134" s="22"/>
       <c r="P134" s="22"/>
       <c r="Q134" s="22"/>
@@ -19639,16 +20231,16 @@
     <row r="135" spans="1:27">
       <c r="A135" s="16"/>
       <c r="B135" s="16" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D135" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E135" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F135" s="4">
@@ -19660,7 +20252,7 @@
       </c>
       <c r="I135" s="19"/>
       <c r="J135" s="12">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="K135" s="22">
@@ -19669,8 +20261,12 @@
       <c r="L135" s="22">
         <v>1</v>
       </c>
-      <c r="M135" s="22"/>
-      <c r="N135" s="22"/>
+      <c r="M135" s="22">
+        <v>1</v>
+      </c>
+      <c r="N135" s="22">
+        <v>1</v>
+      </c>
       <c r="O135" s="22"/>
       <c r="P135" s="22"/>
       <c r="Q135" s="22"/>
@@ -19681,16 +20277,16 @@
     <row r="136" spans="1:27">
       <c r="A136" s="16"/>
       <c r="B136" s="16" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D136" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E136" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F136" s="4">
@@ -19702,7 +20298,7 @@
       </c>
       <c r="I136" s="19"/>
       <c r="J136" s="12">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>2</v>
       </c>
       <c r="K136" s="22">
@@ -19711,8 +20307,12 @@
       <c r="L136" s="22">
         <v>2</v>
       </c>
-      <c r="M136" s="22"/>
-      <c r="N136" s="22"/>
+      <c r="M136" s="22">
+        <v>2</v>
+      </c>
+      <c r="N136" s="22">
+        <v>2</v>
+      </c>
       <c r="O136" s="22"/>
       <c r="P136" s="22"/>
       <c r="Q136" s="22"/>
@@ -19723,16 +20323,16 @@
     <row r="137" spans="1:27">
       <c r="A137" s="16"/>
       <c r="B137" s="16" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D137" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E137" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F137" s="4">
@@ -19744,7 +20344,7 @@
       </c>
       <c r="I137" s="19"/>
       <c r="J137" s="12">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>2</v>
       </c>
       <c r="K137" s="22">
@@ -19753,8 +20353,12 @@
       <c r="L137" s="22">
         <v>2</v>
       </c>
-      <c r="M137" s="22"/>
-      <c r="N137" s="22"/>
+      <c r="M137" s="22">
+        <v>2</v>
+      </c>
+      <c r="N137" s="22">
+        <v>2</v>
+      </c>
       <c r="O137" s="22"/>
       <c r="P137" s="22"/>
       <c r="Q137" s="22"/>
@@ -19765,16 +20369,16 @@
     <row r="138" spans="1:27">
       <c r="A138" s="16"/>
       <c r="B138" s="16" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E138" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F138" s="4">
@@ -19786,7 +20390,7 @@
       </c>
       <c r="I138" s="19"/>
       <c r="J138" s="12">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>5</v>
       </c>
       <c r="K138" s="22">
@@ -19795,8 +20399,12 @@
       <c r="L138" s="22">
         <v>5</v>
       </c>
-      <c r="M138" s="22"/>
-      <c r="N138" s="22"/>
+      <c r="M138" s="22">
+        <v>5</v>
+      </c>
+      <c r="N138" s="22">
+        <v>5</v>
+      </c>
       <c r="O138" s="22"/>
       <c r="P138" s="22"/>
       <c r="Q138" s="22"/>
@@ -19807,16 +20415,16 @@
     <row r="139" spans="1:27">
       <c r="A139" s="16"/>
       <c r="B139" s="16" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E139" s="12" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>未着手</v>
       </c>
       <c r="F139" s="4">
@@ -19828,7 +20436,7 @@
       </c>
       <c r="I139" s="19"/>
       <c r="J139" s="12">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v>5</v>
       </c>
       <c r="K139" s="22">
@@ -19837,8 +20445,12 @@
       <c r="L139" s="22">
         <v>5</v>
       </c>
-      <c r="M139" s="22"/>
-      <c r="N139" s="22"/>
+      <c r="M139" s="22">
+        <v>5</v>
+      </c>
+      <c r="N139" s="22">
+        <v>5</v>
+      </c>
       <c r="O139" s="22"/>
       <c r="P139" s="22"/>
       <c r="Q139" s="22"/>
@@ -19848,37 +20460,17 @@
     </row>
     <row r="140" spans="1:27">
       <c r="A140" s="16"/>
-      <c r="B140" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="C140" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D140" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="E140" s="12" t="str">
-        <f t="shared" si="15"/>
-        <v>未着手</v>
-      </c>
-      <c r="F140" s="4">
-        <v>43067</v>
-      </c>
+      <c r="B140" s="16"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="4"/>
       <c r="G140" s="4"/>
-      <c r="H140" s="19">
-        <v>5</v>
-      </c>
+      <c r="H140" s="19"/>
       <c r="I140" s="19"/>
-      <c r="J140" s="12">
-        <f t="shared" ca="1" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="K140" s="22">
-        <v>5</v>
-      </c>
-      <c r="L140" s="22">
-        <v>5</v>
-      </c>
+      <c r="J140" s="12"/>
+      <c r="K140" s="22"/>
+      <c r="L140" s="22"/>
       <c r="M140" s="22"/>
       <c r="N140" s="22"/>
       <c r="O140" s="22"/>
@@ -19890,37 +20482,17 @@
     </row>
     <row r="141" spans="1:27">
       <c r="A141" s="16"/>
-      <c r="B141" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="C141" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D141" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="E141" s="12" t="str">
-        <f t="shared" si="15"/>
-        <v>未着手</v>
-      </c>
-      <c r="F141" s="4">
-        <v>43067</v>
-      </c>
+      <c r="B141" s="16"/>
+      <c r="C141" s="17"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="4"/>
       <c r="G141" s="4"/>
-      <c r="H141" s="19">
-        <v>5</v>
-      </c>
+      <c r="H141" s="19"/>
       <c r="I141" s="19"/>
-      <c r="J141" s="12">
-        <f t="shared" ca="1" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="K141" s="22">
-        <v>5</v>
-      </c>
-      <c r="L141" s="22">
-        <v>5</v>
-      </c>
+      <c r="J141" s="12"/>
+      <c r="K141" s="22"/>
+      <c r="L141" s="22"/>
       <c r="M141" s="22"/>
       <c r="N141" s="22"/>
       <c r="O141" s="22"/>
@@ -19936,7 +20508,7 @@
       <c r="C142" s="17"/>
       <c r="D142" s="18"/>
       <c r="E142" s="12" t="str">
-        <f t="shared" ref="E142:E204" si="23">IF(ISBLANK($C142),"",IF(ISBLANK($G142),"未着手",IF($J142=0,"完了","作業中")))</f>
+        <f t="shared" ref="E142:E204" si="24">IF(ISBLANK($C142),"",IF(ISBLANK($G142),"未着手",IF($J142=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F142" s="4"/>
@@ -19944,7 +20516,7 @@
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
       <c r="J142" s="12" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="K142" s="22"/>
@@ -19962,7 +20534,7 @@
       <c r="A143" s="16"/>
       <c r="B143" s="16"/>
       <c r="C143" s="17" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D143" s="18"/>
       <c r="E143" s="12"/>
@@ -19971,7 +20543,7 @@
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
       <c r="J143" s="12" t="str">
-        <f t="shared" ref="J143:J205" ca="1" si="24">IF(ISBLANK(K143)=FALSE,OFFSET(J143,0,COUNTA(K143:R143)),"")</f>
+        <f t="shared" ref="J143:J205" ca="1" si="25">IF(ISBLANK(K143)=FALSE,OFFSET(J143,0,COUNTA(K143:R143)),"")</f>
         <v/>
       </c>
       <c r="K143" s="22"/>
@@ -19988,16 +20560,16 @@
     <row r="144" spans="1:27">
       <c r="A144" s="16"/>
       <c r="B144" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D144" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E144" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>未着手</v>
       </c>
       <c r="F144" s="4"/>
@@ -20006,14 +20578,22 @@
         <v>1</v>
       </c>
       <c r="I144" s="19"/>
-      <c r="J144" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="K144" s="22"/>
-      <c r="L144" s="22"/>
-      <c r="M144" s="22"/>
-      <c r="N144" s="22"/>
+      <c r="J144" s="12">
+        <f t="shared" ca="1" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="K144" s="19">
+        <v>1</v>
+      </c>
+      <c r="L144" s="19">
+        <v>1</v>
+      </c>
+      <c r="M144" s="19">
+        <v>1</v>
+      </c>
+      <c r="N144" s="19">
+        <v>1</v>
+      </c>
       <c r="O144" s="22"/>
       <c r="P144" s="22"/>
       <c r="Q144" s="22"/>
@@ -20024,16 +20604,16 @@
     <row r="145" spans="1:20">
       <c r="A145" s="16"/>
       <c r="B145" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D145" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E145" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>未着手</v>
       </c>
       <c r="F145" s="4"/>
@@ -20042,14 +20622,22 @@
         <v>1</v>
       </c>
       <c r="I145" s="19"/>
-      <c r="J145" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="K145" s="22"/>
-      <c r="L145" s="22"/>
-      <c r="M145" s="22"/>
-      <c r="N145" s="22"/>
+      <c r="J145" s="12">
+        <f t="shared" ca="1" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="K145" s="19">
+        <v>1</v>
+      </c>
+      <c r="L145" s="19">
+        <v>1</v>
+      </c>
+      <c r="M145" s="19">
+        <v>1</v>
+      </c>
+      <c r="N145" s="19">
+        <v>1</v>
+      </c>
       <c r="O145" s="22"/>
       <c r="P145" s="22"/>
       <c r="Q145" s="22"/>
@@ -20060,16 +20648,16 @@
     <row r="146" spans="1:20">
       <c r="A146" s="16"/>
       <c r="B146" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D146" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E146" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>未着手</v>
       </c>
       <c r="F146" s="4"/>
@@ -20078,14 +20666,22 @@
         <v>1</v>
       </c>
       <c r="I146" s="19"/>
-      <c r="J146" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="K146" s="22"/>
-      <c r="L146" s="22"/>
-      <c r="M146" s="22"/>
-      <c r="N146" s="22"/>
+      <c r="J146" s="12">
+        <f t="shared" ca="1" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="K146" s="19">
+        <v>1</v>
+      </c>
+      <c r="L146" s="19">
+        <v>1</v>
+      </c>
+      <c r="M146" s="19">
+        <v>1</v>
+      </c>
+      <c r="N146" s="19">
+        <v>1</v>
+      </c>
       <c r="O146" s="22"/>
       <c r="P146" s="22"/>
       <c r="Q146" s="22"/>
@@ -20096,16 +20692,16 @@
     <row r="147" spans="1:20">
       <c r="A147" s="16"/>
       <c r="B147" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D147" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E147" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>未着手</v>
       </c>
       <c r="F147" s="4"/>
@@ -20114,14 +20710,22 @@
         <v>1</v>
       </c>
       <c r="I147" s="19"/>
-      <c r="J147" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="K147" s="22"/>
-      <c r="L147" s="22"/>
-      <c r="M147" s="22"/>
-      <c r="N147" s="22"/>
+      <c r="J147" s="12">
+        <f t="shared" ca="1" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="K147" s="19">
+        <v>1</v>
+      </c>
+      <c r="L147" s="19">
+        <v>1</v>
+      </c>
+      <c r="M147" s="19">
+        <v>1</v>
+      </c>
+      <c r="N147" s="19">
+        <v>1</v>
+      </c>
       <c r="O147" s="22"/>
       <c r="P147" s="22"/>
       <c r="Q147" s="22"/>
@@ -20132,16 +20736,16 @@
     <row r="148" spans="1:20">
       <c r="A148" s="16"/>
       <c r="B148" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D148" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E148" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>未着手</v>
       </c>
       <c r="F148" s="4"/>
@@ -20150,14 +20754,22 @@
         <v>2</v>
       </c>
       <c r="I148" s="19"/>
-      <c r="J148" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="K148" s="22"/>
-      <c r="L148" s="22"/>
-      <c r="M148" s="22"/>
-      <c r="N148" s="22"/>
+      <c r="J148" s="12">
+        <f t="shared" ca="1" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="K148" s="19">
+        <v>2</v>
+      </c>
+      <c r="L148" s="19">
+        <v>2</v>
+      </c>
+      <c r="M148" s="19">
+        <v>2</v>
+      </c>
+      <c r="N148" s="19">
+        <v>2</v>
+      </c>
       <c r="O148" s="22"/>
       <c r="P148" s="22"/>
       <c r="Q148" s="22"/>
@@ -20168,16 +20780,16 @@
     <row r="149" spans="1:20">
       <c r="A149" s="16"/>
       <c r="B149" s="16" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D149" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E149" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>未着手</v>
       </c>
       <c r="F149" s="4"/>
@@ -20186,14 +20798,22 @@
         <v>2</v>
       </c>
       <c r="I149" s="19"/>
-      <c r="J149" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="K149" s="22"/>
-      <c r="L149" s="22"/>
-      <c r="M149" s="22"/>
-      <c r="N149" s="22"/>
+      <c r="J149" s="12">
+        <f t="shared" ca="1" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="K149" s="19">
+        <v>2</v>
+      </c>
+      <c r="L149" s="19">
+        <v>2</v>
+      </c>
+      <c r="M149" s="19">
+        <v>2</v>
+      </c>
+      <c r="N149" s="19">
+        <v>2</v>
+      </c>
       <c r="O149" s="22"/>
       <c r="P149" s="22"/>
       <c r="Q149" s="22"/>
@@ -20204,16 +20824,16 @@
     <row r="150" spans="1:20">
       <c r="A150" s="16"/>
       <c r="B150" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D150" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E150" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>未着手</v>
       </c>
       <c r="F150" s="4"/>
@@ -20222,14 +20842,22 @@
         <v>2</v>
       </c>
       <c r="I150" s="19"/>
-      <c r="J150" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="K150" s="22"/>
-      <c r="L150" s="22"/>
-      <c r="M150" s="22"/>
-      <c r="N150" s="22"/>
+      <c r="J150" s="12">
+        <f t="shared" ca="1" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="K150" s="19">
+        <v>2</v>
+      </c>
+      <c r="L150" s="19">
+        <v>2</v>
+      </c>
+      <c r="M150" s="19">
+        <v>2</v>
+      </c>
+      <c r="N150" s="19">
+        <v>2</v>
+      </c>
       <c r="O150" s="22"/>
       <c r="P150" s="22"/>
       <c r="Q150" s="22"/>
@@ -20240,10 +20868,10 @@
     <row r="151" spans="1:20">
       <c r="A151" s="16"/>
       <c r="B151" s="16" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D151" s="18" t="s">
         <v>121</v>
@@ -20258,14 +20886,22 @@
         <v>1</v>
       </c>
       <c r="I151" s="19"/>
-      <c r="J151" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="K151" s="22"/>
-      <c r="L151" s="22"/>
-      <c r="M151" s="22"/>
-      <c r="N151" s="22"/>
+      <c r="J151" s="12">
+        <f t="shared" ca="1" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="K151" s="19">
+        <v>1</v>
+      </c>
+      <c r="L151" s="19">
+        <v>1</v>
+      </c>
+      <c r="M151" s="19">
+        <v>1</v>
+      </c>
+      <c r="N151" s="19">
+        <v>1</v>
+      </c>
       <c r="O151" s="22"/>
       <c r="P151" s="22"/>
       <c r="Q151" s="22"/>
@@ -20276,10 +20912,10 @@
     <row r="152" spans="1:20">
       <c r="A152" s="16"/>
       <c r="B152" s="16" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D152" s="18" t="s">
         <v>121</v>
@@ -20294,14 +20930,22 @@
         <v>1</v>
       </c>
       <c r="I152" s="19"/>
-      <c r="J152" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="K152" s="22"/>
-      <c r="L152" s="22"/>
-      <c r="M152" s="22"/>
-      <c r="N152" s="22"/>
+      <c r="J152" s="12">
+        <f t="shared" ca="1" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="K152" s="19">
+        <v>1</v>
+      </c>
+      <c r="L152" s="19">
+        <v>1</v>
+      </c>
+      <c r="M152" s="19">
+        <v>1</v>
+      </c>
+      <c r="N152" s="19">
+        <v>1</v>
+      </c>
       <c r="O152" s="22"/>
       <c r="P152" s="22"/>
       <c r="Q152" s="22"/>
@@ -20312,10 +20956,10 @@
     <row r="153" spans="1:20">
       <c r="A153" s="16"/>
       <c r="B153" s="16" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D153" s="18" t="s">
         <v>121</v>
@@ -20330,14 +20974,22 @@
         <v>2</v>
       </c>
       <c r="I153" s="19"/>
-      <c r="J153" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="K153" s="22"/>
-      <c r="L153" s="22"/>
-      <c r="M153" s="22"/>
-      <c r="N153" s="22"/>
+      <c r="J153" s="12">
+        <f t="shared" ca="1" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="K153" s="19">
+        <v>2</v>
+      </c>
+      <c r="L153" s="19">
+        <v>2</v>
+      </c>
+      <c r="M153" s="19">
+        <v>2</v>
+      </c>
+      <c r="N153" s="19">
+        <v>2</v>
+      </c>
       <c r="O153" s="22"/>
       <c r="P153" s="22"/>
       <c r="Q153" s="22"/>
@@ -20348,10 +21000,10 @@
     <row r="154" spans="1:20">
       <c r="A154" s="16"/>
       <c r="B154" s="16" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D154" s="18" t="s">
         <v>121</v>
@@ -20366,14 +21018,22 @@
         <v>2</v>
       </c>
       <c r="I154" s="19"/>
-      <c r="J154" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="K154" s="22"/>
-      <c r="L154" s="22"/>
-      <c r="M154" s="22"/>
-      <c r="N154" s="22"/>
+      <c r="J154" s="12">
+        <f t="shared" ca="1" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="K154" s="19">
+        <v>2</v>
+      </c>
+      <c r="L154" s="19">
+        <v>2</v>
+      </c>
+      <c r="M154" s="19">
+        <v>2</v>
+      </c>
+      <c r="N154" s="19">
+        <v>2</v>
+      </c>
       <c r="O154" s="22"/>
       <c r="P154" s="22"/>
       <c r="Q154" s="22"/>
@@ -20384,10 +21044,10 @@
     <row r="155" spans="1:20">
       <c r="A155" s="16"/>
       <c r="B155" s="16" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D155" s="18" t="s">
         <v>121</v>
@@ -20402,14 +21062,22 @@
         <v>2</v>
       </c>
       <c r="I155" s="19"/>
-      <c r="J155" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="K155" s="22"/>
-      <c r="L155" s="22"/>
-      <c r="M155" s="22"/>
-      <c r="N155" s="22"/>
+      <c r="J155" s="12">
+        <f t="shared" ca="1" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="K155" s="19">
+        <v>2</v>
+      </c>
+      <c r="L155" s="19">
+        <v>2</v>
+      </c>
+      <c r="M155" s="19">
+        <v>2</v>
+      </c>
+      <c r="N155" s="19">
+        <v>2</v>
+      </c>
       <c r="O155" s="22"/>
       <c r="P155" s="22"/>
       <c r="Q155" s="22"/>
@@ -20420,16 +21088,16 @@
     <row r="156" spans="1:20">
       <c r="A156" s="16"/>
       <c r="B156" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D156" s="18" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E156" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>未着手</v>
       </c>
       <c r="F156" s="4"/>
@@ -20438,14 +21106,22 @@
         <v>1</v>
       </c>
       <c r="I156" s="19"/>
-      <c r="J156" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="K156" s="22"/>
-      <c r="L156" s="22"/>
-      <c r="M156" s="22"/>
-      <c r="N156" s="22"/>
+      <c r="J156" s="12">
+        <f t="shared" ca="1" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="K156" s="19">
+        <v>1</v>
+      </c>
+      <c r="L156" s="19">
+        <v>1</v>
+      </c>
+      <c r="M156" s="19">
+        <v>1</v>
+      </c>
+      <c r="N156" s="19">
+        <v>1</v>
+      </c>
       <c r="O156" s="22"/>
       <c r="P156" s="22"/>
       <c r="Q156" s="22"/>
@@ -20456,16 +21132,16 @@
     <row r="157" spans="1:20">
       <c r="A157" s="16"/>
       <c r="B157" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D157" s="18" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E157" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>未着手</v>
       </c>
       <c r="F157" s="4"/>
@@ -20474,14 +21150,22 @@
         <v>1</v>
       </c>
       <c r="I157" s="19"/>
-      <c r="J157" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="K157" s="22"/>
-      <c r="L157" s="22"/>
-      <c r="M157" s="22"/>
-      <c r="N157" s="22"/>
+      <c r="J157" s="12">
+        <f t="shared" ca="1" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="K157" s="19">
+        <v>1</v>
+      </c>
+      <c r="L157" s="19">
+        <v>1</v>
+      </c>
+      <c r="M157" s="19">
+        <v>1</v>
+      </c>
+      <c r="N157" s="19">
+        <v>1</v>
+      </c>
       <c r="O157" s="22"/>
       <c r="P157" s="22"/>
       <c r="Q157" s="22"/>
@@ -20495,7 +21179,7 @@
       <c r="C158" s="17"/>
       <c r="D158" s="18"/>
       <c r="E158" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F158" s="4"/>
@@ -20503,7 +21187,7 @@
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
       <c r="J158" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K158" s="22"/>
@@ -20523,7 +21207,7 @@
       <c r="C159" s="17"/>
       <c r="D159" s="18"/>
       <c r="E159" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F159" s="4"/>
@@ -20531,7 +21215,7 @@
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
       <c r="J159" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K159" s="22"/>
@@ -20549,7 +21233,7 @@
       <c r="A160" s="16"/>
       <c r="B160" s="16"/>
       <c r="C160" s="17" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D160" s="18"/>
       <c r="E160" s="12"/>
@@ -20558,7 +21242,7 @@
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
       <c r="J160" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K160" s="22"/>
@@ -20575,16 +21259,16 @@
     <row r="161" spans="1:20">
       <c r="A161" s="16"/>
       <c r="B161" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D161" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E161" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>未着手</v>
       </c>
       <c r="F161" s="4">
@@ -20595,14 +21279,22 @@
         <v>1</v>
       </c>
       <c r="I161" s="19"/>
-      <c r="J161" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="K161" s="22"/>
-      <c r="L161" s="22"/>
-      <c r="M161" s="22"/>
-      <c r="N161" s="22"/>
+      <c r="J161" s="12">
+        <f t="shared" ca="1" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="K161" s="19">
+        <v>1</v>
+      </c>
+      <c r="L161" s="19">
+        <v>1</v>
+      </c>
+      <c r="M161" s="19">
+        <v>1</v>
+      </c>
+      <c r="N161" s="19">
+        <v>1</v>
+      </c>
       <c r="O161" s="22"/>
       <c r="P161" s="22"/>
       <c r="Q161" s="22"/>
@@ -20613,16 +21305,16 @@
     <row r="162" spans="1:20">
       <c r="A162" s="16"/>
       <c r="B162" s="16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D162" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E162" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>未着手</v>
       </c>
       <c r="F162" s="4">
@@ -20633,14 +21325,22 @@
         <v>1</v>
       </c>
       <c r="I162" s="19"/>
-      <c r="J162" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="K162" s="22"/>
-      <c r="L162" s="22"/>
-      <c r="M162" s="22"/>
-      <c r="N162" s="22"/>
+      <c r="J162" s="12">
+        <f t="shared" ca="1" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="K162" s="19">
+        <v>1</v>
+      </c>
+      <c r="L162" s="19">
+        <v>1</v>
+      </c>
+      <c r="M162" s="19">
+        <v>1</v>
+      </c>
+      <c r="N162" s="19">
+        <v>1</v>
+      </c>
       <c r="O162" s="22"/>
       <c r="P162" s="22"/>
       <c r="Q162" s="22"/>
@@ -20651,16 +21351,16 @@
     <row r="163" spans="1:20">
       <c r="A163" s="16"/>
       <c r="B163" s="16" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D163" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E163" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>未着手</v>
       </c>
       <c r="F163" s="4">
@@ -20671,14 +21371,22 @@
         <v>1</v>
       </c>
       <c r="I163" s="19"/>
-      <c r="J163" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="K163" s="22"/>
-      <c r="L163" s="22"/>
-      <c r="M163" s="22"/>
-      <c r="N163" s="22"/>
+      <c r="J163" s="12">
+        <f t="shared" ca="1" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="K163" s="19">
+        <v>1</v>
+      </c>
+      <c r="L163" s="19">
+        <v>1</v>
+      </c>
+      <c r="M163" s="19">
+        <v>1</v>
+      </c>
+      <c r="N163" s="19">
+        <v>1</v>
+      </c>
       <c r="O163" s="22"/>
       <c r="P163" s="22"/>
       <c r="Q163" s="22"/>
@@ -20689,16 +21397,16 @@
     <row r="164" spans="1:20">
       <c r="A164" s="16"/>
       <c r="B164" s="16" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D164" s="18" t="s">
         <v>121</v>
       </c>
       <c r="E164" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>未着手</v>
       </c>
       <c r="F164" s="4">
@@ -20709,14 +21417,22 @@
         <v>1</v>
       </c>
       <c r="I164" s="19"/>
-      <c r="J164" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
-        <v/>
-      </c>
-      <c r="K164" s="22"/>
-      <c r="L164" s="22"/>
-      <c r="M164" s="22"/>
-      <c r="N164" s="22"/>
+      <c r="J164" s="12">
+        <f t="shared" ca="1" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="K164" s="19">
+        <v>1</v>
+      </c>
+      <c r="L164" s="19">
+        <v>1</v>
+      </c>
+      <c r="M164" s="19">
+        <v>1</v>
+      </c>
+      <c r="N164" s="19">
+        <v>1</v>
+      </c>
       <c r="O164" s="22"/>
       <c r="P164" s="22"/>
       <c r="Q164" s="22"/>
@@ -20730,7 +21446,7 @@
       <c r="C165" s="17"/>
       <c r="D165" s="18"/>
       <c r="E165" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F165" s="4"/>
@@ -20738,7 +21454,7 @@
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
       <c r="J165" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K165" s="22"/>
@@ -20758,7 +21474,7 @@
       <c r="C166" s="17"/>
       <c r="D166" s="18"/>
       <c r="E166" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F166" s="4"/>
@@ -20766,7 +21482,7 @@
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
       <c r="J166" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K166" s="22"/>
@@ -20783,18 +21499,20 @@
     <row r="167" spans="1:20">
       <c r="A167" s="16"/>
       <c r="B167" s="16"/>
-      <c r="C167" s="17"/>
+      <c r="C167" s="17" t="s">
+        <v>264</v>
+      </c>
       <c r="D167" s="18"/>
       <c r="E167" s="12" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="24"/>
+        <v>未着手</v>
       </c>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
       <c r="J167" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K167" s="22"/>
@@ -20811,18 +21529,20 @@
     <row r="168" spans="1:20">
       <c r="A168" s="16"/>
       <c r="B168" s="16"/>
-      <c r="C168" s="17"/>
+      <c r="C168" s="17" t="s">
+        <v>265</v>
+      </c>
       <c r="D168" s="18"/>
       <c r="E168" s="12" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="24"/>
+        <v>未着手</v>
       </c>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
       <c r="J168" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K168" s="22"/>
@@ -20839,18 +21559,20 @@
     <row r="169" spans="1:20">
       <c r="A169" s="16"/>
       <c r="B169" s="16"/>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17" t="s">
+        <v>268</v>
+      </c>
       <c r="D169" s="18"/>
       <c r="E169" s="12" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f>IF(ISBLANK($C169),"",IF(ISBLANK($G169),"未着手",IF($J169=0,"完了","作業中")))</f>
+        <v>未着手</v>
       </c>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
       <c r="J169" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K169" s="22"/>
@@ -20867,18 +21589,20 @@
     <row r="170" spans="1:20">
       <c r="A170" s="16"/>
       <c r="B170" s="16"/>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17" t="s">
+        <v>267</v>
+      </c>
       <c r="D170" s="18"/>
       <c r="E170" s="12" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f>IF(ISBLANK($C170),"",IF(ISBLANK($G170),"未着手",IF($J170=0,"完了","作業中")))</f>
+        <v>未着手</v>
       </c>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
       <c r="J170" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K170" s="22"/>
@@ -20895,18 +21619,20 @@
     <row r="171" spans="1:20">
       <c r="A171" s="16"/>
       <c r="B171" s="16"/>
-      <c r="C171" s="17"/>
+      <c r="C171" s="17" t="s">
+        <v>266</v>
+      </c>
       <c r="D171" s="18"/>
       <c r="E171" s="12" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f>IF(ISBLANK($C171),"",IF(ISBLANK($G171),"未着手",IF($J171=0,"完了","作業中")))</f>
+        <v>未着手</v>
       </c>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
       <c r="J171" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K171" s="22"/>
@@ -20923,18 +21649,20 @@
     <row r="172" spans="1:20">
       <c r="A172" s="16"/>
       <c r="B172" s="16"/>
-      <c r="C172" s="17"/>
+      <c r="C172" s="17" t="s">
+        <v>269</v>
+      </c>
       <c r="D172" s="18"/>
       <c r="E172" s="12" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f>IF(ISBLANK($C172),"",IF(ISBLANK($G172),"未着手",IF($J172=0,"完了","作業中")))</f>
+        <v>未着手</v>
       </c>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
       <c r="J172" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K172" s="22"/>
@@ -20951,18 +21679,20 @@
     <row r="173" spans="1:20">
       <c r="A173" s="16"/>
       <c r="B173" s="16"/>
-      <c r="C173" s="17"/>
+      <c r="C173" s="17" t="s">
+        <v>270</v>
+      </c>
       <c r="D173" s="18"/>
       <c r="E173" s="12" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="24"/>
+        <v>未着手</v>
       </c>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
       <c r="J173" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K173" s="22"/>
@@ -20979,18 +21709,20 @@
     <row r="174" spans="1:20">
       <c r="A174" s="16"/>
       <c r="B174" s="16"/>
-      <c r="C174" s="17"/>
+      <c r="C174" s="17" t="s">
+        <v>271</v>
+      </c>
       <c r="D174" s="18"/>
       <c r="E174" s="12" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="24"/>
+        <v>未着手</v>
       </c>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
       <c r="J174" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K174" s="22"/>
@@ -21007,18 +21739,20 @@
     <row r="175" spans="1:20">
       <c r="A175" s="16"/>
       <c r="B175" s="16"/>
-      <c r="C175" s="17"/>
+      <c r="C175" s="17" t="s">
+        <v>272</v>
+      </c>
       <c r="D175" s="18"/>
       <c r="E175" s="12" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="24"/>
+        <v>未着手</v>
       </c>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
       <c r="J175" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K175" s="22"/>
@@ -21035,18 +21769,20 @@
     <row r="176" spans="1:20">
       <c r="A176" s="16"/>
       <c r="B176" s="16"/>
-      <c r="C176" s="17"/>
+      <c r="C176" s="17" t="s">
+        <v>273</v>
+      </c>
       <c r="D176" s="18"/>
       <c r="E176" s="12" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="24"/>
+        <v>未着手</v>
       </c>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
       <c r="H176" s="19"/>
       <c r="I176" s="19"/>
       <c r="J176" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K176" s="22"/>
@@ -21063,18 +21799,20 @@
     <row r="177" spans="1:20">
       <c r="A177" s="16"/>
       <c r="B177" s="16"/>
-      <c r="C177" s="17"/>
+      <c r="C177" s="17" t="s">
+        <v>274</v>
+      </c>
       <c r="D177" s="18"/>
       <c r="E177" s="12" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="24"/>
+        <v>未着手</v>
       </c>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
       <c r="H177" s="19"/>
       <c r="I177" s="19"/>
       <c r="J177" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K177" s="22"/>
@@ -21091,18 +21829,20 @@
     <row r="178" spans="1:20">
       <c r="A178" s="16"/>
       <c r="B178" s="16"/>
-      <c r="C178" s="17"/>
+      <c r="C178" s="17" t="s">
+        <v>275</v>
+      </c>
       <c r="D178" s="18"/>
       <c r="E178" s="12" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="24"/>
+        <v>未着手</v>
       </c>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
       <c r="H178" s="19"/>
       <c r="I178" s="19"/>
       <c r="J178" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K178" s="22"/>
@@ -21119,18 +21859,20 @@
     <row r="179" spans="1:20">
       <c r="A179" s="16"/>
       <c r="B179" s="16"/>
-      <c r="C179" s="17"/>
+      <c r="C179" s="17" t="s">
+        <v>276</v>
+      </c>
       <c r="D179" s="18"/>
       <c r="E179" s="12" t="str">
-        <f t="shared" si="23"/>
-        <v/>
+        <f t="shared" si="24"/>
+        <v>未着手</v>
       </c>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
       <c r="J179" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K179" s="22"/>
@@ -21150,7 +21892,7 @@
       <c r="C180" s="17"/>
       <c r="D180" s="18"/>
       <c r="E180" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F180" s="4"/>
@@ -21158,7 +21900,7 @@
       <c r="H180" s="19"/>
       <c r="I180" s="19"/>
       <c r="J180" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K180" s="22"/>
@@ -21178,7 +21920,7 @@
       <c r="C181" s="17"/>
       <c r="D181" s="18"/>
       <c r="E181" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F181" s="4"/>
@@ -21186,7 +21928,7 @@
       <c r="H181" s="19"/>
       <c r="I181" s="19"/>
       <c r="J181" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K181" s="22"/>
@@ -21206,7 +21948,7 @@
       <c r="C182" s="17"/>
       <c r="D182" s="18"/>
       <c r="E182" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F182" s="4"/>
@@ -21214,7 +21956,7 @@
       <c r="H182" s="19"/>
       <c r="I182" s="19"/>
       <c r="J182" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K182" s="22"/>
@@ -21234,7 +21976,7 @@
       <c r="C183" s="17"/>
       <c r="D183" s="18"/>
       <c r="E183" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F183" s="4"/>
@@ -21242,7 +21984,7 @@
       <c r="H183" s="19"/>
       <c r="I183" s="19"/>
       <c r="J183" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K183" s="22"/>
@@ -21262,7 +22004,7 @@
       <c r="C184" s="17"/>
       <c r="D184" s="18"/>
       <c r="E184" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F184" s="4"/>
@@ -21270,7 +22012,7 @@
       <c r="H184" s="19"/>
       <c r="I184" s="19"/>
       <c r="J184" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K184" s="22"/>
@@ -21290,7 +22032,7 @@
       <c r="C185" s="17"/>
       <c r="D185" s="18"/>
       <c r="E185" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F185" s="4"/>
@@ -21298,7 +22040,7 @@
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
       <c r="J185" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K185" s="22"/>
@@ -21318,7 +22060,7 @@
       <c r="C186" s="17"/>
       <c r="D186" s="18"/>
       <c r="E186" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F186" s="4"/>
@@ -21326,7 +22068,7 @@
       <c r="H186" s="19"/>
       <c r="I186" s="19"/>
       <c r="J186" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K186" s="22"/>
@@ -21346,7 +22088,7 @@
       <c r="C187" s="17"/>
       <c r="D187" s="18"/>
       <c r="E187" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F187" s="4"/>
@@ -21354,7 +22096,7 @@
       <c r="H187" s="19"/>
       <c r="I187" s="19"/>
       <c r="J187" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K187" s="22"/>
@@ -21374,7 +22116,7 @@
       <c r="C188" s="17"/>
       <c r="D188" s="18"/>
       <c r="E188" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F188" s="4"/>
@@ -21382,7 +22124,7 @@
       <c r="H188" s="19"/>
       <c r="I188" s="19"/>
       <c r="J188" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K188" s="22"/>
@@ -21402,7 +22144,7 @@
       <c r="C189" s="17"/>
       <c r="D189" s="18"/>
       <c r="E189" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F189" s="4"/>
@@ -21410,7 +22152,7 @@
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
       <c r="J189" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K189" s="22"/>
@@ -21430,7 +22172,7 @@
       <c r="C190" s="17"/>
       <c r="D190" s="18"/>
       <c r="E190" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F190" s="4"/>
@@ -21438,7 +22180,7 @@
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
       <c r="J190" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K190" s="22"/>
@@ -21458,7 +22200,7 @@
       <c r="C191" s="17"/>
       <c r="D191" s="18"/>
       <c r="E191" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F191" s="4"/>
@@ -21466,7 +22208,7 @@
       <c r="H191" s="19"/>
       <c r="I191" s="19"/>
       <c r="J191" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K191" s="22"/>
@@ -21486,7 +22228,7 @@
       <c r="C192" s="17"/>
       <c r="D192" s="18"/>
       <c r="E192" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F192" s="4"/>
@@ -21494,7 +22236,7 @@
       <c r="H192" s="19"/>
       <c r="I192" s="19"/>
       <c r="J192" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K192" s="22"/>
@@ -21514,7 +22256,7 @@
       <c r="C193" s="17"/>
       <c r="D193" s="18"/>
       <c r="E193" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F193" s="4"/>
@@ -21522,7 +22264,7 @@
       <c r="H193" s="19"/>
       <c r="I193" s="19"/>
       <c r="J193" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K193" s="22"/>
@@ -21542,7 +22284,7 @@
       <c r="C194" s="17"/>
       <c r="D194" s="18"/>
       <c r="E194" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F194" s="4"/>
@@ -21550,7 +22292,7 @@
       <c r="H194" s="19"/>
       <c r="I194" s="19"/>
       <c r="J194" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K194" s="22"/>
@@ -21570,7 +22312,7 @@
       <c r="C195" s="17"/>
       <c r="D195" s="18"/>
       <c r="E195" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F195" s="4"/>
@@ -21578,7 +22320,7 @@
       <c r="H195" s="19"/>
       <c r="I195" s="19"/>
       <c r="J195" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K195" s="22"/>
@@ -21598,7 +22340,7 @@
       <c r="C196" s="17"/>
       <c r="D196" s="18"/>
       <c r="E196" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F196" s="4"/>
@@ -21606,7 +22348,7 @@
       <c r="H196" s="19"/>
       <c r="I196" s="19"/>
       <c r="J196" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K196" s="22"/>
@@ -21626,7 +22368,7 @@
       <c r="C197" s="17"/>
       <c r="D197" s="18"/>
       <c r="E197" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F197" s="4"/>
@@ -21634,7 +22376,7 @@
       <c r="H197" s="19"/>
       <c r="I197" s="19"/>
       <c r="J197" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K197" s="22"/>
@@ -21654,7 +22396,7 @@
       <c r="C198" s="17"/>
       <c r="D198" s="18"/>
       <c r="E198" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F198" s="4"/>
@@ -21662,7 +22404,7 @@
       <c r="H198" s="19"/>
       <c r="I198" s="19"/>
       <c r="J198" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K198" s="22"/>
@@ -21682,7 +22424,7 @@
       <c r="C199" s="17"/>
       <c r="D199" s="18"/>
       <c r="E199" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F199" s="4"/>
@@ -21690,7 +22432,7 @@
       <c r="H199" s="19"/>
       <c r="I199" s="19"/>
       <c r="J199" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K199" s="22"/>
@@ -21710,7 +22452,7 @@
       <c r="C200" s="17"/>
       <c r="D200" s="18"/>
       <c r="E200" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F200" s="4"/>
@@ -21718,7 +22460,7 @@
       <c r="H200" s="19"/>
       <c r="I200" s="19"/>
       <c r="J200" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K200" s="22"/>
@@ -21738,7 +22480,7 @@
       <c r="C201" s="17"/>
       <c r="D201" s="18"/>
       <c r="E201" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F201" s="4"/>
@@ -21746,7 +22488,7 @@
       <c r="H201" s="19"/>
       <c r="I201" s="19"/>
       <c r="J201" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K201" s="22"/>
@@ -21766,7 +22508,7 @@
       <c r="C202" s="17"/>
       <c r="D202" s="18"/>
       <c r="E202" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F202" s="4"/>
@@ -21774,7 +22516,7 @@
       <c r="H202" s="19"/>
       <c r="I202" s="19"/>
       <c r="J202" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K202" s="22"/>
@@ -21794,7 +22536,7 @@
       <c r="C203" s="17"/>
       <c r="D203" s="18"/>
       <c r="E203" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F203" s="4"/>
@@ -21802,7 +22544,7 @@
       <c r="H203" s="19"/>
       <c r="I203" s="19"/>
       <c r="J203" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K203" s="22"/>
@@ -21822,7 +22564,7 @@
       <c r="C204" s="17"/>
       <c r="D204" s="18"/>
       <c r="E204" s="12" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="F204" s="4"/>
@@ -21830,7 +22572,7 @@
       <c r="H204" s="19"/>
       <c r="I204" s="19"/>
       <c r="J204" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K204" s="22"/>
@@ -21850,7 +22592,7 @@
       <c r="C205" s="17"/>
       <c r="D205" s="18"/>
       <c r="E205" s="12" t="str">
-        <f t="shared" ref="E205:E226" si="25">IF(ISBLANK($C205),"",IF(ISBLANK($G205),"未着手",IF($J205=0,"完了","作業中")))</f>
+        <f t="shared" ref="E205:E226" si="26">IF(ISBLANK($C205),"",IF(ISBLANK($G205),"未着手",IF($J205=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F205" s="4"/>
@@ -21858,7 +22600,7 @@
       <c r="H205" s="19"/>
       <c r="I205" s="19"/>
       <c r="J205" s="12" t="str">
-        <f t="shared" ca="1" si="24"/>
+        <f t="shared" ca="1" si="25"/>
         <v/>
       </c>
       <c r="K205" s="22"/>
@@ -21878,7 +22620,7 @@
       <c r="C206" s="17"/>
       <c r="D206" s="18"/>
       <c r="E206" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F206" s="4"/>
@@ -21886,7 +22628,7 @@
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
       <c r="J206" s="12" t="str">
-        <f t="shared" ref="J206:J226" ca="1" si="26">IF(ISBLANK(K206)=FALSE,OFFSET(J206,0,COUNTA(K206:R206)),"")</f>
+        <f t="shared" ref="J206:J226" ca="1" si="27">IF(ISBLANK(K206)=FALSE,OFFSET(J206,0,COUNTA(K206:R206)),"")</f>
         <v/>
       </c>
       <c r="K206" s="22"/>
@@ -21906,7 +22648,7 @@
       <c r="C207" s="17"/>
       <c r="D207" s="18"/>
       <c r="E207" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F207" s="4"/>
@@ -21914,7 +22656,7 @@
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
       <c r="J207" s="12" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="K207" s="22"/>
@@ -21934,7 +22676,7 @@
       <c r="C208" s="17"/>
       <c r="D208" s="18"/>
       <c r="E208" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F208" s="4"/>
@@ -21942,7 +22684,7 @@
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
       <c r="J208" s="12" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="K208" s="22"/>
@@ -21962,7 +22704,7 @@
       <c r="C209" s="17"/>
       <c r="D209" s="18"/>
       <c r="E209" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F209" s="4"/>
@@ -21970,7 +22712,7 @@
       <c r="H209" s="19"/>
       <c r="I209" s="19"/>
       <c r="J209" s="12" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="K209" s="22"/>
@@ -21990,7 +22732,7 @@
       <c r="C210" s="17"/>
       <c r="D210" s="18"/>
       <c r="E210" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F210" s="4"/>
@@ -21998,7 +22740,7 @@
       <c r="H210" s="19"/>
       <c r="I210" s="19"/>
       <c r="J210" s="12" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="K210" s="22"/>
@@ -22018,7 +22760,7 @@
       <c r="C211" s="17"/>
       <c r="D211" s="18"/>
       <c r="E211" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F211" s="4"/>
@@ -22026,7 +22768,7 @@
       <c r="H211" s="19"/>
       <c r="I211" s="19"/>
       <c r="J211" s="12" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="K211" s="22"/>
@@ -22046,7 +22788,7 @@
       <c r="C212" s="17"/>
       <c r="D212" s="18"/>
       <c r="E212" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F212" s="4"/>
@@ -22054,7 +22796,7 @@
       <c r="H212" s="19"/>
       <c r="I212" s="19"/>
       <c r="J212" s="12" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="K212" s="22"/>
@@ -22074,7 +22816,7 @@
       <c r="C213" s="17"/>
       <c r="D213" s="18"/>
       <c r="E213" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F213" s="4"/>
@@ -22082,7 +22824,7 @@
       <c r="H213" s="19"/>
       <c r="I213" s="19"/>
       <c r="J213" s="12" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="K213" s="22"/>
@@ -22102,7 +22844,7 @@
       <c r="C214" s="17"/>
       <c r="D214" s="18"/>
       <c r="E214" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F214" s="4"/>
@@ -22110,7 +22852,7 @@
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
       <c r="J214" s="12" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="K214" s="22"/>
@@ -22130,7 +22872,7 @@
       <c r="C215" s="17"/>
       <c r="D215" s="18"/>
       <c r="E215" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F215" s="4"/>
@@ -22138,7 +22880,7 @@
       <c r="H215" s="19"/>
       <c r="I215" s="19"/>
       <c r="J215" s="12" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="K215" s="22"/>
@@ -22158,7 +22900,7 @@
       <c r="C216" s="17"/>
       <c r="D216" s="18"/>
       <c r="E216" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F216" s="4"/>
@@ -22166,7 +22908,7 @@
       <c r="H216" s="19"/>
       <c r="I216" s="19"/>
       <c r="J216" s="12" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="K216" s="22"/>
@@ -22186,7 +22928,7 @@
       <c r="C217" s="17"/>
       <c r="D217" s="18"/>
       <c r="E217" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F217" s="4"/>
@@ -22194,7 +22936,7 @@
       <c r="H217" s="19"/>
       <c r="I217" s="19"/>
       <c r="J217" s="12" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="K217" s="22"/>
@@ -22214,7 +22956,7 @@
       <c r="C218" s="17"/>
       <c r="D218" s="18"/>
       <c r="E218" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F218" s="4"/>
@@ -22222,7 +22964,7 @@
       <c r="H218" s="19"/>
       <c r="I218" s="19"/>
       <c r="J218" s="12" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="K218" s="22"/>
@@ -22242,7 +22984,7 @@
       <c r="C219" s="17"/>
       <c r="D219" s="18"/>
       <c r="E219" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F219" s="4"/>
@@ -22250,7 +22992,7 @@
       <c r="H219" s="19"/>
       <c r="I219" s="19"/>
       <c r="J219" s="12" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="K219" s="22"/>
@@ -22270,7 +23012,7 @@
       <c r="C220" s="17"/>
       <c r="D220" s="18"/>
       <c r="E220" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F220" s="4"/>
@@ -22278,7 +23020,7 @@
       <c r="H220" s="19"/>
       <c r="I220" s="19"/>
       <c r="J220" s="12" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="K220" s="22"/>
@@ -22298,7 +23040,7 @@
       <c r="C221" s="17"/>
       <c r="D221" s="18"/>
       <c r="E221" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F221" s="4"/>
@@ -22306,7 +23048,7 @@
       <c r="H221" s="19"/>
       <c r="I221" s="19"/>
       <c r="J221" s="12" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="K221" s="22"/>
@@ -22326,7 +23068,7 @@
       <c r="C222" s="17"/>
       <c r="D222" s="18"/>
       <c r="E222" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F222" s="4"/>
@@ -22334,7 +23076,7 @@
       <c r="H222" s="19"/>
       <c r="I222" s="19"/>
       <c r="J222" s="12" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="K222" s="22"/>
@@ -22354,7 +23096,7 @@
       <c r="C223" s="17"/>
       <c r="D223" s="18"/>
       <c r="E223" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F223" s="4"/>
@@ -22362,7 +23104,7 @@
       <c r="H223" s="19"/>
       <c r="I223" s="19"/>
       <c r="J223" s="12" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="K223" s="22"/>
@@ -22382,7 +23124,7 @@
       <c r="C224" s="17"/>
       <c r="D224" s="18"/>
       <c r="E224" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F224" s="4"/>
@@ -22390,7 +23132,7 @@
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
       <c r="J224" s="12" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="K224" s="22"/>
@@ -22410,7 +23152,7 @@
       <c r="C225" s="17"/>
       <c r="D225" s="18"/>
       <c r="E225" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F225" s="4"/>
@@ -22418,7 +23160,7 @@
       <c r="H225" s="19"/>
       <c r="I225" s="19"/>
       <c r="J225" s="12" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="K225" s="22"/>
@@ -22438,7 +23180,7 @@
       <c r="C226" s="17"/>
       <c r="D226" s="18"/>
       <c r="E226" s="12" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F226" s="4"/>
@@ -22446,7 +23188,7 @@
       <c r="H226" s="19"/>
       <c r="I226" s="19"/>
       <c r="J226" s="12" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="K226" s="22"/>
@@ -22486,7 +23228,7 @@
       <formula>OR(E227="終了",E227="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8:XFD8 E9:T9 D5:XFD7 A142:T226 A93:XFD97 A79:XFD91 U9:XFD17 A5:B17 C10:T17 A34:XFD74 A18:XFD31 M120:T141 M98:XFD119 A98:L141">
+  <conditionalFormatting sqref="E8:XFD8 E9:T9 D5:XFD7 A93:XFD97 A79:XFD91 U9:XFD17 A5:B17 C10:T17 A34:XFD74 M120:T141 A18:XFD31 A98:L141 M98:XFD119 A142:T226">
     <cfRule type="expression" dxfId="47" priority="46" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>

--- a/バックログ/02班スプリントバックログ.xlsx
+++ b/バックログ/02班スプリントバックログ.xlsx
@@ -6700,25 +6700,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>290</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>268</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>246</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>232</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>148</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>101</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6798,19 +6798,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>290</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>253</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>217</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>181</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>145</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>108</c:v>
@@ -7250,36 +7250,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'スプリントバックログ(第２）'!$W$70:$W$75</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>中山</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>石田</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>樋田</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'スプリントバックログ(第２）'!$Y$70:$Y$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -7357,36 +7332,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'スプリントバックログ(第２）'!$W$70:$W$75</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>中山</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>石田</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>樋田</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'スプリントバックログ(第２）'!$Z$70:$Z$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -7464,36 +7414,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'スプリントバックログ(第２）'!$W$70:$W$75</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>中山</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>石田</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>樋田</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'スプリントバックログ(第２）'!$X$70:$X$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>54</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -7573,36 +7498,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'スプリントバックログ(第２）'!$W$70:$W$75</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>中山</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>石田</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>樋田</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'スプリントバックログ(第２）'!$AB$70:$AB$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -9137,7 +9037,7 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>288</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9169,7 +9069,7 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>642657</xdr:colOff>
-      <xdr:row>275</xdr:row>
+      <xdr:row>297</xdr:row>
       <xdr:rowOff>103687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15056,7 +14956,7 @@
   <dimension ref="A1:AB271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R91" sqref="R91"/>
     </sheetView>
   </sheetViews>
@@ -15171,23 +15071,23 @@
       <c r="J3" s="134"/>
       <c r="K3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$T$2))))</f>
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L3" s="20">
         <f t="shared" ref="L3:R3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$T$2))))</f>
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="0"/>
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N3" s="20">
         <f t="shared" si="0"/>
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O3" s="20">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P3" s="20">
         <f t="shared" si="0"/>
@@ -15217,31 +15117,31 @@
       <c r="J4" s="134"/>
       <c r="K4" s="21">
         <f t="shared" ref="K4:Q4" si="1">SUM(K5:K171)</f>
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L4" s="21">
         <f t="shared" si="1"/>
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M4" s="21">
         <f t="shared" si="1"/>
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N4" s="21">
         <f t="shared" si="1"/>
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O4" s="21">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P4" s="21">
         <f t="shared" si="1"/>
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="21">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R4" s="21"/>
       <c r="S4" s="21"/>
@@ -15731,7 +15631,7 @@
         <v>118</v>
       </c>
       <c r="E15" s="12" t="str">
-        <f t="shared" ref="E15:E51" si="4">IF(ISBLANK($C15),"",IF(ISBLANK($G15),"未着手",IF($J15=0,"完了","作業中")))</f>
+        <f>IF(ISBLANK($C15),"",IF(ISBLANK($G15),"未着手",IF($J15=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F15" s="4">
@@ -15743,7 +15643,7 @@
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="12">
-        <f t="shared" ref="J15:J24" ca="1" si="5">IF(ISBLANK(K15)=FALSE,OFFSET(J15,0,COUNTA(K15:R15)),"")</f>
+        <f ca="1">IF(ISBLANK(K15)=FALSE,OFFSET(J15,0,COUNTA(K15:R15)),"")</f>
         <v>1</v>
       </c>
       <c r="K15" s="19">
@@ -16619,51 +16519,33 @@
     <row r="33" spans="1:20" hidden="1">
       <c r="A33" s="16"/>
       <c r="B33" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="C33" s="85" t="s">
-        <v>77</v>
+        <v>335</v>
+      </c>
+      <c r="C33" s="101" t="s">
+        <v>332</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>118</v>
+        <v>333</v>
       </c>
       <c r="E33" s="12" t="str">
         <f>IF(ISBLANK($C33),"",IF(ISBLANK($G33),"未着手",IF($J33=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
-      <c r="F33" s="4">
-        <v>43074</v>
-      </c>
+      <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="19">
-        <v>2</v>
-      </c>
+      <c r="H33" s="19"/>
       <c r="I33" s="19"/>
-      <c r="J33" s="12">
+      <c r="J33" s="12" t="str">
         <f ca="1">IF(ISBLANK(K33)=FALSE,OFFSET(J33,0,COUNTA(K33:R33)),"")</f>
-        <v>2</v>
-      </c>
-      <c r="K33" s="19">
-        <v>2</v>
-      </c>
-      <c r="L33" s="19">
-        <v>2</v>
-      </c>
-      <c r="M33" s="19">
-        <v>2</v>
-      </c>
-      <c r="N33" s="19">
-        <v>2</v>
-      </c>
-      <c r="O33" s="19">
-        <v>2</v>
-      </c>
-      <c r="P33" s="22">
-        <v>2</v>
-      </c>
-      <c r="Q33" s="22">
-        <v>2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
@@ -16727,33 +16609,51 @@
     <row r="35" spans="1:20" hidden="1">
       <c r="A35" s="16"/>
       <c r="B35" s="16" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C35" s="101" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E35" s="12" t="str">
         <f>IF(ISBLANK($C35),"",IF(ISBLANK($G35),"未着手",IF($J35=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="4">
+        <v>43077</v>
+      </c>
       <c r="G35" s="4"/>
-      <c r="H35" s="19"/>
+      <c r="H35" s="19">
+        <v>2</v>
+      </c>
       <c r="I35" s="19"/>
-      <c r="J35" s="12" t="str">
+      <c r="J35" s="12">
         <f ca="1">IF(ISBLANK(K35)=FALSE,OFFSET(J35,0,COUNTA(K35:R35)),"")</f>
-        <v/>
-      </c>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K35" s="22">
+        <v>2</v>
+      </c>
+      <c r="L35" s="22">
+        <v>2</v>
+      </c>
+      <c r="M35" s="22">
+        <v>2</v>
+      </c>
+      <c r="N35" s="22">
+        <v>2</v>
+      </c>
+      <c r="O35" s="22">
+        <v>2</v>
+      </c>
+      <c r="P35" s="22">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="22">
+        <v>2</v>
+      </c>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
@@ -16761,41 +16661,45 @@
     <row r="36" spans="1:20" hidden="1">
       <c r="A36" s="16"/>
       <c r="B36" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="C36" s="101" t="s">
-        <v>327</v>
+        <v>316</v>
+      </c>
+      <c r="C36" s="85" t="s">
+        <v>233</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>328</v>
+        <v>130</v>
       </c>
       <c r="E36" s="12" t="str">
-        <f>IF(ISBLANK($C36),"",IF(ISBLANK($G36),"未着手",IF($J36=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($C36),"",IF(ISBLANK($G36),"未着手",IF($J36=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F36" s="4">
-        <v>43077</v>
-      </c>
-      <c r="G36" s="4"/>
+        <v>43070</v>
+      </c>
+      <c r="G36" s="4">
+        <v>43070</v>
+      </c>
       <c r="H36" s="19">
-        <v>2</v>
-      </c>
-      <c r="I36" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="I36" s="19">
+        <v>3</v>
+      </c>
       <c r="J36" s="12">
         <f ca="1">IF(ISBLANK(K36)=FALSE,OFFSET(J36,0,COUNTA(K36:R36)),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L36" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M36" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N36" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O36" s="22">
         <v>2</v>
@@ -16804,7 +16708,7 @@
         <v>2</v>
       </c>
       <c r="Q36" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
@@ -17099,49 +17003,54 @@
     <row r="42" spans="1:20" hidden="1">
       <c r="A42" s="16"/>
       <c r="B42" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>293</v>
+        <v>316</v>
+      </c>
+      <c r="C42" s="85" t="s">
+        <v>304</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>292</v>
+        <v>130</v>
       </c>
       <c r="E42" s="12" t="str">
-        <f>IF(ISBLANK($C42),"",IF(ISBLANK($G42),"未着手",IF($J42=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($C42),"",IF(ISBLANK($G42),"未着手",IF($J42=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F42" s="4">
-        <v>43074</v>
-      </c>
-      <c r="G42" s="4"/>
+        <v>43073</v>
+      </c>
+      <c r="G42" s="4">
+        <v>43073</v>
+      </c>
       <c r="H42" s="19">
-        <v>1</v>
-      </c>
-      <c r="I42" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="I42" s="19">
+        <v>0</v>
+      </c>
       <c r="J42" s="12">
-        <v>1</v>
+        <f ca="1">IF(ISBLANK(K42)=FALSE,OFFSET(J42,0,COUNTA(K42:R42)),"")</f>
+        <v>2</v>
       </c>
       <c r="K42" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M42" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N42" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O42" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P42" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q42" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R42" s="22"/>
       <c r="S42" s="22"/>
@@ -17150,50 +17059,50 @@
     <row r="43" spans="1:20" hidden="1">
       <c r="A43" s="16"/>
       <c r="B43" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>311</v>
+        <v>316</v>
+      </c>
+      <c r="C43" s="85" t="s">
+        <v>305</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E43" s="12" t="str">
         <f>IF(ISBLANK($C43),"",IF(ISBLANK($G43),"未着手",IF($J43=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F43" s="4">
-        <v>43077</v>
+        <v>43074</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" s="19"/>
       <c r="J43" s="12">
         <f ca="1">IF(ISBLANK(K43)=FALSE,OFFSET(J43,0,COUNTA(K43:R43)),"")</f>
-        <v>1</v>
-      </c>
-      <c r="K43" s="19">
-        <v>1</v>
-      </c>
-      <c r="L43" s="19">
-        <v>1</v>
-      </c>
-      <c r="M43" s="19">
-        <v>1</v>
-      </c>
-      <c r="N43" s="19">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K43" s="22">
+        <v>2</v>
+      </c>
+      <c r="L43" s="22">
+        <v>2</v>
+      </c>
+      <c r="M43" s="22">
+        <v>2</v>
+      </c>
+      <c r="N43" s="22">
+        <v>2</v>
       </c>
       <c r="O43" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P43" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q43" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R43" s="22"/>
       <c r="S43" s="22"/>
@@ -17202,13 +17111,13 @@
     <row r="44" spans="1:20" hidden="1">
       <c r="A44" s="16"/>
       <c r="B44" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>312</v>
+        <v>211</v>
+      </c>
+      <c r="C44" s="85" t="s">
+        <v>306</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E44" s="12" t="str">
         <f>IF(ISBLANK($C44),"",IF(ISBLANK($G44),"未着手",IF($J44=0,"完了","作業中")))</f>
@@ -17219,33 +17128,33 @@
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="12">
         <f ca="1">IF(ISBLANK(K44)=FALSE,OFFSET(J44,0,COUNTA(K44:R44)),"")</f>
-        <v>1</v>
-      </c>
-      <c r="K44" s="19">
-        <v>1</v>
-      </c>
-      <c r="L44" s="19">
-        <v>1</v>
-      </c>
-      <c r="M44" s="19">
-        <v>1</v>
-      </c>
-      <c r="N44" s="19">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K44" s="22">
+        <v>2</v>
+      </c>
+      <c r="L44" s="22">
+        <v>2</v>
+      </c>
+      <c r="M44" s="22">
+        <v>2</v>
+      </c>
+      <c r="N44" s="22">
+        <v>2</v>
       </c>
       <c r="O44" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P44" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q44" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R44" s="22"/>
       <c r="S44" s="22"/>
@@ -17254,20 +17163,20 @@
     <row r="45" spans="1:20" hidden="1">
       <c r="A45" s="16"/>
       <c r="B45" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>313</v>
+        <v>316</v>
+      </c>
+      <c r="C45" s="85" t="s">
+        <v>307</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E45" s="12" t="str">
         <f>IF(ISBLANK($C45),"",IF(ISBLANK($G45),"未着手",IF($J45=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F45" s="4">
-        <v>43077</v>
+        <v>43074</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="19">
@@ -17278,16 +17187,16 @@
         <f ca="1">IF(ISBLANK(K45)=FALSE,OFFSET(J45,0,COUNTA(K45:R45)),"")</f>
         <v>2</v>
       </c>
-      <c r="K45" s="19">
-        <v>2</v>
-      </c>
-      <c r="L45" s="19">
-        <v>2</v>
-      </c>
-      <c r="M45" s="19">
-        <v>2</v>
-      </c>
-      <c r="N45" s="19">
+      <c r="K45" s="22">
+        <v>2</v>
+      </c>
+      <c r="L45" s="22">
+        <v>2</v>
+      </c>
+      <c r="M45" s="22">
+        <v>2</v>
+      </c>
+      <c r="N45" s="22">
         <v>2</v>
       </c>
       <c r="O45" s="22">
@@ -17306,13 +17215,13 @@
     <row r="46" spans="1:20" hidden="1">
       <c r="A46" s="16"/>
       <c r="B46" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>314</v>
+        <v>334</v>
+      </c>
+      <c r="C46" s="85" t="s">
+        <v>308</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E46" s="12" t="str">
         <f>IF(ISBLANK($C46),"",IF(ISBLANK($G46),"未着手",IF($J46=0,"完了","作業中")))</f>
@@ -17330,16 +17239,16 @@
         <f ca="1">IF(ISBLANK(K46)=FALSE,OFFSET(J46,0,COUNTA(K46:R46)),"")</f>
         <v>2</v>
       </c>
-      <c r="K46" s="19">
-        <v>2</v>
-      </c>
-      <c r="L46" s="19">
-        <v>2</v>
-      </c>
-      <c r="M46" s="19">
-        <v>2</v>
-      </c>
-      <c r="N46" s="19">
+      <c r="K46" s="22">
+        <v>2</v>
+      </c>
+      <c r="L46" s="22">
+        <v>2</v>
+      </c>
+      <c r="M46" s="22">
+        <v>2</v>
+      </c>
+      <c r="N46" s="22">
         <v>2</v>
       </c>
       <c r="O46" s="22">
@@ -17995,79 +17904,81 @@
     <row r="65" spans="1:28" hidden="1">
       <c r="A65" s="16"/>
       <c r="B65" s="16" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="C65" s="85" t="s">
-        <v>233</v>
+        <v>137</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E65" s="12" t="str">
         <f ca="1">IF(ISBLANK($C65),"",IF(ISBLANK($G65),"未着手",IF($J65=0,"完了","作業中")))</f>
         <v>作業中</v>
       </c>
       <c r="F65" s="4">
-        <v>43070</v>
+        <v>43053</v>
       </c>
       <c r="G65" s="4">
-        <v>43070</v>
+        <v>43077</v>
       </c>
       <c r="H65" s="19">
+        <v>6</v>
+      </c>
+      <c r="I65" s="19">
         <v>4</v>
-      </c>
-      <c r="I65" s="19">
-        <v>3</v>
       </c>
       <c r="J65" s="12">
         <f ca="1">IF(ISBLANK(K65)=FALSE,OFFSET(J65,0,COUNTA(K65:R65)),"")</f>
         <v>1</v>
       </c>
       <c r="K65" s="22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L65" s="22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M65" s="22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N65" s="22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O65" s="22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P65" s="22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q65" s="22">
-        <v>1</v>
-      </c>
-      <c r="R65" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="R65" s="22">
+        <v>1</v>
+      </c>
       <c r="S65" s="22"/>
       <c r="T65" s="22"/>
     </row>
     <row r="66" spans="1:28" hidden="1">
       <c r="A66" s="16"/>
       <c r="B66" s="16" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C66" s="85" t="s">
-        <v>302</v>
+        <v>138</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E66" s="12" t="str">
         <f ca="1">IF(ISBLANK($C66),"",IF(ISBLANK($G66),"未着手",IF($J66=0,"完了","作業中")))</f>
         <v>作業中</v>
       </c>
       <c r="F66" s="4">
-        <v>43077</v>
+        <v>43053</v>
       </c>
       <c r="G66" s="4">
-        <v>43077</v>
+        <v>43070</v>
       </c>
       <c r="H66" s="19">
         <v>4</v>
@@ -18077,7 +17988,7 @@
       </c>
       <c r="J66" s="12">
         <f ca="1">IF(ISBLANK(K66)=FALSE,OFFSET(J66,0,COUNTA(K66:R66)),"")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K66" s="22">
         <v>4</v>
@@ -18098,60 +18009,58 @@
         <v>4</v>
       </c>
       <c r="Q66" s="22">
-        <v>3</v>
-      </c>
-      <c r="R66" s="22"/>
+        <v>4</v>
+      </c>
+      <c r="R66" s="22">
+        <v>1</v>
+      </c>
       <c r="S66" s="22"/>
       <c r="T66" s="22"/>
     </row>
     <row r="67" spans="1:28" hidden="1">
       <c r="A67" s="16"/>
       <c r="B67" s="16" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C67" s="85" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E67" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C67),"",IF(ISBLANK($G67),"未着手",IF($J67=0,"完了","作業中")))</f>
-        <v>作業中</v>
+        <f>IF(ISBLANK($C67),"",IF(ISBLANK($G67),"未着手",IF($J67=0,"完了","作業中")))</f>
+        <v>未着手</v>
       </c>
       <c r="F67" s="4">
         <v>43077</v>
       </c>
-      <c r="G67" s="4">
-        <v>43077</v>
-      </c>
+      <c r="G67" s="4"/>
       <c r="H67" s="19">
-        <v>2</v>
-      </c>
-      <c r="I67" s="19">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" s="19"/>
       <c r="J67" s="12">
         <f ca="1">IF(ISBLANK(K67)=FALSE,OFFSET(J67,0,COUNTA(K67:R67)),"")</f>
         <v>1</v>
       </c>
       <c r="K67" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L67" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M67" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N67" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O67" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P67" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q67" s="22">
         <v>1</v>
@@ -18163,54 +18072,50 @@
     <row r="68" spans="1:28" hidden="1">
       <c r="A68" s="16"/>
       <c r="B68" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C68" s="85" t="s">
-        <v>304</v>
+        <v>211</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>271</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E68" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C68),"",IF(ISBLANK($G68),"未着手",IF($J68=0,"完了","作業中")))</f>
-        <v>作業中</v>
+        <f>IF(ISBLANK($C68),"",IF(ISBLANK($G68),"未着手",IF($J68=0,"完了","作業中")))</f>
+        <v>未着手</v>
       </c>
       <c r="F68" s="4">
-        <v>43073</v>
-      </c>
-      <c r="G68" s="4">
-        <v>43073</v>
-      </c>
+        <v>43067</v>
+      </c>
+      <c r="G68" s="4"/>
       <c r="H68" s="19">
-        <v>2</v>
-      </c>
-      <c r="I68" s="19">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" s="19"/>
       <c r="J68" s="12">
         <f ca="1">IF(ISBLANK(K68)=FALSE,OFFSET(J68,0,COUNTA(K68:R68)),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K68" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L68" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M68" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N68" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O68" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P68" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q68" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R68" s="22"/>
       <c r="S68" s="22"/>
@@ -18219,50 +18124,54 @@
     <row r="69" spans="1:28" hidden="1">
       <c r="A69" s="16"/>
       <c r="B69" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C69" s="85" t="s">
-        <v>305</v>
+        <v>211</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>274</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E69" s="12" t="str">
-        <f>IF(ISBLANK($C69),"",IF(ISBLANK($G69),"未着手",IF($J69=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($C69),"",IF(ISBLANK($G69),"未着手",IF($J69=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F69" s="4">
+        <v>43067</v>
+      </c>
+      <c r="G69" s="4">
         <v>43074</v>
       </c>
-      <c r="G69" s="4"/>
       <c r="H69" s="19">
-        <v>2</v>
-      </c>
-      <c r="I69" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="I69" s="19">
+        <v>1</v>
+      </c>
       <c r="J69" s="12">
         <f ca="1">IF(ISBLANK(K69)=FALSE,OFFSET(J69,0,COUNTA(K69:R69)),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K69" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L69" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M69" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N69" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O69" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P69" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q69" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R69" s="22"/>
       <c r="S69" s="22"/>
@@ -18291,48 +18200,52 @@
       <c r="B70" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C70" s="85" t="s">
-        <v>306</v>
+      <c r="C70" s="17" t="s">
+        <v>275</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E70" s="12" t="str">
-        <f>IF(ISBLANK($C70),"",IF(ISBLANK($G70),"未着手",IF($J70=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($C70),"",IF(ISBLANK($G70),"未着手",IF($J70=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F70" s="4">
-        <v>43077</v>
-      </c>
-      <c r="G70" s="4"/>
+        <v>43067</v>
+      </c>
+      <c r="G70" s="4">
+        <v>43074</v>
+      </c>
       <c r="H70" s="19">
-        <v>2</v>
-      </c>
-      <c r="I70" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="I70" s="19">
+        <v>1</v>
+      </c>
       <c r="J70" s="12">
         <f ca="1">IF(ISBLANK(K70)=FALSE,OFFSET(J70,0,COUNTA(K70:R70)),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K70" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L70" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M70" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N70" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O70" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P70" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q70" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R70" s="22"/>
       <c r="S70" s="22"/>
@@ -18341,15 +18254,15 @@
         <v>144</v>
       </c>
       <c r="X70" s="10">
-        <f t="shared" ref="X70:X75" si="6">SUMIF($D$5:$D$214,W70,$H$5:$H$214)</f>
+        <f t="shared" ref="X70:X75" si="4">SUMIF($D$5:$D$214,W70,$H$5:$H$214)</f>
         <v>79</v>
       </c>
       <c r="Y70" s="10">
-        <f t="shared" ref="Y70:Y75" ca="1" si="7">SUMIF($D$5:$D$214,W70,$J$5:$J$214)</f>
+        <f t="shared" ref="Y70:Y75" ca="1" si="5">SUMIF($D$5:$D$214,W70,$J$5:$J$214)</f>
         <v>30</v>
       </c>
       <c r="Z70" s="10">
-        <f t="shared" ref="Z70:Z75" si="8">SUMIF($D$5:$D$214,W70,$I$5:$I$214)</f>
+        <f t="shared" ref="Z70:Z75" si="6">SUMIF($D$5:$D$214,W70,$I$5:$I$214)</f>
         <v>34</v>
       </c>
       <c r="AA70" s="14">
@@ -18364,50 +18277,50 @@
     <row r="71" spans="1:28" hidden="1">
       <c r="A71" s="16"/>
       <c r="B71" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C71" s="85" t="s">
-        <v>307</v>
+        <v>211</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>276</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E71" s="12" t="str">
         <f>IF(ISBLANK($C71),"",IF(ISBLANK($G71),"未着手",IF($J71=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F71" s="4">
-        <v>43074</v>
+        <v>43067</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" s="19"/>
       <c r="J71" s="12">
         <f ca="1">IF(ISBLANK(K71)=FALSE,OFFSET(J71,0,COUNTA(K71:R71)),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K71" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L71" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M71" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N71" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O71" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P71" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q71" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R71" s="22"/>
       <c r="S71" s="22"/>
@@ -18416,73 +18329,73 @@
         <v>145</v>
       </c>
       <c r="X71" s="10">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="Y71" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="Z71" s="10">
         <f t="shared" si="6"/>
-        <v>83</v>
-      </c>
-      <c r="Y71" s="10">
-        <f t="shared" ca="1" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="Z71" s="10">
-        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="AA71" s="14">
-        <f t="shared" ref="AA71:AA75" si="9">COUNTA($K$2:$T$2)*6-COUNTA($K$4:$T$4)*6</f>
+        <f t="shared" ref="AA71:AA75" si="7">COUNTA($K$2:$T$2)*6-COUNTA($K$4:$T$4)*6</f>
         <v>6</v>
       </c>
       <c r="AB71" s="15">
-        <f t="shared" ref="AB71:AB73" ca="1" si="10">IF(AA71&gt;Y71,0,Y71-AA71)</f>
+        <f t="shared" ref="AB71:AB73" ca="1" si="8">IF(AA71&gt;Y71,0,Y71-AA71)</f>
         <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:28" hidden="1">
       <c r="A72" s="16"/>
       <c r="B72" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="C72" s="85" t="s">
-        <v>308</v>
+        <v>211</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>277</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E72" s="12" t="str">
         <f>IF(ISBLANK($C72),"",IF(ISBLANK($G72),"未着手",IF($J72=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F72" s="4">
-        <v>43077</v>
+        <v>43067</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" s="19"/>
       <c r="J72" s="12">
         <f ca="1">IF(ISBLANK(K72)=FALSE,OFFSET(J72,0,COUNTA(K72:R72)),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K72" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L72" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M72" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N72" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O72" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P72" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q72" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R72" s="22"/>
       <c r="S72" s="22"/>
@@ -18491,56 +18404,56 @@
         <v>121</v>
       </c>
       <c r="X72" s="10">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="Y72" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="Z72" s="10">
         <f t="shared" si="6"/>
-        <v>67</v>
-      </c>
-      <c r="Y72" s="10">
-        <f t="shared" ca="1" si="7"/>
-        <v>16</v>
-      </c>
-      <c r="Z72" s="10">
-        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="AA72" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AB72" s="15">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="8"/>
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
+    <row r="73" spans="1:28" hidden="1">
       <c r="A73" s="16"/>
       <c r="B73" s="16" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
       <c r="C73" s="85" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E73" s="12" t="str">
         <f ca="1">IF(ISBLANK($C73),"",IF(ISBLANK($G73),"未着手",IF($J73=0,"完了","作業中")))</f>
         <v>作業中</v>
       </c>
       <c r="F73" s="4">
-        <v>43053</v>
+        <v>43066</v>
       </c>
       <c r="G73" s="4">
-        <v>43077</v>
+        <v>43074</v>
       </c>
       <c r="H73" s="19">
         <v>6</v>
       </c>
       <c r="I73" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J73" s="12">
         <f ca="1">IF(ISBLANK(K73)=FALSE,OFFSET(J73,0,COUNTA(K73:R73)),"")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K73" s="22">
         <v>6</v>
@@ -18561,119 +18474,111 @@
         <v>6</v>
       </c>
       <c r="Q73" s="22">
-        <v>3</v>
-      </c>
-      <c r="R73" s="22">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R73" s="22"/>
       <c r="S73" s="22"/>
       <c r="T73" s="22"/>
       <c r="W73" s="11" t="s">
         <v>232</v>
       </c>
       <c r="X73" s="10">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="Y73" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="Z73" s="10">
         <f t="shared" si="6"/>
-        <v>42</v>
-      </c>
-      <c r="Y73" s="10">
-        <f t="shared" ca="1" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="Z73" s="10">
-        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="AA73" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AB73" s="15">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="8"/>
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:28">
+    <row r="74" spans="1:28" hidden="1">
       <c r="A74" s="16"/>
       <c r="B74" s="16" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="C74" s="85" t="s">
-        <v>138</v>
+        <v>200</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="E74" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C74),"",IF(ISBLANK($G74),"未着手",IF($J74=0,"完了","作業中")))</f>
-        <v>作業中</v>
+        <f>IF(ISBLANK($C74),"",IF(ISBLANK($G74),"未着手",IF($J74=0,"完了","作業中")))</f>
+        <v>未着手</v>
       </c>
       <c r="F74" s="4">
-        <v>43053</v>
-      </c>
-      <c r="G74" s="4">
-        <v>43070</v>
-      </c>
+        <v>43063</v>
+      </c>
+      <c r="G74" s="4"/>
       <c r="H74" s="19">
-        <v>4</v>
-      </c>
-      <c r="I74" s="19">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" s="19"/>
       <c r="J74" s="12">
         <f ca="1">IF(ISBLANK(K74)=FALSE,OFFSET(J74,0,COUNTA(K74:R74)),"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K74" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L74" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M74" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N74" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O74" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P74" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q74" s="22">
-        <v>4</v>
-      </c>
-      <c r="R74" s="22">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R74" s="22"/>
       <c r="S74" s="22"/>
       <c r="T74" s="22"/>
       <c r="W74" s="11" t="s">
         <v>234</v>
       </c>
       <c r="X74" s="10">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="Y74" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="Z74" s="10">
         <f t="shared" si="6"/>
-        <v>67</v>
-      </c>
-      <c r="Y74" s="10">
-        <f t="shared" ca="1" si="7"/>
-        <v>13</v>
-      </c>
-      <c r="Z74" s="10">
-        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="AA74" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AB74" s="15">
-        <f t="shared" ref="AB74:AB75" ca="1" si="11">IF(AA74&gt;Y74,0,Y74-AA74)</f>
+        <f t="shared" ref="AB74:AB75" ca="1" si="9">IF(AA74&gt;Y74,0,Y74-AA74)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:28">
+    <row r="75" spans="1:28" hidden="1">
       <c r="A75" s="16"/>
       <c r="B75" s="16" t="s">
         <v>317</v>
@@ -18732,79 +18637,79 @@
         <v>235</v>
       </c>
       <c r="X75" s="10">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="Y75" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="Z75" s="10">
         <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="Y75" s="10">
-        <f t="shared" ca="1" si="7"/>
-        <v>14</v>
-      </c>
-      <c r="Z75" s="10">
-        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="AA75" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="AB75" s="15">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="9"/>
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:28">
+    <row r="76" spans="1:28" hidden="1">
       <c r="A76" s="16"/>
       <c r="B76" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C76" s="85" t="s">
-        <v>326</v>
+      <c r="C76" s="17" t="s">
+        <v>245</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E76" s="12" t="str">
         <f>IF(ISBLANK($C76),"",IF(ISBLANK($G76),"未着手",IF($J76=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F76" s="4">
-        <v>43077</v>
+        <v>43073</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" s="19"/>
       <c r="J76" s="12">
         <f ca="1">IF(ISBLANK(K76)=FALSE,OFFSET(J76,0,COUNTA(K76:R76)),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K76" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L76" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M76" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N76" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O76" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P76" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q76" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R76" s="22"/>
       <c r="S76" s="22"/>
       <c r="T76" s="22"/>
     </row>
-    <row r="77" spans="1:28">
+    <row r="77" spans="1:28" hidden="1">
       <c r="A77" s="16"/>
       <c r="B77" s="16" t="s">
         <v>216</v>
@@ -18852,7 +18757,7 @@
       <c r="S77" s="22"/>
       <c r="T77" s="22"/>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:28" hidden="1">
       <c r="A78" s="16"/>
       <c r="B78" s="16" t="s">
         <v>216</v>
@@ -18925,7 +18830,7 @@
       <c r="S79" s="22"/>
       <c r="T79" s="22"/>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" spans="1:28" hidden="1">
       <c r="A80" s="16"/>
       <c r="B80" s="16" t="s">
         <v>216</v>
@@ -18998,7 +18903,7 @@
       <c r="S81" s="22"/>
       <c r="T81" s="22"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" hidden="1">
       <c r="A82" s="16"/>
       <c r="B82" s="16" t="s">
         <v>216</v>
@@ -19068,23 +18973,23 @@
       <c r="S83" s="22"/>
       <c r="T83" s="22"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" hidden="1">
       <c r="A84" s="16"/>
       <c r="B84" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>271</v>
+        <v>316</v>
+      </c>
+      <c r="C84" s="107" t="s">
+        <v>252</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E84" s="12" t="str">
         <f>IF(ISBLANK($C84),"",IF(ISBLANK($G84),"未着手",IF($J84=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F84" s="4">
-        <v>43067</v>
+        <v>43073</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="19">
@@ -19120,7 +19025,7 @@
       <c r="S84" s="22"/>
       <c r="T84" s="22"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" hidden="1">
       <c r="A85" s="16"/>
       <c r="B85" s="16" t="s">
         <v>211</v>
@@ -19171,54 +19076,54 @@
     <row r="86" spans="1:20">
       <c r="A86" s="16"/>
       <c r="B86" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>274</v>
+        <v>316</v>
+      </c>
+      <c r="C86" s="85" t="s">
+        <v>190</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="E86" s="12" t="str">
         <f ca="1">IF(ISBLANK($C86),"",IF(ISBLANK($G86),"未着手",IF($J86=0,"完了","作業中")))</f>
         <v>作業中</v>
       </c>
       <c r="F86" s="4">
+        <v>43077</v>
+      </c>
+      <c r="G86" s="4">
         <v>43067</v>
       </c>
-      <c r="G86" s="4">
-        <v>43074</v>
-      </c>
       <c r="H86" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I86" s="19">
         <v>1</v>
       </c>
       <c r="J86" s="12">
         <f ca="1">IF(ISBLANK(K86)=FALSE,OFFSET(J86,0,COUNTA(K86:R86)),"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K86" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L86" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M86" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N86" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O86" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P86" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q86" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R86" s="22"/>
       <c r="S86" s="22"/>
@@ -19227,23 +19132,23 @@
     <row r="87" spans="1:20">
       <c r="A87" s="16"/>
       <c r="B87" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>275</v>
+        <v>285</v>
+      </c>
+      <c r="C87" s="107" t="s">
+        <v>260</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="E87" s="12" t="str">
         <f ca="1">IF(ISBLANK($C87),"",IF(ISBLANK($G87),"未着手",IF($J87=0,"完了","作業中")))</f>
         <v>作業中</v>
       </c>
       <c r="F87" s="4">
-        <v>43067</v>
+        <v>43070</v>
       </c>
       <c r="G87" s="4">
-        <v>43074</v>
+        <v>43077</v>
       </c>
       <c r="H87" s="19">
         <v>1</v>
@@ -19364,20 +19269,20 @@
     <row r="91" spans="1:20">
       <c r="A91" s="16"/>
       <c r="B91" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>276</v>
+        <v>290</v>
+      </c>
+      <c r="C91" s="107" t="s">
+        <v>262</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="E91" s="12" t="str">
         <f>IF(ISBLANK($C91),"",IF(ISBLANK($G91),"未着手",IF($J91=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F91" s="4">
-        <v>43067</v>
+        <v>43070</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="19">
@@ -19416,26 +19321,30 @@
     <row r="92" spans="1:20">
       <c r="A92" s="16"/>
       <c r="B92" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C92" s="17" t="s">
-        <v>277</v>
+        <v>285</v>
+      </c>
+      <c r="C92" s="107" t="s">
+        <v>265</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="E92" s="12" t="str">
-        <f>IF(ISBLANK($C92),"",IF(ISBLANK($G92),"未着手",IF($J92=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($C92),"",IF(ISBLANK($G92),"未着手",IF($J92=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F92" s="4">
-        <v>43067</v>
-      </c>
-      <c r="G92" s="4"/>
+        <v>43070</v>
+      </c>
+      <c r="G92" s="4">
+        <v>43077</v>
+      </c>
       <c r="H92" s="19">
         <v>1</v>
       </c>
-      <c r="I92" s="19"/>
+      <c r="I92" s="19">
+        <v>1</v>
+      </c>
       <c r="J92" s="12">
         <f ca="1">IF(ISBLANK(K92)=FALSE,OFFSET(J92,0,COUNTA(K92:R92)),"")</f>
         <v>1</v>
@@ -19627,51 +19536,51 @@
         <v>316</v>
       </c>
       <c r="C96" s="85" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="E96" s="12" t="str">
         <f ca="1">IF(ISBLANK($C96),"",IF(ISBLANK($G96),"未着手",IF($J96=0,"完了","作業中")))</f>
         <v>作業中</v>
       </c>
       <c r="F96" s="4">
-        <v>43066</v>
+        <v>43074</v>
       </c>
       <c r="G96" s="4">
         <v>43074</v>
       </c>
       <c r="H96" s="19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I96" s="19">
         <v>1</v>
       </c>
       <c r="J96" s="12">
         <f ca="1">IF(ISBLANK(K96)=FALSE,OFFSET(J96,0,COUNTA(K96:R96)),"")</f>
-        <v>5</v>
-      </c>
-      <c r="K96" s="22">
-        <v>6</v>
-      </c>
-      <c r="L96" s="22">
-        <v>6</v>
-      </c>
-      <c r="M96" s="22">
-        <v>6</v>
-      </c>
-      <c r="N96" s="22">
-        <v>6</v>
-      </c>
-      <c r="O96" s="22">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="K96" s="19">
+        <v>2</v>
+      </c>
+      <c r="L96" s="19">
+        <v>2</v>
+      </c>
+      <c r="M96" s="19">
+        <v>2</v>
+      </c>
+      <c r="N96" s="19">
+        <v>2</v>
+      </c>
+      <c r="O96" s="19">
+        <v>2</v>
       </c>
       <c r="P96" s="22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="Q96" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R96" s="22"/>
       <c r="S96" s="22"/>
@@ -19732,50 +19641,52 @@
     <row r="98" spans="1:20" hidden="1">
       <c r="A98" s="16"/>
       <c r="B98" s="16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C98" s="85" t="s">
-        <v>200</v>
+        <v>297</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="E98" s="12" t="str">
-        <f>IF(ISBLANK($C98),"",IF(ISBLANK($G98),"未着手",IF($J98=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($C98),"",IF(ISBLANK($G98),"未着手",IF($J98=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F98" s="4">
-        <v>43063</v>
-      </c>
-      <c r="G98" s="4"/>
+        <v>43074</v>
+      </c>
+      <c r="G98" s="4">
+        <v>43074</v>
+      </c>
       <c r="H98" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98" s="19"/>
       <c r="J98" s="12">
         <f ca="1">IF(ISBLANK(K98)=FALSE,OFFSET(J98,0,COUNTA(K98:R98)),"")</f>
-        <v>3</v>
-      </c>
-      <c r="K98" s="22">
-        <v>3</v>
-      </c>
-      <c r="L98" s="22">
-        <v>3</v>
-      </c>
-      <c r="M98" s="22">
-        <v>3</v>
-      </c>
-      <c r="N98" s="22">
-        <v>3</v>
-      </c>
-      <c r="O98" s="22">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="K98" s="19">
+        <v>1</v>
+      </c>
+      <c r="L98" s="19">
+        <v>1</v>
+      </c>
+      <c r="M98" s="19">
+        <v>1</v>
+      </c>
+      <c r="N98" s="19">
+        <v>1</v>
+      </c>
+      <c r="O98" s="19">
+        <v>1</v>
       </c>
       <c r="P98" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q98" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R98" s="22"/>
       <c r="S98" s="22"/>
@@ -19836,47 +19747,47 @@
     <row r="100" spans="1:20" hidden="1">
       <c r="A100" s="16"/>
       <c r="B100" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C100" s="85" t="s">
-        <v>155</v>
+        <v>324</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="E100" s="12" t="str">
         <f ca="1">IF(ISBLANK($C100),"",IF(ISBLANK($G100),"未着手",IF($J100=0,"完了","作業中")))</f>
         <v>作業中</v>
       </c>
       <c r="F100" s="4">
-        <v>43053</v>
+        <v>43074</v>
       </c>
       <c r="G100" s="4">
-        <v>43053</v>
+        <v>43074</v>
       </c>
       <c r="H100" s="19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I100" s="19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J100" s="12">
         <f ca="1">IF(ISBLANK(K100)=FALSE,OFFSET(J100,0,COUNTA(K100:R100)),"")</f>
         <v>2</v>
       </c>
-      <c r="K100" s="22">
-        <v>6</v>
-      </c>
-      <c r="L100" s="22">
-        <v>6</v>
-      </c>
-      <c r="M100" s="22">
-        <v>4</v>
-      </c>
-      <c r="N100" s="22">
-        <v>2</v>
-      </c>
-      <c r="O100" s="22">
+      <c r="K100" s="19">
+        <v>2</v>
+      </c>
+      <c r="L100" s="19">
+        <v>2</v>
+      </c>
+      <c r="M100" s="19">
+        <v>2</v>
+      </c>
+      <c r="N100" s="19">
+        <v>2</v>
+      </c>
+      <c r="O100" s="19">
         <v>2</v>
       </c>
       <c r="P100" s="22">
@@ -20026,41 +19937,45 @@
     <row r="104" spans="1:20" hidden="1">
       <c r="A104" s="16"/>
       <c r="B104" s="16" t="s">
-        <v>316</v>
+        <v>211</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="E104" s="12" t="str">
-        <f>IF(ISBLANK($C104),"",IF(ISBLANK($G104),"未着手",IF($J104=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($C104),"",IF(ISBLANK($G104),"未着手",IF($J104=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F104" s="4">
-        <v>43073</v>
-      </c>
-      <c r="G104" s="4"/>
+        <v>43067</v>
+      </c>
+      <c r="G104" s="4">
+        <v>43067</v>
+      </c>
       <c r="H104" s="19">
-        <v>2</v>
-      </c>
-      <c r="I104" s="19"/>
+        <v>3</v>
+      </c>
+      <c r="I104" s="19">
+        <v>2</v>
+      </c>
       <c r="J104" s="12">
         <f ca="1">IF(ISBLANK(K104)=FALSE,OFFSET(J104,0,COUNTA(K104:R104)),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K104" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L104" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M104" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N104" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O104" s="22">
         <v>2</v>
@@ -20069,7 +19984,7 @@
         <v>2</v>
       </c>
       <c r="Q104" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R104" s="22"/>
       <c r="S104" s="22"/>
@@ -20396,47 +20311,51 @@
     <row r="111" spans="1:20" hidden="1">
       <c r="A111" s="16"/>
       <c r="B111" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C111" s="107" t="s">
-        <v>252</v>
+        <v>211</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>174</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="E111" s="12" t="str">
-        <f>IF(ISBLANK($C111),"",IF(ISBLANK($G111),"未着手",IF($J111=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($C111),"",IF(ISBLANK($G111),"未着手",IF($J111=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F111" s="4">
-        <v>43073</v>
-      </c>
-      <c r="G111" s="4"/>
+        <v>43067</v>
+      </c>
+      <c r="G111" s="4">
+        <v>43070</v>
+      </c>
       <c r="H111" s="19">
-        <v>1</v>
-      </c>
-      <c r="I111" s="19"/>
+        <v>4</v>
+      </c>
+      <c r="I111" s="19">
+        <v>3</v>
+      </c>
       <c r="J111" s="12">
         <f ca="1">IF(ISBLANK(K111)=FALSE,OFFSET(J111,0,COUNTA(K111:R111)),"")</f>
         <v>1</v>
       </c>
       <c r="K111" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L111" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M111" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N111" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O111" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P111" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q111" s="22">
         <v>1</v>
@@ -20612,54 +20531,50 @@
     <row r="118" spans="1:20" hidden="1">
       <c r="A118" s="16"/>
       <c r="B118" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C118" s="85" t="s">
-        <v>190</v>
+        <v>285</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>282</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="E118" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C118),"",IF(ISBLANK($G118),"未着手",IF($J118=0,"完了","作業中")))</f>
-        <v>作業中</v>
+        <f>IF(ISBLANK($C118),"",IF(ISBLANK($G118),"未着手",IF($J118=0,"完了","作業中")))</f>
+        <v>未着手</v>
       </c>
       <c r="F118" s="4">
         <v>43077</v>
       </c>
-      <c r="G118" s="4">
-        <v>43067</v>
-      </c>
+      <c r="G118" s="4"/>
       <c r="H118" s="19">
-        <v>3</v>
-      </c>
-      <c r="I118" s="19">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" s="19"/>
       <c r="J118" s="12">
         <f ca="1">IF(ISBLANK(K118)=FALSE,OFFSET(J118,0,COUNTA(K118:R118)),"")</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K118" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L118" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M118" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N118" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O118" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P118" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q118" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R118" s="22"/>
       <c r="S118" s="22"/>
@@ -20721,7 +20636,7 @@
       <c r="S119" s="22"/>
       <c r="T119" s="22"/>
     </row>
-    <row r="120" spans="1:20" hidden="1">
+    <row r="120" spans="1:20">
       <c r="A120" s="16"/>
       <c r="B120" s="16" t="s">
         <v>321</v>
@@ -20775,7 +20690,7 @@
       <c r="S120" s="22"/>
       <c r="T120" s="22"/>
     </row>
-    <row r="121" spans="1:20" hidden="1">
+    <row r="121" spans="1:20">
       <c r="A121" s="16"/>
       <c r="B121" s="16" t="s">
         <v>323</v>
@@ -20830,13 +20745,13 @@
     <row r="122" spans="1:20" hidden="1">
       <c r="A122" s="16"/>
       <c r="B122" s="16" t="s">
-        <v>319</v>
+        <v>212</v>
       </c>
       <c r="C122" s="85" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="E122" s="12" t="str">
         <f>IF(ISBLANK($C122),"",IF(ISBLANK($G122),"未着手",IF($J122=0,"完了","作業中")))</f>
@@ -20847,33 +20762,33 @@
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" s="19"/>
       <c r="J122" s="12">
         <f ca="1">IF(ISBLANK(K122)=FALSE,OFFSET(J122,0,COUNTA(K122:R122)),"")</f>
-        <v>3</v>
-      </c>
-      <c r="K122" s="22">
-        <v>3</v>
-      </c>
-      <c r="L122" s="22">
-        <v>3</v>
-      </c>
-      <c r="M122" s="22">
-        <v>3</v>
-      </c>
-      <c r="N122" s="22">
-        <v>3</v>
-      </c>
-      <c r="O122" s="22">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="K122" s="19">
+        <v>2</v>
+      </c>
+      <c r="L122" s="19">
+        <v>2</v>
+      </c>
+      <c r="M122" s="19">
+        <v>2</v>
+      </c>
+      <c r="N122" s="19">
+        <v>2</v>
+      </c>
+      <c r="O122" s="19">
+        <v>2</v>
       </c>
       <c r="P122" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q122" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R122" s="22"/>
       <c r="S122" s="22"/>
@@ -21686,32 +21601,27 @@
     <row r="138" spans="1:20" hidden="1">
       <c r="A138" s="16"/>
       <c r="B138" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="C138" s="107" t="s">
-        <v>260</v>
+        <v>336</v>
+      </c>
+      <c r="C138" s="17" t="s">
+        <v>293</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>140</v>
+        <v>292</v>
       </c>
       <c r="E138" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C138),"",IF(ISBLANK($G138),"未着手",IF($J138=0,"完了","作業中")))</f>
-        <v>作業中</v>
+        <f>IF(ISBLANK($C138),"",IF(ISBLANK($G138),"未着手",IF($J138=0,"完了","作業中")))</f>
+        <v>未着手</v>
       </c>
       <c r="F138" s="4">
-        <v>43070</v>
-      </c>
-      <c r="G138" s="4">
-        <v>43077</v>
-      </c>
+        <v>43074</v>
+      </c>
+      <c r="G138" s="4"/>
       <c r="H138" s="19">
         <v>1</v>
       </c>
-      <c r="I138" s="19">
-        <v>1</v>
-      </c>
+      <c r="I138" s="19"/>
       <c r="J138" s="12">
-        <f ca="1">IF(ISBLANK(K138)=FALSE,OFFSET(J138,0,COUNTA(K138:R138)),"")</f>
         <v>1</v>
       </c>
       <c r="K138" s="22">
@@ -21742,44 +21652,40 @@
     <row r="139" spans="1:20" hidden="1">
       <c r="A139" s="16"/>
       <c r="B139" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="C139" s="107" t="s">
-        <v>261</v>
+        <v>212</v>
+      </c>
+      <c r="C139" s="17" t="s">
+        <v>311</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E139" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C139),"",IF(ISBLANK($G139),"未着手",IF($J139=0,"完了","作業中")))</f>
-        <v>作業中</v>
+        <f>IF(ISBLANK($C139),"",IF(ISBLANK($G139),"未着手",IF($J139=0,"完了","作業中")))</f>
+        <v>未着手</v>
       </c>
       <c r="F139" s="4">
         <v>43077</v>
       </c>
-      <c r="G139" s="4">
-        <v>43077</v>
-      </c>
+      <c r="G139" s="4"/>
       <c r="H139" s="19">
         <v>1</v>
       </c>
-      <c r="I139" s="19">
-        <v>1</v>
-      </c>
+      <c r="I139" s="19"/>
       <c r="J139" s="12">
         <f ca="1">IF(ISBLANK(K139)=FALSE,OFFSET(J139,0,COUNTA(K139:R139)),"")</f>
         <v>1</v>
       </c>
-      <c r="K139" s="22">
-        <v>1</v>
-      </c>
-      <c r="L139" s="22">
-        <v>1</v>
-      </c>
-      <c r="M139" s="22">
-        <v>1</v>
-      </c>
-      <c r="N139" s="22">
+      <c r="K139" s="19">
+        <v>1</v>
+      </c>
+      <c r="L139" s="19">
+        <v>1</v>
+      </c>
+      <c r="M139" s="19">
+        <v>1</v>
+      </c>
+      <c r="N139" s="19">
         <v>1</v>
       </c>
       <c r="O139" s="22">
@@ -21798,20 +21704,20 @@
     <row r="140" spans="1:20" hidden="1">
       <c r="A140" s="16"/>
       <c r="B140" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C140" s="107" t="s">
-        <v>262</v>
+        <v>212</v>
+      </c>
+      <c r="C140" s="17" t="s">
+        <v>312</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E140" s="12" t="str">
         <f>IF(ISBLANK($C140),"",IF(ISBLANK($G140),"未着手",IF($J140=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F140" s="4">
-        <v>43070</v>
+        <v>43077</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="19">
@@ -21822,16 +21728,16 @@
         <f ca="1">IF(ISBLANK(K140)=FALSE,OFFSET(J140,0,COUNTA(K140:R140)),"")</f>
         <v>1</v>
       </c>
-      <c r="K140" s="22">
-        <v>1</v>
-      </c>
-      <c r="L140" s="22">
-        <v>1</v>
-      </c>
-      <c r="M140" s="22">
-        <v>1</v>
-      </c>
-      <c r="N140" s="22">
+      <c r="K140" s="19">
+        <v>1</v>
+      </c>
+      <c r="L140" s="19">
+        <v>1</v>
+      </c>
+      <c r="M140" s="19">
+        <v>1</v>
+      </c>
+      <c r="N140" s="19">
         <v>1</v>
       </c>
       <c r="O140" s="22">
@@ -21987,54 +21893,50 @@
     <row r="144" spans="1:20" hidden="1">
       <c r="A144" s="16"/>
       <c r="B144" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="C144" s="107" t="s">
-        <v>265</v>
+        <v>212</v>
+      </c>
+      <c r="C144" s="17" t="s">
+        <v>313</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E144" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C144),"",IF(ISBLANK($G144),"未着手",IF($J144=0,"完了","作業中")))</f>
-        <v>作業中</v>
+        <f>IF(ISBLANK($C144),"",IF(ISBLANK($G144),"未着手",IF($J144=0,"完了","作業中")))</f>
+        <v>未着手</v>
       </c>
       <c r="F144" s="4">
-        <v>43070</v>
-      </c>
-      <c r="G144" s="4">
         <v>43077</v>
       </c>
+      <c r="G144" s="4"/>
       <c r="H144" s="19">
-        <v>1</v>
-      </c>
-      <c r="I144" s="19">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I144" s="19"/>
       <c r="J144" s="12">
         <f ca="1">IF(ISBLANK(K144)=FALSE,OFFSET(J144,0,COUNTA(K144:R144)),"")</f>
-        <v>1</v>
-      </c>
-      <c r="K144" s="22">
-        <v>1</v>
-      </c>
-      <c r="L144" s="22">
-        <v>1</v>
-      </c>
-      <c r="M144" s="22">
-        <v>1</v>
-      </c>
-      <c r="N144" s="22">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K144" s="19">
+        <v>2</v>
+      </c>
+      <c r="L144" s="19">
+        <v>2</v>
+      </c>
+      <c r="M144" s="19">
+        <v>2</v>
+      </c>
+      <c r="N144" s="19">
+        <v>2</v>
       </c>
       <c r="O144" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P144" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q144" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R144" s="22"/>
       <c r="S144" s="22"/>
@@ -22606,17 +22508,17 @@
         <v>212</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>170</v>
+        <v>314</v>
       </c>
       <c r="D158" s="18" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="E158" s="12" t="str">
         <f>IF(ISBLANK($C158),"",IF(ISBLANK($G158),"未着手",IF($J158=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F158" s="4">
-        <v>43067</v>
+        <v>43077</v>
       </c>
       <c r="G158" s="4"/>
       <c r="H158" s="19">
@@ -22627,16 +22529,16 @@
         <f ca="1">IF(ISBLANK(K158)=FALSE,OFFSET(J158,0,COUNTA(K158:R158)),"")</f>
         <v>2</v>
       </c>
-      <c r="K158" s="22">
-        <v>2</v>
-      </c>
-      <c r="L158" s="22">
-        <v>2</v>
-      </c>
-      <c r="M158" s="22">
-        <v>2</v>
-      </c>
-      <c r="N158" s="22">
+      <c r="K158" s="19">
+        <v>2</v>
+      </c>
+      <c r="L158" s="19">
+        <v>2</v>
+      </c>
+      <c r="M158" s="19">
+        <v>2</v>
+      </c>
+      <c r="N158" s="19">
         <v>2</v>
       </c>
       <c r="O158" s="22">
@@ -22655,54 +22557,54 @@
     <row r="159" spans="1:20" hidden="1">
       <c r="A159" s="16"/>
       <c r="B159" s="16" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C159" s="85" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D159" s="18" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E159" s="12" t="str">
         <f ca="1">IF(ISBLANK($C159),"",IF(ISBLANK($G159),"未着手",IF($J159=0,"完了","作業中")))</f>
         <v>作業中</v>
       </c>
       <c r="F159" s="4">
-        <v>43074</v>
+        <v>43077</v>
       </c>
       <c r="G159" s="4">
-        <v>43074</v>
+        <v>43077</v>
       </c>
       <c r="H159" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I159" s="19">
         <v>1</v>
       </c>
       <c r="J159" s="12">
         <f ca="1">IF(ISBLANK(K159)=FALSE,OFFSET(J159,0,COUNTA(K159:R159)),"")</f>
-        <v>2</v>
-      </c>
-      <c r="K159" s="19">
-        <v>2</v>
-      </c>
-      <c r="L159" s="19">
-        <v>2</v>
-      </c>
-      <c r="M159" s="19">
-        <v>2</v>
-      </c>
-      <c r="N159" s="19">
-        <v>2</v>
-      </c>
-      <c r="O159" s="19">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="K159" s="22">
+        <v>4</v>
+      </c>
+      <c r="L159" s="22">
+        <v>4</v>
+      </c>
+      <c r="M159" s="22">
+        <v>4</v>
+      </c>
+      <c r="N159" s="22">
+        <v>4</v>
+      </c>
+      <c r="O159" s="22">
+        <v>4</v>
       </c>
       <c r="P159" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q159" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R159" s="22"/>
       <c r="S159" s="22"/>
@@ -22767,49 +22669,51 @@
     <row r="161" spans="1:20" hidden="1">
       <c r="A161" s="16"/>
       <c r="B161" s="16" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C161" s="85" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D161" s="18" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E161" s="12" t="str">
         <f ca="1">IF(ISBLANK($C161),"",IF(ISBLANK($G161),"未着手",IF($J161=0,"完了","作業中")))</f>
         <v>作業中</v>
       </c>
       <c r="F161" s="4">
-        <v>43074</v>
+        <v>43077</v>
       </c>
       <c r="G161" s="4">
-        <v>43074</v>
+        <v>43077</v>
       </c>
       <c r="H161" s="19">
-        <v>1</v>
-      </c>
-      <c r="I161" s="19"/>
+        <v>2</v>
+      </c>
+      <c r="I161" s="19">
+        <v>1</v>
+      </c>
       <c r="J161" s="12">
         <f ca="1">IF(ISBLANK(K161)=FALSE,OFFSET(J161,0,COUNTA(K161:R161)),"")</f>
         <v>1</v>
       </c>
-      <c r="K161" s="19">
-        <v>1</v>
-      </c>
-      <c r="L161" s="19">
-        <v>1</v>
-      </c>
-      <c r="M161" s="19">
-        <v>1</v>
-      </c>
-      <c r="N161" s="19">
-        <v>1</v>
-      </c>
-      <c r="O161" s="19">
-        <v>1</v>
+      <c r="K161" s="22">
+        <v>2</v>
+      </c>
+      <c r="L161" s="22">
+        <v>2</v>
+      </c>
+      <c r="M161" s="22">
+        <v>2</v>
+      </c>
+      <c r="N161" s="22">
+        <v>2</v>
+      </c>
+      <c r="O161" s="22">
+        <v>2</v>
       </c>
       <c r="P161" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q161" s="22">
         <v>1</v>
@@ -22821,47 +22725,47 @@
     <row r="162" spans="1:20" hidden="1">
       <c r="A162" s="16"/>
       <c r="B162" s="16" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C162" s="85" t="s">
-        <v>324</v>
+        <v>155</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="E162" s="12" t="str">
         <f ca="1">IF(ISBLANK($C162),"",IF(ISBLANK($G162),"未着手",IF($J162=0,"完了","作業中")))</f>
         <v>作業中</v>
       </c>
       <c r="F162" s="4">
-        <v>43074</v>
+        <v>43053</v>
       </c>
       <c r="G162" s="4">
-        <v>43074</v>
+        <v>43053</v>
       </c>
       <c r="H162" s="19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I162" s="19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J162" s="12">
         <f ca="1">IF(ISBLANK(K162)=FALSE,OFFSET(J162,0,COUNTA(K162:R162)),"")</f>
         <v>2</v>
       </c>
-      <c r="K162" s="19">
-        <v>2</v>
-      </c>
-      <c r="L162" s="19">
-        <v>2</v>
-      </c>
-      <c r="M162" s="19">
-        <v>2</v>
-      </c>
-      <c r="N162" s="19">
-        <v>2</v>
-      </c>
-      <c r="O162" s="19">
+      <c r="K162" s="22">
+        <v>6</v>
+      </c>
+      <c r="L162" s="22">
+        <v>6</v>
+      </c>
+      <c r="M162" s="22">
+        <v>4</v>
+      </c>
+      <c r="N162" s="22">
+        <v>2</v>
+      </c>
+      <c r="O162" s="22">
         <v>2</v>
       </c>
       <c r="P162" s="22">
@@ -22874,36 +22778,32 @@
       <c r="S162" s="22"/>
       <c r="T162" s="22"/>
     </row>
-    <row r="163" spans="1:20" hidden="1">
+    <row r="163" spans="1:20">
       <c r="A163" s="16"/>
       <c r="B163" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C163" s="17" t="s">
-        <v>172</v>
+        <v>319</v>
+      </c>
+      <c r="C163" s="85" t="s">
+        <v>189</v>
       </c>
       <c r="D163" s="18" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E163" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C163),"",IF(ISBLANK($G163),"未着手",IF($J163=0,"完了","作業中")))</f>
-        <v>作業中</v>
+        <f>IF(ISBLANK($C163),"",IF(ISBLANK($G163),"未着手",IF($J163=0,"完了","作業中")))</f>
+        <v>未着手</v>
       </c>
       <c r="F163" s="4">
-        <v>43067</v>
-      </c>
-      <c r="G163" s="4">
-        <v>43067</v>
-      </c>
+        <v>43074</v>
+      </c>
+      <c r="G163" s="4"/>
       <c r="H163" s="19">
         <v>3</v>
       </c>
-      <c r="I163" s="19">
-        <v>2</v>
-      </c>
+      <c r="I163" s="19"/>
       <c r="J163" s="12">
         <f ca="1">IF(ISBLANK(K163)=FALSE,OFFSET(J163,0,COUNTA(K163:R163)),"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K163" s="22">
         <v>3</v>
@@ -22918,66 +22818,66 @@
         <v>3</v>
       </c>
       <c r="O163" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P163" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q163" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R163" s="22"/>
       <c r="S163" s="22"/>
       <c r="T163" s="22"/>
     </row>
-    <row r="164" spans="1:20" hidden="1">
+    <row r="164" spans="1:20">
       <c r="A164" s="16"/>
       <c r="B164" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="C164" s="17" t="s">
-        <v>174</v>
+        <v>286</v>
+      </c>
+      <c r="C164" s="107" t="s">
+        <v>261</v>
       </c>
       <c r="D164" s="18" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E164" s="12" t="str">
         <f ca="1">IF(ISBLANK($C164),"",IF(ISBLANK($G164),"未着手",IF($J164=0,"完了","作業中")))</f>
         <v>作業中</v>
       </c>
       <c r="F164" s="4">
-        <v>43067</v>
+        <v>43077</v>
       </c>
       <c r="G164" s="4">
-        <v>43070</v>
+        <v>43077</v>
       </c>
       <c r="H164" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I164" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J164" s="12">
         <f ca="1">IF(ISBLANK(K164)=FALSE,OFFSET(J164,0,COUNTA(K164:R164)),"")</f>
         <v>1</v>
       </c>
       <c r="K164" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L164" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M164" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N164" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O164" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P164" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q164" s="22">
         <v>1</v>
@@ -23291,7 +23191,7 @@
       <c r="S172" s="22"/>
       <c r="T172" s="22"/>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" hidden="1">
       <c r="A173" s="16"/>
       <c r="B173" s="16" t="s">
         <v>216</v>
@@ -23345,7 +23245,7 @@
       <c r="S173" s="22"/>
       <c r="T173" s="22"/>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" hidden="1">
       <c r="A174" s="16"/>
       <c r="B174" s="16" t="s">
         <v>216</v>
@@ -23399,7 +23299,7 @@
       <c r="S174" s="22"/>
       <c r="T174" s="22"/>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" hidden="1">
       <c r="A175" s="16"/>
       <c r="B175" s="16" t="s">
         <v>216</v>
@@ -23453,7 +23353,7 @@
       <c r="S175" s="22"/>
       <c r="T175" s="22"/>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" hidden="1">
       <c r="A176" s="16"/>
       <c r="B176" s="16" t="s">
         <v>216</v>
@@ -23507,59 +23407,59 @@
       <c r="S176" s="22"/>
       <c r="T176" s="22"/>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" hidden="1">
       <c r="A177" s="16"/>
       <c r="B177" s="16" t="s">
-        <v>285</v>
+        <v>212</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>282</v>
+        <v>170</v>
       </c>
       <c r="D177" s="18" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="E177" s="12" t="str">
         <f>IF(ISBLANK($C177),"",IF(ISBLANK($G177),"未着手",IF($J177=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F177" s="4">
-        <v>43077</v>
+        <v>43067</v>
       </c>
       <c r="G177" s="4"/>
       <c r="H177" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" s="19"/>
       <c r="J177" s="12">
         <f ca="1">IF(ISBLANK(K177)=FALSE,OFFSET(J177,0,COUNTA(K177:R177)),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K177" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L177" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M177" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N177" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O177" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P177" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q177" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R177" s="22"/>
       <c r="S177" s="22"/>
       <c r="T177" s="22"/>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" hidden="1">
       <c r="A178" s="16"/>
       <c r="B178" s="16" t="s">
         <v>217</v>
@@ -23607,7 +23507,7 @@
       <c r="S178" s="22"/>
       <c r="T178" s="22"/>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" hidden="1">
       <c r="A179" s="16"/>
       <c r="B179" s="16" t="s">
         <v>322</v>
@@ -23663,7 +23563,7 @@
       <c r="S179" s="22"/>
       <c r="T179" s="22"/>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180" spans="1:20" hidden="1">
       <c r="A180" s="16"/>
       <c r="B180" s="16" t="s">
         <v>320</v>
@@ -23718,7 +23618,7 @@
       <c r="S180" s="22"/>
       <c r="T180" s="22"/>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181" spans="1:20" hidden="1">
       <c r="A181" s="16"/>
       <c r="B181" s="16" t="s">
         <v>319</v>
@@ -23770,7 +23670,7 @@
       <c r="S181" s="22"/>
       <c r="T181" s="22"/>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" spans="1:20" hidden="1">
       <c r="A182" s="16"/>
       <c r="B182" s="16"/>
       <c r="C182" s="85" t="s">
@@ -23820,7 +23720,7 @@
       <c r="S182" s="22"/>
       <c r="T182" s="22"/>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" hidden="1">
       <c r="A183" s="16"/>
       <c r="B183" s="16"/>
       <c r="C183" s="85" t="s">
@@ -23870,7 +23770,7 @@
       <c r="S183" s="22"/>
       <c r="T183" s="22"/>
     </row>
-    <row r="184" spans="1:20">
+    <row r="184" spans="1:20" hidden="1">
       <c r="A184" s="16"/>
       <c r="B184" s="16"/>
       <c r="C184" s="85" t="s">
@@ -23920,7 +23820,7 @@
       <c r="S184" s="22"/>
       <c r="T184" s="22"/>
     </row>
-    <row r="185" spans="1:20">
+    <row r="185" spans="1:20" hidden="1">
       <c r="A185" s="16"/>
       <c r="B185" s="16"/>
       <c r="C185" s="85" t="s">
@@ -23970,7 +23870,7 @@
       <c r="S185" s="22"/>
       <c r="T185" s="22"/>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" spans="1:20" hidden="1">
       <c r="A186" s="16"/>
       <c r="B186" s="16"/>
       <c r="C186" s="85" t="s">
@@ -24016,7 +23916,7 @@
       <c r="S186" s="22"/>
       <c r="T186" s="22"/>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" spans="1:20" hidden="1">
       <c r="A187" s="16"/>
       <c r="B187" s="16"/>
       <c r="C187" s="85" t="s">
@@ -24068,7 +23968,7 @@
       <c r="S187" s="22"/>
       <c r="T187" s="22"/>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188" spans="1:20" hidden="1">
       <c r="A188" s="16"/>
       <c r="B188" s="16"/>
       <c r="C188" s="85" t="s">
@@ -24510,7 +24410,7 @@
         <v>119</v>
       </c>
       <c r="E198" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C198),"",IF(ISBLANK($G198),"未着手",IF($J198=0,"完了","作業中")))</f>
+        <f t="shared" ref="E192:E207" ca="1" si="10">IF(ISBLANK($C198),"",IF(ISBLANK($G198),"未着手",IF($J198=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F198" s="4">
@@ -24526,7 +24426,7 @@
         <v>4</v>
       </c>
       <c r="J198" s="12">
-        <f ca="1">IF(ISBLANK(K198)=FALSE,OFFSET(J198,0,COUNTA(K198:R198)),"")</f>
+        <f t="shared" ref="J192:J202" ca="1" si="11">IF(ISBLANK(K198)=FALSE,OFFSET(J198,0,COUNTA(K198:R198)),"")</f>
         <v>0</v>
       </c>
       <c r="K198" s="22">
@@ -24554,7 +24454,7 @@
         <v>119</v>
       </c>
       <c r="E199" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C199),"",IF(ISBLANK($G199),"未着手",IF($J199=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>完了</v>
       </c>
       <c r="F199" s="4">
@@ -24570,7 +24470,7 @@
         <v>1</v>
       </c>
       <c r="J199" s="12">
-        <f ca="1">IF(ISBLANK(K199)=FALSE,OFFSET(J199,0,COUNTA(K199:R199)),"")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="K199" s="22">
@@ -24598,7 +24498,7 @@
         <v>148</v>
       </c>
       <c r="E200" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C200),"",IF(ISBLANK($G200),"未着手",IF($J200=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>完了</v>
       </c>
       <c r="F200" s="4">
@@ -24614,7 +24514,7 @@
         <v>3</v>
       </c>
       <c r="J200" s="12">
-        <f ca="1">IF(ISBLANK(K200)=FALSE,OFFSET(J200,0,COUNTA(K200:R200)),"")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="K200" s="22">
@@ -24640,7 +24540,7 @@
         <v>162</v>
       </c>
       <c r="E201" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C201),"",IF(ISBLANK($G201),"未着手",IF($J201=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>完了</v>
       </c>
       <c r="F201" s="4">
@@ -24656,7 +24556,7 @@
         <v>1</v>
       </c>
       <c r="J201" s="12">
-        <f ca="1">IF(ISBLANK(K201)=FALSE,OFFSET(J201,0,COUNTA(K201:R201)),"")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="K201" s="22">
@@ -24682,7 +24582,7 @@
         <v>119</v>
       </c>
       <c r="E202" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C202),"",IF(ISBLANK($G202),"未着手",IF($J202=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>完了</v>
       </c>
       <c r="F202" s="4">
@@ -24698,7 +24598,7 @@
         <v>2</v>
       </c>
       <c r="J202" s="12">
-        <f ca="1">IF(ISBLANK(K202)=FALSE,OFFSET(J202,0,COUNTA(K202:R202)),"")</f>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="K202" s="22">
@@ -24726,7 +24626,7 @@
       <c r="C203" s="17"/>
       <c r="D203" s="18"/>
       <c r="E203" s="12" t="str">
-        <f>IF(ISBLANK($C203),"",IF(ISBLANK($G203),"未着手",IF($J203=0,"完了","作業中")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F203" s="4"/>
@@ -24755,7 +24655,7 @@
         <v>119</v>
       </c>
       <c r="E204" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C204),"",IF(ISBLANK($G204),"未着手",IF($J204=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>完了</v>
       </c>
       <c r="F204" s="4">
@@ -24771,7 +24671,7 @@
         <v>2</v>
       </c>
       <c r="J204" s="12">
-        <f ca="1">IF(ISBLANK(K204)=FALSE,OFFSET(J204,0,COUNTA(K204:R204)),"")</f>
+        <f t="shared" ref="J204:J212" ca="1" si="12">IF(ISBLANK(K204)=FALSE,OFFSET(J204,0,COUNTA(K204:R204)),"")</f>
         <v>0</v>
       </c>
       <c r="K204" s="22">
@@ -24803,7 +24703,7 @@
         <v>119</v>
       </c>
       <c r="E205" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C205),"",IF(ISBLANK($G205),"未着手",IF($J205=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>完了</v>
       </c>
       <c r="F205" s="4">
@@ -24819,7 +24719,7 @@
         <v>3</v>
       </c>
       <c r="J205" s="12">
-        <f ca="1">IF(ISBLANK(K205)=FALSE,OFFSET(J205,0,COUNTA(K205:R205)),"")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="K205" s="22">
@@ -24853,7 +24753,7 @@
       <c r="C206" s="17"/>
       <c r="D206" s="18"/>
       <c r="E206" s="12" t="str">
-        <f>IF(ISBLANK($C206),"",IF(ISBLANK($G206),"未着手",IF($J206=0,"完了","作業中")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F206" s="4"/>
@@ -24861,7 +24761,7 @@
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
       <c r="J206" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K206)=FALSE,OFFSET(J206,0,COUNTA(K206:R206)),"")</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="K206" s="22"/>
@@ -24881,7 +24781,7 @@
       <c r="C207" s="17"/>
       <c r="D207" s="18"/>
       <c r="E207" s="12" t="str">
-        <f>IF(ISBLANK($C207),"",IF(ISBLANK($G207),"未着手",IF($J207=0,"完了","作業中")))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F207" s="4"/>
@@ -24889,7 +24789,7 @@
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
       <c r="J207" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K207)=FALSE,OFFSET(J207,0,COUNTA(K207:R207)),"")</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="K207" s="22"/>
@@ -24916,7 +24816,7 @@
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
       <c r="J208" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K208)=FALSE,OFFSET(J208,0,COUNTA(K208:R208)),"")</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="K208" s="22"/>
@@ -24956,7 +24856,7 @@
         <v>3</v>
       </c>
       <c r="J209" s="12">
-        <f ca="1">IF(ISBLANK(K209)=FALSE,OFFSET(J209,0,COUNTA(K209:R209)),"")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="K209" s="22">
@@ -25010,7 +24910,7 @@
         <v>3</v>
       </c>
       <c r="J210" s="12">
-        <f ca="1">IF(ISBLANK(K210)=FALSE,OFFSET(J210,0,COUNTA(K210:R210)),"")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="K210" s="22">
@@ -25064,7 +24964,7 @@
         <v>1</v>
       </c>
       <c r="J211" s="12">
-        <f ca="1">IF(ISBLANK(K211)=FALSE,OFFSET(J211,0,COUNTA(K211:R211)),"")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="K211" s="22">
@@ -25112,7 +25012,7 @@
         <v>1</v>
       </c>
       <c r="J212" s="12">
-        <f ca="1">IF(ISBLANK(K212)=FALSE,OFFSET(J212,0,COUNTA(K212:R212)),"")</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
       <c r="K212" s="22">
@@ -25165,7 +25065,7 @@
       <c r="C214" s="17"/>
       <c r="D214" s="18"/>
       <c r="E214" s="12" t="str">
-        <f t="shared" ref="E214:E241" si="12">IF(ISBLANK($C214),"",IF(ISBLANK($G214),"未着手",IF($J214=0,"完了","作業中")))</f>
+        <f t="shared" ref="E214:E241" si="13">IF(ISBLANK($C214),"",IF(ISBLANK($G214),"未着手",IF($J214=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F214" s="4"/>
@@ -25173,7 +25073,7 @@
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
       <c r="J214" s="12" t="str">
-        <f t="shared" ref="J214:J241" ca="1" si="13">IF(ISBLANK(K214)=FALSE,OFFSET(J214,0,COUNTA(K214:R214)),"")</f>
+        <f t="shared" ref="J214:J241" ca="1" si="14">IF(ISBLANK(K214)=FALSE,OFFSET(J214,0,COUNTA(K214:R214)),"")</f>
         <v/>
       </c>
       <c r="K214" s="22"/>
@@ -25217,7 +25117,7 @@
       <c r="C228" s="114"/>
       <c r="D228" s="115"/>
       <c r="E228" s="116" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F228" s="117"/>
@@ -25225,7 +25125,7 @@
       <c r="H228" s="118"/>
       <c r="I228" s="118"/>
       <c r="J228" s="116" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="K228" s="119"/>
@@ -25257,7 +25157,7 @@
       <c r="C230" s="114"/>
       <c r="D230" s="115"/>
       <c r="E230" s="116" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F230" s="117"/>
@@ -25265,7 +25165,7 @@
       <c r="H230" s="118"/>
       <c r="I230" s="118"/>
       <c r="J230" s="116" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="K230" s="119"/>
@@ -25285,7 +25185,7 @@
       <c r="C231" s="114"/>
       <c r="D231" s="115"/>
       <c r="E231" s="116" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F231" s="117"/>
@@ -25293,7 +25193,7 @@
       <c r="H231" s="118"/>
       <c r="I231" s="118"/>
       <c r="J231" s="116" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="K231" s="119"/>
@@ -25409,7 +25309,7 @@
       <c r="C240" s="114"/>
       <c r="D240" s="115"/>
       <c r="E240" s="116" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F240" s="117"/>
@@ -25417,7 +25317,7 @@
       <c r="H240" s="118"/>
       <c r="I240" s="118"/>
       <c r="J240" s="116" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="K240" s="119"/>
@@ -25437,7 +25337,7 @@
       <c r="C241" s="114"/>
       <c r="D241" s="115"/>
       <c r="E241" s="116" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="F241" s="117"/>
@@ -25445,7 +25345,7 @@
       <c r="H241" s="118"/>
       <c r="I241" s="118"/>
       <c r="J241" s="116" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="14"/>
         <v/>
       </c>
       <c r="K241" s="119"/>
@@ -25645,7 +25545,7 @@
       <c r="C257" s="114"/>
       <c r="D257" s="115"/>
       <c r="E257" s="116" t="str">
-        <f t="shared" ref="E257:E271" si="14">IF(ISBLANK($C257),"",IF(ISBLANK($G257),"未着手",IF($J257=0,"完了","作業中")))</f>
+        <f t="shared" ref="E257:E271" si="15">IF(ISBLANK($C257),"",IF(ISBLANK($G257),"未着手",IF($J257=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F257" s="117"/>
@@ -25653,7 +25553,7 @@
       <c r="H257" s="118"/>
       <c r="I257" s="118"/>
       <c r="J257" s="116" t="str">
-        <f t="shared" ref="J257:J271" ca="1" si="15">IF(ISBLANK(K257)=FALSE,OFFSET(J257,0,COUNTA(K257:R257)),"")</f>
+        <f t="shared" ref="J257:J271" ca="1" si="16">IF(ISBLANK(K257)=FALSE,OFFSET(J257,0,COUNTA(K257:R257)),"")</f>
         <v/>
       </c>
       <c r="K257" s="119"/>
@@ -25673,7 +25573,7 @@
       <c r="C258" s="114"/>
       <c r="D258" s="115"/>
       <c r="E258" s="116" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F258" s="117"/>
@@ -25681,7 +25581,7 @@
       <c r="H258" s="118"/>
       <c r="I258" s="118"/>
       <c r="J258" s="116" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K258" s="119"/>
@@ -25701,7 +25601,7 @@
       <c r="C259" s="114"/>
       <c r="D259" s="115"/>
       <c r="E259" s="116" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F259" s="117"/>
@@ -25709,7 +25609,7 @@
       <c r="H259" s="118"/>
       <c r="I259" s="118"/>
       <c r="J259" s="116" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K259" s="119"/>
@@ -25729,7 +25629,7 @@
       <c r="C260" s="114"/>
       <c r="D260" s="115"/>
       <c r="E260" s="116" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F260" s="117"/>
@@ -25737,7 +25637,7 @@
       <c r="H260" s="118"/>
       <c r="I260" s="118"/>
       <c r="J260" s="116" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K260" s="119"/>
@@ -25757,7 +25657,7 @@
       <c r="C261" s="114"/>
       <c r="D261" s="115"/>
       <c r="E261" s="116" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F261" s="117"/>
@@ -25765,7 +25665,7 @@
       <c r="H261" s="118"/>
       <c r="I261" s="118"/>
       <c r="J261" s="116" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K261" s="119"/>
@@ -25785,7 +25685,7 @@
       <c r="C262" s="114"/>
       <c r="D262" s="115"/>
       <c r="E262" s="116" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F262" s="117"/>
@@ -25793,7 +25693,7 @@
       <c r="H262" s="118"/>
       <c r="I262" s="118"/>
       <c r="J262" s="116" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K262" s="119"/>
@@ -25813,7 +25713,7 @@
       <c r="C263" s="114"/>
       <c r="D263" s="115"/>
       <c r="E263" s="116" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F263" s="117"/>
@@ -25821,7 +25721,7 @@
       <c r="H263" s="118"/>
       <c r="I263" s="118"/>
       <c r="J263" s="116" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K263" s="119"/>
@@ -25841,7 +25741,7 @@
       <c r="C264" s="114"/>
       <c r="D264" s="115"/>
       <c r="E264" s="116" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F264" s="117"/>
@@ -25849,7 +25749,7 @@
       <c r="H264" s="118"/>
       <c r="I264" s="118"/>
       <c r="J264" s="116" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K264" s="119"/>
@@ -25869,7 +25769,7 @@
       <c r="C265" s="114"/>
       <c r="D265" s="115"/>
       <c r="E265" s="116" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F265" s="117"/>
@@ -25877,7 +25777,7 @@
       <c r="H265" s="118"/>
       <c r="I265" s="118"/>
       <c r="J265" s="116" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K265" s="119"/>
@@ -25897,7 +25797,7 @@
       <c r="C266" s="114"/>
       <c r="D266" s="115"/>
       <c r="E266" s="116" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F266" s="117"/>
@@ -25905,7 +25805,7 @@
       <c r="H266" s="118"/>
       <c r="I266" s="118"/>
       <c r="J266" s="116" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K266" s="119"/>
@@ -25925,7 +25825,7 @@
       <c r="C267" s="114"/>
       <c r="D267" s="115"/>
       <c r="E267" s="116" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F267" s="117"/>
@@ -25933,7 +25833,7 @@
       <c r="H267" s="118"/>
       <c r="I267" s="118"/>
       <c r="J267" s="116" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K267" s="119"/>
@@ -25953,7 +25853,7 @@
       <c r="C268" s="114"/>
       <c r="D268" s="115"/>
       <c r="E268" s="116" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F268" s="117"/>
@@ -25961,7 +25861,7 @@
       <c r="H268" s="118"/>
       <c r="I268" s="118"/>
       <c r="J268" s="116" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K268" s="119"/>
@@ -25981,7 +25881,7 @@
       <c r="C269" s="114"/>
       <c r="D269" s="115"/>
       <c r="E269" s="116" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F269" s="117"/>
@@ -25989,7 +25889,7 @@
       <c r="H269" s="118"/>
       <c r="I269" s="118"/>
       <c r="J269" s="116" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K269" s="119"/>
@@ -26009,7 +25909,7 @@
       <c r="C270" s="114"/>
       <c r="D270" s="115"/>
       <c r="E270" s="116" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F270" s="117"/>
@@ -26017,7 +25917,7 @@
       <c r="H270" s="118"/>
       <c r="I270" s="118"/>
       <c r="J270" s="116" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K270" s="119"/>
@@ -26037,7 +25937,7 @@
       <c r="C271" s="114"/>
       <c r="D271" s="115"/>
       <c r="E271" s="116" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F271" s="117"/>
@@ -26045,7 +25945,7 @@
       <c r="H271" s="118"/>
       <c r="I271" s="118"/>
       <c r="J271" s="116" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K271" s="119"/>
@@ -26063,7 +25963,13 @@
   <autoFilter ref="A1:T271">
     <filterColumn colId="3">
       <filters>
-        <filter val="南雲"/>
+        <filter val="樋田"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="作業中"/>
+        <filter val="未着手"/>
       </filters>
     </filterColumn>
     <filterColumn colId="10" showButton="0"/>
@@ -26075,7 +25981,7 @@
     <filterColumn colId="16" showButton="0"/>
     <filterColumn colId="17" showButton="0"/>
     <filterColumn colId="18" showButton="0"/>
-    <sortState ref="A73:T188">
+    <sortState ref="A15:T197">
       <sortCondition descending="1" ref="B1:B271"/>
     </sortState>
   </autoFilter>

--- a/バックログ/02班スプリントバックログ.xlsx
+++ b/バックログ/02班スプリントバックログ.xlsx
@@ -6718,7 +6718,7 @@
                   <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7250,11 +7250,36 @@
           <c:cat>
             <c:strRef>
               <c:f>'スプリントバックログ(第２）'!$W$70:$W$75</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>野澤</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>杉浦</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>南雲</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'スプリントバックログ(第２）'!$Y$70:$Y$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -7332,11 +7357,36 @@
           <c:cat>
             <c:strRef>
               <c:f>'スプリントバックログ(第２）'!$W$70:$W$75</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>野澤</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>杉浦</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>南雲</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'スプリントバックログ(第２）'!$Z$70:$Z$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -7414,11 +7464,36 @@
           <c:cat>
             <c:strRef>
               <c:f>'スプリントバックログ(第２）'!$W$70:$W$75</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>野澤</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>杉浦</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>南雲</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'スプリントバックログ(第２）'!$X$70:$X$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -7498,11 +7573,36 @@
           <c:cat>
             <c:strRef>
               <c:f>'スプリントバックログ(第２）'!$W$70:$W$75</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>野澤</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>杉浦</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>南雲</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'スプリントバックログ(第２）'!$AB$70:$AB$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -9037,7 +9137,7 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>288</xdr:row>
+      <xdr:row>285</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9069,7 +9169,7 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>642657</xdr:colOff>
-      <xdr:row>297</xdr:row>
+      <xdr:row>294</xdr:row>
       <xdr:rowOff>103687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14957,7 +15057,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R91" sqref="R91"/>
+      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15141,7 +15241,7 @@
       </c>
       <c r="Q4" s="21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="R4" s="21"/>
       <c r="S4" s="21"/>
@@ -15631,7 +15731,7 @@
         <v>118</v>
       </c>
       <c r="E15" s="12" t="str">
-        <f>IF(ISBLANK($C15),"",IF(ISBLANK($G15),"未着手",IF($J15=0,"完了","作業中")))</f>
+        <f t="shared" ref="E15:E51" si="4">IF(ISBLANK($C15),"",IF(ISBLANK($G15),"未着手",IF($J15=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F15" s="4">
@@ -15643,7 +15743,7 @@
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="12">
-        <f ca="1">IF(ISBLANK(K15)=FALSE,OFFSET(J15,0,COUNTA(K15:R15)),"")</f>
+        <f t="shared" ref="J15:J24" ca="1" si="5">IF(ISBLANK(K15)=FALSE,OFFSET(J15,0,COUNTA(K15:R15)),"")</f>
         <v>1</v>
       </c>
       <c r="K15" s="19">
@@ -15683,7 +15783,7 @@
         <v>119</v>
       </c>
       <c r="E16" s="12" t="str">
-        <f>IF(ISBLANK($C16),"",IF(ISBLANK($G16),"未着手",IF($J16=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F16" s="4">
@@ -15695,7 +15795,7 @@
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="12">
-        <f ca="1">IF(ISBLANK(K16)=FALSE,OFFSET(J16,0,COUNTA(K16:R16)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="K16" s="22">
@@ -15735,7 +15835,7 @@
         <v>119</v>
       </c>
       <c r="E17" s="12" t="str">
-        <f>IF(ISBLANK($C17),"",IF(ISBLANK($G17),"未着手",IF($J17=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F17" s="4">
@@ -15747,7 +15847,7 @@
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="12">
-        <f ca="1">IF(ISBLANK(K17)=FALSE,OFFSET(J17,0,COUNTA(K17:R17)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="K17" s="22">
@@ -15787,7 +15887,7 @@
         <v>119</v>
       </c>
       <c r="E18" s="12" t="str">
-        <f>IF(ISBLANK($C18),"",IF(ISBLANK($G18),"未着手",IF($J18=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F18" s="4">
@@ -15799,7 +15899,7 @@
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="12">
-        <f ca="1">IF(ISBLANK(K18)=FALSE,OFFSET(J18,0,COUNTA(K18:R18)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="K18" s="22">
@@ -15839,7 +15939,7 @@
         <v>119</v>
       </c>
       <c r="E19" s="12" t="str">
-        <f>IF(ISBLANK($C19),"",IF(ISBLANK($G19),"未着手",IF($J19=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F19" s="4">
@@ -15851,7 +15951,7 @@
       </c>
       <c r="I19" s="19"/>
       <c r="J19" s="12">
-        <f ca="1">IF(ISBLANK(K19)=FALSE,OFFSET(J19,0,COUNTA(K19:R19)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="K19" s="19">
@@ -15891,7 +15991,7 @@
         <v>119</v>
       </c>
       <c r="E20" s="12" t="str">
-        <f>IF(ISBLANK($C20),"",IF(ISBLANK($G20),"未着手",IF($J20=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F20" s="4">
@@ -15903,7 +16003,7 @@
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="12">
-        <f ca="1">IF(ISBLANK(K20)=FALSE,OFFSET(J20,0,COUNTA(K20:R20)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="K20" s="19">
@@ -15943,7 +16043,7 @@
         <v>119</v>
       </c>
       <c r="E21" s="12" t="str">
-        <f>IF(ISBLANK($C21),"",IF(ISBLANK($G21),"未着手",IF($J21=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F21" s="4">
@@ -15955,7 +16055,7 @@
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="12">
-        <f ca="1">IF(ISBLANK(K21)=FALSE,OFFSET(J21,0,COUNTA(K21:R21)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="K21" s="19">
@@ -15995,7 +16095,7 @@
         <v>119</v>
       </c>
       <c r="E22" s="12" t="str">
-        <f>IF(ISBLANK($C22),"",IF(ISBLANK($G22),"未着手",IF($J22=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F22" s="4">
@@ -16007,7 +16107,7 @@
       </c>
       <c r="I22" s="19"/>
       <c r="J22" s="12">
-        <f ca="1">IF(ISBLANK(K22)=FALSE,OFFSET(J22,0,COUNTA(K22:R22)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="K22" s="19">
@@ -16041,7 +16141,7 @@
       <c r="C23" s="17"/>
       <c r="D23" s="18"/>
       <c r="E23" s="12" t="str">
-        <f>IF(ISBLANK($C23),"",IF(ISBLANK($G23),"未着手",IF($J23=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F23" s="4"/>
@@ -16049,7 +16149,7 @@
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K23)=FALSE,OFFSET(J23,0,COUNTA(K23:R23)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K23" s="22"/>
@@ -16075,7 +16175,7 @@
         <v>119</v>
       </c>
       <c r="E24" s="12" t="str">
-        <f>IF(ISBLANK($C24),"",IF(ISBLANK($G24),"未着手",IF($J24=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F24" s="4">
@@ -16087,7 +16187,7 @@
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="12">
-        <f ca="1">IF(ISBLANK(K24)=FALSE,OFFSET(J24,0,COUNTA(K24:R24)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="K24" s="19">
@@ -16121,7 +16221,7 @@
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
       <c r="E25" s="12" t="str">
-        <f>IF(ISBLANK($C25),"",IF(ISBLANK($G25),"未着手",IF($J25=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F25" s="4"/>
@@ -16152,7 +16252,7 @@
         <v>119</v>
       </c>
       <c r="E26" s="12" t="str">
-        <f>IF(ISBLANK($C26),"",IF(ISBLANK($G26),"未着手",IF($J26=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F26" s="4">
@@ -16164,7 +16264,7 @@
       </c>
       <c r="I26" s="19"/>
       <c r="J26" s="12">
-        <f ca="1">IF(ISBLANK(K26)=FALSE,OFFSET(J26,0,COUNTA(K26:R26)),"")</f>
+        <f t="shared" ref="J26:J46" ca="1" si="6">IF(ISBLANK(K26)=FALSE,OFFSET(J26,0,COUNTA(K26:R26)),"")</f>
         <v>2</v>
       </c>
       <c r="K26" s="19">
@@ -16204,7 +16304,7 @@
         <v>119</v>
       </c>
       <c r="E27" s="12" t="str">
-        <f>IF(ISBLANK($C27),"",IF(ISBLANK($G27),"未着手",IF($J27=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F27" s="4">
@@ -16216,7 +16316,7 @@
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="12">
-        <f ca="1">IF(ISBLANK(K27)=FALSE,OFFSET(J27,0,COUNTA(K27:R27)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="K27" s="19">
@@ -16256,7 +16356,7 @@
         <v>118</v>
       </c>
       <c r="E28" s="12" t="str">
-        <f>IF(ISBLANK($C28),"",IF(ISBLANK($G28),"未着手",IF($J28=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F28" s="4">
@@ -16268,7 +16368,7 @@
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="12">
-        <f ca="1">IF(ISBLANK(K28)=FALSE,OFFSET(J28,0,COUNTA(K28:R28)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="K28" s="19">
@@ -16308,7 +16408,7 @@
         <v>118</v>
       </c>
       <c r="E29" s="12" t="str">
-        <f>IF(ISBLANK($C29),"",IF(ISBLANK($G29),"未着手",IF($J29=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F29" s="4">
@@ -16320,7 +16420,7 @@
       </c>
       <c r="I29" s="19"/>
       <c r="J29" s="12">
-        <f ca="1">IF(ISBLANK(K29)=FALSE,OFFSET(J29,0,COUNTA(K29:R29)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="K29" s="19">
@@ -16360,7 +16460,7 @@
         <v>179</v>
       </c>
       <c r="E30" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C30),"",IF(ISBLANK($G30),"未着手",IF($J30=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F30" s="4">
@@ -16376,7 +16476,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="12">
-        <f ca="1">IF(ISBLANK(K30)=FALSE,OFFSET(J30,0,COUNTA(K30:R30)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K30" s="22">
@@ -16416,7 +16516,7 @@
         <v>179</v>
       </c>
       <c r="E31" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C31),"",IF(ISBLANK($G31),"未着手",IF($J31=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F31" s="4">
@@ -16432,7 +16532,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="12">
-        <f ca="1">IF(ISBLANK(K31)=FALSE,OFFSET(J31,0,COUNTA(K31:R31)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K31" s="22">
@@ -16472,7 +16572,7 @@
         <v>179</v>
       </c>
       <c r="E32" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C32),"",IF(ISBLANK($G32),"未着手",IF($J32=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F32" s="4">
@@ -16488,7 +16588,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="12">
-        <f ca="1">IF(ISBLANK(K32)=FALSE,OFFSET(J32,0,COUNTA(K32:R32)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K32" s="22">
@@ -16528,7 +16628,7 @@
         <v>333</v>
       </c>
       <c r="E33" s="12" t="str">
-        <f>IF(ISBLANK($C33),"",IF(ISBLANK($G33),"未着手",IF($J33=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F33" s="4"/>
@@ -16536,7 +16636,7 @@
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K33)=FALSE,OFFSET(J33,0,COUNTA(K33:R33)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K33" s="19"/>
@@ -16562,7 +16662,7 @@
         <v>179</v>
       </c>
       <c r="E34" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C34),"",IF(ISBLANK($G34),"未着手",IF($J34=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F34" s="4">
@@ -16578,7 +16678,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="12">
-        <f ca="1">IF(ISBLANK(K34)=FALSE,OFFSET(J34,0,COUNTA(K34:R34)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K34" s="22">
@@ -16618,7 +16718,7 @@
         <v>328</v>
       </c>
       <c r="E35" s="12" t="str">
-        <f>IF(ISBLANK($C35),"",IF(ISBLANK($G35),"未着手",IF($J35=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F35" s="4">
@@ -16630,7 +16730,7 @@
       </c>
       <c r="I35" s="19"/>
       <c r="J35" s="12">
-        <f ca="1">IF(ISBLANK(K35)=FALSE,OFFSET(J35,0,COUNTA(K35:R35)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="K35" s="22">
@@ -16670,7 +16770,7 @@
         <v>130</v>
       </c>
       <c r="E36" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C36),"",IF(ISBLANK($G36),"未着手",IF($J36=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>作業中</v>
       </c>
       <c r="F36" s="4">
@@ -16686,7 +16786,7 @@
         <v>3</v>
       </c>
       <c r="J36" s="12">
-        <f ca="1">IF(ISBLANK(K36)=FALSE,OFFSET(J36,0,COUNTA(K36:R36)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="K36" s="22">
@@ -16726,7 +16826,7 @@
         <v>328</v>
       </c>
       <c r="E37" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C37),"",IF(ISBLANK($G37),"未着手",IF($J37=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F37" s="4">
@@ -16740,7 +16840,7 @@
       </c>
       <c r="I37" s="19"/>
       <c r="J37" s="12">
-        <f ca="1">IF(ISBLANK(K37)=FALSE,OFFSET(J37,0,COUNTA(K37:R37)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K37" s="22">
@@ -16782,7 +16882,7 @@
         <v>119</v>
       </c>
       <c r="E38" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C38),"",IF(ISBLANK($G38),"未着手",IF($J38=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F38" s="4">
@@ -16798,7 +16898,7 @@
         <v>4</v>
       </c>
       <c r="J38" s="12">
-        <f ca="1">IF(ISBLANK(K38)=FALSE,OFFSET(J38,0,COUNTA(K38:R38)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K38" s="22">
@@ -16840,7 +16940,7 @@
         <v>119</v>
       </c>
       <c r="E39" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C39),"",IF(ISBLANK($G39),"未着手",IF($J39=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F39" s="4">
@@ -16856,7 +16956,7 @@
         <v>2</v>
       </c>
       <c r="J39" s="12">
-        <f ca="1">IF(ISBLANK(K39)=FALSE,OFFSET(J39,0,COUNTA(K39:R39)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K39" s="22">
@@ -16898,7 +16998,7 @@
         <v>119</v>
       </c>
       <c r="E40" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C40),"",IF(ISBLANK($G40),"未着手",IF($J40=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F40" s="4">
@@ -16914,7 +17014,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="12">
-        <f ca="1">IF(ISBLANK(K40)=FALSE,OFFSET(J40,0,COUNTA(K40:R40)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K40" s="22">
@@ -16954,7 +17054,7 @@
         <v>119</v>
       </c>
       <c r="E41" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C41),"",IF(ISBLANK($G41),"未着手",IF($J41=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F41" s="4">
@@ -16970,7 +17070,7 @@
         <v>2</v>
       </c>
       <c r="J41" s="12">
-        <f ca="1">IF(ISBLANK(K41)=FALSE,OFFSET(J41,0,COUNTA(K41:R41)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K41" s="22">
@@ -17012,7 +17112,7 @@
         <v>130</v>
       </c>
       <c r="E42" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C42),"",IF(ISBLANK($G42),"未着手",IF($J42=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>作業中</v>
       </c>
       <c r="F42" s="4">
@@ -17028,7 +17128,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="12">
-        <f ca="1">IF(ISBLANK(K42)=FALSE,OFFSET(J42,0,COUNTA(K42:R42)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="K42" s="22">
@@ -17068,7 +17168,7 @@
         <v>130</v>
       </c>
       <c r="E43" s="12" t="str">
-        <f>IF(ISBLANK($C43),"",IF(ISBLANK($G43),"未着手",IF($J43=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F43" s="4">
@@ -17080,7 +17180,7 @@
       </c>
       <c r="I43" s="19"/>
       <c r="J43" s="12">
-        <f ca="1">IF(ISBLANK(K43)=FALSE,OFFSET(J43,0,COUNTA(K43:R43)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="K43" s="22">
@@ -17120,7 +17220,7 @@
         <v>130</v>
       </c>
       <c r="E44" s="12" t="str">
-        <f>IF(ISBLANK($C44),"",IF(ISBLANK($G44),"未着手",IF($J44=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F44" s="4">
@@ -17132,7 +17232,7 @@
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="12">
-        <f ca="1">IF(ISBLANK(K44)=FALSE,OFFSET(J44,0,COUNTA(K44:R44)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="K44" s="22">
@@ -17172,7 +17272,7 @@
         <v>130</v>
       </c>
       <c r="E45" s="12" t="str">
-        <f>IF(ISBLANK($C45),"",IF(ISBLANK($G45),"未着手",IF($J45=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F45" s="4">
@@ -17184,7 +17284,7 @@
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="12">
-        <f ca="1">IF(ISBLANK(K45)=FALSE,OFFSET(J45,0,COUNTA(K45:R45)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="K45" s="22">
@@ -17224,7 +17324,7 @@
         <v>130</v>
       </c>
       <c r="E46" s="12" t="str">
-        <f>IF(ISBLANK($C46),"",IF(ISBLANK($G46),"未着手",IF($J46=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F46" s="4">
@@ -17236,7 +17336,7 @@
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="12">
-        <f ca="1">IF(ISBLANK(K46)=FALSE,OFFSET(J46,0,COUNTA(K46:R46)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="K46" s="22">
@@ -17270,7 +17370,7 @@
       <c r="C47" s="17"/>
       <c r="D47" s="18"/>
       <c r="E47" s="12" t="str">
-        <f>IF(ISBLANK($C47),"",IF(ISBLANK($G47),"未着手",IF($J47=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F47" s="4"/>
@@ -17295,7 +17395,7 @@
       <c r="C48" s="17"/>
       <c r="D48" s="18"/>
       <c r="E48" s="12" t="str">
-        <f>IF(ISBLANK($C48),"",IF(ISBLANK($G48),"未着手",IF($J48=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F48" s="4"/>
@@ -17320,7 +17420,7 @@
       <c r="C49" s="17"/>
       <c r="D49" s="18"/>
       <c r="E49" s="12" t="str">
-        <f>IF(ISBLANK($C49),"",IF(ISBLANK($G49),"未着手",IF($J49=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F49" s="4"/>
@@ -17345,7 +17445,7 @@
       <c r="C50" s="17"/>
       <c r="D50" s="18"/>
       <c r="E50" s="12" t="str">
-        <f>IF(ISBLANK($C50),"",IF(ISBLANK($G50),"未着手",IF($J50=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F50" s="4"/>
@@ -17370,7 +17470,7 @@
       <c r="C51" s="17"/>
       <c r="D51" s="18"/>
       <c r="E51" s="12" t="str">
-        <f>IF(ISBLANK($C51),"",IF(ISBLANK($G51),"未着手",IF($J51=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F51" s="4"/>
@@ -17443,7 +17543,7 @@
         <v>130</v>
       </c>
       <c r="E54" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C54),"",IF(ISBLANK($G54),"未着手",IF($J54=0,"完了","作業中")))</f>
+        <f t="shared" ref="E54:E82" ca="1" si="7">IF(ISBLANK($C54),"",IF(ISBLANK($G54),"未着手",IF($J54=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F54" s="4">
@@ -17485,7 +17585,7 @@
         <v>130</v>
       </c>
       <c r="E55" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C55),"",IF(ISBLANK($G55),"未着手",IF($J55=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>完了</v>
       </c>
       <c r="F55" s="4">
@@ -17527,7 +17627,7 @@
         <v>130</v>
       </c>
       <c r="E56" s="12" t="str">
-        <f>IF(ISBLANK($C56),"",IF(ISBLANK($G56),"未着手",IF($J56=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v>完了</v>
       </c>
       <c r="F56" s="4">
@@ -17576,7 +17676,7 @@
         <v>130</v>
       </c>
       <c r="E57" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C57),"",IF(ISBLANK($G57),"未着手",IF($J57=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>完了</v>
       </c>
       <c r="F57" s="4">
@@ -17624,7 +17724,7 @@
         <v>130</v>
       </c>
       <c r="E58" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C58),"",IF(ISBLANK($G58),"未着手",IF($J58=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>完了</v>
       </c>
       <c r="F58" s="4">
@@ -17672,7 +17772,7 @@
         <v>130</v>
       </c>
       <c r="E59" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C59),"",IF(ISBLANK($G59),"未着手",IF($J59=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>完了</v>
       </c>
       <c r="F59" s="4">
@@ -17714,7 +17814,7 @@
         <v>196</v>
       </c>
       <c r="E60" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C60),"",IF(ISBLANK($G60),"未着手",IF($J60=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>完了</v>
       </c>
       <c r="F60" s="4">
@@ -17758,7 +17858,7 @@
       <c r="C61" s="85"/>
       <c r="D61" s="18"/>
       <c r="E61" s="12" t="str">
-        <f>IF(ISBLANK($C61),"",IF(ISBLANK($G61),"未着手",IF($J61=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F61" s="4"/>
@@ -17787,7 +17887,7 @@
         <v>130</v>
       </c>
       <c r="E62" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C62),"",IF(ISBLANK($G62),"未着手",IF($J62=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>完了</v>
       </c>
       <c r="F62" s="4">
@@ -17803,7 +17903,7 @@
         <v>2</v>
       </c>
       <c r="J62" s="12">
-        <f ca="1">IF(ISBLANK(K62)=FALSE,OFFSET(J62,0,COUNTA(K62:R62)),"")</f>
+        <f t="shared" ref="J62:J78" ca="1" si="8">IF(ISBLANK(K62)=FALSE,OFFSET(J62,0,COUNTA(K62:R62)),"")</f>
         <v>0</v>
       </c>
       <c r="K62" s="22">
@@ -17835,7 +17935,7 @@
         <v>130</v>
       </c>
       <c r="E63" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C63),"",IF(ISBLANK($G63),"未着手",IF($J63=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>完了</v>
       </c>
       <c r="F63" s="4">
@@ -17851,7 +17951,7 @@
         <v>2</v>
       </c>
       <c r="J63" s="12">
-        <f ca="1">IF(ISBLANK(K63)=FALSE,OFFSET(J63,0,COUNTA(K63:R63)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K63" s="22">
@@ -17879,7 +17979,7 @@
       <c r="C64" s="85"/>
       <c r="D64" s="18"/>
       <c r="E64" s="12" t="str">
-        <f>IF(ISBLANK($C64),"",IF(ISBLANK($G64),"未着手",IF($J64=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F64" s="4"/>
@@ -17887,7 +17987,7 @@
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K64)=FALSE,OFFSET(J64,0,COUNTA(K64:R64)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K64" s="22"/>
@@ -17901,7 +18001,7 @@
       <c r="S64" s="22"/>
       <c r="T64" s="22"/>
     </row>
-    <row r="65" spans="1:28" hidden="1">
+    <row r="65" spans="1:28">
       <c r="A65" s="16"/>
       <c r="B65" s="16" t="s">
         <v>298</v>
@@ -17913,7 +18013,7 @@
         <v>121</v>
       </c>
       <c r="E65" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C65),"",IF(ISBLANK($G65),"未着手",IF($J65=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>作業中</v>
       </c>
       <c r="F65" s="4">
@@ -17929,7 +18029,7 @@
         <v>4</v>
       </c>
       <c r="J65" s="12">
-        <f ca="1">IF(ISBLANK(K65)=FALSE,OFFSET(J65,0,COUNTA(K65:R65)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="K65" s="22">
@@ -17959,7 +18059,7 @@
       <c r="S65" s="22"/>
       <c r="T65" s="22"/>
     </row>
-    <row r="66" spans="1:28" hidden="1">
+    <row r="66" spans="1:28">
       <c r="A66" s="16"/>
       <c r="B66" s="16" t="s">
         <v>299</v>
@@ -17971,7 +18071,7 @@
         <v>121</v>
       </c>
       <c r="E66" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C66),"",IF(ISBLANK($G66),"未着手",IF($J66=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>作業中</v>
       </c>
       <c r="F66" s="4">
@@ -17987,7 +18087,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="12">
-        <f ca="1">IF(ISBLANK(K66)=FALSE,OFFSET(J66,0,COUNTA(K66:R66)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="K66" s="22">
@@ -18017,7 +18117,7 @@
       <c r="S66" s="22"/>
       <c r="T66" s="22"/>
     </row>
-    <row r="67" spans="1:28" hidden="1">
+    <row r="67" spans="1:28">
       <c r="A67" s="16"/>
       <c r="B67" s="16" t="s">
         <v>316</v>
@@ -18029,7 +18129,7 @@
         <v>121</v>
       </c>
       <c r="E67" s="12" t="str">
-        <f>IF(ISBLANK($C67),"",IF(ISBLANK($G67),"未着手",IF($J67=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="F67" s="4">
@@ -18041,7 +18141,7 @@
       </c>
       <c r="I67" s="19"/>
       <c r="J67" s="12">
-        <f ca="1">IF(ISBLANK(K67)=FALSE,OFFSET(J67,0,COUNTA(K67:R67)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="K67" s="22">
@@ -18069,7 +18169,7 @@
       <c r="S67" s="22"/>
       <c r="T67" s="22"/>
     </row>
-    <row r="68" spans="1:28" hidden="1">
+    <row r="68" spans="1:28">
       <c r="A68" s="16"/>
       <c r="B68" s="16" t="s">
         <v>211</v>
@@ -18081,7 +18181,7 @@
         <v>121</v>
       </c>
       <c r="E68" s="12" t="str">
-        <f>IF(ISBLANK($C68),"",IF(ISBLANK($G68),"未着手",IF($J68=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="F68" s="4">
@@ -18093,7 +18193,7 @@
       </c>
       <c r="I68" s="19"/>
       <c r="J68" s="12">
-        <f ca="1">IF(ISBLANK(K68)=FALSE,OFFSET(J68,0,COUNTA(K68:R68)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="K68" s="22">
@@ -18121,7 +18221,7 @@
       <c r="S68" s="22"/>
       <c r="T68" s="22"/>
     </row>
-    <row r="69" spans="1:28" hidden="1">
+    <row r="69" spans="1:28">
       <c r="A69" s="16"/>
       <c r="B69" s="16" t="s">
         <v>211</v>
@@ -18133,7 +18233,7 @@
         <v>121</v>
       </c>
       <c r="E69" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C69),"",IF(ISBLANK($G69),"未着手",IF($J69=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>作業中</v>
       </c>
       <c r="F69" s="4">
@@ -18149,7 +18249,7 @@
         <v>1</v>
       </c>
       <c r="J69" s="12">
-        <f ca="1">IF(ISBLANK(K69)=FALSE,OFFSET(J69,0,COUNTA(K69:R69)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="K69" s="22">
@@ -18195,7 +18295,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:28" hidden="1">
+    <row r="70" spans="1:28">
       <c r="A70" s="16"/>
       <c r="B70" s="16" t="s">
         <v>211</v>
@@ -18207,7 +18307,7 @@
         <v>121</v>
       </c>
       <c r="E70" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C70),"",IF(ISBLANK($G70),"未着手",IF($J70=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>作業中</v>
       </c>
       <c r="F70" s="4">
@@ -18223,7 +18323,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="12">
-        <f ca="1">IF(ISBLANK(K70)=FALSE,OFFSET(J70,0,COUNTA(K70:R70)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="K70" s="22">
@@ -18254,15 +18354,15 @@
         <v>144</v>
       </c>
       <c r="X70" s="10">
-        <f t="shared" ref="X70:X75" si="4">SUMIF($D$5:$D$214,W70,$H$5:$H$214)</f>
+        <f t="shared" ref="X70:X75" si="9">SUMIF($D$5:$D$214,W70,$H$5:$H$214)</f>
         <v>79</v>
       </c>
       <c r="Y70" s="10">
-        <f t="shared" ref="Y70:Y75" ca="1" si="5">SUMIF($D$5:$D$214,W70,$J$5:$J$214)</f>
+        <f t="shared" ref="Y70:Y75" ca="1" si="10">SUMIF($D$5:$D$214,W70,$J$5:$J$214)</f>
         <v>30</v>
       </c>
       <c r="Z70" s="10">
-        <f t="shared" ref="Z70:Z75" si="6">SUMIF($D$5:$D$214,W70,$I$5:$I$214)</f>
+        <f t="shared" ref="Z70:Z75" si="11">SUMIF($D$5:$D$214,W70,$I$5:$I$214)</f>
         <v>34</v>
       </c>
       <c r="AA70" s="14">
@@ -18274,7 +18374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:28" hidden="1">
+    <row r="71" spans="1:28">
       <c r="A71" s="16"/>
       <c r="B71" s="16" t="s">
         <v>211</v>
@@ -18286,7 +18386,7 @@
         <v>121</v>
       </c>
       <c r="E71" s="12" t="str">
-        <f>IF(ISBLANK($C71),"",IF(ISBLANK($G71),"未着手",IF($J71=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="F71" s="4">
@@ -18298,7 +18398,7 @@
       </c>
       <c r="I71" s="19"/>
       <c r="J71" s="12">
-        <f ca="1">IF(ISBLANK(K71)=FALSE,OFFSET(J71,0,COUNTA(K71:R71)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="K71" s="22">
@@ -18329,27 +18429,27 @@
         <v>145</v>
       </c>
       <c r="X71" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>83</v>
       </c>
       <c r="Y71" s="10">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="10"/>
         <v>16</v>
       </c>
       <c r="Z71" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>46</v>
       </c>
       <c r="AA71" s="14">
-        <f t="shared" ref="AA71:AA75" si="7">COUNTA($K$2:$T$2)*6-COUNTA($K$4:$T$4)*6</f>
+        <f t="shared" ref="AA71:AA75" si="12">COUNTA($K$2:$T$2)*6-COUNTA($K$4:$T$4)*6</f>
         <v>6</v>
       </c>
       <c r="AB71" s="15">
-        <f t="shared" ref="AB71:AB73" ca="1" si="8">IF(AA71&gt;Y71,0,Y71-AA71)</f>
+        <f t="shared" ref="AB71:AB73" ca="1" si="13">IF(AA71&gt;Y71,0,Y71-AA71)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:28" hidden="1">
+    <row r="72" spans="1:28">
       <c r="A72" s="16"/>
       <c r="B72" s="16" t="s">
         <v>211</v>
@@ -18361,7 +18461,7 @@
         <v>121</v>
       </c>
       <c r="E72" s="12" t="str">
-        <f>IF(ISBLANK($C72),"",IF(ISBLANK($G72),"未着手",IF($J72=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="F72" s="4">
@@ -18373,7 +18473,7 @@
       </c>
       <c r="I72" s="19"/>
       <c r="J72" s="12">
-        <f ca="1">IF(ISBLANK(K72)=FALSE,OFFSET(J72,0,COUNTA(K72:R72)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="K72" s="22">
@@ -18404,23 +18504,23 @@
         <v>121</v>
       </c>
       <c r="X72" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
       <c r="Y72" s="10">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="10"/>
         <v>16</v>
       </c>
       <c r="Z72" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="AA72" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AB72" s="15">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>10</v>
       </c>
     </row>
@@ -18436,7 +18536,7 @@
         <v>141</v>
       </c>
       <c r="E73" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C73),"",IF(ISBLANK($G73),"未着手",IF($J73=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>作業中</v>
       </c>
       <c r="F73" s="4">
@@ -18452,7 +18552,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="12">
-        <f ca="1">IF(ISBLANK(K73)=FALSE,OFFSET(J73,0,COUNTA(K73:R73)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v>5</v>
       </c>
       <c r="K73" s="22">
@@ -18483,23 +18583,23 @@
         <v>232</v>
       </c>
       <c r="X73" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="Y73" s="10">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="10"/>
         <v>15</v>
       </c>
       <c r="Z73" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="AA73" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AB73" s="15">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="13"/>
         <v>9</v>
       </c>
     </row>
@@ -18515,7 +18615,7 @@
         <v>201</v>
       </c>
       <c r="E74" s="12" t="str">
-        <f>IF(ISBLANK($C74),"",IF(ISBLANK($G74),"未着手",IF($J74=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="F74" s="4">
@@ -18527,7 +18627,7 @@
       </c>
       <c r="I74" s="19"/>
       <c r="J74" s="12">
-        <f ca="1">IF(ISBLANK(K74)=FALSE,OFFSET(J74,0,COUNTA(K74:R74)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v>3</v>
       </c>
       <c r="K74" s="22">
@@ -18558,24 +18658,24 @@
         <v>234</v>
       </c>
       <c r="X74" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
       <c r="Y74" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>10</v>
       </c>
       <c r="Z74" s="10">
-        <f t="shared" si="6"/>
-        <v>54</v>
+        <f t="shared" si="11"/>
+        <v>55</v>
       </c>
       <c r="AA74" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AB74" s="15">
-        <f t="shared" ref="AB74:AB75" ca="1" si="9">IF(AA74&gt;Y74,0,Y74-AA74)</f>
-        <v>7</v>
+        <f t="shared" ref="AB74:AB75" ca="1" si="14">IF(AA74&gt;Y74,0,Y74-AA74)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:28" hidden="1">
@@ -18590,7 +18690,7 @@
         <v>121</v>
       </c>
       <c r="E75" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C75),"",IF(ISBLANK($G75),"未着手",IF($J75=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>完了</v>
       </c>
       <c r="F75" s="4">
@@ -18604,7 +18704,7 @@
       </c>
       <c r="I75" s="19"/>
       <c r="J75" s="12">
-        <f ca="1">IF(ISBLANK(K75)=FALSE,OFFSET(J75,0,COUNTA(K75:R75)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K75" s="22">
@@ -18637,23 +18737,23 @@
         <v>235</v>
       </c>
       <c r="X75" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="Y75" s="10">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="10"/>
         <v>14</v>
       </c>
       <c r="Z75" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>37</v>
       </c>
       <c r="AA75" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AB75" s="15">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="14"/>
         <v>8</v>
       </c>
     </row>
@@ -18669,7 +18769,7 @@
         <v>141</v>
       </c>
       <c r="E76" s="12" t="str">
-        <f>IF(ISBLANK($C76),"",IF(ISBLANK($G76),"未着手",IF($J76=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v>未着手</v>
       </c>
       <c r="F76" s="4">
@@ -18681,7 +18781,7 @@
       </c>
       <c r="I76" s="19"/>
       <c r="J76" s="12">
-        <f ca="1">IF(ISBLANK(K76)=FALSE,OFFSET(J76,0,COUNTA(K76:R76)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v>2</v>
       </c>
       <c r="K76" s="22">
@@ -18721,7 +18821,7 @@
         <v>181</v>
       </c>
       <c r="E77" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C77),"",IF(ISBLANK($G77),"未着手",IF($J77=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>完了</v>
       </c>
       <c r="F77" s="4">
@@ -18735,7 +18835,7 @@
       </c>
       <c r="I77" s="19"/>
       <c r="J77" s="12">
-        <f ca="1">IF(ISBLANK(K77)=FALSE,OFFSET(J77,0,COUNTA(K77:R77)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K77" s="22">
@@ -18769,7 +18869,7 @@
         <v>181</v>
       </c>
       <c r="E78" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C78),"",IF(ISBLANK($G78),"未着手",IF($J78=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>完了</v>
       </c>
       <c r="F78" s="4">
@@ -18783,7 +18883,7 @@
       </c>
       <c r="I78" s="19"/>
       <c r="J78" s="12">
-        <f ca="1">IF(ISBLANK(K78)=FALSE,OFFSET(J78,0,COUNTA(K78:R78)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="K78" s="22">
@@ -18811,7 +18911,7 @@
       <c r="C79" s="85"/>
       <c r="D79" s="18"/>
       <c r="E79" s="12" t="str">
-        <f>IF(ISBLANK($C79),"",IF(ISBLANK($G79),"未着手",IF($J79=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F79" s="4"/>
@@ -18842,7 +18942,7 @@
         <v>181</v>
       </c>
       <c r="E80" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C80),"",IF(ISBLANK($G80),"未着手",IF($J80=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>完了</v>
       </c>
       <c r="F80" s="4">
@@ -18884,7 +18984,7 @@
       <c r="C81" s="85"/>
       <c r="D81" s="18"/>
       <c r="E81" s="12" t="str">
-        <f>IF(ISBLANK($C81),"",IF(ISBLANK($G81),"未着手",IF($J81=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F81" s="4"/>
@@ -18915,7 +19015,7 @@
         <v>181</v>
       </c>
       <c r="E82" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C82),"",IF(ISBLANK($G82),"未着手",IF($J82=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="7"/>
         <v>完了</v>
       </c>
       <c r="F82" s="4">
@@ -18985,20 +19085,24 @@
         <v>141</v>
       </c>
       <c r="E84" s="12" t="str">
-        <f>IF(ISBLANK($C84),"",IF(ISBLANK($G84),"未着手",IF($J84=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f t="shared" ref="E84:E111" ca="1" si="15">IF(ISBLANK($C84),"",IF(ISBLANK($G84),"未着手",IF($J84=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F84" s="4">
         <v>43073</v>
       </c>
-      <c r="G84" s="4"/>
+      <c r="G84" s="4">
+        <v>43073</v>
+      </c>
       <c r="H84" s="19">
         <v>1</v>
       </c>
-      <c r="I84" s="19"/>
+      <c r="I84" s="19">
+        <v>1</v>
+      </c>
       <c r="J84" s="12">
         <f ca="1">IF(ISBLANK(K84)=FALSE,OFFSET(J84,0,COUNTA(K84:R84)),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84" s="22">
         <v>1</v>
@@ -19019,7 +19123,7 @@
         <v>1</v>
       </c>
       <c r="Q84" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R84" s="22"/>
       <c r="S84" s="22"/>
@@ -19037,7 +19141,7 @@
         <v>181</v>
       </c>
       <c r="E85" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C85),"",IF(ISBLANK($G85),"未着手",IF($J85=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F85" s="4">
@@ -19073,7 +19177,7 @@
       <c r="S85" s="22"/>
       <c r="T85" s="22"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" hidden="1">
       <c r="A86" s="16"/>
       <c r="B86" s="16" t="s">
         <v>316</v>
@@ -19085,7 +19189,7 @@
         <v>192</v>
       </c>
       <c r="E86" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C86),"",IF(ISBLANK($G86),"未着手",IF($J86=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>作業中</v>
       </c>
       <c r="F86" s="4">
@@ -19129,7 +19233,7 @@
       <c r="S86" s="22"/>
       <c r="T86" s="22"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" hidden="1">
       <c r="A87" s="16"/>
       <c r="B87" s="16" t="s">
         <v>285</v>
@@ -19141,7 +19245,7 @@
         <v>140</v>
       </c>
       <c r="E87" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C87),"",IF(ISBLANK($G87),"未着手",IF($J87=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>作業中</v>
       </c>
       <c r="F87" s="4">
@@ -19191,7 +19295,7 @@
       <c r="C88" s="85"/>
       <c r="D88" s="18"/>
       <c r="E88" s="12" t="str">
-        <f>IF(ISBLANK($C88),"",IF(ISBLANK($G88),"未着手",IF($J88=0,"完了","作業中")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F88" s="4"/>
@@ -19216,7 +19320,7 @@
       <c r="C89" s="85"/>
       <c r="D89" s="18"/>
       <c r="E89" s="12" t="str">
-        <f>IF(ISBLANK($C89),"",IF(ISBLANK($G89),"未着手",IF($J89=0,"完了","作業中")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F89" s="4"/>
@@ -19224,7 +19328,7 @@
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
       <c r="J89" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K89)=FALSE,OFFSET(J89,0,COUNTA(K89:R89)),"")</f>
+        <f t="shared" ref="J89:J111" ca="1" si="16">IF(ISBLANK(K89)=FALSE,OFFSET(J89,0,COUNTA(K89:R89)),"")</f>
         <v/>
       </c>
       <c r="K89" s="22"/>
@@ -19244,7 +19348,7 @@
       <c r="C90" s="85"/>
       <c r="D90" s="18"/>
       <c r="E90" s="12" t="str">
-        <f>IF(ISBLANK($C90),"",IF(ISBLANK($G90),"未着手",IF($J90=0,"完了","作業中")))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F90" s="4"/>
@@ -19252,7 +19356,7 @@
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
       <c r="J90" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K90)=FALSE,OFFSET(J90,0,COUNTA(K90:R90)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K90" s="22"/>
@@ -19266,7 +19370,7 @@
       <c r="S90" s="22"/>
       <c r="T90" s="22"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" hidden="1">
       <c r="A91" s="16"/>
       <c r="B91" s="16" t="s">
         <v>290</v>
@@ -19278,7 +19382,7 @@
         <v>140</v>
       </c>
       <c r="E91" s="12" t="str">
-        <f>IF(ISBLANK($C91),"",IF(ISBLANK($G91),"未着手",IF($J91=0,"完了","作業中")))</f>
+        <f t="shared" si="15"/>
         <v>未着手</v>
       </c>
       <c r="F91" s="4">
@@ -19290,7 +19394,7 @@
       </c>
       <c r="I91" s="19"/>
       <c r="J91" s="12">
-        <f ca="1">IF(ISBLANK(K91)=FALSE,OFFSET(J91,0,COUNTA(K91:R91)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="K91" s="22">
@@ -19318,7 +19422,7 @@
       <c r="S91" s="22"/>
       <c r="T91" s="22"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" hidden="1">
       <c r="A92" s="16"/>
       <c r="B92" s="16" t="s">
         <v>285</v>
@@ -19330,7 +19434,7 @@
         <v>140</v>
       </c>
       <c r="E92" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C92),"",IF(ISBLANK($G92),"未着手",IF($J92=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>作業中</v>
       </c>
       <c r="F92" s="4">
@@ -19346,7 +19450,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="12">
-        <f ca="1">IF(ISBLANK(K92)=FALSE,OFFSET(J92,0,COUNTA(K92:R92)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="K92" s="22">
@@ -19384,7 +19488,7 @@
         <v>141</v>
       </c>
       <c r="E93" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C93),"",IF(ISBLANK($G93),"未着手",IF($J93=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F93" s="4">
@@ -19400,7 +19504,7 @@
         <v>5</v>
       </c>
       <c r="J93" s="12">
-        <f ca="1">IF(ISBLANK(K93)=FALSE,OFFSET(J93,0,COUNTA(K93:R93)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="K93" s="22">
@@ -19436,7 +19540,7 @@
         <v>141</v>
       </c>
       <c r="E94" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C94),"",IF(ISBLANK($G94),"未着手",IF($J94=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F94" s="4">
@@ -19452,7 +19556,7 @@
         <v>5</v>
       </c>
       <c r="J94" s="12">
-        <f ca="1">IF(ISBLANK(K94)=FALSE,OFFSET(J94,0,COUNTA(K94:R94)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="K94" s="22">
@@ -19488,7 +19592,7 @@
         <v>141</v>
       </c>
       <c r="E95" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C95),"",IF(ISBLANK($G95),"未着手",IF($J95=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F95" s="4">
@@ -19504,7 +19608,7 @@
         <v>4</v>
       </c>
       <c r="J95" s="12">
-        <f ca="1">IF(ISBLANK(K95)=FALSE,OFFSET(J95,0,COUNTA(K95:R95)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="K95" s="22">
@@ -19542,7 +19646,7 @@
         <v>118</v>
       </c>
       <c r="E96" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C96),"",IF(ISBLANK($G96),"未着手",IF($J96=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>作業中</v>
       </c>
       <c r="F96" s="4">
@@ -19558,7 +19662,7 @@
         <v>1</v>
       </c>
       <c r="J96" s="12">
-        <f ca="1">IF(ISBLANK(K96)=FALSE,OFFSET(J96,0,COUNTA(K96:R96)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v>2</v>
       </c>
       <c r="K96" s="19">
@@ -19596,7 +19700,7 @@
         <v>147</v>
       </c>
       <c r="E97" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C97),"",IF(ISBLANK($G97),"未着手",IF($J97=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F97" s="4">
@@ -19612,7 +19716,7 @@
         <v>3</v>
       </c>
       <c r="J97" s="12">
-        <f ca="1">IF(ISBLANK(K97)=FALSE,OFFSET(J97,0,COUNTA(K97:R97)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="K97" s="22">
@@ -19650,7 +19754,7 @@
         <v>118</v>
       </c>
       <c r="E98" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C98),"",IF(ISBLANK($G98),"未着手",IF($J98=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>作業中</v>
       </c>
       <c r="F98" s="4">
@@ -19664,7 +19768,7 @@
       </c>
       <c r="I98" s="19"/>
       <c r="J98" s="12">
-        <f ca="1">IF(ISBLANK(K98)=FALSE,OFFSET(J98,0,COUNTA(K98:R98)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="K98" s="19">
@@ -19702,7 +19806,7 @@
         <v>201</v>
       </c>
       <c r="E99" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C99),"",IF(ISBLANK($G99),"未着手",IF($J99=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F99" s="4">
@@ -19718,7 +19822,7 @@
         <v>6</v>
       </c>
       <c r="J99" s="12">
-        <f ca="1">IF(ISBLANK(K99)=FALSE,OFFSET(J99,0,COUNTA(K99:R99)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="K99" s="22">
@@ -19756,7 +19860,7 @@
         <v>118</v>
       </c>
       <c r="E100" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C100),"",IF(ISBLANK($G100),"未着手",IF($J100=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>作業中</v>
       </c>
       <c r="F100" s="4">
@@ -19772,7 +19876,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="12">
-        <f ca="1">IF(ISBLANK(K100)=FALSE,OFFSET(J100,0,COUNTA(K100:R100)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v>2</v>
       </c>
       <c r="K100" s="19">
@@ -19810,7 +19914,7 @@
         <v>141</v>
       </c>
       <c r="E101" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C101),"",IF(ISBLANK($G101),"未着手",IF($J101=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F101" s="4">
@@ -19826,7 +19930,7 @@
         <v>6</v>
       </c>
       <c r="J101" s="12">
-        <f ca="1">IF(ISBLANK(K101)=FALSE,OFFSET(J101,0,COUNTA(K101:R101)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="K101" s="22">
@@ -19854,7 +19958,7 @@
         <v>191</v>
       </c>
       <c r="E102" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C102),"",IF(ISBLANK($G102),"未着手",IF($J102=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F102" s="4">
@@ -19870,7 +19974,7 @@
         <v>6</v>
       </c>
       <c r="J102" s="12">
-        <f ca="1">IF(ISBLANK(K102)=FALSE,OFFSET(J102,0,COUNTA(K102:R102)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="K102" s="22">
@@ -19898,7 +20002,7 @@
         <v>141</v>
       </c>
       <c r="E103" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C103),"",IF(ISBLANK($G103),"未着手",IF($J103=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F103" s="4">
@@ -19914,7 +20018,7 @@
         <v>3</v>
       </c>
       <c r="J103" s="12">
-        <f ca="1">IF(ISBLANK(K103)=FALSE,OFFSET(J103,0,COUNTA(K103:R103)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="K103" s="22">
@@ -19946,7 +20050,7 @@
         <v>179</v>
       </c>
       <c r="E104" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C104),"",IF(ISBLANK($G104),"未着手",IF($J104=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>作業中</v>
       </c>
       <c r="F104" s="4">
@@ -19962,7 +20066,7 @@
         <v>2</v>
       </c>
       <c r="J104" s="12">
-        <f ca="1">IF(ISBLANK(K104)=FALSE,OFFSET(J104,0,COUNTA(K104:R104)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="K104" s="22">
@@ -20000,7 +20104,7 @@
         <v>141</v>
       </c>
       <c r="E105" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C105),"",IF(ISBLANK($G105),"未着手",IF($J105=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F105" s="4">
@@ -20016,7 +20120,7 @@
         <v>1</v>
       </c>
       <c r="J105" s="12">
-        <f ca="1">IF(ISBLANK(K105)=FALSE,OFFSET(J105,0,COUNTA(K105:R105)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="K105" s="22">
@@ -20054,7 +20158,7 @@
         <v>141</v>
       </c>
       <c r="E106" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C106),"",IF(ISBLANK($G106),"未着手",IF($J106=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F106" s="4">
@@ -20070,7 +20174,7 @@
         <v>1</v>
       </c>
       <c r="J106" s="12">
-        <f ca="1">IF(ISBLANK(K106)=FALSE,OFFSET(J106,0,COUNTA(K106:R106)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="K106" s="22">
@@ -20108,7 +20212,7 @@
         <v>141</v>
       </c>
       <c r="E107" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C107),"",IF(ISBLANK($G107),"未着手",IF($J107=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F107" s="4">
@@ -20124,7 +20228,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="12">
-        <f ca="1">IF(ISBLANK(K107)=FALSE,OFFSET(J107,0,COUNTA(K107:R107)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="K107" s="22">
@@ -20162,7 +20266,7 @@
         <v>141</v>
       </c>
       <c r="E108" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C108),"",IF(ISBLANK($G108),"未着手",IF($J108=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F108" s="4">
@@ -20178,7 +20282,7 @@
         <v>2</v>
       </c>
       <c r="J108" s="12">
-        <f ca="1">IF(ISBLANK(K108)=FALSE,OFFSET(J108,0,COUNTA(K108:R108)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="K108" s="22">
@@ -20214,7 +20318,7 @@
         <v>141</v>
       </c>
       <c r="E109" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C109),"",IF(ISBLANK($G109),"未着手",IF($J109=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F109" s="4">
@@ -20230,7 +20334,7 @@
         <v>2</v>
       </c>
       <c r="J109" s="12">
-        <f ca="1">IF(ISBLANK(K109)=FALSE,OFFSET(J109,0,COUNTA(K109:R109)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="K109" s="22">
@@ -20266,7 +20370,7 @@
         <v>141</v>
       </c>
       <c r="E110" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C110),"",IF(ISBLANK($G110),"未着手",IF($J110=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F110" s="4">
@@ -20282,7 +20386,7 @@
         <v>2</v>
       </c>
       <c r="J110" s="12">
-        <f ca="1">IF(ISBLANK(K110)=FALSE,OFFSET(J110,0,COUNTA(K110:R110)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="K110" s="22">
@@ -20320,7 +20424,7 @@
         <v>179</v>
       </c>
       <c r="E111" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C111),"",IF(ISBLANK($G111),"未着手",IF($J111=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="15"/>
         <v>作業中</v>
       </c>
       <c r="F111" s="4">
@@ -20336,7 +20440,7 @@
         <v>3</v>
       </c>
       <c r="J111" s="12">
-        <f ca="1">IF(ISBLANK(K111)=FALSE,OFFSET(J111,0,COUNTA(K111:R111)),"")</f>
+        <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="K111" s="22">
@@ -20458,7 +20562,7 @@
       <c r="C116" s="17"/>
       <c r="D116" s="18"/>
       <c r="E116" s="12" t="str">
-        <f>IF(ISBLANK($C116),"",IF(ISBLANK($G116),"未着手",IF($J116=0,"完了","作業中")))</f>
+        <f t="shared" ref="E116:E145" si="17">IF(ISBLANK($C116),"",IF(ISBLANK($G116),"未着手",IF($J116=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F116" s="4"/>
@@ -20466,7 +20570,7 @@
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
       <c r="J116" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K116)=FALSE,OFFSET(J116,0,COUNTA(K116:R116)),"")</f>
+        <f t="shared" ref="J116:J137" ca="1" si="18">IF(ISBLANK(K116)=FALSE,OFFSET(J116,0,COUNTA(K116:R116)),"")</f>
         <v/>
       </c>
       <c r="K116" s="22"/>
@@ -20490,7 +20594,7 @@
         <v>140</v>
       </c>
       <c r="E117" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C117),"",IF(ISBLANK($G117),"未着手",IF($J117=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>完了</v>
       </c>
       <c r="F117" s="4">
@@ -20506,7 +20610,7 @@
         <v>3</v>
       </c>
       <c r="J117" s="12">
-        <f ca="1">IF(ISBLANK(K117)=FALSE,OFFSET(J117,0,COUNTA(K117:R117)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K117" s="22">
@@ -20528,7 +20632,7 @@
       <c r="S117" s="22"/>
       <c r="T117" s="22"/>
     </row>
-    <row r="118" spans="1:20" hidden="1">
+    <row r="118" spans="1:20">
       <c r="A118" s="16"/>
       <c r="B118" s="16" t="s">
         <v>285</v>
@@ -20540,7 +20644,7 @@
         <v>121</v>
       </c>
       <c r="E118" s="12" t="str">
-        <f>IF(ISBLANK($C118),"",IF(ISBLANK($G118),"未着手",IF($J118=0,"完了","作業中")))</f>
+        <f t="shared" si="17"/>
         <v>未着手</v>
       </c>
       <c r="F118" s="4">
@@ -20552,7 +20656,7 @@
       </c>
       <c r="I118" s="19"/>
       <c r="J118" s="12">
-        <f ca="1">IF(ISBLANK(K118)=FALSE,OFFSET(J118,0,COUNTA(K118:R118)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="K118" s="22">
@@ -20592,7 +20696,7 @@
         <v>140</v>
       </c>
       <c r="E119" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C119),"",IF(ISBLANK($G119),"未着手",IF($J119=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>完了</v>
       </c>
       <c r="F119" s="4">
@@ -20608,7 +20712,7 @@
         <v>1</v>
       </c>
       <c r="J119" s="12">
-        <f ca="1">IF(ISBLANK(K119)=FALSE,OFFSET(J119,0,COUNTA(K119:R119)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K119" s="22">
@@ -20636,7 +20740,7 @@
       <c r="S119" s="22"/>
       <c r="T119" s="22"/>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" hidden="1">
       <c r="A120" s="16"/>
       <c r="B120" s="16" t="s">
         <v>321</v>
@@ -20648,7 +20752,7 @@
         <v>140</v>
       </c>
       <c r="E120" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C120),"",IF(ISBLANK($G120),"未着手",IF($J120=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>作業中</v>
       </c>
       <c r="F120" s="4">
@@ -20662,7 +20766,7 @@
       </c>
       <c r="I120" s="19"/>
       <c r="J120" s="12">
-        <f ca="1">IF(ISBLANK(K120)=FALSE,OFFSET(J120,0,COUNTA(K120:R120)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>1</v>
       </c>
       <c r="K120" s="22">
@@ -20690,7 +20794,7 @@
       <c r="S120" s="22"/>
       <c r="T120" s="22"/>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" hidden="1">
       <c r="A121" s="16"/>
       <c r="B121" s="16" t="s">
         <v>323</v>
@@ -20702,7 +20806,7 @@
         <v>140</v>
       </c>
       <c r="E121" s="12" t="str">
-        <f>IF(ISBLANK($C121),"",IF(ISBLANK($G121),"未着手",IF($J121=0,"完了","作業中")))</f>
+        <f t="shared" si="17"/>
         <v>未着手</v>
       </c>
       <c r="F121" s="4">
@@ -20714,7 +20818,7 @@
       </c>
       <c r="I121" s="19"/>
       <c r="J121" s="12">
-        <f ca="1">IF(ISBLANK(K121)=FALSE,OFFSET(J121,0,COUNTA(K121:R121)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>3</v>
       </c>
       <c r="K121" s="22">
@@ -20754,7 +20858,7 @@
         <v>118</v>
       </c>
       <c r="E122" s="12" t="str">
-        <f>IF(ISBLANK($C122),"",IF(ISBLANK($G122),"未着手",IF($J122=0,"完了","作業中")))</f>
+        <f t="shared" si="17"/>
         <v>未着手</v>
       </c>
       <c r="F122" s="4">
@@ -20766,7 +20870,7 @@
       </c>
       <c r="I122" s="19"/>
       <c r="J122" s="12">
-        <f ca="1">IF(ISBLANK(K122)=FALSE,OFFSET(J122,0,COUNTA(K122:R122)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>2</v>
       </c>
       <c r="K122" s="19">
@@ -20806,7 +20910,7 @@
         <v>140</v>
       </c>
       <c r="E123" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C123),"",IF(ISBLANK($G123),"未着手",IF($J123=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>完了</v>
       </c>
       <c r="F123" s="4">
@@ -20822,7 +20926,7 @@
         <v>1</v>
       </c>
       <c r="J123" s="12">
-        <f ca="1">IF(ISBLANK(K123)=FALSE,OFFSET(J123,0,COUNTA(K123:R123)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K123" s="22">
@@ -20862,7 +20966,7 @@
         <v>140</v>
       </c>
       <c r="E124" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C124),"",IF(ISBLANK($G124),"未着手",IF($J124=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>完了</v>
       </c>
       <c r="F124" s="4">
@@ -20878,7 +20982,7 @@
         <v>1</v>
       </c>
       <c r="J124" s="12">
-        <f ca="1">IF(ISBLANK(K124)=FALSE,OFFSET(J124,0,COUNTA(K124:R124)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K124" s="22">
@@ -20918,7 +21022,7 @@
         <v>140</v>
       </c>
       <c r="E125" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C125),"",IF(ISBLANK($G125),"未着手",IF($J125=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>完了</v>
       </c>
       <c r="F125" s="4">
@@ -20934,7 +21038,7 @@
         <v>1</v>
       </c>
       <c r="J125" s="12">
-        <f ca="1">IF(ISBLANK(K125)=FALSE,OFFSET(J125,0,COUNTA(K125:R125)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K125" s="22">
@@ -20974,7 +21078,7 @@
         <v>140</v>
       </c>
       <c r="E126" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C126),"",IF(ISBLANK($G126),"未着手",IF($J126=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>完了</v>
       </c>
       <c r="F126" s="4">
@@ -20990,7 +21094,7 @@
         <v>1</v>
       </c>
       <c r="J126" s="12">
-        <f ca="1">IF(ISBLANK(K126)=FALSE,OFFSET(J126,0,COUNTA(K126:R126)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K126" s="22">
@@ -21028,7 +21132,7 @@
         <v>157</v>
       </c>
       <c r="E127" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C127),"",IF(ISBLANK($G127),"未着手",IF($J127=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>完了</v>
       </c>
       <c r="F127" s="4">
@@ -21044,7 +21148,7 @@
         <v>6</v>
       </c>
       <c r="J127" s="12">
-        <f ca="1">IF(ISBLANK(K127)=FALSE,OFFSET(J127,0,COUNTA(K127:R127)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K127" s="22">
@@ -21078,7 +21182,7 @@
         <v>140</v>
       </c>
       <c r="E128" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C128),"",IF(ISBLANK($G128),"未着手",IF($J128=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>完了</v>
       </c>
       <c r="F128" s="4">
@@ -21094,7 +21198,7 @@
         <v>3</v>
       </c>
       <c r="J128" s="12">
-        <f ca="1">IF(ISBLANK(K128)=FALSE,OFFSET(J128,0,COUNTA(K128:R128)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K128" s="22">
@@ -21128,7 +21232,7 @@
         <v>140</v>
       </c>
       <c r="E129" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C129),"",IF(ISBLANK($G129),"未着手",IF($J129=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>完了</v>
       </c>
       <c r="F129" s="4">
@@ -21144,7 +21248,7 @@
         <v>3</v>
       </c>
       <c r="J129" s="12">
-        <f ca="1">IF(ISBLANK(K129)=FALSE,OFFSET(J129,0,COUNTA(K129:R129)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K129" s="22">
@@ -21178,7 +21282,7 @@
         <v>235</v>
       </c>
       <c r="E130" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C130),"",IF(ISBLANK($G130),"未着手",IF($J130=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>完了</v>
       </c>
       <c r="F130" s="4">
@@ -21194,7 +21298,7 @@
         <v>1</v>
       </c>
       <c r="J130" s="12">
-        <f ca="1">IF(ISBLANK(K130)=FALSE,OFFSET(J130,0,COUNTA(K130:R130)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K130" s="22">
@@ -21230,7 +21334,7 @@
         <v>140</v>
       </c>
       <c r="E131" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C131),"",IF(ISBLANK($G131),"未着手",IF($J131=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>完了</v>
       </c>
       <c r="F131" s="4">
@@ -21246,7 +21350,7 @@
         <v>2</v>
       </c>
       <c r="J131" s="12">
-        <f ca="1">IF(ISBLANK(K131)=FALSE,OFFSET(J131,0,COUNTA(K131:R131)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K131" s="22">
@@ -21280,7 +21384,7 @@
         <v>140</v>
       </c>
       <c r="E132" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C132),"",IF(ISBLANK($G132),"未着手",IF($J132=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>完了</v>
       </c>
       <c r="F132" s="4">
@@ -21296,7 +21400,7 @@
         <v>2</v>
       </c>
       <c r="J132" s="12">
-        <f ca="1">IF(ISBLANK(K132)=FALSE,OFFSET(J132,0,COUNTA(K132:R132)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K132" s="22">
@@ -21330,7 +21434,7 @@
         <v>140</v>
       </c>
       <c r="E133" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C133),"",IF(ISBLANK($G133),"未着手",IF($J133=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>完了</v>
       </c>
       <c r="F133" s="4">
@@ -21346,7 +21450,7 @@
         <v>1</v>
       </c>
       <c r="J133" s="12">
-        <f ca="1">IF(ISBLANK(K133)=FALSE,OFFSET(J133,0,COUNTA(K133:R133)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K133" s="22">
@@ -21386,7 +21490,7 @@
         <v>140</v>
       </c>
       <c r="E134" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C134),"",IF(ISBLANK($G134),"未着手",IF($J134=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>完了</v>
       </c>
       <c r="F134" s="4">
@@ -21402,7 +21506,7 @@
         <v>1</v>
       </c>
       <c r="J134" s="12">
-        <f ca="1">IF(ISBLANK(K134)=FALSE,OFFSET(J134,0,COUNTA(K134:R134)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K134" s="22">
@@ -21442,7 +21546,7 @@
         <v>140</v>
       </c>
       <c r="E135" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C135),"",IF(ISBLANK($G135),"未着手",IF($J135=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>完了</v>
       </c>
       <c r="F135" s="4">
@@ -21458,7 +21562,7 @@
         <v>1</v>
       </c>
       <c r="J135" s="12">
-        <f ca="1">IF(ISBLANK(K135)=FALSE,OFFSET(J135,0,COUNTA(K135:R135)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K135" s="22">
@@ -21498,7 +21602,7 @@
         <v>140</v>
       </c>
       <c r="E136" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C136),"",IF(ISBLANK($G136),"未着手",IF($J136=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>完了</v>
       </c>
       <c r="F136" s="4">
@@ -21514,7 +21618,7 @@
         <v>1</v>
       </c>
       <c r="J136" s="12">
-        <f ca="1">IF(ISBLANK(K136)=FALSE,OFFSET(J136,0,COUNTA(K136:R136)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K136" s="22">
@@ -21554,7 +21658,7 @@
         <v>140</v>
       </c>
       <c r="E137" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C137),"",IF(ISBLANK($G137),"未着手",IF($J137=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>完了</v>
       </c>
       <c r="F137" s="4">
@@ -21570,7 +21674,7 @@
         <v>1</v>
       </c>
       <c r="J137" s="12">
-        <f ca="1">IF(ISBLANK(K137)=FALSE,OFFSET(J137,0,COUNTA(K137:R137)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K137" s="22">
@@ -21610,7 +21714,7 @@
         <v>292</v>
       </c>
       <c r="E138" s="12" t="str">
-        <f>IF(ISBLANK($C138),"",IF(ISBLANK($G138),"未着手",IF($J138=0,"完了","作業中")))</f>
+        <f t="shared" si="17"/>
         <v>未着手</v>
       </c>
       <c r="F138" s="4">
@@ -21661,7 +21765,7 @@
         <v>119</v>
       </c>
       <c r="E139" s="12" t="str">
-        <f>IF(ISBLANK($C139),"",IF(ISBLANK($G139),"未着手",IF($J139=0,"完了","作業中")))</f>
+        <f t="shared" si="17"/>
         <v>未着手</v>
       </c>
       <c r="F139" s="4">
@@ -21713,7 +21817,7 @@
         <v>119</v>
       </c>
       <c r="E140" s="12" t="str">
-        <f>IF(ISBLANK($C140),"",IF(ISBLANK($G140),"未着手",IF($J140=0,"完了","作業中")))</f>
+        <f t="shared" si="17"/>
         <v>未着手</v>
       </c>
       <c r="F140" s="4">
@@ -21759,7 +21863,7 @@
       <c r="C141" s="107"/>
       <c r="D141" s="18"/>
       <c r="E141" s="12" t="str">
-        <f>IF(ISBLANK($C141),"",IF(ISBLANK($G141),"未着手",IF($J141=0,"完了","作業中")))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="F141" s="4"/>
@@ -21790,7 +21894,7 @@
         <v>140</v>
       </c>
       <c r="E142" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C142),"",IF(ISBLANK($G142),"未着手",IF($J142=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>完了</v>
       </c>
       <c r="F142" s="4">
@@ -21846,7 +21950,7 @@
         <v>140</v>
       </c>
       <c r="E143" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C143),"",IF(ISBLANK($G143),"未着手",IF($J143=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>完了</v>
       </c>
       <c r="F143" s="4">
@@ -21902,7 +22006,7 @@
         <v>119</v>
       </c>
       <c r="E144" s="12" t="str">
-        <f>IF(ISBLANK($C144),"",IF(ISBLANK($G144),"未着手",IF($J144=0,"完了","作業中")))</f>
+        <f t="shared" si="17"/>
         <v>未着手</v>
       </c>
       <c r="F144" s="4">
@@ -21954,7 +22058,7 @@
         <v>140</v>
       </c>
       <c r="E145" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C145),"",IF(ISBLANK($G145),"未着手",IF($J145=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="17"/>
         <v>完了</v>
       </c>
       <c r="F145" s="4">
@@ -22098,7 +22202,7 @@
         <v>179</v>
       </c>
       <c r="E150" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C150),"",IF(ISBLANK($G150),"未着手",IF($J150=0,"完了","作業中")))</f>
+        <f t="shared" ref="E150:E168" ca="1" si="19">IF(ISBLANK($C150),"",IF(ISBLANK($G150),"未着手",IF($J150=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F150" s="4">
@@ -22114,7 +22218,7 @@
         <v>1</v>
       </c>
       <c r="J150" s="12">
-        <f ca="1">IF(ISBLANK(K150)=FALSE,OFFSET(J150,0,COUNTA(K150:R150)),"")</f>
+        <f t="shared" ref="J150:J168" ca="1" si="20">IF(ISBLANK(K150)=FALSE,OFFSET(J150,0,COUNTA(K150:R150)),"")</f>
         <v>0</v>
       </c>
       <c r="K150" s="22">
@@ -22150,7 +22254,7 @@
         <v>179</v>
       </c>
       <c r="E151" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C151),"",IF(ISBLANK($G151),"未着手",IF($J151=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F151" s="4">
@@ -22166,7 +22270,7 @@
         <v>1</v>
       </c>
       <c r="J151" s="12">
-        <f ca="1">IF(ISBLANK(K151)=FALSE,OFFSET(J151,0,COUNTA(K151:R151)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="K151" s="22">
@@ -22202,7 +22306,7 @@
         <v>179</v>
       </c>
       <c r="E152" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C152),"",IF(ISBLANK($G152),"未着手",IF($J152=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F152" s="4">
@@ -22218,7 +22322,7 @@
         <v>1</v>
       </c>
       <c r="J152" s="12">
-        <f ca="1">IF(ISBLANK(K152)=FALSE,OFFSET(J152,0,COUNTA(K152:R152)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="K152" s="22">
@@ -22254,7 +22358,7 @@
         <v>179</v>
       </c>
       <c r="E153" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C153),"",IF(ISBLANK($G153),"未着手",IF($J153=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F153" s="4">
@@ -22270,7 +22374,7 @@
         <v>1</v>
       </c>
       <c r="J153" s="12">
-        <f ca="1">IF(ISBLANK(K153)=FALSE,OFFSET(J153,0,COUNTA(K153:R153)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="K153" s="22">
@@ -22306,7 +22410,7 @@
         <v>179</v>
       </c>
       <c r="E154" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C154),"",IF(ISBLANK($G154),"未着手",IF($J154=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F154" s="4">
@@ -22322,7 +22426,7 @@
         <v>1</v>
       </c>
       <c r="J154" s="12">
-        <f ca="1">IF(ISBLANK(K154)=FALSE,OFFSET(J154,0,COUNTA(K154:R154)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="K154" s="22">
@@ -22358,7 +22462,7 @@
         <v>179</v>
       </c>
       <c r="E155" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C155),"",IF(ISBLANK($G155),"未着手",IF($J155=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F155" s="4">
@@ -22374,7 +22478,7 @@
         <v>1</v>
       </c>
       <c r="J155" s="12">
-        <f ca="1">IF(ISBLANK(K155)=FALSE,OFFSET(J155,0,COUNTA(K155:R155)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="K155" s="22">
@@ -22410,7 +22514,7 @@
         <v>179</v>
       </c>
       <c r="E156" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C156),"",IF(ISBLANK($G156),"未着手",IF($J156=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F156" s="4">
@@ -22426,7 +22530,7 @@
         <v>1</v>
       </c>
       <c r="J156" s="12">
-        <f ca="1">IF(ISBLANK(K156)=FALSE,OFFSET(J156,0,COUNTA(K156:R156)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="K156" s="22">
@@ -22462,7 +22566,7 @@
         <v>179</v>
       </c>
       <c r="E157" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C157),"",IF(ISBLANK($G157),"未着手",IF($J157=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F157" s="4">
@@ -22478,7 +22582,7 @@
         <v>1</v>
       </c>
       <c r="J157" s="12">
-        <f ca="1">IF(ISBLANK(K157)=FALSE,OFFSET(J157,0,COUNTA(K157:R157)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="K157" s="22">
@@ -22514,7 +22618,7 @@
         <v>119</v>
       </c>
       <c r="E158" s="12" t="str">
-        <f>IF(ISBLANK($C158),"",IF(ISBLANK($G158),"未着手",IF($J158=0,"完了","作業中")))</f>
+        <f t="shared" si="19"/>
         <v>未着手</v>
       </c>
       <c r="F158" s="4">
@@ -22526,7 +22630,7 @@
       </c>
       <c r="I158" s="19"/>
       <c r="J158" s="12">
-        <f ca="1">IF(ISBLANK(K158)=FALSE,OFFSET(J158,0,COUNTA(K158:R158)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>2</v>
       </c>
       <c r="K158" s="19">
@@ -22566,7 +22670,7 @@
         <v>130</v>
       </c>
       <c r="E159" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C159),"",IF(ISBLANK($G159),"未着手",IF($J159=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>作業中</v>
       </c>
       <c r="F159" s="4">
@@ -22582,7 +22686,7 @@
         <v>1</v>
       </c>
       <c r="J159" s="12">
-        <f ca="1">IF(ISBLANK(K159)=FALSE,OFFSET(J159,0,COUNTA(K159:R159)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>3</v>
       </c>
       <c r="K159" s="22">
@@ -22622,7 +22726,7 @@
         <v>118</v>
       </c>
       <c r="E160" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C160),"",IF(ISBLANK($G160),"未着手",IF($J160=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F160" s="4">
@@ -22638,7 +22742,7 @@
         <v>2</v>
       </c>
       <c r="J160" s="12">
-        <f ca="1">IF(ISBLANK(K160)=FALSE,OFFSET(J160,0,COUNTA(K160:R160)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="K160" s="19">
@@ -22678,7 +22782,7 @@
         <v>130</v>
       </c>
       <c r="E161" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C161),"",IF(ISBLANK($G161),"未着手",IF($J161=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>作業中</v>
       </c>
       <c r="F161" s="4">
@@ -22694,7 +22798,7 @@
         <v>1</v>
       </c>
       <c r="J161" s="12">
-        <f ca="1">IF(ISBLANK(K161)=FALSE,OFFSET(J161,0,COUNTA(K161:R161)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="K161" s="22">
@@ -22734,8 +22838,8 @@
         <v>141</v>
       </c>
       <c r="E162" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C162),"",IF(ISBLANK($G162),"未着手",IF($J162=0,"完了","作業中")))</f>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>完了</v>
       </c>
       <c r="F162" s="4">
         <v>43053</v>
@@ -22750,8 +22854,8 @@
         <v>6</v>
       </c>
       <c r="J162" s="12">
-        <f ca="1">IF(ISBLANK(K162)=FALSE,OFFSET(J162,0,COUNTA(K162:R162)),"")</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0</v>
       </c>
       <c r="K162" s="22">
         <v>6</v>
@@ -22772,13 +22876,13 @@
         <v>2</v>
       </c>
       <c r="Q162" s="22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R162" s="22"/>
       <c r="S162" s="22"/>
       <c r="T162" s="22"/>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" hidden="1">
       <c r="A163" s="16"/>
       <c r="B163" s="16" t="s">
         <v>319</v>
@@ -22790,7 +22894,7 @@
         <v>140</v>
       </c>
       <c r="E163" s="12" t="str">
-        <f>IF(ISBLANK($C163),"",IF(ISBLANK($G163),"未着手",IF($J163=0,"完了","作業中")))</f>
+        <f t="shared" si="19"/>
         <v>未着手</v>
       </c>
       <c r="F163" s="4">
@@ -22802,7 +22906,7 @@
       </c>
       <c r="I163" s="19"/>
       <c r="J163" s="12">
-        <f ca="1">IF(ISBLANK(K163)=FALSE,OFFSET(J163,0,COUNTA(K163:R163)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>3</v>
       </c>
       <c r="K163" s="22">
@@ -22830,7 +22934,7 @@
       <c r="S163" s="22"/>
       <c r="T163" s="22"/>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" hidden="1">
       <c r="A164" s="16"/>
       <c r="B164" s="16" t="s">
         <v>286</v>
@@ -22842,7 +22946,7 @@
         <v>140</v>
       </c>
       <c r="E164" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C164),"",IF(ISBLANK($G164),"未着手",IF($J164=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>作業中</v>
       </c>
       <c r="F164" s="4">
@@ -22858,7 +22962,7 @@
         <v>1</v>
       </c>
       <c r="J164" s="12">
-        <f ca="1">IF(ISBLANK(K164)=FALSE,OFFSET(J164,0,COUNTA(K164:R164)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>1</v>
       </c>
       <c r="K164" s="22">
@@ -22898,7 +23002,7 @@
         <v>179</v>
       </c>
       <c r="E165" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C165),"",IF(ISBLANK($G165),"未着手",IF($J165=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F165" s="4">
@@ -22914,7 +23018,7 @@
         <v>1</v>
       </c>
       <c r="J165" s="12">
-        <f ca="1">IF(ISBLANK(K165)=FALSE,OFFSET(J165,0,COUNTA(K165:R165)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="K165" s="22">
@@ -22950,7 +23054,7 @@
         <v>179</v>
       </c>
       <c r="E166" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C166),"",IF(ISBLANK($G166),"未着手",IF($J166=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F166" s="4">
@@ -22966,7 +23070,7 @@
         <v>1</v>
       </c>
       <c r="J166" s="12">
-        <f ca="1">IF(ISBLANK(K166)=FALSE,OFFSET(J166,0,COUNTA(K166:R166)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="K166" s="22">
@@ -23002,7 +23106,7 @@
         <v>179</v>
       </c>
       <c r="E167" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C167),"",IF(ISBLANK($G167),"未着手",IF($J167=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F167" s="4">
@@ -23018,7 +23122,7 @@
         <v>1</v>
       </c>
       <c r="J167" s="12">
-        <f ca="1">IF(ISBLANK(K167)=FALSE,OFFSET(J167,0,COUNTA(K167:R167)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="K167" s="22">
@@ -23054,7 +23158,7 @@
         <v>179</v>
       </c>
       <c r="E168" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C168),"",IF(ISBLANK($G168),"未着手",IF($J168=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F168" s="4">
@@ -23070,7 +23174,7 @@
         <v>1</v>
       </c>
       <c r="J168" s="12">
-        <f ca="1">IF(ISBLANK(K168)=FALSE,OFFSET(J168,0,COUNTA(K168:R168)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="K168" s="22">
@@ -23152,7 +23256,7 @@
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
       <c r="J171" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K171)=FALSE,OFFSET(J171,0,COUNTA(K171:R171)),"")</f>
+        <f t="shared" ref="J171:J179" ca="1" si="21">IF(ISBLANK(K171)=FALSE,OFFSET(J171,0,COUNTA(K171:R171)),"")</f>
         <v/>
       </c>
       <c r="K171" s="22"/>
@@ -23177,7 +23281,7 @@
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
       <c r="J172" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K172)=FALSE,OFFSET(J172,0,COUNTA(K172:R172)),"")</f>
+        <f t="shared" ca="1" si="21"/>
         <v/>
       </c>
       <c r="K172" s="22"/>
@@ -23203,7 +23307,7 @@
         <v>121</v>
       </c>
       <c r="E173" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C173),"",IF(ISBLANK($G173),"未着手",IF($J173=0,"完了","作業中")))</f>
+        <f t="shared" ref="E173:E190" ca="1" si="22">IF(ISBLANK($C173),"",IF(ISBLANK($G173),"未着手",IF($J173=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F173" s="4">
@@ -23219,7 +23323,7 @@
         <v>2</v>
       </c>
       <c r="J173" s="12">
-        <f ca="1">IF(ISBLANK(K173)=FALSE,OFFSET(J173,0,COUNTA(K173:R173)),"")</f>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="K173" s="22">
@@ -23257,7 +23361,7 @@
         <v>121</v>
       </c>
       <c r="E174" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C174),"",IF(ISBLANK($G174),"未着手",IF($J174=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="22"/>
         <v>完了</v>
       </c>
       <c r="F174" s="4">
@@ -23273,7 +23377,7 @@
         <v>2</v>
       </c>
       <c r="J174" s="12">
-        <f ca="1">IF(ISBLANK(K174)=FALSE,OFFSET(J174,0,COUNTA(K174:R174)),"")</f>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="K174" s="22">
@@ -23311,7 +23415,7 @@
         <v>121</v>
       </c>
       <c r="E175" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C175),"",IF(ISBLANK($G175),"未着手",IF($J175=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="22"/>
         <v>完了</v>
       </c>
       <c r="F175" s="4">
@@ -23327,7 +23431,7 @@
         <v>2</v>
       </c>
       <c r="J175" s="12">
-        <f ca="1">IF(ISBLANK(K175)=FALSE,OFFSET(J175,0,COUNTA(K175:R175)),"")</f>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="K175" s="22">
@@ -23365,7 +23469,7 @@
         <v>121</v>
       </c>
       <c r="E176" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C176),"",IF(ISBLANK($G176),"未着手",IF($J176=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="22"/>
         <v>完了</v>
       </c>
       <c r="F176" s="4">
@@ -23381,7 +23485,7 @@
         <v>2</v>
       </c>
       <c r="J176" s="12">
-        <f ca="1">IF(ISBLANK(K176)=FALSE,OFFSET(J176,0,COUNTA(K176:R176)),"")</f>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="K176" s="22">
@@ -23419,7 +23523,7 @@
         <v>179</v>
       </c>
       <c r="E177" s="12" t="str">
-        <f>IF(ISBLANK($C177),"",IF(ISBLANK($G177),"未着手",IF($J177=0,"完了","作業中")))</f>
+        <f t="shared" si="22"/>
         <v>未着手</v>
       </c>
       <c r="F177" s="4">
@@ -23431,7 +23535,7 @@
       </c>
       <c r="I177" s="19"/>
       <c r="J177" s="12">
-        <f ca="1">IF(ISBLANK(K177)=FALSE,OFFSET(J177,0,COUNTA(K177:R177)),"")</f>
+        <f t="shared" ca="1" si="21"/>
         <v>2</v>
       </c>
       <c r="K177" s="22">
@@ -23471,7 +23575,7 @@
         <v>181</v>
       </c>
       <c r="E178" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C178),"",IF(ISBLANK($G178),"未着手",IF($J178=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="22"/>
         <v>完了</v>
       </c>
       <c r="F178" s="4">
@@ -23485,7 +23589,7 @@
       </c>
       <c r="I178" s="19"/>
       <c r="J178" s="12">
-        <f ca="1">IF(ISBLANK(K178)=FALSE,OFFSET(J178,0,COUNTA(K178:R178)),"")</f>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="K178" s="22">
@@ -23519,7 +23623,7 @@
         <v>121</v>
       </c>
       <c r="E179" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C179),"",IF(ISBLANK($G179),"未着手",IF($J179=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="22"/>
         <v>完了</v>
       </c>
       <c r="F179" s="4">
@@ -23533,7 +23637,7 @@
       </c>
       <c r="I179" s="19"/>
       <c r="J179" s="12">
-        <f ca="1">IF(ISBLANK(K179)=FALSE,OFFSET(J179,0,COUNTA(K179:R179)),"")</f>
+        <f t="shared" ca="1" si="21"/>
         <v>0</v>
       </c>
       <c r="K179" s="22">
@@ -23563,7 +23667,7 @@
       <c r="S179" s="22"/>
       <c r="T179" s="22"/>
     </row>
-    <row r="180" spans="1:20" hidden="1">
+    <row r="180" spans="1:20">
       <c r="A180" s="16"/>
       <c r="B180" s="16" t="s">
         <v>320</v>
@@ -23575,7 +23679,7 @@
         <v>121</v>
       </c>
       <c r="E180" s="12" t="str">
-        <f>IF(ISBLANK($C180),"",IF(ISBLANK($G180),"未着手",IF($J180=0,"完了","作業中")))</f>
+        <f t="shared" si="22"/>
         <v>作業中</v>
       </c>
       <c r="F180" s="4">
@@ -23618,7 +23722,7 @@
       <c r="S180" s="22"/>
       <c r="T180" s="22"/>
     </row>
-    <row r="181" spans="1:20" hidden="1">
+    <row r="181" spans="1:20">
       <c r="A181" s="16"/>
       <c r="B181" s="16" t="s">
         <v>319</v>
@@ -23630,7 +23734,7 @@
         <v>121</v>
       </c>
       <c r="E181" s="12" t="str">
-        <f>IF(ISBLANK($C181),"",IF(ISBLANK($G181),"未着手",IF($J181=0,"完了","作業中")))</f>
+        <f t="shared" si="22"/>
         <v>未着手</v>
       </c>
       <c r="F181" s="4">
@@ -23642,7 +23746,7 @@
       </c>
       <c r="I181" s="19"/>
       <c r="J181" s="12">
-        <f ca="1">IF(ISBLANK(K181)=FALSE,OFFSET(J181,0,COUNTA(K181:R181)),"")</f>
+        <f t="shared" ref="J181:J190" ca="1" si="23">IF(ISBLANK(K181)=FALSE,OFFSET(J181,0,COUNTA(K181:R181)),"")</f>
         <v>1</v>
       </c>
       <c r="K181" s="22">
@@ -23680,7 +23784,7 @@
         <v>121</v>
       </c>
       <c r="E182" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C182),"",IF(ISBLANK($G182),"未着手",IF($J182=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="22"/>
         <v>完了</v>
       </c>
       <c r="F182" s="4">
@@ -23696,7 +23800,7 @@
         <v>1</v>
       </c>
       <c r="J182" s="12">
-        <f ca="1">IF(ISBLANK(K182)=FALSE,OFFSET(J182,0,COUNTA(K182:R182)),"")</f>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="K182" s="22">
@@ -23730,7 +23834,7 @@
         <v>121</v>
       </c>
       <c r="E183" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C183),"",IF(ISBLANK($G183),"未着手",IF($J183=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="22"/>
         <v>完了</v>
       </c>
       <c r="F183" s="4">
@@ -23746,7 +23850,7 @@
         <v>1</v>
       </c>
       <c r="J183" s="12">
-        <f ca="1">IF(ISBLANK(K183)=FALSE,OFFSET(J183,0,COUNTA(K183:R183)),"")</f>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="K183" s="22">
@@ -23780,7 +23884,7 @@
         <v>121</v>
       </c>
       <c r="E184" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C184),"",IF(ISBLANK($G184),"未着手",IF($J184=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="22"/>
         <v>完了</v>
       </c>
       <c r="F184" s="4">
@@ -23796,7 +23900,7 @@
         <v>1</v>
       </c>
       <c r="J184" s="12">
-        <f ca="1">IF(ISBLANK(K184)=FALSE,OFFSET(J184,0,COUNTA(K184:R184)),"")</f>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="K184" s="22">
@@ -23830,7 +23934,7 @@
         <v>121</v>
       </c>
       <c r="E185" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C185),"",IF(ISBLANK($G185),"未着手",IF($J185=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="22"/>
         <v>完了</v>
       </c>
       <c r="F185" s="4">
@@ -23846,7 +23950,7 @@
         <v>2</v>
       </c>
       <c r="J185" s="12">
-        <f ca="1">IF(ISBLANK(K185)=FALSE,OFFSET(J185,0,COUNTA(K185:R185)),"")</f>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="K185" s="22">
@@ -23880,7 +23984,7 @@
         <v>121</v>
       </c>
       <c r="E186" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C186),"",IF(ISBLANK($G186),"未着手",IF($J186=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="22"/>
         <v>完了</v>
       </c>
       <c r="F186" s="4">
@@ -23894,7 +23998,7 @@
       </c>
       <c r="I186" s="19"/>
       <c r="J186" s="12">
-        <f ca="1">IF(ISBLANK(K186)=FALSE,OFFSET(J186,0,COUNTA(K186:R186)),"")</f>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="K186" s="22">
@@ -23926,7 +24030,7 @@
         <v>121</v>
       </c>
       <c r="E187" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C187),"",IF(ISBLANK($G187),"未着手",IF($J187=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="22"/>
         <v>完了</v>
       </c>
       <c r="F187" s="4">
@@ -23942,7 +24046,7 @@
         <v>7</v>
       </c>
       <c r="J187" s="12">
-        <f ca="1">IF(ISBLANK(K187)=FALSE,OFFSET(J187,0,COUNTA(K187:R187)),"")</f>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="K187" s="22">
@@ -23978,7 +24082,7 @@
         <v>121</v>
       </c>
       <c r="E188" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C188),"",IF(ISBLANK($G188),"未着手",IF($J188=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="22"/>
         <v>完了</v>
       </c>
       <c r="F188" s="4">
@@ -23992,7 +24096,7 @@
       </c>
       <c r="I188" s="19"/>
       <c r="J188" s="12">
-        <f ca="1">IF(ISBLANK(K188)=FALSE,OFFSET(J188,0,COUNTA(K188:R188)),"")</f>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
       <c r="K188" s="22">
@@ -24014,7 +24118,7 @@
       <c r="C189" s="17"/>
       <c r="D189" s="18"/>
       <c r="E189" s="12" t="str">
-        <f>IF(ISBLANK($C189),"",IF(ISBLANK($G189),"未着手",IF($J189=0,"完了","作業中")))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="F189" s="4"/>
@@ -24022,7 +24126,7 @@
       <c r="H189" s="19"/>
       <c r="I189" s="19"/>
       <c r="J189" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K189)=FALSE,OFFSET(J189,0,COUNTA(K189:R189)),"")</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="K189" s="22"/>
@@ -24042,7 +24146,7 @@
       <c r="C190" s="17"/>
       <c r="D190" s="18"/>
       <c r="E190" s="12" t="str">
-        <f>IF(ISBLANK($C190),"",IF(ISBLANK($G190),"未着手",IF($J190=0,"完了","作業中")))</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="F190" s="4"/>
@@ -24050,7 +24154,7 @@
       <c r="H190" s="19"/>
       <c r="I190" s="19"/>
       <c r="J190" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K190)=FALSE,OFFSET(J190,0,COUNTA(K190:R190)),"")</f>
+        <f t="shared" ca="1" si="23"/>
         <v/>
       </c>
       <c r="K190" s="22"/>
@@ -24100,7 +24204,7 @@
         <v>219</v>
       </c>
       <c r="E192" s="12" t="str">
-        <f>IF(ISBLANK($C192),"",IF(ISBLANK($G192),"未着手",IF($J192=0,"完了","作業中")))</f>
+        <f t="shared" ref="E192:E197" si="24">IF(ISBLANK($C192),"",IF(ISBLANK($G192),"未着手",IF($J192=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F192" s="4">
@@ -24112,7 +24216,7 @@
       </c>
       <c r="I192" s="19"/>
       <c r="J192" s="12">
-        <f ca="1">IF(ISBLANK(K192)=FALSE,OFFSET(J192,0,COUNTA(K192:R192)),"")</f>
+        <f t="shared" ref="J192:J197" ca="1" si="25">IF(ISBLANK(K192)=FALSE,OFFSET(J192,0,COUNTA(K192:R192)),"")</f>
         <v>1</v>
       </c>
       <c r="K192" s="19">
@@ -24152,7 +24256,7 @@
         <v>219</v>
       </c>
       <c r="E193" s="12" t="str">
-        <f>IF(ISBLANK($C193),"",IF(ISBLANK($G193),"未着手",IF($J193=0,"完了","作業中")))</f>
+        <f t="shared" si="24"/>
         <v>未着手</v>
       </c>
       <c r="F193" s="4">
@@ -24164,7 +24268,7 @@
       </c>
       <c r="I193" s="19"/>
       <c r="J193" s="12">
-        <f ca="1">IF(ISBLANK(K193)=FALSE,OFFSET(J193,0,COUNTA(K193:R193)),"")</f>
+        <f t="shared" ca="1" si="25"/>
         <v>1</v>
       </c>
       <c r="K193" s="19">
@@ -24204,7 +24308,7 @@
         <v>119</v>
       </c>
       <c r="E194" s="12" t="str">
-        <f>IF(ISBLANK($C194),"",IF(ISBLANK($G194),"未着手",IF($J194=0,"完了","作業中")))</f>
+        <f t="shared" si="24"/>
         <v>未着手</v>
       </c>
       <c r="F194" s="4">
@@ -24216,7 +24320,7 @@
       </c>
       <c r="I194" s="19"/>
       <c r="J194" s="12">
-        <f ca="1">IF(ISBLANK(K194)=FALSE,OFFSET(J194,0,COUNTA(K194:R194)),"")</f>
+        <f t="shared" ca="1" si="25"/>
         <v>1</v>
       </c>
       <c r="K194" s="19">
@@ -24256,7 +24360,7 @@
         <v>119</v>
       </c>
       <c r="E195" s="12" t="str">
-        <f>IF(ISBLANK($C195),"",IF(ISBLANK($G195),"未着手",IF($J195=0,"完了","作業中")))</f>
+        <f t="shared" si="24"/>
         <v>未着手</v>
       </c>
       <c r="F195" s="4">
@@ -24268,7 +24372,7 @@
       </c>
       <c r="I195" s="19"/>
       <c r="J195" s="12">
-        <f ca="1">IF(ISBLANK(K195)=FALSE,OFFSET(J195,0,COUNTA(K195:R195)),"")</f>
+        <f t="shared" ca="1" si="25"/>
         <v>1</v>
       </c>
       <c r="K195" s="19">
@@ -24308,7 +24412,7 @@
         <v>119</v>
       </c>
       <c r="E196" s="12" t="str">
-        <f>IF(ISBLANK($C196),"",IF(ISBLANK($G196),"未着手",IF($J196=0,"完了","作業中")))</f>
+        <f t="shared" si="24"/>
         <v>未着手</v>
       </c>
       <c r="F196" s="4">
@@ -24320,7 +24424,7 @@
       </c>
       <c r="I196" s="19"/>
       <c r="J196" s="12">
-        <f ca="1">IF(ISBLANK(K196)=FALSE,OFFSET(J196,0,COUNTA(K196:R196)),"")</f>
+        <f t="shared" ca="1" si="25"/>
         <v>1</v>
       </c>
       <c r="K196" s="19">
@@ -24360,7 +24464,7 @@
         <v>119</v>
       </c>
       <c r="E197" s="12" t="str">
-        <f>IF(ISBLANK($C197),"",IF(ISBLANK($G197),"未着手",IF($J197=0,"完了","作業中")))</f>
+        <f t="shared" si="24"/>
         <v>未着手</v>
       </c>
       <c r="F197" s="4">
@@ -24372,7 +24476,7 @@
       </c>
       <c r="I197" s="19"/>
       <c r="J197" s="12">
-        <f ca="1">IF(ISBLANK(K197)=FALSE,OFFSET(J197,0,COUNTA(K197:R197)),"")</f>
+        <f t="shared" ca="1" si="25"/>
         <v>1</v>
       </c>
       <c r="K197" s="19">
@@ -24410,7 +24514,7 @@
         <v>119</v>
       </c>
       <c r="E198" s="12" t="str">
-        <f t="shared" ref="E192:E207" ca="1" si="10">IF(ISBLANK($C198),"",IF(ISBLANK($G198),"未着手",IF($J198=0,"完了","作業中")))</f>
+        <f t="shared" ref="E198:E207" ca="1" si="26">IF(ISBLANK($C198),"",IF(ISBLANK($G198),"未着手",IF($J198=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F198" s="4">
@@ -24426,7 +24530,7 @@
         <v>4</v>
       </c>
       <c r="J198" s="12">
-        <f t="shared" ref="J192:J202" ca="1" si="11">IF(ISBLANK(K198)=FALSE,OFFSET(J198,0,COUNTA(K198:R198)),"")</f>
+        <f t="shared" ref="J198:J202" ca="1" si="27">IF(ISBLANK(K198)=FALSE,OFFSET(J198,0,COUNTA(K198:R198)),"")</f>
         <v>0</v>
       </c>
       <c r="K198" s="22">
@@ -24454,7 +24558,7 @@
         <v>119</v>
       </c>
       <c r="E199" s="12" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="26"/>
         <v>完了</v>
       </c>
       <c r="F199" s="4">
@@ -24470,7 +24574,7 @@
         <v>1</v>
       </c>
       <c r="J199" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="K199" s="22">
@@ -24498,7 +24602,7 @@
         <v>148</v>
       </c>
       <c r="E200" s="12" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="26"/>
         <v>完了</v>
       </c>
       <c r="F200" s="4">
@@ -24514,7 +24618,7 @@
         <v>3</v>
       </c>
       <c r="J200" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="K200" s="22">
@@ -24540,7 +24644,7 @@
         <v>162</v>
       </c>
       <c r="E201" s="12" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="26"/>
         <v>完了</v>
       </c>
       <c r="F201" s="4">
@@ -24556,7 +24660,7 @@
         <v>1</v>
       </c>
       <c r="J201" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="K201" s="22">
@@ -24582,7 +24686,7 @@
         <v>119</v>
       </c>
       <c r="E202" s="12" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="26"/>
         <v>完了</v>
       </c>
       <c r="F202" s="4">
@@ -24598,7 +24702,7 @@
         <v>2</v>
       </c>
       <c r="J202" s="12">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="K202" s="22">
@@ -24626,7 +24730,7 @@
       <c r="C203" s="17"/>
       <c r="D203" s="18"/>
       <c r="E203" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F203" s="4"/>
@@ -24655,7 +24759,7 @@
         <v>119</v>
       </c>
       <c r="E204" s="12" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="26"/>
         <v>完了</v>
       </c>
       <c r="F204" s="4">
@@ -24671,7 +24775,7 @@
         <v>2</v>
       </c>
       <c r="J204" s="12">
-        <f t="shared" ref="J204:J212" ca="1" si="12">IF(ISBLANK(K204)=FALSE,OFFSET(J204,0,COUNTA(K204:R204)),"")</f>
+        <f t="shared" ref="J204:J212" ca="1" si="28">IF(ISBLANK(K204)=FALSE,OFFSET(J204,0,COUNTA(K204:R204)),"")</f>
         <v>0</v>
       </c>
       <c r="K204" s="22">
@@ -24703,7 +24807,7 @@
         <v>119</v>
       </c>
       <c r="E205" s="12" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="26"/>
         <v>完了</v>
       </c>
       <c r="F205" s="4">
@@ -24719,7 +24823,7 @@
         <v>3</v>
       </c>
       <c r="J205" s="12">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="K205" s="22">
@@ -24753,7 +24857,7 @@
       <c r="C206" s="17"/>
       <c r="D206" s="18"/>
       <c r="E206" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F206" s="4"/>
@@ -24761,7 +24865,7 @@
       <c r="H206" s="19"/>
       <c r="I206" s="19"/>
       <c r="J206" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="K206" s="22"/>
@@ -24781,7 +24885,7 @@
       <c r="C207" s="17"/>
       <c r="D207" s="18"/>
       <c r="E207" s="12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="F207" s="4"/>
@@ -24789,7 +24893,7 @@
       <c r="H207" s="19"/>
       <c r="I207" s="19"/>
       <c r="J207" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="K207" s="22"/>
@@ -24816,7 +24920,7 @@
       <c r="H208" s="19"/>
       <c r="I208" s="19"/>
       <c r="J208" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="28"/>
         <v/>
       </c>
       <c r="K208" s="22"/>
@@ -24856,7 +24960,7 @@
         <v>3</v>
       </c>
       <c r="J209" s="12">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="K209" s="22">
@@ -24910,7 +25014,7 @@
         <v>3</v>
       </c>
       <c r="J210" s="12">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="K210" s="22">
@@ -24964,7 +25068,7 @@
         <v>1</v>
       </c>
       <c r="J211" s="12">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="K211" s="22">
@@ -25012,7 +25116,7 @@
         <v>1</v>
       </c>
       <c r="J212" s="12">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
       <c r="K212" s="22">
@@ -25065,7 +25169,7 @@
       <c r="C214" s="17"/>
       <c r="D214" s="18"/>
       <c r="E214" s="12" t="str">
-        <f t="shared" ref="E214:E241" si="13">IF(ISBLANK($C214),"",IF(ISBLANK($G214),"未着手",IF($J214=0,"完了","作業中")))</f>
+        <f t="shared" ref="E214:E241" si="29">IF(ISBLANK($C214),"",IF(ISBLANK($G214),"未着手",IF($J214=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F214" s="4"/>
@@ -25073,7 +25177,7 @@
       <c r="H214" s="19"/>
       <c r="I214" s="19"/>
       <c r="J214" s="12" t="str">
-        <f t="shared" ref="J214:J241" ca="1" si="14">IF(ISBLANK(K214)=FALSE,OFFSET(J214,0,COUNTA(K214:R214)),"")</f>
+        <f t="shared" ref="J214:J241" ca="1" si="30">IF(ISBLANK(K214)=FALSE,OFFSET(J214,0,COUNTA(K214:R214)),"")</f>
         <v/>
       </c>
       <c r="K214" s="22"/>
@@ -25117,7 +25221,7 @@
       <c r="C228" s="114"/>
       <c r="D228" s="115"/>
       <c r="E228" s="116" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F228" s="117"/>
@@ -25125,7 +25229,7 @@
       <c r="H228" s="118"/>
       <c r="I228" s="118"/>
       <c r="J228" s="116" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="K228" s="119"/>
@@ -25157,7 +25261,7 @@
       <c r="C230" s="114"/>
       <c r="D230" s="115"/>
       <c r="E230" s="116" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F230" s="117"/>
@@ -25165,7 +25269,7 @@
       <c r="H230" s="118"/>
       <c r="I230" s="118"/>
       <c r="J230" s="116" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="K230" s="119"/>
@@ -25185,7 +25289,7 @@
       <c r="C231" s="114"/>
       <c r="D231" s="115"/>
       <c r="E231" s="116" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F231" s="117"/>
@@ -25193,7 +25297,7 @@
       <c r="H231" s="118"/>
       <c r="I231" s="118"/>
       <c r="J231" s="116" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="K231" s="119"/>
@@ -25309,7 +25413,7 @@
       <c r="C240" s="114"/>
       <c r="D240" s="115"/>
       <c r="E240" s="116" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F240" s="117"/>
@@ -25317,7 +25421,7 @@
       <c r="H240" s="118"/>
       <c r="I240" s="118"/>
       <c r="J240" s="116" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="K240" s="119"/>
@@ -25337,7 +25441,7 @@
       <c r="C241" s="114"/>
       <c r="D241" s="115"/>
       <c r="E241" s="116" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="F241" s="117"/>
@@ -25345,7 +25449,7 @@
       <c r="H241" s="118"/>
       <c r="I241" s="118"/>
       <c r="J241" s="116" t="str">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="30"/>
         <v/>
       </c>
       <c r="K241" s="119"/>
@@ -25545,7 +25649,7 @@
       <c r="C257" s="114"/>
       <c r="D257" s="115"/>
       <c r="E257" s="116" t="str">
-        <f t="shared" ref="E257:E271" si="15">IF(ISBLANK($C257),"",IF(ISBLANK($G257),"未着手",IF($J257=0,"完了","作業中")))</f>
+        <f t="shared" ref="E257:E271" si="31">IF(ISBLANK($C257),"",IF(ISBLANK($G257),"未着手",IF($J257=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F257" s="117"/>
@@ -25553,7 +25657,7 @@
       <c r="H257" s="118"/>
       <c r="I257" s="118"/>
       <c r="J257" s="116" t="str">
-        <f t="shared" ref="J257:J271" ca="1" si="16">IF(ISBLANK(K257)=FALSE,OFFSET(J257,0,COUNTA(K257:R257)),"")</f>
+        <f t="shared" ref="J257:J271" ca="1" si="32">IF(ISBLANK(K257)=FALSE,OFFSET(J257,0,COUNTA(K257:R257)),"")</f>
         <v/>
       </c>
       <c r="K257" s="119"/>
@@ -25573,7 +25677,7 @@
       <c r="C258" s="114"/>
       <c r="D258" s="115"/>
       <c r="E258" s="116" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F258" s="117"/>
@@ -25581,7 +25685,7 @@
       <c r="H258" s="118"/>
       <c r="I258" s="118"/>
       <c r="J258" s="116" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="K258" s="119"/>
@@ -25601,7 +25705,7 @@
       <c r="C259" s="114"/>
       <c r="D259" s="115"/>
       <c r="E259" s="116" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F259" s="117"/>
@@ -25609,7 +25713,7 @@
       <c r="H259" s="118"/>
       <c r="I259" s="118"/>
       <c r="J259" s="116" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="K259" s="119"/>
@@ -25629,7 +25733,7 @@
       <c r="C260" s="114"/>
       <c r="D260" s="115"/>
       <c r="E260" s="116" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F260" s="117"/>
@@ -25637,7 +25741,7 @@
       <c r="H260" s="118"/>
       <c r="I260" s="118"/>
       <c r="J260" s="116" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="K260" s="119"/>
@@ -25657,7 +25761,7 @@
       <c r="C261" s="114"/>
       <c r="D261" s="115"/>
       <c r="E261" s="116" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F261" s="117"/>
@@ -25665,7 +25769,7 @@
       <c r="H261" s="118"/>
       <c r="I261" s="118"/>
       <c r="J261" s="116" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="K261" s="119"/>
@@ -25685,7 +25789,7 @@
       <c r="C262" s="114"/>
       <c r="D262" s="115"/>
       <c r="E262" s="116" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F262" s="117"/>
@@ -25693,7 +25797,7 @@
       <c r="H262" s="118"/>
       <c r="I262" s="118"/>
       <c r="J262" s="116" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="K262" s="119"/>
@@ -25713,7 +25817,7 @@
       <c r="C263" s="114"/>
       <c r="D263" s="115"/>
       <c r="E263" s="116" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F263" s="117"/>
@@ -25721,7 +25825,7 @@
       <c r="H263" s="118"/>
       <c r="I263" s="118"/>
       <c r="J263" s="116" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="K263" s="119"/>
@@ -25741,7 +25845,7 @@
       <c r="C264" s="114"/>
       <c r="D264" s="115"/>
       <c r="E264" s="116" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F264" s="117"/>
@@ -25749,7 +25853,7 @@
       <c r="H264" s="118"/>
       <c r="I264" s="118"/>
       <c r="J264" s="116" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="K264" s="119"/>
@@ -25769,7 +25873,7 @@
       <c r="C265" s="114"/>
       <c r="D265" s="115"/>
       <c r="E265" s="116" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F265" s="117"/>
@@ -25777,7 +25881,7 @@
       <c r="H265" s="118"/>
       <c r="I265" s="118"/>
       <c r="J265" s="116" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="K265" s="119"/>
@@ -25797,7 +25901,7 @@
       <c r="C266" s="114"/>
       <c r="D266" s="115"/>
       <c r="E266" s="116" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F266" s="117"/>
@@ -25805,7 +25909,7 @@
       <c r="H266" s="118"/>
       <c r="I266" s="118"/>
       <c r="J266" s="116" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="K266" s="119"/>
@@ -25825,7 +25929,7 @@
       <c r="C267" s="114"/>
       <c r="D267" s="115"/>
       <c r="E267" s="116" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F267" s="117"/>
@@ -25833,7 +25937,7 @@
       <c r="H267" s="118"/>
       <c r="I267" s="118"/>
       <c r="J267" s="116" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="K267" s="119"/>
@@ -25853,7 +25957,7 @@
       <c r="C268" s="114"/>
       <c r="D268" s="115"/>
       <c r="E268" s="116" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F268" s="117"/>
@@ -25861,7 +25965,7 @@
       <c r="H268" s="118"/>
       <c r="I268" s="118"/>
       <c r="J268" s="116" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="K268" s="119"/>
@@ -25881,7 +25985,7 @@
       <c r="C269" s="114"/>
       <c r="D269" s="115"/>
       <c r="E269" s="116" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F269" s="117"/>
@@ -25889,7 +25993,7 @@
       <c r="H269" s="118"/>
       <c r="I269" s="118"/>
       <c r="J269" s="116" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="K269" s="119"/>
@@ -25909,7 +26013,7 @@
       <c r="C270" s="114"/>
       <c r="D270" s="115"/>
       <c r="E270" s="116" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F270" s="117"/>
@@ -25917,7 +26021,7 @@
       <c r="H270" s="118"/>
       <c r="I270" s="118"/>
       <c r="J270" s="116" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="K270" s="119"/>
@@ -25937,7 +26041,7 @@
       <c r="C271" s="114"/>
       <c r="D271" s="115"/>
       <c r="E271" s="116" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="F271" s="117"/>
@@ -25945,7 +26049,7 @@
       <c r="H271" s="118"/>
       <c r="I271" s="118"/>
       <c r="J271" s="116" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="32"/>
         <v/>
       </c>
       <c r="K271" s="119"/>
@@ -25963,7 +26067,7 @@
   <autoFilter ref="A1:T271">
     <filterColumn colId="3">
       <filters>
-        <filter val="樋田"/>
+        <filter val="南雲"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">

--- a/バックログ/02班スプリントバックログ.xlsx
+++ b/バックログ/02班スプリントバックログ.xlsx
@@ -537,7 +537,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="424">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -3901,6 +3901,29 @@
   </si>
   <si>
     <t>糸のバグ修正</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>コンテ制作(22日締め切り)</t>
+    <rPh sb="3" eb="5">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>石田</t>
+    <rPh sb="0" eb="2">
+      <t>イシダ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -8826,7 +8849,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>74.5</c:v>
+                  <c:v>127.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8903,22 +8926,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>74</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>62</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -9385,7 +9408,7 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13</c:v>
@@ -9394,7 +9417,7 @@
                   <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -9522,7 +9545,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -9531,7 +9554,7 @@
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -9633,7 +9656,7 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>13</c:v>
@@ -9642,7 +9665,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -27850,9 +27873,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -27965,27 +27988,27 @@
       <c r="J3" s="135"/>
       <c r="K3" s="20">
         <f t="shared" ref="K3:Q3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$P$2))))</f>
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="L3" s="20">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="N3" s="20">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="O3" s="20">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="P3" s="20">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="20">
         <f t="shared" si="0"/>
@@ -28005,7 +28028,7 @@
       <c r="J4" s="135"/>
       <c r="K4" s="21">
         <f>SUM(K5:K104)</f>
-        <v>74.5</v>
+        <v>127.5</v>
       </c>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
@@ -28692,15 +28715,11 @@
     <row r="24" spans="1:17">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>353</v>
-      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>未着手</v>
+        <v/>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -28731,15 +28750,21 @@
         <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="4">
+        <v>43088</v>
+      </c>
       <c r="G25" s="4"/>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19">
+        <v>3</v>
+      </c>
       <c r="I25" s="19"/>
-      <c r="J25" s="12" t="str">
+      <c r="J25" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K25" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="K25" s="22">
+        <v>3</v>
+      </c>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
@@ -28760,15 +28785,21 @@
         <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="4">
+        <v>43098</v>
+      </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="19"/>
+      <c r="H26" s="19">
+        <v>2</v>
+      </c>
       <c r="I26" s="19"/>
-      <c r="J26" s="12" t="str">
+      <c r="J26" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K26" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K26" s="22">
+        <v>2</v>
+      </c>
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
@@ -28789,15 +28820,21 @@
         <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="4">
+        <v>43098</v>
+      </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="19"/>
+      <c r="H27" s="19">
+        <v>3</v>
+      </c>
       <c r="I27" s="19"/>
-      <c r="J27" s="12" t="str">
+      <c r="J27" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K27" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="K27" s="22">
+        <v>3</v>
+      </c>
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
@@ -28818,15 +28855,21 @@
         <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="4">
+        <v>43088</v>
+      </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="19"/>
+      <c r="H28" s="19">
+        <v>4</v>
+      </c>
       <c r="I28" s="19"/>
-      <c r="J28" s="12" t="str">
+      <c r="J28" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K28" s="22"/>
+        <v>4</v>
+      </c>
+      <c r="K28" s="22">
+        <v>4</v>
+      </c>
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
@@ -28847,15 +28890,21 @@
         <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="4">
+        <v>43091</v>
+      </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="19"/>
+      <c r="H29" s="19">
+        <v>2</v>
+      </c>
       <c r="I29" s="19"/>
-      <c r="J29" s="12" t="str">
+      <c r="J29" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K29" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K29" s="22">
+        <v>2</v>
+      </c>
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
@@ -28876,15 +28925,21 @@
         <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="4">
+        <v>43091</v>
+      </c>
       <c r="G30" s="4"/>
-      <c r="H30" s="19"/>
+      <c r="H30" s="19">
+        <v>1</v>
+      </c>
       <c r="I30" s="19"/>
-      <c r="J30" s="12" t="str">
+      <c r="J30" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K30" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K30" s="22">
+        <v>1</v>
+      </c>
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
@@ -28905,15 +28960,21 @@
         <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="4">
+        <v>43091</v>
+      </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="19"/>
+      <c r="H31" s="19">
+        <v>1</v>
+      </c>
       <c r="I31" s="19"/>
-      <c r="J31" s="12" t="str">
+      <c r="J31" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K31" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="22">
+        <v>1</v>
+      </c>
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -28934,15 +28995,21 @@
         <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="4">
+        <v>43091</v>
+      </c>
       <c r="G32" s="4"/>
-      <c r="H32" s="19"/>
+      <c r="H32" s="19">
+        <v>1</v>
+      </c>
       <c r="I32" s="19"/>
-      <c r="J32" s="12" t="str">
+      <c r="J32" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K32" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K32" s="22">
+        <v>1</v>
+      </c>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -28963,15 +29030,21 @@
         <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="4">
+        <v>43091</v>
+      </c>
       <c r="G33" s="4"/>
-      <c r="H33" s="19"/>
+      <c r="H33" s="19">
+        <v>1</v>
+      </c>
       <c r="I33" s="19"/>
-      <c r="J33" s="12" t="str">
+      <c r="J33" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K33" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K33" s="22">
+        <v>1</v>
+      </c>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -28989,18 +29062,28 @@
         <v>353</v>
       </c>
       <c r="E34" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>作業中</v>
+      </c>
+      <c r="F34" s="4">
+        <v>43084</v>
+      </c>
+      <c r="G34" s="4">
+        <v>43084</v>
+      </c>
+      <c r="H34" s="19">
+        <v>6</v>
+      </c>
+      <c r="I34" s="19">
+        <v>3</v>
+      </c>
+      <c r="J34" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K34" s="22"/>
+        <v>6</v>
+      </c>
+      <c r="K34" s="22">
+        <v>6</v>
+      </c>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -29021,15 +29104,21 @@
         <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="4">
+        <v>43088</v>
+      </c>
       <c r="G35" s="4"/>
-      <c r="H35" s="19"/>
+      <c r="H35" s="19">
+        <v>1</v>
+      </c>
       <c r="I35" s="19"/>
-      <c r="J35" s="12" t="str">
+      <c r="J35" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K35" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K35" s="22">
+        <v>1</v>
+      </c>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -29047,18 +29136,28 @@
         <v>112</v>
       </c>
       <c r="E36" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>作業中</v>
+      </c>
+      <c r="F36" s="4">
+        <v>43084</v>
+      </c>
+      <c r="G36" s="4">
+        <v>43084</v>
+      </c>
+      <c r="H36" s="19">
+        <v>4</v>
+      </c>
+      <c r="I36" s="19">
+        <v>2</v>
+      </c>
+      <c r="J36" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K36" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="K36" s="22">
+        <v>3</v>
+      </c>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -30062,15 +30161,21 @@
         <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
-      <c r="F64" s="4"/>
+      <c r="F64" s="4">
+        <v>43091</v>
+      </c>
       <c r="G64" s="4"/>
-      <c r="H64" s="19"/>
+      <c r="H64" s="19">
+        <v>2</v>
+      </c>
       <c r="I64" s="19"/>
-      <c r="J64" s="12" t="str">
+      <c r="J64" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K64" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K64" s="22">
+        <v>2</v>
+      </c>
       <c r="L64" s="22"/>
       <c r="M64" s="22"/>
       <c r="N64" s="22"/>
@@ -30088,18 +30193,28 @@
         <v>386</v>
       </c>
       <c r="E65" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
-      </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>完了</v>
+      </c>
+      <c r="F65" s="4">
+        <v>43084</v>
+      </c>
+      <c r="G65" s="4">
+        <v>43084</v>
+      </c>
+      <c r="H65" s="19">
+        <v>3</v>
+      </c>
+      <c r="I65" s="19">
+        <v>3</v>
+      </c>
+      <c r="J65" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K65" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="22">
+        <v>0</v>
+      </c>
       <c r="L65" s="22"/>
       <c r="M65" s="22"/>
       <c r="N65" s="22"/>
@@ -30120,15 +30235,21 @@
         <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
-      <c r="F66" s="4"/>
+      <c r="F66" s="4">
+        <v>43088</v>
+      </c>
       <c r="G66" s="4"/>
-      <c r="H66" s="19"/>
+      <c r="H66" s="19">
+        <v>3</v>
+      </c>
       <c r="I66" s="19"/>
-      <c r="J66" s="12" t="str">
+      <c r="J66" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K66" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="K66" s="22">
+        <v>3</v>
+      </c>
       <c r="L66" s="22"/>
       <c r="M66" s="22"/>
       <c r="N66" s="22"/>
@@ -30149,15 +30270,21 @@
         <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
-      <c r="F67" s="4"/>
+      <c r="F67" s="4">
+        <v>43091</v>
+      </c>
       <c r="G67" s="4"/>
-      <c r="H67" s="19"/>
+      <c r="H67" s="19">
+        <v>2</v>
+      </c>
       <c r="I67" s="19"/>
-      <c r="J67" s="12" t="str">
+      <c r="J67" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K67" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K67" s="22">
+        <v>2</v>
+      </c>
       <c r="L67" s="22"/>
       <c r="M67" s="22"/>
       <c r="N67" s="22"/>
@@ -30196,15 +30323,21 @@
         <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
-      <c r="F68" s="4"/>
+      <c r="F68" s="4">
+        <v>43091</v>
+      </c>
       <c r="G68" s="4"/>
-      <c r="H68" s="19"/>
+      <c r="H68" s="19">
+        <v>3</v>
+      </c>
       <c r="I68" s="19"/>
-      <c r="J68" s="12" t="str">
+      <c r="J68" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K68" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="K68" s="22">
+        <v>3</v>
+      </c>
       <c r="L68" s="22"/>
       <c r="M68" s="22"/>
       <c r="N68" s="22"/>
@@ -30248,15 +30381,21 @@
         <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
-      <c r="F69" s="4"/>
+      <c r="F69" s="4">
+        <v>43088</v>
+      </c>
       <c r="G69" s="4"/>
-      <c r="H69" s="19"/>
+      <c r="H69" s="19">
+        <v>1</v>
+      </c>
       <c r="I69" s="19"/>
-      <c r="J69" s="12" t="str">
+      <c r="J69" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K69" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K69" s="22">
+        <v>1</v>
+      </c>
       <c r="L69" s="22"/>
       <c r="M69" s="22"/>
       <c r="N69" s="22"/>
@@ -30268,15 +30407,15 @@
       </c>
       <c r="T69" s="10">
         <f t="shared" ref="T69:T77" si="5">SUMIF($D$5:$D$104,S69,$H$5:$H$104)</f>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="U69" s="10">
         <f t="shared" ref="U69:U77" ca="1" si="6">SUMIF($D$5:$D$104,S69,$J$5:$J$104)</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="V69" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W69" s="14">
         <f t="shared" si="4"/>
@@ -30300,15 +30439,21 @@
         <f t="shared" si="2"/>
         <v>未着手</v>
       </c>
-      <c r="F70" s="4"/>
+      <c r="F70" s="4">
+        <v>43088</v>
+      </c>
       <c r="G70" s="4"/>
-      <c r="H70" s="19"/>
+      <c r="H70" s="19">
+        <v>1</v>
+      </c>
       <c r="I70" s="19"/>
-      <c r="J70" s="12" t="str">
+      <c r="J70" s="12">
         <f t="shared" ref="J70:J104" ca="1" si="8">IF(ISBLANK(K70)=FALSE,OFFSET(J70,0,COUNTA(K70:Q70)),"")</f>
-        <v/>
-      </c>
-      <c r="K70" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K70" s="22">
+        <v>1</v>
+      </c>
       <c r="L70" s="22"/>
       <c r="M70" s="22"/>
       <c r="N70" s="22"/>
@@ -30352,15 +30497,21 @@
         <f t="shared" ref="E71:E76" si="9">IF(ISBLANK($C71),"",IF(ISBLANK($G71),"未着手",IF($J71=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
-      <c r="F71" s="4"/>
+      <c r="F71" s="4">
+        <v>43091</v>
+      </c>
       <c r="G71" s="4"/>
-      <c r="H71" s="19"/>
+      <c r="H71" s="19">
+        <v>1</v>
+      </c>
       <c r="I71" s="19"/>
-      <c r="J71" s="12" t="str">
+      <c r="J71" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="K71" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K71" s="22">
+        <v>1</v>
+      </c>
       <c r="L71" s="22"/>
       <c r="M71" s="22"/>
       <c r="N71" s="22"/>
@@ -30404,15 +30555,21 @@
         <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
-      <c r="F72" s="4"/>
+      <c r="F72" s="4">
+        <v>43091</v>
+      </c>
       <c r="G72" s="4"/>
-      <c r="H72" s="19"/>
+      <c r="H72" s="19">
+        <v>3</v>
+      </c>
       <c r="I72" s="19"/>
-      <c r="J72" s="12" t="str">
+      <c r="J72" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="K72" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="K72" s="22">
+        <v>3</v>
+      </c>
       <c r="L72" s="22"/>
       <c r="M72" s="22"/>
       <c r="N72" s="22"/>
@@ -30424,15 +30581,15 @@
       </c>
       <c r="T72" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="U72" s="10">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V72" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W72" s="14">
         <f t="shared" si="4"/>
@@ -30456,15 +30613,21 @@
         <f t="shared" si="9"/>
         <v>未着手</v>
       </c>
-      <c r="F73" s="4"/>
+      <c r="F73" s="4">
+        <v>43091</v>
+      </c>
       <c r="G73" s="4"/>
-      <c r="H73" s="19"/>
+      <c r="H73" s="19">
+        <v>4</v>
+      </c>
       <c r="I73" s="19"/>
-      <c r="J73" s="12" t="str">
+      <c r="J73" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="K73" s="22"/>
+        <v>4</v>
+      </c>
+      <c r="K73" s="22">
+        <v>4</v>
+      </c>
       <c r="L73" s="22"/>
       <c r="M73" s="22"/>
       <c r="N73" s="22"/>
@@ -30737,15 +30900,21 @@
         <f t="shared" si="10"/>
         <v>未着手</v>
       </c>
-      <c r="F79" s="4"/>
+      <c r="F79" s="4">
+        <v>43088</v>
+      </c>
       <c r="G79" s="4"/>
-      <c r="H79" s="19"/>
+      <c r="H79" s="19">
+        <v>1</v>
+      </c>
       <c r="I79" s="19"/>
-      <c r="J79" s="12" t="str">
+      <c r="J79" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="K79" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K79" s="22">
+        <v>1</v>
+      </c>
       <c r="L79" s="22"/>
       <c r="M79" s="22"/>
       <c r="N79" s="22"/>
@@ -30756,21 +30925,31 @@
     <row r="80" spans="1:24">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
-      <c r="C80" s="85"/>
-      <c r="D80" s="18"/>
+      <c r="C80" s="85" t="s">
+        <v>422</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>423</v>
+      </c>
       <c r="E80" s="12" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F80" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F80" s="4">
+        <v>43088</v>
+      </c>
       <c r="G80" s="4"/>
-      <c r="H80" s="19"/>
+      <c r="H80" s="19">
+        <v>4</v>
+      </c>
       <c r="I80" s="19"/>
-      <c r="J80" s="12" t="str">
+      <c r="J80" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="K80" s="22"/>
+        <v>4</v>
+      </c>
+      <c r="K80" s="22">
+        <v>4</v>
+      </c>
       <c r="L80" s="22"/>
       <c r="M80" s="22"/>
       <c r="N80" s="22"/>

--- a/バックログ/02班スプリントバックログ.xlsx
+++ b/バックログ/02班スプリントバックログ.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'スプリントバックログ(第２）'!$A$1:$T$271</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'スプリントバックログ(第３）'!$A$1:$Q$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'スプリントバックログ(第３）'!$A$1:$S$104</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">デバッグシート!$B$1:$K$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">スケジュール!$A$1:$E$209</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">スケジュール!$1:$4</definedName>
@@ -501,7 +501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0">
+    <comment ref="S2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -537,7 +537,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="458">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -3633,16 +3633,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>リザルトの背景リソース(あるかないかも考える)</t>
-    <rPh sb="5" eb="7">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ステージの作り直し</t>
     <rPh sb="5" eb="6">
       <t>ツク</t>
@@ -3814,17 +3804,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>現在のAIをブラッシュアップ</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>失敗&amp;引っかかった時のベチャってする音SE</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>２Dマップ用の木のテクスチャ(枝付き)</t>
     <rPh sb="5" eb="6">
       <t>ヨウ</t>
@@ -3999,50 +3978,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>弱い敵クモを作って難易度イージー向けを作る</t>
-    <rPh sb="0" eb="1">
-      <t>ヨワ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>弱い敵クモを作って難易度ノーマル向けを作る</t>
-    <rPh sb="0" eb="1">
-      <t>ヨワ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>蜘蛛の色直し難易度の文字リソース(HARD)</t>
     <rPh sb="6" eb="9">
       <t>ナンイド</t>
@@ -4208,6 +4143,268 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>12/26</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>簡易的な木作成</t>
+    <rPh sb="0" eb="2">
+      <t>カンイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>石田</t>
+    <rPh sb="0" eb="2">
+      <t>イシダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1/8</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>イージー時、基本自分の木には飛ばない</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>イージー時、跳べる気がない時近くの木に跳ぶ</t>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>イージー時、ジャンプするまでの間隔を長く</t>
+    <rPh sb="15" eb="17">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>南雲</t>
+    <rPh sb="0" eb="2">
+      <t>ナグモ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>イージー時、回避確率は低い</t>
+    <rPh sb="6" eb="8">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ノーマル時、無地の木より相手の木を優先して跳ぶ</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ムジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>イージーとノーマル時、優勢時はほぼ動かマイ</t>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ユウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ノーマル時、その他の木は近くの木に跳ぶ</t>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ノーマル時、ジャンプする感覚をEASYよりも短め</t>
+    <rPh sb="12" eb="14">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミジカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>イージー時、攻撃頻度は少なめ</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ノーマル時、攻撃頻度はEASYより多め</t>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ノーマル時、回避率確率はEASYより高め</t>
+    <rPh sb="6" eb="8">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ノーマル時、後半の行動を追加</t>
+    <rPh sb="6" eb="8">
+      <t>コウハン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ノーマル時、後半は回避確率を少し上昇</t>
+    <rPh sb="6" eb="8">
+      <t>コウハン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジョウショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ノーマル時、攻撃頻度とジャンプ間隔はそのまま</t>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンカク</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -4221,7 +4418,7 @@
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="\(aaa\)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -4359,6 +4556,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="11">
@@ -5373,9 +5577,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -5388,15 +5589,9 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5406,6 +5601,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -7034,7 +7239,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7154,7 +7358,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7274,7 +7477,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7387,7 +7589,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -8335,9 +8536,9 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'スプリントバックログ(第２）'!$W$70:$W$75</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -8416,9 +8617,9 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'スプリントバックログ(第２）'!$W$70:$W$75</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -8497,9 +8698,9 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'スプリントバックログ(第２）'!$W$70:$W$75</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -8580,9 +8781,9 @@
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>'スプリントバックログ(第２）'!$W$70:$W$75</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -8906,9 +9107,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第３）'!$K$2:$Q$2</c:f>
+              <c:f>'スプリントバックログ(第３）'!$K$2:$S$2</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>12/15</c:v>
                 </c:pt>
@@ -8919,15 +9120,21 @@
                   <c:v>12/22</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>12/26</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>12/29</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1/5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>1/8</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1/9</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>1/12</c:v>
                 </c:pt>
               </c:strCache>
@@ -8935,15 +9142,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$K$4:$P$4</c:f>
+              <c:f>'スプリントバックログ(第３）'!$K$4:$R$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>175.5</c:v>
+                  <c:v>184.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>150.5</c:v>
+                  <c:v>159.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8986,9 +9208,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第３）'!$K$2:$Q$2</c:f>
+              <c:f>'スプリントバックログ(第３）'!$K$2:$S$2</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>12/15</c:v>
                 </c:pt>
@@ -8999,15 +9221,21 @@
                   <c:v>12/22</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>12/26</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>12/29</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1/5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>1/8</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1/9</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>1/12</c:v>
                 </c:pt>
               </c:strCache>
@@ -9015,29 +9243,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$K$3:$Q$3</c:f>
+              <c:f>'スプリントバックログ(第３）'!$K$3:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>175</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>146</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>117</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9468,7 +9702,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第３）'!$S$68:$S$77</c:f>
+              <c:f>'スプリントバックログ(第３）'!$U$68:$U$77</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -9494,27 +9728,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$U$68:$U$77</c:f>
+              <c:f>'スプリントバックログ(第３）'!$W$68:$W$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -9605,7 +9839,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第３）'!$S$68:$S$77</c:f>
+              <c:f>'スプリントバックログ(第３）'!$U$68:$U$77</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -9631,27 +9865,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$V$68:$V$77</c:f>
+              <c:f>'スプリントバックログ(第３）'!$X$68:$X$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -9742,7 +9976,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$T$68:$T$77</c:f>
+              <c:f>'スプリントバックログ(第３）'!$V$68:$V$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -9750,16 +9984,16 @@
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>21</c:v>
@@ -9790,7 +10024,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'スプリントバックログ(第３）'!$X$67</c:f>
+              <c:f>'スプリントバックログ(第３）'!$Z$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9855,27 +10089,27 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$X$68:$X$77</c:f>
+              <c:f>'スプリントバックログ(第３）'!$Z$68:$Z$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -10241,13 +10475,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -10273,13 +10507,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>662103</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -27971,11 +28205,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y188"/>
+  <dimension ref="A1:AA188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -27988,14 +28222,14 @@
     <col min="6" max="7" width="6.875" style="5" customWidth="1"/>
     <col min="8" max="9" width="6.875" style="9" customWidth="1"/>
     <col min="10" max="10" width="6.75" style="2" customWidth="1"/>
-    <col min="11" max="16" width="4.75" style="7" customWidth="1"/>
-    <col min="17" max="18" width="4.625" style="7" customWidth="1"/>
-    <col min="29" max="29" width="14.25" customWidth="1"/>
-    <col min="30" max="30" width="4.75" customWidth="1"/>
-    <col min="31" max="31" width="3.75" customWidth="1"/>
+    <col min="11" max="18" width="4.75" style="7" customWidth="1"/>
+    <col min="19" max="20" width="4.625" style="7" customWidth="1"/>
+    <col min="31" max="31" width="14.25" customWidth="1"/>
+    <col min="32" max="32" width="4.75" customWidth="1"/>
+    <col min="33" max="33" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="8" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:21" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="145" t="s">
         <v>10</v>
       </c>
@@ -28034,12 +28268,14 @@
       <c r="N1" s="143"/>
       <c r="O1" s="143"/>
       <c r="P1" s="143"/>
-      <c r="Q1" s="144"/>
-      <c r="S1" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="8" customFormat="1">
+      <c r="Q1" s="143"/>
+      <c r="R1" s="143"/>
+      <c r="S1" s="144"/>
+      <c r="U1" s="130" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="8" customFormat="1">
       <c r="A2" s="145"/>
       <c r="B2" s="152"/>
       <c r="C2" s="146"/>
@@ -28051,7 +28287,7 @@
       <c r="I2" s="150"/>
       <c r="J2" s="145"/>
       <c r="K2" s="23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L2" s="23" t="s">
         <v>65</v>
@@ -28059,23 +28295,29 @@
       <c r="M2" s="23" t="s">
         <v>380</v>
       </c>
-      <c r="N2" s="124" t="s">
+      <c r="N2" s="123" t="s">
+        <v>439</v>
+      </c>
+      <c r="O2" s="123" t="s">
+        <v>397</v>
+      </c>
+      <c r="P2" s="124" t="s">
         <v>398</v>
       </c>
-      <c r="O2" s="125" t="s">
-        <v>399</v>
-      </c>
-      <c r="P2" s="23" t="s">
+      <c r="Q2" s="124" t="s">
+        <v>442</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="S2" s="122" t="s">
         <v>402</v>
       </c>
-      <c r="Q2" s="123" t="s">
-        <v>403</v>
-      </c>
-      <c r="S2" s="121">
+      <c r="U2" s="131">
         <v>42751</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="8" customFormat="1">
+    <row r="3" spans="1:21" s="8" customFormat="1">
       <c r="A3" s="145"/>
       <c r="B3" s="152"/>
       <c r="C3" s="146"/>
@@ -28087,35 +28329,43 @@
       <c r="I3" s="150"/>
       <c r="J3" s="145"/>
       <c r="K3" s="20">
-        <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$P$2))))</f>
-        <v>175</v>
+        <f t="shared" ref="K3:S3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$R$2))))</f>
+        <v>184</v>
       </c>
       <c r="L3" s="20">
-        <f t="shared" ref="L3:Q3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$P$2))))</f>
-        <v>146</v>
+        <f t="shared" si="0"/>
+        <v>161</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="N3" s="130">
+        <v>138</v>
+      </c>
+      <c r="N3" s="20">
         <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="O3" s="131">
+        <v>115</v>
+      </c>
+      <c r="O3" s="127">
         <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="P3" s="20">
+        <v>92</v>
+      </c>
+      <c r="P3" s="128">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="Q3" s="20">
+        <v>69</v>
+      </c>
+      <c r="Q3" s="128">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="8" customFormat="1">
+        <v>46</v>
+      </c>
+      <c r="R3" s="20">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="S3" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="8" customFormat="1">
       <c r="A4" s="145"/>
       <c r="B4" s="153"/>
       <c r="C4" s="146"/>
@@ -28128,19 +28378,36 @@
       <c r="J4" s="145"/>
       <c r="K4" s="21">
         <f>SUM(K5:K104)</f>
-        <v>175.5</v>
+        <v>184.5</v>
       </c>
       <c r="L4" s="21">
         <f>SUM(L5:L104)</f>
-        <v>150.5</v>
-      </c>
-      <c r="M4" s="21"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-    </row>
-    <row r="5" spans="1:19">
+        <v>159.5</v>
+      </c>
+      <c r="M4" s="21">
+        <f t="shared" ref="M4" si="1">SUM(M5:M104)</f>
+        <v>139</v>
+      </c>
+      <c r="N4" s="21">
+        <f>SUM(N5:N104)</f>
+        <v>139</v>
+      </c>
+      <c r="O4" s="21">
+        <f>SUM(O5:O104)</f>
+        <v>131</v>
+      </c>
+      <c r="P4" s="21">
+        <f>SUM(P5:P104)</f>
+        <v>112</v>
+      </c>
+      <c r="Q4" s="21">
+        <f>SUM(Q5:Q104)</f>
+        <v>93</v>
+      </c>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -28164,7 +28431,7 @@
       </c>
       <c r="I5" s="19"/>
       <c r="J5" s="12">
-        <f ca="1">IF(ISBLANK(K5)=FALSE,OFFSET(J5,0,COUNTA(K5:Q5)),"")</f>
+        <f t="shared" ref="J5:J39" ca="1" si="2">IF(ISBLANK(K5)=FALSE,OFFSET(J5,0,COUNTA(K5:S5)),"")</f>
         <v>4</v>
       </c>
       <c r="K5" s="22">
@@ -28176,12 +28443,22 @@
       <c r="M5" s="22">
         <v>4</v>
       </c>
-      <c r="N5" s="129"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="N5" s="129">
+        <v>4</v>
+      </c>
+      <c r="O5" s="126">
+        <v>4</v>
+      </c>
+      <c r="P5" s="125">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="125">
+        <v>4</v>
+      </c>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -28205,7 +28482,7 @@
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="12">
-        <f t="shared" ref="J6:J69" ca="1" si="1">IF(ISBLANK(K6)=FALSE,OFFSET(J6,0,COUNTA(K6:Q6)),"")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="K6" s="22">
@@ -28217,12 +28494,22 @@
       <c r="M6" s="22">
         <v>3</v>
       </c>
-      <c r="N6" s="129"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="N6" s="129">
+        <v>3</v>
+      </c>
+      <c r="O6" s="126">
+        <v>3</v>
+      </c>
+      <c r="P6" s="125">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="125">
+        <v>3</v>
+      </c>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="16">
         <v>3</v>
       </c>
@@ -28234,7 +28521,7 @@
         <v>113</v>
       </c>
       <c r="E7" s="12" t="str">
-        <f t="shared" ref="E7:E70" si="2">IF(ISBLANK($C7),"",IF(ISBLANK($G7),"未着手",IF($J7=0,"完了","作業中")))</f>
+        <f t="shared" ref="E7:E70" si="3">IF(ISBLANK($C7),"",IF(ISBLANK($G7),"未着手",IF($J7=0,"完了","作業中")))</f>
         <v>未着手</v>
       </c>
       <c r="F7" s="4">
@@ -28246,7 +28533,7 @@
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="K7" s="22">
@@ -28258,12 +28545,22 @@
       <c r="M7" s="22">
         <v>3</v>
       </c>
-      <c r="N7" s="129"/>
-      <c r="O7" s="127"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="N7" s="129">
+        <v>3</v>
+      </c>
+      <c r="O7" s="126">
+        <v>3</v>
+      </c>
+      <c r="P7" s="125">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="125">
+        <v>3</v>
+      </c>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="16">
         <v>4</v>
       </c>
@@ -28275,7 +28572,7 @@
         <v>113</v>
       </c>
       <c r="E8" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F8" s="4">
@@ -28287,7 +28584,7 @@
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="K8" s="22">
@@ -28299,12 +28596,22 @@
       <c r="M8" s="22">
         <v>3</v>
       </c>
-      <c r="N8" s="129"/>
-      <c r="O8" s="127"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="N8" s="129">
+        <v>3</v>
+      </c>
+      <c r="O8" s="126">
+        <v>3</v>
+      </c>
+      <c r="P8" s="125">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="125">
+        <v>3</v>
+      </c>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="16">
         <v>5</v>
       </c>
@@ -28316,7 +28623,7 @@
         <v>113</v>
       </c>
       <c r="E9" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F9" s="4">
@@ -28328,7 +28635,7 @@
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="K9" s="22">
@@ -28340,12 +28647,22 @@
       <c r="M9" s="22">
         <v>3</v>
       </c>
-      <c r="N9" s="129"/>
-      <c r="O9" s="127"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="N9" s="129">
+        <v>3</v>
+      </c>
+      <c r="O9" s="126">
+        <v>3</v>
+      </c>
+      <c r="P9" s="125">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="125">
+        <v>3</v>
+      </c>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="16">
         <v>6</v>
       </c>
@@ -28357,7 +28674,7 @@
         <v>113</v>
       </c>
       <c r="E10" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F10" s="4">
@@ -28369,7 +28686,7 @@
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="K10" s="22">
@@ -28381,12 +28698,22 @@
       <c r="M10" s="22">
         <v>3</v>
       </c>
-      <c r="N10" s="129"/>
-      <c r="O10" s="127"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="N10" s="129">
+        <v>3</v>
+      </c>
+      <c r="O10" s="126">
+        <v>3</v>
+      </c>
+      <c r="P10" s="125">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="125">
+        <v>3</v>
+      </c>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="16">
         <v>7</v>
       </c>
@@ -28398,7 +28725,7 @@
         <v>113</v>
       </c>
       <c r="E11" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F11" s="4">
@@ -28410,7 +28737,7 @@
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="K11" s="22">
@@ -28422,12 +28749,22 @@
       <c r="M11" s="22">
         <v>3</v>
       </c>
-      <c r="N11" s="129"/>
-      <c r="O11" s="127"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="N11" s="129">
+        <v>3</v>
+      </c>
+      <c r="O11" s="126">
+        <v>3</v>
+      </c>
+      <c r="P11" s="125">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="125">
+        <v>3</v>
+      </c>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="16">
         <v>8</v>
       </c>
@@ -28439,7 +28776,7 @@
         <v>113</v>
       </c>
       <c r="E12" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F12" s="4">
@@ -28451,7 +28788,7 @@
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="K12" s="22">
@@ -28463,12 +28800,22 @@
       <c r="M12" s="22">
         <v>2</v>
       </c>
-      <c r="N12" s="129"/>
-      <c r="O12" s="127"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="N12" s="129">
+        <v>2</v>
+      </c>
+      <c r="O12" s="126">
+        <v>2</v>
+      </c>
+      <c r="P12" s="125">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="125">
+        <v>2</v>
+      </c>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="16">
         <v>9</v>
       </c>
@@ -28480,20 +28827,24 @@
         <v>113</v>
       </c>
       <c r="E13" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="F13" s="4">
         <v>43091</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4">
+        <v>43108</v>
+      </c>
       <c r="H13" s="19">
         <v>2</v>
       </c>
-      <c r="I13" s="19"/>
+      <c r="I13" s="19">
+        <v>2</v>
+      </c>
       <c r="J13" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="K13" s="22">
         <v>2</v>
@@ -28504,12 +28855,22 @@
       <c r="M13" s="22">
         <v>2</v>
       </c>
-      <c r="N13" s="129"/>
-      <c r="O13" s="127"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="N13" s="129">
+        <v>2</v>
+      </c>
+      <c r="O13" s="126">
+        <v>2</v>
+      </c>
+      <c r="P13" s="125">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="125">
+        <v>0</v>
+      </c>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="16">
         <v>10</v>
       </c>
@@ -28521,20 +28882,24 @@
         <v>113</v>
       </c>
       <c r="E14" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="F14" s="4">
         <v>43091</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4">
+        <v>43108</v>
+      </c>
       <c r="H14" s="19">
         <v>2</v>
       </c>
-      <c r="I14" s="19"/>
+      <c r="I14" s="19">
+        <v>2</v>
+      </c>
       <c r="J14" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="K14" s="22">
         <v>2</v>
@@ -28545,12 +28910,22 @@
       <c r="M14" s="22">
         <v>2</v>
       </c>
-      <c r="N14" s="129"/>
-      <c r="O14" s="127"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="N14" s="129">
+        <v>2</v>
+      </c>
+      <c r="O14" s="126">
+        <v>2</v>
+      </c>
+      <c r="P14" s="125">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="125">
+        <v>0</v>
+      </c>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="16">
         <v>11</v>
       </c>
@@ -28562,20 +28937,24 @@
         <v>113</v>
       </c>
       <c r="E15" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="F15" s="4">
         <v>43091</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4">
+        <v>43108</v>
+      </c>
       <c r="H15" s="19">
         <v>2</v>
       </c>
-      <c r="I15" s="19"/>
+      <c r="I15" s="19">
+        <v>2</v>
+      </c>
       <c r="J15" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="K15" s="22">
         <v>2</v>
@@ -28586,12 +28965,22 @@
       <c r="M15" s="22">
         <v>2</v>
       </c>
-      <c r="N15" s="129"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="N15" s="129">
+        <v>2</v>
+      </c>
+      <c r="O15" s="126">
+        <v>2</v>
+      </c>
+      <c r="P15" s="125">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="125">
+        <v>0</v>
+      </c>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="16">
         <v>12</v>
       </c>
@@ -28603,7 +28992,7 @@
         <v>113</v>
       </c>
       <c r="E16" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="F16" s="4">
@@ -28619,7 +29008,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K16" s="22">
@@ -28628,23 +29017,25 @@
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
       <c r="N16" s="129"/>
-      <c r="O16" s="127"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="O16" s="126"/>
+      <c r="P16" s="125"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="16">
         <v>13</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>113</v>
       </c>
       <c r="E17" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F17" s="4">
@@ -28656,7 +29047,7 @@
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="K17" s="22">
@@ -28668,25 +29059,35 @@
       <c r="M17" s="22">
         <v>2</v>
       </c>
-      <c r="N17" s="129"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="N17" s="129">
+        <v>2</v>
+      </c>
+      <c r="O17" s="126">
+        <v>2</v>
+      </c>
+      <c r="P17" s="125">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="125">
+        <v>2</v>
+      </c>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="16">
         <v>14</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>113</v>
       </c>
       <c r="E18" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="F18" s="4">
         <v>43088</v>
@@ -28697,10 +29098,12 @@
       <c r="H18" s="19">
         <v>2</v>
       </c>
-      <c r="I18" s="19"/>
+      <c r="I18" s="19">
+        <v>2</v>
+      </c>
       <c r="J18" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="K18" s="22">
         <v>2</v>
@@ -28711,25 +29114,35 @@
       <c r="M18" s="22">
         <v>1</v>
       </c>
-      <c r="N18" s="129"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="N18" s="129">
+        <v>1</v>
+      </c>
+      <c r="O18" s="126">
+        <v>1</v>
+      </c>
+      <c r="P18" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="125">
+        <v>0</v>
+      </c>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="16">
         <v>15</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="85" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>113</v>
       </c>
       <c r="E19" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="F19" s="4">
         <v>43088</v>
@@ -28740,10 +29153,12 @@
       <c r="H19" s="19">
         <v>2</v>
       </c>
-      <c r="I19" s="19"/>
+      <c r="I19" s="19">
+        <v>2</v>
+      </c>
       <c r="J19" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="K19" s="22">
         <v>2</v>
@@ -28754,25 +29169,35 @@
       <c r="M19" s="22">
         <v>1</v>
       </c>
-      <c r="N19" s="129"/>
-      <c r="O19" s="127"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="N19" s="129">
+        <v>1</v>
+      </c>
+      <c r="O19" s="126">
+        <v>1</v>
+      </c>
+      <c r="P19" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="125">
+        <v>0</v>
+      </c>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="16">
         <v>16</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>113</v>
       </c>
       <c r="E20" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="F20" s="4">
         <v>43088</v>
@@ -28783,10 +29208,12 @@
       <c r="H20" s="19">
         <v>2</v>
       </c>
-      <c r="I20" s="19"/>
+      <c r="I20" s="19">
+        <v>2</v>
+      </c>
       <c r="J20" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="K20" s="22">
         <v>2</v>
@@ -28797,24 +29224,34 @@
       <c r="M20" s="22">
         <v>1</v>
       </c>
-      <c r="N20" s="129"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="N20" s="129">
+        <v>1</v>
+      </c>
+      <c r="O20" s="126">
+        <v>1</v>
+      </c>
+      <c r="P20" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="125">
+        <v>0</v>
+      </c>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="16">
         <v>17</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>113</v>
       </c>
       <c r="E21" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="F21" s="4">
@@ -28828,7 +29265,7 @@
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K21" s="22">
@@ -28841,25 +29278,27 @@
         <v>0</v>
       </c>
       <c r="N21" s="129"/>
-      <c r="O21" s="127"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="O21" s="126"/>
+      <c r="P21" s="125"/>
+      <c r="Q21" s="125"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="16">
         <v>18</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E22" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="F22" s="4">
@@ -28873,7 +29312,7 @@
       </c>
       <c r="I22" s="19"/>
       <c r="J22" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K22" s="22">
@@ -28886,23 +29325,25 @@
         <v>0</v>
       </c>
       <c r="N22" s="129"/>
-      <c r="O22" s="127"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="O22" s="126"/>
+      <c r="P22" s="125"/>
+      <c r="Q22" s="125"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="16">
         <v>19</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="17" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E23" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="F23" s="4">
@@ -28918,7 +29359,7 @@
         <v>4</v>
       </c>
       <c r="J23" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K23" s="22">
@@ -28927,36 +29368,42 @@
       <c r="L23" s="22"/>
       <c r="M23" s="22"/>
       <c r="N23" s="129"/>
-      <c r="O23" s="127"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="O23" s="126"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="125"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="16">
         <v>20</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="17" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E24" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="F24" s="4">
         <v>43092</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4">
+        <v>43461</v>
+      </c>
       <c r="H24" s="19">
         <v>2</v>
       </c>
-      <c r="I24" s="19"/>
+      <c r="I24" s="19">
+        <v>2</v>
+      </c>
       <c r="J24" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="K24" s="22">
         <v>2</v>
@@ -28967,24 +29414,34 @@
       <c r="M24" s="22">
         <v>2</v>
       </c>
-      <c r="N24" s="129"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="N24" s="129">
+        <v>2</v>
+      </c>
+      <c r="O24" s="126">
+        <v>2</v>
+      </c>
+      <c r="P24" s="125">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="125">
+        <v>0</v>
+      </c>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="16">
         <v>21</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="17" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>353</v>
       </c>
       <c r="E25" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="F25" s="4">
@@ -29000,7 +29457,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K25" s="22">
@@ -29013,11 +29470,13 @@
         <v>0</v>
       </c>
       <c r="N25" s="129"/>
-      <c r="O25" s="127"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="O25" s="126"/>
+      <c r="P25" s="125"/>
+      <c r="Q25" s="125"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="16">
         <v>22</v>
       </c>
@@ -29029,19 +29488,23 @@
         <v>353</v>
       </c>
       <c r="E26" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>作業中</v>
       </c>
       <c r="F26" s="4">
         <v>43098</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4">
+        <v>43104</v>
+      </c>
       <c r="H26" s="19">
         <v>2</v>
       </c>
-      <c r="I26" s="19"/>
+      <c r="I26" s="19">
+        <v>3</v>
+      </c>
       <c r="J26" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
       <c r="K26" s="22">
@@ -29053,12 +29516,22 @@
       <c r="M26" s="22">
         <v>2</v>
       </c>
-      <c r="N26" s="129"/>
-      <c r="O26" s="127"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="N26" s="129">
+        <v>2</v>
+      </c>
+      <c r="O26" s="126">
+        <v>2</v>
+      </c>
+      <c r="P26" s="125">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="125">
+        <v>2</v>
+      </c>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="16">
         <v>23</v>
       </c>
@@ -29070,7 +29543,7 @@
         <v>353</v>
       </c>
       <c r="E27" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F27" s="4">
@@ -29082,7 +29555,7 @@
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="K27" s="22">
@@ -29094,12 +29567,22 @@
       <c r="M27" s="22">
         <v>3</v>
       </c>
-      <c r="N27" s="129"/>
-      <c r="O27" s="127"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="N27" s="129">
+        <v>3</v>
+      </c>
+      <c r="O27" s="126">
+        <v>3</v>
+      </c>
+      <c r="P27" s="125">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="125">
+        <v>3</v>
+      </c>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="16">
         <v>24</v>
       </c>
@@ -29111,8 +29594,8 @@
         <v>353</v>
       </c>
       <c r="E28" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="F28" s="4">
         <v>43088</v>
@@ -29124,11 +29607,11 @@
         <v>4</v>
       </c>
       <c r="I28" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J28" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="K28" s="22">
         <v>4</v>
@@ -29139,25 +29622,31 @@
       <c r="M28" s="22">
         <v>1</v>
       </c>
-      <c r="N28" s="129"/>
-      <c r="O28" s="127"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="N28" s="129">
+        <v>1</v>
+      </c>
+      <c r="O28" s="126">
+        <v>0</v>
+      </c>
+      <c r="P28" s="125"/>
+      <c r="Q28" s="125"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="16">
         <v>25</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>353</v>
       </c>
       <c r="E29" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="F29" s="4">
         <v>43091</v>
@@ -29166,14 +29655,14 @@
         <v>43091</v>
       </c>
       <c r="H29" s="19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I29" s="19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J29" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
       </c>
       <c r="K29" s="22">
         <v>2</v>
@@ -29184,12 +29673,18 @@
       <c r="M29" s="22">
         <v>2</v>
       </c>
-      <c r="N29" s="129"/>
-      <c r="O29" s="127"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="N29" s="129">
+        <v>2</v>
+      </c>
+      <c r="O29" s="126">
+        <v>0</v>
+      </c>
+      <c r="P29" s="125"/>
+      <c r="Q29" s="125"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="16">
         <v>26</v>
       </c>
@@ -29201,7 +29696,7 @@
         <v>353</v>
       </c>
       <c r="E30" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F30" s="4">
@@ -29213,7 +29708,7 @@
       </c>
       <c r="I30" s="19"/>
       <c r="J30" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="K30" s="22">
@@ -29225,12 +29720,22 @@
       <c r="M30" s="22">
         <v>1</v>
       </c>
-      <c r="N30" s="129"/>
-      <c r="O30" s="127"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="N30" s="129">
+        <v>1</v>
+      </c>
+      <c r="O30" s="126">
+        <v>1</v>
+      </c>
+      <c r="P30" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="125">
+        <v>1</v>
+      </c>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="16">
         <v>27</v>
       </c>
@@ -29242,7 +29747,7 @@
         <v>353</v>
       </c>
       <c r="E31" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F31" s="4">
@@ -29254,7 +29759,7 @@
       </c>
       <c r="I31" s="19"/>
       <c r="J31" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="K31" s="22">
@@ -29266,12 +29771,22 @@
       <c r="M31" s="22">
         <v>1</v>
       </c>
-      <c r="N31" s="129"/>
-      <c r="O31" s="127"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-    </row>
-    <row r="32" spans="1:17">
+      <c r="N31" s="129">
+        <v>1</v>
+      </c>
+      <c r="O31" s="126">
+        <v>1</v>
+      </c>
+      <c r="P31" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="125">
+        <v>1</v>
+      </c>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="16">
         <v>28</v>
       </c>
@@ -29283,7 +29798,7 @@
         <v>353</v>
       </c>
       <c r="E32" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F32" s="4">
@@ -29295,7 +29810,7 @@
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="K32" s="22">
@@ -29307,24 +29822,34 @@
       <c r="M32" s="22">
         <v>1</v>
       </c>
-      <c r="N32" s="129"/>
-      <c r="O32" s="127"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="N32" s="129">
+        <v>1</v>
+      </c>
+      <c r="O32" s="126">
+        <v>1</v>
+      </c>
+      <c r="P32" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="125">
+        <v>1</v>
+      </c>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" s="16">
         <v>29</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="17" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>353</v>
       </c>
       <c r="E33" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F33" s="4">
@@ -29336,7 +29861,7 @@
       </c>
       <c r="I33" s="19"/>
       <c r="J33" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="K33" s="22">
@@ -29348,12 +29873,22 @@
       <c r="M33" s="22">
         <v>1</v>
       </c>
-      <c r="N33" s="129"/>
-      <c r="O33" s="127"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="N33" s="129">
+        <v>1</v>
+      </c>
+      <c r="O33" s="126">
+        <v>1</v>
+      </c>
+      <c r="P33" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="125">
+        <v>1</v>
+      </c>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" s="16">
         <v>30</v>
       </c>
@@ -29365,7 +29900,7 @@
         <v>353</v>
       </c>
       <c r="E34" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="F34" s="4">
@@ -29381,7 +29916,7 @@
         <v>6</v>
       </c>
       <c r="J34" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K34" s="22">
@@ -29394,11 +29929,13 @@
         <v>0</v>
       </c>
       <c r="N34" s="129"/>
-      <c r="O34" s="127"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="O34" s="126"/>
+      <c r="P34" s="125"/>
+      <c r="Q34" s="125"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" s="16">
         <v>31</v>
       </c>
@@ -29410,7 +29947,7 @@
         <v>112</v>
       </c>
       <c r="E35" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="F35" s="4">
@@ -29426,7 +29963,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K35" s="22">
@@ -29437,23 +29974,25 @@
       </c>
       <c r="M35" s="22"/>
       <c r="N35" s="129"/>
-      <c r="O35" s="127"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="O35" s="126"/>
+      <c r="P35" s="125"/>
+      <c r="Q35" s="125"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" s="16">
         <v>32</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="17" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>112</v>
       </c>
       <c r="E36" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>作業中</v>
       </c>
       <c r="F36" s="4">
@@ -29469,7 +30008,7 @@
         <v>2</v>
       </c>
       <c r="J36" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="K36" s="22">
@@ -29481,17 +30020,27 @@
       <c r="M36" s="22">
         <v>3</v>
       </c>
-      <c r="N36" s="129"/>
-      <c r="O36" s="127"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="N36" s="129">
+        <v>3</v>
+      </c>
+      <c r="O36" s="126">
+        <v>3</v>
+      </c>
+      <c r="P36" s="125">
+        <v>3</v>
+      </c>
+      <c r="Q36" s="125">
+        <v>3</v>
+      </c>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" s="16">
         <v>33</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>363</v>
@@ -29500,7 +30049,7 @@
         <v>376</v>
       </c>
       <c r="E37" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="F37" s="4">
@@ -29516,7 +30065,7 @@
         <v>2</v>
       </c>
       <c r="J37" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K37" s="22">
@@ -29527,16 +30076,18 @@
       </c>
       <c r="M37" s="22"/>
       <c r="N37" s="129"/>
-      <c r="O37" s="127"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="O37" s="126"/>
+      <c r="P37" s="125"/>
+      <c r="Q37" s="125"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" s="16">
         <v>34</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>364</v>
@@ -29545,7 +30096,7 @@
         <v>376</v>
       </c>
       <c r="E38" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="F38" s="4">
@@ -29561,7 +30112,7 @@
         <v>2</v>
       </c>
       <c r="J38" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K38" s="22">
@@ -29570,23 +30121,25 @@
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="129"/>
-      <c r="O38" s="127"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="S38" s="106"/>
-      <c r="T38" s="106"/>
+      <c r="O38" s="126"/>
+      <c r="P38" s="125"/>
+      <c r="Q38" s="125"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
       <c r="U38" s="106"/>
       <c r="V38" s="106"/>
       <c r="W38" s="106"/>
       <c r="X38" s="106"/>
       <c r="Y38" s="106"/>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="Z38" s="106"/>
+      <c r="AA38" s="106"/>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" s="16">
         <v>35</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>365</v>
@@ -29611,7 +30164,7 @@
         <v>0.5</v>
       </c>
       <c r="J39" s="12">
-        <f ca="1">IF(ISBLANK(K39)=FALSE,OFFSET(J39,0,COUNTA(K39:Q39)),"")</f>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K39" s="22">
@@ -29624,23 +30177,25 @@
         <v>0</v>
       </c>
       <c r="N39" s="129"/>
-      <c r="O39" s="127"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="S39" s="117"/>
-      <c r="T39" s="117"/>
-      <c r="U39" s="106"/>
-      <c r="V39" s="106"/>
+      <c r="O39" s="126"/>
+      <c r="P39" s="125"/>
+      <c r="Q39" s="125"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="U39" s="117"/>
+      <c r="V39" s="117"/>
       <c r="W39" s="106"/>
       <c r="X39" s="106"/>
       <c r="Y39" s="106"/>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="Z39" s="106"/>
+      <c r="AA39" s="106"/>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" s="16">
         <v>36</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>366</v>
@@ -29649,7 +30204,7 @@
         <v>376</v>
       </c>
       <c r="E40" s="12" t="str">
-        <f t="shared" ref="E40:E50" ca="1" si="3">IF(ISBLANK($C40),"",IF(ISBLANK($G40),"未着手",IF($J40=0,"完了","作業中")))</f>
+        <f t="shared" ref="E40:E50" ca="1" si="4">IF(ISBLANK($C40),"",IF(ISBLANK($G40),"未着手",IF($J40=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F40" s="4">
@@ -29665,7 +30220,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="12">
-        <f t="shared" ref="J40:J50" ca="1" si="4">IF(ISBLANK(K40)=FALSE,OFFSET(J40,0,COUNTA(K40:Q40)),"")</f>
+        <f t="shared" ref="J40:J50" ca="1" si="5">IF(ISBLANK(K40)=FALSE,OFFSET(J40,0,COUNTA(K40:S40)),"")</f>
         <v>0</v>
       </c>
       <c r="K40" s="22">
@@ -29676,18 +30231,20 @@
       </c>
       <c r="M40" s="22"/>
       <c r="N40" s="129"/>
-      <c r="O40" s="127"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="S40" s="117"/>
-      <c r="T40" s="117"/>
-      <c r="U40" s="106"/>
-      <c r="V40" s="106"/>
+      <c r="O40" s="126"/>
+      <c r="P40" s="125"/>
+      <c r="Q40" s="125"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="U40" s="117"/>
+      <c r="V40" s="117"/>
       <c r="W40" s="106"/>
       <c r="X40" s="106"/>
       <c r="Y40" s="106"/>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="Z40" s="106"/>
+      <c r="AA40" s="106"/>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" s="16">
         <v>37</v>
       </c>
@@ -29699,7 +30256,7 @@
         <v>376</v>
       </c>
       <c r="E41" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F41" s="4">
@@ -29711,7 +30268,7 @@
       </c>
       <c r="I41" s="19"/>
       <c r="J41" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="K41" s="22">
@@ -29720,20 +30277,32 @@
       <c r="L41" s="22">
         <v>1</v>
       </c>
-      <c r="M41" s="22"/>
-      <c r="N41" s="129"/>
-      <c r="O41" s="127"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="S41" s="117"/>
-      <c r="T41" s="117"/>
-      <c r="U41" s="106"/>
-      <c r="V41" s="106"/>
+      <c r="M41" s="22">
+        <v>1</v>
+      </c>
+      <c r="N41" s="129">
+        <v>1</v>
+      </c>
+      <c r="O41" s="126">
+        <v>1</v>
+      </c>
+      <c r="P41" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="125">
+        <v>1</v>
+      </c>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="U41" s="117"/>
+      <c r="V41" s="117"/>
       <c r="W41" s="106"/>
       <c r="X41" s="106"/>
       <c r="Y41" s="106"/>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="Z41" s="106"/>
+      <c r="AA41" s="106"/>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" s="16">
         <v>38</v>
       </c>
@@ -29745,7 +30314,7 @@
         <v>376</v>
       </c>
       <c r="E42" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F42" s="4">
@@ -29757,7 +30326,7 @@
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
       <c r="K42" s="22">
@@ -29766,20 +30335,32 @@
       <c r="L42" s="22">
         <v>3</v>
       </c>
-      <c r="M42" s="22"/>
-      <c r="N42" s="129"/>
-      <c r="O42" s="127"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="S42" s="117"/>
-      <c r="T42" s="117"/>
-      <c r="U42" s="106"/>
-      <c r="V42" s="106"/>
+      <c r="M42" s="22">
+        <v>3</v>
+      </c>
+      <c r="N42" s="129">
+        <v>3</v>
+      </c>
+      <c r="O42" s="126">
+        <v>3</v>
+      </c>
+      <c r="P42" s="125">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="125">
+        <v>3</v>
+      </c>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="U42" s="117"/>
+      <c r="V42" s="117"/>
       <c r="W42" s="106"/>
       <c r="X42" s="106"/>
       <c r="Y42" s="106"/>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="Z42" s="106"/>
+      <c r="AA42" s="106"/>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" s="16">
         <v>39</v>
       </c>
@@ -29791,7 +30372,7 @@
         <v>376</v>
       </c>
       <c r="E43" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F43" s="4">
@@ -29803,7 +30384,7 @@
       </c>
       <c r="I43" s="19"/>
       <c r="J43" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="K43" s="22">
@@ -29812,32 +30393,44 @@
       <c r="L43" s="22">
         <v>1</v>
       </c>
-      <c r="M43" s="22"/>
-      <c r="N43" s="129"/>
-      <c r="O43" s="127"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="S43" s="117"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="106"/>
-      <c r="V43" s="106"/>
+      <c r="M43" s="22">
+        <v>1</v>
+      </c>
+      <c r="N43" s="129">
+        <v>1</v>
+      </c>
+      <c r="O43" s="126">
+        <v>1</v>
+      </c>
+      <c r="P43" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="125">
+        <v>1</v>
+      </c>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="U43" s="117"/>
+      <c r="V43" s="117"/>
       <c r="W43" s="106"/>
       <c r="X43" s="106"/>
       <c r="Y43" s="106"/>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="Z43" s="106"/>
+      <c r="AA43" s="106"/>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" s="16">
         <v>40</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="17" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>376</v>
       </c>
       <c r="E44" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F44" s="4">
@@ -29849,7 +30442,7 @@
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="K44" s="22">
@@ -29858,25 +30451,37 @@
       <c r="L44" s="22">
         <v>1</v>
       </c>
-      <c r="M44" s="22"/>
-      <c r="N44" s="129"/>
-      <c r="O44" s="127"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="S44" s="117"/>
-      <c r="T44" s="117"/>
-      <c r="U44" s="106"/>
-      <c r="V44" s="106"/>
+      <c r="M44" s="22">
+        <v>1</v>
+      </c>
+      <c r="N44" s="129">
+        <v>1</v>
+      </c>
+      <c r="O44" s="126">
+        <v>1</v>
+      </c>
+      <c r="P44" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="125">
+        <v>1</v>
+      </c>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="U44" s="117"/>
+      <c r="V44" s="117"/>
       <c r="W44" s="106"/>
       <c r="X44" s="106"/>
       <c r="Y44" s="106"/>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="Z44" s="106"/>
+      <c r="AA44" s="106"/>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" s="16">
         <v>41</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>370</v>
@@ -29885,7 +30490,7 @@
         <v>376</v>
       </c>
       <c r="E45" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F45" s="4">
@@ -29897,7 +30502,7 @@
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="K45" s="22">
@@ -29906,25 +30511,37 @@
       <c r="L45" s="22">
         <v>1</v>
       </c>
-      <c r="M45" s="22"/>
-      <c r="N45" s="129"/>
-      <c r="O45" s="127"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-      <c r="S45" s="117"/>
-      <c r="T45" s="117"/>
-      <c r="U45" s="106"/>
-      <c r="V45" s="106"/>
+      <c r="M45" s="22">
+        <v>1</v>
+      </c>
+      <c r="N45" s="129">
+        <v>1</v>
+      </c>
+      <c r="O45" s="126">
+        <v>1</v>
+      </c>
+      <c r="P45" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="125">
+        <v>1</v>
+      </c>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+      <c r="U45" s="117"/>
+      <c r="V45" s="117"/>
       <c r="W45" s="106"/>
       <c r="X45" s="106"/>
       <c r="Y45" s="106"/>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="Z45" s="106"/>
+      <c r="AA45" s="106"/>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" s="16">
         <v>42</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>371</v>
@@ -29933,7 +30550,7 @@
         <v>376</v>
       </c>
       <c r="E46" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F46" s="4">
@@ -29945,7 +30562,7 @@
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="K46" s="22">
@@ -29954,25 +30571,37 @@
       <c r="L46" s="22">
         <v>1</v>
       </c>
-      <c r="M46" s="22"/>
-      <c r="N46" s="129"/>
-      <c r="O46" s="127"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="S46" s="117"/>
-      <c r="T46" s="117"/>
-      <c r="U46" s="106"/>
-      <c r="V46" s="106"/>
+      <c r="M46" s="22">
+        <v>1</v>
+      </c>
+      <c r="N46" s="129">
+        <v>1</v>
+      </c>
+      <c r="O46" s="126">
+        <v>1</v>
+      </c>
+      <c r="P46" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="125">
+        <v>1</v>
+      </c>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="U46" s="117"/>
+      <c r="V46" s="117"/>
       <c r="W46" s="106"/>
       <c r="X46" s="106"/>
       <c r="Y46" s="106"/>
-    </row>
-    <row r="47" spans="1:25">
+      <c r="Z46" s="106"/>
+      <c r="AA46" s="106"/>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" s="16">
         <v>43</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>372</v>
@@ -29981,7 +30610,7 @@
         <v>376</v>
       </c>
       <c r="E47" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F47" s="4">
@@ -29993,7 +30622,7 @@
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="K47" s="22">
@@ -30002,25 +30631,37 @@
       <c r="L47" s="22">
         <v>1</v>
       </c>
-      <c r="M47" s="22"/>
-      <c r="N47" s="129"/>
-      <c r="O47" s="127"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="S47" s="117"/>
-      <c r="T47" s="117"/>
-      <c r="U47" s="106"/>
-      <c r="V47" s="106"/>
+      <c r="M47" s="22">
+        <v>1</v>
+      </c>
+      <c r="N47" s="129">
+        <v>1</v>
+      </c>
+      <c r="O47" s="126">
+        <v>1</v>
+      </c>
+      <c r="P47" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="125">
+        <v>1</v>
+      </c>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="U47" s="117"/>
+      <c r="V47" s="117"/>
       <c r="W47" s="106"/>
       <c r="X47" s="106"/>
       <c r="Y47" s="106"/>
-    </row>
-    <row r="48" spans="1:25">
+      <c r="Z47" s="106"/>
+      <c r="AA47" s="106"/>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" s="16">
         <v>44</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>373</v>
@@ -30029,7 +30670,7 @@
         <v>376</v>
       </c>
       <c r="E48" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F48" s="4">
@@ -30041,7 +30682,7 @@
       </c>
       <c r="I48" s="19"/>
       <c r="J48" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="K48" s="22">
@@ -30050,25 +30691,37 @@
       <c r="L48" s="22">
         <v>1</v>
       </c>
-      <c r="M48" s="22"/>
-      <c r="N48" s="129"/>
-      <c r="O48" s="127"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="S48" s="117"/>
-      <c r="T48" s="117"/>
-      <c r="U48" s="106"/>
-      <c r="V48" s="106"/>
+      <c r="M48" s="22">
+        <v>1</v>
+      </c>
+      <c r="N48" s="129">
+        <v>1</v>
+      </c>
+      <c r="O48" s="126">
+        <v>1</v>
+      </c>
+      <c r="P48" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="125">
+        <v>1</v>
+      </c>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="U48" s="117"/>
+      <c r="V48" s="117"/>
       <c r="W48" s="106"/>
       <c r="X48" s="106"/>
       <c r="Y48" s="106"/>
-    </row>
-    <row r="49" spans="1:25">
+      <c r="Z48" s="106"/>
+      <c r="AA48" s="106"/>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" s="16">
         <v>45</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>374</v>
@@ -30077,7 +30730,7 @@
         <v>376</v>
       </c>
       <c r="E49" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F49" s="4">
@@ -30089,7 +30742,7 @@
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="K49" s="22">
@@ -30098,25 +30751,37 @@
       <c r="L49" s="22">
         <v>1</v>
       </c>
-      <c r="M49" s="22"/>
-      <c r="N49" s="129"/>
-      <c r="O49" s="127"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="S49" s="117"/>
-      <c r="T49" s="117"/>
-      <c r="U49" s="106"/>
-      <c r="V49" s="106"/>
+      <c r="M49" s="22">
+        <v>1</v>
+      </c>
+      <c r="N49" s="129">
+        <v>1</v>
+      </c>
+      <c r="O49" s="126">
+        <v>1</v>
+      </c>
+      <c r="P49" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="125">
+        <v>1</v>
+      </c>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="U49" s="117"/>
+      <c r="V49" s="117"/>
       <c r="W49" s="106"/>
       <c r="X49" s="106"/>
       <c r="Y49" s="106"/>
-    </row>
-    <row r="50" spans="1:25">
+      <c r="Z49" s="106"/>
+      <c r="AA49" s="106"/>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" s="16">
         <v>46</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>369</v>
@@ -30125,7 +30790,7 @@
         <v>376</v>
       </c>
       <c r="E50" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>未着手</v>
       </c>
       <c r="F50" s="4">
@@ -30137,7 +30802,7 @@
       </c>
       <c r="I50" s="19"/>
       <c r="J50" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
       <c r="K50" s="22">
@@ -30146,25 +30811,37 @@
       <c r="L50" s="22">
         <v>1</v>
       </c>
-      <c r="M50" s="22"/>
-      <c r="N50" s="129"/>
-      <c r="O50" s="127"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="S50" s="117"/>
-      <c r="T50" s="117"/>
-      <c r="U50" s="106"/>
-      <c r="V50" s="106"/>
+      <c r="M50" s="22">
+        <v>1</v>
+      </c>
+      <c r="N50" s="129">
+        <v>1</v>
+      </c>
+      <c r="O50" s="126">
+        <v>1</v>
+      </c>
+      <c r="P50" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="125">
+        <v>1</v>
+      </c>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="U50" s="117"/>
+      <c r="V50" s="117"/>
       <c r="W50" s="106"/>
       <c r="X50" s="106"/>
       <c r="Y50" s="106"/>
-    </row>
-    <row r="51" spans="1:25">
+      <c r="Z50" s="106"/>
+      <c r="AA50" s="106"/>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" s="16">
         <v>47</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>375</v>
@@ -30173,7 +30850,7 @@
         <v>376</v>
       </c>
       <c r="E51" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F51" s="4">
@@ -30185,7 +30862,7 @@
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(ISBLANK(K51)=FALSE,OFFSET(J51,0,COUNTA(K51:S51)),"")</f>
         <v>1</v>
       </c>
       <c r="K51" s="22">
@@ -30194,34 +30871,46 @@
       <c r="L51" s="22">
         <v>1</v>
       </c>
-      <c r="M51" s="22"/>
-      <c r="N51" s="129"/>
-      <c r="O51" s="127"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="S51" s="106"/>
-      <c r="T51" s="106"/>
+      <c r="M51" s="22">
+        <v>1</v>
+      </c>
+      <c r="N51" s="129">
+        <v>1</v>
+      </c>
+      <c r="O51" s="126">
+        <v>1</v>
+      </c>
+      <c r="P51" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="125">
+        <v>1</v>
+      </c>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
       <c r="U51" s="106"/>
       <c r="V51" s="106"/>
       <c r="W51" s="106"/>
       <c r="X51" s="106"/>
       <c r="Y51" s="106"/>
-    </row>
-    <row r="52" spans="1:25">
+      <c r="Z51" s="106"/>
+      <c r="AA51" s="106"/>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" s="16">
         <v>48</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E52" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="F52" s="4">
@@ -30237,7 +30926,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(ISBLANK(K52)=FALSE,OFFSET(J52,0,COUNTA(K52:S52)),"")</f>
         <v>0</v>
       </c>
       <c r="K52" s="22">
@@ -30250,32 +30939,34 @@
         <v>0</v>
       </c>
       <c r="N52" s="129"/>
-      <c r="O52" s="127"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="S52" s="106"/>
-      <c r="T52" s="106"/>
+      <c r="O52" s="126"/>
+      <c r="P52" s="125"/>
+      <c r="Q52" s="125"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
       <c r="U52" s="106"/>
       <c r="V52" s="106"/>
       <c r="W52" s="106"/>
       <c r="X52" s="106"/>
       <c r="Y52" s="106"/>
-    </row>
-    <row r="53" spans="1:25">
+      <c r="Z52" s="106"/>
+      <c r="AA52" s="106"/>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" s="16">
         <v>49</v>
       </c>
       <c r="B53" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="C53" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="C53" s="17" t="s">
-        <v>423</v>
-      </c>
       <c r="D53" s="18" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E53" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="F53" s="4">
@@ -30291,7 +30982,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(ISBLANK(K53)=FALSE,OFFSET(J53,0,COUNTA(K53:S53)),"")</f>
         <v>0</v>
       </c>
       <c r="K53" s="22">
@@ -30304,30 +30995,32 @@
         <v>0</v>
       </c>
       <c r="N53" s="129"/>
-      <c r="O53" s="127"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="S53" s="106"/>
-      <c r="T53" s="106"/>
+      <c r="O53" s="126"/>
+      <c r="P53" s="125"/>
+      <c r="Q53" s="125"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
       <c r="U53" s="106"/>
       <c r="V53" s="106"/>
       <c r="W53" s="106"/>
       <c r="X53" s="106"/>
       <c r="Y53" s="106"/>
-    </row>
-    <row r="54" spans="1:25">
+      <c r="Z53" s="106"/>
+      <c r="AA53" s="106"/>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" s="16">
         <v>50</v>
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="17" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E54" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F54" s="4">
@@ -30347,13 +31040,25 @@
       <c r="L54" s="22">
         <v>2</v>
       </c>
-      <c r="M54" s="22"/>
-      <c r="N54" s="129"/>
-      <c r="O54" s="127"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-    </row>
-    <row r="55" spans="1:25">
+      <c r="M54" s="22">
+        <v>2</v>
+      </c>
+      <c r="N54" s="129">
+        <v>2</v>
+      </c>
+      <c r="O54" s="126">
+        <v>2</v>
+      </c>
+      <c r="P54" s="125">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="125">
+        <v>2</v>
+      </c>
+      <c r="R54" s="22"/>
+      <c r="S54" s="22"/>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" s="16">
         <v>51</v>
       </c>
@@ -30361,7 +31066,7 @@
       <c r="C55" s="17"/>
       <c r="D55" s="18"/>
       <c r="E55" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F55" s="4"/>
@@ -30373,68 +31078,54 @@
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="129"/>
-      <c r="O55" s="127"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-    </row>
-    <row r="56" spans="1:25">
+      <c r="O55" s="126"/>
+      <c r="P55" s="125"/>
+      <c r="Q55" s="125"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="22"/>
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" s="16">
         <v>52</v>
       </c>
       <c r="B56" s="16"/>
-      <c r="C56" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>378</v>
-      </c>
+      <c r="C56" s="17"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>作業中</v>
-      </c>
-      <c r="F56" s="4">
-        <v>43084</v>
-      </c>
-      <c r="G56" s="4">
-        <v>43091</v>
-      </c>
-      <c r="H56" s="19">
-        <v>6</v>
-      </c>
-      <c r="I56" s="19">
-        <v>2</v>
-      </c>
-      <c r="J56" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="K56" s="22">
-        <v>6</v>
-      </c>
-      <c r="L56" s="22">
-        <v>6</v>
-      </c>
-      <c r="M56" s="22">
-        <v>6</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="12" t="str">
+        <f t="shared" ref="J56:J62" ca="1" si="6">IF(ISBLANK(K56)=FALSE,OFFSET(J56,0,COUNTA(K56:S56)),"")</f>
+        <v/>
+      </c>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
       <c r="N56" s="129"/>
-      <c r="O56" s="127"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-    </row>
-    <row r="57" spans="1:25">
+      <c r="O56" s="126"/>
+      <c r="P56" s="125"/>
+      <c r="Q56" s="125"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" s="16">
         <v>53</v>
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>378</v>
       </c>
       <c r="E57" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="F57" s="4">
@@ -30448,7 +31139,7 @@
       </c>
       <c r="I57" s="19"/>
       <c r="J57" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K57" s="22">
@@ -30461,23 +31152,25 @@
         <v>0</v>
       </c>
       <c r="N57" s="129"/>
-      <c r="O57" s="127"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
-    </row>
-    <row r="58" spans="1:25">
+      <c r="O57" s="126"/>
+      <c r="P57" s="125"/>
+      <c r="Q57" s="125"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" s="16">
         <v>54</v>
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="17" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E58" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>作業中</v>
       </c>
       <c r="F58" s="4">
@@ -30493,7 +31186,7 @@
         <v>2</v>
       </c>
       <c r="J58" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>6</v>
       </c>
       <c r="K58" s="22">
@@ -30505,24 +31198,34 @@
       <c r="M58" s="22">
         <v>6</v>
       </c>
-      <c r="N58" s="129"/>
-      <c r="O58" s="127"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-    </row>
-    <row r="59" spans="1:25">
+      <c r="N58" s="129">
+        <v>6</v>
+      </c>
+      <c r="O58" s="126">
+        <v>6</v>
+      </c>
+      <c r="P58" s="125">
+        <v>6</v>
+      </c>
+      <c r="Q58" s="125">
+        <v>6</v>
+      </c>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" s="16">
         <v>55</v>
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="17" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E59" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>作業中</v>
       </c>
       <c r="F59" s="4">
@@ -30538,7 +31241,7 @@
         <v>2</v>
       </c>
       <c r="J59" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="6"/>
         <v>6</v>
       </c>
       <c r="K59" s="22">
@@ -30550,117 +31253,235 @@
       <c r="M59" s="22">
         <v>6</v>
       </c>
-      <c r="N59" s="129"/>
-      <c r="O59" s="127"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-    </row>
-    <row r="60" spans="1:25">
+      <c r="N59" s="129">
+        <v>6</v>
+      </c>
+      <c r="O59" s="126">
+        <v>6</v>
+      </c>
+      <c r="P59" s="125">
+        <v>6</v>
+      </c>
+      <c r="Q59" s="125">
+        <v>6</v>
+      </c>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" s="16">
         <v>56</v>
       </c>
       <c r="B60" s="16"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="18"/>
+      <c r="C60" s="17" t="s">
+        <v>449</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>446</v>
+      </c>
       <c r="E60" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="129"/>
-      <c r="O60" s="127"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="22"/>
-    </row>
-    <row r="61" spans="1:25">
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
+      </c>
+      <c r="F60" s="4">
+        <v>43101</v>
+      </c>
+      <c r="G60" s="4">
+        <v>43104</v>
+      </c>
+      <c r="H60" s="19">
+        <v>2</v>
+      </c>
+      <c r="I60" s="19">
+        <v>1</v>
+      </c>
+      <c r="J60" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="22">
+        <v>2</v>
+      </c>
+      <c r="L60" s="22">
+        <v>2</v>
+      </c>
+      <c r="M60" s="22">
+        <v>2</v>
+      </c>
+      <c r="N60" s="129">
+        <v>2</v>
+      </c>
+      <c r="O60" s="126">
+        <v>2</v>
+      </c>
+      <c r="P60" s="125">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="125"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="22"/>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" s="16">
         <v>57</v>
       </c>
       <c r="B61" s="16"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="18"/>
+      <c r="C61" s="17" t="s">
+        <v>445</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>446</v>
+      </c>
       <c r="E61" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="129"/>
-      <c r="O61" s="127"/>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="22"/>
-    </row>
-    <row r="62" spans="1:25">
+        <f t="shared" ca="1" si="3"/>
+        <v>作業中</v>
+      </c>
+      <c r="F61" s="4">
+        <v>43101</v>
+      </c>
+      <c r="G61" s="4">
+        <v>43101</v>
+      </c>
+      <c r="H61" s="19">
+        <v>1</v>
+      </c>
+      <c r="I61" s="19">
+        <v>1</v>
+      </c>
+      <c r="J61" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K61" s="22">
+        <v>1</v>
+      </c>
+      <c r="L61" s="22">
+        <v>1</v>
+      </c>
+      <c r="M61" s="22">
+        <v>1</v>
+      </c>
+      <c r="N61" s="129">
+        <v>1</v>
+      </c>
+      <c r="O61" s="126">
+        <v>1</v>
+      </c>
+      <c r="P61" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="125">
+        <v>1</v>
+      </c>
+      <c r="R61" s="22"/>
+      <c r="S61" s="22"/>
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62" s="16">
         <v>58</v>
       </c>
       <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="18"/>
+      <c r="C62" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>446</v>
+      </c>
       <c r="E62" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="129"/>
-      <c r="O62" s="127"/>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="22"/>
-    </row>
-    <row r="63" spans="1:25">
+        <f t="shared" ca="1" si="3"/>
+        <v>作業中</v>
+      </c>
+      <c r="F62" s="4">
+        <v>43101</v>
+      </c>
+      <c r="G62" s="4">
+        <v>43101</v>
+      </c>
+      <c r="H62" s="19">
+        <v>1</v>
+      </c>
+      <c r="I62" s="19">
+        <v>1</v>
+      </c>
+      <c r="J62" s="12">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K62" s="22">
+        <v>1</v>
+      </c>
+      <c r="L62" s="22">
+        <v>1</v>
+      </c>
+      <c r="M62" s="22">
+        <v>1</v>
+      </c>
+      <c r="N62" s="129">
+        <v>1</v>
+      </c>
+      <c r="O62" s="126">
+        <v>1</v>
+      </c>
+      <c r="P62" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="125">
+        <v>1</v>
+      </c>
+      <c r="R62" s="22"/>
+      <c r="S62" s="22"/>
+    </row>
+    <row r="63" spans="1:27">
       <c r="A63" s="16">
         <v>59</v>
       </c>
       <c r="B63" s="16"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="18"/>
+      <c r="C63" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>441</v>
+      </c>
       <c r="E63" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
+        <f t="shared" si="3"/>
+        <v>完了</v>
+      </c>
+      <c r="F63" s="4">
+        <v>43463</v>
+      </c>
+      <c r="G63" s="4">
+        <v>43105</v>
+      </c>
+      <c r="H63" s="19">
+        <v>1</v>
+      </c>
+      <c r="I63" s="19">
+        <v>1</v>
+      </c>
       <c r="J63" s="12"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="129"/>
-      <c r="O63" s="127"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
-    </row>
-    <row r="64" spans="1:25">
+      <c r="K63" s="22">
+        <v>1</v>
+      </c>
+      <c r="L63" s="22">
+        <v>1</v>
+      </c>
+      <c r="M63" s="22">
+        <v>1</v>
+      </c>
+      <c r="N63" s="129">
+        <v>1</v>
+      </c>
+      <c r="O63" s="126">
+        <v>1</v>
+      </c>
+      <c r="P63" s="125">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="125"/>
+      <c r="R63" s="22"/>
+      <c r="S63" s="22"/>
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" s="16">
         <v>60</v>
       </c>
@@ -30672,19 +31493,23 @@
         <v>383</v>
       </c>
       <c r="E64" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>作業中</v>
       </c>
       <c r="F64" s="4">
         <v>43091</v>
       </c>
-      <c r="G64" s="4"/>
+      <c r="G64" s="4">
+        <v>43456</v>
+      </c>
       <c r="H64" s="19">
         <v>2</v>
       </c>
-      <c r="I64" s="19"/>
+      <c r="I64" s="19">
+        <v>1</v>
+      </c>
       <c r="J64" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ref="J64:J69" ca="1" si="7">IF(ISBLANK(K64)=FALSE,OFFSET(J64,0,COUNTA(K64:S64)),"")</f>
         <v>2</v>
       </c>
       <c r="K64" s="22">
@@ -30693,13 +31518,25 @@
       <c r="L64" s="22">
         <v>2</v>
       </c>
-      <c r="M64" s="22"/>
-      <c r="N64" s="129"/>
-      <c r="O64" s="127"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-    </row>
-    <row r="65" spans="1:24">
+      <c r="M64" s="22">
+        <v>2</v>
+      </c>
+      <c r="N64" s="129">
+        <v>2</v>
+      </c>
+      <c r="O64" s="126">
+        <v>2</v>
+      </c>
+      <c r="P64" s="125">
+        <v>2</v>
+      </c>
+      <c r="Q64" s="125">
+        <v>2</v>
+      </c>
+      <c r="R64" s="22"/>
+      <c r="S64" s="22"/>
+    </row>
+    <row r="65" spans="1:26">
       <c r="A65" s="16">
         <v>61</v>
       </c>
@@ -30711,7 +31548,7 @@
         <v>383</v>
       </c>
       <c r="E65" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="F65" s="4">
@@ -30727,7 +31564,7 @@
         <v>3</v>
       </c>
       <c r="J65" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K65" s="22">
@@ -30736,11 +31573,13 @@
       <c r="L65" s="22"/>
       <c r="M65" s="22"/>
       <c r="N65" s="129"/>
-      <c r="O65" s="127"/>
-      <c r="P65" s="22"/>
-      <c r="Q65" s="22"/>
-    </row>
-    <row r="66" spans="1:24">
+      <c r="O65" s="126"/>
+      <c r="P65" s="125"/>
+      <c r="Q65" s="125"/>
+      <c r="R65" s="22"/>
+      <c r="S65" s="22"/>
+    </row>
+    <row r="66" spans="1:26">
       <c r="A66" s="16">
         <v>62</v>
       </c>
@@ -30752,20 +31591,24 @@
         <v>383</v>
       </c>
       <c r="E66" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="F66" s="4">
         <v>43088</v>
       </c>
-      <c r="G66" s="4"/>
+      <c r="G66" s="4">
+        <v>43105</v>
+      </c>
       <c r="H66" s="19">
         <v>3</v>
       </c>
-      <c r="I66" s="19"/>
+      <c r="I66" s="19">
+        <v>3</v>
+      </c>
       <c r="J66" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
       </c>
       <c r="K66" s="22">
         <v>3</v>
@@ -30773,13 +31616,25 @@
       <c r="L66" s="22">
         <v>3</v>
       </c>
-      <c r="M66" s="22"/>
-      <c r="N66" s="129"/>
-      <c r="O66" s="127"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
-    </row>
-    <row r="67" spans="1:24">
+      <c r="M66" s="22">
+        <v>3</v>
+      </c>
+      <c r="N66" s="129">
+        <v>3</v>
+      </c>
+      <c r="O66" s="126">
+        <v>3</v>
+      </c>
+      <c r="P66" s="125">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="125">
+        <v>0</v>
+      </c>
+      <c r="R66" s="22"/>
+      <c r="S66" s="22"/>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67" s="16">
         <v>63</v>
       </c>
@@ -30791,7 +31646,7 @@
         <v>383</v>
       </c>
       <c r="E67" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F67" s="4">
@@ -30803,8 +31658,8 @@
       </c>
       <c r="I67" s="19"/>
       <c r="J67" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
       <c r="K67" s="22">
         <v>2</v>
@@ -30812,43 +31667,55 @@
       <c r="L67" s="22">
         <v>2</v>
       </c>
-      <c r="M67" s="22"/>
-      <c r="N67" s="129"/>
-      <c r="O67" s="127"/>
-      <c r="P67" s="22"/>
-      <c r="Q67" s="22"/>
-      <c r="S67" s="13" t="s">
+      <c r="M67" s="22">
+        <v>2</v>
+      </c>
+      <c r="N67" s="129">
+        <v>2</v>
+      </c>
+      <c r="O67" s="126">
+        <v>2</v>
+      </c>
+      <c r="P67" s="125">
+        <v>2</v>
+      </c>
+      <c r="Q67" s="125">
+        <v>3</v>
+      </c>
+      <c r="R67" s="22"/>
+      <c r="S67" s="22"/>
+      <c r="U67" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="T67" s="13" t="s">
+      <c r="V67" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="U67" s="13" t="s">
+      <c r="W67" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="V67" s="13" t="s">
+      <c r="X67" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="W67" s="13" t="s">
+      <c r="Y67" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="X67" s="13" t="s">
+      <c r="Z67" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:24">
+    <row r="68" spans="1:26">
       <c r="A68" s="16">
         <v>64</v>
       </c>
       <c r="B68" s="16"/>
       <c r="C68" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>383</v>
       </c>
       <c r="E68" s="12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F68" s="4">
@@ -30860,7 +31727,7 @@
       </c>
       <c r="I68" s="19"/>
       <c r="J68" s="12">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
       <c r="K68" s="22">
@@ -30869,172 +31736,164 @@
       <c r="L68" s="22">
         <v>3</v>
       </c>
-      <c r="M68" s="22"/>
-      <c r="N68" s="129"/>
-      <c r="O68" s="127"/>
-      <c r="P68" s="22"/>
-      <c r="Q68" s="22"/>
-      <c r="S68" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="T68" s="10">
-        <f>SUMIF($D$5:$D$104,S68,$H$5:$H$104)</f>
+      <c r="M68" s="22">
+        <v>3</v>
+      </c>
+      <c r="N68" s="129">
+        <v>3</v>
+      </c>
+      <c r="O68" s="126">
+        <v>3</v>
+      </c>
+      <c r="P68" s="125">
+        <v>3</v>
+      </c>
+      <c r="Q68" s="125">
+        <v>3</v>
+      </c>
+      <c r="R68" s="22"/>
+      <c r="S68" s="22"/>
+      <c r="U68" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="V68" s="10">
+        <f>SUMIF($D$5:$D$104,U68,$H$5:$H$104)</f>
         <v>50</v>
       </c>
-      <c r="U68" s="10">
-        <f t="shared" ref="U68:U77" ca="1" si="5">SUMIF($D$5:$D$104,S68,$J$5:$J$104)</f>
-        <v>35</v>
-      </c>
-      <c r="V68" s="10">
-        <f t="shared" ref="V68:V77" si="6">SUMIF($D$5:$D$104,S68,$I$5:$I$104)</f>
+      <c r="W68" s="10">
+        <f t="shared" ref="W68:W77" ca="1" si="8">SUMIF($D$5:$D$104,U68,$J$5:$J$104)</f>
+        <v>26</v>
+      </c>
+      <c r="X68" s="10">
+        <f t="shared" ref="X68:X77" si="9">SUMIF($D$5:$D$104,U68,$I$5:$I$104)</f>
+        <v>18</v>
+      </c>
+      <c r="Y68" s="14">
+        <f t="shared" ref="Y68:Y77" si="10">COUNTA($K$2:$R$2)*6-COUNTA($K$4:$R$4)*6</f>
         <v>6</v>
       </c>
-      <c r="W68" s="14">
-        <f t="shared" ref="W68:W77" si="7">COUNTA($K$2:$P$2)*6-COUNTA($K$4:$P$4)*6</f>
-        <v>24</v>
-      </c>
-      <c r="X68" s="15">
-        <f ca="1">IF(W68&gt;U68,0,U68-W68)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24">
+      <c r="Z68" s="15">
+        <f ca="1">IF(Y68&gt;W68,0,W68-Y68)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
       <c r="A69" s="16">
         <v>65</v>
       </c>
       <c r="B69" s="16"/>
-      <c r="C69" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>383</v>
-      </c>
+      <c r="C69" s="17"/>
+      <c r="D69" s="18"/>
       <c r="E69" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
-      </c>
-      <c r="F69" s="4">
-        <v>43088</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F69" s="4"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="19">
-        <v>1</v>
-      </c>
+      <c r="H69" s="19"/>
       <c r="I69" s="19"/>
-      <c r="J69" s="12">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K69" s="22">
-        <v>1</v>
-      </c>
-      <c r="L69" s="22">
-        <v>1</v>
-      </c>
+      <c r="J69" s="12" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
       <c r="M69" s="22"/>
       <c r="N69" s="129"/>
-      <c r="O69" s="127"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="S69" s="11" t="s">
+      <c r="O69" s="126"/>
+      <c r="P69" s="125"/>
+      <c r="Q69" s="125"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="22"/>
+      <c r="U69" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="T69" s="10">
-        <f t="shared" ref="T68:T77" si="8">SUMIF($D$5:$D$104,S69,$H$5:$H$104)</f>
-        <v>31</v>
-      </c>
-      <c r="U69" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>17</v>
-      </c>
       <c r="V69" s="10">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="W69" s="14">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="X69" s="15">
-        <f t="shared" ref="X69:X77" ca="1" si="9">IF(W69&gt;U69,0,U69-W69)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24">
+        <f t="shared" ref="V69:V77" si="11">SUMIF($D$5:$D$104,U69,$H$5:$H$104)</f>
+        <v>34</v>
+      </c>
+      <c r="W69" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="X69" s="10">
+        <f t="shared" si="9"/>
+        <v>29</v>
+      </c>
+      <c r="Y69" s="14">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="Z69" s="15">
+        <f t="shared" ref="Z69:Z77" ca="1" si="12">IF(Y69&gt;W69,0,W69-Y69)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
       <c r="A70" s="16">
         <v>66</v>
       </c>
       <c r="B70" s="16"/>
-      <c r="C70" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="D70" s="18" t="s">
-        <v>383</v>
-      </c>
+      <c r="C70" s="17"/>
+      <c r="D70" s="18"/>
       <c r="E70" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>未着手</v>
-      </c>
-      <c r="F70" s="4">
-        <v>43088</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F70" s="4"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="19">
-        <v>1</v>
-      </c>
+      <c r="H70" s="19"/>
       <c r="I70" s="19"/>
-      <c r="J70" s="12">
-        <f t="shared" ref="J70:J82" ca="1" si="10">IF(ISBLANK(K70)=FALSE,OFFSET(J70,0,COUNTA(K70:Q70)),"")</f>
-        <v>1</v>
-      </c>
-      <c r="K70" s="22">
-        <v>1</v>
-      </c>
-      <c r="L70" s="22">
-        <v>1</v>
-      </c>
+      <c r="J70" s="12" t="str">
+        <f t="shared" ref="J70:J82" ca="1" si="13">IF(ISBLANK(K70)=FALSE,OFFSET(J70,0,COUNTA(K70:S70)),"")</f>
+        <v/>
+      </c>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
       <c r="M70" s="22"/>
       <c r="N70" s="129"/>
-      <c r="O70" s="127"/>
-      <c r="P70" s="22"/>
-      <c r="Q70" s="22"/>
-      <c r="S70" s="11" t="s">
+      <c r="O70" s="126"/>
+      <c r="P70" s="125"/>
+      <c r="Q70" s="125"/>
+      <c r="R70" s="22"/>
+      <c r="S70" s="22"/>
+      <c r="U70" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="T70" s="10">
-        <f t="shared" si="8"/>
-        <v>19</v>
-      </c>
-      <c r="U70" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>18</v>
-      </c>
       <c r="V70" s="10">
-        <f t="shared" si="6"/>
+        <f>SUMIF($D$5:$D$104,U70,$H$5:$H$104)</f>
+        <v>29</v>
+      </c>
+      <c r="W70" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="X70" s="10">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="Y70" s="14">
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="W70" s="14">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="X70" s="15">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24">
+      <c r="Z70" s="15">
+        <f t="shared" ca="1" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
       <c r="A71" s="16">
         <v>67</v>
       </c>
       <c r="B71" s="16"/>
       <c r="C71" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>383</v>
       </c>
       <c r="E71" s="12" t="str">
-        <f t="shared" ref="E71:E76" ca="1" si="11">IF(ISBLANK($C71),"",IF(ISBLANK($G71),"未着手",IF($J71=0,"完了","作業中")))</f>
+        <f t="shared" ref="E71:E76" ca="1" si="14">IF(ISBLANK($C71),"",IF(ISBLANK($G71),"未着手",IF($J71=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F71" s="4">
@@ -31050,7 +31909,7 @@
         <v>1</v>
       </c>
       <c r="J71" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="K71" s="22">
@@ -31061,58 +31920,64 @@
       </c>
       <c r="M71" s="22"/>
       <c r="N71" s="129"/>
-      <c r="O71" s="127"/>
-      <c r="P71" s="22"/>
-      <c r="Q71" s="22"/>
-      <c r="S71" s="11" t="s">
+      <c r="O71" s="126"/>
+      <c r="P71" s="125"/>
+      <c r="Q71" s="125"/>
+      <c r="R71" s="22"/>
+      <c r="S71" s="22"/>
+      <c r="U71" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="T71" s="10">
-        <f t="shared" si="8"/>
+      <c r="V71" s="10">
+        <f t="shared" si="11"/>
         <v>34</v>
       </c>
-      <c r="U71" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="V71" s="10">
-        <f t="shared" si="6"/>
-        <v>6.5</v>
-      </c>
-      <c r="W71" s="14">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="X71" s="15">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24">
+      <c r="W71" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="X71" s="10">
+        <f t="shared" si="9"/>
+        <v>14.5</v>
+      </c>
+      <c r="Y71" s="14">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="Z71" s="15">
+        <f t="shared" ca="1" si="12"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
       <c r="A72" s="16">
         <v>68</v>
       </c>
       <c r="B72" s="16"/>
       <c r="C72" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>383</v>
       </c>
       <c r="E72" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>作業中</v>
       </c>
       <c r="F72" s="4">
         <v>43092</v>
       </c>
-      <c r="G72" s="4"/>
+      <c r="G72" s="4">
+        <v>43104</v>
+      </c>
       <c r="H72" s="19">
         <v>3</v>
       </c>
-      <c r="I72" s="19"/>
+      <c r="I72" s="19">
+        <v>3</v>
+      </c>
       <c r="J72" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="K72" s="22">
@@ -31121,60 +31986,76 @@
       <c r="L72" s="22">
         <v>3</v>
       </c>
-      <c r="M72" s="22"/>
-      <c r="N72" s="129"/>
-      <c r="O72" s="127"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22"/>
-      <c r="S72" s="11" t="s">
+      <c r="M72" s="22">
+        <v>3</v>
+      </c>
+      <c r="N72" s="129">
+        <v>3</v>
+      </c>
+      <c r="O72" s="126">
+        <v>3</v>
+      </c>
+      <c r="P72" s="125">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="125">
+        <v>3</v>
+      </c>
+      <c r="R72" s="22"/>
+      <c r="S72" s="22"/>
+      <c r="U72" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="T72" s="10">
-        <f t="shared" si="8"/>
-        <v>37</v>
-      </c>
-      <c r="U72" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>26</v>
-      </c>
       <c r="V72" s="10">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="W72" s="14">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="X72" s="15">
-        <f t="shared" ca="1" si="9"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="W72" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="X72" s="10">
+        <f t="shared" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="Y72" s="14">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="Z72" s="15">
+        <f t="shared" ca="1" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
       <c r="A73" s="16">
         <v>69</v>
       </c>
       <c r="B73" s="16"/>
       <c r="C73" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>383</v>
       </c>
       <c r="E73" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>作業中</v>
       </c>
       <c r="F73" s="4">
         <v>43096</v>
       </c>
-      <c r="G73" s="4"/>
+      <c r="G73" s="4">
+        <v>43105</v>
+      </c>
       <c r="H73" s="19">
         <v>4</v>
       </c>
-      <c r="I73" s="19"/>
+      <c r="I73" s="19">
+        <v>1</v>
+      </c>
       <c r="J73" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>4</v>
       </c>
       <c r="K73" s="22">
@@ -31183,48 +32064,60 @@
       <c r="L73" s="22">
         <v>4</v>
       </c>
-      <c r="M73" s="22"/>
-      <c r="N73" s="129"/>
-      <c r="O73" s="127"/>
-      <c r="P73" s="22"/>
-      <c r="Q73" s="22"/>
-      <c r="S73" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="T73" s="10">
-        <f t="shared" si="8"/>
+      <c r="M73" s="22">
+        <v>4</v>
+      </c>
+      <c r="N73" s="129">
+        <v>4</v>
+      </c>
+      <c r="O73" s="126">
+        <v>4</v>
+      </c>
+      <c r="P73" s="125">
+        <v>4</v>
+      </c>
+      <c r="Q73" s="125">
+        <v>4</v>
+      </c>
+      <c r="R73" s="22"/>
+      <c r="S73" s="22"/>
+      <c r="U73" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="V73" s="10">
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
-      <c r="U73" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="V73" s="10">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="W73" s="14">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="X73" s="15">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24">
+      <c r="W73" s="10">
+        <f t="shared" ca="1" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="X73" s="10">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="Y73" s="14">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="Z73" s="15">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
       <c r="A74" s="16">
         <v>70</v>
       </c>
       <c r="B74" s="16"/>
       <c r="C74" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E74" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>完了</v>
       </c>
       <c r="F74" s="4">
@@ -31240,7 +32133,7 @@
         <v>6</v>
       </c>
       <c r="J74" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="K74" s="22">
@@ -31251,44 +32144,46 @@
       </c>
       <c r="M74" s="22"/>
       <c r="N74" s="129"/>
-      <c r="O74" s="127"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="S74" s="11"/>
-      <c r="T74" s="10">
+      <c r="O74" s="126"/>
+      <c r="P74" s="125"/>
+      <c r="Q74" s="125"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="22"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W74" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U74" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V74" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W74" s="14">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="X74" s="15">
+      <c r="X74" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:24">
+      <c r="Y74" s="14">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="Z74" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
       <c r="A75" s="16">
         <v>71</v>
       </c>
       <c r="B75" s="16"/>
       <c r="C75" s="17" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E75" s="12" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="14"/>
         <v>完了</v>
       </c>
       <c r="F75" s="4">
@@ -31304,7 +32199,7 @@
         <v>3</v>
       </c>
       <c r="J75" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="K75" s="22">
@@ -31315,44 +32210,46 @@
       </c>
       <c r="M75" s="22"/>
       <c r="N75" s="129"/>
-      <c r="O75" s="127"/>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="22"/>
-      <c r="S75" s="11"/>
-      <c r="T75" s="10">
+      <c r="O75" s="126"/>
+      <c r="P75" s="125"/>
+      <c r="Q75" s="125"/>
+      <c r="R75" s="22"/>
+      <c r="S75" s="22"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W75" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U75" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V75" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W75" s="14">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="X75" s="15">
+      <c r="X75" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:24">
+      <c r="Y75" s="14">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="Z75" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
       <c r="A76" s="16">
         <v>72</v>
       </c>
       <c r="B76" s="16"/>
       <c r="C76" s="17" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E76" s="12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>未着手</v>
       </c>
       <c r="F76" s="4">
@@ -31364,7 +32261,7 @@
       </c>
       <c r="I76" s="19"/>
       <c r="J76" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>3</v>
       </c>
       <c r="K76" s="22">
@@ -31376,45 +32273,55 @@
       <c r="M76" s="22">
         <v>3</v>
       </c>
-      <c r="N76" s="129"/>
-      <c r="O76" s="127"/>
-      <c r="P76" s="22"/>
-      <c r="Q76" s="22"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="10">
+      <c r="N76" s="129">
+        <v>3</v>
+      </c>
+      <c r="O76" s="126">
+        <v>3</v>
+      </c>
+      <c r="P76" s="125">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="125">
+        <v>3</v>
+      </c>
+      <c r="R76" s="22"/>
+      <c r="S76" s="22"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W76" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U76" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V76" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W76" s="14">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="X76" s="15">
+      <c r="X76" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:24">
+      <c r="Y76" s="14">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="Z76" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
       <c r="A77" s="16">
         <v>73</v>
       </c>
       <c r="B77" s="16"/>
       <c r="C77" s="85" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E77" s="12" t="str">
-        <f t="shared" ref="E77:E104" ca="1" si="12">IF(ISBLANK($C77),"",IF(ISBLANK($G77),"未着手",IF($J77=0,"完了","作業中")))</f>
+        <f t="shared" ref="E77:E104" ca="1" si="15">IF(ISBLANK($C77),"",IF(ISBLANK($G77),"未着手",IF($J77=0,"完了","作業中")))</f>
         <v>作業中</v>
       </c>
       <c r="F77" s="4">
@@ -31426,10 +32333,12 @@
       <c r="H77" s="19">
         <v>6</v>
       </c>
-      <c r="I77" s="19"/>
+      <c r="I77" s="19">
+        <v>1</v>
+      </c>
       <c r="J77" s="12">
-        <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>5</v>
       </c>
       <c r="K77" s="22">
         <v>6</v>
@@ -31440,47 +32349,55 @@
       <c r="M77" s="22">
         <v>6</v>
       </c>
-      <c r="N77" s="129"/>
-      <c r="O77" s="127"/>
-      <c r="P77" s="22"/>
-      <c r="Q77" s="22"/>
-      <c r="S77" s="11"/>
-      <c r="T77" s="10">
+      <c r="N77" s="129">
+        <v>6</v>
+      </c>
+      <c r="O77" s="126">
+        <v>5</v>
+      </c>
+      <c r="P77" s="125">
+        <v>5</v>
+      </c>
+      <c r="Q77" s="125"/>
+      <c r="R77" s="22"/>
+      <c r="S77" s="22"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W77" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U77" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V77" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W77" s="14">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="X77" s="15">
+      <c r="X77" s="10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:24">
+      <c r="Y77" s="14">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="Z77" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
       <c r="A78" s="16">
         <v>74</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C78" s="85" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>135</v>
       </c>
       <c r="E78" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F78" s="4">
@@ -31496,7 +32413,7 @@
         <v>3</v>
       </c>
       <c r="J78" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="K78" s="22">
@@ -31507,36 +32424,42 @@
       </c>
       <c r="M78" s="22"/>
       <c r="N78" s="129"/>
-      <c r="O78" s="127"/>
-      <c r="P78" s="22"/>
-      <c r="Q78" s="22"/>
-      <c r="T78" s="122"/>
-    </row>
-    <row r="79" spans="1:24">
+      <c r="O78" s="126"/>
+      <c r="P78" s="125"/>
+      <c r="Q78" s="125"/>
+      <c r="R78" s="22"/>
+      <c r="S78" s="22"/>
+      <c r="V78" s="121"/>
+    </row>
+    <row r="79" spans="1:26">
       <c r="A79" s="16">
         <v>75</v>
       </c>
       <c r="B79" s="16"/>
       <c r="C79" s="85" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D79" s="18" t="s">
         <v>383</v>
       </c>
       <c r="E79" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>作業中</v>
       </c>
       <c r="F79" s="4">
         <v>43088</v>
       </c>
-      <c r="G79" s="4"/>
+      <c r="G79" s="4">
+        <v>43453</v>
+      </c>
       <c r="H79" s="19">
         <v>1</v>
       </c>
-      <c r="I79" s="19"/>
+      <c r="I79" s="19">
+        <v>1</v>
+      </c>
       <c r="J79" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>1</v>
       </c>
       <c r="K79" s="22">
@@ -31545,27 +32468,39 @@
       <c r="L79" s="22">
         <v>1</v>
       </c>
-      <c r="M79" s="22"/>
-      <c r="N79" s="129"/>
-      <c r="O79" s="127"/>
-      <c r="P79" s="22"/>
-      <c r="Q79" s="22"/>
-    </row>
-    <row r="80" spans="1:24">
+      <c r="M79" s="22">
+        <v>1</v>
+      </c>
+      <c r="N79" s="129">
+        <v>1</v>
+      </c>
+      <c r="O79" s="126">
+        <v>1</v>
+      </c>
+      <c r="P79" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="125">
+        <v>1</v>
+      </c>
+      <c r="R79" s="22"/>
+      <c r="S79" s="22"/>
+    </row>
+    <row r="80" spans="1:26">
       <c r="A80" s="16">
         <v>76</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C80" s="85" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E80" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F80" s="4">
@@ -31581,7 +32516,7 @@
         <v>4</v>
       </c>
       <c r="J80" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="K80" s="22">
@@ -31592,36 +32527,42 @@
       </c>
       <c r="M80" s="22"/>
       <c r="N80" s="129"/>
-      <c r="O80" s="127"/>
-      <c r="P80" s="22"/>
-      <c r="Q80" s="22"/>
-    </row>
-    <row r="81" spans="1:17">
+      <c r="O80" s="126"/>
+      <c r="P80" s="125"/>
+      <c r="Q80" s="125"/>
+      <c r="R80" s="22"/>
+      <c r="S80" s="22"/>
+    </row>
+    <row r="81" spans="1:19">
       <c r="A81" s="16">
         <v>77</v>
       </c>
       <c r="B81" s="16"/>
       <c r="C81" s="85" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E81" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>作業中</v>
       </c>
       <c r="F81" s="4">
         <v>43095</v>
       </c>
-      <c r="G81" s="4"/>
+      <c r="G81" s="4">
+        <v>43106</v>
+      </c>
       <c r="H81" s="19">
         <v>6</v>
       </c>
-      <c r="I81" s="19"/>
+      <c r="I81" s="19">
+        <v>6</v>
+      </c>
       <c r="J81" s="12">
-        <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
       </c>
       <c r="K81" s="22">
         <v>6</v>
@@ -31629,25 +32570,37 @@
       <c r="L81" s="22">
         <v>6</v>
       </c>
-      <c r="M81" s="22"/>
-      <c r="N81" s="129"/>
-      <c r="O81" s="127"/>
-      <c r="P81" s="22"/>
-      <c r="Q81" s="22"/>
-    </row>
-    <row r="82" spans="1:17">
+      <c r="M81" s="22">
+        <v>6</v>
+      </c>
+      <c r="N81" s="129">
+        <v>6</v>
+      </c>
+      <c r="O81" s="126">
+        <v>6</v>
+      </c>
+      <c r="P81" s="125">
+        <v>6</v>
+      </c>
+      <c r="Q81" s="125">
+        <v>2</v>
+      </c>
+      <c r="R81" s="22"/>
+      <c r="S81" s="22"/>
+    </row>
+    <row r="82" spans="1:19">
       <c r="A82" s="16">
         <v>78</v>
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="85" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E82" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F82" s="4">
@@ -31663,7 +32616,7 @@
         <v>1</v>
       </c>
       <c r="J82" s="12">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="K82" s="22">
@@ -31676,23 +32629,25 @@
         <v>0</v>
       </c>
       <c r="N82" s="129"/>
-      <c r="O82" s="127"/>
-      <c r="P82" s="22"/>
-      <c r="Q82" s="22"/>
-    </row>
-    <row r="83" spans="1:17">
+      <c r="O82" s="126"/>
+      <c r="P82" s="125"/>
+      <c r="Q82" s="125"/>
+      <c r="R82" s="22"/>
+      <c r="S82" s="22"/>
+    </row>
+    <row r="83" spans="1:19">
       <c r="A83" s="16">
         <v>79</v>
       </c>
       <c r="B83" s="16"/>
       <c r="C83" s="85" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E83" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F83" s="4">
@@ -31708,7 +32663,7 @@
         <v>1</v>
       </c>
       <c r="J83" s="12">
-        <f t="shared" ref="J83:J104" ca="1" si="13">IF(ISBLANK(K83)=FALSE,OFFSET(J83,0,COUNTA(K83:Q83)),"")</f>
+        <f t="shared" ref="J83:J104" ca="1" si="16">IF(ISBLANK(K83)=FALSE,OFFSET(J83,0,COUNTA(K83:S83)),"")</f>
         <v>0</v>
       </c>
       <c r="K83" s="22">
@@ -31721,23 +32676,25 @@
         <v>0</v>
       </c>
       <c r="N83" s="129"/>
-      <c r="O83" s="127"/>
-      <c r="P83" s="22"/>
-      <c r="Q83" s="22"/>
-    </row>
-    <row r="84" spans="1:17">
+      <c r="O83" s="126"/>
+      <c r="P83" s="125"/>
+      <c r="Q83" s="125"/>
+      <c r="R83" s="22"/>
+      <c r="S83" s="22"/>
+    </row>
+    <row r="84" spans="1:19">
       <c r="A84" s="16">
         <v>80</v>
       </c>
       <c r="B84" s="16"/>
       <c r="C84" s="85" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E84" s="12" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v>完了</v>
       </c>
       <c r="F84" s="4">
@@ -31753,7 +32710,7 @@
         <v>1</v>
       </c>
       <c r="J84" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="K84" s="22">
@@ -31766,11 +32723,13 @@
         <v>0</v>
       </c>
       <c r="N84" s="129"/>
-      <c r="O84" s="127"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-    </row>
-    <row r="85" spans="1:17">
+      <c r="O84" s="126"/>
+      <c r="P84" s="125"/>
+      <c r="Q84" s="125"/>
+      <c r="R84" s="22"/>
+      <c r="S84" s="22"/>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" s="16">
         <v>81</v>
       </c>
@@ -31778,7 +32737,7 @@
       <c r="C85" s="85"/>
       <c r="D85" s="18"/>
       <c r="E85" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F85" s="4"/>
@@ -31786,43 +32745,49 @@
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
       <c r="J85" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K85" s="22"/>
       <c r="L85" s="22"/>
       <c r="M85" s="22"/>
       <c r="N85" s="129"/>
-      <c r="O85" s="127"/>
-      <c r="P85" s="22"/>
-      <c r="Q85" s="22"/>
-    </row>
-    <row r="86" spans="1:17">
+      <c r="O85" s="126"/>
+      <c r="P85" s="125"/>
+      <c r="Q85" s="125"/>
+      <c r="R85" s="22"/>
+      <c r="S85" s="22"/>
+    </row>
+    <row r="86" spans="1:19">
       <c r="A86" s="16">
         <v>82</v>
       </c>
       <c r="B86" s="16"/>
       <c r="C86" s="85" t="s">
+        <v>431</v>
+      </c>
+      <c r="D86" s="18" t="s">
         <v>436</v>
       </c>
-      <c r="D86" s="18" t="s">
-        <v>441</v>
-      </c>
       <c r="E86" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>完了</v>
       </c>
       <c r="F86" s="4">
         <v>43092</v>
       </c>
-      <c r="G86" s="4"/>
+      <c r="G86" s="4">
+        <v>43463</v>
+      </c>
       <c r="H86" s="19">
         <v>2</v>
       </c>
-      <c r="I86" s="19"/>
+      <c r="I86" s="19">
+        <v>2</v>
+      </c>
       <c r="J86" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="K86" s="22">
         <v>2</v>
@@ -31830,38 +32795,50 @@
       <c r="L86" s="22">
         <v>2</v>
       </c>
-      <c r="M86" s="22"/>
-      <c r="N86" s="129"/>
-      <c r="O86" s="127"/>
-      <c r="P86" s="22"/>
-      <c r="Q86" s="22"/>
-    </row>
-    <row r="87" spans="1:17">
+      <c r="M86" s="22">
+        <v>2</v>
+      </c>
+      <c r="N86" s="129">
+        <v>2</v>
+      </c>
+      <c r="O86" s="126">
+        <v>0</v>
+      </c>
+      <c r="P86" s="125"/>
+      <c r="Q86" s="125"/>
+      <c r="R86" s="22"/>
+      <c r="S86" s="22"/>
+    </row>
+    <row r="87" spans="1:19">
       <c r="A87" s="16">
         <v>83</v>
       </c>
       <c r="B87" s="16"/>
       <c r="C87" s="85" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D87" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E87" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>完了</v>
       </c>
       <c r="F87" s="4">
         <v>43092</v>
       </c>
-      <c r="G87" s="4"/>
+      <c r="G87" s="4">
+        <v>43463</v>
+      </c>
       <c r="H87" s="19">
         <v>2</v>
       </c>
-      <c r="I87" s="19"/>
+      <c r="I87" s="19">
+        <v>2</v>
+      </c>
       <c r="J87" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="K87" s="22">
         <v>2</v>
@@ -31869,38 +32846,50 @@
       <c r="L87" s="22">
         <v>2</v>
       </c>
-      <c r="M87" s="22"/>
-      <c r="N87" s="129"/>
-      <c r="O87" s="127"/>
-      <c r="P87" s="22"/>
-      <c r="Q87" s="22"/>
-    </row>
-    <row r="88" spans="1:17">
+      <c r="M87" s="22">
+        <v>2</v>
+      </c>
+      <c r="N87" s="129">
+        <v>2</v>
+      </c>
+      <c r="O87" s="126">
+        <v>0</v>
+      </c>
+      <c r="P87" s="125"/>
+      <c r="Q87" s="125"/>
+      <c r="R87" s="22"/>
+      <c r="S87" s="22"/>
+    </row>
+    <row r="88" spans="1:19">
       <c r="A88" s="16">
         <v>84</v>
       </c>
       <c r="B88" s="16"/>
       <c r="C88" s="85" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E88" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>完了</v>
       </c>
       <c r="F88" s="4">
         <v>43092</v>
       </c>
-      <c r="G88" s="4"/>
+      <c r="G88" s="4">
+        <v>43105</v>
+      </c>
       <c r="H88" s="19">
         <v>2</v>
       </c>
-      <c r="I88" s="19"/>
+      <c r="I88" s="19">
+        <v>2</v>
+      </c>
       <c r="J88" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="K88" s="22">
         <v>2</v>
@@ -31908,25 +32897,35 @@
       <c r="L88" s="22">
         <v>2</v>
       </c>
-      <c r="M88" s="22"/>
-      <c r="N88" s="129"/>
-      <c r="O88" s="127"/>
-      <c r="P88" s="22"/>
-      <c r="Q88" s="22"/>
-    </row>
-    <row r="89" spans="1:17">
+      <c r="M88" s="22">
+        <v>2</v>
+      </c>
+      <c r="N88" s="129">
+        <v>2</v>
+      </c>
+      <c r="O88" s="126">
+        <v>2</v>
+      </c>
+      <c r="P88" s="125">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="125"/>
+      <c r="R88" s="22"/>
+      <c r="S88" s="22"/>
+    </row>
+    <row r="89" spans="1:19">
       <c r="A89" s="16">
         <v>85</v>
       </c>
       <c r="B89" s="16"/>
       <c r="C89" s="85" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E89" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>未着手</v>
       </c>
       <c r="F89" s="4">
@@ -31938,7 +32937,7 @@
       </c>
       <c r="I89" s="19"/>
       <c r="J89" s="12">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>2</v>
       </c>
       <c r="K89" s="22">
@@ -31947,38 +32946,54 @@
       <c r="L89" s="22">
         <v>2</v>
       </c>
-      <c r="M89" s="22"/>
-      <c r="N89" s="129"/>
-      <c r="O89" s="127"/>
-      <c r="P89" s="22"/>
-      <c r="Q89" s="22"/>
-    </row>
-    <row r="90" spans="1:17">
+      <c r="M89" s="22">
+        <v>2</v>
+      </c>
+      <c r="N89" s="129">
+        <v>2</v>
+      </c>
+      <c r="O89" s="126">
+        <v>2</v>
+      </c>
+      <c r="P89" s="125">
+        <v>2</v>
+      </c>
+      <c r="Q89" s="125">
+        <v>2</v>
+      </c>
+      <c r="R89" s="22"/>
+      <c r="S89" s="22"/>
+    </row>
+    <row r="90" spans="1:19">
       <c r="A90" s="16">
         <v>86</v>
       </c>
       <c r="B90" s="16"/>
       <c r="C90" s="85" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E90" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>完了</v>
       </c>
       <c r="F90" s="4">
         <v>43093</v>
       </c>
-      <c r="G90" s="4"/>
+      <c r="G90" s="4">
+        <v>43105</v>
+      </c>
       <c r="H90" s="19">
         <v>2</v>
       </c>
-      <c r="I90" s="19"/>
+      <c r="I90" s="19">
+        <v>2</v>
+      </c>
       <c r="J90" s="12">
-        <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
       </c>
       <c r="K90" s="22">
         <v>2</v>
@@ -31986,19 +33001,31 @@
       <c r="L90" s="22">
         <v>2</v>
       </c>
-      <c r="M90" s="22"/>
-      <c r="N90" s="129"/>
-      <c r="O90" s="127"/>
-      <c r="P90" s="22"/>
-      <c r="Q90" s="22"/>
-    </row>
-    <row r="91" spans="1:17">
-      <c r="A91" s="16"/>
+      <c r="M90" s="22">
+        <v>2</v>
+      </c>
+      <c r="N90" s="129">
+        <v>2</v>
+      </c>
+      <c r="O90" s="126">
+        <v>2</v>
+      </c>
+      <c r="P90" s="125">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="125"/>
+      <c r="R90" s="22"/>
+      <c r="S90" s="22"/>
+    </row>
+    <row r="91" spans="1:19">
+      <c r="A91" s="16">
+        <v>87</v>
+      </c>
       <c r="B91" s="16"/>
       <c r="C91" s="85"/>
       <c r="D91" s="18"/>
       <c r="E91" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F91" s="4"/>
@@ -32006,249 +33033,511 @@
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
       <c r="J91" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K91" s="22"/>
       <c r="L91" s="22"/>
       <c r="M91" s="22"/>
       <c r="N91" s="129"/>
-      <c r="O91" s="127"/>
-      <c r="P91" s="22"/>
-      <c r="Q91" s="22"/>
-    </row>
-    <row r="92" spans="1:17">
-      <c r="A92" s="16"/>
+      <c r="O91" s="126"/>
+      <c r="P91" s="125"/>
+      <c r="Q91" s="125"/>
+      <c r="R91" s="22"/>
+      <c r="S91" s="22"/>
+    </row>
+    <row r="92" spans="1:19">
+      <c r="A92" s="16">
+        <v>88</v>
+      </c>
       <c r="B92" s="16"/>
-      <c r="C92" s="85"/>
-      <c r="D92" s="18"/>
+      <c r="C92" s="85" t="s">
+        <v>447</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>446</v>
+      </c>
       <c r="E92" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="K92" s="22"/>
-      <c r="L92" s="22"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="129"/>
-      <c r="O92" s="127"/>
-      <c r="P92" s="22"/>
-      <c r="Q92" s="22"/>
-    </row>
-    <row r="93" spans="1:17">
-      <c r="A93" s="16"/>
+        <f t="shared" ca="1" si="15"/>
+        <v>完了</v>
+      </c>
+      <c r="F92" s="4">
+        <v>43101</v>
+      </c>
+      <c r="G92" s="4">
+        <v>43101</v>
+      </c>
+      <c r="H92" s="19">
+        <v>1</v>
+      </c>
+      <c r="I92" s="19">
+        <v>1</v>
+      </c>
+      <c r="J92" s="12">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K92" s="22">
+        <v>1</v>
+      </c>
+      <c r="L92" s="22">
+        <v>1</v>
+      </c>
+      <c r="M92" s="22">
+        <v>1</v>
+      </c>
+      <c r="N92" s="129">
+        <v>1</v>
+      </c>
+      <c r="O92" s="126">
+        <v>1</v>
+      </c>
+      <c r="P92" s="125">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="125"/>
+      <c r="R92" s="22"/>
+      <c r="S92" s="22"/>
+    </row>
+    <row r="93" spans="1:19">
+      <c r="A93" s="16">
+        <v>89</v>
+      </c>
       <c r="B93" s="16"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="18"/>
+      <c r="C93" s="85" t="s">
+        <v>448</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>446</v>
+      </c>
       <c r="E93" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="K93" s="22"/>
-      <c r="L93" s="22"/>
-      <c r="M93" s="22"/>
-      <c r="N93" s="129"/>
-      <c r="O93" s="127"/>
-      <c r="P93" s="22"/>
-      <c r="Q93" s="22"/>
-    </row>
-    <row r="94" spans="1:17">
-      <c r="A94" s="16"/>
+        <f t="shared" ca="1" si="15"/>
+        <v>完了</v>
+      </c>
+      <c r="F93" s="4">
+        <v>43101</v>
+      </c>
+      <c r="G93" s="4">
+        <v>43101</v>
+      </c>
+      <c r="H93" s="19">
+        <v>2</v>
+      </c>
+      <c r="I93" s="19">
+        <v>1</v>
+      </c>
+      <c r="J93" s="12">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K93" s="22">
+        <v>2</v>
+      </c>
+      <c r="L93" s="22">
+        <v>2</v>
+      </c>
+      <c r="M93" s="22">
+        <v>2</v>
+      </c>
+      <c r="N93" s="129">
+        <v>2</v>
+      </c>
+      <c r="O93" s="126">
+        <v>2</v>
+      </c>
+      <c r="P93" s="125">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="125"/>
+      <c r="R93" s="22"/>
+      <c r="S93" s="22"/>
+    </row>
+    <row r="94" spans="1:19">
+      <c r="A94" s="16">
+        <v>90</v>
+      </c>
       <c r="B94" s="16"/>
-      <c r="C94" s="85"/>
-      <c r="D94" s="18"/>
+      <c r="C94" s="85" t="s">
+        <v>450</v>
+      </c>
+      <c r="D94" s="18" t="s">
+        <v>446</v>
+      </c>
       <c r="E94" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="K94" s="22"/>
-      <c r="L94" s="22"/>
-      <c r="M94" s="22"/>
-      <c r="N94" s="129"/>
-      <c r="O94" s="127"/>
-      <c r="P94" s="22"/>
-      <c r="Q94" s="22"/>
-    </row>
-    <row r="95" spans="1:17">
-      <c r="A95" s="16"/>
+        <f t="shared" ca="1" si="15"/>
+        <v>作業中</v>
+      </c>
+      <c r="F94" s="4">
+        <v>43101</v>
+      </c>
+      <c r="G94" s="4">
+        <v>43101</v>
+      </c>
+      <c r="H94" s="19">
+        <v>1</v>
+      </c>
+      <c r="I94" s="19">
+        <v>1</v>
+      </c>
+      <c r="J94" s="12">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="K94" s="22">
+        <v>1</v>
+      </c>
+      <c r="L94" s="22">
+        <v>1</v>
+      </c>
+      <c r="M94" s="22">
+        <v>1</v>
+      </c>
+      <c r="N94" s="129">
+        <v>1</v>
+      </c>
+      <c r="O94" s="126">
+        <v>1</v>
+      </c>
+      <c r="P94" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="125">
+        <v>1</v>
+      </c>
+      <c r="R94" s="22"/>
+      <c r="S94" s="22"/>
+    </row>
+    <row r="95" spans="1:19">
+      <c r="A95" s="16">
+        <v>91</v>
+      </c>
       <c r="B95" s="16"/>
-      <c r="C95" s="85"/>
-      <c r="D95" s="18"/>
+      <c r="C95" s="85" t="s">
+        <v>451</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>446</v>
+      </c>
       <c r="E95" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="K95" s="22"/>
-      <c r="L95" s="22"/>
-      <c r="M95" s="22"/>
-      <c r="N95" s="129"/>
-      <c r="O95" s="127"/>
-      <c r="P95" s="22"/>
-      <c r="Q95" s="22"/>
-    </row>
-    <row r="96" spans="1:17">
-      <c r="A96" s="16"/>
+        <f t="shared" ca="1" si="15"/>
+        <v>作業中</v>
+      </c>
+      <c r="F95" s="4">
+        <v>43101</v>
+      </c>
+      <c r="G95" s="4">
+        <v>43101</v>
+      </c>
+      <c r="H95" s="19">
+        <v>1</v>
+      </c>
+      <c r="I95" s="19">
+        <v>1</v>
+      </c>
+      <c r="J95" s="12">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="K95" s="22">
+        <v>1</v>
+      </c>
+      <c r="L95" s="22">
+        <v>1</v>
+      </c>
+      <c r="M95" s="22">
+        <v>1</v>
+      </c>
+      <c r="N95" s="129">
+        <v>1</v>
+      </c>
+      <c r="O95" s="126">
+        <v>1</v>
+      </c>
+      <c r="P95" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="125">
+        <v>1</v>
+      </c>
+      <c r="R95" s="22"/>
+      <c r="S95" s="22"/>
+    </row>
+    <row r="96" spans="1:19">
+      <c r="A96" s="16">
+        <v>92</v>
+      </c>
       <c r="B96" s="16"/>
-      <c r="C96" s="85"/>
-      <c r="D96" s="18"/>
+      <c r="C96" s="85" t="s">
+        <v>453</v>
+      </c>
+      <c r="D96" s="18" t="s">
+        <v>446</v>
+      </c>
       <c r="E96" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="K96" s="22"/>
-      <c r="L96" s="22"/>
-      <c r="M96" s="22"/>
-      <c r="N96" s="129"/>
-      <c r="O96" s="127"/>
-      <c r="P96" s="22"/>
-      <c r="Q96" s="22"/>
-    </row>
-    <row r="97" spans="1:18">
-      <c r="A97" s="16"/>
+        <f t="shared" ca="1" si="15"/>
+        <v>作業中</v>
+      </c>
+      <c r="F96" s="4">
+        <v>43101</v>
+      </c>
+      <c r="G96" s="4">
+        <v>43101</v>
+      </c>
+      <c r="H96" s="19">
+        <v>1</v>
+      </c>
+      <c r="I96" s="19">
+        <v>1</v>
+      </c>
+      <c r="J96" s="12">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="K96" s="22">
+        <v>1</v>
+      </c>
+      <c r="L96" s="22">
+        <v>1</v>
+      </c>
+      <c r="M96" s="22">
+        <v>1</v>
+      </c>
+      <c r="N96" s="129">
+        <v>1</v>
+      </c>
+      <c r="O96" s="126">
+        <v>1</v>
+      </c>
+      <c r="P96" s="125">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="125">
+        <v>1</v>
+      </c>
+      <c r="R96" s="22"/>
+      <c r="S96" s="22"/>
+    </row>
+    <row r="97" spans="1:20">
+      <c r="A97" s="16">
+        <v>93</v>
+      </c>
       <c r="B97" s="16"/>
-      <c r="C97" s="85"/>
-      <c r="D97" s="18"/>
+      <c r="C97" s="85" t="s">
+        <v>454</v>
+      </c>
+      <c r="D97" s="18" t="s">
+        <v>446</v>
+      </c>
       <c r="E97" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="K97" s="22"/>
-      <c r="L97" s="22"/>
-      <c r="M97" s="22"/>
-      <c r="N97" s="129"/>
-      <c r="O97" s="127"/>
-      <c r="P97" s="22"/>
-      <c r="Q97" s="22"/>
-    </row>
-    <row r="98" spans="1:18">
-      <c r="A98" s="16"/>
+        <f t="shared" ca="1" si="15"/>
+        <v>完了</v>
+      </c>
+      <c r="F97" s="4">
+        <v>43101</v>
+      </c>
+      <c r="G97" s="4">
+        <v>43101</v>
+      </c>
+      <c r="H97" s="19">
+        <v>1</v>
+      </c>
+      <c r="I97" s="19">
+        <v>1</v>
+      </c>
+      <c r="J97" s="12">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K97" s="22">
+        <v>1</v>
+      </c>
+      <c r="L97" s="22">
+        <v>1</v>
+      </c>
+      <c r="M97" s="22">
+        <v>1</v>
+      </c>
+      <c r="N97" s="129">
+        <v>1</v>
+      </c>
+      <c r="O97" s="126">
+        <v>1</v>
+      </c>
+      <c r="P97" s="125">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="125"/>
+      <c r="R97" s="22"/>
+      <c r="S97" s="22"/>
+    </row>
+    <row r="98" spans="1:20">
+      <c r="A98" s="16">
+        <v>94</v>
+      </c>
       <c r="B98" s="16"/>
-      <c r="C98" s="85"/>
-      <c r="D98" s="18"/>
+      <c r="C98" s="85" t="s">
+        <v>455</v>
+      </c>
+      <c r="D98" s="18" t="s">
+        <v>446</v>
+      </c>
       <c r="E98" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="K98" s="22"/>
-      <c r="L98" s="22"/>
-      <c r="M98" s="22"/>
-      <c r="N98" s="129"/>
-      <c r="O98" s="127"/>
-      <c r="P98" s="22"/>
-      <c r="Q98" s="22"/>
-    </row>
-    <row r="99" spans="1:18">
-      <c r="A99" s="16"/>
+        <f t="shared" ca="1" si="15"/>
+        <v>完了</v>
+      </c>
+      <c r="F98" s="4">
+        <v>43101</v>
+      </c>
+      <c r="G98" s="4">
+        <v>43101</v>
+      </c>
+      <c r="H98" s="19">
+        <v>2</v>
+      </c>
+      <c r="I98" s="19">
+        <v>1</v>
+      </c>
+      <c r="J98" s="12">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K98" s="22">
+        <v>2</v>
+      </c>
+      <c r="L98" s="22">
+        <v>2</v>
+      </c>
+      <c r="M98" s="22">
+        <v>2</v>
+      </c>
+      <c r="N98" s="129">
+        <v>2</v>
+      </c>
+      <c r="O98" s="126">
+        <v>2</v>
+      </c>
+      <c r="P98" s="125">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="125"/>
+      <c r="R98" s="22"/>
+      <c r="S98" s="22"/>
+    </row>
+    <row r="99" spans="1:20">
+      <c r="A99" s="16">
+        <v>95</v>
+      </c>
       <c r="B99" s="16"/>
-      <c r="C99" s="85"/>
-      <c r="D99" s="18"/>
+      <c r="C99" s="85" t="s">
+        <v>456</v>
+      </c>
+      <c r="D99" s="18" t="s">
+        <v>446</v>
+      </c>
       <c r="E99" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="K99" s="22"/>
-      <c r="L99" s="22"/>
-      <c r="M99" s="22"/>
-      <c r="N99" s="129"/>
-      <c r="O99" s="127"/>
-      <c r="P99" s="22"/>
-      <c r="Q99" s="22"/>
-    </row>
-    <row r="100" spans="1:18">
-      <c r="A100" s="16"/>
+        <f t="shared" ca="1" si="15"/>
+        <v>完了</v>
+      </c>
+      <c r="F99" s="4">
+        <v>43101</v>
+      </c>
+      <c r="G99" s="4">
+        <v>43101</v>
+      </c>
+      <c r="H99" s="19">
+        <v>2</v>
+      </c>
+      <c r="I99" s="19">
+        <v>1</v>
+      </c>
+      <c r="J99" s="12">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K99" s="22">
+        <v>2</v>
+      </c>
+      <c r="L99" s="22">
+        <v>2</v>
+      </c>
+      <c r="M99" s="22">
+        <v>2</v>
+      </c>
+      <c r="N99" s="129">
+        <v>2</v>
+      </c>
+      <c r="O99" s="126">
+        <v>2</v>
+      </c>
+      <c r="P99" s="125">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="125"/>
+      <c r="R99" s="22"/>
+      <c r="S99" s="22"/>
+    </row>
+    <row r="100" spans="1:20">
+      <c r="A100" s="16">
+        <v>96</v>
+      </c>
       <c r="B100" s="16"/>
-      <c r="C100" s="85"/>
-      <c r="D100" s="18"/>
+      <c r="C100" s="85" t="s">
+        <v>457</v>
+      </c>
+      <c r="D100" s="18" t="s">
+        <v>446</v>
+      </c>
       <c r="E100" s="12" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v/>
-      </c>
-      <c r="K100" s="22"/>
-      <c r="L100" s="22"/>
-      <c r="M100" s="22"/>
-      <c r="N100" s="129"/>
-      <c r="O100" s="127"/>
-      <c r="P100" s="22"/>
-      <c r="Q100" s="22"/>
-    </row>
-    <row r="101" spans="1:18">
-      <c r="A101" s="16"/>
+        <f t="shared" ca="1" si="15"/>
+        <v>完了</v>
+      </c>
+      <c r="F100" s="4">
+        <v>43101</v>
+      </c>
+      <c r="G100" s="4">
+        <v>43101</v>
+      </c>
+      <c r="H100" s="19">
+        <v>1</v>
+      </c>
+      <c r="I100" s="19">
+        <v>1</v>
+      </c>
+      <c r="J100" s="12">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K100" s="22">
+        <v>1</v>
+      </c>
+      <c r="L100" s="22">
+        <v>1</v>
+      </c>
+      <c r="M100" s="22">
+        <v>1</v>
+      </c>
+      <c r="N100" s="129">
+        <v>1</v>
+      </c>
+      <c r="O100" s="126">
+        <v>1</v>
+      </c>
+      <c r="P100" s="125">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="125"/>
+      <c r="R100" s="22"/>
+      <c r="S100" s="22"/>
+    </row>
+    <row r="101" spans="1:20">
+      <c r="A101" s="16">
+        <v>97</v>
+      </c>
       <c r="B101" s="16"/>
       <c r="C101" s="85"/>
       <c r="D101" s="18"/>
       <c r="E101" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F101" s="4"/>
@@ -32256,24 +33545,28 @@
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
       <c r="J101" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K101" s="22"/>
       <c r="L101" s="22"/>
       <c r="M101" s="22"/>
       <c r="N101" s="129"/>
-      <c r="O101" s="127"/>
-      <c r="P101" s="22"/>
-      <c r="Q101" s="22"/>
-    </row>
-    <row r="102" spans="1:18">
-      <c r="A102" s="16"/>
+      <c r="O101" s="126"/>
+      <c r="P101" s="125"/>
+      <c r="Q101" s="125"/>
+      <c r="R101" s="22"/>
+      <c r="S101" s="22"/>
+    </row>
+    <row r="102" spans="1:20">
+      <c r="A102" s="16">
+        <v>98</v>
+      </c>
       <c r="B102" s="16"/>
       <c r="C102" s="85"/>
       <c r="D102" s="18"/>
       <c r="E102" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F102" s="4"/>
@@ -32281,24 +33574,28 @@
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
       <c r="J102" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K102" s="22"/>
       <c r="L102" s="22"/>
       <c r="M102" s="22"/>
       <c r="N102" s="129"/>
-      <c r="O102" s="127"/>
-      <c r="P102" s="22"/>
-      <c r="Q102" s="22"/>
-    </row>
-    <row r="103" spans="1:18">
-      <c r="A103" s="16"/>
+      <c r="O102" s="126"/>
+      <c r="P102" s="125"/>
+      <c r="Q102" s="125"/>
+      <c r="R102" s="22"/>
+      <c r="S102" s="22"/>
+    </row>
+    <row r="103" spans="1:20">
+      <c r="A103" s="16">
+        <v>99</v>
+      </c>
       <c r="B103" s="16"/>
       <c r="C103" s="85"/>
       <c r="D103" s="18"/>
       <c r="E103" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F103" s="4"/>
@@ -32306,24 +33603,28 @@
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
       <c r="J103" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K103" s="22"/>
       <c r="L103" s="22"/>
       <c r="M103" s="22"/>
       <c r="N103" s="129"/>
-      <c r="O103" s="127"/>
-      <c r="P103" s="22"/>
-      <c r="Q103" s="22"/>
-    </row>
-    <row r="104" spans="1:18">
-      <c r="A104" s="16"/>
+      <c r="O103" s="126"/>
+      <c r="P103" s="125"/>
+      <c r="Q103" s="125"/>
+      <c r="R103" s="22"/>
+      <c r="S103" s="22"/>
+    </row>
+    <row r="104" spans="1:20">
+      <c r="A104" s="16">
+        <v>100</v>
+      </c>
       <c r="B104" s="16"/>
       <c r="C104" s="85"/>
       <c r="D104" s="18"/>
       <c r="E104" s="12" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="F104" s="4"/>
@@ -32331,18 +33632,20 @@
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
       <c r="J104" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K104" s="22"/>
       <c r="L104" s="22"/>
       <c r="M104" s="22"/>
       <c r="N104" s="129"/>
-      <c r="O104" s="127"/>
-      <c r="P104" s="22"/>
-      <c r="Q104" s="22"/>
-    </row>
-    <row r="105" spans="1:18" ht="10.5" customHeight="1">
+      <c r="O104" s="126"/>
+      <c r="P104" s="125"/>
+      <c r="Q104" s="125"/>
+      <c r="R104" s="22"/>
+      <c r="S104" s="22"/>
+    </row>
+    <row r="105" spans="1:20" ht="10.5" customHeight="1">
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
       <c r="M105" s="6"/>
@@ -32350,8 +33653,10 @@
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
-    </row>
-    <row r="106" spans="1:18">
+      <c r="R105" s="6"/>
+      <c r="S105" s="6"/>
+    </row>
+    <row r="106" spans="1:20">
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
@@ -32359,8 +33664,10 @@
       <c r="O106" s="6"/>
       <c r="P106" s="6"/>
       <c r="Q106" s="6"/>
-    </row>
-    <row r="107" spans="1:18">
+      <c r="R106" s="6"/>
+      <c r="S106" s="6"/>
+    </row>
+    <row r="107" spans="1:20">
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
       <c r="M107" s="6"/>
@@ -32369,8 +33676,10 @@
       <c r="P107" s="6"/>
       <c r="Q107" s="6"/>
       <c r="R107" s="6"/>
-    </row>
-    <row r="108" spans="1:18">
+      <c r="S107" s="6"/>
+      <c r="T107" s="6"/>
+    </row>
+    <row r="108" spans="1:20">
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>
@@ -32379,8 +33688,10 @@
       <c r="P108" s="6"/>
       <c r="Q108" s="6"/>
       <c r="R108" s="6"/>
-    </row>
-    <row r="109" spans="1:18">
+      <c r="S108" s="6"/>
+      <c r="T108" s="6"/>
+    </row>
+    <row r="109" spans="1:20">
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
       <c r="M109" s="6"/>
@@ -32389,8 +33700,10 @@
       <c r="P109" s="6"/>
       <c r="Q109" s="6"/>
       <c r="R109" s="6"/>
-    </row>
-    <row r="110" spans="1:18">
+      <c r="S109" s="6"/>
+      <c r="T109" s="6"/>
+    </row>
+    <row r="110" spans="1:20">
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
       <c r="M110" s="6"/>
@@ -32399,8 +33712,10 @@
       <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
       <c r="R110" s="6"/>
-    </row>
-    <row r="111" spans="1:18">
+      <c r="S110" s="6"/>
+      <c r="T110" s="6"/>
+    </row>
+    <row r="111" spans="1:20">
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
       <c r="M111" s="6"/>
@@ -32409,8 +33724,10 @@
       <c r="P111" s="6"/>
       <c r="Q111" s="6"/>
       <c r="R111" s="6"/>
-    </row>
-    <row r="112" spans="1:18">
+      <c r="S111" s="6"/>
+      <c r="T111" s="6"/>
+    </row>
+    <row r="112" spans="1:20">
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
       <c r="M112" s="6"/>
@@ -32419,8 +33736,10 @@
       <c r="P112" s="6"/>
       <c r="Q112" s="6"/>
       <c r="R112" s="6"/>
-    </row>
-    <row r="113" spans="11:18">
+      <c r="S112" s="6"/>
+      <c r="T112" s="6"/>
+    </row>
+    <row r="113" spans="11:20">
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
       <c r="M113" s="6"/>
@@ -32429,8 +33748,10 @@
       <c r="P113" s="6"/>
       <c r="Q113" s="6"/>
       <c r="R113" s="6"/>
-    </row>
-    <row r="114" spans="11:18">
+      <c r="S113" s="6"/>
+      <c r="T113" s="6"/>
+    </row>
+    <row r="114" spans="11:20">
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
       <c r="M114" s="6"/>
@@ -32439,8 +33760,10 @@
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
       <c r="R114" s="6"/>
-    </row>
-    <row r="115" spans="11:18">
+      <c r="S114" s="6"/>
+      <c r="T114" s="6"/>
+    </row>
+    <row r="115" spans="11:20">
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
       <c r="M115" s="6"/>
@@ -32449,8 +33772,10 @@
       <c r="P115" s="6"/>
       <c r="Q115" s="6"/>
       <c r="R115" s="6"/>
-    </row>
-    <row r="116" spans="11:18">
+      <c r="S115" s="6"/>
+      <c r="T115" s="6"/>
+    </row>
+    <row r="116" spans="11:20">
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
       <c r="M116" s="6"/>
@@ -32459,8 +33784,10 @@
       <c r="P116" s="6"/>
       <c r="Q116" s="6"/>
       <c r="R116" s="6"/>
-    </row>
-    <row r="117" spans="11:18">
+      <c r="S116" s="6"/>
+      <c r="T116" s="6"/>
+    </row>
+    <row r="117" spans="11:20">
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
       <c r="M117" s="6"/>
@@ -32469,8 +33796,10 @@
       <c r="P117" s="6"/>
       <c r="Q117" s="6"/>
       <c r="R117" s="6"/>
-    </row>
-    <row r="118" spans="11:18">
+      <c r="S117" s="6"/>
+      <c r="T117" s="6"/>
+    </row>
+    <row r="118" spans="11:20">
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
@@ -32479,8 +33808,10 @@
       <c r="P118" s="6"/>
       <c r="Q118" s="6"/>
       <c r="R118" s="6"/>
-    </row>
-    <row r="119" spans="11:18">
+      <c r="S118" s="6"/>
+      <c r="T118" s="6"/>
+    </row>
+    <row r="119" spans="11:20">
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
       <c r="M119" s="6"/>
@@ -32489,8 +33820,10 @@
       <c r="P119" s="6"/>
       <c r="Q119" s="6"/>
       <c r="R119" s="6"/>
-    </row>
-    <row r="120" spans="11:18">
+      <c r="S119" s="6"/>
+      <c r="T119" s="6"/>
+    </row>
+    <row r="120" spans="11:20">
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
       <c r="M120" s="6"/>
@@ -32499,8 +33832,10 @@
       <c r="P120" s="6"/>
       <c r="Q120" s="6"/>
       <c r="R120" s="6"/>
-    </row>
-    <row r="121" spans="11:18">
+      <c r="S120" s="6"/>
+      <c r="T120" s="6"/>
+    </row>
+    <row r="121" spans="11:20">
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
       <c r="M121" s="6"/>
@@ -32509,8 +33844,10 @@
       <c r="P121" s="6"/>
       <c r="Q121" s="6"/>
       <c r="R121" s="6"/>
-    </row>
-    <row r="122" spans="11:18">
+      <c r="S121" s="6"/>
+      <c r="T121" s="6"/>
+    </row>
+    <row r="122" spans="11:20">
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
       <c r="M122" s="6"/>
@@ -32519,8 +33856,10 @@
       <c r="P122" s="6"/>
       <c r="Q122" s="6"/>
       <c r="R122" s="6"/>
-    </row>
-    <row r="123" spans="11:18">
+      <c r="S122" s="6"/>
+      <c r="T122" s="6"/>
+    </row>
+    <row r="123" spans="11:20">
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
@@ -32529,8 +33868,10 @@
       <c r="P123" s="6"/>
       <c r="Q123" s="6"/>
       <c r="R123" s="6"/>
-    </row>
-    <row r="124" spans="11:18">
+      <c r="S123" s="6"/>
+      <c r="T123" s="6"/>
+    </row>
+    <row r="124" spans="11:20">
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
@@ -32539,8 +33880,10 @@
       <c r="P124" s="6"/>
       <c r="Q124" s="6"/>
       <c r="R124" s="6"/>
-    </row>
-    <row r="125" spans="11:18">
+      <c r="S124" s="6"/>
+      <c r="T124" s="6"/>
+    </row>
+    <row r="125" spans="11:20">
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
@@ -32549,8 +33892,10 @@
       <c r="P125" s="6"/>
       <c r="Q125" s="6"/>
       <c r="R125" s="6"/>
-    </row>
-    <row r="126" spans="11:18">
+      <c r="S125" s="6"/>
+      <c r="T125" s="6"/>
+    </row>
+    <row r="126" spans="11:20">
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
       <c r="M126" s="6"/>
@@ -32559,8 +33904,10 @@
       <c r="P126" s="6"/>
       <c r="Q126" s="6"/>
       <c r="R126" s="6"/>
-    </row>
-    <row r="127" spans="11:18">
+      <c r="S126" s="6"/>
+      <c r="T126" s="6"/>
+    </row>
+    <row r="127" spans="11:20">
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
       <c r="M127" s="6"/>
@@ -32569,8 +33916,10 @@
       <c r="P127" s="6"/>
       <c r="Q127" s="6"/>
       <c r="R127" s="6"/>
-    </row>
-    <row r="128" spans="11:18">
+      <c r="S127" s="6"/>
+      <c r="T127" s="6"/>
+    </row>
+    <row r="128" spans="11:20">
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
       <c r="M128" s="6"/>
@@ -32579,8 +33928,10 @@
       <c r="P128" s="6"/>
       <c r="Q128" s="6"/>
       <c r="R128" s="6"/>
-    </row>
-    <row r="129" spans="11:18">
+      <c r="S128" s="6"/>
+      <c r="T128" s="6"/>
+    </row>
+    <row r="129" spans="11:20">
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
       <c r="M129" s="6"/>
@@ -32589,8 +33940,10 @@
       <c r="P129" s="6"/>
       <c r="Q129" s="6"/>
       <c r="R129" s="6"/>
-    </row>
-    <row r="130" spans="11:18">
+      <c r="S129" s="6"/>
+      <c r="T129" s="6"/>
+    </row>
+    <row r="130" spans="11:20">
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
       <c r="M130" s="6"/>
@@ -32599,8 +33952,10 @@
       <c r="P130" s="6"/>
       <c r="Q130" s="6"/>
       <c r="R130" s="6"/>
-    </row>
-    <row r="131" spans="11:18">
+      <c r="S130" s="6"/>
+      <c r="T130" s="6"/>
+    </row>
+    <row r="131" spans="11:20">
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
       <c r="M131" s="6"/>
@@ -32609,8 +33964,10 @@
       <c r="P131" s="6"/>
       <c r="Q131" s="6"/>
       <c r="R131" s="6"/>
-    </row>
-    <row r="132" spans="11:18">
+      <c r="S131" s="6"/>
+      <c r="T131" s="6"/>
+    </row>
+    <row r="132" spans="11:20">
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
       <c r="M132" s="6"/>
@@ -32619,8 +33976,10 @@
       <c r="P132" s="6"/>
       <c r="Q132" s="6"/>
       <c r="R132" s="6"/>
-    </row>
-    <row r="133" spans="11:18">
+      <c r="S132" s="6"/>
+      <c r="T132" s="6"/>
+    </row>
+    <row r="133" spans="11:20">
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
       <c r="M133" s="6"/>
@@ -32629,8 +33988,10 @@
       <c r="P133" s="6"/>
       <c r="Q133" s="6"/>
       <c r="R133" s="6"/>
-    </row>
-    <row r="134" spans="11:18">
+      <c r="S133" s="6"/>
+      <c r="T133" s="6"/>
+    </row>
+    <row r="134" spans="11:20">
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
       <c r="M134" s="6"/>
@@ -32639,8 +34000,10 @@
       <c r="P134" s="6"/>
       <c r="Q134" s="6"/>
       <c r="R134" s="6"/>
-    </row>
-    <row r="135" spans="11:18">
+      <c r="S134" s="6"/>
+      <c r="T134" s="6"/>
+    </row>
+    <row r="135" spans="11:20">
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
       <c r="M135" s="6"/>
@@ -32649,8 +34012,10 @@
       <c r="P135" s="6"/>
       <c r="Q135" s="6"/>
       <c r="R135" s="6"/>
-    </row>
-    <row r="136" spans="11:18">
+      <c r="S135" s="6"/>
+      <c r="T135" s="6"/>
+    </row>
+    <row r="136" spans="11:20">
       <c r="K136" s="6"/>
       <c r="L136" s="6"/>
       <c r="M136" s="6"/>
@@ -32659,8 +34024,10 @@
       <c r="P136" s="6"/>
       <c r="Q136" s="6"/>
       <c r="R136" s="6"/>
-    </row>
-    <row r="137" spans="11:18">
+      <c r="S136" s="6"/>
+      <c r="T136" s="6"/>
+    </row>
+    <row r="137" spans="11:20">
       <c r="K137" s="6"/>
       <c r="L137" s="6"/>
       <c r="M137" s="6"/>
@@ -32669,8 +34036,10 @@
       <c r="P137" s="6"/>
       <c r="Q137" s="6"/>
       <c r="R137" s="6"/>
-    </row>
-    <row r="138" spans="11:18">
+      <c r="S137" s="6"/>
+      <c r="T137" s="6"/>
+    </row>
+    <row r="138" spans="11:20">
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
       <c r="M138" s="6"/>
@@ -32679,8 +34048,10 @@
       <c r="P138" s="6"/>
       <c r="Q138" s="6"/>
       <c r="R138" s="6"/>
-    </row>
-    <row r="139" spans="11:18">
+      <c r="S138" s="6"/>
+      <c r="T138" s="6"/>
+    </row>
+    <row r="139" spans="11:20">
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
       <c r="M139" s="6"/>
@@ -32689,8 +34060,10 @@
       <c r="P139" s="6"/>
       <c r="Q139" s="6"/>
       <c r="R139" s="6"/>
-    </row>
-    <row r="140" spans="11:18">
+      <c r="S139" s="6"/>
+      <c r="T139" s="6"/>
+    </row>
+    <row r="140" spans="11:20">
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
       <c r="M140" s="6"/>
@@ -32699,8 +34072,10 @@
       <c r="P140" s="6"/>
       <c r="Q140" s="6"/>
       <c r="R140" s="6"/>
-    </row>
-    <row r="141" spans="11:18">
+      <c r="S140" s="6"/>
+      <c r="T140" s="6"/>
+    </row>
+    <row r="141" spans="11:20">
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
       <c r="M141" s="6"/>
@@ -32709,8 +34084,10 @@
       <c r="P141" s="6"/>
       <c r="Q141" s="6"/>
       <c r="R141" s="6"/>
-    </row>
-    <row r="142" spans="11:18">
+      <c r="S141" s="6"/>
+      <c r="T141" s="6"/>
+    </row>
+    <row r="142" spans="11:20">
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
       <c r="M142" s="6"/>
@@ -32719,8 +34096,10 @@
       <c r="P142" s="6"/>
       <c r="Q142" s="6"/>
       <c r="R142" s="6"/>
-    </row>
-    <row r="143" spans="11:18">
+      <c r="S142" s="6"/>
+      <c r="T142" s="6"/>
+    </row>
+    <row r="143" spans="11:20">
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
       <c r="M143" s="6"/>
@@ -32729,8 +34108,10 @@
       <c r="P143" s="6"/>
       <c r="Q143" s="6"/>
       <c r="R143" s="6"/>
-    </row>
-    <row r="144" spans="11:18">
+      <c r="S143" s="6"/>
+      <c r="T143" s="6"/>
+    </row>
+    <row r="144" spans="11:20">
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
       <c r="M144" s="6"/>
@@ -32739,8 +34120,10 @@
       <c r="P144" s="6"/>
       <c r="Q144" s="6"/>
       <c r="R144" s="6"/>
-    </row>
-    <row r="145" spans="11:18">
+      <c r="S144" s="6"/>
+      <c r="T144" s="6"/>
+    </row>
+    <row r="145" spans="11:20">
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
       <c r="M145" s="6"/>
@@ -32749,8 +34132,10 @@
       <c r="P145" s="6"/>
       <c r="Q145" s="6"/>
       <c r="R145" s="6"/>
-    </row>
-    <row r="146" spans="11:18">
+      <c r="S145" s="6"/>
+      <c r="T145" s="6"/>
+    </row>
+    <row r="146" spans="11:20">
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
       <c r="M146" s="6"/>
@@ -32759,8 +34144,10 @@
       <c r="P146" s="6"/>
       <c r="Q146" s="6"/>
       <c r="R146" s="6"/>
-    </row>
-    <row r="147" spans="11:18">
+      <c r="S146" s="6"/>
+      <c r="T146" s="6"/>
+    </row>
+    <row r="147" spans="11:20">
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
       <c r="M147" s="6"/>
@@ -32769,8 +34156,10 @@
       <c r="P147" s="6"/>
       <c r="Q147" s="6"/>
       <c r="R147" s="6"/>
-    </row>
-    <row r="148" spans="11:18">
+      <c r="S147" s="6"/>
+      <c r="T147" s="6"/>
+    </row>
+    <row r="148" spans="11:20">
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
       <c r="M148" s="6"/>
@@ -32779,8 +34168,10 @@
       <c r="P148" s="6"/>
       <c r="Q148" s="6"/>
       <c r="R148" s="6"/>
-    </row>
-    <row r="149" spans="11:18">
+      <c r="S148" s="6"/>
+      <c r="T148" s="6"/>
+    </row>
+    <row r="149" spans="11:20">
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
       <c r="M149" s="6"/>
@@ -32789,8 +34180,10 @@
       <c r="P149" s="6"/>
       <c r="Q149" s="6"/>
       <c r="R149" s="6"/>
-    </row>
-    <row r="150" spans="11:18">
+      <c r="S149" s="6"/>
+      <c r="T149" s="6"/>
+    </row>
+    <row r="150" spans="11:20">
       <c r="K150" s="6"/>
       <c r="L150" s="6"/>
       <c r="M150" s="6"/>
@@ -32799,8 +34192,10 @@
       <c r="P150" s="6"/>
       <c r="Q150" s="6"/>
       <c r="R150" s="6"/>
-    </row>
-    <row r="151" spans="11:18">
+      <c r="S150" s="6"/>
+      <c r="T150" s="6"/>
+    </row>
+    <row r="151" spans="11:20">
       <c r="K151" s="6"/>
       <c r="L151" s="6"/>
       <c r="M151" s="6"/>
@@ -32809,8 +34204,10 @@
       <c r="P151" s="6"/>
       <c r="Q151" s="6"/>
       <c r="R151" s="6"/>
-    </row>
-    <row r="152" spans="11:18">
+      <c r="S151" s="6"/>
+      <c r="T151" s="6"/>
+    </row>
+    <row r="152" spans="11:20">
       <c r="K152" s="6"/>
       <c r="L152" s="6"/>
       <c r="M152" s="6"/>
@@ -32819,8 +34216,10 @@
       <c r="P152" s="6"/>
       <c r="Q152" s="6"/>
       <c r="R152" s="6"/>
-    </row>
-    <row r="153" spans="11:18">
+      <c r="S152" s="6"/>
+      <c r="T152" s="6"/>
+    </row>
+    <row r="153" spans="11:20">
       <c r="K153" s="6"/>
       <c r="L153" s="6"/>
       <c r="M153" s="6"/>
@@ -32829,8 +34228,10 @@
       <c r="P153" s="6"/>
       <c r="Q153" s="6"/>
       <c r="R153" s="6"/>
-    </row>
-    <row r="154" spans="11:18">
+      <c r="S153" s="6"/>
+      <c r="T153" s="6"/>
+    </row>
+    <row r="154" spans="11:20">
       <c r="K154" s="6"/>
       <c r="L154" s="6"/>
       <c r="M154" s="6"/>
@@ -32839,8 +34240,10 @@
       <c r="P154" s="6"/>
       <c r="Q154" s="6"/>
       <c r="R154" s="6"/>
-    </row>
-    <row r="155" spans="11:18">
+      <c r="S154" s="6"/>
+      <c r="T154" s="6"/>
+    </row>
+    <row r="155" spans="11:20">
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
       <c r="M155" s="6"/>
@@ -32849,8 +34252,10 @@
       <c r="P155" s="6"/>
       <c r="Q155" s="6"/>
       <c r="R155" s="6"/>
-    </row>
-    <row r="156" spans="11:18">
+      <c r="S155" s="6"/>
+      <c r="T155" s="6"/>
+    </row>
+    <row r="156" spans="11:20">
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
       <c r="M156" s="6"/>
@@ -32859,8 +34264,10 @@
       <c r="P156" s="6"/>
       <c r="Q156" s="6"/>
       <c r="R156" s="6"/>
-    </row>
-    <row r="157" spans="11:18">
+      <c r="S156" s="6"/>
+      <c r="T156" s="6"/>
+    </row>
+    <row r="157" spans="11:20">
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
       <c r="M157" s="6"/>
@@ -32869,8 +34276,10 @@
       <c r="P157" s="6"/>
       <c r="Q157" s="6"/>
       <c r="R157" s="6"/>
-    </row>
-    <row r="158" spans="11:18">
+      <c r="S157" s="6"/>
+      <c r="T157" s="6"/>
+    </row>
+    <row r="158" spans="11:20">
       <c r="K158" s="6"/>
       <c r="L158" s="6"/>
       <c r="M158" s="6"/>
@@ -32879,8 +34288,10 @@
       <c r="P158" s="6"/>
       <c r="Q158" s="6"/>
       <c r="R158" s="6"/>
-    </row>
-    <row r="159" spans="11:18">
+      <c r="S158" s="6"/>
+      <c r="T158" s="6"/>
+    </row>
+    <row r="159" spans="11:20">
       <c r="K159" s="6"/>
       <c r="L159" s="6"/>
       <c r="M159" s="6"/>
@@ -32889,8 +34300,10 @@
       <c r="P159" s="6"/>
       <c r="Q159" s="6"/>
       <c r="R159" s="6"/>
-    </row>
-    <row r="160" spans="11:18">
+      <c r="S159" s="6"/>
+      <c r="T159" s="6"/>
+    </row>
+    <row r="160" spans="11:20">
       <c r="K160" s="6"/>
       <c r="L160" s="6"/>
       <c r="M160" s="6"/>
@@ -32899,8 +34312,10 @@
       <c r="P160" s="6"/>
       <c r="Q160" s="6"/>
       <c r="R160" s="6"/>
-    </row>
-    <row r="161" spans="11:18">
+      <c r="S160" s="6"/>
+      <c r="T160" s="6"/>
+    </row>
+    <row r="161" spans="11:20">
       <c r="K161" s="6"/>
       <c r="L161" s="6"/>
       <c r="M161" s="6"/>
@@ -32909,8 +34324,10 @@
       <c r="P161" s="6"/>
       <c r="Q161" s="6"/>
       <c r="R161" s="6"/>
-    </row>
-    <row r="162" spans="11:18">
+      <c r="S161" s="6"/>
+      <c r="T161" s="6"/>
+    </row>
+    <row r="162" spans="11:20">
       <c r="K162" s="6"/>
       <c r="L162" s="6"/>
       <c r="M162" s="6"/>
@@ -32919,8 +34336,10 @@
       <c r="P162" s="6"/>
       <c r="Q162" s="6"/>
       <c r="R162" s="6"/>
-    </row>
-    <row r="163" spans="11:18">
+      <c r="S162" s="6"/>
+      <c r="T162" s="6"/>
+    </row>
+    <row r="163" spans="11:20">
       <c r="K163" s="6"/>
       <c r="L163" s="6"/>
       <c r="M163" s="6"/>
@@ -32929,8 +34348,10 @@
       <c r="P163" s="6"/>
       <c r="Q163" s="6"/>
       <c r="R163" s="6"/>
-    </row>
-    <row r="164" spans="11:18">
+      <c r="S163" s="6"/>
+      <c r="T163" s="6"/>
+    </row>
+    <row r="164" spans="11:20">
       <c r="K164" s="6"/>
       <c r="L164" s="6"/>
       <c r="M164" s="6"/>
@@ -32939,8 +34360,10 @@
       <c r="P164" s="6"/>
       <c r="Q164" s="6"/>
       <c r="R164" s="6"/>
-    </row>
-    <row r="165" spans="11:18">
+      <c r="S164" s="6"/>
+      <c r="T164" s="6"/>
+    </row>
+    <row r="165" spans="11:20">
       <c r="K165" s="6"/>
       <c r="L165" s="6"/>
       <c r="M165" s="6"/>
@@ -32949,8 +34372,10 @@
       <c r="P165" s="6"/>
       <c r="Q165" s="6"/>
       <c r="R165" s="6"/>
-    </row>
-    <row r="166" spans="11:18">
+      <c r="S165" s="6"/>
+      <c r="T165" s="6"/>
+    </row>
+    <row r="166" spans="11:20">
       <c r="K166" s="6"/>
       <c r="L166" s="6"/>
       <c r="M166" s="6"/>
@@ -32959,8 +34384,10 @@
       <c r="P166" s="6"/>
       <c r="Q166" s="6"/>
       <c r="R166" s="6"/>
-    </row>
-    <row r="167" spans="11:18">
+      <c r="S166" s="6"/>
+      <c r="T166" s="6"/>
+    </row>
+    <row r="167" spans="11:20">
       <c r="K167" s="6"/>
       <c r="L167" s="6"/>
       <c r="M167" s="6"/>
@@ -32969,8 +34396,10 @@
       <c r="P167" s="6"/>
       <c r="Q167" s="6"/>
       <c r="R167" s="6"/>
-    </row>
-    <row r="168" spans="11:18">
+      <c r="S167" s="6"/>
+      <c r="T167" s="6"/>
+    </row>
+    <row r="168" spans="11:20">
       <c r="K168" s="6"/>
       <c r="L168" s="6"/>
       <c r="M168" s="6"/>
@@ -32979,8 +34408,10 @@
       <c r="P168" s="6"/>
       <c r="Q168" s="6"/>
       <c r="R168" s="6"/>
-    </row>
-    <row r="169" spans="11:18">
+      <c r="S168" s="6"/>
+      <c r="T168" s="6"/>
+    </row>
+    <row r="169" spans="11:20">
       <c r="K169" s="6"/>
       <c r="L169" s="6"/>
       <c r="M169" s="6"/>
@@ -32989,8 +34420,10 @@
       <c r="P169" s="6"/>
       <c r="Q169" s="6"/>
       <c r="R169" s="6"/>
-    </row>
-    <row r="170" spans="11:18">
+      <c r="S169" s="6"/>
+      <c r="T169" s="6"/>
+    </row>
+    <row r="170" spans="11:20">
       <c r="K170" s="6"/>
       <c r="L170" s="6"/>
       <c r="M170" s="6"/>
@@ -32999,8 +34432,10 @@
       <c r="P170" s="6"/>
       <c r="Q170" s="6"/>
       <c r="R170" s="6"/>
-    </row>
-    <row r="171" spans="11:18">
+      <c r="S170" s="6"/>
+      <c r="T170" s="6"/>
+    </row>
+    <row r="171" spans="11:20">
       <c r="K171" s="6"/>
       <c r="L171" s="6"/>
       <c r="M171" s="6"/>
@@ -33009,8 +34444,10 @@
       <c r="P171" s="6"/>
       <c r="Q171" s="6"/>
       <c r="R171" s="6"/>
-    </row>
-    <row r="172" spans="11:18">
+      <c r="S171" s="6"/>
+      <c r="T171" s="6"/>
+    </row>
+    <row r="172" spans="11:20">
       <c r="K172" s="6"/>
       <c r="L172" s="6"/>
       <c r="M172" s="6"/>
@@ -33019,8 +34456,10 @@
       <c r="P172" s="6"/>
       <c r="Q172" s="6"/>
       <c r="R172" s="6"/>
-    </row>
-    <row r="173" spans="11:18">
+      <c r="S172" s="6"/>
+      <c r="T172" s="6"/>
+    </row>
+    <row r="173" spans="11:20">
       <c r="K173" s="6"/>
       <c r="L173" s="6"/>
       <c r="M173" s="6"/>
@@ -33029,8 +34468,10 @@
       <c r="P173" s="6"/>
       <c r="Q173" s="6"/>
       <c r="R173" s="6"/>
-    </row>
-    <row r="174" spans="11:18">
+      <c r="S173" s="6"/>
+      <c r="T173" s="6"/>
+    </row>
+    <row r="174" spans="11:20">
       <c r="K174" s="6"/>
       <c r="L174" s="6"/>
       <c r="M174" s="6"/>
@@ -33039,8 +34480,10 @@
       <c r="P174" s="6"/>
       <c r="Q174" s="6"/>
       <c r="R174" s="6"/>
-    </row>
-    <row r="175" spans="11:18">
+      <c r="S174" s="6"/>
+      <c r="T174" s="6"/>
+    </row>
+    <row r="175" spans="11:20">
       <c r="K175" s="6"/>
       <c r="L175" s="6"/>
       <c r="M175" s="6"/>
@@ -33049,8 +34492,10 @@
       <c r="P175" s="6"/>
       <c r="Q175" s="6"/>
       <c r="R175" s="6"/>
-    </row>
-    <row r="176" spans="11:18">
+      <c r="S175" s="6"/>
+      <c r="T175" s="6"/>
+    </row>
+    <row r="176" spans="11:20">
       <c r="K176" s="6"/>
       <c r="L176" s="6"/>
       <c r="M176" s="6"/>
@@ -33059,8 +34504,10 @@
       <c r="P176" s="6"/>
       <c r="Q176" s="6"/>
       <c r="R176" s="6"/>
-    </row>
-    <row r="177" spans="11:18">
+      <c r="S176" s="6"/>
+      <c r="T176" s="6"/>
+    </row>
+    <row r="177" spans="11:20">
       <c r="K177" s="6"/>
       <c r="L177" s="6"/>
       <c r="M177" s="6"/>
@@ -33069,8 +34516,10 @@
       <c r="P177" s="6"/>
       <c r="Q177" s="6"/>
       <c r="R177" s="6"/>
-    </row>
-    <row r="178" spans="11:18">
+      <c r="S177" s="6"/>
+      <c r="T177" s="6"/>
+    </row>
+    <row r="178" spans="11:20">
       <c r="K178" s="6"/>
       <c r="L178" s="6"/>
       <c r="M178" s="6"/>
@@ -33079,8 +34528,10 @@
       <c r="P178" s="6"/>
       <c r="Q178" s="6"/>
       <c r="R178" s="6"/>
-    </row>
-    <row r="179" spans="11:18">
+      <c r="S178" s="6"/>
+      <c r="T178" s="6"/>
+    </row>
+    <row r="179" spans="11:20">
       <c r="K179" s="6"/>
       <c r="L179" s="6"/>
       <c r="M179" s="6"/>
@@ -33089,8 +34540,10 @@
       <c r="P179" s="6"/>
       <c r="Q179" s="6"/>
       <c r="R179" s="6"/>
-    </row>
-    <row r="180" spans="11:18">
+      <c r="S179" s="6"/>
+      <c r="T179" s="6"/>
+    </row>
+    <row r="180" spans="11:20">
       <c r="K180" s="6"/>
       <c r="L180" s="6"/>
       <c r="M180" s="6"/>
@@ -33099,8 +34552,10 @@
       <c r="P180" s="6"/>
       <c r="Q180" s="6"/>
       <c r="R180" s="6"/>
-    </row>
-    <row r="181" spans="11:18">
+      <c r="S180" s="6"/>
+      <c r="T180" s="6"/>
+    </row>
+    <row r="181" spans="11:20">
       <c r="K181" s="6"/>
       <c r="L181" s="6"/>
       <c r="M181" s="6"/>
@@ -33109,8 +34564,10 @@
       <c r="P181" s="6"/>
       <c r="Q181" s="6"/>
       <c r="R181" s="6"/>
-    </row>
-    <row r="182" spans="11:18">
+      <c r="S181" s="6"/>
+      <c r="T181" s="6"/>
+    </row>
+    <row r="182" spans="11:20">
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
       <c r="M182" s="6"/>
@@ -33119,8 +34576,10 @@
       <c r="P182" s="6"/>
       <c r="Q182" s="6"/>
       <c r="R182" s="6"/>
-    </row>
-    <row r="183" spans="11:18">
+      <c r="S182" s="6"/>
+      <c r="T182" s="6"/>
+    </row>
+    <row r="183" spans="11:20">
       <c r="K183" s="6"/>
       <c r="L183" s="6"/>
       <c r="M183" s="6"/>
@@ -33129,8 +34588,10 @@
       <c r="P183" s="6"/>
       <c r="Q183" s="6"/>
       <c r="R183" s="6"/>
-    </row>
-    <row r="184" spans="11:18">
+      <c r="S183" s="6"/>
+      <c r="T183" s="6"/>
+    </row>
+    <row r="184" spans="11:20">
       <c r="K184" s="6"/>
       <c r="L184" s="6"/>
       <c r="M184" s="6"/>
@@ -33139,8 +34600,10 @@
       <c r="P184" s="6"/>
       <c r="Q184" s="6"/>
       <c r="R184" s="6"/>
-    </row>
-    <row r="185" spans="11:18">
+      <c r="S184" s="6"/>
+      <c r="T184" s="6"/>
+    </row>
+    <row r="185" spans="11:20">
       <c r="K185" s="6"/>
       <c r="L185" s="6"/>
       <c r="M185" s="6"/>
@@ -33149,8 +34612,10 @@
       <c r="P185" s="6"/>
       <c r="Q185" s="6"/>
       <c r="R185" s="6"/>
-    </row>
-    <row r="186" spans="11:18">
+      <c r="S185" s="6"/>
+      <c r="T185" s="6"/>
+    </row>
+    <row r="186" spans="11:20">
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
       <c r="M186" s="6"/>
@@ -33159,8 +34624,10 @@
       <c r="P186" s="6"/>
       <c r="Q186" s="6"/>
       <c r="R186" s="6"/>
-    </row>
-    <row r="187" spans="11:18">
+      <c r="S186" s="6"/>
+      <c r="T186" s="6"/>
+    </row>
+    <row r="187" spans="11:20">
       <c r="K187" s="6"/>
       <c r="L187" s="6"/>
       <c r="M187" s="6"/>
@@ -33169,8 +34636,10 @@
       <c r="P187" s="6"/>
       <c r="Q187" s="6"/>
       <c r="R187" s="6"/>
-    </row>
-    <row r="188" spans="11:18">
+      <c r="S187" s="6"/>
+      <c r="T187" s="6"/>
+    </row>
+    <row r="188" spans="11:20">
       <c r="K188" s="6"/>
       <c r="L188" s="6"/>
       <c r="M188" s="6"/>
@@ -33179,22 +34648,26 @@
       <c r="P188" s="6"/>
       <c r="Q188" s="6"/>
       <c r="R188" s="6"/>
+      <c r="S188" s="6"/>
+      <c r="T188" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q104">
+  <autoFilter ref="A1:S104">
     <filterColumn colId="10" showButton="0"/>
     <filterColumn colId="11" showButton="0"/>
     <filterColumn colId="12" showButton="0"/>
-    <filterColumn colId="13" showButton="0"/>
-    <filterColumn colId="14" hiddenButton="1" showButton="0"/>
+    <filterColumn colId="13" hiddenButton="1" showButton="0"/>
+    <filterColumn colId="14" showButton="0"/>
     <filterColumn colId="15" hiddenButton="1" showButton="0"/>
-    <filterColumn colId="16" showButton="0"/>
+    <filterColumn colId="16" hiddenButton="1" showButton="0"/>
+    <filterColumn colId="17" hiddenButton="1" showButton="0"/>
+    <filterColumn colId="18" showButton="0"/>
   </autoFilter>
   <mergeCells count="11">
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="K1:S1"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
@@ -33215,7 +34688,7 @@
       <formula>OR(E105="終了",E105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U39:XFD50 B16:C16 B15 A6:B6 B12:C14 Y67:XFD77 D6:I6 F7:I38 A5:P5 S78:XFD104 S51:XFD66 S5:XFD38 B7:B11 A91:B104 J6:P38 B17:B90 A7:A90 D7:E76 F39:P104">
+  <conditionalFormatting sqref="W39:XFD50 B16:C16 B15 A6:B6 B12:C14 AA67:XFD77 D6:I6 F7:I38 A5:R5 U78:XFD104 U51:XFD66 U5:XFD38 B7:B11 A91:B104 J6:R38 B17:B90 D7:E76 F39:R104 A7:A104">
     <cfRule type="expression" dxfId="44" priority="67" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
@@ -33248,7 +34721,7 @@
       <formula>OR(E105="終了",E105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105:P106 F107:Q65536">
+  <conditionalFormatting sqref="F105:R106 F107:S65536">
     <cfRule type="expression" dxfId="35" priority="76" stopIfTrue="1">
       <formula>$E105="未着手"</formula>
     </cfRule>
@@ -33259,7 +34732,7 @@
       <formula>OR($E105="終了",$E105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S39:T50">
+  <conditionalFormatting sqref="U39:V50">
     <cfRule type="expression" dxfId="32" priority="61" stopIfTrue="1">
       <formula>$F39="未着手"</formula>
     </cfRule>
@@ -33347,7 +34820,7 @@
       <formula>OR($E77="終了",$E77="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5:Q104">
+  <conditionalFormatting sqref="S5:S104">
     <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
@@ -33358,7 +34831,7 @@
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R107:R65536 Q105:Q106">
+  <conditionalFormatting sqref="T107:T65536 S105:S106">
     <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>

--- a/バックログ/02班スプリントバックログ.xlsx
+++ b/バックログ/02班スプリントバックログ.xlsx
@@ -537,7 +537,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="460">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -3884,31 +3884,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ポーズやリザルト時の画面出現時に各ボタンを出すときの外枠のリソース</t>
-    <rPh sb="8" eb="9">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ソトワク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>タイトル時とセレクト時の回す用の専用ステージ作成</t>
     <rPh sb="4" eb="5">
       <t>ジ</t>
@@ -4405,6 +4380,45 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>カンカク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ポーズ画面に表示する操作説明</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>操作説明画面のリソース手直し</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テナオ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>樋田</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -9147,25 +9161,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>184.5</c:v>
+                  <c:v>187.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>159.5</c:v>
+                  <c:v>162.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>139</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>131</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>93</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9248,22 +9262,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>184</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>161</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>138</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>115</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>46</c:v>
@@ -9885,7 +9899,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -9996,7 +10010,7 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -28208,8 +28222,8 @@
   <dimension ref="A1:AA188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="4" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R102" sqref="R102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -28296,7 +28310,7 @@
         <v>380</v>
       </c>
       <c r="N2" s="123" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O2" s="123" t="s">
         <v>397</v>
@@ -28305,7 +28319,7 @@
         <v>398</v>
       </c>
       <c r="Q2" s="124" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R2" s="23" t="s">
         <v>401</v>
@@ -28330,27 +28344,27 @@
       <c r="J3" s="145"/>
       <c r="K3" s="20">
         <f t="shared" ref="K3:S3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$R$2))))</f>
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L3" s="20">
         <f t="shared" si="0"/>
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N3" s="20">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O3" s="127">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P3" s="128">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q3" s="128">
         <f t="shared" si="0"/>
@@ -28378,31 +28392,31 @@
       <c r="J4" s="145"/>
       <c r="K4" s="21">
         <f>SUM(K5:K104)</f>
-        <v>184.5</v>
+        <v>187.5</v>
       </c>
       <c r="L4" s="21">
         <f>SUM(L5:L104)</f>
-        <v>159.5</v>
+        <v>162.5</v>
       </c>
       <c r="M4" s="21">
         <f t="shared" ref="M4" si="1">SUM(M5:M104)</f>
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N4" s="21">
         <f>SUM(N5:N104)</f>
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O4" s="21">
         <f>SUM(O5:O104)</f>
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P4" s="21">
         <f>SUM(P5:P104)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="21">
         <f>SUM(Q5:Q104)</f>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="R4" s="21"/>
       <c r="S4" s="21"/>
@@ -29380,10 +29394,10 @@
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E24" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -30424,7 +30438,7 @@
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="17" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>376</v>
@@ -30960,10 +30974,10 @@
         <v>417</v>
       </c>
       <c r="C53" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="D53" s="18" t="s">
         <v>420</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>421</v>
       </c>
       <c r="E53" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -31014,7 +31028,7 @@
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>124</v>
@@ -31164,7 +31178,7 @@
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="17" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>416</v>
@@ -31219,7 +31233,7 @@
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>416</v>
@@ -31274,10 +31288,10 @@
       </c>
       <c r="B60" s="16"/>
       <c r="C60" s="17" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E60" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -31327,10 +31341,10 @@
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="D61" s="18" t="s">
         <v>445</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>446</v>
       </c>
       <c r="E61" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -31382,10 +31396,10 @@
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E62" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -31437,10 +31451,10 @@
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>440</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>441</v>
       </c>
       <c r="E63" s="12" t="str">
         <f t="shared" si="3"/>
@@ -32086,7 +32100,7 @@
       </c>
       <c r="V73" s="10">
         <f t="shared" si="11"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="W73" s="10">
         <f t="shared" ca="1" si="8"/>
@@ -32094,7 +32108,7 @@
       </c>
       <c r="X73" s="10">
         <f t="shared" si="9"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Y73" s="14">
         <f t="shared" si="10"/>
@@ -32177,7 +32191,7 @@
       </c>
       <c r="B75" s="16"/>
       <c r="C75" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>388</v>
@@ -32243,26 +32257,30 @@
       </c>
       <c r="B76" s="16"/>
       <c r="C76" s="17" t="s">
-        <v>419</v>
+        <v>457</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>388</v>
       </c>
       <c r="E76" s="12" t="str">
-        <f t="shared" si="14"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>完了</v>
       </c>
       <c r="F76" s="4">
-        <v>43088</v>
-      </c>
-      <c r="G76" s="4"/>
+        <v>43109</v>
+      </c>
+      <c r="G76" s="4">
+        <v>43109</v>
+      </c>
       <c r="H76" s="19">
         <v>3</v>
       </c>
-      <c r="I76" s="19"/>
+      <c r="I76" s="19">
+        <v>3</v>
+      </c>
       <c r="J76" s="12">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K76" s="22">
         <v>3</v>
@@ -32285,7 +32303,9 @@
       <c r="Q76" s="125">
         <v>3</v>
       </c>
-      <c r="R76" s="22"/>
+      <c r="R76" s="22">
+        <v>0</v>
+      </c>
       <c r="S76" s="22"/>
       <c r="U76" s="11"/>
       <c r="V76" s="10">
@@ -32539,10 +32559,10 @@
       </c>
       <c r="B81" s="16"/>
       <c r="C81" s="85" t="s">
+        <v>422</v>
+      </c>
+      <c r="D81" s="18" t="s">
         <v>423</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>424</v>
       </c>
       <c r="E81" s="12" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -32594,10 +32614,10 @@
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="85" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E82" s="12" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -32641,10 +32661,10 @@
       </c>
       <c r="B83" s="16"/>
       <c r="C83" s="85" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E83" s="12" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -32688,10 +32708,10 @@
       </c>
       <c r="B84" s="16"/>
       <c r="C84" s="85" t="s">
+        <v>427</v>
+      </c>
+      <c r="D84" s="18" t="s">
         <v>428</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>429</v>
       </c>
       <c r="E84" s="12" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -32764,10 +32784,10 @@
       </c>
       <c r="B86" s="16"/>
       <c r="C86" s="85" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E86" s="12" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -32815,7 +32835,7 @@
       </c>
       <c r="B87" s="16"/>
       <c r="C87" s="85" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D87" s="18" t="s">
         <v>124</v>
@@ -32866,7 +32886,7 @@
       </c>
       <c r="B88" s="16"/>
       <c r="C88" s="85" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>124</v>
@@ -32919,7 +32939,7 @@
       </c>
       <c r="B89" s="16"/>
       <c r="C89" s="85" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>124</v>
@@ -32970,7 +32990,7 @@
       </c>
       <c r="B90" s="16"/>
       <c r="C90" s="85" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>124</v>
@@ -33052,10 +33072,10 @@
       </c>
       <c r="B92" s="16"/>
       <c r="C92" s="85" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E92" s="12" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -33105,10 +33125,10 @@
       </c>
       <c r="B93" s="16"/>
       <c r="C93" s="85" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E93" s="12" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -33158,10 +33178,10 @@
       </c>
       <c r="B94" s="16"/>
       <c r="C94" s="85" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E94" s="12" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -33213,10 +33233,10 @@
       </c>
       <c r="B95" s="16"/>
       <c r="C95" s="85" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E95" s="12" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -33268,10 +33288,10 @@
       </c>
       <c r="B96" s="16"/>
       <c r="C96" s="85" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E96" s="12" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -33323,10 +33343,10 @@
       </c>
       <c r="B97" s="16"/>
       <c r="C97" s="85" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E97" s="12" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -33376,10 +33396,10 @@
       </c>
       <c r="B98" s="16"/>
       <c r="C98" s="85" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E98" s="12" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -33429,10 +33449,10 @@
       </c>
       <c r="B99" s="16"/>
       <c r="C99" s="85" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E99" s="12" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -33482,10 +33502,10 @@
       </c>
       <c r="B100" s="16"/>
       <c r="C100" s="85" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E100" s="12" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -33563,27 +33583,51 @@
         <v>98</v>
       </c>
       <c r="B102" s="16"/>
-      <c r="C102" s="85"/>
-      <c r="D102" s="18"/>
+      <c r="C102" s="85" t="s">
+        <v>458</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>459</v>
+      </c>
       <c r="E102" s="12" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="F102" s="4"/>
-      <c r="G102" s="4"/>
-      <c r="H102" s="19"/>
+        <f t="shared" ca="1" si="15"/>
+        <v>作業中</v>
+      </c>
+      <c r="F102" s="4">
+        <v>43109</v>
+      </c>
+      <c r="G102" s="4">
+        <v>43109</v>
+      </c>
+      <c r="H102" s="19">
+        <v>3</v>
+      </c>
       <c r="I102" s="19"/>
-      <c r="J102" s="12" t="str">
+      <c r="J102" s="12">
         <f t="shared" ca="1" si="16"/>
-        <v/>
-      </c>
-      <c r="K102" s="22"/>
-      <c r="L102" s="22"/>
-      <c r="M102" s="22"/>
-      <c r="N102" s="129"/>
-      <c r="O102" s="126"/>
-      <c r="P102" s="125"/>
-      <c r="Q102" s="125"/>
+        <v>3</v>
+      </c>
+      <c r="K102" s="22">
+        <v>3</v>
+      </c>
+      <c r="L102" s="22">
+        <v>3</v>
+      </c>
+      <c r="M102" s="22">
+        <v>3</v>
+      </c>
+      <c r="N102" s="129">
+        <v>3</v>
+      </c>
+      <c r="O102" s="126">
+        <v>3</v>
+      </c>
+      <c r="P102" s="125">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="125">
+        <v>3</v>
+      </c>
       <c r="R102" s="22"/>
       <c r="S102" s="22"/>
     </row>

--- a/バックログ/02班スプリントバックログ.xlsx
+++ b/バックログ/02班スプリントバックログ.xlsx
@@ -537,7 +537,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="473">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -4559,6 +4559,20 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>リザルトのスコアの文字リソース</t>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>樋田</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -9308,28 +9322,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>195.5</c:v>
+                  <c:v>196.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>170.5</c:v>
+                  <c:v>171.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>150</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>142</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>57</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9415,22 +9429,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>195</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>173</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>65</c:v>
@@ -9903,7 +9917,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
@@ -9918,7 +9932,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -10040,10 +10054,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>18</c:v>
@@ -10055,7 +10069,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -10151,10 +10165,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>53</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>29</c:v>
@@ -10166,7 +10180,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -10264,7 +10278,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -10279,7 +10293,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -28378,8 +28392,8 @@
   <dimension ref="A1:AB188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
+      <pane ySplit="4" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -28504,11 +28518,11 @@
       <c r="J3" s="144"/>
       <c r="K3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$S$2))))</f>
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L3" s="20">
         <f t="shared" ref="L3:T3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$S$2))))</f>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="0"/>
@@ -28516,15 +28530,15 @@
       </c>
       <c r="N3" s="20">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O3" s="20">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P3" s="20">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q3" s="20">
         <f t="shared" si="0"/>
@@ -28556,35 +28570,35 @@
       <c r="J4" s="144"/>
       <c r="K4" s="21">
         <f>SUM(K5:K109)</f>
-        <v>195.5</v>
+        <v>196.5</v>
       </c>
       <c r="L4" s="21">
         <f t="shared" ref="L4:S4" si="1">SUM(L5:L109)</f>
-        <v>170.5</v>
+        <v>171.5</v>
       </c>
       <c r="M4" s="21">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N4" s="21">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O4" s="21">
         <f t="shared" si="1"/>
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P4" s="21">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="21">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R4" s="21">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S4" s="21">
         <f t="shared" si="1"/>
@@ -28604,20 +28618,24 @@
         <v>335</v>
       </c>
       <c r="E5" s="12" t="str">
-        <f>IF(ISBLANK($C5),"",IF(ISBLANK($G5),"未着手",IF($J5=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($C5),"",IF(ISBLANK($G5),"未着手",IF($J5=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F5" s="4">
         <v>43098</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4">
+        <v>43110</v>
+      </c>
       <c r="H5" s="19">
         <v>4</v>
       </c>
-      <c r="I5" s="19"/>
+      <c r="I5" s="19">
+        <v>4</v>
+      </c>
       <c r="J5" s="12">
         <f t="shared" ref="J5:J36" ca="1" si="2">IF(ISBLANK(K5)=FALSE,OFFSET(J5,0,COUNTA(K5:T5)),"")</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K5" s="22">
         <v>4</v>
@@ -28643,7 +28661,9 @@
       <c r="R5" s="22">
         <v>4</v>
       </c>
-      <c r="S5" s="22"/>
+      <c r="S5" s="22">
+        <v>0</v>
+      </c>
       <c r="T5" s="22"/>
     </row>
     <row r="6" spans="1:22">
@@ -29213,23 +29233,27 @@
         <v>384</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="F17" s="4">
-        <v>43098</v>
-      </c>
-      <c r="G17" s="4"/>
+        <v>43110</v>
+      </c>
+      <c r="G17" s="4">
+        <v>43110</v>
+      </c>
       <c r="H17" s="19">
         <v>2</v>
       </c>
-      <c r="I17" s="19"/>
+      <c r="I17" s="19">
+        <v>2</v>
+      </c>
       <c r="J17" s="12">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" s="22">
         <v>2</v>
@@ -29255,7 +29279,9 @@
       <c r="R17" s="22">
         <v>2</v>
       </c>
-      <c r="S17" s="22"/>
+      <c r="S17" s="22">
+        <v>0</v>
+      </c>
       <c r="T17" s="22"/>
     </row>
     <row r="18" spans="1:20">
@@ -30258,7 +30284,7 @@
         <v>2</v>
       </c>
       <c r="J37" s="12">
-        <f t="shared" ref="J37:J68" ca="1" si="4">IF(ISBLANK(K37)=FALSE,OFFSET(J37,0,COUNTA(K37:T37)),"")</f>
+        <f t="shared" ref="J37:J54" ca="1" si="4">IF(ISBLANK(K37)=FALSE,OFFSET(J37,0,COUNTA(K37:T37)),"")</f>
         <v>0</v>
       </c>
       <c r="K37" s="22">
@@ -32004,15 +32030,15 @@
       </c>
       <c r="W68" s="10">
         <f>SUMIF($D$5:$D$175,V68,$H$5:$H$175)</f>
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="X68" s="10">
         <f ca="1">SUMIF($D$5:$D$175,V68,$J$5:$J$175)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="Y68" s="10">
         <f>SUMIF($D$5:$D$174,V68,$I$5:$I$175)</f>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Z68" s="14">
         <f>COUNTA($K$2:$T$2)*6-COUNTA($K$4:$T$4)*6</f>
@@ -32020,7 +32046,7 @@
       </c>
       <c r="AA68" s="15">
         <f ca="1">IF(Z68&gt;X68,0,X68-Z68)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:27">
@@ -32087,7 +32113,7 @@
       </c>
       <c r="W69" s="10">
         <f t="shared" ref="W69:W73" si="8">SUMIF($D$5:$D$175,V69,$H$5:$H$175)</f>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X69" s="10">
         <f t="shared" ref="X69:X73" ca="1" si="9">SUMIF($D$5:$D$175,V69,$J$5:$J$175)</f>
@@ -32095,7 +32121,7 @@
       </c>
       <c r="Y69" s="10">
         <f t="shared" ref="Y69:Y73" si="10">SUMIF($D$5:$D$174,V69,$I$5:$I$175)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Z69" s="14">
         <f t="shared" ref="Z69:Z73" si="11">COUNTA($K$2:$T$2)*6-COUNTA($K$4:$T$4)*6</f>
@@ -32393,15 +32419,15 @@
       </c>
       <c r="W73" s="10">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X73" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y73" s="10">
         <f t="shared" si="10"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Z73" s="14">
         <f t="shared" si="11"/>
@@ -32409,7 +32435,7 @@
       </c>
       <c r="AA73" s="15">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:27">
@@ -32459,19 +32485,19 @@
       <c r="T74" s="22"/>
       <c r="V74" s="11"/>
       <c r="W74" s="10">
-        <f t="shared" ref="W69:W77" si="14">SUMIF($D$5:$D$104,V74,$H$5:$H$104)</f>
+        <f t="shared" ref="W74:W77" si="14">SUMIF($D$5:$D$104,V74,$H$5:$H$104)</f>
         <v>0</v>
       </c>
       <c r="X74" s="10">
-        <f t="shared" ref="X68:X77" si="15">SUMIF($D$5:$D$104,V74,$J$5:$J$104)</f>
+        <f t="shared" ref="X74:X77" si="15">SUMIF($D$5:$D$104,V74,$J$5:$J$104)</f>
         <v>0</v>
       </c>
       <c r="Y74" s="10">
-        <f t="shared" ref="Y68:Y77" si="16">SUMIF($D$5:$D$104,V74,$I$5:$I$104)</f>
+        <f t="shared" ref="Y74:Y77" si="16">SUMIF($D$5:$D$104,V74,$I$5:$I$104)</f>
         <v>0</v>
       </c>
       <c r="Z74" s="14">
-        <f t="shared" ref="Z68:Z77" si="17">COUNTA($K$2:$R$2)*6-COUNTA($K$4:$R$4)*6</f>
+        <f t="shared" ref="Z74:Z77" si="17">COUNTA($K$2:$R$2)*6-COUNTA($K$4:$R$4)*6</f>
         <v>0</v>
       </c>
       <c r="AA74" s="15">
@@ -33894,29 +33920,59 @@
         <v>97</v>
       </c>
       <c r="B101" s="16"/>
-      <c r="C101" s="85"/>
-      <c r="D101" s="18"/>
+      <c r="C101" s="85" t="s">
+        <v>471</v>
+      </c>
+      <c r="D101" s="18" t="s">
+        <v>472</v>
+      </c>
       <c r="E101" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="12" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>完了</v>
+      </c>
+      <c r="F101" s="4">
+        <v>43110</v>
+      </c>
+      <c r="G101" s="4">
+        <v>43110</v>
+      </c>
+      <c r="H101" s="19">
+        <v>1</v>
+      </c>
+      <c r="I101" s="19">
+        <v>1</v>
+      </c>
+      <c r="J101" s="12">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="K101" s="22"/>
-      <c r="L101" s="22"/>
-      <c r="M101" s="22"/>
-      <c r="N101" s="125"/>
-      <c r="O101" s="124"/>
-      <c r="P101" s="123"/>
-      <c r="Q101" s="123"/>
-      <c r="R101" s="22"/>
-      <c r="S101" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="K101" s="22">
+        <v>1</v>
+      </c>
+      <c r="L101" s="22">
+        <v>1</v>
+      </c>
+      <c r="M101" s="22">
+        <v>1</v>
+      </c>
+      <c r="N101" s="125">
+        <v>1</v>
+      </c>
+      <c r="O101" s="124">
+        <v>1</v>
+      </c>
+      <c r="P101" s="123">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="123">
+        <v>1</v>
+      </c>
+      <c r="R101" s="22">
+        <v>1</v>
+      </c>
+      <c r="S101" s="22">
+        <v>0</v>
+      </c>
       <c r="T101" s="22"/>
     </row>
     <row r="102" spans="1:21">
@@ -33932,7 +33988,7 @@
       </c>
       <c r="E102" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F102" s="4">
         <v>43109</v>
@@ -33943,10 +33999,12 @@
       <c r="H102" s="19">
         <v>3</v>
       </c>
-      <c r="I102" s="19"/>
+      <c r="I102" s="19">
+        <v>2</v>
+      </c>
       <c r="J102" s="12">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K102" s="22">
         <v>3</v>
@@ -33972,7 +34030,9 @@
       <c r="R102" s="22">
         <v>3</v>
       </c>
-      <c r="S102" s="22"/>
+      <c r="S102" s="22">
+        <v>0</v>
+      </c>
       <c r="T102" s="22"/>
     </row>
     <row r="103" spans="1:21">
@@ -34153,9 +34213,7 @@
       <c r="C106" s="85" t="s">
         <v>462</v>
       </c>
-      <c r="D106" s="18" t="s">
-        <v>463</v>
-      </c>
+      <c r="D106" s="18"/>
       <c r="E106" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
         <v>作業中</v>
@@ -34268,9 +34326,7 @@
       <c r="C108" s="85" t="s">
         <v>466</v>
       </c>
-      <c r="D108" s="18" t="s">
-        <v>463</v>
-      </c>
+      <c r="D108" s="18"/>
       <c r="E108" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
         <v>作業中</v>

--- a/バックログ/02班スプリントバックログ.xlsx
+++ b/バックログ/02班スプリントバックログ.xlsx
@@ -537,7 +537,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="477">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -3471,13 +3471,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ミニマップでの2D変更</t>
-    <rPh sb="9" eb="11">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ゲーム画面の糸ゲージとミニマップ表示</t>
   </si>
   <si>
@@ -4455,19 +4448,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>リザルト画面でいずれかのボタンを押すと演出スキップ</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>エンシュツ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>野澤</t>
     <rPh sb="0" eb="2">
       <t>ノザワ</t>
@@ -4498,19 +4478,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>いずれかのボタンを押してもスタンプの演出は残す</t>
-    <rPh sb="9" eb="10">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>エンシュツ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ノコ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>リザルト一番下にBackToTitleの文字を点滅して表示</t>
     <rPh sb="4" eb="6">
       <t>イチバン</t>
@@ -4573,6 +4540,82 @@
     <t>樋田</t>
     <rPh sb="0" eb="2">
       <t>ヒダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>セレクト画面で100mを押したらEASYのエネミーが出現</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>セレクト画面で50mを押したらNORMALのエネミーが出現</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>セレクト画面で25mを押したらHARDのエネミーを出現</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SE探し</t>
+    <rPh sb="2" eb="3">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>樋田</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ミニマップ制作</t>
+    <rPh sb="5" eb="7">
+      <t>セイサク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タイトル時の背景に置く専用ステージ</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センヨウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -9932,7 +9975,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -10054,7 +10097,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>36</c:v>
@@ -10069,7 +10112,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -10180,7 +10223,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -28391,9 +28434,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -28457,7 +28500,7 @@
       <c r="S1" s="142"/>
       <c r="T1" s="143"/>
       <c r="V1" s="126" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:22" s="8" customFormat="1">
@@ -28472,34 +28515,34 @@
       <c r="I2" s="149"/>
       <c r="J2" s="144"/>
       <c r="K2" s="23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L2" s="23" t="s">
         <v>65</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N2" s="122" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O2" s="122" t="s">
+        <v>393</v>
+      </c>
+      <c r="P2" s="130" t="s">
         <v>394</v>
       </c>
-      <c r="P2" s="130" t="s">
-        <v>395</v>
-      </c>
       <c r="Q2" s="23" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="R2" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="T2" s="121" t="s">
         <v>398</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>457</v>
-      </c>
-      <c r="T2" s="121" t="s">
-        <v>399</v>
       </c>
       <c r="V2" s="127">
         <v>42751</v>
@@ -28602,7 +28645,7 @@
       </c>
       <c r="S4" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="T4" s="21"/>
     </row>
@@ -28964,23 +29007,27 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="85" t="s">
-        <v>349</v>
+        <v>475</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>113</v>
       </c>
       <c r="E12" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>作業中</v>
       </c>
       <c r="F12" s="4">
         <v>43091</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4">
+        <v>43111</v>
+      </c>
       <c r="H12" s="19">
         <v>2</v>
       </c>
-      <c r="I12" s="19"/>
+      <c r="I12" s="19">
+        <v>3</v>
+      </c>
       <c r="J12" s="12">
         <f t="shared" ca="1" si="2"/>
         <v>2</v>
@@ -29009,7 +29056,9 @@
       <c r="R12" s="22">
         <v>2</v>
       </c>
-      <c r="S12" s="22"/>
+      <c r="S12" s="22">
+        <v>2</v>
+      </c>
       <c r="T12" s="22"/>
     </row>
     <row r="13" spans="1:22">
@@ -29018,7 +29067,7 @@
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="85" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>113</v>
@@ -29074,7 +29123,7 @@
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="85" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>113</v>
@@ -29130,7 +29179,7 @@
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="85" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>113</v>
@@ -29186,7 +29235,7 @@
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="85" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>113</v>
@@ -29230,7 +29279,7 @@
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>112</v>
@@ -29290,7 +29339,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>113</v>
@@ -29346,7 +29395,7 @@
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="85" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>113</v>
@@ -29402,7 +29451,7 @@
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>113</v>
@@ -29458,7 +29507,7 @@
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>113</v>
@@ -29503,13 +29552,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E22" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -29552,10 +29601,10 @@
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E23" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -29596,10 +29645,10 @@
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E24" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -29652,10 +29701,10 @@
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E25" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -29733,7 +29782,7 @@
         <v>71</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E27" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -29788,10 +29837,10 @@
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E28" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -29840,10 +29889,10 @@
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E29" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -29892,10 +29941,10 @@
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E30" s="12" t="str">
         <f t="shared" si="3"/>
@@ -29937,7 +29986,9 @@
       <c r="R30" s="22">
         <v>1</v>
       </c>
-      <c r="S30" s="22"/>
+      <c r="S30" s="22">
+        <v>1</v>
+      </c>
       <c r="T30" s="22"/>
     </row>
     <row r="31" spans="1:20">
@@ -29946,10 +29997,10 @@
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="17" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E31" s="12" t="str">
         <f t="shared" si="3"/>
@@ -29991,7 +30042,9 @@
       <c r="R31" s="22">
         <v>1</v>
       </c>
-      <c r="S31" s="22"/>
+      <c r="S31" s="22">
+        <v>1</v>
+      </c>
       <c r="T31" s="22"/>
     </row>
     <row r="32" spans="1:20">
@@ -30000,10 +30053,10 @@
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E32" s="12" t="str">
         <f t="shared" si="3"/>
@@ -30045,7 +30098,9 @@
       <c r="R32" s="22">
         <v>1</v>
       </c>
-      <c r="S32" s="22"/>
+      <c r="S32" s="22">
+        <v>1</v>
+      </c>
       <c r="T32" s="22"/>
     </row>
     <row r="33" spans="1:28">
@@ -30054,10 +30109,10 @@
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E33" s="12" t="str">
         <f t="shared" si="3"/>
@@ -30099,7 +30154,9 @@
       <c r="R33" s="22">
         <v>1</v>
       </c>
-      <c r="S33" s="22"/>
+      <c r="S33" s="22">
+        <v>1</v>
+      </c>
       <c r="T33" s="22"/>
     </row>
     <row r="34" spans="1:28">
@@ -30108,10 +30165,10 @@
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E34" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -30156,7 +30213,7 @@
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>112</v>
@@ -30202,7 +30259,7 @@
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>112</v>
@@ -30259,13 +30316,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E37" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -30307,13 +30364,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E38" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -30360,13 +30417,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E39" s="12" t="str">
         <f ca="1">IF(ISBLANK($C39),"",IF(ISBLANK($G39),"未着手",IF($J39=0,"完了","作業中")))</f>
@@ -30417,13 +30474,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E40" s="12" t="str">
         <f t="shared" ref="E40:E50" ca="1" si="5">IF(ISBLANK($C40),"",IF(ISBLANK($G40),"未着手",IF($J40=0,"完了","作業中")))</f>
@@ -30473,7 +30530,7 @@
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>113</v>
@@ -30536,7 +30593,7 @@
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>113</v>
@@ -30599,10 +30656,10 @@
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E43" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -30664,19 +30721,21 @@
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E44" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>作業中</v>
       </c>
       <c r="F44" s="4">
         <v>43087</v>
       </c>
-      <c r="G44" s="4"/>
+      <c r="G44" s="4">
+        <v>43110</v>
+      </c>
       <c r="H44" s="19">
         <v>1</v>
       </c>
@@ -30709,7 +30768,9 @@
       <c r="R44" s="22">
         <v>1</v>
       </c>
-      <c r="S44" s="22"/>
+      <c r="S44" s="22">
+        <v>1</v>
+      </c>
       <c r="T44" s="22"/>
       <c r="V44" s="117"/>
       <c r="W44" s="117"/>
@@ -30724,10 +30785,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>113</v>
@@ -30772,7 +30833,9 @@
       <c r="R45" s="22">
         <v>1</v>
       </c>
-      <c r="S45" s="22"/>
+      <c r="S45" s="22">
+        <v>1</v>
+      </c>
       <c r="T45" s="22"/>
       <c r="V45" s="117"/>
       <c r="W45" s="117"/>
@@ -30787,7 +30850,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="18"/>
@@ -30826,13 +30889,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E47" s="12" t="str">
         <f t="shared" si="5"/>
@@ -30874,7 +30937,9 @@
       <c r="R47" s="22">
         <v>1</v>
       </c>
-      <c r="S47" s="22"/>
+      <c r="S47" s="22">
+        <v>1</v>
+      </c>
       <c r="T47" s="22"/>
       <c r="V47" s="117"/>
       <c r="W47" s="117"/>
@@ -30889,13 +30954,13 @@
         <v>44</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E48" s="12" t="str">
         <f t="shared" si="5"/>
@@ -30937,7 +31002,9 @@
       <c r="R48" s="22">
         <v>1</v>
       </c>
-      <c r="S48" s="22"/>
+      <c r="S48" s="22">
+        <v>1</v>
+      </c>
       <c r="T48" s="22"/>
       <c r="V48" s="117"/>
       <c r="W48" s="117"/>
@@ -30952,13 +31019,13 @@
         <v>45</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E49" s="12" t="str">
         <f t="shared" si="5"/>
@@ -31000,7 +31067,9 @@
       <c r="R49" s="22">
         <v>1</v>
       </c>
-      <c r="S49" s="22"/>
+      <c r="S49" s="22">
+        <v>1</v>
+      </c>
       <c r="T49" s="22"/>
       <c r="V49" s="117"/>
       <c r="W49" s="117"/>
@@ -31015,13 +31084,13 @@
         <v>46</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E50" s="12" t="str">
         <f t="shared" si="5"/>
@@ -31063,7 +31132,9 @@
       <c r="R50" s="22">
         <v>1</v>
       </c>
-      <c r="S50" s="22"/>
+      <c r="S50" s="22">
+        <v>1</v>
+      </c>
       <c r="T50" s="22"/>
       <c r="V50" s="117"/>
       <c r="W50" s="117"/>
@@ -31078,13 +31149,13 @@
         <v>47</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C51" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="D51" s="18" t="s">
         <v>372</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>373</v>
       </c>
       <c r="E51" s="12" t="str">
         <f t="shared" si="3"/>
@@ -31126,7 +31197,9 @@
       <c r="R51" s="22">
         <v>1</v>
       </c>
-      <c r="S51" s="22"/>
+      <c r="S51" s="22">
+        <v>1</v>
+      </c>
       <c r="T51" s="22"/>
       <c r="V51" s="106"/>
       <c r="W51" s="106"/>
@@ -31141,10 +31214,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>124</v>
@@ -31198,13 +31271,13 @@
         <v>49</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C53" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="D53" s="18" t="s">
         <v>416</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>417</v>
       </c>
       <c r="E53" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -31256,7 +31329,7 @@
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>124</v>
@@ -31371,10 +31444,10 @@
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E57" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -31417,10 +31490,10 @@
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E58" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -31473,10 +31546,10 @@
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E59" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -31529,10 +31602,10 @@
       </c>
       <c r="B60" s="16"/>
       <c r="C60" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E60" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -31583,10 +31656,10 @@
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="D61" s="18" t="s">
         <v>441</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>442</v>
       </c>
       <c r="E61" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -31641,10 +31714,10 @@
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="17" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E62" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -31699,10 +31772,10 @@
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="17" t="s">
+        <v>435</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>436</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>437</v>
       </c>
       <c r="E63" s="12" t="str">
         <f t="shared" si="3"/>
@@ -31750,10 +31823,10 @@
       </c>
       <c r="B64" s="16"/>
       <c r="C64" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E64" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -31797,7 +31870,9 @@
       <c r="R64" s="22">
         <v>2</v>
       </c>
-      <c r="S64" s="22"/>
+      <c r="S64" s="22">
+        <v>2</v>
+      </c>
       <c r="T64" s="22"/>
     </row>
     <row r="65" spans="1:27">
@@ -31806,10 +31881,10 @@
       </c>
       <c r="B65" s="16"/>
       <c r="C65" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E65" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -31850,10 +31925,10 @@
       </c>
       <c r="B66" s="16"/>
       <c r="C66" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E66" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -31906,10 +31981,10 @@
       </c>
       <c r="B67" s="16"/>
       <c r="C67" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="D67" s="18" t="s">
         <v>379</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>380</v>
       </c>
       <c r="E67" s="12" t="str">
         <f t="shared" si="3"/>
@@ -31951,7 +32026,9 @@
       <c r="R67" s="22">
         <v>3</v>
       </c>
-      <c r="S67" s="22"/>
+      <c r="S67" s="22">
+        <v>3</v>
+      </c>
       <c r="T67" s="22"/>
       <c r="V67" s="13" t="s">
         <v>11</v>
@@ -31978,10 +32055,10 @@
       </c>
       <c r="B68" s="16"/>
       <c r="C68" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E68" s="12" t="str">
         <f t="shared" si="3"/>
@@ -32023,10 +32100,12 @@
       <c r="R68" s="22">
         <v>3</v>
       </c>
-      <c r="S68" s="22"/>
+      <c r="S68" s="22">
+        <v>3</v>
+      </c>
       <c r="T68" s="22"/>
       <c r="V68" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="W68" s="10">
         <f>SUMIF($D$5:$D$175,V68,$H$5:$H$175)</f>
@@ -32038,7 +32117,7 @@
       </c>
       <c r="Y68" s="10">
         <f>SUMIF($D$5:$D$174,V68,$I$5:$I$175)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z68" s="14">
         <f>COUNTA($K$2:$T$2)*6-COUNTA($K$4:$T$4)*6</f>
@@ -32055,10 +32134,10 @@
       </c>
       <c r="B69" s="16"/>
       <c r="C69" s="17" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E69" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -32109,7 +32188,7 @@
       </c>
       <c r="T69" s="22"/>
       <c r="V69" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="W69" s="10">
         <f t="shared" ref="W69:W73" si="8">SUMIF($D$5:$D$175,V69,$H$5:$H$175)</f>
@@ -32138,10 +32217,10 @@
       </c>
       <c r="B70" s="16"/>
       <c r="C70" s="17" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E70" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -32192,7 +32271,7 @@
       </c>
       <c r="T70" s="22"/>
       <c r="V70" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="W70" s="10">
         <f t="shared" si="8"/>
@@ -32221,10 +32300,10 @@
       </c>
       <c r="B71" s="16"/>
       <c r="C71" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E71" s="12" t="str">
         <f t="shared" ref="E71:E76" ca="1" si="13">IF(ISBLANK($C71),"",IF(ISBLANK($G71),"未着手",IF($J71=0,"完了","作業中")))</f>
@@ -32261,7 +32340,7 @@
       <c r="S71" s="22"/>
       <c r="T71" s="22"/>
       <c r="V71" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="W71" s="10">
         <f t="shared" si="8"/>
@@ -32290,10 +32369,10 @@
       </c>
       <c r="B72" s="16"/>
       <c r="C72" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E72" s="12" t="str">
         <f t="shared" si="13"/>
@@ -32335,10 +32414,12 @@
       <c r="R72" s="22">
         <v>3</v>
       </c>
-      <c r="S72" s="22"/>
+      <c r="S72" s="22">
+        <v>3</v>
+      </c>
       <c r="T72" s="22"/>
       <c r="V72" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W72" s="10">
         <f t="shared" si="8"/>
@@ -32367,10 +32448,10 @@
       </c>
       <c r="B73" s="16"/>
       <c r="C73" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E73" s="12" t="str">
         <f t="shared" si="13"/>
@@ -32412,22 +32493,24 @@
       <c r="R73" s="22">
         <v>4</v>
       </c>
-      <c r="S73" s="22"/>
+      <c r="S73" s="22">
+        <v>4</v>
+      </c>
       <c r="T73" s="22"/>
       <c r="V73" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="W73" s="10">
         <f t="shared" si="8"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="X73" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y73" s="10">
         <f t="shared" si="10"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Z73" s="14">
         <f t="shared" si="11"/>
@@ -32444,10 +32527,10 @@
       </c>
       <c r="B74" s="16"/>
       <c r="C74" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E74" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -32511,10 +32594,10 @@
       </c>
       <c r="B75" s="16"/>
       <c r="C75" s="17" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E75" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -32578,10 +32661,10 @@
       </c>
       <c r="B76" s="16"/>
       <c r="C76" s="17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E76" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -32657,10 +32740,10 @@
       </c>
       <c r="B77" s="16"/>
       <c r="C77" s="85" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E77" s="12" t="str">
         <f t="shared" ref="E77:E140" ca="1" si="18">IF(ISBLANK($C77),"",IF(ISBLANK($G77),"未着手",IF($J77=0,"完了","作業中")))</f>
@@ -32706,7 +32789,9 @@
       <c r="R77" s="22">
         <v>5</v>
       </c>
-      <c r="S77" s="22"/>
+      <c r="S77" s="22">
+        <v>5</v>
+      </c>
       <c r="T77" s="22"/>
       <c r="V77" s="11"/>
       <c r="W77" s="10">
@@ -32735,10 +32820,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C78" s="85" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>135</v>
@@ -32787,10 +32872,10 @@
       </c>
       <c r="B79" s="16"/>
       <c r="C79" s="85" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E79" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -32844,13 +32929,13 @@
         <v>76</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C80" s="85" t="s">
+        <v>410</v>
+      </c>
+      <c r="D80" s="18" t="s">
         <v>411</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>412</v>
       </c>
       <c r="E80" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -32894,10 +32979,10 @@
       </c>
       <c r="B81" s="16"/>
       <c r="C81" s="85" t="s">
+        <v>418</v>
+      </c>
+      <c r="D81" s="18" t="s">
         <v>419</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>420</v>
       </c>
       <c r="E81" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -32943,7 +33028,9 @@
       <c r="R81" s="22">
         <v>2</v>
       </c>
-      <c r="S81" s="22"/>
+      <c r="S81" s="22">
+        <v>2</v>
+      </c>
       <c r="T81" s="22"/>
       <c r="W81" s="106"/>
     </row>
@@ -32953,10 +33040,10 @@
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="85" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E82" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33001,10 +33088,10 @@
       </c>
       <c r="B83" s="16"/>
       <c r="C83" s="85" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E83" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33049,10 +33136,10 @@
       </c>
       <c r="B84" s="16"/>
       <c r="C84" s="85" t="s">
+        <v>423</v>
+      </c>
+      <c r="D84" s="18" t="s">
         <v>424</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>425</v>
       </c>
       <c r="E84" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33096,29 +33183,59 @@
         <v>81</v>
       </c>
       <c r="B85" s="16"/>
-      <c r="C85" s="85"/>
-      <c r="D85" s="18"/>
+      <c r="C85" s="85" t="s">
+        <v>473</v>
+      </c>
+      <c r="D85" s="18" t="s">
+        <v>474</v>
+      </c>
       <c r="E85" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="12" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>作業中</v>
+      </c>
+      <c r="F85" s="4">
+        <v>43111</v>
+      </c>
+      <c r="G85" s="4">
+        <v>43111</v>
+      </c>
+      <c r="H85" s="19">
+        <v>2</v>
+      </c>
+      <c r="I85" s="19">
+        <v>1</v>
+      </c>
+      <c r="J85" s="12">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="K85" s="22"/>
-      <c r="L85" s="22"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="125"/>
-      <c r="O85" s="124"/>
-      <c r="P85" s="123"/>
-      <c r="Q85" s="123"/>
-      <c r="R85" s="22"/>
-      <c r="S85" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K85" s="22">
+        <v>2</v>
+      </c>
+      <c r="L85" s="22">
+        <v>2</v>
+      </c>
+      <c r="M85" s="22">
+        <v>2</v>
+      </c>
+      <c r="N85" s="125">
+        <v>2</v>
+      </c>
+      <c r="O85" s="124">
+        <v>2</v>
+      </c>
+      <c r="P85" s="123">
+        <v>2</v>
+      </c>
+      <c r="Q85" s="123">
+        <v>2</v>
+      </c>
+      <c r="R85" s="22">
+        <v>2</v>
+      </c>
+      <c r="S85" s="22">
+        <v>1</v>
+      </c>
       <c r="T85" s="22"/>
     </row>
     <row r="86" spans="1:23">
@@ -33127,10 +33244,10 @@
       </c>
       <c r="B86" s="16"/>
       <c r="C86" s="85" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E86" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33179,7 +33296,7 @@
       </c>
       <c r="B87" s="16"/>
       <c r="C87" s="85" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D87" s="18" t="s">
         <v>124</v>
@@ -33231,7 +33348,7 @@
       </c>
       <c r="B88" s="16"/>
       <c r="C88" s="85" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>124</v>
@@ -33285,7 +33402,7 @@
       </c>
       <c r="B89" s="16"/>
       <c r="C89" s="85" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>124</v>
@@ -33330,7 +33447,9 @@
       <c r="R89" s="22">
         <v>2</v>
       </c>
-      <c r="S89" s="22"/>
+      <c r="S89" s="22">
+        <v>2</v>
+      </c>
       <c r="T89" s="22"/>
     </row>
     <row r="90" spans="1:23">
@@ -33339,7 +33458,7 @@
       </c>
       <c r="B90" s="16"/>
       <c r="C90" s="85" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>124</v>
@@ -33423,10 +33542,10 @@
       </c>
       <c r="B92" s="16"/>
       <c r="C92" s="85" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E92" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33477,10 +33596,10 @@
       </c>
       <c r="B93" s="16"/>
       <c r="C93" s="85" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E93" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33531,10 +33650,10 @@
       </c>
       <c r="B94" s="16"/>
       <c r="C94" s="85" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E94" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33589,10 +33708,10 @@
       </c>
       <c r="B95" s="16"/>
       <c r="C95" s="85" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E95" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33647,10 +33766,10 @@
       </c>
       <c r="B96" s="16"/>
       <c r="C96" s="85" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E96" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33705,10 +33824,10 @@
       </c>
       <c r="B97" s="16"/>
       <c r="C97" s="85" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E97" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33759,10 +33878,10 @@
       </c>
       <c r="B98" s="16"/>
       <c r="C98" s="85" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E98" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33813,10 +33932,10 @@
       </c>
       <c r="B99" s="16"/>
       <c r="C99" s="85" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E99" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33867,10 +33986,10 @@
       </c>
       <c r="B100" s="16"/>
       <c r="C100" s="85" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E100" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33921,10 +34040,10 @@
       </c>
       <c r="B101" s="16"/>
       <c r="C101" s="85" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E101" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33981,10 +34100,10 @@
       </c>
       <c r="B102" s="16"/>
       <c r="C102" s="85" t="s">
+        <v>454</v>
+      </c>
+      <c r="D102" s="18" t="s">
         <v>455</v>
-      </c>
-      <c r="D102" s="18" t="s">
-        <v>456</v>
       </c>
       <c r="E102" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34041,19 +34160,21 @@
       </c>
       <c r="B103" s="16"/>
       <c r="C103" s="85" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E103" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>作業中</v>
       </c>
       <c r="F103" s="4">
         <v>43110</v>
       </c>
-      <c r="G103" s="4"/>
+      <c r="G103" s="4">
+        <v>43110</v>
+      </c>
       <c r="H103" s="19">
         <v>3</v>
       </c>
@@ -34086,7 +34207,9 @@
       <c r="R103" s="22">
         <v>3</v>
       </c>
-      <c r="S103" s="22"/>
+      <c r="S103" s="22">
+        <v>3</v>
+      </c>
       <c r="T103" s="22"/>
     </row>
     <row r="104" spans="1:21">
@@ -34095,10 +34218,10 @@
       </c>
       <c r="B104" s="16"/>
       <c r="C104" s="85" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E104" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34153,10 +34276,10 @@
       </c>
       <c r="B105" s="16"/>
       <c r="C105" s="85" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E105" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34202,7 +34325,9 @@
       <c r="R105" s="22">
         <v>3</v>
       </c>
-      <c r="S105" s="22"/>
+      <c r="S105" s="22">
+        <v>3</v>
+      </c>
       <c r="T105" s="22"/>
     </row>
     <row r="106" spans="1:21">
@@ -34210,52 +34335,28 @@
         <v>102</v>
       </c>
       <c r="B106" s="16"/>
-      <c r="C106" s="85" t="s">
-        <v>462</v>
-      </c>
+      <c r="C106" s="85"/>
       <c r="D106" s="18"/>
       <c r="E106" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>作業中</v>
-      </c>
-      <c r="F106" s="4">
-        <v>43109</v>
-      </c>
-      <c r="G106" s="4">
-        <v>43109</v>
-      </c>
-      <c r="H106" s="19">
-        <v>1</v>
-      </c>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="19"/>
       <c r="I106" s="19"/>
-      <c r="J106" s="12">
+      <c r="J106" s="12" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="K106" s="22">
-        <v>1</v>
-      </c>
-      <c r="L106" s="22">
-        <v>1</v>
-      </c>
-      <c r="M106" s="22">
-        <v>1</v>
-      </c>
-      <c r="N106" s="125">
-        <v>1</v>
-      </c>
-      <c r="O106" s="124">
-        <v>1</v>
-      </c>
-      <c r="P106" s="123">
-        <v>1</v>
-      </c>
-      <c r="Q106" s="123">
-        <v>1</v>
-      </c>
-      <c r="R106" s="22">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K106" s="22"/>
+      <c r="L106" s="22"/>
+      <c r="M106" s="22"/>
+      <c r="N106" s="125"/>
+      <c r="O106" s="124"/>
+      <c r="P106" s="123"/>
+      <c r="Q106" s="123"/>
+      <c r="R106" s="22"/>
       <c r="S106" s="22"/>
       <c r="T106" s="22"/>
     </row>
@@ -34265,10 +34366,10 @@
       </c>
       <c r="B107" s="16"/>
       <c r="C107" s="85" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E107" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34323,52 +34424,28 @@
         <v>104</v>
       </c>
       <c r="B108" s="16"/>
-      <c r="C108" s="85" t="s">
-        <v>466</v>
-      </c>
+      <c r="C108" s="85"/>
       <c r="D108" s="18"/>
       <c r="E108" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>作業中</v>
-      </c>
-      <c r="F108" s="4">
-        <v>43109</v>
-      </c>
-      <c r="G108" s="4">
-        <v>43109</v>
-      </c>
-      <c r="H108" s="19">
-        <v>1</v>
-      </c>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="19"/>
       <c r="I108" s="19"/>
-      <c r="J108" s="12">
+      <c r="J108" s="12" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="K108" s="22">
-        <v>1</v>
-      </c>
-      <c r="L108" s="22">
-        <v>1</v>
-      </c>
-      <c r="M108" s="22">
-        <v>1</v>
-      </c>
-      <c r="N108" s="125">
-        <v>1</v>
-      </c>
-      <c r="O108" s="124">
-        <v>1</v>
-      </c>
-      <c r="P108" s="123">
-        <v>1</v>
-      </c>
-      <c r="Q108" s="123">
-        <v>1</v>
-      </c>
-      <c r="R108" s="22">
-        <v>1</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K108" s="22"/>
+      <c r="L108" s="22"/>
+      <c r="M108" s="22"/>
+      <c r="N108" s="125"/>
+      <c r="O108" s="124"/>
+      <c r="P108" s="123"/>
+      <c r="Q108" s="123"/>
+      <c r="R108" s="22"/>
       <c r="S108" s="22"/>
       <c r="T108" s="22"/>
       <c r="U108" s="6"/>
@@ -34379,10 +34456,10 @@
       </c>
       <c r="B109" s="16"/>
       <c r="C109" s="85" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E109" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34468,13 +34545,19 @@
         <v>107</v>
       </c>
       <c r="B111" s="16"/>
-      <c r="C111" s="85"/>
-      <c r="D111" s="18"/>
+      <c r="C111" s="85" t="s">
+        <v>470</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>115</v>
+      </c>
       <c r="E111" s="12" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F111" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F111" s="4">
+        <v>43112</v>
+      </c>
       <c r="G111" s="4"/>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -34499,13 +34582,19 @@
         <v>108</v>
       </c>
       <c r="B112" s="16"/>
-      <c r="C112" s="85"/>
-      <c r="D112" s="18"/>
+      <c r="C112" s="85" t="s">
+        <v>471</v>
+      </c>
+      <c r="D112" s="18" t="s">
+        <v>115</v>
+      </c>
       <c r="E112" s="12" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F112" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F112" s="4">
+        <v>43112</v>
+      </c>
       <c r="G112" s="4"/>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -34530,13 +34619,19 @@
         <v>109</v>
       </c>
       <c r="B113" s="16"/>
-      <c r="C113" s="85"/>
-      <c r="D113" s="18"/>
+      <c r="C113" s="85" t="s">
+        <v>472</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>115</v>
+      </c>
       <c r="E113" s="12" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F113" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F113" s="4">
+        <v>43112</v>
+      </c>
       <c r="G113" s="4"/>
       <c r="H113" s="19"/>
       <c r="I113" s="19"/>
@@ -34592,11 +34687,13 @@
         <v>111</v>
       </c>
       <c r="B115" s="16"/>
-      <c r="C115" s="85"/>
+      <c r="C115" s="85" t="s">
+        <v>476</v>
+      </c>
       <c r="D115" s="18"/>
       <c r="E115" s="12" t="str">
         <f t="shared" si="18"/>
-        <v/>
+        <v>未着手</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>

--- a/バックログ/02班スプリントバックログ.xlsx
+++ b/バックログ/02班スプリントバックログ.xlsx
@@ -537,7 +537,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="480">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -4616,6 +4616,30 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>センヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ミニマップにポロノイ図を付ける</t>
+    <rPh sb="10" eb="11">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>野澤</t>
+    <rPh sb="0" eb="2">
+      <t>ノザワ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>中山</t>
+    <rPh sb="0" eb="2">
+      <t>ナカヤマ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -9960,7 +9984,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7</c:v>
@@ -10097,7 +10121,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>36</c:v>
@@ -28434,9 +28458,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -28707,7 +28731,9 @@
       <c r="S5" s="22">
         <v>0</v>
       </c>
-      <c r="T5" s="22"/>
+      <c r="T5" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="16">
@@ -29014,7 +29040,7 @@
       </c>
       <c r="E12" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F12" s="4">
         <v>43091</v>
@@ -29026,11 +29052,11 @@
         <v>2</v>
       </c>
       <c r="I12" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <f ca="1">IF(ISBLANK(K12)=FALSE,OFFSET(J12,0,COUNTA(K12:T12)),"")</f>
+        <v>0</v>
       </c>
       <c r="K12" s="22">
         <v>2</v>
@@ -29059,7 +29085,9 @@
       <c r="S12" s="22">
         <v>2</v>
       </c>
-      <c r="T12" s="22"/>
+      <c r="T12" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="16">
@@ -30794,17 +30822,21 @@
         <v>113</v>
       </c>
       <c r="E45" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>作業中</v>
       </c>
       <c r="F45" s="4">
         <v>43091</v>
       </c>
-      <c r="G45" s="4"/>
+      <c r="G45" s="4">
+        <v>43112</v>
+      </c>
       <c r="H45" s="19">
         <v>1</v>
       </c>
-      <c r="I45" s="19"/>
+      <c r="I45" s="19">
+        <v>1</v>
+      </c>
       <c r="J45" s="12">
         <f t="shared" ca="1" si="4"/>
         <v>1</v>
@@ -32113,11 +32145,11 @@
       </c>
       <c r="X68" s="10">
         <f ca="1">SUMIF($D$5:$D$175,V68,$J$5:$J$175)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y68" s="10">
         <f>SUMIF($D$5:$D$174,V68,$I$5:$I$175)</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Z68" s="14">
         <f>COUNTA($K$2:$T$2)*6-COUNTA($K$4:$T$4)*6</f>
@@ -34690,12 +34722,16 @@
       <c r="C115" s="85" t="s">
         <v>476</v>
       </c>
-      <c r="D115" s="18"/>
+      <c r="D115" s="18" t="s">
+        <v>479</v>
+      </c>
       <c r="E115" s="12" t="str">
         <f t="shared" si="18"/>
         <v>未着手</v>
       </c>
-      <c r="F115" s="4"/>
+      <c r="F115" s="4">
+        <v>43112</v>
+      </c>
       <c r="G115" s="4"/>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -34751,14 +34787,22 @@
         <v>113</v>
       </c>
       <c r="B117" s="16"/>
-      <c r="C117" s="85"/>
-      <c r="D117" s="18"/>
+      <c r="C117" s="85" t="s">
+        <v>477</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>478</v>
+      </c>
       <c r="E117" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
+        <f t="shared" ca="1" si="18"/>
+        <v>作業中</v>
+      </c>
+      <c r="F117" s="4">
+        <v>43112</v>
+      </c>
+      <c r="G117" s="4">
+        <v>43112</v>
+      </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
       <c r="J117" s="12" t="str">
@@ -36782,7 +36826,7 @@
       <formula>OR(E176="終了",E176="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X39:XFD50 B16:C16 B15 A6:B6 B12:C14 AB67:XFD77 D6:I6 F7:I38 A5:S5 V78:XFD104 V51:XFD66 V5:XFD38 B7:B11 J6:S38 B17:B90 D7:E76 A91:B175 A7:A175 F39:S175">
+  <conditionalFormatting sqref="X39:XFD50 B16:C16 B15 A6:B6 B12:C14 AB67:XFD77 D6:I6 F7:I38 A5:S5 V78:XFD104 V51:XFD66 V5:XFD38 B7:B11 J6:S38 B17:B90 D7:E76 A91:B175 A7:A175 F39:S175 T5:T175">
     <cfRule type="expression" dxfId="44" priority="67" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
@@ -36914,17 +36958,6 @@
       <formula>OR($E77="終了",$E77="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T5:T175">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
-      <formula>$D5="未着手"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
-      <formula>$D5="作業中"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
-      <formula>OR($D5="終了",$D5="完了")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U107:U65536">
     <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>$D107="未着手"</formula>

--- a/バックログ/02班スプリントバックログ.xlsx
+++ b/バックログ/02班スプリントバックログ.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'スプリントバックログ(第２）'!$A$1:$T$271</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'スプリントバックログ(第３）'!$A$1:$T$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'スプリントバックログ(第３）'!$A$1:$W$175</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">デバッグシート!$B$1:$K$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">スケジュール!$A$1:$E$209</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">スケジュール!$1:$4</definedName>
@@ -501,7 +501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="1" shapeId="0">
+    <comment ref="W2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -537,7 +537,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="496">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -3755,10 +3755,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>1/12</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>チェック日</t>
     <rPh sb="4" eb="5">
       <t>ビ</t>
@@ -4640,6 +4636,148 @@
     <t>中山</t>
     <rPh sb="0" eb="2">
       <t>ナカヤマ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ゲーム画面にログを表示させる</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タイマーの大きさを4分の１に変更</t>
+    <rPh sb="5" eb="6">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>セレクト画面に長さでの説明を入れる</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1/12</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1/13</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1/14</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1/15</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PV用にカメラを自由に動かす</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タイトルとセレクトでボタンを押したら1秒間点滅</t>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ビョウカン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>テンメツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>長さのボタン押すと一瞬だけタイトル文字が出てしまうのを直す</t>
+  </si>
+  <si>
+    <t>PV作成(土曜日)</t>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ドヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PV作成(月曜日)</t>
+    <rPh sb="5" eb="6">
+      <t>ツキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PV作成(日曜日)</t>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>樋田</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PV作成(準備)</t>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タイトルで一定時間たったらステージの糸を消す</t>
+    <rPh sb="5" eb="7">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>糸が消えるタイミングでフェードインとアウト</t>
+    <rPh sb="0" eb="1">
+      <t>イト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -9346,9 +9484,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第３）'!$K$2:$T$2</c:f>
+              <c:f>'スプリントバックログ(第３）'!$K$2:$W$2</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>12/15</c:v>
                 </c:pt>
@@ -9378,6 +9516,15 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1/12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1/13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1/14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1/15</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9453,9 +9600,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第３）'!$K$2:$T$2</c:f>
+              <c:f>'スプリントバックログ(第３）'!$K$2:$W$2</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>12/15</c:v>
                 </c:pt>
@@ -9486,43 +9633,61 @@
                 <c:pt idx="9">
                   <c:v>1/12</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>1/13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1/14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1/15</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$K$3:$T$3</c:f>
+              <c:f>'スプリントバックログ(第３）'!$K$3:$W$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>152</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>131</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>109</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>87</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>43</c:v>
+                <c:pt idx="9">
+                  <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>21</c:v>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9953,7 +10118,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第３）'!$V$68:$V$77</c:f>
+              <c:f>'スプリントバックログ(第３）'!$Y$68:$Y$77</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -9979,21 +10144,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$X$68:$X$77</c:f>
+              <c:f>'スプリントバックログ(第３）'!$AA$68:$AA$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>17</c:v>
@@ -10090,7 +10255,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第３）'!$V$68:$V$77</c:f>
+              <c:f>'スプリントバックログ(第３）'!$Y$68:$Y$77</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -10116,21 +10281,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$Y$68:$Y$77</c:f>
+              <c:f>'スプリントバックログ(第３）'!$AB$68:$AB$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>46</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.5</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>28</c:v>
@@ -10227,21 +10392,21 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$W$68:$W$77</c:f>
+              <c:f>'スプリントバックログ(第３）'!$Z$68:$Z$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>39</c:v>
@@ -10275,7 +10440,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'スプリントバックログ(第３）'!$AA$67</c:f>
+              <c:f>'スプリントバックログ(第３）'!$AD$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10340,7 +10505,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$AA$68:$AA$77</c:f>
+              <c:f>'スプリントバックログ(第３）'!$AD$68:$AD$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -10348,16 +10513,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -10726,13 +10891,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -10758,13 +10923,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>662103</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -28456,11 +28621,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB188"/>
+  <dimension ref="A1:AE188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -28473,14 +28638,14 @@
     <col min="6" max="7" width="6.875" style="5" customWidth="1"/>
     <col min="8" max="9" width="6.875" style="9" customWidth="1"/>
     <col min="10" max="10" width="6.75" style="2" customWidth="1"/>
-    <col min="11" max="19" width="4.75" style="7" customWidth="1"/>
-    <col min="20" max="21" width="4.625" style="7" customWidth="1"/>
-    <col min="32" max="32" width="14.25" customWidth="1"/>
-    <col min="33" max="33" width="4.75" customWidth="1"/>
-    <col min="34" max="34" width="3.75" customWidth="1"/>
+    <col min="11" max="22" width="4.75" style="7" customWidth="1"/>
+    <col min="23" max="24" width="4.625" style="7" customWidth="1"/>
+    <col min="35" max="35" width="14.25" customWidth="1"/>
+    <col min="36" max="36" width="4.75" customWidth="1"/>
+    <col min="37" max="37" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="8" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="144" t="s">
         <v>10</v>
       </c>
@@ -28522,12 +28687,15 @@
       <c r="Q1" s="142"/>
       <c r="R1" s="142"/>
       <c r="S1" s="142"/>
-      <c r="T1" s="143"/>
-      <c r="V1" s="126" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="8" customFormat="1">
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="143"/>
+      <c r="Y1" s="126" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="8" customFormat="1">
       <c r="A2" s="144"/>
       <c r="B2" s="151"/>
       <c r="C2" s="145"/>
@@ -28548,7 +28716,7 @@
         <v>376</v>
       </c>
       <c r="N2" s="122" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O2" s="122" t="s">
         <v>393</v>
@@ -28557,22 +28725,31 @@
         <v>394</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="R2" s="23" t="s">
         <v>397</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>456</v>
-      </c>
-      <c r="T2" s="121" t="s">
-        <v>398</v>
-      </c>
-      <c r="V2" s="127">
+        <v>455</v>
+      </c>
+      <c r="T2" s="23" t="s">
+        <v>482</v>
+      </c>
+      <c r="U2" s="23" t="s">
+        <v>483</v>
+      </c>
+      <c r="V2" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="W2" s="121" t="s">
+        <v>485</v>
+      </c>
+      <c r="Y2" s="127">
         <v>42751</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="8" customFormat="1">
+    <row r="3" spans="1:25" s="8" customFormat="1">
       <c r="A3" s="144"/>
       <c r="B3" s="151"/>
       <c r="C3" s="145"/>
@@ -28584,47 +28761,59 @@
       <c r="I3" s="149"/>
       <c r="J3" s="144"/>
       <c r="K3" s="20">
-        <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$S$2))))</f>
+        <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$V$2))))</f>
         <v>196</v>
       </c>
       <c r="L3" s="20">
-        <f t="shared" ref="L3:T3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$S$2))))</f>
-        <v>174</v>
+        <f t="shared" ref="L3:W3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$V$2))))</f>
+        <v>180</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="N3" s="20">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="O3" s="20">
         <f t="shared" si="0"/>
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="P3" s="20">
         <f t="shared" si="0"/>
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="Q3" s="20">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="R3" s="20">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="S3" s="20">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="T3" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="8" customFormat="1">
+        <v>49</v>
+      </c>
+      <c r="U3" s="20">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="V3" s="20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="W3" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="8" customFormat="1">
       <c r="A4" s="144"/>
       <c r="B4" s="152"/>
       <c r="C4" s="145"/>
@@ -28640,7 +28829,7 @@
         <v>196.5</v>
       </c>
       <c r="L4" s="21">
-        <f t="shared" ref="L4:S4" si="1">SUM(L5:L109)</f>
+        <f t="shared" ref="L4:T4" si="1">SUM(L5:L109)</f>
         <v>171.5</v>
       </c>
       <c r="M4" s="21">
@@ -28671,9 +28860,15 @@
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="T4" s="21"/>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="T4" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -28701,7 +28896,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="12">
-        <f t="shared" ref="J5:J36" ca="1" si="2">IF(ISBLANK(K5)=FALSE,OFFSET(J5,0,COUNTA(K5:T5)),"")</f>
+        <f t="shared" ref="J5:J36" ca="1" si="2">IF(ISBLANK(K5)=FALSE,OFFSET(J5,0,COUNTA(K5:W5)),"")</f>
         <v>0</v>
       </c>
       <c r="K5" s="22">
@@ -28734,8 +28929,11 @@
       <c r="T5" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -28792,8 +28990,11 @@
       </c>
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="16">
         <v>3</v>
       </c>
@@ -28850,8 +29051,11 @@
       </c>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="16">
         <v>4</v>
       </c>
@@ -28880,8 +29084,11 @@
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="16">
         <v>5</v>
       </c>
@@ -28910,8 +29117,11 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="16">
         <v>6</v>
       </c>
@@ -28968,8 +29178,11 @@
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="16">
         <v>7</v>
       </c>
@@ -29026,14 +29239,17 @@
       </c>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="16">
         <v>8</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="85" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>113</v>
@@ -29055,7 +29271,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="12">
-        <f ca="1">IF(ISBLANK(K12)=FALSE,OFFSET(J12,0,COUNTA(K12:T12)),"")</f>
+        <f ca="1">IF(ISBLANK(K12)=FALSE,OFFSET(J12,0,COUNTA(K12:W12)),"")</f>
         <v>0</v>
       </c>
       <c r="K12" s="22">
@@ -29088,8 +29304,11 @@
       <c r="T12" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="16">
         <v>9</v>
       </c>
@@ -29144,8 +29363,11 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="16">
         <v>10</v>
       </c>
@@ -29200,8 +29422,11 @@
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
-    </row>
-    <row r="15" spans="1:22">
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="16">
         <v>11</v>
       </c>
@@ -29256,8 +29481,11 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="16">
         <v>12</v>
       </c>
@@ -29300,8 +29528,11 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="16">
         <v>13</v>
       </c>
@@ -29360,8 +29591,11 @@
         <v>0</v>
       </c>
       <c r="T17" s="22"/>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="16">
         <v>14</v>
       </c>
@@ -29416,8 +29650,11 @@
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
       <c r="T18" s="22"/>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="16">
         <v>15</v>
       </c>
@@ -29472,8 +29709,11 @@
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
       <c r="T19" s="22"/>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="16">
         <v>16</v>
       </c>
@@ -29528,8 +29768,11 @@
       <c r="R20" s="22"/>
       <c r="S20" s="22"/>
       <c r="T20" s="22"/>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="16">
         <v>17</v>
       </c>
@@ -29574,16 +29817,19 @@
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="16">
         <v>18</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>396</v>
@@ -29622,17 +29868,20 @@
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="16">
         <v>19</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E23" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -29666,17 +29915,20 @@
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="16">
         <v>20</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E24" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -29722,14 +29974,17 @@
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="16">
         <v>21</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>352</v>
@@ -29770,8 +30025,11 @@
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
       <c r="T25" s="22"/>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="16">
         <v>22</v>
       </c>
@@ -29800,8 +30058,11 @@
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
       <c r="T26" s="22"/>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="16">
         <v>23</v>
       </c>
@@ -29858,8 +30119,11 @@
       </c>
       <c r="S27" s="22"/>
       <c r="T27" s="22"/>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="16">
         <v>24</v>
       </c>
@@ -29910,14 +30174,17 @@
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
       <c r="T28" s="22"/>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="16">
         <v>25</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>352</v>
@@ -29962,8 +30229,11 @@
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
       <c r="T29" s="22"/>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="16">
         <v>26</v>
       </c>
@@ -30018,8 +30288,11 @@
         <v>1</v>
       </c>
       <c r="T30" s="22"/>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="16">
         <v>27</v>
       </c>
@@ -30074,8 +30347,11 @@
         <v>1</v>
       </c>
       <c r="T31" s="22"/>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="16">
         <v>28</v>
       </c>
@@ -30130,14 +30406,17 @@
         <v>1</v>
       </c>
       <c r="T32" s="22"/>
-    </row>
-    <row r="33" spans="1:28">
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33" s="16">
         <v>29</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>352</v>
@@ -30186,8 +30465,11 @@
         <v>1</v>
       </c>
       <c r="T33" s="22"/>
-    </row>
-    <row r="34" spans="1:28">
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
+    </row>
+    <row r="34" spans="1:31">
       <c r="A34" s="16">
         <v>30</v>
       </c>
@@ -30234,8 +30516,11 @@
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
-    </row>
-    <row r="35" spans="1:28">
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+    </row>
+    <row r="35" spans="1:31">
       <c r="A35" s="16">
         <v>31</v>
       </c>
@@ -30280,14 +30565,17 @@
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
-    </row>
-    <row r="36" spans="1:28">
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+    </row>
+    <row r="36" spans="1:31">
       <c r="A36" s="16">
         <v>32</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>112</v>
@@ -30338,13 +30626,16 @@
       </c>
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
-    </row>
-    <row r="37" spans="1:28">
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+    </row>
+    <row r="37" spans="1:31">
       <c r="A37" s="16">
         <v>33</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>361</v>
@@ -30369,7 +30660,7 @@
         <v>2</v>
       </c>
       <c r="J37" s="12">
-        <f t="shared" ref="J37:J54" ca="1" si="4">IF(ISBLANK(K37)=FALSE,OFFSET(J37,0,COUNTA(K37:T37)),"")</f>
+        <f t="shared" ref="J37:J54" ca="1" si="4">IF(ISBLANK(K37)=FALSE,OFFSET(J37,0,COUNTA(K37:W37)),"")</f>
         <v>0</v>
       </c>
       <c r="K37" s="22">
@@ -30386,13 +30677,16 @@
       <c r="R37" s="22"/>
       <c r="S37" s="22"/>
       <c r="T37" s="22"/>
-    </row>
-    <row r="38" spans="1:28">
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+    </row>
+    <row r="38" spans="1:31">
       <c r="A38" s="16">
         <v>34</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>362</v>
@@ -30432,20 +30726,23 @@
       <c r="R38" s="22"/>
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
-      <c r="V38" s="106"/>
-      <c r="W38" s="106"/>
-      <c r="X38" s="106"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
       <c r="Y38" s="106"/>
       <c r="Z38" s="106"/>
       <c r="AA38" s="106"/>
       <c r="AB38" s="106"/>
-    </row>
-    <row r="39" spans="1:28">
+      <c r="AC38" s="106"/>
+      <c r="AD38" s="106"/>
+      <c r="AE38" s="106"/>
+    </row>
+    <row r="39" spans="1:31">
       <c r="A39" s="16">
         <v>35</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>363</v>
@@ -30489,20 +30786,23 @@
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
       <c r="T39" s="22"/>
-      <c r="V39" s="117"/>
-      <c r="W39" s="117"/>
-      <c r="X39" s="106"/>
-      <c r="Y39" s="106"/>
-      <c r="Z39" s="106"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="Y39" s="117"/>
+      <c r="Z39" s="117"/>
       <c r="AA39" s="106"/>
       <c r="AB39" s="106"/>
-    </row>
-    <row r="40" spans="1:28">
+      <c r="AC39" s="106"/>
+      <c r="AD39" s="106"/>
+      <c r="AE39" s="106"/>
+    </row>
+    <row r="40" spans="1:31">
       <c r="A40" s="16">
         <v>36</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>364</v>
@@ -30544,15 +30844,18 @@
       <c r="R40" s="22"/>
       <c r="S40" s="22"/>
       <c r="T40" s="22"/>
-      <c r="V40" s="117"/>
-      <c r="W40" s="117"/>
-      <c r="X40" s="106"/>
-      <c r="Y40" s="106"/>
-      <c r="Z40" s="106"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
+      <c r="W40" s="22"/>
+      <c r="Y40" s="117"/>
+      <c r="Z40" s="117"/>
       <c r="AA40" s="106"/>
       <c r="AB40" s="106"/>
-    </row>
-    <row r="41" spans="1:28">
+      <c r="AC40" s="106"/>
+      <c r="AD40" s="106"/>
+      <c r="AE40" s="106"/>
+    </row>
+    <row r="41" spans="1:31">
       <c r="A41" s="16">
         <v>37</v>
       </c>
@@ -30607,15 +30910,18 @@
       </c>
       <c r="S41" s="22"/>
       <c r="T41" s="22"/>
-      <c r="V41" s="117"/>
-      <c r="W41" s="117"/>
-      <c r="X41" s="106"/>
-      <c r="Y41" s="106"/>
-      <c r="Z41" s="106"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
+      <c r="W41" s="22"/>
+      <c r="Y41" s="117"/>
+      <c r="Z41" s="117"/>
       <c r="AA41" s="106"/>
       <c r="AB41" s="106"/>
-    </row>
-    <row r="42" spans="1:28">
+      <c r="AC41" s="106"/>
+      <c r="AD41" s="106"/>
+      <c r="AE41" s="106"/>
+    </row>
+    <row r="42" spans="1:31">
       <c r="A42" s="16">
         <v>38</v>
       </c>
@@ -30670,15 +30976,18 @@
       </c>
       <c r="S42" s="22"/>
       <c r="T42" s="22"/>
-      <c r="V42" s="117"/>
-      <c r="W42" s="117"/>
-      <c r="X42" s="106"/>
-      <c r="Y42" s="106"/>
-      <c r="Z42" s="106"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="Y42" s="117"/>
+      <c r="Z42" s="117"/>
       <c r="AA42" s="106"/>
       <c r="AB42" s="106"/>
-    </row>
-    <row r="43" spans="1:28">
+      <c r="AC42" s="106"/>
+      <c r="AD42" s="106"/>
+      <c r="AE42" s="106"/>
+    </row>
+    <row r="43" spans="1:31">
       <c r="A43" s="16">
         <v>39</v>
       </c>
@@ -30735,28 +31044,31 @@
       </c>
       <c r="S43" s="22"/>
       <c r="T43" s="22"/>
-      <c r="V43" s="117"/>
-      <c r="W43" s="117"/>
-      <c r="X43" s="106"/>
-      <c r="Y43" s="106"/>
-      <c r="Z43" s="106"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="Y43" s="117"/>
+      <c r="Z43" s="117"/>
       <c r="AA43" s="106"/>
       <c r="AB43" s="106"/>
-    </row>
-    <row r="44" spans="1:28">
+      <c r="AC43" s="106"/>
+      <c r="AD43" s="106"/>
+      <c r="AE43" s="106"/>
+    </row>
+    <row r="44" spans="1:31">
       <c r="A44" s="16">
         <v>40</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="17" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>372</v>
       </c>
       <c r="E44" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F44" s="4">
         <v>43087</v>
@@ -30767,10 +31079,12 @@
       <c r="H44" s="19">
         <v>1</v>
       </c>
-      <c r="I44" s="19"/>
+      <c r="I44" s="19">
+        <v>1</v>
+      </c>
       <c r="J44" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="22">
         <v>1</v>
@@ -30799,24 +31113,29 @@
       <c r="S44" s="22">
         <v>1</v>
       </c>
-      <c r="T44" s="22"/>
-      <c r="V44" s="117"/>
-      <c r="W44" s="117"/>
-      <c r="X44" s="106"/>
-      <c r="Y44" s="106"/>
-      <c r="Z44" s="106"/>
+      <c r="T44" s="22">
+        <v>0</v>
+      </c>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="22"/>
+      <c r="Y44" s="117"/>
+      <c r="Z44" s="117"/>
       <c r="AA44" s="106"/>
       <c r="AB44" s="106"/>
-    </row>
-    <row r="45" spans="1:28">
+      <c r="AC44" s="106"/>
+      <c r="AD44" s="106"/>
+      <c r="AE44" s="106"/>
+    </row>
+    <row r="45" spans="1:31">
       <c r="A45" s="16">
         <v>41</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>113</v>
@@ -30869,20 +31188,23 @@
         <v>1</v>
       </c>
       <c r="T45" s="22"/>
-      <c r="V45" s="117"/>
-      <c r="W45" s="117"/>
-      <c r="X45" s="106"/>
-      <c r="Y45" s="106"/>
-      <c r="Z45" s="106"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
+      <c r="W45" s="22"/>
+      <c r="Y45" s="117"/>
+      <c r="Z45" s="117"/>
       <c r="AA45" s="106"/>
       <c r="AB45" s="106"/>
-    </row>
-    <row r="46" spans="1:28">
+      <c r="AC45" s="106"/>
+      <c r="AD45" s="106"/>
+      <c r="AE45" s="106"/>
+    </row>
+    <row r="46" spans="1:31">
       <c r="A46" s="16">
         <v>42</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="18"/>
@@ -30908,20 +31230,23 @@
       <c r="R46" s="22"/>
       <c r="S46" s="22"/>
       <c r="T46" s="22"/>
-      <c r="V46" s="117"/>
-      <c r="W46" s="117"/>
-      <c r="X46" s="106"/>
-      <c r="Y46" s="106"/>
-      <c r="Z46" s="106"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
+      <c r="W46" s="22"/>
+      <c r="Y46" s="117"/>
+      <c r="Z46" s="117"/>
       <c r="AA46" s="106"/>
       <c r="AB46" s="106"/>
-    </row>
-    <row r="47" spans="1:28">
+      <c r="AC46" s="106"/>
+      <c r="AD46" s="106"/>
+      <c r="AE46" s="106"/>
+    </row>
+    <row r="47" spans="1:31">
       <c r="A47" s="16">
         <v>43</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>368</v>
@@ -30930,20 +31255,24 @@
         <v>372</v>
       </c>
       <c r="E47" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="F47" s="4">
         <v>43091</v>
       </c>
-      <c r="G47" s="4"/>
+      <c r="G47" s="4">
+        <v>43111</v>
+      </c>
       <c r="H47" s="19">
         <v>1</v>
       </c>
-      <c r="I47" s="19"/>
+      <c r="I47" s="19">
+        <v>1</v>
+      </c>
       <c r="J47" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="22">
         <v>1</v>
@@ -30972,21 +31301,26 @@
       <c r="S47" s="22">
         <v>1</v>
       </c>
-      <c r="T47" s="22"/>
-      <c r="V47" s="117"/>
-      <c r="W47" s="117"/>
-      <c r="X47" s="106"/>
-      <c r="Y47" s="106"/>
-      <c r="Z47" s="106"/>
+      <c r="T47" s="22">
+        <v>0</v>
+      </c>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22"/>
+      <c r="Y47" s="117"/>
+      <c r="Z47" s="117"/>
       <c r="AA47" s="106"/>
       <c r="AB47" s="106"/>
-    </row>
-    <row r="48" spans="1:28">
+      <c r="AC47" s="106"/>
+      <c r="AD47" s="106"/>
+      <c r="AE47" s="106"/>
+    </row>
+    <row r="48" spans="1:31">
       <c r="A48" s="16">
         <v>44</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>369</v>
@@ -30995,20 +31329,24 @@
         <v>372</v>
       </c>
       <c r="E48" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="F48" s="4">
         <v>43091</v>
       </c>
-      <c r="G48" s="4"/>
+      <c r="G48" s="4">
+        <v>43111</v>
+      </c>
       <c r="H48" s="19">
         <v>1</v>
       </c>
-      <c r="I48" s="19"/>
+      <c r="I48" s="19">
+        <v>1</v>
+      </c>
       <c r="J48" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="22">
         <v>1</v>
@@ -31037,21 +31375,26 @@
       <c r="S48" s="22">
         <v>1</v>
       </c>
-      <c r="T48" s="22"/>
-      <c r="V48" s="117"/>
-      <c r="W48" s="117"/>
-      <c r="X48" s="106"/>
-      <c r="Y48" s="106"/>
-      <c r="Z48" s="106"/>
+      <c r="T48" s="22">
+        <v>0</v>
+      </c>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="22"/>
+      <c r="Y48" s="117"/>
+      <c r="Z48" s="117"/>
       <c r="AA48" s="106"/>
       <c r="AB48" s="106"/>
-    </row>
-    <row r="49" spans="1:28">
+      <c r="AC48" s="106"/>
+      <c r="AD48" s="106"/>
+      <c r="AE48" s="106"/>
+    </row>
+    <row r="49" spans="1:31">
       <c r="A49" s="16">
         <v>45</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>370</v>
@@ -31060,20 +31403,24 @@
         <v>372</v>
       </c>
       <c r="E49" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="F49" s="4">
         <v>43091</v>
       </c>
-      <c r="G49" s="4"/>
+      <c r="G49" s="4">
+        <v>43111</v>
+      </c>
       <c r="H49" s="19">
         <v>1</v>
       </c>
-      <c r="I49" s="19"/>
+      <c r="I49" s="19">
+        <v>1</v>
+      </c>
       <c r="J49" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" s="22">
         <v>1</v>
@@ -31102,21 +31449,26 @@
       <c r="S49" s="22">
         <v>1</v>
       </c>
-      <c r="T49" s="22"/>
-      <c r="V49" s="117"/>
-      <c r="W49" s="117"/>
-      <c r="X49" s="106"/>
-      <c r="Y49" s="106"/>
-      <c r="Z49" s="106"/>
+      <c r="T49" s="22">
+        <v>0</v>
+      </c>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="Y49" s="117"/>
+      <c r="Z49" s="117"/>
       <c r="AA49" s="106"/>
       <c r="AB49" s="106"/>
-    </row>
-    <row r="50" spans="1:28">
+      <c r="AC49" s="106"/>
+      <c r="AD49" s="106"/>
+      <c r="AE49" s="106"/>
+    </row>
+    <row r="50" spans="1:31">
       <c r="A50" s="16">
         <v>46</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>367</v>
@@ -31125,20 +31477,24 @@
         <v>372</v>
       </c>
       <c r="E50" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="F50" s="4">
         <v>43091</v>
       </c>
-      <c r="G50" s="4"/>
+      <c r="G50" s="4">
+        <v>43111</v>
+      </c>
       <c r="H50" s="19">
         <v>1</v>
       </c>
-      <c r="I50" s="19"/>
+      <c r="I50" s="19">
+        <v>1</v>
+      </c>
       <c r="J50" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" s="22">
         <v>1</v>
@@ -31167,21 +31523,26 @@
       <c r="S50" s="22">
         <v>1</v>
       </c>
-      <c r="T50" s="22"/>
-      <c r="V50" s="117"/>
-      <c r="W50" s="117"/>
-      <c r="X50" s="106"/>
-      <c r="Y50" s="106"/>
-      <c r="Z50" s="106"/>
+      <c r="T50" s="22">
+        <v>0</v>
+      </c>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="22"/>
+      <c r="Y50" s="117"/>
+      <c r="Z50" s="117"/>
       <c r="AA50" s="106"/>
       <c r="AB50" s="106"/>
-    </row>
-    <row r="51" spans="1:28">
+      <c r="AC50" s="106"/>
+      <c r="AD50" s="106"/>
+      <c r="AE50" s="106"/>
+    </row>
+    <row r="51" spans="1:31">
       <c r="A51" s="16">
         <v>47</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>371</v>
@@ -31190,20 +31551,24 @@
         <v>372</v>
       </c>
       <c r="E51" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="F51" s="4">
         <v>43091</v>
       </c>
-      <c r="G51" s="4"/>
+      <c r="G51" s="4">
+        <v>43111</v>
+      </c>
       <c r="H51" s="19">
         <v>1</v>
       </c>
-      <c r="I51" s="19"/>
+      <c r="I51" s="19">
+        <v>1</v>
+      </c>
       <c r="J51" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="22">
         <v>1</v>
@@ -31232,24 +31597,29 @@
       <c r="S51" s="22">
         <v>1</v>
       </c>
-      <c r="T51" s="22"/>
-      <c r="V51" s="106"/>
-      <c r="W51" s="106"/>
-      <c r="X51" s="106"/>
+      <c r="T51" s="22">
+        <v>0</v>
+      </c>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22"/>
       <c r="Y51" s="106"/>
       <c r="Z51" s="106"/>
       <c r="AA51" s="106"/>
       <c r="AB51" s="106"/>
-    </row>
-    <row r="52" spans="1:28">
+      <c r="AC51" s="106"/>
+      <c r="AD51" s="106"/>
+      <c r="AE51" s="106"/>
+    </row>
+    <row r="52" spans="1:31">
       <c r="A52" s="16">
         <v>48</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>124</v>
@@ -31290,26 +31660,29 @@
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
       <c r="T52" s="22"/>
-      <c r="V52" s="106"/>
-      <c r="W52" s="106"/>
-      <c r="X52" s="106"/>
+      <c r="U52" s="22"/>
+      <c r="V52" s="22"/>
+      <c r="W52" s="22"/>
       <c r="Y52" s="106"/>
       <c r="Z52" s="106"/>
       <c r="AA52" s="106"/>
       <c r="AB52" s="106"/>
-    </row>
-    <row r="53" spans="1:28">
+      <c r="AC52" s="106"/>
+      <c r="AD52" s="106"/>
+      <c r="AE52" s="106"/>
+    </row>
+    <row r="53" spans="1:31">
       <c r="A53" s="16">
         <v>49</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C53" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="D53" s="18" t="s">
         <v>415</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>416</v>
       </c>
       <c r="E53" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -31347,21 +31720,24 @@
       <c r="R53" s="22"/>
       <c r="S53" s="22"/>
       <c r="T53" s="22"/>
-      <c r="V53" s="106"/>
-      <c r="W53" s="106"/>
-      <c r="X53" s="106"/>
+      <c r="U53" s="22"/>
+      <c r="V53" s="22"/>
+      <c r="W53" s="22"/>
       <c r="Y53" s="106"/>
       <c r="Z53" s="106"/>
       <c r="AA53" s="106"/>
       <c r="AB53" s="106"/>
-    </row>
-    <row r="54" spans="1:28">
+      <c r="AC53" s="106"/>
+      <c r="AD53" s="106"/>
+      <c r="AE53" s="106"/>
+    </row>
+    <row r="54" spans="1:31">
       <c r="A54" s="16">
         <v>50</v>
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>124</v>
@@ -31412,8 +31788,11 @@
       </c>
       <c r="S54" s="22"/>
       <c r="T54" s="22"/>
-    </row>
-    <row r="55" spans="1:28">
+      <c r="U54" s="22"/>
+      <c r="V54" s="22"/>
+      <c r="W54" s="22"/>
+    </row>
+    <row r="55" spans="1:31">
       <c r="A55" s="16">
         <v>51</v>
       </c>
@@ -31439,8 +31818,11 @@
       <c r="R55" s="22"/>
       <c r="S55" s="22"/>
       <c r="T55" s="22"/>
-    </row>
-    <row r="56" spans="1:28">
+      <c r="U55" s="22"/>
+      <c r="V55" s="22"/>
+      <c r="W55" s="22"/>
+    </row>
+    <row r="56" spans="1:31">
       <c r="A56" s="16">
         <v>52</v>
       </c>
@@ -31456,7 +31838,7 @@
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="12" t="str">
-        <f t="shared" ref="J56:J62" ca="1" si="6">IF(ISBLANK(K56)=FALSE,OFFSET(J56,0,COUNTA(K56:T56)),"")</f>
+        <f t="shared" ref="J56:J62" ca="1" si="6">IF(ISBLANK(K56)=FALSE,OFFSET(J56,0,COUNTA(K56:W56)),"")</f>
         <v/>
       </c>
       <c r="K56" s="22"/>
@@ -31469,14 +31851,17 @@
       <c r="R56" s="22"/>
       <c r="S56" s="22"/>
       <c r="T56" s="22"/>
-    </row>
-    <row r="57" spans="1:28">
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+    </row>
+    <row r="57" spans="1:31">
       <c r="A57" s="16">
         <v>53</v>
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>374</v>
@@ -31515,17 +31900,20 @@
       <c r="R57" s="22"/>
       <c r="S57" s="22"/>
       <c r="T57" s="22"/>
-    </row>
-    <row r="58" spans="1:28">
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+    </row>
+    <row r="58" spans="1:31">
       <c r="A58" s="16">
         <v>54</v>
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E58" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -31571,17 +31959,20 @@
       <c r="R58" s="22"/>
       <c r="S58" s="22"/>
       <c r="T58" s="22"/>
-    </row>
-    <row r="59" spans="1:28">
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+    </row>
+    <row r="59" spans="1:31">
       <c r="A59" s="16">
         <v>55</v>
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E59" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -31627,17 +32018,20 @@
       <c r="R59" s="22"/>
       <c r="S59" s="22"/>
       <c r="T59" s="22"/>
-    </row>
-    <row r="60" spans="1:28">
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+    </row>
+    <row r="60" spans="1:31">
       <c r="A60" s="16">
         <v>56</v>
       </c>
       <c r="B60" s="16"/>
       <c r="C60" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E60" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -31681,17 +32075,20 @@
       <c r="R60" s="22"/>
       <c r="S60" s="22"/>
       <c r="T60" s="22"/>
-    </row>
-    <row r="61" spans="1:28">
+      <c r="U60" s="22"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="22"/>
+    </row>
+    <row r="61" spans="1:31">
       <c r="A61" s="16">
         <v>57</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="D61" s="18" t="s">
         <v>440</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>441</v>
       </c>
       <c r="E61" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -31739,17 +32136,20 @@
       </c>
       <c r="S61" s="22"/>
       <c r="T61" s="22"/>
-    </row>
-    <row r="62" spans="1:28">
+      <c r="U61" s="22"/>
+      <c r="V61" s="22"/>
+      <c r="W61" s="22"/>
+    </row>
+    <row r="62" spans="1:31">
       <c r="A62" s="16">
         <v>58</v>
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="17" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E62" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -31797,17 +32197,20 @@
       </c>
       <c r="S62" s="22"/>
       <c r="T62" s="22"/>
-    </row>
-    <row r="63" spans="1:28">
+      <c r="U62" s="22"/>
+      <c r="V62" s="22"/>
+      <c r="W62" s="22"/>
+    </row>
+    <row r="63" spans="1:31">
       <c r="A63" s="16">
         <v>59</v>
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>435</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>436</v>
       </c>
       <c r="E63" s="12" t="str">
         <f t="shared" si="3"/>
@@ -31848,8 +32251,11 @@
       <c r="R63" s="22"/>
       <c r="S63" s="22"/>
       <c r="T63" s="22"/>
-    </row>
-    <row r="64" spans="1:28">
+      <c r="U63" s="22"/>
+      <c r="V63" s="22"/>
+      <c r="W63" s="22"/>
+    </row>
+    <row r="64" spans="1:31">
       <c r="A64" s="16">
         <v>60</v>
       </c>
@@ -31875,7 +32281,7 @@
       </c>
       <c r="I64" s="19"/>
       <c r="J64" s="12">
-        <f t="shared" ref="J64:J104" ca="1" si="7">IF(ISBLANK(K64)=FALSE,OFFSET(J64,0,COUNTA(K64:T64)),"")</f>
+        <f t="shared" ref="J64:J104" ca="1" si="7">IF(ISBLANK(K64)=FALSE,OFFSET(J64,0,COUNTA(K64:W64)),"")</f>
         <v>2</v>
       </c>
       <c r="K64" s="22">
@@ -31906,8 +32312,11 @@
         <v>2</v>
       </c>
       <c r="T64" s="22"/>
-    </row>
-    <row r="65" spans="1:27">
+      <c r="U64" s="22"/>
+      <c r="V64" s="22"/>
+      <c r="W64" s="22"/>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65" s="16">
         <v>61</v>
       </c>
@@ -31950,8 +32359,11 @@
       <c r="R65" s="22"/>
       <c r="S65" s="22"/>
       <c r="T65" s="22"/>
-    </row>
-    <row r="66" spans="1:27">
+      <c r="U65" s="22"/>
+      <c r="V65" s="22"/>
+      <c r="W65" s="22"/>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66" s="16">
         <v>62</v>
       </c>
@@ -32006,8 +32418,11 @@
       <c r="R66" s="22"/>
       <c r="S66" s="22"/>
       <c r="T66" s="22"/>
-    </row>
-    <row r="67" spans="1:27">
+      <c r="U66" s="22"/>
+      <c r="V66" s="22"/>
+      <c r="W66" s="22"/>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67" s="16">
         <v>63</v>
       </c>
@@ -32062,26 +32477,29 @@
         <v>3</v>
       </c>
       <c r="T67" s="22"/>
-      <c r="V67" s="13" t="s">
+      <c r="U67" s="22"/>
+      <c r="V67" s="22"/>
+      <c r="W67" s="22"/>
+      <c r="Y67" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="W67" s="13" t="s">
+      <c r="Z67" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="X67" s="13" t="s">
+      <c r="AA67" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="Y67" s="13" t="s">
+      <c r="AB67" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Z67" s="13" t="s">
+      <c r="AC67" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AA67" s="13" t="s">
+      <c r="AD67" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:27">
+    <row r="68" spans="1:30">
       <c r="A68" s="16">
         <v>64</v>
       </c>
@@ -32136,40 +32554,43 @@
         <v>3</v>
       </c>
       <c r="T68" s="22"/>
-      <c r="V68" s="11" t="s">
+      <c r="U68" s="22"/>
+      <c r="V68" s="22"/>
+      <c r="W68" s="22"/>
+      <c r="Y68" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="W68" s="10">
-        <f>SUMIF($D$5:$D$175,V68,$H$5:$H$175)</f>
-        <v>49</v>
-      </c>
-      <c r="X68" s="10">
-        <f ca="1">SUMIF($D$5:$D$175,V68,$J$5:$J$175)</f>
-        <v>1</v>
-      </c>
-      <c r="Y68" s="10">
-        <f>SUMIF($D$5:$D$174,V68,$I$5:$I$175)</f>
-        <v>46</v>
-      </c>
-      <c r="Z68" s="14">
-        <f>COUNTA($K$2:$T$2)*6-COUNTA($K$4:$T$4)*6</f>
-        <v>6</v>
-      </c>
-      <c r="AA68" s="15">
-        <f ca="1">IF(Z68&gt;X68,0,X68-Z68)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27">
+      <c r="Z68" s="10">
+        <f>SUMIF($D$5:$D$175,Y68,$H$5:$H$175)</f>
+        <v>62</v>
+      </c>
+      <c r="AA68" s="10">
+        <f ca="1">SUMIF($D$5:$D$175,Y68,$J$5:$J$175)</f>
+        <v>10</v>
+      </c>
+      <c r="AB68" s="10">
+        <f>SUMIF($D$5:$D$174,Y68,$I$5:$I$175)</f>
+        <v>47</v>
+      </c>
+      <c r="AC68" s="14">
+        <f>COUNTA($K$2:$W$2)*6-COUNTA($K$4:$W$4)*6</f>
+        <v>18</v>
+      </c>
+      <c r="AD68" s="15">
+        <f ca="1">IF(AC68&gt;AA68,0,AA68-AC68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30">
       <c r="A69" s="16">
         <v>65</v>
       </c>
       <c r="B69" s="16"/>
       <c r="C69" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="D69" s="18" t="s">
         <v>465</v>
-      </c>
-      <c r="D69" s="18" t="s">
-        <v>466</v>
       </c>
       <c r="E69" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -32219,40 +32640,43 @@
         <v>0</v>
       </c>
       <c r="T69" s="22"/>
-      <c r="V69" s="11" t="s">
+      <c r="U69" s="22"/>
+      <c r="V69" s="22"/>
+      <c r="W69" s="22"/>
+      <c r="Y69" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="W69" s="10">
-        <f t="shared" ref="W69:W73" si="8">SUMIF($D$5:$D$175,V69,$H$5:$H$175)</f>
-        <v>41</v>
-      </c>
-      <c r="X69" s="10">
-        <f t="shared" ref="X69:X73" ca="1" si="9">SUMIF($D$5:$D$175,V69,$J$5:$J$175)</f>
-        <v>7</v>
-      </c>
-      <c r="Y69" s="10">
-        <f t="shared" ref="Y69:Y73" si="10">SUMIF($D$5:$D$174,V69,$I$5:$I$175)</f>
-        <v>36</v>
-      </c>
-      <c r="Z69" s="14">
-        <f t="shared" ref="Z69:Z73" si="11">COUNTA($K$2:$T$2)*6-COUNTA($K$4:$T$4)*6</f>
-        <v>6</v>
-      </c>
-      <c r="AA69" s="15">
-        <f t="shared" ref="AA69:AA77" ca="1" si="12">IF(Z69&gt;X69,0,X69-Z69)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27">
+      <c r="Z69" s="10">
+        <f t="shared" ref="Z69:Z73" si="8">SUMIF($D$5:$D$175,Y69,$H$5:$H$175)</f>
+        <v>45</v>
+      </c>
+      <c r="AA69" s="10">
+        <f t="shared" ref="AA69:AA73" ca="1" si="9">SUMIF($D$5:$D$175,Y69,$J$5:$J$175)</f>
+        <v>9</v>
+      </c>
+      <c r="AB69" s="10">
+        <f t="shared" ref="AB69:AB73" si="10">SUMIF($D$5:$D$174,Y69,$I$5:$I$175)</f>
+        <v>38</v>
+      </c>
+      <c r="AC69" s="14">
+        <f t="shared" ref="AC69:AC73" si="11">COUNTA($K$2:$W$2)*6-COUNTA($K$4:$W$4)*6</f>
+        <v>18</v>
+      </c>
+      <c r="AD69" s="15">
+        <f t="shared" ref="AD69:AD77" ca="1" si="12">IF(AC69&gt;AA69,0,AA69-AC69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30">
       <c r="A70" s="16">
         <v>66</v>
       </c>
       <c r="B70" s="16"/>
       <c r="C70" s="17" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E70" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -32302,31 +32726,34 @@
         <v>0</v>
       </c>
       <c r="T70" s="22"/>
-      <c r="V70" s="11" t="s">
+      <c r="U70" s="22"/>
+      <c r="V70" s="22"/>
+      <c r="W70" s="22"/>
+      <c r="Y70" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="W70" s="10">
+      <c r="Z70" s="10">
         <f t="shared" si="8"/>
-        <v>29</v>
-      </c>
-      <c r="X70" s="10">
+        <v>32</v>
+      </c>
+      <c r="AA70" s="10">
         <f t="shared" ca="1" si="9"/>
         <v>0</v>
       </c>
-      <c r="Y70" s="10">
+      <c r="AB70" s="10">
         <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="AC70" s="14">
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
-      <c r="Z70" s="14">
-        <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="AA70" s="15">
+      <c r="AD70" s="15">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:27">
+    <row r="71" spans="1:30">
       <c r="A71" s="16">
         <v>67</v>
       </c>
@@ -32371,31 +32798,34 @@
       <c r="R71" s="22"/>
       <c r="S71" s="22"/>
       <c r="T71" s="22"/>
-      <c r="V71" s="11" t="s">
+      <c r="U71" s="22"/>
+      <c r="V71" s="22"/>
+      <c r="W71" s="22"/>
+      <c r="Y71" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="W71" s="10">
+      <c r="Z71" s="10">
         <f t="shared" si="8"/>
-        <v>31</v>
-      </c>
-      <c r="X71" s="10">
+        <v>39</v>
+      </c>
+      <c r="AA71" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="Y71" s="10">
+        <v>9</v>
+      </c>
+      <c r="AB71" s="10">
         <f t="shared" si="10"/>
-        <v>17.5</v>
-      </c>
-      <c r="Z71" s="14">
+        <v>26.5</v>
+      </c>
+      <c r="AC71" s="14">
         <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="AA71" s="15">
+        <v>18</v>
+      </c>
+      <c r="AD71" s="15">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30">
       <c r="A72" s="16">
         <v>68</v>
       </c>
@@ -32450,31 +32880,34 @@
         <v>3</v>
       </c>
       <c r="T72" s="22"/>
-      <c r="V72" s="11" t="s">
+      <c r="U72" s="22"/>
+      <c r="V72" s="22"/>
+      <c r="W72" s="22"/>
+      <c r="Y72" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="W72" s="10">
+      <c r="Z72" s="10">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
-      <c r="X72" s="10">
+      <c r="AA72" s="10">
         <f t="shared" ca="1" si="9"/>
         <v>17</v>
       </c>
-      <c r="Y72" s="10">
+      <c r="AB72" s="10">
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="Z72" s="14">
+      <c r="AC72" s="14">
         <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="AA72" s="15">
+        <v>18</v>
+      </c>
+      <c r="AD72" s="15">
         <f t="shared" ca="1" si="12"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30">
       <c r="A73" s="16">
         <v>69</v>
       </c>
@@ -32529,31 +32962,34 @@
         <v>4</v>
       </c>
       <c r="T73" s="22"/>
-      <c r="V73" s="11" t="s">
+      <c r="U73" s="22"/>
+      <c r="V73" s="22"/>
+      <c r="W73" s="22"/>
+      <c r="Y73" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="W73" s="10">
+      <c r="Z73" s="10">
         <f t="shared" si="8"/>
         <v>27</v>
       </c>
-      <c r="X73" s="10">
+      <c r="AA73" s="10">
         <f t="shared" ca="1" si="9"/>
         <v>6</v>
       </c>
-      <c r="Y73" s="10">
+      <c r="AB73" s="10">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="Z73" s="14">
+      <c r="AC73" s="14">
         <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="AA73" s="15">
+        <v>18</v>
+      </c>
+      <c r="AD73" s="15">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:27">
+    <row r="74" spans="1:30">
       <c r="A74" s="16">
         <v>70</v>
       </c>
@@ -32598,35 +33034,38 @@
       <c r="R74" s="22"/>
       <c r="S74" s="22"/>
       <c r="T74" s="22"/>
-      <c r="V74" s="11"/>
-      <c r="W74" s="10">
-        <f t="shared" ref="W74:W77" si="14">SUMIF($D$5:$D$104,V74,$H$5:$H$104)</f>
-        <v>0</v>
-      </c>
-      <c r="X74" s="10">
-        <f t="shared" ref="X74:X77" si="15">SUMIF($D$5:$D$104,V74,$J$5:$J$104)</f>
-        <v>0</v>
-      </c>
-      <c r="Y74" s="10">
-        <f t="shared" ref="Y74:Y77" si="16">SUMIF($D$5:$D$104,V74,$I$5:$I$104)</f>
-        <v>0</v>
-      </c>
-      <c r="Z74" s="14">
-        <f t="shared" ref="Z74:Z77" si="17">COUNTA($K$2:$R$2)*6-COUNTA($K$4:$R$4)*6</f>
-        <v>0</v>
-      </c>
-      <c r="AA74" s="15">
+      <c r="U74" s="22"/>
+      <c r="V74" s="22"/>
+      <c r="W74" s="22"/>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="10">
+        <f t="shared" ref="Z74:Z77" si="14">SUMIF($D$5:$D$104,Y74,$H$5:$H$104)</f>
+        <v>0</v>
+      </c>
+      <c r="AA74" s="10">
+        <f t="shared" ref="AA74:AA77" si="15">SUMIF($D$5:$D$104,Y74,$J$5:$J$104)</f>
+        <v>0</v>
+      </c>
+      <c r="AB74" s="10">
+        <f t="shared" ref="AB74:AB77" si="16">SUMIF($D$5:$D$104,Y74,$I$5:$I$104)</f>
+        <v>0</v>
+      </c>
+      <c r="AC74" s="14">
+        <f t="shared" ref="AC74:AC77" si="17">COUNTA($K$2:$R$2)*6-COUNTA($K$4:$R$4)*6</f>
+        <v>0</v>
+      </c>
+      <c r="AD74" s="15">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:27">
+    <row r="75" spans="1:30">
       <c r="A75" s="16">
         <v>71</v>
       </c>
       <c r="B75" s="16"/>
       <c r="C75" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>384</v>
@@ -32665,35 +33104,38 @@
       <c r="R75" s="22"/>
       <c r="S75" s="22"/>
       <c r="T75" s="22"/>
-      <c r="V75" s="11"/>
-      <c r="W75" s="10">
+      <c r="U75" s="22"/>
+      <c r="V75" s="22"/>
+      <c r="W75" s="22"/>
+      <c r="Y75" s="11"/>
+      <c r="Z75" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X75" s="10">
+      <c r="AA75" s="10">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y75" s="10">
+      <c r="AB75" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Z75" s="14">
+      <c r="AC75" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AA75" s="15">
+      <c r="AD75" s="15">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:27">
+    <row r="76" spans="1:30">
       <c r="A76" s="16">
         <v>72</v>
       </c>
       <c r="B76" s="16"/>
       <c r="C76" s="17" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D76" s="18" t="s">
         <v>384</v>
@@ -32744,29 +33186,32 @@
       </c>
       <c r="S76" s="22"/>
       <c r="T76" s="22"/>
-      <c r="V76" s="11"/>
-      <c r="W76" s="10">
+      <c r="U76" s="22"/>
+      <c r="V76" s="22"/>
+      <c r="W76" s="22"/>
+      <c r="Y76" s="11"/>
+      <c r="Z76" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X76" s="10">
+      <c r="AA76" s="10">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y76" s="10">
+      <c r="AB76" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Z76" s="14">
+      <c r="AC76" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AA76" s="15">
+      <c r="AD76" s="15">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:27">
+    <row r="77" spans="1:30">
       <c r="A77" s="16">
         <v>73</v>
       </c>
@@ -32825,34 +33270,37 @@
         <v>5</v>
       </c>
       <c r="T77" s="22"/>
-      <c r="V77" s="11"/>
-      <c r="W77" s="10">
+      <c r="U77" s="22"/>
+      <c r="V77" s="22"/>
+      <c r="W77" s="22"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="X77" s="10">
+      <c r="AA77" s="10">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="Y77" s="10">
+      <c r="AB77" s="10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="Z77" s="14">
+      <c r="AC77" s="14">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AA77" s="15">
+      <c r="AD77" s="15">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:27">
+    <row r="78" spans="1:30">
       <c r="A78" s="16">
         <v>74</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C78" s="85" t="s">
         <v>391</v>
@@ -32894,17 +33342,20 @@
       <c r="R78" s="22"/>
       <c r="S78" s="22"/>
       <c r="T78" s="22"/>
-      <c r="V78" s="128"/>
-      <c r="W78" s="129"/>
-      <c r="X78" s="128"/>
-    </row>
-    <row r="79" spans="1:27">
+      <c r="U78" s="22"/>
+      <c r="V78" s="22"/>
+      <c r="W78" s="22"/>
+      <c r="Y78" s="128"/>
+      <c r="Z78" s="129"/>
+      <c r="AA78" s="128"/>
+    </row>
+    <row r="79" spans="1:30">
       <c r="A79" s="16">
         <v>75</v>
       </c>
       <c r="B79" s="16"/>
       <c r="C79" s="85" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D79" s="18" t="s">
         <v>379</v>
@@ -32955,19 +33406,22 @@
       </c>
       <c r="S79" s="22"/>
       <c r="T79" s="22"/>
-    </row>
-    <row r="80" spans="1:27">
+      <c r="U79" s="22"/>
+      <c r="V79" s="22"/>
+      <c r="W79" s="22"/>
+    </row>
+    <row r="80" spans="1:30">
       <c r="A80" s="16">
         <v>76</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C80" s="85" t="s">
+        <v>409</v>
+      </c>
+      <c r="D80" s="18" t="s">
         <v>410</v>
-      </c>
-      <c r="D80" s="18" t="s">
-        <v>411</v>
       </c>
       <c r="E80" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33003,18 +33457,21 @@
       <c r="R80" s="22"/>
       <c r="S80" s="22"/>
       <c r="T80" s="22"/>
-      <c r="W80" s="106"/>
-    </row>
-    <row r="81" spans="1:23">
+      <c r="U80" s="22"/>
+      <c r="V80" s="22"/>
+      <c r="W80" s="22"/>
+      <c r="Z80" s="106"/>
+    </row>
+    <row r="81" spans="1:26">
       <c r="A81" s="16">
         <v>77</v>
       </c>
       <c r="B81" s="16"/>
       <c r="C81" s="85" t="s">
+        <v>417</v>
+      </c>
+      <c r="D81" s="18" t="s">
         <v>418</v>
-      </c>
-      <c r="D81" s="18" t="s">
-        <v>419</v>
       </c>
       <c r="E81" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33064,18 +33521,21 @@
         <v>2</v>
       </c>
       <c r="T81" s="22"/>
-      <c r="W81" s="106"/>
-    </row>
-    <row r="82" spans="1:23">
+      <c r="U81" s="22"/>
+      <c r="V81" s="22"/>
+      <c r="W81" s="22"/>
+      <c r="Z81" s="106"/>
+    </row>
+    <row r="82" spans="1:26">
       <c r="A82" s="16">
         <v>78</v>
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="85" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E82" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33113,17 +33573,20 @@
       <c r="R82" s="22"/>
       <c r="S82" s="22"/>
       <c r="T82" s="22"/>
-    </row>
-    <row r="83" spans="1:23">
+      <c r="U82" s="22"/>
+      <c r="V82" s="22"/>
+      <c r="W82" s="22"/>
+    </row>
+    <row r="83" spans="1:26">
       <c r="A83" s="16">
         <v>79</v>
       </c>
       <c r="B83" s="16"/>
       <c r="C83" s="85" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E83" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33161,17 +33624,20 @@
       <c r="R83" s="22"/>
       <c r="S83" s="22"/>
       <c r="T83" s="22"/>
-    </row>
-    <row r="84" spans="1:23">
+      <c r="U83" s="22"/>
+      <c r="V83" s="22"/>
+      <c r="W83" s="22"/>
+    </row>
+    <row r="84" spans="1:26">
       <c r="A84" s="16">
         <v>80</v>
       </c>
       <c r="B84" s="16"/>
       <c r="C84" s="85" t="s">
+        <v>422</v>
+      </c>
+      <c r="D84" s="18" t="s">
         <v>423</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>424</v>
       </c>
       <c r="E84" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33209,17 +33675,20 @@
       <c r="R84" s="22"/>
       <c r="S84" s="22"/>
       <c r="T84" s="22"/>
-    </row>
-    <row r="85" spans="1:23">
+      <c r="U84" s="22"/>
+      <c r="V84" s="22"/>
+      <c r="W84" s="22"/>
+    </row>
+    <row r="85" spans="1:26">
       <c r="A85" s="16">
         <v>81</v>
       </c>
       <c r="B85" s="16"/>
       <c r="C85" s="85" t="s">
+        <v>472</v>
+      </c>
+      <c r="D85" s="18" t="s">
         <v>473</v>
-      </c>
-      <c r="D85" s="18" t="s">
-        <v>474</v>
       </c>
       <c r="E85" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33269,17 +33738,20 @@
         <v>1</v>
       </c>
       <c r="T85" s="22"/>
-    </row>
-    <row r="86" spans="1:23">
+      <c r="U85" s="22"/>
+      <c r="V85" s="22"/>
+      <c r="W85" s="22"/>
+    </row>
+    <row r="86" spans="1:26">
       <c r="A86" s="16">
         <v>82</v>
       </c>
       <c r="B86" s="16"/>
       <c r="C86" s="85" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E86" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33321,14 +33793,17 @@
       <c r="R86" s="22"/>
       <c r="S86" s="22"/>
       <c r="T86" s="22"/>
-    </row>
-    <row r="87" spans="1:23">
+      <c r="U86" s="22"/>
+      <c r="V86" s="22"/>
+      <c r="W86" s="22"/>
+    </row>
+    <row r="87" spans="1:26">
       <c r="A87" s="16">
         <v>83</v>
       </c>
       <c r="B87" s="16"/>
       <c r="C87" s="85" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D87" s="18" t="s">
         <v>124</v>
@@ -33373,14 +33848,17 @@
       <c r="R87" s="22"/>
       <c r="S87" s="22"/>
       <c r="T87" s="22"/>
-    </row>
-    <row r="88" spans="1:23">
+      <c r="U87" s="22"/>
+      <c r="V87" s="22"/>
+      <c r="W87" s="22"/>
+    </row>
+    <row r="88" spans="1:26">
       <c r="A88" s="16">
         <v>84</v>
       </c>
       <c r="B88" s="16"/>
       <c r="C88" s="85" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>124</v>
@@ -33427,14 +33905,17 @@
       <c r="R88" s="22"/>
       <c r="S88" s="22"/>
       <c r="T88" s="22"/>
-    </row>
-    <row r="89" spans="1:23">
+      <c r="U88" s="22"/>
+      <c r="V88" s="22"/>
+      <c r="W88" s="22"/>
+    </row>
+    <row r="89" spans="1:26">
       <c r="A89" s="16">
         <v>85</v>
       </c>
       <c r="B89" s="16"/>
       <c r="C89" s="85" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>124</v>
@@ -33483,14 +33964,17 @@
         <v>2</v>
       </c>
       <c r="T89" s="22"/>
-    </row>
-    <row r="90" spans="1:23">
+      <c r="U89" s="22"/>
+      <c r="V89" s="22"/>
+      <c r="W89" s="22"/>
+    </row>
+    <row r="90" spans="1:26">
       <c r="A90" s="16">
         <v>86</v>
       </c>
       <c r="B90" s="16"/>
       <c r="C90" s="85" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>124</v>
@@ -33537,8 +34021,11 @@
       <c r="R90" s="22"/>
       <c r="S90" s="22"/>
       <c r="T90" s="22"/>
-    </row>
-    <row r="91" spans="1:23">
+      <c r="U90" s="22"/>
+      <c r="V90" s="22"/>
+      <c r="W90" s="22"/>
+    </row>
+    <row r="91" spans="1:26">
       <c r="A91" s="16">
         <v>87</v>
       </c>
@@ -33567,17 +34054,20 @@
       <c r="R91" s="22"/>
       <c r="S91" s="22"/>
       <c r="T91" s="22"/>
-    </row>
-    <row r="92" spans="1:23">
+      <c r="U91" s="22"/>
+      <c r="V91" s="22"/>
+      <c r="W91" s="22"/>
+    </row>
+    <row r="92" spans="1:26">
       <c r="A92" s="16">
         <v>88</v>
       </c>
       <c r="B92" s="16"/>
       <c r="C92" s="85" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E92" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33621,17 +34111,20 @@
       <c r="R92" s="22"/>
       <c r="S92" s="22"/>
       <c r="T92" s="22"/>
-    </row>
-    <row r="93" spans="1:23">
+      <c r="U92" s="22"/>
+      <c r="V92" s="22"/>
+      <c r="W92" s="22"/>
+    </row>
+    <row r="93" spans="1:26">
       <c r="A93" s="16">
         <v>89</v>
       </c>
       <c r="B93" s="16"/>
       <c r="C93" s="85" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E93" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33675,17 +34168,20 @@
       <c r="R93" s="22"/>
       <c r="S93" s="22"/>
       <c r="T93" s="22"/>
-    </row>
-    <row r="94" spans="1:23">
+      <c r="U93" s="22"/>
+      <c r="V93" s="22"/>
+      <c r="W93" s="22"/>
+    </row>
+    <row r="94" spans="1:26">
       <c r="A94" s="16">
         <v>90</v>
       </c>
       <c r="B94" s="16"/>
       <c r="C94" s="85" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E94" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33733,17 +34229,20 @@
       </c>
       <c r="S94" s="22"/>
       <c r="T94" s="22"/>
-    </row>
-    <row r="95" spans="1:23">
+      <c r="U94" s="22"/>
+      <c r="V94" s="22"/>
+      <c r="W94" s="22"/>
+    </row>
+    <row r="95" spans="1:26">
       <c r="A95" s="16">
         <v>91</v>
       </c>
       <c r="B95" s="16"/>
       <c r="C95" s="85" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E95" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33791,17 +34290,20 @@
       </c>
       <c r="S95" s="22"/>
       <c r="T95" s="22"/>
-    </row>
-    <row r="96" spans="1:23">
+      <c r="U95" s="22"/>
+      <c r="V95" s="22"/>
+      <c r="W95" s="22"/>
+    </row>
+    <row r="96" spans="1:26">
       <c r="A96" s="16">
         <v>92</v>
       </c>
       <c r="B96" s="16"/>
       <c r="C96" s="85" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E96" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33849,17 +34351,20 @@
       </c>
       <c r="S96" s="22"/>
       <c r="T96" s="22"/>
-    </row>
-    <row r="97" spans="1:21">
+      <c r="U96" s="22"/>
+      <c r="V96" s="22"/>
+      <c r="W96" s="22"/>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" s="16">
         <v>93</v>
       </c>
       <c r="B97" s="16"/>
       <c r="C97" s="85" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E97" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33903,17 +34408,20 @@
       <c r="R97" s="22"/>
       <c r="S97" s="22"/>
       <c r="T97" s="22"/>
-    </row>
-    <row r="98" spans="1:21">
+      <c r="U97" s="22"/>
+      <c r="V97" s="22"/>
+      <c r="W97" s="22"/>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" s="16">
         <v>94</v>
       </c>
       <c r="B98" s="16"/>
       <c r="C98" s="85" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E98" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33957,17 +34465,20 @@
       <c r="R98" s="22"/>
       <c r="S98" s="22"/>
       <c r="T98" s="22"/>
-    </row>
-    <row r="99" spans="1:21">
+      <c r="U98" s="22"/>
+      <c r="V98" s="22"/>
+      <c r="W98" s="22"/>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" s="16">
         <v>95</v>
       </c>
       <c r="B99" s="16"/>
       <c r="C99" s="85" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E99" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34011,17 +34522,20 @@
       <c r="R99" s="22"/>
       <c r="S99" s="22"/>
       <c r="T99" s="22"/>
-    </row>
-    <row r="100" spans="1:21">
+      <c r="U99" s="22"/>
+      <c r="V99" s="22"/>
+      <c r="W99" s="22"/>
+    </row>
+    <row r="100" spans="1:24">
       <c r="A100" s="16">
         <v>96</v>
       </c>
       <c r="B100" s="16"/>
       <c r="C100" s="85" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E100" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34065,17 +34579,20 @@
       <c r="R100" s="22"/>
       <c r="S100" s="22"/>
       <c r="T100" s="22"/>
-    </row>
-    <row r="101" spans="1:21">
+      <c r="U100" s="22"/>
+      <c r="V100" s="22"/>
+      <c r="W100" s="22"/>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" s="16">
         <v>97</v>
       </c>
       <c r="B101" s="16"/>
       <c r="C101" s="85" t="s">
+        <v>467</v>
+      </c>
+      <c r="D101" s="18" t="s">
         <v>468</v>
-      </c>
-      <c r="D101" s="18" t="s">
-        <v>469</v>
       </c>
       <c r="E101" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34125,17 +34642,20 @@
         <v>0</v>
       </c>
       <c r="T101" s="22"/>
-    </row>
-    <row r="102" spans="1:21">
+      <c r="U101" s="22"/>
+      <c r="V101" s="22"/>
+      <c r="W101" s="22"/>
+    </row>
+    <row r="102" spans="1:24">
       <c r="A102" s="16">
         <v>98</v>
       </c>
       <c r="B102" s="16"/>
       <c r="C102" s="85" t="s">
+        <v>453</v>
+      </c>
+      <c r="D102" s="18" t="s">
         <v>454</v>
-      </c>
-      <c r="D102" s="18" t="s">
-        <v>455</v>
       </c>
       <c r="E102" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34185,21 +34705,24 @@
         <v>0</v>
       </c>
       <c r="T102" s="22"/>
-    </row>
-    <row r="103" spans="1:21">
+      <c r="U102" s="22"/>
+      <c r="V102" s="22"/>
+      <c r="W102" s="22"/>
+    </row>
+    <row r="103" spans="1:24">
       <c r="A103" s="16">
         <v>99</v>
       </c>
       <c r="B103" s="16"/>
       <c r="C103" s="85" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E103" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F103" s="4">
         <v>43110</v>
@@ -34210,10 +34733,12 @@
       <c r="H103" s="19">
         <v>3</v>
       </c>
-      <c r="I103" s="19"/>
+      <c r="I103" s="19">
+        <v>2</v>
+      </c>
       <c r="J103" s="12">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K103" s="22">
         <v>3</v>
@@ -34242,18 +34767,23 @@
       <c r="S103" s="22">
         <v>3</v>
       </c>
-      <c r="T103" s="22"/>
-    </row>
-    <row r="104" spans="1:21">
+      <c r="T103" s="22">
+        <v>0</v>
+      </c>
+      <c r="U103" s="22"/>
+      <c r="V103" s="22"/>
+      <c r="W103" s="22"/>
+    </row>
+    <row r="104" spans="1:24">
       <c r="A104" s="16">
         <v>100</v>
       </c>
       <c r="B104" s="16"/>
       <c r="C104" s="85" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E104" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34301,17 +34831,20 @@
       </c>
       <c r="S104" s="22"/>
       <c r="T104" s="22"/>
-    </row>
-    <row r="105" spans="1:21" ht="14.25" customHeight="1">
+      <c r="U104" s="22"/>
+      <c r="V104" s="22"/>
+      <c r="W104" s="22"/>
+    </row>
+    <row r="105" spans="1:24" ht="14.25" customHeight="1">
       <c r="A105" s="16">
         <v>101</v>
       </c>
       <c r="B105" s="16"/>
       <c r="C105" s="85" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E105" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34330,7 +34863,7 @@
         <v>1</v>
       </c>
       <c r="J105" s="12">
-        <f t="shared" ref="J105:J168" ca="1" si="19">IF(ISBLANK(K105)=FALSE,OFFSET(J105,0,COUNTA(K105:T105)),"")</f>
+        <f t="shared" ref="J105:J168" ca="1" si="19">IF(ISBLANK(K105)=FALSE,OFFSET(J105,0,COUNTA(K105:W105)),"")</f>
         <v>3</v>
       </c>
       <c r="K105" s="22">
@@ -34361,8 +34894,11 @@
         <v>3</v>
       </c>
       <c r="T105" s="22"/>
-    </row>
-    <row r="106" spans="1:21">
+      <c r="U105" s="22"/>
+      <c r="V105" s="22"/>
+      <c r="W105" s="22"/>
+    </row>
+    <row r="106" spans="1:24">
       <c r="A106" s="16">
         <v>102</v>
       </c>
@@ -34391,17 +34927,20 @@
       <c r="R106" s="22"/>
       <c r="S106" s="22"/>
       <c r="T106" s="22"/>
-    </row>
-    <row r="107" spans="1:21">
+      <c r="U106" s="22"/>
+      <c r="V106" s="22"/>
+      <c r="W106" s="22"/>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" s="16">
         <v>103</v>
       </c>
       <c r="B107" s="16"/>
       <c r="C107" s="85" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E107" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34449,9 +34988,12 @@
       </c>
       <c r="S107" s="22"/>
       <c r="T107" s="22"/>
-      <c r="U107" s="6"/>
-    </row>
-    <row r="108" spans="1:21">
+      <c r="U107" s="22"/>
+      <c r="V107" s="22"/>
+      <c r="W107" s="22"/>
+      <c r="X107" s="6"/>
+    </row>
+    <row r="108" spans="1:24">
       <c r="A108" s="16">
         <v>104</v>
       </c>
@@ -34480,18 +35022,21 @@
       <c r="R108" s="22"/>
       <c r="S108" s="22"/>
       <c r="T108" s="22"/>
-      <c r="U108" s="6"/>
-    </row>
-    <row r="109" spans="1:21">
+      <c r="U108" s="22"/>
+      <c r="V108" s="22"/>
+      <c r="W108" s="22"/>
+      <c r="X108" s="6"/>
+    </row>
+    <row r="109" spans="1:24">
       <c r="A109" s="16">
         <v>105</v>
       </c>
       <c r="B109" s="16"/>
       <c r="C109" s="85" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E109" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34539,9 +35084,12 @@
       </c>
       <c r="S109" s="22"/>
       <c r="T109" s="22"/>
-      <c r="U109" s="6"/>
-    </row>
-    <row r="110" spans="1:21">
+      <c r="U109" s="22"/>
+      <c r="V109" s="22"/>
+      <c r="W109" s="22"/>
+      <c r="X109" s="6"/>
+    </row>
+    <row r="110" spans="1:24">
       <c r="A110" s="16">
         <v>106</v>
       </c>
@@ -34570,120 +35118,210 @@
       <c r="R110" s="22"/>
       <c r="S110" s="22"/>
       <c r="T110" s="22"/>
-      <c r="U110" s="6"/>
-    </row>
-    <row r="111" spans="1:21">
+      <c r="U110" s="22"/>
+      <c r="V110" s="22"/>
+      <c r="W110" s="22"/>
+      <c r="X110" s="6"/>
+    </row>
+    <row r="111" spans="1:24">
       <c r="A111" s="16">
         <v>107</v>
       </c>
       <c r="B111" s="16"/>
       <c r="C111" s="85" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>115</v>
       </c>
       <c r="E111" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>完了</v>
       </c>
       <c r="F111" s="4">
         <v>43112</v>
       </c>
-      <c r="G111" s="4"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="12" t="str">
+      <c r="G111" s="4">
+        <v>43112</v>
+      </c>
+      <c r="H111" s="19">
+        <v>1</v>
+      </c>
+      <c r="I111" s="19">
+        <v>1</v>
+      </c>
+      <c r="J111" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="K111" s="22"/>
-      <c r="L111" s="22"/>
-      <c r="M111" s="22"/>
-      <c r="N111" s="125"/>
-      <c r="O111" s="124"/>
-      <c r="P111" s="123"/>
-      <c r="Q111" s="123"/>
-      <c r="R111" s="22"/>
-      <c r="S111" s="22"/>
-      <c r="T111" s="22"/>
-      <c r="U111" s="6"/>
-    </row>
-    <row r="112" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="K111" s="22">
+        <v>1</v>
+      </c>
+      <c r="L111" s="22">
+        <v>1</v>
+      </c>
+      <c r="M111" s="22">
+        <v>1</v>
+      </c>
+      <c r="N111" s="125">
+        <v>1</v>
+      </c>
+      <c r="O111" s="124">
+        <v>1</v>
+      </c>
+      <c r="P111" s="123">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="123">
+        <v>1</v>
+      </c>
+      <c r="R111" s="22">
+        <v>1</v>
+      </c>
+      <c r="S111" s="22">
+        <v>1</v>
+      </c>
+      <c r="T111" s="22">
+        <v>0</v>
+      </c>
+      <c r="U111" s="22"/>
+      <c r="V111" s="22"/>
+      <c r="W111" s="22"/>
+      <c r="X111" s="6"/>
+    </row>
+    <row r="112" spans="1:24">
       <c r="A112" s="16">
         <v>108</v>
       </c>
       <c r="B112" s="16"/>
       <c r="C112" s="85" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D112" s="18" t="s">
         <v>115</v>
       </c>
       <c r="E112" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>完了</v>
       </c>
       <c r="F112" s="4">
         <v>43112</v>
       </c>
-      <c r="G112" s="4"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="12" t="str">
+      <c r="G112" s="4">
+        <v>43112</v>
+      </c>
+      <c r="H112" s="19">
+        <v>1</v>
+      </c>
+      <c r="I112" s="19">
+        <v>1</v>
+      </c>
+      <c r="J112" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="K112" s="22"/>
-      <c r="L112" s="22"/>
-      <c r="M112" s="22"/>
-      <c r="N112" s="125"/>
-      <c r="O112" s="124"/>
-      <c r="P112" s="123"/>
-      <c r="Q112" s="123"/>
-      <c r="R112" s="22"/>
-      <c r="S112" s="22"/>
-      <c r="T112" s="22"/>
-      <c r="U112" s="6"/>
-    </row>
-    <row r="113" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="K112" s="22">
+        <v>1</v>
+      </c>
+      <c r="L112" s="22">
+        <v>1</v>
+      </c>
+      <c r="M112" s="22">
+        <v>1</v>
+      </c>
+      <c r="N112" s="125">
+        <v>1</v>
+      </c>
+      <c r="O112" s="124">
+        <v>1</v>
+      </c>
+      <c r="P112" s="123">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="123">
+        <v>1</v>
+      </c>
+      <c r="R112" s="22">
+        <v>1</v>
+      </c>
+      <c r="S112" s="22">
+        <v>1</v>
+      </c>
+      <c r="T112" s="22">
+        <v>0</v>
+      </c>
+      <c r="U112" s="22"/>
+      <c r="V112" s="22"/>
+      <c r="W112" s="22"/>
+      <c r="X112" s="6"/>
+    </row>
+    <row r="113" spans="1:24">
       <c r="A113" s="16">
         <v>109</v>
       </c>
       <c r="B113" s="16"/>
       <c r="C113" s="85" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D113" s="18" t="s">
         <v>115</v>
       </c>
       <c r="E113" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>完了</v>
       </c>
       <c r="F113" s="4">
         <v>43112</v>
       </c>
-      <c r="G113" s="4"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="12" t="str">
+      <c r="G113" s="4">
+        <v>43112</v>
+      </c>
+      <c r="H113" s="19">
+        <v>1</v>
+      </c>
+      <c r="I113" s="19">
+        <v>1</v>
+      </c>
+      <c r="J113" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="K113" s="22"/>
-      <c r="L113" s="22"/>
-      <c r="M113" s="22"/>
-      <c r="N113" s="125"/>
-      <c r="O113" s="124"/>
-      <c r="P113" s="123"/>
-      <c r="Q113" s="123"/>
-      <c r="R113" s="22"/>
-      <c r="S113" s="22"/>
-      <c r="T113" s="22"/>
-      <c r="U113" s="6"/>
-    </row>
-    <row r="114" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="K113" s="22">
+        <v>1</v>
+      </c>
+      <c r="L113" s="22">
+        <v>1</v>
+      </c>
+      <c r="M113" s="22">
+        <v>1</v>
+      </c>
+      <c r="N113" s="125">
+        <v>1</v>
+      </c>
+      <c r="O113" s="124">
+        <v>1</v>
+      </c>
+      <c r="P113" s="123">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="123">
+        <v>1</v>
+      </c>
+      <c r="R113" s="22">
+        <v>1</v>
+      </c>
+      <c r="S113" s="22">
+        <v>1</v>
+      </c>
+      <c r="T113" s="22">
+        <v>0</v>
+      </c>
+      <c r="U113" s="22"/>
+      <c r="V113" s="22"/>
+      <c r="W113" s="22"/>
+      <c r="X113" s="6"/>
+    </row>
+    <row r="114" spans="1:24">
       <c r="A114" s="16">
         <v>110</v>
       </c>
@@ -34712,46 +35350,78 @@
       <c r="R114" s="22"/>
       <c r="S114" s="22"/>
       <c r="T114" s="22"/>
-      <c r="U114" s="6"/>
-    </row>
-    <row r="115" spans="1:21">
+      <c r="U114" s="22"/>
+      <c r="V114" s="22"/>
+      <c r="W114" s="22"/>
+      <c r="X114" s="6"/>
+    </row>
+    <row r="115" spans="1:24">
       <c r="A115" s="16">
         <v>111</v>
       </c>
       <c r="B115" s="16"/>
       <c r="C115" s="85" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E115" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>完了</v>
       </c>
       <c r="F115" s="4">
         <v>43112</v>
       </c>
-      <c r="G115" s="4"/>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="12" t="str">
+      <c r="G115" s="4">
+        <v>43112</v>
+      </c>
+      <c r="H115" s="19">
+        <v>1</v>
+      </c>
+      <c r="I115" s="19">
+        <v>1</v>
+      </c>
+      <c r="J115" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="K115" s="22"/>
-      <c r="L115" s="22"/>
-      <c r="M115" s="22"/>
-      <c r="N115" s="125"/>
-      <c r="O115" s="124"/>
-      <c r="P115" s="123"/>
-      <c r="Q115" s="123"/>
-      <c r="R115" s="22"/>
-      <c r="S115" s="22"/>
-      <c r="T115" s="22"/>
-      <c r="U115" s="6"/>
-    </row>
-    <row r="116" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="K115" s="22">
+        <v>1</v>
+      </c>
+      <c r="L115" s="22">
+        <v>1</v>
+      </c>
+      <c r="M115" s="22">
+        <v>1</v>
+      </c>
+      <c r="N115" s="125">
+        <v>1</v>
+      </c>
+      <c r="O115" s="124">
+        <v>1</v>
+      </c>
+      <c r="P115" s="123">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="123">
+        <v>1</v>
+      </c>
+      <c r="R115" s="22">
+        <v>1</v>
+      </c>
+      <c r="S115" s="22">
+        <v>1</v>
+      </c>
+      <c r="T115" s="22">
+        <v>0</v>
+      </c>
+      <c r="U115" s="22"/>
+      <c r="V115" s="22"/>
+      <c r="W115" s="22"/>
+      <c r="X115" s="6"/>
+    </row>
+    <row r="116" spans="1:24">
       <c r="A116" s="16">
         <v>112</v>
       </c>
@@ -34780,18 +35450,21 @@
       <c r="R116" s="22"/>
       <c r="S116" s="22"/>
       <c r="T116" s="22"/>
-      <c r="U116" s="6"/>
-    </row>
-    <row r="117" spans="1:21">
+      <c r="U116" s="22"/>
+      <c r="V116" s="22"/>
+      <c r="W116" s="22"/>
+      <c r="X116" s="6"/>
+    </row>
+    <row r="117" spans="1:24">
       <c r="A117" s="16">
         <v>113</v>
       </c>
       <c r="B117" s="16"/>
       <c r="C117" s="85" t="s">
+        <v>476</v>
+      </c>
+      <c r="D117" s="18" t="s">
         <v>477</v>
-      </c>
-      <c r="D117" s="18" t="s">
-        <v>478</v>
       </c>
       <c r="E117" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34803,38 +35476,71 @@
       <c r="G117" s="4">
         <v>43112</v>
       </c>
-      <c r="H117" s="19"/>
+      <c r="H117" s="19">
+        <v>6</v>
+      </c>
       <c r="I117" s="19"/>
-      <c r="J117" s="12" t="str">
+      <c r="J117" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="K117" s="22"/>
-      <c r="L117" s="22"/>
-      <c r="M117" s="22"/>
-      <c r="N117" s="125"/>
-      <c r="O117" s="124"/>
-      <c r="P117" s="123"/>
-      <c r="Q117" s="123"/>
-      <c r="R117" s="22"/>
-      <c r="S117" s="22"/>
-      <c r="T117" s="22"/>
-      <c r="U117" s="6"/>
-    </row>
-    <row r="118" spans="1:21">
+        <v>6</v>
+      </c>
+      <c r="K117" s="22">
+        <v>6</v>
+      </c>
+      <c r="L117" s="22">
+        <v>6</v>
+      </c>
+      <c r="M117" s="22">
+        <v>6</v>
+      </c>
+      <c r="N117" s="125">
+        <v>6</v>
+      </c>
+      <c r="O117" s="124">
+        <v>6</v>
+      </c>
+      <c r="P117" s="123">
+        <v>6</v>
+      </c>
+      <c r="Q117" s="123">
+        <v>6</v>
+      </c>
+      <c r="R117" s="22">
+        <v>6</v>
+      </c>
+      <c r="S117" s="22">
+        <v>6</v>
+      </c>
+      <c r="T117" s="22">
+        <v>6</v>
+      </c>
+      <c r="U117" s="22"/>
+      <c r="V117" s="22"/>
+      <c r="W117" s="22"/>
+      <c r="X117" s="6"/>
+    </row>
+    <row r="118" spans="1:24">
       <c r="A118" s="16">
         <v>114</v>
       </c>
       <c r="B118" s="16"/>
-      <c r="C118" s="85"/>
-      <c r="D118" s="18"/>
+      <c r="C118" s="85" t="s">
+        <v>479</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="E118" s="12" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F118" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F118" s="4">
+        <v>43112</v>
+      </c>
       <c r="G118" s="4"/>
-      <c r="H118" s="19"/>
+      <c r="H118" s="19">
+        <v>3</v>
+      </c>
       <c r="I118" s="19"/>
       <c r="J118" s="12" t="str">
         <f t="shared" ca="1" si="19"/>
@@ -34850,71 +35556,140 @@
       <c r="R118" s="22"/>
       <c r="S118" s="22"/>
       <c r="T118" s="22"/>
-      <c r="U118" s="6"/>
-    </row>
-    <row r="119" spans="1:21">
+      <c r="U118" s="22"/>
+      <c r="V118" s="22"/>
+      <c r="W118" s="22"/>
+      <c r="X118" s="6"/>
+    </row>
+    <row r="119" spans="1:24">
       <c r="A119" s="16">
         <v>115</v>
       </c>
       <c r="B119" s="16"/>
-      <c r="C119" s="85"/>
-      <c r="D119" s="18"/>
+      <c r="C119" s="85" t="s">
+        <v>480</v>
+      </c>
+      <c r="D119" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="E119" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="12" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>完了</v>
+      </c>
+      <c r="F119" s="4">
+        <v>43112</v>
+      </c>
+      <c r="G119" s="4">
+        <v>43112</v>
+      </c>
+      <c r="H119" s="19">
+        <v>1</v>
+      </c>
+      <c r="I119" s="19">
+        <v>1</v>
+      </c>
+      <c r="J119" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="K119" s="22"/>
-      <c r="L119" s="22"/>
-      <c r="M119" s="22"/>
-      <c r="N119" s="125"/>
-      <c r="O119" s="124"/>
-      <c r="P119" s="123"/>
-      <c r="Q119" s="123"/>
-      <c r="R119" s="22"/>
-      <c r="S119" s="22"/>
-      <c r="T119" s="22"/>
-      <c r="U119" s="6"/>
-    </row>
-    <row r="120" spans="1:21">
+        <v>0</v>
+      </c>
+      <c r="K119" s="22">
+        <v>1</v>
+      </c>
+      <c r="L119" s="22">
+        <v>1</v>
+      </c>
+      <c r="M119" s="22">
+        <v>1</v>
+      </c>
+      <c r="N119" s="125">
+        <v>1</v>
+      </c>
+      <c r="O119" s="124">
+        <v>1</v>
+      </c>
+      <c r="P119" s="123">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="123">
+        <v>1</v>
+      </c>
+      <c r="R119" s="22">
+        <v>1</v>
+      </c>
+      <c r="S119" s="22">
+        <v>1</v>
+      </c>
+      <c r="T119" s="22">
+        <v>0</v>
+      </c>
+      <c r="U119" s="22"/>
+      <c r="V119" s="22"/>
+      <c r="W119" s="22"/>
+      <c r="X119" s="6"/>
+    </row>
+    <row r="120" spans="1:24">
       <c r="A120" s="16">
         <v>116</v>
       </c>
       <c r="B120" s="16"/>
-      <c r="C120" s="85"/>
-      <c r="D120" s="18"/>
+      <c r="C120" s="85" t="s">
+        <v>481</v>
+      </c>
+      <c r="D120" s="18" t="s">
+        <v>113</v>
+      </c>
       <c r="E120" s="12" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F120" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F120" s="4">
+        <v>43112</v>
+      </c>
       <c r="G120" s="4"/>
-      <c r="H120" s="19"/>
+      <c r="H120" s="19">
+        <v>3</v>
+      </c>
       <c r="I120" s="19"/>
-      <c r="J120" s="12" t="str">
+      <c r="J120" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="K120" s="22"/>
-      <c r="L120" s="22"/>
-      <c r="M120" s="22"/>
-      <c r="N120" s="125"/>
-      <c r="O120" s="124"/>
-      <c r="P120" s="123"/>
-      <c r="Q120" s="123"/>
-      <c r="R120" s="22"/>
-      <c r="S120" s="22"/>
-      <c r="T120" s="22"/>
-      <c r="U120" s="6"/>
-    </row>
-    <row r="121" spans="1:21">
+        <v>3</v>
+      </c>
+      <c r="K120" s="22">
+        <v>3</v>
+      </c>
+      <c r="L120" s="22">
+        <v>3</v>
+      </c>
+      <c r="M120" s="22">
+        <v>3</v>
+      </c>
+      <c r="N120" s="125">
+        <v>3</v>
+      </c>
+      <c r="O120" s="124">
+        <v>3</v>
+      </c>
+      <c r="P120" s="123">
+        <v>3</v>
+      </c>
+      <c r="Q120" s="123">
+        <v>3</v>
+      </c>
+      <c r="R120" s="22">
+        <v>3</v>
+      </c>
+      <c r="S120" s="22">
+        <v>3</v>
+      </c>
+      <c r="T120" s="22">
+        <v>3</v>
+      </c>
+      <c r="U120" s="22"/>
+      <c r="V120" s="22"/>
+      <c r="W120" s="22"/>
+      <c r="X120" s="6"/>
+    </row>
+    <row r="121" spans="1:24">
       <c r="A121" s="16">
         <v>117</v>
       </c>
@@ -34943,40 +35718,78 @@
       <c r="R121" s="22"/>
       <c r="S121" s="22"/>
       <c r="T121" s="22"/>
-      <c r="U121" s="6"/>
-    </row>
-    <row r="122" spans="1:21">
+      <c r="U121" s="22"/>
+      <c r="V121" s="22"/>
+      <c r="W121" s="22"/>
+      <c r="X121" s="6"/>
+    </row>
+    <row r="122" spans="1:24">
       <c r="A122" s="16">
         <v>118</v>
       </c>
       <c r="B122" s="16"/>
-      <c r="C122" s="85"/>
-      <c r="D122" s="18"/>
+      <c r="C122" s="85" t="s">
+        <v>486</v>
+      </c>
+      <c r="D122" s="18" t="s">
+        <v>112</v>
+      </c>
       <c r="E122" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="12" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v>作業中</v>
+      </c>
+      <c r="F122" s="4">
+        <v>43112</v>
+      </c>
+      <c r="G122" s="4">
+        <v>43112</v>
+      </c>
+      <c r="H122" s="19">
+        <v>4</v>
+      </c>
+      <c r="I122" s="19">
+        <v>2</v>
+      </c>
+      <c r="J122" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="K122" s="22"/>
-      <c r="L122" s="22"/>
-      <c r="M122" s="22"/>
-      <c r="N122" s="125"/>
-      <c r="O122" s="124"/>
-      <c r="P122" s="123"/>
-      <c r="Q122" s="123"/>
-      <c r="R122" s="22"/>
-      <c r="S122" s="22"/>
-      <c r="T122" s="22"/>
-      <c r="U122" s="6"/>
-    </row>
-    <row r="123" spans="1:21">
+        <v>2</v>
+      </c>
+      <c r="K122" s="22">
+        <v>4</v>
+      </c>
+      <c r="L122" s="22">
+        <v>4</v>
+      </c>
+      <c r="M122" s="22">
+        <v>4</v>
+      </c>
+      <c r="N122" s="125">
+        <v>4</v>
+      </c>
+      <c r="O122" s="124">
+        <v>4</v>
+      </c>
+      <c r="P122" s="123">
+        <v>4</v>
+      </c>
+      <c r="Q122" s="123">
+        <v>4</v>
+      </c>
+      <c r="R122" s="22">
+        <v>4</v>
+      </c>
+      <c r="S122" s="22">
+        <v>4</v>
+      </c>
+      <c r="T122" s="22">
+        <v>2</v>
+      </c>
+      <c r="U122" s="22"/>
+      <c r="V122" s="22"/>
+      <c r="W122" s="22"/>
+      <c r="X122" s="6"/>
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123" s="16">
         <v>119</v>
       </c>
@@ -35005,145 +35818,274 @@
       <c r="R123" s="22"/>
       <c r="S123" s="22"/>
       <c r="T123" s="22"/>
-      <c r="U123" s="6"/>
-    </row>
-    <row r="124" spans="1:21">
+      <c r="U123" s="22"/>
+      <c r="V123" s="22"/>
+      <c r="W123" s="22"/>
+      <c r="X123" s="6"/>
+    </row>
+    <row r="124" spans="1:24">
       <c r="A124" s="16">
         <v>120</v>
       </c>
       <c r="B124" s="16"/>
-      <c r="C124" s="85"/>
-      <c r="D124" s="18"/>
+      <c r="C124" s="85" t="s">
+        <v>487</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="E124" s="12" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F124" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F124" s="4">
+        <v>43112</v>
+      </c>
       <c r="G124" s="4"/>
-      <c r="H124" s="19"/>
+      <c r="H124" s="19">
+        <v>2</v>
+      </c>
       <c r="I124" s="19"/>
-      <c r="J124" s="12" t="str">
+      <c r="J124" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="K124" s="22"/>
-      <c r="L124" s="22"/>
-      <c r="M124" s="22"/>
-      <c r="N124" s="125"/>
-      <c r="O124" s="124"/>
-      <c r="P124" s="123"/>
-      <c r="Q124" s="123"/>
-      <c r="R124" s="22"/>
-      <c r="S124" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K124" s="22">
+        <v>2</v>
+      </c>
+      <c r="L124" s="22">
+        <v>2</v>
+      </c>
+      <c r="M124" s="22">
+        <v>2</v>
+      </c>
+      <c r="N124" s="125">
+        <v>2</v>
+      </c>
+      <c r="O124" s="124">
+        <v>2</v>
+      </c>
+      <c r="P124" s="123">
+        <v>2</v>
+      </c>
+      <c r="Q124" s="123">
+        <v>2</v>
+      </c>
+      <c r="R124" s="22">
+        <v>2</v>
+      </c>
+      <c r="S124" s="22">
+        <v>2</v>
+      </c>
       <c r="T124" s="22"/>
-      <c r="U124" s="6"/>
-    </row>
-    <row r="125" spans="1:21">
+      <c r="U124" s="22"/>
+      <c r="V124" s="22"/>
+      <c r="W124" s="22"/>
+      <c r="X124" s="6"/>
+    </row>
+    <row r="125" spans="1:24">
       <c r="A125" s="16">
         <v>121</v>
       </c>
       <c r="B125" s="16"/>
-      <c r="C125" s="85"/>
-      <c r="D125" s="18"/>
+      <c r="C125" s="85" t="s">
+        <v>488</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="E125" s="12" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F125" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F125" s="4">
+        <v>43112</v>
+      </c>
       <c r="G125" s="4"/>
-      <c r="H125" s="19"/>
+      <c r="H125" s="19">
+        <v>2</v>
+      </c>
       <c r="I125" s="19"/>
-      <c r="J125" s="12" t="str">
+      <c r="J125" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="K125" s="22"/>
-      <c r="L125" s="22"/>
-      <c r="M125" s="22"/>
-      <c r="N125" s="125"/>
-      <c r="O125" s="124"/>
-      <c r="P125" s="123"/>
-      <c r="Q125" s="123"/>
-      <c r="R125" s="22"/>
-      <c r="S125" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K125" s="22">
+        <v>2</v>
+      </c>
+      <c r="L125" s="22">
+        <v>2</v>
+      </c>
+      <c r="M125" s="22">
+        <v>2</v>
+      </c>
+      <c r="N125" s="125">
+        <v>2</v>
+      </c>
+      <c r="O125" s="124">
+        <v>2</v>
+      </c>
+      <c r="P125" s="123">
+        <v>2</v>
+      </c>
+      <c r="Q125" s="123">
+        <v>2</v>
+      </c>
+      <c r="R125" s="22">
+        <v>2</v>
+      </c>
+      <c r="S125" s="22">
+        <v>2</v>
+      </c>
       <c r="T125" s="22"/>
-      <c r="U125" s="6"/>
-    </row>
-    <row r="126" spans="1:21">
+      <c r="U125" s="22"/>
+      <c r="V125" s="22"/>
+      <c r="W125" s="22"/>
+      <c r="X125" s="6"/>
+    </row>
+    <row r="126" spans="1:24">
       <c r="A126" s="16">
         <v>122</v>
       </c>
       <c r="B126" s="16"/>
-      <c r="C126" s="85"/>
-      <c r="D126" s="18"/>
+      <c r="C126" s="85" t="s">
+        <v>494</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="E126" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="19"/>
+        <f t="shared" ca="1" si="18"/>
+        <v>作業中</v>
+      </c>
+      <c r="F126" s="4">
+        <v>43112</v>
+      </c>
+      <c r="G126" s="4">
+        <v>43112</v>
+      </c>
+      <c r="H126" s="19">
+        <v>2</v>
+      </c>
       <c r="I126" s="19"/>
-      <c r="J126" s="12" t="str">
+      <c r="J126" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="K126" s="22"/>
-      <c r="L126" s="22"/>
-      <c r="M126" s="22"/>
-      <c r="N126" s="125"/>
-      <c r="O126" s="124"/>
-      <c r="P126" s="123"/>
-      <c r="Q126" s="123"/>
-      <c r="R126" s="22"/>
-      <c r="S126" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K126" s="22">
+        <v>2</v>
+      </c>
+      <c r="L126" s="22">
+        <v>2</v>
+      </c>
+      <c r="M126" s="22">
+        <v>2</v>
+      </c>
+      <c r="N126" s="125">
+        <v>2</v>
+      </c>
+      <c r="O126" s="124">
+        <v>2</v>
+      </c>
+      <c r="P126" s="123">
+        <v>2</v>
+      </c>
+      <c r="Q126" s="123">
+        <v>2</v>
+      </c>
+      <c r="R126" s="22">
+        <v>2</v>
+      </c>
+      <c r="S126" s="22">
+        <v>2</v>
+      </c>
       <c r="T126" s="22"/>
-      <c r="U126" s="6"/>
-    </row>
-    <row r="127" spans="1:21">
+      <c r="U126" s="22"/>
+      <c r="V126" s="22"/>
+      <c r="W126" s="22"/>
+      <c r="X126" s="6"/>
+    </row>
+    <row r="127" spans="1:24">
       <c r="A127" s="16">
         <v>123</v>
       </c>
       <c r="B127" s="16"/>
-      <c r="C127" s="85"/>
-      <c r="D127" s="18"/>
+      <c r="C127" s="85" t="s">
+        <v>495</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>124</v>
+      </c>
       <c r="E127" s="12" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F127" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F127" s="4">
+        <v>43112</v>
+      </c>
       <c r="G127" s="4"/>
-      <c r="H127" s="19"/>
+      <c r="H127" s="19">
+        <v>1</v>
+      </c>
       <c r="I127" s="19"/>
-      <c r="J127" s="12" t="str">
+      <c r="J127" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="K127" s="22"/>
-      <c r="L127" s="22"/>
-      <c r="M127" s="22"/>
-      <c r="N127" s="125"/>
-      <c r="O127" s="124"/>
-      <c r="P127" s="123"/>
-      <c r="Q127" s="123"/>
-      <c r="R127" s="22"/>
-      <c r="S127" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K127" s="22">
+        <v>1</v>
+      </c>
+      <c r="L127" s="22">
+        <v>1</v>
+      </c>
+      <c r="M127" s="22">
+        <v>1</v>
+      </c>
+      <c r="N127" s="125">
+        <v>1</v>
+      </c>
+      <c r="O127" s="124">
+        <v>1</v>
+      </c>
+      <c r="P127" s="123">
+        <v>1</v>
+      </c>
+      <c r="Q127" s="123">
+        <v>1</v>
+      </c>
+      <c r="R127" s="22">
+        <v>1</v>
+      </c>
+      <c r="S127" s="22">
+        <v>1</v>
+      </c>
       <c r="T127" s="22"/>
-      <c r="U127" s="6"/>
-    </row>
-    <row r="128" spans="1:21">
+      <c r="U127" s="22"/>
+      <c r="V127" s="22"/>
+      <c r="W127" s="22"/>
+      <c r="X127" s="6"/>
+    </row>
+    <row r="128" spans="1:24">
       <c r="A128" s="16">
         <v>124</v>
       </c>
       <c r="B128" s="16"/>
-      <c r="C128" s="85"/>
-      <c r="D128" s="18"/>
+      <c r="C128" s="85" t="s">
+        <v>493</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>492</v>
+      </c>
       <c r="E128" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
+        <f t="shared" ca="1" si="18"/>
+        <v>作業中</v>
+      </c>
+      <c r="F128" s="4">
+        <v>43112</v>
+      </c>
+      <c r="G128" s="4">
+        <v>43112</v>
+      </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
       <c r="J128" s="12" t="str">
@@ -35160,20 +36102,29 @@
       <c r="R128" s="22"/>
       <c r="S128" s="22"/>
       <c r="T128" s="22"/>
-      <c r="U128" s="6"/>
-    </row>
-    <row r="129" spans="1:21">
+      <c r="U128" s="22"/>
+      <c r="V128" s="22"/>
+      <c r="W128" s="22"/>
+      <c r="X128" s="6"/>
+    </row>
+    <row r="129" spans="1:24">
       <c r="A129" s="16">
         <v>125</v>
       </c>
       <c r="B129" s="16"/>
-      <c r="C129" s="85"/>
-      <c r="D129" s="18"/>
+      <c r="C129" s="85" t="s">
+        <v>489</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>492</v>
+      </c>
       <c r="E129" s="12" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F129" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F129" s="4">
+        <v>43113</v>
+      </c>
       <c r="G129" s="4"/>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
@@ -35191,20 +36142,29 @@
       <c r="R129" s="22"/>
       <c r="S129" s="22"/>
       <c r="T129" s="22"/>
-      <c r="U129" s="6"/>
-    </row>
-    <row r="130" spans="1:21">
+      <c r="U129" s="22"/>
+      <c r="V129" s="22"/>
+      <c r="W129" s="22"/>
+      <c r="X129" s="6"/>
+    </row>
+    <row r="130" spans="1:24">
       <c r="A130" s="16">
         <v>126</v>
       </c>
       <c r="B130" s="16"/>
-      <c r="C130" s="85"/>
-      <c r="D130" s="18"/>
+      <c r="C130" s="85" t="s">
+        <v>491</v>
+      </c>
+      <c r="D130" s="18" t="s">
+        <v>492</v>
+      </c>
       <c r="E130" s="12" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F130" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F130" s="4">
+        <v>43114</v>
+      </c>
       <c r="G130" s="4"/>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
@@ -35222,20 +36182,29 @@
       <c r="R130" s="22"/>
       <c r="S130" s="22"/>
       <c r="T130" s="22"/>
-      <c r="U130" s="6"/>
-    </row>
-    <row r="131" spans="1:21">
+      <c r="U130" s="22"/>
+      <c r="V130" s="22"/>
+      <c r="W130" s="22"/>
+      <c r="X130" s="6"/>
+    </row>
+    <row r="131" spans="1:24">
       <c r="A131" s="16">
         <v>127</v>
       </c>
       <c r="B131" s="16"/>
-      <c r="C131" s="85"/>
-      <c r="D131" s="18"/>
+      <c r="C131" s="85" t="s">
+        <v>490</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>492</v>
+      </c>
       <c r="E131" s="12" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="F131" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F131" s="4">
+        <v>43115</v>
+      </c>
       <c r="G131" s="4"/>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -35253,9 +36222,12 @@
       <c r="R131" s="22"/>
       <c r="S131" s="22"/>
       <c r="T131" s="22"/>
-      <c r="U131" s="6"/>
-    </row>
-    <row r="132" spans="1:21">
+      <c r="U131" s="22"/>
+      <c r="V131" s="22"/>
+      <c r="W131" s="22"/>
+      <c r="X131" s="6"/>
+    </row>
+    <row r="132" spans="1:24">
       <c r="A132" s="16">
         <v>128</v>
       </c>
@@ -35284,9 +36256,12 @@
       <c r="R132" s="22"/>
       <c r="S132" s="22"/>
       <c r="T132" s="22"/>
-      <c r="U132" s="6"/>
-    </row>
-    <row r="133" spans="1:21">
+      <c r="U132" s="22"/>
+      <c r="V132" s="22"/>
+      <c r="W132" s="22"/>
+      <c r="X132" s="6"/>
+    </row>
+    <row r="133" spans="1:24">
       <c r="A133" s="16">
         <v>129</v>
       </c>
@@ -35315,9 +36290,12 @@
       <c r="R133" s="22"/>
       <c r="S133" s="22"/>
       <c r="T133" s="22"/>
-      <c r="U133" s="6"/>
-    </row>
-    <row r="134" spans="1:21">
+      <c r="U133" s="22"/>
+      <c r="V133" s="22"/>
+      <c r="W133" s="22"/>
+      <c r="X133" s="6"/>
+    </row>
+    <row r="134" spans="1:24">
       <c r="A134" s="16">
         <v>130</v>
       </c>
@@ -35346,9 +36324,12 @@
       <c r="R134" s="22"/>
       <c r="S134" s="22"/>
       <c r="T134" s="22"/>
-      <c r="U134" s="6"/>
-    </row>
-    <row r="135" spans="1:21">
+      <c r="U134" s="22"/>
+      <c r="V134" s="22"/>
+      <c r="W134" s="22"/>
+      <c r="X134" s="6"/>
+    </row>
+    <row r="135" spans="1:24">
       <c r="A135" s="16">
         <v>131</v>
       </c>
@@ -35377,9 +36358,12 @@
       <c r="R135" s="22"/>
       <c r="S135" s="22"/>
       <c r="T135" s="22"/>
-      <c r="U135" s="6"/>
-    </row>
-    <row r="136" spans="1:21">
+      <c r="U135" s="22"/>
+      <c r="V135" s="22"/>
+      <c r="W135" s="22"/>
+      <c r="X135" s="6"/>
+    </row>
+    <row r="136" spans="1:24">
       <c r="A136" s="16">
         <v>132</v>
       </c>
@@ -35408,9 +36392,12 @@
       <c r="R136" s="22"/>
       <c r="S136" s="22"/>
       <c r="T136" s="22"/>
-      <c r="U136" s="6"/>
-    </row>
-    <row r="137" spans="1:21">
+      <c r="U136" s="22"/>
+      <c r="V136" s="22"/>
+      <c r="W136" s="22"/>
+      <c r="X136" s="6"/>
+    </row>
+    <row r="137" spans="1:24">
       <c r="A137" s="16">
         <v>133</v>
       </c>
@@ -35439,9 +36426,12 @@
       <c r="R137" s="22"/>
       <c r="S137" s="22"/>
       <c r="T137" s="22"/>
-      <c r="U137" s="6"/>
-    </row>
-    <row r="138" spans="1:21">
+      <c r="U137" s="22"/>
+      <c r="V137" s="22"/>
+      <c r="W137" s="22"/>
+      <c r="X137" s="6"/>
+    </row>
+    <row r="138" spans="1:24">
       <c r="A138" s="16">
         <v>134</v>
       </c>
@@ -35470,9 +36460,12 @@
       <c r="R138" s="22"/>
       <c r="S138" s="22"/>
       <c r="T138" s="22"/>
-      <c r="U138" s="6"/>
-    </row>
-    <row r="139" spans="1:21">
+      <c r="U138" s="22"/>
+      <c r="V138" s="22"/>
+      <c r="W138" s="22"/>
+      <c r="X138" s="6"/>
+    </row>
+    <row r="139" spans="1:24">
       <c r="A139" s="16">
         <v>135</v>
       </c>
@@ -35501,9 +36494,12 @@
       <c r="R139" s="22"/>
       <c r="S139" s="22"/>
       <c r="T139" s="22"/>
-      <c r="U139" s="6"/>
-    </row>
-    <row r="140" spans="1:21">
+      <c r="U139" s="22"/>
+      <c r="V139" s="22"/>
+      <c r="W139" s="22"/>
+      <c r="X139" s="6"/>
+    </row>
+    <row r="140" spans="1:24">
       <c r="A140" s="16">
         <v>136</v>
       </c>
@@ -35532,9 +36528,12 @@
       <c r="R140" s="22"/>
       <c r="S140" s="22"/>
       <c r="T140" s="22"/>
-      <c r="U140" s="6"/>
-    </row>
-    <row r="141" spans="1:21">
+      <c r="U140" s="22"/>
+      <c r="V140" s="22"/>
+      <c r="W140" s="22"/>
+      <c r="X140" s="6"/>
+    </row>
+    <row r="141" spans="1:24">
       <c r="A141" s="16">
         <v>137</v>
       </c>
@@ -35563,9 +36562,12 @@
       <c r="R141" s="22"/>
       <c r="S141" s="22"/>
       <c r="T141" s="22"/>
-      <c r="U141" s="6"/>
-    </row>
-    <row r="142" spans="1:21">
+      <c r="U141" s="22"/>
+      <c r="V141" s="22"/>
+      <c r="W141" s="22"/>
+      <c r="X141" s="6"/>
+    </row>
+    <row r="142" spans="1:24">
       <c r="A142" s="16">
         <v>138</v>
       </c>
@@ -35594,9 +36596,12 @@
       <c r="R142" s="22"/>
       <c r="S142" s="22"/>
       <c r="T142" s="22"/>
-      <c r="U142" s="6"/>
-    </row>
-    <row r="143" spans="1:21">
+      <c r="U142" s="22"/>
+      <c r="V142" s="22"/>
+      <c r="W142" s="22"/>
+      <c r="X142" s="6"/>
+    </row>
+    <row r="143" spans="1:24">
       <c r="A143" s="16">
         <v>139</v>
       </c>
@@ -35625,9 +36630,12 @@
       <c r="R143" s="22"/>
       <c r="S143" s="22"/>
       <c r="T143" s="22"/>
-      <c r="U143" s="6"/>
-    </row>
-    <row r="144" spans="1:21">
+      <c r="U143" s="22"/>
+      <c r="V143" s="22"/>
+      <c r="W143" s="22"/>
+      <c r="X143" s="6"/>
+    </row>
+    <row r="144" spans="1:24">
       <c r="A144" s="16">
         <v>140</v>
       </c>
@@ -35656,9 +36664,12 @@
       <c r="R144" s="22"/>
       <c r="S144" s="22"/>
       <c r="T144" s="22"/>
-      <c r="U144" s="6"/>
-    </row>
-    <row r="145" spans="1:21">
+      <c r="U144" s="22"/>
+      <c r="V144" s="22"/>
+      <c r="W144" s="22"/>
+      <c r="X144" s="6"/>
+    </row>
+    <row r="145" spans="1:24">
       <c r="A145" s="16">
         <v>141</v>
       </c>
@@ -35687,9 +36698,12 @@
       <c r="R145" s="22"/>
       <c r="S145" s="22"/>
       <c r="T145" s="22"/>
-      <c r="U145" s="6"/>
-    </row>
-    <row r="146" spans="1:21">
+      <c r="U145" s="22"/>
+      <c r="V145" s="22"/>
+      <c r="W145" s="22"/>
+      <c r="X145" s="6"/>
+    </row>
+    <row r="146" spans="1:24">
       <c r="A146" s="16">
         <v>142</v>
       </c>
@@ -35718,9 +36732,12 @@
       <c r="R146" s="22"/>
       <c r="S146" s="22"/>
       <c r="T146" s="22"/>
-      <c r="U146" s="6"/>
-    </row>
-    <row r="147" spans="1:21">
+      <c r="U146" s="22"/>
+      <c r="V146" s="22"/>
+      <c r="W146" s="22"/>
+      <c r="X146" s="6"/>
+    </row>
+    <row r="147" spans="1:24">
       <c r="A147" s="16">
         <v>143</v>
       </c>
@@ -35749,9 +36766,12 @@
       <c r="R147" s="22"/>
       <c r="S147" s="22"/>
       <c r="T147" s="22"/>
-      <c r="U147" s="6"/>
-    </row>
-    <row r="148" spans="1:21">
+      <c r="U147" s="22"/>
+      <c r="V147" s="22"/>
+      <c r="W147" s="22"/>
+      <c r="X147" s="6"/>
+    </row>
+    <row r="148" spans="1:24">
       <c r="A148" s="16">
         <v>144</v>
       </c>
@@ -35780,9 +36800,12 @@
       <c r="R148" s="22"/>
       <c r="S148" s="22"/>
       <c r="T148" s="22"/>
-      <c r="U148" s="6"/>
-    </row>
-    <row r="149" spans="1:21">
+      <c r="U148" s="22"/>
+      <c r="V148" s="22"/>
+      <c r="W148" s="22"/>
+      <c r="X148" s="6"/>
+    </row>
+    <row r="149" spans="1:24">
       <c r="A149" s="16">
         <v>145</v>
       </c>
@@ -35811,9 +36834,12 @@
       <c r="R149" s="22"/>
       <c r="S149" s="22"/>
       <c r="T149" s="22"/>
-      <c r="U149" s="6"/>
-    </row>
-    <row r="150" spans="1:21">
+      <c r="U149" s="22"/>
+      <c r="V149" s="22"/>
+      <c r="W149" s="22"/>
+      <c r="X149" s="6"/>
+    </row>
+    <row r="150" spans="1:24">
       <c r="A150" s="16">
         <v>146</v>
       </c>
@@ -35842,9 +36868,12 @@
       <c r="R150" s="22"/>
       <c r="S150" s="22"/>
       <c r="T150" s="22"/>
-      <c r="U150" s="6"/>
-    </row>
-    <row r="151" spans="1:21">
+      <c r="U150" s="22"/>
+      <c r="V150" s="22"/>
+      <c r="W150" s="22"/>
+      <c r="X150" s="6"/>
+    </row>
+    <row r="151" spans="1:24">
       <c r="A151" s="16">
         <v>147</v>
       </c>
@@ -35873,9 +36902,12 @@
       <c r="R151" s="22"/>
       <c r="S151" s="22"/>
       <c r="T151" s="22"/>
-      <c r="U151" s="6"/>
-    </row>
-    <row r="152" spans="1:21">
+      <c r="U151" s="22"/>
+      <c r="V151" s="22"/>
+      <c r="W151" s="22"/>
+      <c r="X151" s="6"/>
+    </row>
+    <row r="152" spans="1:24">
       <c r="A152" s="16">
         <v>148</v>
       </c>
@@ -35904,9 +36936,12 @@
       <c r="R152" s="22"/>
       <c r="S152" s="22"/>
       <c r="T152" s="22"/>
-      <c r="U152" s="6"/>
-    </row>
-    <row r="153" spans="1:21">
+      <c r="U152" s="22"/>
+      <c r="V152" s="22"/>
+      <c r="W152" s="22"/>
+      <c r="X152" s="6"/>
+    </row>
+    <row r="153" spans="1:24">
       <c r="A153" s="16">
         <v>149</v>
       </c>
@@ -35935,9 +36970,12 @@
       <c r="R153" s="22"/>
       <c r="S153" s="22"/>
       <c r="T153" s="22"/>
-      <c r="U153" s="6"/>
-    </row>
-    <row r="154" spans="1:21">
+      <c r="U153" s="22"/>
+      <c r="V153" s="22"/>
+      <c r="W153" s="22"/>
+      <c r="X153" s="6"/>
+    </row>
+    <row r="154" spans="1:24">
       <c r="A154" s="16">
         <v>150</v>
       </c>
@@ -35966,9 +37004,12 @@
       <c r="R154" s="22"/>
       <c r="S154" s="22"/>
       <c r="T154" s="22"/>
-      <c r="U154" s="6"/>
-    </row>
-    <row r="155" spans="1:21">
+      <c r="U154" s="22"/>
+      <c r="V154" s="22"/>
+      <c r="W154" s="22"/>
+      <c r="X154" s="6"/>
+    </row>
+    <row r="155" spans="1:24">
       <c r="A155" s="16">
         <v>151</v>
       </c>
@@ -35997,9 +37038,12 @@
       <c r="R155" s="22"/>
       <c r="S155" s="22"/>
       <c r="T155" s="22"/>
-      <c r="U155" s="6"/>
-    </row>
-    <row r="156" spans="1:21">
+      <c r="U155" s="22"/>
+      <c r="V155" s="22"/>
+      <c r="W155" s="22"/>
+      <c r="X155" s="6"/>
+    </row>
+    <row r="156" spans="1:24">
       <c r="A156" s="16">
         <v>152</v>
       </c>
@@ -36028,9 +37072,12 @@
       <c r="R156" s="22"/>
       <c r="S156" s="22"/>
       <c r="T156" s="22"/>
-      <c r="U156" s="6"/>
-    </row>
-    <row r="157" spans="1:21">
+      <c r="U156" s="22"/>
+      <c r="V156" s="22"/>
+      <c r="W156" s="22"/>
+      <c r="X156" s="6"/>
+    </row>
+    <row r="157" spans="1:24">
       <c r="A157" s="16">
         <v>153</v>
       </c>
@@ -36059,9 +37106,12 @@
       <c r="R157" s="22"/>
       <c r="S157" s="22"/>
       <c r="T157" s="22"/>
-      <c r="U157" s="6"/>
-    </row>
-    <row r="158" spans="1:21">
+      <c r="U157" s="22"/>
+      <c r="V157" s="22"/>
+      <c r="W157" s="22"/>
+      <c r="X157" s="6"/>
+    </row>
+    <row r="158" spans="1:24">
       <c r="A158" s="16">
         <v>154</v>
       </c>
@@ -36090,9 +37140,12 @@
       <c r="R158" s="22"/>
       <c r="S158" s="22"/>
       <c r="T158" s="22"/>
-      <c r="U158" s="6"/>
-    </row>
-    <row r="159" spans="1:21">
+      <c r="U158" s="22"/>
+      <c r="V158" s="22"/>
+      <c r="W158" s="22"/>
+      <c r="X158" s="6"/>
+    </row>
+    <row r="159" spans="1:24">
       <c r="A159" s="16">
         <v>155</v>
       </c>
@@ -36121,9 +37174,12 @@
       <c r="R159" s="22"/>
       <c r="S159" s="22"/>
       <c r="T159" s="22"/>
-      <c r="U159" s="6"/>
-    </row>
-    <row r="160" spans="1:21">
+      <c r="U159" s="22"/>
+      <c r="V159" s="22"/>
+      <c r="W159" s="22"/>
+      <c r="X159" s="6"/>
+    </row>
+    <row r="160" spans="1:24">
       <c r="A160" s="16">
         <v>156</v>
       </c>
@@ -36152,9 +37208,12 @@
       <c r="R160" s="22"/>
       <c r="S160" s="22"/>
       <c r="T160" s="22"/>
-      <c r="U160" s="6"/>
-    </row>
-    <row r="161" spans="1:21">
+      <c r="U160" s="22"/>
+      <c r="V160" s="22"/>
+      <c r="W160" s="22"/>
+      <c r="X160" s="6"/>
+    </row>
+    <row r="161" spans="1:24">
       <c r="A161" s="16">
         <v>157</v>
       </c>
@@ -36183,9 +37242,12 @@
       <c r="R161" s="22"/>
       <c r="S161" s="22"/>
       <c r="T161" s="22"/>
-      <c r="U161" s="6"/>
-    </row>
-    <row r="162" spans="1:21">
+      <c r="U161" s="22"/>
+      <c r="V161" s="22"/>
+      <c r="W161" s="22"/>
+      <c r="X161" s="6"/>
+    </row>
+    <row r="162" spans="1:24">
       <c r="A162" s="16">
         <v>158</v>
       </c>
@@ -36214,9 +37276,12 @@
       <c r="R162" s="22"/>
       <c r="S162" s="22"/>
       <c r="T162" s="22"/>
-      <c r="U162" s="6"/>
-    </row>
-    <row r="163" spans="1:21">
+      <c r="U162" s="22"/>
+      <c r="V162" s="22"/>
+      <c r="W162" s="22"/>
+      <c r="X162" s="6"/>
+    </row>
+    <row r="163" spans="1:24">
       <c r="A163" s="16">
         <v>159</v>
       </c>
@@ -36245,9 +37310,12 @@
       <c r="R163" s="22"/>
       <c r="S163" s="22"/>
       <c r="T163" s="22"/>
-      <c r="U163" s="6"/>
-    </row>
-    <row r="164" spans="1:21">
+      <c r="U163" s="22"/>
+      <c r="V163" s="22"/>
+      <c r="W163" s="22"/>
+      <c r="X163" s="6"/>
+    </row>
+    <row r="164" spans="1:24">
       <c r="A164" s="16">
         <v>160</v>
       </c>
@@ -36276,9 +37344,12 @@
       <c r="R164" s="22"/>
       <c r="S164" s="22"/>
       <c r="T164" s="22"/>
-      <c r="U164" s="6"/>
-    </row>
-    <row r="165" spans="1:21">
+      <c r="U164" s="22"/>
+      <c r="V164" s="22"/>
+      <c r="W164" s="22"/>
+      <c r="X164" s="6"/>
+    </row>
+    <row r="165" spans="1:24">
       <c r="A165" s="16">
         <v>161</v>
       </c>
@@ -36307,9 +37378,12 @@
       <c r="R165" s="22"/>
       <c r="S165" s="22"/>
       <c r="T165" s="22"/>
-      <c r="U165" s="6"/>
-    </row>
-    <row r="166" spans="1:21">
+      <c r="U165" s="22"/>
+      <c r="V165" s="22"/>
+      <c r="W165" s="22"/>
+      <c r="X165" s="6"/>
+    </row>
+    <row r="166" spans="1:24">
       <c r="A166" s="16">
         <v>162</v>
       </c>
@@ -36338,9 +37412,12 @@
       <c r="R166" s="22"/>
       <c r="S166" s="22"/>
       <c r="T166" s="22"/>
-      <c r="U166" s="6"/>
-    </row>
-    <row r="167" spans="1:21">
+      <c r="U166" s="22"/>
+      <c r="V166" s="22"/>
+      <c r="W166" s="22"/>
+      <c r="X166" s="6"/>
+    </row>
+    <row r="167" spans="1:24">
       <c r="A167" s="16">
         <v>163</v>
       </c>
@@ -36369,9 +37446,12 @@
       <c r="R167" s="22"/>
       <c r="S167" s="22"/>
       <c r="T167" s="22"/>
-      <c r="U167" s="6"/>
-    </row>
-    <row r="168" spans="1:21">
+      <c r="U167" s="22"/>
+      <c r="V167" s="22"/>
+      <c r="W167" s="22"/>
+      <c r="X167" s="6"/>
+    </row>
+    <row r="168" spans="1:24">
       <c r="A168" s="16">
         <v>164</v>
       </c>
@@ -36400,9 +37480,12 @@
       <c r="R168" s="22"/>
       <c r="S168" s="22"/>
       <c r="T168" s="22"/>
-      <c r="U168" s="6"/>
-    </row>
-    <row r="169" spans="1:21">
+      <c r="U168" s="22"/>
+      <c r="V168" s="22"/>
+      <c r="W168" s="22"/>
+      <c r="X168" s="6"/>
+    </row>
+    <row r="169" spans="1:24">
       <c r="A169" s="16">
         <v>165</v>
       </c>
@@ -36418,7 +37501,7 @@
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
       <c r="J169" s="12" t="str">
-        <f t="shared" ref="J169:J175" ca="1" si="21">IF(ISBLANK(K169)=FALSE,OFFSET(J169,0,COUNTA(K169:T169)),"")</f>
+        <f t="shared" ref="J169:J175" ca="1" si="21">IF(ISBLANK(K169)=FALSE,OFFSET(J169,0,COUNTA(K169:W169)),"")</f>
         <v/>
       </c>
       <c r="K169" s="22"/>
@@ -36431,9 +37514,12 @@
       <c r="R169" s="22"/>
       <c r="S169" s="22"/>
       <c r="T169" s="22"/>
-      <c r="U169" s="6"/>
-    </row>
-    <row r="170" spans="1:21">
+      <c r="U169" s="22"/>
+      <c r="V169" s="22"/>
+      <c r="W169" s="22"/>
+      <c r="X169" s="6"/>
+    </row>
+    <row r="170" spans="1:24">
       <c r="A170" s="16">
         <v>166</v>
       </c>
@@ -36462,9 +37548,12 @@
       <c r="R170" s="22"/>
       <c r="S170" s="22"/>
       <c r="T170" s="22"/>
-      <c r="U170" s="6"/>
-    </row>
-    <row r="171" spans="1:21">
+      <c r="U170" s="22"/>
+      <c r="V170" s="22"/>
+      <c r="W170" s="22"/>
+      <c r="X170" s="6"/>
+    </row>
+    <row r="171" spans="1:24">
       <c r="A171" s="16">
         <v>167</v>
       </c>
@@ -36493,9 +37582,12 @@
       <c r="R171" s="22"/>
       <c r="S171" s="22"/>
       <c r="T171" s="22"/>
-      <c r="U171" s="6"/>
-    </row>
-    <row r="172" spans="1:21">
+      <c r="U171" s="22"/>
+      <c r="V171" s="22"/>
+      <c r="W171" s="22"/>
+      <c r="X171" s="6"/>
+    </row>
+    <row r="172" spans="1:24">
       <c r="A172" s="16">
         <v>168</v>
       </c>
@@ -36524,9 +37616,12 @@
       <c r="R172" s="22"/>
       <c r="S172" s="22"/>
       <c r="T172" s="22"/>
-      <c r="U172" s="6"/>
-    </row>
-    <row r="173" spans="1:21">
+      <c r="U172" s="22"/>
+      <c r="V172" s="22"/>
+      <c r="W172" s="22"/>
+      <c r="X172" s="6"/>
+    </row>
+    <row r="173" spans="1:24">
       <c r="A173" s="16">
         <v>169</v>
       </c>
@@ -36555,9 +37650,12 @@
       <c r="R173" s="22"/>
       <c r="S173" s="22"/>
       <c r="T173" s="22"/>
-      <c r="U173" s="6"/>
-    </row>
-    <row r="174" spans="1:21">
+      <c r="U173" s="22"/>
+      <c r="V173" s="22"/>
+      <c r="W173" s="22"/>
+      <c r="X173" s="6"/>
+    </row>
+    <row r="174" spans="1:24">
       <c r="A174" s="16">
         <v>170</v>
       </c>
@@ -36586,9 +37684,12 @@
       <c r="R174" s="22"/>
       <c r="S174" s="22"/>
       <c r="T174" s="22"/>
-      <c r="U174" s="6"/>
-    </row>
-    <row r="175" spans="1:21">
+      <c r="U174" s="22"/>
+      <c r="V174" s="22"/>
+      <c r="W174" s="22"/>
+      <c r="X174" s="6"/>
+    </row>
+    <row r="175" spans="1:24">
       <c r="A175" s="16">
         <v>171</v>
       </c>
@@ -36617,9 +37718,12 @@
       <c r="R175" s="22"/>
       <c r="S175" s="22"/>
       <c r="T175" s="22"/>
-      <c r="U175" s="6"/>
-    </row>
-    <row r="176" spans="1:21">
+      <c r="U175" s="22"/>
+      <c r="V175" s="22"/>
+      <c r="W175" s="22"/>
+      <c r="X175" s="6"/>
+    </row>
+    <row r="176" spans="1:24">
       <c r="K176" s="6"/>
       <c r="L176" s="6"/>
       <c r="M176" s="6"/>
@@ -36631,8 +37735,11 @@
       <c r="S176" s="6"/>
       <c r="T176" s="6"/>
       <c r="U176" s="6"/>
-    </row>
-    <row r="177" spans="11:21">
+      <c r="V176" s="6"/>
+      <c r="W176" s="6"/>
+      <c r="X176" s="6"/>
+    </row>
+    <row r="177" spans="11:24">
       <c r="K177" s="6"/>
       <c r="L177" s="6"/>
       <c r="M177" s="6"/>
@@ -36644,8 +37751,11 @@
       <c r="S177" s="6"/>
       <c r="T177" s="6"/>
       <c r="U177" s="6"/>
-    </row>
-    <row r="178" spans="11:21">
+      <c r="V177" s="6"/>
+      <c r="W177" s="6"/>
+      <c r="X177" s="6"/>
+    </row>
+    <row r="178" spans="11:24">
       <c r="K178" s="6"/>
       <c r="L178" s="6"/>
       <c r="M178" s="6"/>
@@ -36657,8 +37767,11 @@
       <c r="S178" s="6"/>
       <c r="T178" s="6"/>
       <c r="U178" s="6"/>
-    </row>
-    <row r="179" spans="11:21">
+      <c r="V178" s="6"/>
+      <c r="W178" s="6"/>
+      <c r="X178" s="6"/>
+    </row>
+    <row r="179" spans="11:24">
       <c r="K179" s="6"/>
       <c r="L179" s="6"/>
       <c r="M179" s="6"/>
@@ -36670,8 +37783,11 @@
       <c r="S179" s="6"/>
       <c r="T179" s="6"/>
       <c r="U179" s="6"/>
-    </row>
-    <row r="180" spans="11:21">
+      <c r="V179" s="6"/>
+      <c r="W179" s="6"/>
+      <c r="X179" s="6"/>
+    </row>
+    <row r="180" spans="11:24">
       <c r="K180" s="6"/>
       <c r="L180" s="6"/>
       <c r="M180" s="6"/>
@@ -36683,8 +37799,11 @@
       <c r="S180" s="6"/>
       <c r="T180" s="6"/>
       <c r="U180" s="6"/>
-    </row>
-    <row r="181" spans="11:21">
+      <c r="V180" s="6"/>
+      <c r="W180" s="6"/>
+      <c r="X180" s="6"/>
+    </row>
+    <row r="181" spans="11:24">
       <c r="K181" s="6"/>
       <c r="L181" s="6"/>
       <c r="M181" s="6"/>
@@ -36696,8 +37815,11 @@
       <c r="S181" s="6"/>
       <c r="T181" s="6"/>
       <c r="U181" s="6"/>
-    </row>
-    <row r="182" spans="11:21">
+      <c r="V181" s="6"/>
+      <c r="W181" s="6"/>
+      <c r="X181" s="6"/>
+    </row>
+    <row r="182" spans="11:24">
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
       <c r="M182" s="6"/>
@@ -36709,8 +37831,11 @@
       <c r="S182" s="6"/>
       <c r="T182" s="6"/>
       <c r="U182" s="6"/>
-    </row>
-    <row r="183" spans="11:21">
+      <c r="V182" s="6"/>
+      <c r="W182" s="6"/>
+      <c r="X182" s="6"/>
+    </row>
+    <row r="183" spans="11:24">
       <c r="K183" s="6"/>
       <c r="L183" s="6"/>
       <c r="M183" s="6"/>
@@ -36722,8 +37847,11 @@
       <c r="S183" s="6"/>
       <c r="T183" s="6"/>
       <c r="U183" s="6"/>
-    </row>
-    <row r="184" spans="11:21">
+      <c r="V183" s="6"/>
+      <c r="W183" s="6"/>
+      <c r="X183" s="6"/>
+    </row>
+    <row r="184" spans="11:24">
       <c r="K184" s="6"/>
       <c r="L184" s="6"/>
       <c r="M184" s="6"/>
@@ -36735,8 +37863,11 @@
       <c r="S184" s="6"/>
       <c r="T184" s="6"/>
       <c r="U184" s="6"/>
-    </row>
-    <row r="185" spans="11:21">
+      <c r="V184" s="6"/>
+      <c r="W184" s="6"/>
+      <c r="X184" s="6"/>
+    </row>
+    <row r="185" spans="11:24">
       <c r="K185" s="6"/>
       <c r="L185" s="6"/>
       <c r="M185" s="6"/>
@@ -36748,8 +37879,11 @@
       <c r="S185" s="6"/>
       <c r="T185" s="6"/>
       <c r="U185" s="6"/>
-    </row>
-    <row r="186" spans="11:21">
+      <c r="V185" s="6"/>
+      <c r="W185" s="6"/>
+      <c r="X185" s="6"/>
+    </row>
+    <row r="186" spans="11:24">
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
       <c r="M186" s="6"/>
@@ -36761,8 +37895,11 @@
       <c r="S186" s="6"/>
       <c r="T186" s="6"/>
       <c r="U186" s="6"/>
-    </row>
-    <row r="187" spans="11:21">
+      <c r="V186" s="6"/>
+      <c r="W186" s="6"/>
+      <c r="X186" s="6"/>
+    </row>
+    <row r="187" spans="11:24">
       <c r="K187" s="6"/>
       <c r="L187" s="6"/>
       <c r="M187" s="6"/>
@@ -36774,8 +37911,11 @@
       <c r="S187" s="6"/>
       <c r="T187" s="6"/>
       <c r="U187" s="6"/>
-    </row>
-    <row r="188" spans="11:21">
+      <c r="V187" s="6"/>
+      <c r="W187" s="6"/>
+      <c r="X187" s="6"/>
+    </row>
+    <row r="188" spans="11:24">
       <c r="K188" s="6"/>
       <c r="L188" s="6"/>
       <c r="M188" s="6"/>
@@ -36787,9 +37927,12 @@
       <c r="S188" s="6"/>
       <c r="T188" s="6"/>
       <c r="U188" s="6"/>
+      <c r="V188" s="6"/>
+      <c r="W188" s="6"/>
+      <c r="X188" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T175">
+  <autoFilter ref="A1:W175">
     <filterColumn colId="10" showButton="0"/>
     <filterColumn colId="11" showButton="0"/>
     <filterColumn colId="12" showButton="0"/>
@@ -36799,13 +37942,16 @@
     <filterColumn colId="16" hiddenButton="1" showButton="0"/>
     <filterColumn colId="17" hiddenButton="1" showButton="0"/>
     <filterColumn colId="18" hiddenButton="1" showButton="0"/>
-    <filterColumn colId="19" showButton="0"/>
+    <filterColumn colId="19" hiddenButton="1" showButton="0"/>
+    <filterColumn colId="20" hiddenButton="1" showButton="0"/>
+    <filterColumn colId="21" hiddenButton="1" showButton="0"/>
+    <filterColumn colId="22" showButton="0"/>
   </autoFilter>
   <mergeCells count="11">
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:T1"/>
+    <mergeCell ref="K1:W1"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
@@ -36826,7 +37972,7 @@
       <formula>OR(E176="終了",E176="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X39:XFD50 B16:C16 B15 A6:B6 B12:C14 AB67:XFD77 D6:I6 F7:I38 A5:S5 V78:XFD104 V51:XFD66 V5:XFD38 B7:B11 J6:S38 B17:B90 D7:E76 A91:B175 A7:A175 F39:S175 T5:T175">
+  <conditionalFormatting sqref="AA39:XFD50 B16:C16 B15 A6:B6 B12:C14 AE67:XFD77 D6:I6 F7:I38 A5:V5 Y78:XFD104 Y51:XFD66 Y5:XFD38 B7:B11 J6:V38 B17:B90 D7:E76 A91:B175 A7:A175 F39:V175 W5:W175">
     <cfRule type="expression" dxfId="44" priority="67" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
@@ -36859,7 +38005,7 @@
       <formula>OR(E176="終了",E176="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F176:T65536">
+  <conditionalFormatting sqref="F176:W65536">
     <cfRule type="expression" dxfId="35" priority="76" stopIfTrue="1">
       <formula>$E176="未着手"</formula>
     </cfRule>
@@ -36870,7 +38016,7 @@
       <formula>OR($E176="終了",$E176="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V39:W50">
+  <conditionalFormatting sqref="Y39:Z50">
     <cfRule type="expression" dxfId="32" priority="61" stopIfTrue="1">
       <formula>$F39="未着手"</formula>
     </cfRule>
@@ -36958,7 +38104,7 @@
       <formula>OR($E77="終了",$E77="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U107:U65536">
+  <conditionalFormatting sqref="X107:X65536">
     <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>$D107="未着手"</formula>
     </cfRule>

--- a/バックログ/02班スプリントバックログ.xlsx
+++ b/バックログ/02班スプリントバックログ.xlsx
@@ -537,7 +537,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="492">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -3595,19 +3595,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>エネミーや糸が近くにいてもわかりやすくする方法</t>
-    <rPh sb="5" eb="6">
-      <t>イト</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>石田</t>
     <rPh sb="0" eb="2">
       <t>イシダ</t>
@@ -3638,19 +3625,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>跳んでるときの小さい風</t>
-    <rPh sb="0" eb="1">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>チイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カゼ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ジャンプした時に周りがぼやける</t>
     <rPh sb="6" eb="7">
       <t>トキ</t>
@@ -3668,16 +3642,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ボタン入力時の2Dアニメーション作成</t>
-    <rPh sb="3" eb="6">
-      <t>ニュウリョクジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Readyの演出</t>
     <rPh sb="6" eb="8">
       <t>エンシュツ</t>
@@ -3711,25 +3675,6 @@
   </si>
   <si>
     <t>重いから周りの木を大きくして木を減らす</t>
-  </si>
-  <si>
-    <t>回避成功時の成功を知らせるパーティクル</t>
-    <rPh sb="0" eb="2">
-      <t>カイヒ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セイコウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>12/29</t>
@@ -6061,7 +6006,7 @@
     <cellStyle name="標準_チーム編成" xfId="2"/>
     <cellStyle name="標準_バグシート" xfId="3"/>
   </cellStyles>
-  <dxfs count="117">
+  <dxfs count="114">
     <dxf>
       <font>
         <condense val="0"/>
@@ -6127,27 +6072,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -9536,28 +9460,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>196.5</c:v>
+                  <c:v>184.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>171.5</c:v>
+                  <c:v>159.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>151</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>151</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>143</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9652,40 +9576,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>196</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>163</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>147</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>131</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>65</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -10161,7 +10085,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>6</c:v>
@@ -10409,7 +10333,7 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>27</c:v>
@@ -16659,79 +16583,79 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="116" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A67:XFD69 A5:A66 A77:XFD104 A70:A76 D70:XFD76 C5:XFD66">
-    <cfRule type="expression" dxfId="113" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="10" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="11" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="12" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="110" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="13" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="14" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="15" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="107" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="16" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="17" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="18" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:Q65536">
-    <cfRule type="expression" dxfId="104" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="19" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="20" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="21" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B66">
-    <cfRule type="expression" dxfId="101" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70:C76">
-    <cfRule type="expression" dxfId="98" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="1" stopIfTrue="1">
       <formula>$D70="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="2" stopIfTrue="1">
       <formula>$D70="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="3" stopIfTrue="1">
       <formula>OR($D70="終了",$D70="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28436,178 +28360,178 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="E272:E65587">
-    <cfRule type="expression" dxfId="95" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="70" stopIfTrue="1">
       <formula>E272="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="71" stopIfTrue="1">
       <formula>E272="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="72" stopIfTrue="1">
       <formula>OR(E272="終了",E272="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:XFD7 E8:T8 M150:XFD171 M172:T189 B117:V117 B192:T212 A120:XFD123 A150:A212 A146:C147 A257:T271 D124:D126 A112:A117 A240:T241 A104:C111 U8:XFD14 C9:T14 A5:B14 B150:L188 K189:L189 K190:T191 B189:J191 A127:XFD130 E104:T111 A36:XFD36 A118:V119 AC117:XFD119 A45:B46 A34:B35 B54:XFD68 A131:T145 B69:V72 AC69:XFD72 D34:XFD35 U86:XFD90 B73:T90 A54:A90 A92:A103 B92:XFD102 A91:XFD91 C34 A37:T43 A15:XFD33 F146:I147 K146:XFD147 J146:J149 D146:E149 A44:C44 D44:T46 A47:T53 A213:T231 D5:XFD6">
-    <cfRule type="expression" dxfId="92" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="73" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="74" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="75" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C272:C65587">
-    <cfRule type="expression" dxfId="89" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="76" stopIfTrue="1">
       <formula>E272="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="77" stopIfTrue="1">
       <formula>E272="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="78" stopIfTrue="1">
       <formula>OR(E272="終了",E272="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D272:D65587">
-    <cfRule type="expression" dxfId="86" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="79" stopIfTrue="1">
       <formula>E272="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="80" stopIfTrue="1">
       <formula>E272="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="81" stopIfTrue="1">
       <formula>OR(E272="終了",E272="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F272:T65587">
-    <cfRule type="expression" dxfId="83" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="82" stopIfTrue="1">
       <formula>$E272="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="83" stopIfTrue="1">
       <formula>$E272="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="84" stopIfTrue="1">
       <formula>OR($E272="終了",$E272="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C6">
-    <cfRule type="expression" dxfId="80" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="64" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="65" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="66" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54:C55">
-    <cfRule type="expression" dxfId="77" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="43" stopIfTrue="1">
       <formula>$E54="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="44" stopIfTrue="1">
       <formula>$E54="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="45" stopIfTrue="1">
       <formula>OR($E54="終了",$E54="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D8">
-    <cfRule type="expression" dxfId="74" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="40" stopIfTrue="1">
       <formula>$E7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="41" stopIfTrue="1">
       <formula>$E7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="42" stopIfTrue="1">
       <formula>OR($E7="終了",$E7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C8">
-    <cfRule type="expression" dxfId="71" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="37" stopIfTrue="1">
       <formula>$E7="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="38" stopIfTrue="1">
       <formula>$E7="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="39" stopIfTrue="1">
       <formula>OR($E7="終了",$E7="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:XFD103 B112:XFD112 D104:D111 B113:V116 AC113:XFD116">
-    <cfRule type="expression" dxfId="68" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="28" stopIfTrue="1">
       <formula>$E103="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="29" stopIfTrue="1">
       <formula>$E103="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="30" stopIfTrue="1">
       <formula>OR($E103="終了",$E103="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U85:XFD85 U74:V75 AC74:XFD75">
-    <cfRule type="expression" dxfId="65" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="100" stopIfTrue="1">
       <formula>#REF!="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="101" stopIfTrue="1">
       <formula>#REF!="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="102" stopIfTrue="1">
       <formula>OR(#REF!="終了",#REF!="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U76:XFD84">
-    <cfRule type="expression" dxfId="62" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="103" stopIfTrue="1">
       <formula>$E73="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="104" stopIfTrue="1">
       <formula>$E73="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="105" stopIfTrue="1">
       <formula>OR($E73="終了",$E73="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U73:V73 AC73:XFD73">
-    <cfRule type="expression" dxfId="59" priority="127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="127" stopIfTrue="1">
       <formula>$E82="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="128" stopIfTrue="1">
       <formula>$E82="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="129" stopIfTrue="1">
       <formula>OR($E82="終了",$E82="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A124:C126 E124:T126">
-    <cfRule type="expression" dxfId="56" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="7" stopIfTrue="1">
       <formula>$E124="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="8" stopIfTrue="1">
       <formula>$E124="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="9" stopIfTrue="1">
       <formula>OR($E124="終了",$E124="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C46">
-    <cfRule type="expression" dxfId="53" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="4" stopIfTrue="1">
       <formula>E45="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="5" stopIfTrue="1">
       <formula>E45="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="6" stopIfTrue="1">
       <formula>OR(E45="終了",E45="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="50" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="1" stopIfTrue="1">
       <formula>E35="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="2" stopIfTrue="1">
       <formula>E35="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="3" stopIfTrue="1">
       <formula>OR(E35="終了",E35="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28623,9 +28547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G129" sqref="G129"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -28692,7 +28616,7 @@
       <c r="V1" s="142"/>
       <c r="W1" s="143"/>
       <c r="Y1" s="126" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="8" customFormat="1">
@@ -28707,7 +28631,7 @@
       <c r="I2" s="149"/>
       <c r="J2" s="144"/>
       <c r="K2" s="23" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L2" s="23" t="s">
         <v>65</v>
@@ -28716,34 +28640,34 @@
         <v>376</v>
       </c>
       <c r="N2" s="122" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="O2" s="122" t="s">
+        <v>389</v>
+      </c>
+      <c r="P2" s="130" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>432</v>
+      </c>
+      <c r="R2" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="P2" s="130" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q2" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="R2" s="23" t="s">
-        <v>397</v>
-      </c>
       <c r="S2" s="23" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="U2" s="23" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="V2" s="23" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="W2" s="121" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="Y2" s="127">
         <v>42751</v>
@@ -28762,51 +28686,51 @@
       <c r="J3" s="144"/>
       <c r="K3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$V$2))))</f>
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="L3" s="20">
         <f t="shared" ref="L3:W3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$V$2))))</f>
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="0"/>
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="N3" s="20">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="O3" s="20">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="P3" s="20">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="Q3" s="20">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="R3" s="20">
         <f t="shared" si="0"/>
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="S3" s="20">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="T3" s="20">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="U3" s="20">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V3" s="20">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="W3" s="20">
         <f t="shared" si="0"/>
@@ -28826,39 +28750,39 @@
       <c r="J4" s="144"/>
       <c r="K4" s="21">
         <f>SUM(K5:K109)</f>
-        <v>196.5</v>
+        <v>184.5</v>
       </c>
       <c r="L4" s="21">
         <f t="shared" ref="L4:T4" si="1">SUM(L5:L109)</f>
-        <v>171.5</v>
+        <v>159.5</v>
       </c>
       <c r="M4" s="21">
         <f t="shared" si="1"/>
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="N4" s="21">
         <f t="shared" si="1"/>
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="O4" s="21">
         <f t="shared" si="1"/>
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="P4" s="21">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="Q4" s="21">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="R4" s="21">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="S4" s="21">
         <f t="shared" si="1"/>
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="T4" s="21">
         <f t="shared" si="1"/>
@@ -29249,7 +29173,7 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="85" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>113</v>
@@ -29538,7 +29462,7 @@
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="17" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>112</v>
@@ -29601,7 +29525,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="17" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>113</v>
@@ -29660,7 +29584,7 @@
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="85" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>113</v>
@@ -29719,7 +29643,7 @@
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="17" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>113</v>
@@ -29778,7 +29702,7 @@
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="17" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>113</v>
@@ -29826,13 +29750,13 @@
         <v>18</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E22" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -29878,10 +29802,10 @@
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="17" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E23" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -29925,10 +29849,10 @@
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="17" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="E24" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -29984,7 +29908,7 @@
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="17" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>352</v>
@@ -30184,7 +30108,7 @@
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="17" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>352</v>
@@ -30416,7 +30340,7 @@
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="17" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>352</v>
@@ -30575,7 +30499,7 @@
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="17" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>112</v>
@@ -30635,7 +30559,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>361</v>
@@ -30686,7 +30610,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>362</v>
@@ -30742,7 +30666,7 @@
         <v>35</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>363</v>
@@ -30802,7 +30726,7 @@
         <v>36</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>364</v>
@@ -31061,7 +30985,7 @@
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="17" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>372</v>
@@ -31132,10 +31056,10 @@
         <v>41</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>113</v>
@@ -31204,7 +31128,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="18"/>
@@ -31246,7 +31170,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>368</v>
@@ -31320,7 +31244,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>369</v>
@@ -31394,7 +31318,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>370</v>
@@ -31468,7 +31392,7 @@
         <v>46</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>367</v>
@@ -31542,7 +31466,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>371</v>
@@ -31616,10 +31540,10 @@
         <v>48</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>124</v>
@@ -31676,13 +31600,13 @@
         <v>49</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E53" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -31737,7 +31661,7 @@
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="17" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>124</v>
@@ -31861,7 +31785,7 @@
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="17" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>374</v>
@@ -31910,10 +31834,10 @@
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="17" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E58" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -31969,10 +31893,10 @@
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="17" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E59" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -32028,10 +31952,10 @@
       </c>
       <c r="B60" s="16"/>
       <c r="C60" s="17" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E60" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -32085,10 +32009,10 @@
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="17" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E61" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -32146,10 +32070,10 @@
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="17" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E62" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -32207,10 +32131,10 @@
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="17" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E63" s="12" t="str">
         <f t="shared" si="3"/>
@@ -32264,7 +32188,7 @@
         <v>373</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E64" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -32325,7 +32249,7 @@
         <v>375</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E65" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -32372,7 +32296,7 @@
         <v>377</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E66" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -32427,55 +32351,29 @@
         <v>63</v>
       </c>
       <c r="B67" s="16"/>
-      <c r="C67" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>379</v>
-      </c>
+      <c r="C67" s="17"/>
+      <c r="D67" s="18"/>
       <c r="E67" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>未着手</v>
-      </c>
-      <c r="F67" s="4">
-        <v>43091</v>
-      </c>
+        <v/>
+      </c>
+      <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="19">
-        <v>2</v>
-      </c>
+      <c r="H67" s="19"/>
       <c r="I67" s="19"/>
-      <c r="J67" s="12">
+      <c r="J67" s="12" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="K67" s="22">
-        <v>2</v>
-      </c>
-      <c r="L67" s="22">
-        <v>2</v>
-      </c>
-      <c r="M67" s="22">
-        <v>2</v>
-      </c>
-      <c r="N67" s="125">
-        <v>2</v>
-      </c>
-      <c r="O67" s="124">
-        <v>2</v>
-      </c>
-      <c r="P67" s="123">
-        <v>2</v>
-      </c>
-      <c r="Q67" s="123">
-        <v>3</v>
-      </c>
-      <c r="R67" s="22">
-        <v>3</v>
-      </c>
-      <c r="S67" s="22">
-        <v>3</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="125"/>
+      <c r="O67" s="124"/>
+      <c r="P67" s="123"/>
+      <c r="Q67" s="123"/>
+      <c r="R67" s="22"/>
+      <c r="S67" s="22"/>
       <c r="T67" s="22"/>
       <c r="U67" s="22"/>
       <c r="V67" s="22"/>
@@ -32504,61 +32402,35 @@
         <v>64</v>
       </c>
       <c r="B68" s="16"/>
-      <c r="C68" s="17" t="s">
-        <v>392</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>379</v>
-      </c>
+      <c r="C68" s="17"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>未着手</v>
-      </c>
-      <c r="F68" s="4">
-        <v>43096</v>
-      </c>
+        <v/>
+      </c>
+      <c r="F68" s="4"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="19">
-        <v>3</v>
-      </c>
+      <c r="H68" s="19"/>
       <c r="I68" s="19"/>
-      <c r="J68" s="12">
+      <c r="J68" s="12" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="K68" s="22">
-        <v>3</v>
-      </c>
-      <c r="L68" s="22">
-        <v>3</v>
-      </c>
-      <c r="M68" s="22">
-        <v>3</v>
-      </c>
-      <c r="N68" s="125">
-        <v>3</v>
-      </c>
-      <c r="O68" s="124">
-        <v>3</v>
-      </c>
-      <c r="P68" s="123">
-        <v>3</v>
-      </c>
-      <c r="Q68" s="123">
-        <v>3</v>
-      </c>
-      <c r="R68" s="22">
-        <v>3</v>
-      </c>
-      <c r="S68" s="22">
-        <v>3</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="125"/>
+      <c r="O68" s="124"/>
+      <c r="P68" s="123"/>
+      <c r="Q68" s="123"/>
+      <c r="R68" s="22"/>
+      <c r="S68" s="22"/>
       <c r="T68" s="22"/>
       <c r="U68" s="22"/>
       <c r="V68" s="22"/>
       <c r="W68" s="22"/>
       <c r="Y68" s="11" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="Z68" s="10">
         <f>SUMIF($D$5:$D$175,Y68,$H$5:$H$175)</f>
@@ -32587,10 +32459,10 @@
       </c>
       <c r="B69" s="16"/>
       <c r="C69" s="17" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E69" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -32673,10 +32545,10 @@
       </c>
       <c r="B70" s="16"/>
       <c r="C70" s="17" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E70" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -32759,10 +32631,10 @@
       </c>
       <c r="B71" s="16"/>
       <c r="C71" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E71" s="12" t="str">
         <f t="shared" ref="E71:E76" ca="1" si="13">IF(ISBLANK($C71),"",IF(ISBLANK($G71),"未着手",IF($J71=0,"完了","作業中")))</f>
@@ -32830,69 +32702,43 @@
         <v>68</v>
       </c>
       <c r="B72" s="16"/>
-      <c r="C72" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="D72" s="18" t="s">
-        <v>379</v>
-      </c>
+      <c r="C72" s="17"/>
+      <c r="D72" s="18"/>
       <c r="E72" s="12" t="str">
         <f t="shared" si="13"/>
-        <v>未着手</v>
-      </c>
-      <c r="F72" s="4">
-        <v>43092</v>
-      </c>
+        <v/>
+      </c>
+      <c r="F72" s="4"/>
       <c r="G72" s="4"/>
-      <c r="H72" s="19">
-        <v>3</v>
-      </c>
+      <c r="H72" s="19"/>
       <c r="I72" s="19"/>
-      <c r="J72" s="12">
+      <c r="J72" s="12" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="K72" s="22">
-        <v>3</v>
-      </c>
-      <c r="L72" s="22">
-        <v>3</v>
-      </c>
-      <c r="M72" s="22">
-        <v>3</v>
-      </c>
-      <c r="N72" s="125">
-        <v>3</v>
-      </c>
-      <c r="O72" s="124">
-        <v>3</v>
-      </c>
-      <c r="P72" s="123">
-        <v>3</v>
-      </c>
-      <c r="Q72" s="123">
-        <v>3</v>
-      </c>
-      <c r="R72" s="22">
-        <v>3</v>
-      </c>
-      <c r="S72" s="22">
-        <v>3</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="125"/>
+      <c r="O72" s="124"/>
+      <c r="P72" s="123"/>
+      <c r="Q72" s="123"/>
+      <c r="R72" s="22"/>
+      <c r="S72" s="22"/>
       <c r="T72" s="22"/>
       <c r="U72" s="22"/>
       <c r="V72" s="22"/>
       <c r="W72" s="22"/>
       <c r="Y72" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Z72" s="10">
         <f t="shared" si="8"/>
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="AA72" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AB72" s="10">
         <f t="shared" si="10"/>
@@ -32912,61 +32758,35 @@
         <v>69</v>
       </c>
       <c r="B73" s="16"/>
-      <c r="C73" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>379</v>
-      </c>
+      <c r="C73" s="17"/>
+      <c r="D73" s="18"/>
       <c r="E73" s="12" t="str">
         <f t="shared" si="13"/>
-        <v>未着手</v>
-      </c>
-      <c r="F73" s="4">
-        <v>43096</v>
-      </c>
+        <v/>
+      </c>
+      <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="19">
-        <v>4</v>
-      </c>
+      <c r="H73" s="19"/>
       <c r="I73" s="19"/>
-      <c r="J73" s="12">
+      <c r="J73" s="12" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
-      </c>
-      <c r="K73" s="22">
-        <v>4</v>
-      </c>
-      <c r="L73" s="22">
-        <v>4</v>
-      </c>
-      <c r="M73" s="22">
-        <v>4</v>
-      </c>
-      <c r="N73" s="125">
-        <v>4</v>
-      </c>
-      <c r="O73" s="124">
-        <v>4</v>
-      </c>
-      <c r="P73" s="123">
-        <v>4</v>
-      </c>
-      <c r="Q73" s="123">
-        <v>4</v>
-      </c>
-      <c r="R73" s="22">
-        <v>4</v>
-      </c>
-      <c r="S73" s="22">
-        <v>4</v>
-      </c>
+        <v/>
+      </c>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="125"/>
+      <c r="O73" s="124"/>
+      <c r="P73" s="123"/>
+      <c r="Q73" s="123"/>
+      <c r="R73" s="22"/>
+      <c r="S73" s="22"/>
       <c r="T73" s="22"/>
       <c r="U73" s="22"/>
       <c r="V73" s="22"/>
       <c r="W73" s="22"/>
       <c r="Y73" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Z73" s="10">
         <f t="shared" si="8"/>
@@ -32995,10 +32815,10 @@
       </c>
       <c r="B74" s="16"/>
       <c r="C74" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E74" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -33065,10 +32885,10 @@
       </c>
       <c r="B75" s="16"/>
       <c r="C75" s="17" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E75" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -33135,10 +32955,10 @@
       </c>
       <c r="B76" s="16"/>
       <c r="C76" s="17" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E76" s="12" t="str">
         <f t="shared" ca="1" si="13"/>
@@ -33217,10 +33037,10 @@
       </c>
       <c r="B77" s="16"/>
       <c r="C77" s="85" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E77" s="12" t="str">
         <f t="shared" ref="E77:E140" ca="1" si="18">IF(ISBLANK($C77),"",IF(ISBLANK($G77),"未着手",IF($J77=0,"完了","作業中")))</f>
@@ -33300,10 +33120,10 @@
         <v>74</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C78" s="85" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>135</v>
@@ -33355,10 +33175,10 @@
       </c>
       <c r="B79" s="16"/>
       <c r="C79" s="85" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E79" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33415,13 +33235,13 @@
         <v>76</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C80" s="85" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E80" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33468,10 +33288,10 @@
       </c>
       <c r="B81" s="16"/>
       <c r="C81" s="85" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E81" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33532,10 +33352,10 @@
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="85" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E82" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33583,10 +33403,10 @@
       </c>
       <c r="B83" s="16"/>
       <c r="C83" s="85" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E83" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33634,10 +33454,10 @@
       </c>
       <c r="B84" s="16"/>
       <c r="C84" s="85" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E84" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33685,10 +33505,10 @@
       </c>
       <c r="B85" s="16"/>
       <c r="C85" s="85" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E85" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33748,10 +33568,10 @@
       </c>
       <c r="B86" s="16"/>
       <c r="C86" s="85" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E86" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -33803,7 +33623,7 @@
       </c>
       <c r="B87" s="16"/>
       <c r="C87" s="85" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D87" s="18" t="s">
         <v>124</v>
@@ -33858,7 +33678,7 @@
       </c>
       <c r="B88" s="16"/>
       <c r="C88" s="85" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>124</v>
@@ -33915,7 +33735,7 @@
       </c>
       <c r="B89" s="16"/>
       <c r="C89" s="85" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D89" s="18" t="s">
         <v>124</v>
@@ -33974,7 +33794,7 @@
       </c>
       <c r="B90" s="16"/>
       <c r="C90" s="85" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>124</v>
@@ -34064,10 +33884,10 @@
       </c>
       <c r="B92" s="16"/>
       <c r="C92" s="85" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E92" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34121,10 +33941,10 @@
       </c>
       <c r="B93" s="16"/>
       <c r="C93" s="85" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E93" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34178,10 +33998,10 @@
       </c>
       <c r="B94" s="16"/>
       <c r="C94" s="85" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E94" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34239,10 +34059,10 @@
       </c>
       <c r="B95" s="16"/>
       <c r="C95" s="85" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E95" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34300,10 +34120,10 @@
       </c>
       <c r="B96" s="16"/>
       <c r="C96" s="85" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E96" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34361,10 +34181,10 @@
       </c>
       <c r="B97" s="16"/>
       <c r="C97" s="85" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E97" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34418,10 +34238,10 @@
       </c>
       <c r="B98" s="16"/>
       <c r="C98" s="85" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E98" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34475,10 +34295,10 @@
       </c>
       <c r="B99" s="16"/>
       <c r="C99" s="85" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E99" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34532,10 +34352,10 @@
       </c>
       <c r="B100" s="16"/>
       <c r="C100" s="85" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E100" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34589,10 +34409,10 @@
       </c>
       <c r="B101" s="16"/>
       <c r="C101" s="85" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E101" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34652,10 +34472,10 @@
       </c>
       <c r="B102" s="16"/>
       <c r="C102" s="85" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E102" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34715,7 +34535,7 @@
       </c>
       <c r="B103" s="16"/>
       <c r="C103" s="85" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>124</v>
@@ -34780,10 +34600,10 @@
       </c>
       <c r="B104" s="16"/>
       <c r="C104" s="85" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E104" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34841,10 +34661,10 @@
       </c>
       <c r="B105" s="16"/>
       <c r="C105" s="85" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E105" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -34937,10 +34757,10 @@
       </c>
       <c r="B107" s="16"/>
       <c r="C107" s="85" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E107" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -35033,10 +34853,10 @@
       </c>
       <c r="B109" s="16"/>
       <c r="C109" s="85" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E109" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -35129,7 +34949,7 @@
       </c>
       <c r="B111" s="16"/>
       <c r="C111" s="85" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>115</v>
@@ -35195,7 +35015,7 @@
       </c>
       <c r="B112" s="16"/>
       <c r="C112" s="85" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D112" s="18" t="s">
         <v>115</v>
@@ -35261,7 +35081,7 @@
       </c>
       <c r="B113" s="16"/>
       <c r="C113" s="85" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D113" s="18" t="s">
         <v>115</v>
@@ -35361,10 +35181,10 @@
       </c>
       <c r="B115" s="16"/>
       <c r="C115" s="85" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E115" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -35461,10 +35281,10 @@
       </c>
       <c r="B117" s="16"/>
       <c r="C117" s="85" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E117" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -35525,7 +35345,7 @@
       </c>
       <c r="B118" s="16"/>
       <c r="C118" s="85" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D118" s="18" t="s">
         <v>113</v>
@@ -35567,7 +35387,7 @@
       </c>
       <c r="B119" s="16"/>
       <c r="C119" s="85" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D119" s="18" t="s">
         <v>113</v>
@@ -35633,7 +35453,7 @@
       </c>
       <c r="B120" s="16"/>
       <c r="C120" s="85" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D120" s="18" t="s">
         <v>113</v>
@@ -35729,7 +35549,7 @@
       </c>
       <c r="B122" s="16"/>
       <c r="C122" s="85" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D122" s="18" t="s">
         <v>112</v>
@@ -35829,7 +35649,7 @@
       </c>
       <c r="B124" s="16"/>
       <c r="C124" s="85" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D124" s="18" t="s">
         <v>124</v>
@@ -35889,7 +35709,7 @@
       </c>
       <c r="B125" s="16"/>
       <c r="C125" s="85" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D125" s="18" t="s">
         <v>124</v>
@@ -35949,7 +35769,7 @@
       </c>
       <c r="B126" s="16"/>
       <c r="C126" s="85" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D126" s="18" t="s">
         <v>124</v>
@@ -36011,7 +35831,7 @@
       </c>
       <c r="B127" s="16"/>
       <c r="C127" s="85" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D127" s="18" t="s">
         <v>124</v>
@@ -36071,10 +35891,10 @@
       </c>
       <c r="B128" s="16"/>
       <c r="C128" s="85" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E128" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
@@ -36113,10 +35933,10 @@
       </c>
       <c r="B129" s="16"/>
       <c r="C129" s="85" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E129" s="12" t="str">
         <f t="shared" si="18"/>
@@ -36153,10 +35973,10 @@
       </c>
       <c r="B130" s="16"/>
       <c r="C130" s="85" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D130" s="18" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E130" s="12" t="str">
         <f t="shared" si="18"/>
@@ -36193,10 +36013,10 @@
       </c>
       <c r="B131" s="16"/>
       <c r="C131" s="85" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D131" s="18" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E131" s="12" t="str">
         <f t="shared" si="18"/>
@@ -37962,145 +37782,145 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="E176:E65536">
-    <cfRule type="expression" dxfId="47" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="64" stopIfTrue="1">
       <formula>E176="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="65" stopIfTrue="1">
       <formula>E176="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="66" stopIfTrue="1">
       <formula>OR(E176="終了",E176="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA39:XFD50 B16:C16 B15 A6:B6 B12:C14 AE67:XFD77 D6:I6 F7:I38 A5:V5 Y78:XFD104 Y51:XFD66 Y5:XFD38 B7:B11 J6:V38 B17:B90 D7:E76 A91:B175 A7:A175 F39:V175 W5:W175">
-    <cfRule type="expression" dxfId="44" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="67" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="68" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="69" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C176:C65536">
-    <cfRule type="expression" dxfId="41" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="70" stopIfTrue="1">
       <formula>E176="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="71" stopIfTrue="1">
       <formula>E176="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="72" stopIfTrue="1">
       <formula>OR(E176="終了",E176="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176:D65536">
-    <cfRule type="expression" dxfId="38" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="73" stopIfTrue="1">
       <formula>E176="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="74" stopIfTrue="1">
       <formula>E176="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="75" stopIfTrue="1">
       <formula>OR(E176="終了",E176="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F176:W65536">
-    <cfRule type="expression" dxfId="35" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="76" stopIfTrue="1">
       <formula>$E176="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="77" stopIfTrue="1">
       <formula>$E176="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="78" stopIfTrue="1">
       <formula>OR($E176="終了",$E176="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y39:Z50">
-    <cfRule type="expression" dxfId="32" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="61" stopIfTrue="1">
       <formula>$F39="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="62" stopIfTrue="1">
       <formula>$F39="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="63" stopIfTrue="1">
       <formula>OR($F39="終了",$F39="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="29" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="58" stopIfTrue="1">
       <formula>$E15="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="59" stopIfTrue="1">
       <formula>$E15="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="60" stopIfTrue="1">
       <formula>OR($E15="終了",$E15="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C18">
-    <cfRule type="expression" dxfId="26" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="55" stopIfTrue="1">
       <formula>$E17="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="56" stopIfTrue="1">
       <formula>$E17="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="57" stopIfTrue="1">
       <formula>OR($E17="終了",$E17="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:C20">
-    <cfRule type="expression" dxfId="23" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="52" stopIfTrue="1">
       <formula>$E19="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="53" stopIfTrue="1">
       <formula>$E19="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="54" stopIfTrue="1">
       <formula>OR($E19="終了",$E19="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C9">
-    <cfRule type="expression" dxfId="20" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="49" stopIfTrue="1">
       <formula>$E6="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="50" stopIfTrue="1">
       <formula>$E6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="51" stopIfTrue="1">
       <formula>OR($E6="終了",$E6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C11">
-    <cfRule type="expression" dxfId="17" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="46" stopIfTrue="1">
       <formula>$E10="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="47" stopIfTrue="1">
       <formula>$E10="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="48" stopIfTrue="1">
       <formula>OR($E10="終了",$E10="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C76">
-    <cfRule type="expression" dxfId="14" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="43" stopIfTrue="1">
       <formula>$E21="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="44" stopIfTrue="1">
       <formula>$E21="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="45" stopIfTrue="1">
       <formula>OR($E21="終了",$E21="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:E175">
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
       <formula>$E77="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>$E77="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
       <formula>OR($E77="終了",$E77="完了")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/バックログ/02班スプリントバックログ.xlsx
+++ b/バックログ/02班スプリントバックログ.xlsx
@@ -10043,66 +10043,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'スプリントバックログ(第３）'!$Y$68:$Y$77</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>野澤</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>杉浦</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>南雲</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>中山</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>石田</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>樋田</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'スプリントバックログ(第３）'!$AA$68:$AA$77</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -10180,66 +10125,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'スプリントバックログ(第３）'!$Y$68:$Y$77</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>野澤</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>杉浦</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>南雲</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>中山</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>石田</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>樋田</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'スプリントバックログ(第３）'!$AB$68:$AB$77</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -10317,40 +10207,6 @@
           <c:val>
             <c:numRef>
               <c:f>'スプリントバックログ(第３）'!$Z$68:$Z$77</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -10430,40 +10286,6 @@
           <c:val>
             <c:numRef>
               <c:f>'スプリントバックログ(第３）'!$AD$68:$AD$77</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -10823,7 +10645,7 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10855,8 +10677,8 @@
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>662103</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28545,11 +28367,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AE188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -28619,7 +28442,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="8" customFormat="1">
+    <row r="2" spans="1:25" s="8" customFormat="1" hidden="1">
       <c r="A2" s="144"/>
       <c r="B2" s="151"/>
       <c r="C2" s="145"/>
@@ -28673,7 +28496,7 @@
         <v>42751</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="8" customFormat="1">
+    <row r="3" spans="1:25" s="8" customFormat="1" hidden="1">
       <c r="A3" s="144"/>
       <c r="B3" s="151"/>
       <c r="C3" s="145"/>
@@ -28737,7 +28560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="8" customFormat="1">
+    <row r="4" spans="1:25" s="8" customFormat="1" hidden="1">
       <c r="A4" s="144"/>
       <c r="B4" s="152"/>
       <c r="C4" s="145"/>
@@ -28979,7 +28802,7 @@
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" hidden="1">
       <c r="A8" s="16">
         <v>4</v>
       </c>
@@ -29012,7 +28835,7 @@
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" hidden="1">
       <c r="A9" s="16">
         <v>5</v>
       </c>
@@ -29456,7 +29279,7 @@
       <c r="V16" s="22"/>
       <c r="W16" s="22"/>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" hidden="1">
       <c r="A17" s="16">
         <v>13</v>
       </c>
@@ -29843,7 +29666,7 @@
       <c r="V23" s="22"/>
       <c r="W23" s="22"/>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" hidden="1">
       <c r="A24" s="16">
         <v>20</v>
       </c>
@@ -29902,7 +29725,7 @@
       <c r="V24" s="22"/>
       <c r="W24" s="22"/>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" hidden="1">
       <c r="A25" s="16">
         <v>21</v>
       </c>
@@ -29953,7 +29776,7 @@
       <c r="V25" s="22"/>
       <c r="W25" s="22"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" hidden="1">
       <c r="A26" s="16">
         <v>22</v>
       </c>
@@ -29986,7 +29809,7 @@
       <c r="V26" s="22"/>
       <c r="W26" s="22"/>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" hidden="1">
       <c r="A27" s="16">
         <v>23</v>
       </c>
@@ -30047,7 +29870,7 @@
       <c r="V27" s="22"/>
       <c r="W27" s="22"/>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" hidden="1">
       <c r="A28" s="16">
         <v>24</v>
       </c>
@@ -30102,7 +29925,7 @@
       <c r="V28" s="22"/>
       <c r="W28" s="22"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" hidden="1">
       <c r="A29" s="16">
         <v>25</v>
       </c>
@@ -30157,7 +29980,7 @@
       <c r="V29" s="22"/>
       <c r="W29" s="22"/>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" hidden="1">
       <c r="A30" s="16">
         <v>26</v>
       </c>
@@ -30216,7 +30039,7 @@
       <c r="V30" s="22"/>
       <c r="W30" s="22"/>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" hidden="1">
       <c r="A31" s="16">
         <v>27</v>
       </c>
@@ -30275,7 +30098,7 @@
       <c r="V31" s="22"/>
       <c r="W31" s="22"/>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" hidden="1">
       <c r="A32" s="16">
         <v>28</v>
       </c>
@@ -30334,7 +30157,7 @@
       <c r="V32" s="22"/>
       <c r="W32" s="22"/>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33" spans="1:31" hidden="1">
       <c r="A33" s="16">
         <v>29</v>
       </c>
@@ -30393,7 +30216,7 @@
       <c r="V33" s="22"/>
       <c r="W33" s="22"/>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34" spans="1:31" hidden="1">
       <c r="A34" s="16">
         <v>30</v>
       </c>
@@ -30444,7 +30267,7 @@
       <c r="V34" s="22"/>
       <c r="W34" s="22"/>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35" spans="1:31" hidden="1">
       <c r="A35" s="16">
         <v>31</v>
       </c>
@@ -30493,7 +30316,7 @@
       <c r="V35" s="22"/>
       <c r="W35" s="22"/>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36" spans="1:31" hidden="1">
       <c r="A36" s="16">
         <v>32</v>
       </c>
@@ -30554,7 +30377,7 @@
       <c r="V36" s="22"/>
       <c r="W36" s="22"/>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37" spans="1:31" hidden="1">
       <c r="A37" s="16">
         <v>33</v>
       </c>
@@ -30605,7 +30428,7 @@
       <c r="V37" s="22"/>
       <c r="W37" s="22"/>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38" spans="1:31" hidden="1">
       <c r="A38" s="16">
         <v>34</v>
       </c>
@@ -30661,7 +30484,7 @@
       <c r="AD38" s="106"/>
       <c r="AE38" s="106"/>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:31" hidden="1">
       <c r="A39" s="16">
         <v>35</v>
       </c>
@@ -30721,7 +30544,7 @@
       <c r="AD39" s="106"/>
       <c r="AE39" s="106"/>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:31" hidden="1">
       <c r="A40" s="16">
         <v>36</v>
       </c>
@@ -30911,7 +30734,7 @@
       <c r="AD42" s="106"/>
       <c r="AE42" s="106"/>
     </row>
-    <row r="43" spans="1:31">
+    <row r="43" spans="1:31" hidden="1">
       <c r="A43" s="16">
         <v>39</v>
       </c>
@@ -30979,7 +30802,7 @@
       <c r="AD43" s="106"/>
       <c r="AE43" s="106"/>
     </row>
-    <row r="44" spans="1:31">
+    <row r="44" spans="1:31" hidden="1">
       <c r="A44" s="16">
         <v>40</v>
       </c>
@@ -31123,7 +30946,7 @@
       <c r="AD45" s="106"/>
       <c r="AE45" s="106"/>
     </row>
-    <row r="46" spans="1:31">
+    <row r="46" spans="1:31" hidden="1">
       <c r="A46" s="16">
         <v>42</v>
       </c>
@@ -31165,7 +30988,7 @@
       <c r="AD46" s="106"/>
       <c r="AE46" s="106"/>
     </row>
-    <row r="47" spans="1:31">
+    <row r="47" spans="1:31" hidden="1">
       <c r="A47" s="16">
         <v>43</v>
       </c>
@@ -31239,7 +31062,7 @@
       <c r="AD47" s="106"/>
       <c r="AE47" s="106"/>
     </row>
-    <row r="48" spans="1:31">
+    <row r="48" spans="1:31" hidden="1">
       <c r="A48" s="16">
         <v>44</v>
       </c>
@@ -31313,7 +31136,7 @@
       <c r="AD48" s="106"/>
       <c r="AE48" s="106"/>
     </row>
-    <row r="49" spans="1:31">
+    <row r="49" spans="1:31" hidden="1">
       <c r="A49" s="16">
         <v>45</v>
       </c>
@@ -31387,7 +31210,7 @@
       <c r="AD49" s="106"/>
       <c r="AE49" s="106"/>
     </row>
-    <row r="50" spans="1:31">
+    <row r="50" spans="1:31" hidden="1">
       <c r="A50" s="16">
         <v>46</v>
       </c>
@@ -31461,7 +31284,7 @@
       <c r="AD50" s="106"/>
       <c r="AE50" s="106"/>
     </row>
-    <row r="51" spans="1:31">
+    <row r="51" spans="1:31" hidden="1">
       <c r="A51" s="16">
         <v>47</v>
       </c>
@@ -31535,7 +31358,7 @@
       <c r="AD51" s="106"/>
       <c r="AE51" s="106"/>
     </row>
-    <row r="52" spans="1:31">
+    <row r="52" spans="1:31" hidden="1">
       <c r="A52" s="16">
         <v>48</v>
       </c>
@@ -31595,7 +31418,7 @@
       <c r="AD52" s="106"/>
       <c r="AE52" s="106"/>
     </row>
-    <row r="53" spans="1:31">
+    <row r="53" spans="1:31" hidden="1">
       <c r="A53" s="16">
         <v>49</v>
       </c>
@@ -31655,7 +31478,7 @@
       <c r="AD53" s="106"/>
       <c r="AE53" s="106"/>
     </row>
-    <row r="54" spans="1:31">
+    <row r="54" spans="1:31" hidden="1">
       <c r="A54" s="16">
         <v>50</v>
       </c>
@@ -31716,7 +31539,7 @@
       <c r="V54" s="22"/>
       <c r="W54" s="22"/>
     </row>
-    <row r="55" spans="1:31">
+    <row r="55" spans="1:31" hidden="1">
       <c r="A55" s="16">
         <v>51</v>
       </c>
@@ -31746,7 +31569,7 @@
       <c r="V55" s="22"/>
       <c r="W55" s="22"/>
     </row>
-    <row r="56" spans="1:31">
+    <row r="56" spans="1:31" hidden="1">
       <c r="A56" s="16">
         <v>52</v>
       </c>
@@ -31779,7 +31602,7 @@
       <c r="V56" s="22"/>
       <c r="W56" s="22"/>
     </row>
-    <row r="57" spans="1:31">
+    <row r="57" spans="1:31" hidden="1">
       <c r="A57" s="16">
         <v>53</v>
       </c>
@@ -31828,7 +31651,7 @@
       <c r="V57" s="22"/>
       <c r="W57" s="22"/>
     </row>
-    <row r="58" spans="1:31">
+    <row r="58" spans="1:31" hidden="1">
       <c r="A58" s="16">
         <v>54</v>
       </c>
@@ -31887,7 +31710,7 @@
       <c r="V58" s="22"/>
       <c r="W58" s="22"/>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:31" hidden="1">
       <c r="A59" s="16">
         <v>55</v>
       </c>
@@ -31946,7 +31769,7 @@
       <c r="V59" s="22"/>
       <c r="W59" s="22"/>
     </row>
-    <row r="60" spans="1:31">
+    <row r="60" spans="1:31" hidden="1">
       <c r="A60" s="16">
         <v>56</v>
       </c>
@@ -32003,7 +31826,7 @@
       <c r="V60" s="22"/>
       <c r="W60" s="22"/>
     </row>
-    <row r="61" spans="1:31">
+    <row r="61" spans="1:31" hidden="1">
       <c r="A61" s="16">
         <v>57</v>
       </c>
@@ -32064,7 +31887,7 @@
       <c r="V61" s="22"/>
       <c r="W61" s="22"/>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:31" hidden="1">
       <c r="A62" s="16">
         <v>58</v>
       </c>
@@ -32125,7 +31948,7 @@
       <c r="V62" s="22"/>
       <c r="W62" s="22"/>
     </row>
-    <row r="63" spans="1:31">
+    <row r="63" spans="1:31" hidden="1">
       <c r="A63" s="16">
         <v>59</v>
       </c>
@@ -32179,7 +32002,7 @@
       <c r="V63" s="22"/>
       <c r="W63" s="22"/>
     </row>
-    <row r="64" spans="1:31">
+    <row r="64" spans="1:31" hidden="1">
       <c r="A64" s="16">
         <v>60</v>
       </c>
@@ -32240,7 +32063,7 @@
       <c r="V64" s="22"/>
       <c r="W64" s="22"/>
     </row>
-    <row r="65" spans="1:30">
+    <row r="65" spans="1:30" hidden="1">
       <c r="A65" s="16">
         <v>61</v>
       </c>
@@ -32287,7 +32110,7 @@
       <c r="V65" s="22"/>
       <c r="W65" s="22"/>
     </row>
-    <row r="66" spans="1:30">
+    <row r="66" spans="1:30" hidden="1">
       <c r="A66" s="16">
         <v>62</v>
       </c>
@@ -32346,7 +32169,7 @@
       <c r="V66" s="22"/>
       <c r="W66" s="22"/>
     </row>
-    <row r="67" spans="1:30">
+    <row r="67" spans="1:30" hidden="1">
       <c r="A67" s="16">
         <v>63</v>
       </c>
@@ -32397,7 +32220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:30">
+    <row r="68" spans="1:30" hidden="1">
       <c r="A68" s="16">
         <v>64</v>
       </c>
@@ -32438,11 +32261,11 @@
       </c>
       <c r="AA68" s="10">
         <f ca="1">SUMIF($D$5:$D$175,Y68,$J$5:$J$175)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB68" s="10">
         <f>SUMIF($D$5:$D$174,Y68,$I$5:$I$175)</f>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AC68" s="14">
         <f>COUNTA($K$2:$W$2)*6-COUNTA($K$4:$W$4)*6</f>
@@ -32453,7 +32276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:30">
+    <row r="69" spans="1:30" hidden="1">
       <c r="A69" s="16">
         <v>65</v>
       </c>
@@ -32524,11 +32347,11 @@
       </c>
       <c r="AA69" s="10">
         <f t="shared" ref="AA69:AA73" ca="1" si="9">SUMIF($D$5:$D$175,Y69,$J$5:$J$175)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB69" s="10">
         <f t="shared" ref="AB69:AB73" si="10">SUMIF($D$5:$D$174,Y69,$I$5:$I$175)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC69" s="14">
         <f t="shared" ref="AC69:AC73" si="11">COUNTA($K$2:$W$2)*6-COUNTA($K$4:$W$4)*6</f>
@@ -32539,7 +32362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:30">
+    <row r="70" spans="1:30" hidden="1">
       <c r="A70" s="16">
         <v>66</v>
       </c>
@@ -32625,7 +32448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:30">
+    <row r="71" spans="1:30" hidden="1">
       <c r="A71" s="16">
         <v>67</v>
       </c>
@@ -32697,7 +32520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:30">
+    <row r="72" spans="1:30" hidden="1">
       <c r="A72" s="16">
         <v>68</v>
       </c>
@@ -32753,7 +32576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:30">
+    <row r="73" spans="1:30" hidden="1">
       <c r="A73" s="16">
         <v>69</v>
       </c>
@@ -32809,7 +32632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:30">
+    <row r="74" spans="1:30" hidden="1">
       <c r="A74" s="16">
         <v>70</v>
       </c>
@@ -32879,7 +32702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:30">
+    <row r="75" spans="1:30" hidden="1">
       <c r="A75" s="16">
         <v>71</v>
       </c>
@@ -32949,7 +32772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:30">
+    <row r="76" spans="1:30" hidden="1">
       <c r="A76" s="16">
         <v>72</v>
       </c>
@@ -33031,7 +32854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:30">
+    <row r="77" spans="1:30" hidden="1">
       <c r="A77" s="16">
         <v>73</v>
       </c>
@@ -33115,7 +32938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:30">
+    <row r="78" spans="1:30" hidden="1">
       <c r="A78" s="16">
         <v>74</v>
       </c>
@@ -33169,7 +32992,7 @@
       <c r="Z78" s="129"/>
       <c r="AA78" s="128"/>
     </row>
-    <row r="79" spans="1:30">
+    <row r="79" spans="1:30" hidden="1">
       <c r="A79" s="16">
         <v>75</v>
       </c>
@@ -33230,7 +33053,7 @@
       <c r="V79" s="22"/>
       <c r="W79" s="22"/>
     </row>
-    <row r="80" spans="1:30">
+    <row r="80" spans="1:30" hidden="1">
       <c r="A80" s="16">
         <v>76</v>
       </c>
@@ -33282,7 +33105,7 @@
       <c r="W80" s="22"/>
       <c r="Z80" s="106"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" hidden="1">
       <c r="A81" s="16">
         <v>77</v>
       </c>
@@ -33346,7 +33169,7 @@
       <c r="W81" s="22"/>
       <c r="Z81" s="106"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" hidden="1">
       <c r="A82" s="16">
         <v>78</v>
       </c>
@@ -33397,7 +33220,7 @@
       <c r="V82" s="22"/>
       <c r="W82" s="22"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" hidden="1">
       <c r="A83" s="16">
         <v>79</v>
       </c>
@@ -33448,7 +33271,7 @@
       <c r="V83" s="22"/>
       <c r="W83" s="22"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" hidden="1">
       <c r="A84" s="16">
         <v>80</v>
       </c>
@@ -33499,7 +33322,7 @@
       <c r="V84" s="22"/>
       <c r="W84" s="22"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" hidden="1">
       <c r="A85" s="16">
         <v>81</v>
       </c>
@@ -33562,7 +33385,7 @@
       <c r="V85" s="22"/>
       <c r="W85" s="22"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" hidden="1">
       <c r="A86" s="16">
         <v>82</v>
       </c>
@@ -33617,7 +33440,7 @@
       <c r="V86" s="22"/>
       <c r="W86" s="22"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" hidden="1">
       <c r="A87" s="16">
         <v>83</v>
       </c>
@@ -33672,7 +33495,7 @@
       <c r="V87" s="22"/>
       <c r="W87" s="22"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" hidden="1">
       <c r="A88" s="16">
         <v>84</v>
       </c>
@@ -33729,7 +33552,7 @@
       <c r="V88" s="22"/>
       <c r="W88" s="22"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" hidden="1">
       <c r="A89" s="16">
         <v>85</v>
       </c>
@@ -33788,7 +33611,7 @@
       <c r="V89" s="22"/>
       <c r="W89" s="22"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" hidden="1">
       <c r="A90" s="16">
         <v>86</v>
       </c>
@@ -33845,7 +33668,7 @@
       <c r="V90" s="22"/>
       <c r="W90" s="22"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" hidden="1">
       <c r="A91" s="16">
         <v>87</v>
       </c>
@@ -33878,7 +33701,7 @@
       <c r="V91" s="22"/>
       <c r="W91" s="22"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" hidden="1">
       <c r="A92" s="16">
         <v>88</v>
       </c>
@@ -33935,7 +33758,7 @@
       <c r="V92" s="22"/>
       <c r="W92" s="22"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" hidden="1">
       <c r="A93" s="16">
         <v>89</v>
       </c>
@@ -33992,7 +33815,7 @@
       <c r="V93" s="22"/>
       <c r="W93" s="22"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" hidden="1">
       <c r="A94" s="16">
         <v>90</v>
       </c>
@@ -34053,7 +33876,7 @@
       <c r="V94" s="22"/>
       <c r="W94" s="22"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" hidden="1">
       <c r="A95" s="16">
         <v>91</v>
       </c>
@@ -34114,7 +33937,7 @@
       <c r="V95" s="22"/>
       <c r="W95" s="22"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" hidden="1">
       <c r="A96" s="16">
         <v>92</v>
       </c>
@@ -34175,7 +33998,7 @@
       <c r="V96" s="22"/>
       <c r="W96" s="22"/>
     </row>
-    <row r="97" spans="1:24">
+    <row r="97" spans="1:24" hidden="1">
       <c r="A97" s="16">
         <v>93</v>
       </c>
@@ -34232,7 +34055,7 @@
       <c r="V97" s="22"/>
       <c r="W97" s="22"/>
     </row>
-    <row r="98" spans="1:24">
+    <row r="98" spans="1:24" hidden="1">
       <c r="A98" s="16">
         <v>94</v>
       </c>
@@ -34289,7 +34112,7 @@
       <c r="V98" s="22"/>
       <c r="W98" s="22"/>
     </row>
-    <row r="99" spans="1:24">
+    <row r="99" spans="1:24" hidden="1">
       <c r="A99" s="16">
         <v>95</v>
       </c>
@@ -34346,7 +34169,7 @@
       <c r="V99" s="22"/>
       <c r="W99" s="22"/>
     </row>
-    <row r="100" spans="1:24">
+    <row r="100" spans="1:24" hidden="1">
       <c r="A100" s="16">
         <v>96</v>
       </c>
@@ -34403,7 +34226,7 @@
       <c r="V100" s="22"/>
       <c r="W100" s="22"/>
     </row>
-    <row r="101" spans="1:24">
+    <row r="101" spans="1:24" hidden="1">
       <c r="A101" s="16">
         <v>97</v>
       </c>
@@ -34466,7 +34289,7 @@
       <c r="V101" s="22"/>
       <c r="W101" s="22"/>
     </row>
-    <row r="102" spans="1:24">
+    <row r="102" spans="1:24" hidden="1">
       <c r="A102" s="16">
         <v>98</v>
       </c>
@@ -34529,7 +34352,7 @@
       <c r="V102" s="22"/>
       <c r="W102" s="22"/>
     </row>
-    <row r="103" spans="1:24">
+    <row r="103" spans="1:24" hidden="1">
       <c r="A103" s="16">
         <v>99</v>
       </c>
@@ -34594,7 +34417,7 @@
       <c r="V103" s="22"/>
       <c r="W103" s="22"/>
     </row>
-    <row r="104" spans="1:24">
+    <row r="104" spans="1:24" hidden="1">
       <c r="A104" s="16">
         <v>100</v>
       </c>
@@ -34655,7 +34478,7 @@
       <c r="V104" s="22"/>
       <c r="W104" s="22"/>
     </row>
-    <row r="105" spans="1:24" ht="14.25" customHeight="1">
+    <row r="105" spans="1:24" ht="14.25" hidden="1" customHeight="1">
       <c r="A105" s="16">
         <v>101</v>
       </c>
@@ -34718,7 +34541,7 @@
       <c r="V105" s="22"/>
       <c r="W105" s="22"/>
     </row>
-    <row r="106" spans="1:24">
+    <row r="106" spans="1:24" hidden="1">
       <c r="A106" s="16">
         <v>102</v>
       </c>
@@ -34813,7 +34636,7 @@
       <c r="W107" s="22"/>
       <c r="X107" s="6"/>
     </row>
-    <row r="108" spans="1:24">
+    <row r="108" spans="1:24" hidden="1">
       <c r="A108" s="16">
         <v>104</v>
       </c>
@@ -34909,7 +34732,7 @@
       <c r="W109" s="22"/>
       <c r="X109" s="6"/>
     </row>
-    <row r="110" spans="1:24">
+    <row r="110" spans="1:24" hidden="1">
       <c r="A110" s="16">
         <v>106</v>
       </c>
@@ -34943,7 +34766,7 @@
       <c r="W110" s="22"/>
       <c r="X110" s="6"/>
     </row>
-    <row r="111" spans="1:24">
+    <row r="111" spans="1:24" hidden="1">
       <c r="A111" s="16">
         <v>107</v>
       </c>
@@ -35009,7 +34832,7 @@
       <c r="W111" s="22"/>
       <c r="X111" s="6"/>
     </row>
-    <row r="112" spans="1:24">
+    <row r="112" spans="1:24" hidden="1">
       <c r="A112" s="16">
         <v>108</v>
       </c>
@@ -35075,7 +34898,7 @@
       <c r="W112" s="22"/>
       <c r="X112" s="6"/>
     </row>
-    <row r="113" spans="1:24">
+    <row r="113" spans="1:24" hidden="1">
       <c r="A113" s="16">
         <v>109</v>
       </c>
@@ -35141,7 +34964,7 @@
       <c r="W113" s="22"/>
       <c r="X113" s="6"/>
     </row>
-    <row r="114" spans="1:24">
+    <row r="114" spans="1:24" hidden="1">
       <c r="A114" s="16">
         <v>110</v>
       </c>
@@ -35175,7 +34998,7 @@
       <c r="W114" s="22"/>
       <c r="X114" s="6"/>
     </row>
-    <row r="115" spans="1:24">
+    <row r="115" spans="1:24" hidden="1">
       <c r="A115" s="16">
         <v>111</v>
       </c>
@@ -35241,7 +35064,7 @@
       <c r="W115" s="22"/>
       <c r="X115" s="6"/>
     </row>
-    <row r="116" spans="1:24">
+    <row r="116" spans="1:24" hidden="1">
       <c r="A116" s="16">
         <v>112</v>
       </c>
@@ -35351,32 +35174,58 @@
         <v>113</v>
       </c>
       <c r="E118" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>完了</v>
       </c>
       <c r="F118" s="4">
         <v>43112</v>
       </c>
-      <c r="G118" s="4"/>
+      <c r="G118" s="4">
+        <v>43113</v>
+      </c>
       <c r="H118" s="19">
         <v>3</v>
       </c>
-      <c r="I118" s="19"/>
-      <c r="J118" s="12" t="str">
+      <c r="I118" s="19">
+        <v>3</v>
+      </c>
+      <c r="J118" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="K118" s="22"/>
-      <c r="L118" s="22"/>
-      <c r="M118" s="22"/>
-      <c r="N118" s="125"/>
-      <c r="O118" s="124"/>
-      <c r="P118" s="123"/>
-      <c r="Q118" s="123"/>
-      <c r="R118" s="22"/>
-      <c r="S118" s="22"/>
-      <c r="T118" s="22"/>
-      <c r="U118" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="K118" s="22">
+        <v>3</v>
+      </c>
+      <c r="L118" s="22">
+        <v>3</v>
+      </c>
+      <c r="M118" s="22">
+        <v>3</v>
+      </c>
+      <c r="N118" s="125">
+        <v>3</v>
+      </c>
+      <c r="O118" s="124">
+        <v>3</v>
+      </c>
+      <c r="P118" s="123">
+        <v>3</v>
+      </c>
+      <c r="Q118" s="123">
+        <v>3</v>
+      </c>
+      <c r="R118" s="22">
+        <v>3</v>
+      </c>
+      <c r="S118" s="22">
+        <v>3</v>
+      </c>
+      <c r="T118" s="22">
+        <v>3</v>
+      </c>
+      <c r="U118" s="22">
+        <v>0</v>
+      </c>
       <c r="V118" s="22"/>
       <c r="W118" s="22"/>
       <c r="X118" s="6"/>
@@ -35459,20 +35308,24 @@
         <v>113</v>
       </c>
       <c r="E120" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>作業中</v>
       </c>
       <c r="F120" s="4">
         <v>43112</v>
       </c>
-      <c r="G120" s="4"/>
+      <c r="G120" s="4">
+        <v>43113</v>
+      </c>
       <c r="H120" s="19">
         <v>3</v>
       </c>
-      <c r="I120" s="19"/>
+      <c r="I120" s="19">
+        <v>2</v>
+      </c>
       <c r="J120" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K120" s="22">
         <v>3</v>
@@ -35504,12 +35357,14 @@
       <c r="T120" s="22">
         <v>3</v>
       </c>
-      <c r="U120" s="22"/>
+      <c r="U120" s="22">
+        <v>1</v>
+      </c>
       <c r="V120" s="22"/>
       <c r="W120" s="22"/>
       <c r="X120" s="6"/>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" hidden="1">
       <c r="A121" s="16">
         <v>117</v>
       </c>
@@ -35543,7 +35398,7 @@
       <c r="W121" s="22"/>
       <c r="X121" s="6"/>
     </row>
-    <row r="122" spans="1:24">
+    <row r="122" spans="1:24" hidden="1">
       <c r="A122" s="16">
         <v>118</v>
       </c>
@@ -35556,7 +35411,7 @@
       </c>
       <c r="E122" s="12" t="str">
         <f t="shared" ca="1" si="18"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F122" s="4">
         <v>43112</v>
@@ -35568,11 +35423,11 @@
         <v>4</v>
       </c>
       <c r="I122" s="19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J122" s="12">
         <f t="shared" ca="1" si="19"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K122" s="22">
         <v>4</v>
@@ -35604,12 +35459,14 @@
       <c r="T122" s="22">
         <v>2</v>
       </c>
-      <c r="U122" s="22"/>
+      <c r="U122" s="22">
+        <v>0</v>
+      </c>
       <c r="V122" s="22"/>
       <c r="W122" s="22"/>
       <c r="X122" s="6"/>
     </row>
-    <row r="123" spans="1:24">
+    <row r="123" spans="1:24" hidden="1">
       <c r="A123" s="16">
         <v>119</v>
       </c>
@@ -35643,7 +35500,7 @@
       <c r="W123" s="22"/>
       <c r="X123" s="6"/>
     </row>
-    <row r="124" spans="1:24">
+    <row r="124" spans="1:24" hidden="1">
       <c r="A124" s="16">
         <v>120</v>
       </c>
@@ -35703,7 +35560,7 @@
       <c r="W124" s="22"/>
       <c r="X124" s="6"/>
     </row>
-    <row r="125" spans="1:24">
+    <row r="125" spans="1:24" hidden="1">
       <c r="A125" s="16">
         <v>121</v>
       </c>
@@ -35763,7 +35620,7 @@
       <c r="W125" s="22"/>
       <c r="X125" s="6"/>
     </row>
-    <row r="126" spans="1:24">
+    <row r="126" spans="1:24" hidden="1">
       <c r="A126" s="16">
         <v>122</v>
       </c>
@@ -35825,7 +35682,7 @@
       <c r="W126" s="22"/>
       <c r="X126" s="6"/>
     </row>
-    <row r="127" spans="1:24">
+    <row r="127" spans="1:24" hidden="1">
       <c r="A127" s="16">
         <v>123</v>
       </c>
@@ -35885,7 +35742,7 @@
       <c r="W127" s="22"/>
       <c r="X127" s="6"/>
     </row>
-    <row r="128" spans="1:24">
+    <row r="128" spans="1:24" hidden="1">
       <c r="A128" s="16">
         <v>124</v>
       </c>
@@ -35927,7 +35784,7 @@
       <c r="W128" s="22"/>
       <c r="X128" s="6"/>
     </row>
-    <row r="129" spans="1:24">
+    <row r="129" spans="1:24" hidden="1">
       <c r="A129" s="16">
         <v>125</v>
       </c>
@@ -35967,7 +35824,7 @@
       <c r="W129" s="22"/>
       <c r="X129" s="6"/>
     </row>
-    <row r="130" spans="1:24">
+    <row r="130" spans="1:24" hidden="1">
       <c r="A130" s="16">
         <v>126</v>
       </c>
@@ -36007,7 +35864,7 @@
       <c r="W130" s="22"/>
       <c r="X130" s="6"/>
     </row>
-    <row r="131" spans="1:24">
+    <row r="131" spans="1:24" hidden="1">
       <c r="A131" s="16">
         <v>127</v>
       </c>
@@ -36047,7 +35904,7 @@
       <c r="W131" s="22"/>
       <c r="X131" s="6"/>
     </row>
-    <row r="132" spans="1:24">
+    <row r="132" spans="1:24" hidden="1">
       <c r="A132" s="16">
         <v>128</v>
       </c>
@@ -36081,7 +35938,7 @@
       <c r="W132" s="22"/>
       <c r="X132" s="6"/>
     </row>
-    <row r="133" spans="1:24">
+    <row r="133" spans="1:24" hidden="1">
       <c r="A133" s="16">
         <v>129</v>
       </c>
@@ -36115,7 +35972,7 @@
       <c r="W133" s="22"/>
       <c r="X133" s="6"/>
     </row>
-    <row r="134" spans="1:24">
+    <row r="134" spans="1:24" hidden="1">
       <c r="A134" s="16">
         <v>130</v>
       </c>
@@ -36149,7 +36006,7 @@
       <c r="W134" s="22"/>
       <c r="X134" s="6"/>
     </row>
-    <row r="135" spans="1:24">
+    <row r="135" spans="1:24" hidden="1">
       <c r="A135" s="16">
         <v>131</v>
       </c>
@@ -36183,7 +36040,7 @@
       <c r="W135" s="22"/>
       <c r="X135" s="6"/>
     </row>
-    <row r="136" spans="1:24">
+    <row r="136" spans="1:24" hidden="1">
       <c r="A136" s="16">
         <v>132</v>
       </c>
@@ -36217,7 +36074,7 @@
       <c r="W136" s="22"/>
       <c r="X136" s="6"/>
     </row>
-    <row r="137" spans="1:24">
+    <row r="137" spans="1:24" hidden="1">
       <c r="A137" s="16">
         <v>133</v>
       </c>
@@ -36251,7 +36108,7 @@
       <c r="W137" s="22"/>
       <c r="X137" s="6"/>
     </row>
-    <row r="138" spans="1:24">
+    <row r="138" spans="1:24" hidden="1">
       <c r="A138" s="16">
         <v>134</v>
       </c>
@@ -36285,7 +36142,7 @@
       <c r="W138" s="22"/>
       <c r="X138" s="6"/>
     </row>
-    <row r="139" spans="1:24">
+    <row r="139" spans="1:24" hidden="1">
       <c r="A139" s="16">
         <v>135</v>
       </c>
@@ -36319,7 +36176,7 @@
       <c r="W139" s="22"/>
       <c r="X139" s="6"/>
     </row>
-    <row r="140" spans="1:24">
+    <row r="140" spans="1:24" hidden="1">
       <c r="A140" s="16">
         <v>136</v>
       </c>
@@ -36353,7 +36210,7 @@
       <c r="W140" s="22"/>
       <c r="X140" s="6"/>
     </row>
-    <row r="141" spans="1:24">
+    <row r="141" spans="1:24" hidden="1">
       <c r="A141" s="16">
         <v>137</v>
       </c>
@@ -36387,7 +36244,7 @@
       <c r="W141" s="22"/>
       <c r="X141" s="6"/>
     </row>
-    <row r="142" spans="1:24">
+    <row r="142" spans="1:24" hidden="1">
       <c r="A142" s="16">
         <v>138</v>
       </c>
@@ -36421,7 +36278,7 @@
       <c r="W142" s="22"/>
       <c r="X142" s="6"/>
     </row>
-    <row r="143" spans="1:24">
+    <row r="143" spans="1:24" hidden="1">
       <c r="A143" s="16">
         <v>139</v>
       </c>
@@ -36455,7 +36312,7 @@
       <c r="W143" s="22"/>
       <c r="X143" s="6"/>
     </row>
-    <row r="144" spans="1:24">
+    <row r="144" spans="1:24" hidden="1">
       <c r="A144" s="16">
         <v>140</v>
       </c>
@@ -36489,7 +36346,7 @@
       <c r="W144" s="22"/>
       <c r="X144" s="6"/>
     </row>
-    <row r="145" spans="1:24">
+    <row r="145" spans="1:24" hidden="1">
       <c r="A145" s="16">
         <v>141</v>
       </c>
@@ -36523,7 +36380,7 @@
       <c r="W145" s="22"/>
       <c r="X145" s="6"/>
     </row>
-    <row r="146" spans="1:24">
+    <row r="146" spans="1:24" hidden="1">
       <c r="A146" s="16">
         <v>142</v>
       </c>
@@ -36557,7 +36414,7 @@
       <c r="W146" s="22"/>
       <c r="X146" s="6"/>
     </row>
-    <row r="147" spans="1:24">
+    <row r="147" spans="1:24" hidden="1">
       <c r="A147" s="16">
         <v>143</v>
       </c>
@@ -36591,7 +36448,7 @@
       <c r="W147" s="22"/>
       <c r="X147" s="6"/>
     </row>
-    <row r="148" spans="1:24">
+    <row r="148" spans="1:24" hidden="1">
       <c r="A148" s="16">
         <v>144</v>
       </c>
@@ -36625,7 +36482,7 @@
       <c r="W148" s="22"/>
       <c r="X148" s="6"/>
     </row>
-    <row r="149" spans="1:24">
+    <row r="149" spans="1:24" hidden="1">
       <c r="A149" s="16">
         <v>145</v>
       </c>
@@ -36659,7 +36516,7 @@
       <c r="W149" s="22"/>
       <c r="X149" s="6"/>
     </row>
-    <row r="150" spans="1:24">
+    <row r="150" spans="1:24" hidden="1">
       <c r="A150" s="16">
         <v>146</v>
       </c>
@@ -36693,7 +36550,7 @@
       <c r="W150" s="22"/>
       <c r="X150" s="6"/>
     </row>
-    <row r="151" spans="1:24">
+    <row r="151" spans="1:24" hidden="1">
       <c r="A151" s="16">
         <v>147</v>
       </c>
@@ -36727,7 +36584,7 @@
       <c r="W151" s="22"/>
       <c r="X151" s="6"/>
     </row>
-    <row r="152" spans="1:24">
+    <row r="152" spans="1:24" hidden="1">
       <c r="A152" s="16">
         <v>148</v>
       </c>
@@ -36761,7 +36618,7 @@
       <c r="W152" s="22"/>
       <c r="X152" s="6"/>
     </row>
-    <row r="153" spans="1:24">
+    <row r="153" spans="1:24" hidden="1">
       <c r="A153" s="16">
         <v>149</v>
       </c>
@@ -36795,7 +36652,7 @@
       <c r="W153" s="22"/>
       <c r="X153" s="6"/>
     </row>
-    <row r="154" spans="1:24">
+    <row r="154" spans="1:24" hidden="1">
       <c r="A154" s="16">
         <v>150</v>
       </c>
@@ -36829,7 +36686,7 @@
       <c r="W154" s="22"/>
       <c r="X154" s="6"/>
     </row>
-    <row r="155" spans="1:24">
+    <row r="155" spans="1:24" hidden="1">
       <c r="A155" s="16">
         <v>151</v>
       </c>
@@ -36863,7 +36720,7 @@
       <c r="W155" s="22"/>
       <c r="X155" s="6"/>
     </row>
-    <row r="156" spans="1:24">
+    <row r="156" spans="1:24" hidden="1">
       <c r="A156" s="16">
         <v>152</v>
       </c>
@@ -36897,7 +36754,7 @@
       <c r="W156" s="22"/>
       <c r="X156" s="6"/>
     </row>
-    <row r="157" spans="1:24">
+    <row r="157" spans="1:24" hidden="1">
       <c r="A157" s="16">
         <v>153</v>
       </c>
@@ -36931,7 +36788,7 @@
       <c r="W157" s="22"/>
       <c r="X157" s="6"/>
     </row>
-    <row r="158" spans="1:24">
+    <row r="158" spans="1:24" hidden="1">
       <c r="A158" s="16">
         <v>154</v>
       </c>
@@ -36965,7 +36822,7 @@
       <c r="W158" s="22"/>
       <c r="X158" s="6"/>
     </row>
-    <row r="159" spans="1:24">
+    <row r="159" spans="1:24" hidden="1">
       <c r="A159" s="16">
         <v>155</v>
       </c>
@@ -36999,7 +36856,7 @@
       <c r="W159" s="22"/>
       <c r="X159" s="6"/>
     </row>
-    <row r="160" spans="1:24">
+    <row r="160" spans="1:24" hidden="1">
       <c r="A160" s="16">
         <v>156</v>
       </c>
@@ -37033,7 +36890,7 @@
       <c r="W160" s="22"/>
       <c r="X160" s="6"/>
     </row>
-    <row r="161" spans="1:24">
+    <row r="161" spans="1:24" hidden="1">
       <c r="A161" s="16">
         <v>157</v>
       </c>
@@ -37067,7 +36924,7 @@
       <c r="W161" s="22"/>
       <c r="X161" s="6"/>
     </row>
-    <row r="162" spans="1:24">
+    <row r="162" spans="1:24" hidden="1">
       <c r="A162" s="16">
         <v>158</v>
       </c>
@@ -37101,7 +36958,7 @@
       <c r="W162" s="22"/>
       <c r="X162" s="6"/>
     </row>
-    <row r="163" spans="1:24">
+    <row r="163" spans="1:24" hidden="1">
       <c r="A163" s="16">
         <v>159</v>
       </c>
@@ -37135,7 +36992,7 @@
       <c r="W163" s="22"/>
       <c r="X163" s="6"/>
     </row>
-    <row r="164" spans="1:24">
+    <row r="164" spans="1:24" hidden="1">
       <c r="A164" s="16">
         <v>160</v>
       </c>
@@ -37169,7 +37026,7 @@
       <c r="W164" s="22"/>
       <c r="X164" s="6"/>
     </row>
-    <row r="165" spans="1:24">
+    <row r="165" spans="1:24" hidden="1">
       <c r="A165" s="16">
         <v>161</v>
       </c>
@@ -37203,7 +37060,7 @@
       <c r="W165" s="22"/>
       <c r="X165" s="6"/>
     </row>
-    <row r="166" spans="1:24">
+    <row r="166" spans="1:24" hidden="1">
       <c r="A166" s="16">
         <v>162</v>
       </c>
@@ -37237,7 +37094,7 @@
       <c r="W166" s="22"/>
       <c r="X166" s="6"/>
     </row>
-    <row r="167" spans="1:24">
+    <row r="167" spans="1:24" hidden="1">
       <c r="A167" s="16">
         <v>163</v>
       </c>
@@ -37271,7 +37128,7 @@
       <c r="W167" s="22"/>
       <c r="X167" s="6"/>
     </row>
-    <row r="168" spans="1:24">
+    <row r="168" spans="1:24" hidden="1">
       <c r="A168" s="16">
         <v>164</v>
       </c>
@@ -37305,7 +37162,7 @@
       <c r="W168" s="22"/>
       <c r="X168" s="6"/>
     </row>
-    <row r="169" spans="1:24">
+    <row r="169" spans="1:24" hidden="1">
       <c r="A169" s="16">
         <v>165</v>
       </c>
@@ -37339,7 +37196,7 @@
       <c r="W169" s="22"/>
       <c r="X169" s="6"/>
     </row>
-    <row r="170" spans="1:24">
+    <row r="170" spans="1:24" hidden="1">
       <c r="A170" s="16">
         <v>166</v>
       </c>
@@ -37373,7 +37230,7 @@
       <c r="W170" s="22"/>
       <c r="X170" s="6"/>
     </row>
-    <row r="171" spans="1:24">
+    <row r="171" spans="1:24" hidden="1">
       <c r="A171" s="16">
         <v>167</v>
       </c>
@@ -37407,7 +37264,7 @@
       <c r="W171" s="22"/>
       <c r="X171" s="6"/>
     </row>
-    <row r="172" spans="1:24">
+    <row r="172" spans="1:24" hidden="1">
       <c r="A172" s="16">
         <v>168</v>
       </c>
@@ -37441,7 +37298,7 @@
       <c r="W172" s="22"/>
       <c r="X172" s="6"/>
     </row>
-    <row r="173" spans="1:24">
+    <row r="173" spans="1:24" hidden="1">
       <c r="A173" s="16">
         <v>169</v>
       </c>
@@ -37475,7 +37332,7 @@
       <c r="W173" s="22"/>
       <c r="X173" s="6"/>
     </row>
-    <row r="174" spans="1:24">
+    <row r="174" spans="1:24" hidden="1">
       <c r="A174" s="16">
         <v>170</v>
       </c>
@@ -37509,7 +37366,7 @@
       <c r="W174" s="22"/>
       <c r="X174" s="6"/>
     </row>
-    <row r="175" spans="1:24">
+    <row r="175" spans="1:24" hidden="1">
       <c r="A175" s="16">
         <v>171</v>
       </c>
@@ -37753,6 +37610,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W175">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="野澤"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="10" showButton="0"/>
     <filterColumn colId="11" showButton="0"/>
     <filterColumn colId="12" showButton="0"/>

--- a/バックログ/02班スプリントバックログ.xlsx
+++ b/バックログ/02班スプリントバックログ.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'スプリントバックログ(第２）'!$A$1:$T$271</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'スプリントバックログ(第３）'!$A$1:$W$175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'スプリントバックログ(第３）'!$A$1:$V$175</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">デバッグシート!$B$1:$K$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">スケジュール!$A$1:$E$209</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">スケジュール!$1:$4</definedName>
@@ -501,7 +501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="1" shapeId="0">
+    <comment ref="V2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -537,7 +537,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="485">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -3563,10 +3563,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>蜘蛛の色直し</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>南雲</t>
     <rPh sb="0" eb="2">
       <t>ナグモ</t>
@@ -3962,28 +3958,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ポーズ画面の時いずれかのボタンが押された時ボタンを１秒間点滅</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ビョウカン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>テンメツ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>ポーズ画面の時ボタンがおされたら各ボタンの行き先に移動</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
@@ -4561,23 +4535,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ミニマップにポロノイ図を付ける</t>
-    <rPh sb="10" eb="11">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>野澤</t>
-    <rPh sb="0" eb="2">
-      <t>ノザワ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>中山</t>
     <rPh sb="0" eb="2">
       <t>ナカヤマ</t>
@@ -4632,10 +4589,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>1/14</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>1/15</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -4644,44 +4597,7 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>タイトルとセレクトでボタンを押したら1秒間点滅</t>
-    <rPh sb="14" eb="15">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ビョウカン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>テンメツ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>長さのボタン押すと一瞬だけタイトル文字が出てしまうのを直す</t>
-  </si>
-  <si>
-    <t>PV作成(土曜日)</t>
-    <rPh sb="2" eb="4">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ドヨウビ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>PV作成(月曜日)</t>
-    <rPh sb="5" eb="6">
-      <t>ツキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>PV作成(日曜日)</t>
-    <rPh sb="5" eb="6">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>樋田</t>
@@ -4691,16 +4607,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>PV作成(準備)</t>
-    <rPh sb="2" eb="4">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>タイトルで一定時間たったらステージの糸を消す</t>
     <rPh sb="5" eb="7">
       <t>イッテイ</t>
@@ -4723,6 +4629,33 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PV作成(撮影)</t>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サツエイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>PV作成(編集)</t>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>樋田</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -9408,9 +9341,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第３）'!$K$2:$W$2</c:f>
+              <c:f>'スプリントバックログ(第３）'!$K$2:$V$2</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>12/15</c:v>
                 </c:pt>
@@ -9445,9 +9378,6 @@
                   <c:v>1/13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1/14</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>1/15</c:v>
                 </c:pt>
               </c:strCache>
@@ -9455,33 +9385,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$K$4:$R$4</c:f>
+              <c:f>'スプリントバックログ(第３）'!$K$4:$V$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>184.5</c:v>
+                  <c:v>180.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>159.5</c:v>
+                  <c:v>155.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>139</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>131</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9524,9 +9466,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第３）'!$K$2:$W$2</c:f>
+              <c:f>'スプリントバックログ(第３）'!$K$2:$V$2</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>12/15</c:v>
                 </c:pt>
@@ -9561,9 +9503,6 @@
                   <c:v>1/13</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1/14</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>1/15</c:v>
                 </c:pt>
               </c:strCache>
@@ -9571,47 +9510,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$K$3:$W$3</c:f>
+              <c:f>'スプリントバックログ(第３）'!$K$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>184</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>169</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>153</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>138</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>123</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>107</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>92</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -10042,12 +9978,67 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第３）'!$Y$68:$Y$77</c:f>
+              <c:f>'スプリントバックログ(第３）'!$X$68:$X$77</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>野澤</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>杉浦</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>南雲</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>中山</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>石田</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>樋田</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$AA$68:$AA$77</c:f>
+              <c:f>'スプリントバックログ(第３）'!$Z$68:$Z$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -10124,12 +10115,67 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'スプリントバックログ(第３）'!$Y$68:$Y$77</c:f>
+              <c:f>'スプリントバックログ(第３）'!$X$68:$X$77</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>野澤</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>杉浦</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>南雲</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>中山</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>石田</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>樋田</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$AB$68:$AB$77</c:f>
+              <c:f>'スプリントバックログ(第３）'!$AA$68:$AA$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -10206,7 +10252,41 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$Z$68:$Z$77</c:f>
+              <c:f>'スプリントバックログ(第３）'!$Y$68:$Y$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -10220,7 +10300,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'スプリントバックログ(第３）'!$AD$67</c:f>
+              <c:f>'スプリントバックログ(第３）'!$AC$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10285,7 +10365,41 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'スプリントバックログ(第３）'!$AD$68:$AD$77</c:f>
+              <c:f>'スプリントバックログ(第３）'!$AC$68:$AC$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -10637,15 +10751,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10669,16 +10783,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>662103</xdr:colOff>
-      <xdr:row>200</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28367,12 +28481,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AE188"/>
+  <dimension ref="A1:AD188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C188" sqref="C188"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -28385,14 +28498,14 @@
     <col min="6" max="7" width="6.875" style="5" customWidth="1"/>
     <col min="8" max="9" width="6.875" style="9" customWidth="1"/>
     <col min="10" max="10" width="6.75" style="2" customWidth="1"/>
-    <col min="11" max="22" width="4.75" style="7" customWidth="1"/>
-    <col min="23" max="24" width="4.625" style="7" customWidth="1"/>
-    <col min="35" max="35" width="14.25" customWidth="1"/>
-    <col min="36" max="36" width="4.75" customWidth="1"/>
-    <col min="37" max="37" width="3.75" customWidth="1"/>
+    <col min="11" max="21" width="4.75" style="7" customWidth="1"/>
+    <col min="22" max="23" width="4.625" style="7" customWidth="1"/>
+    <col min="34" max="34" width="14.25" customWidth="1"/>
+    <col min="35" max="35" width="4.75" customWidth="1"/>
+    <col min="36" max="36" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="8" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:24" s="8" customFormat="1" ht="15" customHeight="1">
       <c r="A1" s="144" t="s">
         <v>10</v>
       </c>
@@ -28436,13 +28549,12 @@
       <c r="S1" s="142"/>
       <c r="T1" s="142"/>
       <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="143"/>
-      <c r="Y1" s="126" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" hidden="1">
+      <c r="V1" s="143"/>
+      <c r="X1" s="126" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="8" customFormat="1">
       <c r="A2" s="144"/>
       <c r="B2" s="151"/>
       <c r="C2" s="145"/>
@@ -28454,49 +28566,46 @@
       <c r="I2" s="149"/>
       <c r="J2" s="144"/>
       <c r="K2" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L2" s="23" t="s">
         <v>65</v>
       </c>
       <c r="M2" s="23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N2" s="122" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="O2" s="122" t="s">
+        <v>388</v>
+      </c>
+      <c r="P2" s="130" t="s">
         <v>389</v>
       </c>
-      <c r="P2" s="130" t="s">
-        <v>390</v>
-      </c>
       <c r="Q2" s="23" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="U2" s="23" t="s">
-        <v>479</v>
-      </c>
-      <c r="V2" s="23" t="s">
-        <v>480</v>
-      </c>
-      <c r="W2" s="121" t="s">
-        <v>481</v>
-      </c>
-      <c r="Y2" s="127">
+        <v>475</v>
+      </c>
+      <c r="V2" s="121" t="s">
+        <v>476</v>
+      </c>
+      <c r="X2" s="127">
         <v>42751</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="8" customFormat="1" hidden="1">
+    <row r="3" spans="1:24" s="8" customFormat="1">
       <c r="A3" s="144"/>
       <c r="B3" s="151"/>
       <c r="C3" s="145"/>
@@ -28508,59 +28617,55 @@
       <c r="I3" s="149"/>
       <c r="J3" s="144"/>
       <c r="K3" s="20">
-        <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$V$2))))</f>
-        <v>184</v>
+        <f t="shared" ref="K3:V3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$U$2))))</f>
+        <v>180</v>
       </c>
       <c r="L3" s="20">
-        <f t="shared" ref="L3:W3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$V$2))))</f>
-        <v>169</v>
+        <f t="shared" si="0"/>
+        <v>164</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="N3" s="20">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="O3" s="20">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="P3" s="20">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="Q3" s="20">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="R3" s="20">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="S3" s="20">
         <f t="shared" si="0"/>
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="T3" s="20">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="U3" s="20">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="V3" s="20">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="W3" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" s="8" customFormat="1" hidden="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="8" customFormat="1">
       <c r="A4" s="144"/>
       <c r="B4" s="152"/>
       <c r="C4" s="145"/>
@@ -28573,49 +28678,54 @@
       <c r="J4" s="144"/>
       <c r="K4" s="21">
         <f>SUM(K5:K109)</f>
-        <v>184.5</v>
+        <v>180.5</v>
       </c>
       <c r="L4" s="21">
-        <f t="shared" ref="L4:T4" si="1">SUM(L5:L109)</f>
-        <v>159.5</v>
+        <f t="shared" ref="L4:V4" si="1">SUM(L5:L109)</f>
+        <v>155.5</v>
       </c>
       <c r="M4" s="21">
         <f t="shared" si="1"/>
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N4" s="21">
         <f t="shared" si="1"/>
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O4" s="21">
         <f t="shared" si="1"/>
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P4" s="21">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="21">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="R4" s="21">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S4" s="21">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="T4" s="21">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-    </row>
-    <row r="5" spans="1:25">
+        <v>9</v>
+      </c>
+      <c r="U4" s="21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="V4" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -28643,7 +28753,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="12">
-        <f t="shared" ref="J5:J36" ca="1" si="2">IF(ISBLANK(K5)=FALSE,OFFSET(J5,0,COUNTA(K5:W5)),"")</f>
+        <f ca="1">IF(ISBLANK(K5)=FALSE,OFFSET(J5,0,COUNTA(K5:V5)),"")</f>
         <v>0</v>
       </c>
       <c r="K5" s="22">
@@ -28678,9 +28788,8 @@
       </c>
       <c r="U5" s="22"/>
       <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-    </row>
-    <row r="6" spans="1:25">
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -28708,7 +28817,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K6)=FALSE,OFFSET(J6,0,COUNTA(K6:V6)),"")</f>
         <v>0</v>
       </c>
       <c r="K6" s="22">
@@ -28739,9 +28848,8 @@
       <c r="T6" s="22"/>
       <c r="U6" s="22"/>
       <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-    </row>
-    <row r="7" spans="1:25">
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="16">
         <v>3</v>
       </c>
@@ -28753,7 +28861,7 @@
         <v>113</v>
       </c>
       <c r="E7" s="12" t="str">
-        <f t="shared" ref="E7:E70" ca="1" si="3">IF(ISBLANK($C7),"",IF(ISBLANK($G7),"未着手",IF($J7=0,"完了","作業中")))</f>
+        <f ca="1">IF(ISBLANK($C7),"",IF(ISBLANK($G7),"未着手",IF($J7=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F7" s="4">
@@ -28769,7 +28877,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K7)=FALSE,OFFSET(J7,0,COUNTA(K7:V7)),"")</f>
         <v>0</v>
       </c>
       <c r="K7" s="22">
@@ -28800,9 +28908,8 @@
       <c r="T7" s="22"/>
       <c r="U7" s="22"/>
       <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-    </row>
-    <row r="8" spans="1:25" hidden="1">
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="16">
         <v>4</v>
       </c>
@@ -28810,7 +28917,7 @@
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($C8),"",IF(ISBLANK($G8),"未着手",IF($J8=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F8" s="4"/>
@@ -28818,7 +28925,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K8)=FALSE,OFFSET(J8,0,COUNTA(K8:V8)),"")</f>
         <v/>
       </c>
       <c r="K8" s="22"/>
@@ -28833,9 +28940,8 @@
       <c r="T8" s="22"/>
       <c r="U8" s="22"/>
       <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-    </row>
-    <row r="9" spans="1:25" hidden="1">
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="16">
         <v>5</v>
       </c>
@@ -28843,7 +28949,7 @@
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($C9),"",IF(ISBLANK($G9),"未着手",IF($J9=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F9" s="4"/>
@@ -28851,7 +28957,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K9)=FALSE,OFFSET(J9,0,COUNTA(K9:V9)),"")</f>
         <v/>
       </c>
       <c r="K9" s="22"/>
@@ -28866,9 +28972,8 @@
       <c r="T9" s="22"/>
       <c r="U9" s="22"/>
       <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-    </row>
-    <row r="10" spans="1:25">
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="16">
         <v>6</v>
       </c>
@@ -28880,7 +28985,7 @@
         <v>113</v>
       </c>
       <c r="E10" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C10),"",IF(ISBLANK($G10),"未着手",IF($J10=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F10" s="4">
@@ -28896,7 +29001,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K10)=FALSE,OFFSET(J10,0,COUNTA(K10:V10)),"")</f>
         <v>0</v>
       </c>
       <c r="K10" s="22">
@@ -28927,9 +29032,8 @@
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-    </row>
-    <row r="11" spans="1:25">
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="16">
         <v>7</v>
       </c>
@@ -28941,7 +29045,7 @@
         <v>113</v>
       </c>
       <c r="E11" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C11),"",IF(ISBLANK($G11),"未着手",IF($J11=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F11" s="4">
@@ -28957,7 +29061,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K11)=FALSE,OFFSET(J11,0,COUNTA(K11:V11)),"")</f>
         <v>0</v>
       </c>
       <c r="K11" s="22">
@@ -28988,21 +29092,20 @@
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-    </row>
-    <row r="12" spans="1:25">
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="16">
         <v>8</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="85" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>113</v>
       </c>
       <c r="E12" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C12),"",IF(ISBLANK($G12),"未着手",IF($J12=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F12" s="4">
@@ -29018,7 +29121,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="12">
-        <f ca="1">IF(ISBLANK(K12)=FALSE,OFFSET(J12,0,COUNTA(K12:W12)),"")</f>
+        <f ca="1">IF(ISBLANK(K12)=FALSE,OFFSET(J12,0,COUNTA(K12:V12)),"")</f>
         <v>0</v>
       </c>
       <c r="K12" s="22">
@@ -29053,9 +29156,8 @@
       </c>
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-    </row>
-    <row r="13" spans="1:25">
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="16">
         <v>9</v>
       </c>
@@ -29067,7 +29169,7 @@
         <v>113</v>
       </c>
       <c r="E13" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C13),"",IF(ISBLANK($G13),"未着手",IF($J13=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F13" s="4">
@@ -29083,7 +29185,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K13)=FALSE,OFFSET(J13,0,COUNTA(K13:V13)),"")</f>
         <v>0</v>
       </c>
       <c r="K13" s="22">
@@ -29112,9 +29214,8 @@
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-    </row>
-    <row r="14" spans="1:25">
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="16">
         <v>10</v>
       </c>
@@ -29126,7 +29227,7 @@
         <v>113</v>
       </c>
       <c r="E14" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C14),"",IF(ISBLANK($G14),"未着手",IF($J14=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F14" s="4">
@@ -29142,7 +29243,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K14)=FALSE,OFFSET(J14,0,COUNTA(K14:V14)),"")</f>
         <v>0</v>
       </c>
       <c r="K14" s="22">
@@ -29171,9 +29272,8 @@
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-    </row>
-    <row r="15" spans="1:25">
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="16">
         <v>11</v>
       </c>
@@ -29185,7 +29285,7 @@
         <v>113</v>
       </c>
       <c r="E15" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C15),"",IF(ISBLANK($G15),"未着手",IF($J15=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F15" s="4">
@@ -29201,7 +29301,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K15)=FALSE,OFFSET(J15,0,COUNTA(K15:V15)),"")</f>
         <v>0</v>
       </c>
       <c r="K15" s="22">
@@ -29230,9 +29330,8 @@
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
       <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-    </row>
-    <row r="16" spans="1:25">
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="16">
         <v>12</v>
       </c>
@@ -29244,7 +29343,7 @@
         <v>113</v>
       </c>
       <c r="E16" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C16),"",IF(ISBLANK($G16),"未着手",IF($J16=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F16" s="4">
@@ -29260,7 +29359,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K16)=FALSE,OFFSET(J16,0,COUNTA(K16:V16)),"")</f>
         <v>0</v>
       </c>
       <c r="K16" s="22">
@@ -29277,21 +29376,20 @@
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
       <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-    </row>
-    <row r="17" spans="1:23" hidden="1">
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="16">
         <v>13</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C17),"",IF(ISBLANK($G17),"未着手",IF($J17=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F17" s="4">
@@ -29307,7 +29405,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K17)=FALSE,OFFSET(J17,0,COUNTA(K17:V17)),"")</f>
         <v>0</v>
       </c>
       <c r="K17" s="22">
@@ -29340,21 +29438,20 @@
       <c r="T17" s="22"/>
       <c r="U17" s="22"/>
       <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-    </row>
-    <row r="18" spans="1:23">
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="16">
         <v>14</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>113</v>
       </c>
       <c r="E18" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C18),"",IF(ISBLANK($G18),"未着手",IF($J18=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F18" s="4">
@@ -29370,7 +29467,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K18)=FALSE,OFFSET(J18,0,COUNTA(K18:V18)),"")</f>
         <v>0</v>
       </c>
       <c r="K18" s="22">
@@ -29399,21 +29496,20 @@
       <c r="T18" s="22"/>
       <c r="U18" s="22"/>
       <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-    </row>
-    <row r="19" spans="1:23">
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="16">
         <v>15</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="85" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>113</v>
       </c>
       <c r="E19" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C19),"",IF(ISBLANK($G19),"未着手",IF($J19=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F19" s="4">
@@ -29429,7 +29525,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K19)=FALSE,OFFSET(J19,0,COUNTA(K19:V19)),"")</f>
         <v>0</v>
       </c>
       <c r="K19" s="22">
@@ -29458,21 +29554,20 @@
       <c r="T19" s="22"/>
       <c r="U19" s="22"/>
       <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-    </row>
-    <row r="20" spans="1:23">
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="16">
         <v>16</v>
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>113</v>
       </c>
       <c r="E20" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C20),"",IF(ISBLANK($G20),"未着手",IF($J20=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F20" s="4">
@@ -29488,7 +29583,7 @@
         <v>2</v>
       </c>
       <c r="J20" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K20)=FALSE,OFFSET(J20,0,COUNTA(K20:V20)),"")</f>
         <v>0</v>
       </c>
       <c r="K20" s="22">
@@ -29517,21 +29612,20 @@
       <c r="T20" s="22"/>
       <c r="U20" s="22"/>
       <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-    </row>
-    <row r="21" spans="1:23">
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="16">
         <v>17</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>113</v>
       </c>
       <c r="E21" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C21),"",IF(ISBLANK($G21),"未着手",IF($J21=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F21" s="4">
@@ -29543,9 +29637,11 @@
       <c r="H21" s="19">
         <v>3</v>
       </c>
-      <c r="I21" s="19"/>
+      <c r="I21" s="19">
+        <v>3</v>
+      </c>
       <c r="J21" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K21)=FALSE,OFFSET(J21,0,COUNTA(K21:V21)),"")</f>
         <v>0</v>
       </c>
       <c r="K21" s="22">
@@ -29566,23 +29662,22 @@
       <c r="T21" s="22"/>
       <c r="U21" s="22"/>
       <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-    </row>
-    <row r="22" spans="1:23">
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" s="16">
         <v>18</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E22" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C22),"",IF(ISBLANK($G22),"未着手",IF($J22=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F22" s="4">
@@ -29594,9 +29689,11 @@
       <c r="H22" s="19">
         <v>3</v>
       </c>
-      <c r="I22" s="19"/>
+      <c r="I22" s="19">
+        <v>3</v>
+      </c>
       <c r="J22" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K22)=FALSE,OFFSET(J22,0,COUNTA(K22:V22)),"")</f>
         <v>0</v>
       </c>
       <c r="K22" s="22">
@@ -29617,21 +29714,20 @@
       <c r="T22" s="22"/>
       <c r="U22" s="22"/>
       <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-    </row>
-    <row r="23" spans="1:23">
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="16">
         <v>19</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E23" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C23),"",IF(ISBLANK($G23),"未着手",IF($J23=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F23" s="4">
@@ -29647,7 +29743,7 @@
         <v>4</v>
       </c>
       <c r="J23" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K23)=FALSE,OFFSET(J23,0,COUNTA(K23:V23)),"")</f>
         <v>0</v>
       </c>
       <c r="K23" s="22">
@@ -29664,21 +29760,20 @@
       <c r="T23" s="22"/>
       <c r="U23" s="22"/>
       <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-    </row>
-    <row r="24" spans="1:23" hidden="1">
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" s="16">
         <v>20</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E24" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C24),"",IF(ISBLANK($G24),"未着手",IF($J24=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F24" s="4">
@@ -29694,7 +29789,7 @@
         <v>2</v>
       </c>
       <c r="J24" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K24)=FALSE,OFFSET(J24,0,COUNTA(K24:V24)),"")</f>
         <v>0</v>
       </c>
       <c r="K24" s="22">
@@ -29723,21 +29818,20 @@
       <c r="T24" s="22"/>
       <c r="U24" s="22"/>
       <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-    </row>
-    <row r="25" spans="1:23" hidden="1">
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25" s="16">
         <v>21</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>352</v>
       </c>
       <c r="E25" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C25),"",IF(ISBLANK($G25),"未着手",IF($J25=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F25" s="4">
@@ -29753,7 +29847,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K25)=FALSE,OFFSET(J25,0,COUNTA(K25:V25)),"")</f>
         <v>0</v>
       </c>
       <c r="K25" s="22">
@@ -29774,9 +29868,8 @@
       <c r="T25" s="22"/>
       <c r="U25" s="22"/>
       <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-    </row>
-    <row r="26" spans="1:23" hidden="1">
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="16">
         <v>22</v>
       </c>
@@ -29784,7 +29877,7 @@
       <c r="C26" s="17"/>
       <c r="D26" s="18"/>
       <c r="E26" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($C26),"",IF(ISBLANK($G26),"未着手",IF($J26=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F26" s="4"/>
@@ -29792,7 +29885,7 @@
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K26)=FALSE,OFFSET(J26,0,COUNTA(K26:V26)),"")</f>
         <v/>
       </c>
       <c r="K26" s="22"/>
@@ -29807,9 +29900,8 @@
       <c r="T26" s="22"/>
       <c r="U26" s="22"/>
       <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-    </row>
-    <row r="27" spans="1:23" hidden="1">
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="16">
         <v>23</v>
       </c>
@@ -29821,7 +29913,7 @@
         <v>352</v>
       </c>
       <c r="E27" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C27),"",IF(ISBLANK($G27),"未着手",IF($J27=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F27" s="4">
@@ -29837,7 +29929,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K27)=FALSE,OFFSET(J27,0,COUNTA(K27:V27)),"")</f>
         <v>0</v>
       </c>
       <c r="K27" s="22">
@@ -29868,9 +29960,8 @@
       <c r="T27" s="22"/>
       <c r="U27" s="22"/>
       <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-    </row>
-    <row r="28" spans="1:23" hidden="1">
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="16">
         <v>24</v>
       </c>
@@ -29882,7 +29973,7 @@
         <v>352</v>
       </c>
       <c r="E28" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C28),"",IF(ISBLANK($G28),"未着手",IF($J28=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F28" s="4">
@@ -29898,7 +29989,7 @@
         <v>6</v>
       </c>
       <c r="J28" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K28)=FALSE,OFFSET(J28,0,COUNTA(K28:V28)),"")</f>
         <v>0</v>
       </c>
       <c r="K28" s="22">
@@ -29923,21 +30014,20 @@
       <c r="T28" s="22"/>
       <c r="U28" s="22"/>
       <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-    </row>
-    <row r="29" spans="1:23" hidden="1">
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="16">
         <v>25</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>352</v>
       </c>
       <c r="E29" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C29),"",IF(ISBLANK($G29),"未着手",IF($J29=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F29" s="4">
@@ -29953,7 +30043,7 @@
         <v>6</v>
       </c>
       <c r="J29" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K29)=FALSE,OFFSET(J29,0,COUNTA(K29:V29)),"")</f>
         <v>0</v>
       </c>
       <c r="K29" s="22">
@@ -29978,9 +30068,8 @@
       <c r="T29" s="22"/>
       <c r="U29" s="22"/>
       <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-    </row>
-    <row r="30" spans="1:23" hidden="1">
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="16">
         <v>26</v>
       </c>
@@ -29992,20 +30081,24 @@
         <v>352</v>
       </c>
       <c r="E30" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($C30),"",IF(ISBLANK($G30),"未着手",IF($J30=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F30" s="4">
         <v>43091</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4">
+        <v>43115</v>
+      </c>
       <c r="H30" s="19">
         <v>1</v>
       </c>
-      <c r="I30" s="19"/>
+      <c r="I30" s="19">
+        <v>1</v>
+      </c>
       <c r="J30" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f ca="1">IF(ISBLANK(K30)=FALSE,OFFSET(J30,0,COUNTA(K30:V30)),"")</f>
+        <v>0</v>
       </c>
       <c r="K30" s="22">
         <v>1</v>
@@ -30034,12 +30127,17 @@
       <c r="S30" s="22">
         <v>1</v>
       </c>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-    </row>
-    <row r="31" spans="1:23" hidden="1">
+      <c r="T30" s="22">
+        <v>1</v>
+      </c>
+      <c r="U30" s="22">
+        <v>1</v>
+      </c>
+      <c r="V30" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="16">
         <v>27</v>
       </c>
@@ -30051,20 +30149,24 @@
         <v>352</v>
       </c>
       <c r="E31" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($C31),"",IF(ISBLANK($G31),"未着手",IF($J31=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F31" s="4">
         <v>43091</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="4">
+        <v>43115</v>
+      </c>
       <c r="H31" s="19">
         <v>1</v>
       </c>
-      <c r="I31" s="19"/>
+      <c r="I31" s="19">
+        <v>1</v>
+      </c>
       <c r="J31" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f ca="1">IF(ISBLANK(K31)=FALSE,OFFSET(J31,0,COUNTA(K31:V31)),"")</f>
+        <v>0</v>
       </c>
       <c r="K31" s="22">
         <v>1</v>
@@ -30093,12 +30195,17 @@
       <c r="S31" s="22">
         <v>1</v>
       </c>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-    </row>
-    <row r="32" spans="1:23" hidden="1">
+      <c r="T31" s="22">
+        <v>1</v>
+      </c>
+      <c r="U31" s="22">
+        <v>1</v>
+      </c>
+      <c r="V31" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="16">
         <v>28</v>
       </c>
@@ -30110,20 +30217,24 @@
         <v>352</v>
       </c>
       <c r="E32" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($C32),"",IF(ISBLANK($G32),"未着手",IF($J32=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F32" s="4">
         <v>43091</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="4">
+        <v>43115</v>
+      </c>
       <c r="H32" s="19">
         <v>1</v>
       </c>
-      <c r="I32" s="19"/>
+      <c r="I32" s="19">
+        <v>1</v>
+      </c>
       <c r="J32" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f ca="1">IF(ISBLANK(K32)=FALSE,OFFSET(J32,0,COUNTA(K32:V32)),"")</f>
+        <v>0</v>
       </c>
       <c r="K32" s="22">
         <v>1</v>
@@ -30152,37 +30263,46 @@
       <c r="S32" s="22">
         <v>1</v>
       </c>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-    </row>
-    <row r="33" spans="1:31" hidden="1">
+      <c r="T32" s="22">
+        <v>1</v>
+      </c>
+      <c r="U32" s="22">
+        <v>1</v>
+      </c>
+      <c r="V32" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" s="16">
         <v>29</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D33" s="18" t="s">
         <v>352</v>
       </c>
       <c r="E33" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($C33),"",IF(ISBLANK($G33),"未着手",IF($J33=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F33" s="4">
         <v>43091</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4">
+        <v>43115</v>
+      </c>
       <c r="H33" s="19">
         <v>1</v>
       </c>
-      <c r="I33" s="19"/>
+      <c r="I33" s="19">
+        <v>1</v>
+      </c>
       <c r="J33" s="12">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <f ca="1">IF(ISBLANK(K33)=FALSE,OFFSET(J33,0,COUNTA(K33:V33)),"")</f>
+        <v>0</v>
       </c>
       <c r="K33" s="22">
         <v>1</v>
@@ -30211,12 +30331,17 @@
       <c r="S33" s="22">
         <v>1</v>
       </c>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-    </row>
-    <row r="34" spans="1:31" hidden="1">
+      <c r="T33" s="22">
+        <v>1</v>
+      </c>
+      <c r="U33" s="22">
+        <v>1</v>
+      </c>
+      <c r="V33" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" s="16">
         <v>30</v>
       </c>
@@ -30228,7 +30353,7 @@
         <v>352</v>
       </c>
       <c r="E34" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C34),"",IF(ISBLANK($G34),"未着手",IF($J34=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F34" s="4">
@@ -30244,7 +30369,7 @@
         <v>6</v>
       </c>
       <c r="J34" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K34)=FALSE,OFFSET(J34,0,COUNTA(K34:V34)),"")</f>
         <v>0</v>
       </c>
       <c r="K34" s="22">
@@ -30265,9 +30390,8 @@
       <c r="T34" s="22"/>
       <c r="U34" s="22"/>
       <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-    </row>
-    <row r="35" spans="1:31" hidden="1">
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" s="16">
         <v>31</v>
       </c>
@@ -30279,7 +30403,7 @@
         <v>112</v>
       </c>
       <c r="E35" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C35),"",IF(ISBLANK($G35),"未着手",IF($J35=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F35" s="4">
@@ -30295,7 +30419,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K35)=FALSE,OFFSET(J35,0,COUNTA(K35:V35)),"")</f>
         <v>0</v>
       </c>
       <c r="K35" s="22">
@@ -30314,21 +30438,20 @@
       <c r="T35" s="22"/>
       <c r="U35" s="22"/>
       <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-    </row>
-    <row r="36" spans="1:31" hidden="1">
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" s="16">
         <v>32</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>112</v>
       </c>
       <c r="E36" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C36),"",IF(ISBLANK($G36),"未着手",IF($J36=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F36" s="4">
@@ -30344,7 +30467,7 @@
         <v>4</v>
       </c>
       <c r="J36" s="12">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISBLANK(K36)=FALSE,OFFSET(J36,0,COUNTA(K36:V36)),"")</f>
         <v>0</v>
       </c>
       <c r="K36" s="22">
@@ -30375,14 +30498,13 @@
       <c r="T36" s="22"/>
       <c r="U36" s="22"/>
       <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-    </row>
-    <row r="37" spans="1:31" hidden="1">
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" s="16">
         <v>33</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>361</v>
@@ -30391,7 +30513,7 @@
         <v>372</v>
       </c>
       <c r="E37" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C37),"",IF(ISBLANK($G37),"未着手",IF($J37=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F37" s="4">
@@ -30407,7 +30529,7 @@
         <v>2</v>
       </c>
       <c r="J37" s="12">
-        <f t="shared" ref="J37:J54" ca="1" si="4">IF(ISBLANK(K37)=FALSE,OFFSET(J37,0,COUNTA(K37:W37)),"")</f>
+        <f ca="1">IF(ISBLANK(K37)=FALSE,OFFSET(J37,0,COUNTA(K37:V37)),"")</f>
         <v>0</v>
       </c>
       <c r="K37" s="22">
@@ -30426,14 +30548,13 @@
       <c r="T37" s="22"/>
       <c r="U37" s="22"/>
       <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-    </row>
-    <row r="38" spans="1:31" hidden="1">
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" s="16">
         <v>34</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>362</v>
@@ -30442,7 +30563,7 @@
         <v>372</v>
       </c>
       <c r="E38" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C38),"",IF(ISBLANK($G38),"未着手",IF($J38=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F38" s="4">
@@ -30458,7 +30579,7 @@
         <v>2</v>
       </c>
       <c r="J38" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(ISBLANK(K38)=FALSE,OFFSET(J38,0,COUNTA(K38:V38)),"")</f>
         <v>0</v>
       </c>
       <c r="K38" s="22">
@@ -30475,21 +30596,20 @@
       <c r="T38" s="22"/>
       <c r="U38" s="22"/>
       <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
+      <c r="X38" s="106"/>
       <c r="Y38" s="106"/>
       <c r="Z38" s="106"/>
       <c r="AA38" s="106"/>
       <c r="AB38" s="106"/>
       <c r="AC38" s="106"/>
       <c r="AD38" s="106"/>
-      <c r="AE38" s="106"/>
-    </row>
-    <row r="39" spans="1:31" hidden="1">
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" s="16">
         <v>35</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>363</v>
@@ -30514,7 +30634,7 @@
         <v>0.5</v>
       </c>
       <c r="J39" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(ISBLANK(K39)=FALSE,OFFSET(J39,0,COUNTA(K39:V39)),"")</f>
         <v>0</v>
       </c>
       <c r="K39" s="22">
@@ -30535,21 +30655,20 @@
       <c r="T39" s="22"/>
       <c r="U39" s="22"/>
       <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
+      <c r="X39" s="117"/>
       <c r="Y39" s="117"/>
-      <c r="Z39" s="117"/>
+      <c r="Z39" s="106"/>
       <c r="AA39" s="106"/>
       <c r="AB39" s="106"/>
       <c r="AC39" s="106"/>
       <c r="AD39" s="106"/>
-      <c r="AE39" s="106"/>
-    </row>
-    <row r="40" spans="1:31" hidden="1">
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" s="16">
         <v>36</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>364</v>
@@ -30558,7 +30677,7 @@
         <v>372</v>
       </c>
       <c r="E40" s="12" t="str">
-        <f t="shared" ref="E40:E50" ca="1" si="5">IF(ISBLANK($C40),"",IF(ISBLANK($G40),"未着手",IF($J40=0,"完了","作業中")))</f>
+        <f ca="1">IF(ISBLANK($C40),"",IF(ISBLANK($G40),"未着手",IF($J40=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F40" s="4">
@@ -30574,7 +30693,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(ISBLANK(K40)=FALSE,OFFSET(J40,0,COUNTA(K40:V40)),"")</f>
         <v>0</v>
       </c>
       <c r="K40" s="22">
@@ -30593,16 +30712,15 @@
       <c r="T40" s="22"/>
       <c r="U40" s="22"/>
       <c r="V40" s="22"/>
-      <c r="W40" s="22"/>
+      <c r="X40" s="117"/>
       <c r="Y40" s="117"/>
-      <c r="Z40" s="117"/>
+      <c r="Z40" s="106"/>
       <c r="AA40" s="106"/>
       <c r="AB40" s="106"/>
       <c r="AC40" s="106"/>
       <c r="AD40" s="106"/>
-      <c r="AE40" s="106"/>
-    </row>
-    <row r="41" spans="1:31">
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" s="16">
         <v>37</v>
       </c>
@@ -30614,10 +30732,12 @@
         <v>113</v>
       </c>
       <c r="E41" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(ISBLANK($C41),"",IF(ISBLANK($G41),"未着手",IF($J41=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="4">
+        <v>43109</v>
+      </c>
       <c r="G41" s="4">
         <v>43109</v>
       </c>
@@ -30628,7 +30748,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(ISBLANK(K41)=FALSE,OFFSET(J41,0,COUNTA(K41:V41)),"")</f>
         <v>0</v>
       </c>
       <c r="K41" s="22">
@@ -30659,16 +30779,15 @@
       <c r="T41" s="22"/>
       <c r="U41" s="22"/>
       <c r="V41" s="22"/>
-      <c r="W41" s="22"/>
+      <c r="X41" s="117"/>
       <c r="Y41" s="117"/>
-      <c r="Z41" s="117"/>
+      <c r="Z41" s="106"/>
       <c r="AA41" s="106"/>
       <c r="AB41" s="106"/>
       <c r="AC41" s="106"/>
       <c r="AD41" s="106"/>
-      <c r="AE41" s="106"/>
-    </row>
-    <row r="42" spans="1:31">
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" s="16">
         <v>38</v>
       </c>
@@ -30680,10 +30799,12 @@
         <v>113</v>
       </c>
       <c r="E42" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(ISBLANK($C42),"",IF(ISBLANK($G42),"未着手",IF($J42=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="4">
+        <v>43109</v>
+      </c>
       <c r="G42" s="4">
         <v>43109</v>
       </c>
@@ -30694,7 +30815,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(ISBLANK(K42)=FALSE,OFFSET(J42,0,COUNTA(K42:V42)),"")</f>
         <v>0</v>
       </c>
       <c r="K42" s="22">
@@ -30725,16 +30846,15 @@
       <c r="T42" s="22"/>
       <c r="U42" s="22"/>
       <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
+      <c r="X42" s="117"/>
       <c r="Y42" s="117"/>
-      <c r="Z42" s="117"/>
+      <c r="Z42" s="106"/>
       <c r="AA42" s="106"/>
       <c r="AB42" s="106"/>
       <c r="AC42" s="106"/>
       <c r="AD42" s="106"/>
-      <c r="AE42" s="106"/>
-    </row>
-    <row r="43" spans="1:31" hidden="1">
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" s="16">
         <v>39</v>
       </c>
@@ -30746,7 +30866,7 @@
         <v>372</v>
       </c>
       <c r="E43" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(ISBLANK($C43),"",IF(ISBLANK($G43),"未着手",IF($J43=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F43" s="4">
@@ -30762,7 +30882,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(ISBLANK(K43)=FALSE,OFFSET(J43,0,COUNTA(K43:V43)),"")</f>
         <v>0</v>
       </c>
       <c r="K43" s="22">
@@ -30793,28 +30913,27 @@
       <c r="T43" s="22"/>
       <c r="U43" s="22"/>
       <c r="V43" s="22"/>
-      <c r="W43" s="22"/>
+      <c r="X43" s="117"/>
       <c r="Y43" s="117"/>
-      <c r="Z43" s="117"/>
+      <c r="Z43" s="106"/>
       <c r="AA43" s="106"/>
       <c r="AB43" s="106"/>
       <c r="AC43" s="106"/>
       <c r="AD43" s="106"/>
-      <c r="AE43" s="106"/>
-    </row>
-    <row r="44" spans="1:31" hidden="1">
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" s="16">
         <v>40</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>372</v>
       </c>
       <c r="E44" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(ISBLANK($C44),"",IF(ISBLANK($G44),"未着手",IF($J44=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F44" s="4">
@@ -30830,7 +30949,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(ISBLANK(K44)=FALSE,OFFSET(J44,0,COUNTA(K44:V44)),"")</f>
         <v>0</v>
       </c>
       <c r="K44" s="22">
@@ -30865,31 +30984,30 @@
       </c>
       <c r="U44" s="22"/>
       <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
+      <c r="X44" s="117"/>
       <c r="Y44" s="117"/>
-      <c r="Z44" s="117"/>
+      <c r="Z44" s="106"/>
       <c r="AA44" s="106"/>
       <c r="AB44" s="106"/>
       <c r="AC44" s="106"/>
       <c r="AD44" s="106"/>
-      <c r="AE44" s="106"/>
-    </row>
-    <row r="45" spans="1:31">
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" s="16">
         <v>41</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>113</v>
       </c>
       <c r="E45" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
+        <f ca="1">IF(ISBLANK($C45),"",IF(ISBLANK($G45),"未着手",IF($J45=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F45" s="4">
         <v>43091</v>
@@ -30904,8 +31022,8 @@
         <v>1</v>
       </c>
       <c r="J45" s="12">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f ca="1">IF(ISBLANK(K45)=FALSE,OFFSET(J45,0,COUNTA(K45:V45)),"")</f>
+        <v>0</v>
       </c>
       <c r="K45" s="22">
         <v>1</v>
@@ -30934,29 +31052,28 @@
       <c r="S45" s="22">
         <v>1</v>
       </c>
-      <c r="T45" s="22"/>
+      <c r="T45" s="22">
+        <v>0</v>
+      </c>
       <c r="U45" s="22"/>
       <c r="V45" s="22"/>
-      <c r="W45" s="22"/>
+      <c r="X45" s="117"/>
       <c r="Y45" s="117"/>
-      <c r="Z45" s="117"/>
+      <c r="Z45" s="106"/>
       <c r="AA45" s="106"/>
       <c r="AB45" s="106"/>
       <c r="AC45" s="106"/>
       <c r="AD45" s="106"/>
-      <c r="AE45" s="106"/>
-    </row>
-    <row r="46" spans="1:31" hidden="1">
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" s="16">
         <v>42</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>409</v>
-      </c>
+      <c r="B46" s="16"/>
       <c r="C46" s="17"/>
       <c r="D46" s="18"/>
       <c r="E46" s="12" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($C46),"",IF(ISBLANK($G46),"未着手",IF($J46=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F46" s="4"/>
@@ -30964,7 +31081,7 @@
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="12" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(ISBLANK(K46)=FALSE,OFFSET(J46,0,COUNTA(K46:V46)),"")</f>
         <v/>
       </c>
       <c r="K46" s="22"/>
@@ -30979,21 +31096,20 @@
       <c r="T46" s="22"/>
       <c r="U46" s="22"/>
       <c r="V46" s="22"/>
-      <c r="W46" s="22"/>
+      <c r="X46" s="117"/>
       <c r="Y46" s="117"/>
-      <c r="Z46" s="117"/>
+      <c r="Z46" s="106"/>
       <c r="AA46" s="106"/>
       <c r="AB46" s="106"/>
       <c r="AC46" s="106"/>
       <c r="AD46" s="106"/>
-      <c r="AE46" s="106"/>
-    </row>
-    <row r="47" spans="1:31" hidden="1">
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" s="16">
         <v>43</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>368</v>
@@ -31002,7 +31118,7 @@
         <v>372</v>
       </c>
       <c r="E47" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(ISBLANK($C47),"",IF(ISBLANK($G47),"未着手",IF($J47=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F47" s="4">
@@ -31018,7 +31134,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(ISBLANK(K47)=FALSE,OFFSET(J47,0,COUNTA(K47:V47)),"")</f>
         <v>0</v>
       </c>
       <c r="K47" s="22">
@@ -31053,21 +31169,20 @@
       </c>
       <c r="U47" s="22"/>
       <c r="V47" s="22"/>
-      <c r="W47" s="22"/>
+      <c r="X47" s="117"/>
       <c r="Y47" s="117"/>
-      <c r="Z47" s="117"/>
+      <c r="Z47" s="106"/>
       <c r="AA47" s="106"/>
       <c r="AB47" s="106"/>
       <c r="AC47" s="106"/>
       <c r="AD47" s="106"/>
-      <c r="AE47" s="106"/>
-    </row>
-    <row r="48" spans="1:31" hidden="1">
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" s="16">
         <v>44</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>369</v>
@@ -31076,7 +31191,7 @@
         <v>372</v>
       </c>
       <c r="E48" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(ISBLANK($C48),"",IF(ISBLANK($G48),"未着手",IF($J48=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F48" s="4">
@@ -31092,7 +31207,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(ISBLANK(K48)=FALSE,OFFSET(J48,0,COUNTA(K48:V48)),"")</f>
         <v>0</v>
       </c>
       <c r="K48" s="22">
@@ -31127,21 +31242,20 @@
       </c>
       <c r="U48" s="22"/>
       <c r="V48" s="22"/>
-      <c r="W48" s="22"/>
+      <c r="X48" s="117"/>
       <c r="Y48" s="117"/>
-      <c r="Z48" s="117"/>
+      <c r="Z48" s="106"/>
       <c r="AA48" s="106"/>
       <c r="AB48" s="106"/>
       <c r="AC48" s="106"/>
       <c r="AD48" s="106"/>
-      <c r="AE48" s="106"/>
-    </row>
-    <row r="49" spans="1:31" hidden="1">
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" s="16">
         <v>45</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>370</v>
@@ -31150,7 +31264,7 @@
         <v>372</v>
       </c>
       <c r="E49" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(ISBLANK($C49),"",IF(ISBLANK($G49),"未着手",IF($J49=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F49" s="4">
@@ -31166,7 +31280,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(ISBLANK(K49)=FALSE,OFFSET(J49,0,COUNTA(K49:V49)),"")</f>
         <v>0</v>
       </c>
       <c r="K49" s="22">
@@ -31201,21 +31315,20 @@
       </c>
       <c r="U49" s="22"/>
       <c r="V49" s="22"/>
-      <c r="W49" s="22"/>
+      <c r="X49" s="117"/>
       <c r="Y49" s="117"/>
-      <c r="Z49" s="117"/>
+      <c r="Z49" s="106"/>
       <c r="AA49" s="106"/>
       <c r="AB49" s="106"/>
       <c r="AC49" s="106"/>
       <c r="AD49" s="106"/>
-      <c r="AE49" s="106"/>
-    </row>
-    <row r="50" spans="1:31" hidden="1">
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50" s="16">
         <v>46</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>367</v>
@@ -31224,7 +31337,7 @@
         <v>372</v>
       </c>
       <c r="E50" s="12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">IF(ISBLANK($C50),"",IF(ISBLANK($G50),"未着手",IF($J50=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F50" s="4">
@@ -31240,7 +31353,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(ISBLANK(K50)=FALSE,OFFSET(J50,0,COUNTA(K50:V50)),"")</f>
         <v>0</v>
       </c>
       <c r="K50" s="22">
@@ -31275,21 +31388,20 @@
       </c>
       <c r="U50" s="22"/>
       <c r="V50" s="22"/>
-      <c r="W50" s="22"/>
+      <c r="X50" s="117"/>
       <c r="Y50" s="117"/>
-      <c r="Z50" s="117"/>
+      <c r="Z50" s="106"/>
       <c r="AA50" s="106"/>
       <c r="AB50" s="106"/>
       <c r="AC50" s="106"/>
       <c r="AD50" s="106"/>
-      <c r="AE50" s="106"/>
-    </row>
-    <row r="51" spans="1:31" hidden="1">
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" s="16">
         <v>47</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>371</v>
@@ -31298,7 +31410,7 @@
         <v>372</v>
       </c>
       <c r="E51" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C51),"",IF(ISBLANK($G51),"未着手",IF($J51=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F51" s="4">
@@ -31314,7 +31426,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(ISBLANK(K51)=FALSE,OFFSET(J51,0,COUNTA(K51:V51)),"")</f>
         <v>0</v>
       </c>
       <c r="K51" s="22">
@@ -31349,30 +31461,29 @@
       </c>
       <c r="U51" s="22"/>
       <c r="V51" s="22"/>
-      <c r="W51" s="22"/>
+      <c r="X51" s="106"/>
       <c r="Y51" s="106"/>
       <c r="Z51" s="106"/>
       <c r="AA51" s="106"/>
       <c r="AB51" s="106"/>
       <c r="AC51" s="106"/>
       <c r="AD51" s="106"/>
-      <c r="AE51" s="106"/>
-    </row>
-    <row r="52" spans="1:31" hidden="1">
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" s="16">
         <v>48</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E52" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C52),"",IF(ISBLANK($G52),"未着手",IF($J52=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F52" s="4">
@@ -31388,7 +31499,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(ISBLANK(K52)=FALSE,OFFSET(J52,0,COUNTA(K52:V52)),"")</f>
         <v>0</v>
       </c>
       <c r="K52" s="22">
@@ -31409,30 +31520,29 @@
       <c r="T52" s="22"/>
       <c r="U52" s="22"/>
       <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
+      <c r="X52" s="106"/>
       <c r="Y52" s="106"/>
       <c r="Z52" s="106"/>
       <c r="AA52" s="106"/>
       <c r="AB52" s="106"/>
       <c r="AC52" s="106"/>
       <c r="AD52" s="106"/>
-      <c r="AE52" s="106"/>
-    </row>
-    <row r="53" spans="1:31" hidden="1">
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" s="16">
         <v>49</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C53" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="D53" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="D53" s="18" t="s">
-        <v>411</v>
-      </c>
       <c r="E53" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C53),"",IF(ISBLANK($G53),"未着手",IF($J53=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F53" s="4">
@@ -31448,7 +31558,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(ISBLANK(K53)=FALSE,OFFSET(J53,0,COUNTA(K53:V53)),"")</f>
         <v>0</v>
       </c>
       <c r="K53" s="22">
@@ -31469,28 +31579,27 @@
       <c r="T53" s="22"/>
       <c r="U53" s="22"/>
       <c r="V53" s="22"/>
-      <c r="W53" s="22"/>
+      <c r="X53" s="106"/>
       <c r="Y53" s="106"/>
       <c r="Z53" s="106"/>
       <c r="AA53" s="106"/>
       <c r="AB53" s="106"/>
       <c r="AC53" s="106"/>
       <c r="AD53" s="106"/>
-      <c r="AE53" s="106"/>
-    </row>
-    <row r="54" spans="1:31" hidden="1">
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" s="16">
         <v>50</v>
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E54" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C54),"",IF(ISBLANK($G54),"未着手",IF($J54=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F54" s="4">
@@ -31506,7 +31615,7 @@
         <v>2</v>
       </c>
       <c r="J54" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(ISBLANK(K54)=FALSE,OFFSET(J54,0,COUNTA(K54:V54)),"")</f>
         <v>0</v>
       </c>
       <c r="K54" s="22">
@@ -31537,9 +31646,8 @@
       <c r="T54" s="22"/>
       <c r="U54" s="22"/>
       <c r="V54" s="22"/>
-      <c r="W54" s="22"/>
-    </row>
-    <row r="55" spans="1:31" hidden="1">
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" s="16">
         <v>51</v>
       </c>
@@ -31547,7 +31655,7 @@
       <c r="C55" s="17"/>
       <c r="D55" s="18"/>
       <c r="E55" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($C55),"",IF(ISBLANK($G55),"未着手",IF($J55=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F55" s="4"/>
@@ -31567,9 +31675,8 @@
       <c r="T55" s="22"/>
       <c r="U55" s="22"/>
       <c r="V55" s="22"/>
-      <c r="W55" s="22"/>
-    </row>
-    <row r="56" spans="1:31" hidden="1">
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" s="16">
         <v>52</v>
       </c>
@@ -31577,7 +31684,7 @@
       <c r="C56" s="17"/>
       <c r="D56" s="18"/>
       <c r="E56" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($C56),"",IF(ISBLANK($G56),"未着手",IF($J56=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F56" s="4"/>
@@ -31585,7 +31692,7 @@
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="12" t="str">
-        <f t="shared" ref="J56:J62" ca="1" si="6">IF(ISBLANK(K56)=FALSE,OFFSET(J56,0,COUNTA(K56:W56)),"")</f>
+        <f ca="1">IF(ISBLANK(K56)=FALSE,OFFSET(J56,0,COUNTA(K56:V56)),"")</f>
         <v/>
       </c>
       <c r="K56" s="22"/>
@@ -31600,21 +31707,20 @@
       <c r="T56" s="22"/>
       <c r="U56" s="22"/>
       <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-    </row>
-    <row r="57" spans="1:31" hidden="1">
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57" s="16">
         <v>53</v>
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E57" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C57),"",IF(ISBLANK($G57),"未着手",IF($J57=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F57" s="4">
@@ -31626,9 +31732,11 @@
       <c r="H57" s="19">
         <v>1</v>
       </c>
-      <c r="I57" s="19"/>
+      <c r="I57" s="19">
+        <v>1</v>
+      </c>
       <c r="J57" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(K57)=FALSE,OFFSET(J57,0,COUNTA(K57:V57)),"")</f>
         <v>0</v>
       </c>
       <c r="K57" s="22">
@@ -31649,21 +31757,20 @@
       <c r="T57" s="22"/>
       <c r="U57" s="22"/>
       <c r="V57" s="22"/>
-      <c r="W57" s="22"/>
-    </row>
-    <row r="58" spans="1:31" hidden="1">
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58" s="16">
         <v>54</v>
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E58" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C58),"",IF(ISBLANK($G58),"未着手",IF($J58=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F58" s="4">
@@ -31679,7 +31786,7 @@
         <v>3</v>
       </c>
       <c r="J58" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(K58)=FALSE,OFFSET(J58,0,COUNTA(K58:V58)),"")</f>
         <v>0</v>
       </c>
       <c r="K58" s="22">
@@ -31708,21 +31815,20 @@
       <c r="T58" s="22"/>
       <c r="U58" s="22"/>
       <c r="V58" s="22"/>
-      <c r="W58" s="22"/>
-    </row>
-    <row r="59" spans="1:31" hidden="1">
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" s="16">
         <v>55</v>
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E59" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C59),"",IF(ISBLANK($G59),"未着手",IF($J59=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F59" s="4">
@@ -31738,7 +31844,7 @@
         <v>3</v>
       </c>
       <c r="J59" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(K59)=FALSE,OFFSET(J59,0,COUNTA(K59:V59)),"")</f>
         <v>0</v>
       </c>
       <c r="K59" s="22">
@@ -31767,21 +31873,20 @@
       <c r="T59" s="22"/>
       <c r="U59" s="22"/>
       <c r="V59" s="22"/>
-      <c r="W59" s="22"/>
-    </row>
-    <row r="60" spans="1:31" hidden="1">
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60" s="16">
         <v>56</v>
       </c>
       <c r="B60" s="16"/>
       <c r="C60" s="17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E60" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C60),"",IF(ISBLANK($G60),"未着手",IF($J60=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F60" s="4">
@@ -31797,7 +31902,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(K60)=FALSE,OFFSET(J60,0,COUNTA(K60:V60)),"")</f>
         <v>0</v>
       </c>
       <c r="K60" s="22">
@@ -31824,21 +31929,20 @@
       <c r="T60" s="22"/>
       <c r="U60" s="22"/>
       <c r="V60" s="22"/>
-      <c r="W60" s="22"/>
-    </row>
-    <row r="61" spans="1:31" hidden="1">
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61" s="16">
         <v>57</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="17" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E61" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C61),"",IF(ISBLANK($G61),"未着手",IF($J61=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F61" s="4">
@@ -31854,7 +31958,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(K61)=FALSE,OFFSET(J61,0,COUNTA(K61:V61)),"")</f>
         <v>0</v>
       </c>
       <c r="K61" s="22">
@@ -31885,21 +31989,20 @@
       <c r="T61" s="22"/>
       <c r="U61" s="22"/>
       <c r="V61" s="22"/>
-      <c r="W61" s="22"/>
-    </row>
-    <row r="62" spans="1:31" hidden="1">
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62" s="16">
         <v>58</v>
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="17" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E62" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C62),"",IF(ISBLANK($G62),"未着手",IF($J62=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F62" s="4">
@@ -31915,7 +32018,7 @@
         <v>1</v>
       </c>
       <c r="J62" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f ca="1">IF(ISBLANK(K62)=FALSE,OFFSET(J62,0,COUNTA(K62:V62)),"")</f>
         <v>0</v>
       </c>
       <c r="K62" s="22">
@@ -31946,21 +32049,20 @@
       <c r="T62" s="22"/>
       <c r="U62" s="22"/>
       <c r="V62" s="22"/>
-      <c r="W62" s="22"/>
-    </row>
-    <row r="63" spans="1:31" hidden="1">
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63" s="16">
         <v>59</v>
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E63" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($C63),"",IF(ISBLANK($G63),"未着手",IF($J63=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F63" s="4">
@@ -32000,82 +32102,52 @@
       <c r="T63" s="22"/>
       <c r="U63" s="22"/>
       <c r="V63" s="22"/>
-      <c r="W63" s="22"/>
-    </row>
-    <row r="64" spans="1:31" hidden="1">
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64" s="16">
         <v>60</v>
       </c>
       <c r="B64" s="16"/>
-      <c r="C64" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>378</v>
-      </c>
+      <c r="C64" s="17"/>
+      <c r="D64" s="18"/>
       <c r="E64" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>作業中</v>
-      </c>
-      <c r="F64" s="4">
-        <v>43091</v>
-      </c>
-      <c r="G64" s="4">
-        <v>43456</v>
-      </c>
-      <c r="H64" s="19">
-        <v>2</v>
-      </c>
+        <f>IF(ISBLANK($C64),"",IF(ISBLANK($G64),"未着手",IF($J64=0,"完了","作業中")))</f>
+        <v/>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="19"/>
       <c r="I64" s="19"/>
-      <c r="J64" s="12">
-        <f t="shared" ref="J64:J104" ca="1" si="7">IF(ISBLANK(K64)=FALSE,OFFSET(J64,0,COUNTA(K64:W64)),"")</f>
-        <v>2</v>
-      </c>
-      <c r="K64" s="22">
-        <v>2</v>
-      </c>
-      <c r="L64" s="22">
-        <v>2</v>
-      </c>
-      <c r="M64" s="22">
-        <v>2</v>
-      </c>
-      <c r="N64" s="125">
-        <v>2</v>
-      </c>
-      <c r="O64" s="124">
-        <v>2</v>
-      </c>
-      <c r="P64" s="123">
-        <v>2</v>
-      </c>
-      <c r="Q64" s="123">
-        <v>2</v>
-      </c>
-      <c r="R64" s="22">
-        <v>2</v>
-      </c>
-      <c r="S64" s="22">
-        <v>2</v>
-      </c>
+      <c r="J64" s="12" t="str">
+        <f ca="1">IF(ISBLANK(K64)=FALSE,OFFSET(J64,0,COUNTA(K64:V64)),"")</f>
+        <v/>
+      </c>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="125"/>
+      <c r="O64" s="124"/>
+      <c r="P64" s="123"/>
+      <c r="Q64" s="123"/>
+      <c r="R64" s="22"/>
+      <c r="S64" s="22"/>
       <c r="T64" s="22"/>
       <c r="U64" s="22"/>
       <c r="V64" s="22"/>
-      <c r="W64" s="22"/>
-    </row>
-    <row r="65" spans="1:30" hidden="1">
+    </row>
+    <row r="65" spans="1:29">
       <c r="A65" s="16">
         <v>61</v>
       </c>
       <c r="B65" s="16"/>
       <c r="C65" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E65" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C65),"",IF(ISBLANK($G65),"未着手",IF($J65=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F65" s="4">
@@ -32091,7 +32163,7 @@
         <v>3</v>
       </c>
       <c r="J65" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K65)=FALSE,OFFSET(J65,0,COUNTA(K65:V65)),"")</f>
         <v>0</v>
       </c>
       <c r="K65" s="22">
@@ -32108,21 +32180,20 @@
       <c r="T65" s="22"/>
       <c r="U65" s="22"/>
       <c r="V65" s="22"/>
-      <c r="W65" s="22"/>
-    </row>
-    <row r="66" spans="1:30" hidden="1">
+    </row>
+    <row r="66" spans="1:29">
       <c r="A66" s="16">
         <v>62</v>
       </c>
       <c r="B66" s="16"/>
       <c r="C66" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="D66" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D66" s="18" t="s">
-        <v>378</v>
-      </c>
       <c r="E66" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C66),"",IF(ISBLANK($G66),"未着手",IF($J66=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F66" s="4">
@@ -32138,7 +32209,7 @@
         <v>3</v>
       </c>
       <c r="J66" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K66)=FALSE,OFFSET(J66,0,COUNTA(K66:V66)),"")</f>
         <v>0</v>
       </c>
       <c r="K66" s="22">
@@ -32167,9 +32238,8 @@
       <c r="T66" s="22"/>
       <c r="U66" s="22"/>
       <c r="V66" s="22"/>
-      <c r="W66" s="22"/>
-    </row>
-    <row r="67" spans="1:30" hidden="1">
+    </row>
+    <row r="67" spans="1:29">
       <c r="A67" s="16">
         <v>63</v>
       </c>
@@ -32177,7 +32247,7 @@
       <c r="C67" s="17"/>
       <c r="D67" s="18"/>
       <c r="E67" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($C67),"",IF(ISBLANK($G67),"未着手",IF($J67=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F67" s="4"/>
@@ -32185,7 +32255,7 @@
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="12" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K67)=FALSE,OFFSET(J67,0,COUNTA(K67:V67)),"")</f>
         <v/>
       </c>
       <c r="K67" s="22"/>
@@ -32200,27 +32270,26 @@
       <c r="T67" s="22"/>
       <c r="U67" s="22"/>
       <c r="V67" s="22"/>
-      <c r="W67" s="22"/>
+      <c r="X67" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="Y67" s="13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Z67" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA67" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB67" s="13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC67" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD67" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:30" hidden="1">
+    <row r="68" spans="1:29">
       <c r="A68" s="16">
         <v>64</v>
       </c>
@@ -32228,7 +32297,7 @@
       <c r="C68" s="17"/>
       <c r="D68" s="18"/>
       <c r="E68" s="12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($C68),"",IF(ISBLANK($G68),"未着手",IF($J68=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F68" s="4"/>
@@ -32236,7 +32305,7 @@
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
       <c r="J68" s="12" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K68)=FALSE,OFFSET(J68,0,COUNTA(K68:V68)),"")</f>
         <v/>
       </c>
       <c r="K68" s="22"/>
@@ -32251,44 +32320,43 @@
       <c r="T68" s="22"/>
       <c r="U68" s="22"/>
       <c r="V68" s="22"/>
-      <c r="W68" s="22"/>
-      <c r="Y68" s="11" t="s">
-        <v>392</v>
+      <c r="X68" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y68" s="10">
+        <f>SUMIF($D$5:$D$175,X68,$H$5:$H$175)</f>
+        <v>58</v>
       </c>
       <c r="Z68" s="10">
-        <f>SUMIF($D$5:$D$175,Y68,$H$5:$H$175)</f>
-        <v>62</v>
+        <f ca="1">SUMIF($D$5:$D$175,X68,$J$5:$J$175)</f>
+        <v>0</v>
       </c>
       <c r="AA68" s="10">
-        <f ca="1">SUMIF($D$5:$D$175,Y68,$J$5:$J$175)</f>
-        <v>8</v>
-      </c>
-      <c r="AB68" s="10">
-        <f>SUMIF($D$5:$D$174,Y68,$I$5:$I$175)</f>
-        <v>52</v>
-      </c>
-      <c r="AC68" s="14">
-        <f>COUNTA($K$2:$W$2)*6-COUNTA($K$4:$W$4)*6</f>
-        <v>18</v>
-      </c>
-      <c r="AD68" s="15">
-        <f ca="1">IF(AC68&gt;AA68,0,AA68-AC68)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" hidden="1">
+        <f>SUMIF($D$5:$D$174,X68,$I$5:$I$175)</f>
+        <v>60</v>
+      </c>
+      <c r="AB68" s="14">
+        <f t="shared" ref="AB68:AB73" si="2">COUNTA($K$2:$V$2)*6-COUNTA($K$4:$V$4)*6</f>
+        <v>0</v>
+      </c>
+      <c r="AC68" s="15">
+        <f ca="1">IF(AB68&gt;Z68,0,Z68-AB68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29">
       <c r="A69" s="16">
         <v>65</v>
       </c>
       <c r="B69" s="16"/>
       <c r="C69" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E69" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C69),"",IF(ISBLANK($G69),"未着手",IF($J69=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F69" s="4">
@@ -32304,7 +32372,7 @@
         <v>2</v>
       </c>
       <c r="J69" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K69)=FALSE,OFFSET(J69,0,COUNTA(K69:V69)),"")</f>
         <v>0</v>
       </c>
       <c r="K69" s="22">
@@ -32337,44 +32405,43 @@
       <c r="T69" s="22"/>
       <c r="U69" s="22"/>
       <c r="V69" s="22"/>
-      <c r="W69" s="22"/>
-      <c r="Y69" s="11" t="s">
+      <c r="X69" s="11" t="s">
         <v>352</v>
       </c>
+      <c r="Y69" s="10">
+        <f t="shared" ref="Y69:Y73" si="3">SUMIF($D$5:$D$175,X69,$H$5:$H$175)</f>
+        <v>45</v>
+      </c>
       <c r="Z69" s="10">
-        <f t="shared" ref="Z69:Z73" si="8">SUMIF($D$5:$D$175,Y69,$H$5:$H$175)</f>
-        <v>45</v>
+        <f t="shared" ref="Z69:Z73" ca="1" si="4">SUMIF($D$5:$D$175,X69,$J$5:$J$175)</f>
+        <v>0</v>
       </c>
       <c r="AA69" s="10">
-        <f t="shared" ref="AA69:AA73" ca="1" si="9">SUMIF($D$5:$D$175,Y69,$J$5:$J$175)</f>
-        <v>7</v>
-      </c>
-      <c r="AB69" s="10">
-        <f t="shared" ref="AB69:AB73" si="10">SUMIF($D$5:$D$174,Y69,$I$5:$I$175)</f>
-        <v>40</v>
-      </c>
-      <c r="AC69" s="14">
-        <f t="shared" ref="AC69:AC73" si="11">COUNTA($K$2:$W$2)*6-COUNTA($K$4:$W$4)*6</f>
-        <v>18</v>
-      </c>
-      <c r="AD69" s="15">
-        <f t="shared" ref="AD69:AD77" ca="1" si="12">IF(AC69&gt;AA69,0,AA69-AC69)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30" hidden="1">
+        <f t="shared" ref="AA69:AA73" si="5">SUMIF($D$5:$D$174,X69,$I$5:$I$175)</f>
+        <v>46</v>
+      </c>
+      <c r="AB69" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC69" s="15">
+        <f t="shared" ref="AC69:AC77" ca="1" si="6">IF(AB69&gt;Z69,0,Z69-AB69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29">
       <c r="A70" s="16">
         <v>66</v>
       </c>
       <c r="B70" s="16"/>
       <c r="C70" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E70" s="12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISBLANK($C70),"",IF(ISBLANK($G70),"未着手",IF($J70=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F70" s="4">
@@ -32390,7 +32457,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K70)=FALSE,OFFSET(J70,0,COUNTA(K70:V70)),"")</f>
         <v>0</v>
       </c>
       <c r="K70" s="22">
@@ -32423,44 +32490,43 @@
       <c r="T70" s="22"/>
       <c r="U70" s="22"/>
       <c r="V70" s="22"/>
-      <c r="W70" s="22"/>
-      <c r="Y70" s="11" t="s">
-        <v>374</v>
+      <c r="X70" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y70" s="10">
+        <f t="shared" si="3"/>
+        <v>32</v>
       </c>
       <c r="Z70" s="10">
-        <f t="shared" si="8"/>
-        <v>32</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="AA70" s="10">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB70" s="10">
-        <f t="shared" si="10"/>
-        <v>21</v>
-      </c>
-      <c r="AC70" s="14">
-        <f t="shared" si="11"/>
-        <v>18</v>
-      </c>
-      <c r="AD70" s="15">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30" hidden="1">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="AB70" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC70" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29">
       <c r="A71" s="16">
         <v>67</v>
       </c>
       <c r="B71" s="16"/>
       <c r="C71" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E71" s="12" t="str">
-        <f t="shared" ref="E71:E76" ca="1" si="13">IF(ISBLANK($C71),"",IF(ISBLANK($G71),"未着手",IF($J71=0,"完了","作業中")))</f>
+        <f ca="1">IF(ISBLANK($C71),"",IF(ISBLANK($G71),"未着手",IF($J71=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F71" s="4">
@@ -32476,7 +32542,7 @@
         <v>1</v>
       </c>
       <c r="J71" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K71)=FALSE,OFFSET(J71,0,COUNTA(K71:V71)),"")</f>
         <v>0</v>
       </c>
       <c r="K71" s="22">
@@ -32495,32 +32561,31 @@
       <c r="T71" s="22"/>
       <c r="U71" s="22"/>
       <c r="V71" s="22"/>
-      <c r="W71" s="22"/>
-      <c r="Y71" s="11" t="s">
+      <c r="X71" s="11" t="s">
         <v>372</v>
       </c>
+      <c r="Y71" s="10">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
       <c r="Z71" s="10">
-        <f t="shared" si="8"/>
-        <v>39</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="AA71" s="10">
-        <f t="shared" ca="1" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="AB71" s="10">
-        <f t="shared" si="10"/>
-        <v>26.5</v>
-      </c>
-      <c r="AC71" s="14">
-        <f t="shared" si="11"/>
-        <v>18</v>
-      </c>
-      <c r="AD71" s="15">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:30" hidden="1">
+        <f t="shared" si="5"/>
+        <v>30.5</v>
+      </c>
+      <c r="AB71" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC71" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29">
       <c r="A72" s="16">
         <v>68</v>
       </c>
@@ -32528,7 +32593,7 @@
       <c r="C72" s="17"/>
       <c r="D72" s="18"/>
       <c r="E72" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISBLANK($C72),"",IF(ISBLANK($G72),"未着手",IF($J72=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F72" s="4"/>
@@ -32536,7 +32601,7 @@
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
       <c r="J72" s="12" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K72)=FALSE,OFFSET(J72,0,COUNTA(K72:V72)),"")</f>
         <v/>
       </c>
       <c r="K72" s="22"/>
@@ -32551,32 +32616,31 @@
       <c r="T72" s="22"/>
       <c r="U72" s="22"/>
       <c r="V72" s="22"/>
-      <c r="W72" s="22"/>
-      <c r="Y72" s="11" t="s">
-        <v>378</v>
+      <c r="X72" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y72" s="10">
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="Z72" s="10">
-        <f t="shared" si="8"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="AA72" s="10">
-        <f t="shared" ca="1" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="AB72" s="10">
-        <f t="shared" si="10"/>
-        <v>28</v>
-      </c>
-      <c r="AC72" s="14">
-        <f t="shared" si="11"/>
-        <v>18</v>
-      </c>
-      <c r="AD72" s="15">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:30" hidden="1">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="AB72" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC72" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29">
       <c r="A73" s="16">
         <v>69</v>
       </c>
@@ -32584,7 +32648,7 @@
       <c r="C73" s="17"/>
       <c r="D73" s="18"/>
       <c r="E73" s="12" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(ISBLANK($C73),"",IF(ISBLANK($G73),"未着手",IF($J73=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F73" s="4"/>
@@ -32592,7 +32656,7 @@
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
       <c r="J73" s="12" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K73)=FALSE,OFFSET(J73,0,COUNTA(K73:V73)),"")</f>
         <v/>
       </c>
       <c r="K73" s="22"/>
@@ -32607,44 +32671,43 @@
       <c r="T73" s="22"/>
       <c r="U73" s="22"/>
       <c r="V73" s="22"/>
-      <c r="W73" s="22"/>
-      <c r="Y73" s="11" t="s">
-        <v>382</v>
+      <c r="X73" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y73" s="10">
+        <f t="shared" si="3"/>
+        <v>39</v>
       </c>
       <c r="Z73" s="10">
-        <f t="shared" si="8"/>
-        <v>27</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="AA73" s="10">
-        <f t="shared" ca="1" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="AB73" s="10">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="AC73" s="14">
-        <f t="shared" si="11"/>
-        <v>18</v>
-      </c>
-      <c r="AD73" s="15">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:30" hidden="1">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="AB73" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC73" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29">
       <c r="A74" s="16">
         <v>70</v>
       </c>
       <c r="B74" s="16"/>
       <c r="C74" s="17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E74" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(ISBLANK($C74),"",IF(ISBLANK($G74),"未着手",IF($J74=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F74" s="4">
@@ -32660,7 +32723,7 @@
         <v>6</v>
       </c>
       <c r="J74" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K74)=FALSE,OFFSET(J74,0,COUNTA(K74:V74)),"")</f>
         <v>0</v>
       </c>
       <c r="K74" s="22">
@@ -32679,42 +32742,41 @@
       <c r="T74" s="22"/>
       <c r="U74" s="22"/>
       <c r="V74" s="22"/>
-      <c r="W74" s="22"/>
-      <c r="Y74" s="11"/>
+      <c r="X74" s="11"/>
+      <c r="Y74" s="10">
+        <f t="shared" ref="Y74:Y77" si="7">SUMIF($D$5:$D$104,X74,$H$5:$H$104)</f>
+        <v>0</v>
+      </c>
       <c r="Z74" s="10">
-        <f t="shared" ref="Z74:Z77" si="14">SUMIF($D$5:$D$104,Y74,$H$5:$H$104)</f>
+        <f t="shared" ref="Z74:Z77" si="8">SUMIF($D$5:$D$104,X74,$J$5:$J$104)</f>
         <v>0</v>
       </c>
       <c r="AA74" s="10">
-        <f t="shared" ref="AA74:AA77" si="15">SUMIF($D$5:$D$104,Y74,$J$5:$J$104)</f>
-        <v>0</v>
-      </c>
-      <c r="AB74" s="10">
-        <f t="shared" ref="AB74:AB77" si="16">SUMIF($D$5:$D$104,Y74,$I$5:$I$104)</f>
-        <v>0</v>
-      </c>
-      <c r="AC74" s="14">
-        <f t="shared" ref="AC74:AC77" si="17">COUNTA($K$2:$R$2)*6-COUNTA($K$4:$R$4)*6</f>
-        <v>0</v>
-      </c>
-      <c r="AD74" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:30" hidden="1">
+        <f t="shared" ref="AA74:AA77" si="9">SUMIF($D$5:$D$104,X74,$I$5:$I$104)</f>
+        <v>0</v>
+      </c>
+      <c r="AB74" s="14">
+        <f t="shared" ref="AB74:AB77" si="10">COUNTA($K$2:$R$2)*6-COUNTA($K$4:$R$4)*6</f>
+        <v>0</v>
+      </c>
+      <c r="AC74" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29">
       <c r="A75" s="16">
         <v>71</v>
       </c>
       <c r="B75" s="16"/>
       <c r="C75" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E75" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(ISBLANK($C75),"",IF(ISBLANK($G75),"未着手",IF($J75=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F75" s="4">
@@ -32730,7 +32792,7 @@
         <v>3</v>
       </c>
       <c r="J75" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K75)=FALSE,OFFSET(J75,0,COUNTA(K75:V75)),"")</f>
         <v>0</v>
       </c>
       <c r="K75" s="22">
@@ -32749,42 +32811,41 @@
       <c r="T75" s="22"/>
       <c r="U75" s="22"/>
       <c r="V75" s="22"/>
-      <c r="W75" s="22"/>
-      <c r="Y75" s="11"/>
+      <c r="X75" s="11"/>
+      <c r="Y75" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Z75" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA75" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AB75" s="10">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AC75" s="14">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD75" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:30" hidden="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB75" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC75" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29">
       <c r="A76" s="16">
         <v>72</v>
       </c>
       <c r="B76" s="16"/>
       <c r="C76" s="17" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E76" s="12" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f ca="1">IF(ISBLANK($C76),"",IF(ISBLANK($G76),"未着手",IF($J76=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F76" s="4">
@@ -32800,7 +32861,7 @@
         <v>3</v>
       </c>
       <c r="J76" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K76)=FALSE,OFFSET(J76,0,COUNTA(K76:V76)),"")</f>
         <v>0</v>
       </c>
       <c r="K76" s="22">
@@ -32831,43 +32892,42 @@
       <c r="T76" s="22"/>
       <c r="U76" s="22"/>
       <c r="V76" s="22"/>
-      <c r="W76" s="22"/>
-      <c r="Y76" s="11"/>
+      <c r="X76" s="11"/>
+      <c r="Y76" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Z76" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA76" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AB76" s="10">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AC76" s="14">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD76" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30" hidden="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB76" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC76" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29">
       <c r="A77" s="16">
         <v>73</v>
       </c>
       <c r="B77" s="16"/>
       <c r="C77" s="85" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E77" s="12" t="str">
-        <f t="shared" ref="E77:E140" ca="1" si="18">IF(ISBLANK($C77),"",IF(ISBLANK($G77),"未着手",IF($J77=0,"完了","作業中")))</f>
-        <v>作業中</v>
+        <f ca="1">IF(ISBLANK($C77),"",IF(ISBLANK($G77),"未着手",IF($J77=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F77" s="4">
         <v>43098</v>
@@ -32882,8 +32942,8 @@
         <v>1</v>
       </c>
       <c r="J77" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <f ca="1">IF(ISBLANK(K77)=FALSE,OFFSET(J77,0,COUNTA(K77:V77)),"")</f>
+        <v>0</v>
       </c>
       <c r="K77" s="22">
         <v>6</v>
@@ -32912,47 +32972,48 @@
       <c r="S77" s="22">
         <v>5</v>
       </c>
-      <c r="T77" s="22"/>
+      <c r="T77" s="22">
+        <v>0</v>
+      </c>
       <c r="U77" s="22"/>
       <c r="V77" s="22"/>
-      <c r="W77" s="22"/>
-      <c r="Y77" s="11"/>
+      <c r="X77" s="11"/>
+      <c r="Y77" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Z77" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA77" s="10">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AB77" s="10">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AC77" s="14">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AD77" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:30" hidden="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AB77" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC77" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29">
       <c r="A78" s="16">
         <v>74</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C78" s="85" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D78" s="18" t="s">
         <v>135</v>
       </c>
       <c r="E78" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C78),"",IF(ISBLANK($G78),"未着手",IF($J78=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F78" s="4">
@@ -32968,7 +33029,7 @@
         <v>3</v>
       </c>
       <c r="J78" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K78)=FALSE,OFFSET(J78,0,COUNTA(K78:V78)),"")</f>
         <v>0</v>
       </c>
       <c r="K78" s="22">
@@ -32987,24 +33048,23 @@
       <c r="T78" s="22"/>
       <c r="U78" s="22"/>
       <c r="V78" s="22"/>
-      <c r="W78" s="22"/>
-      <c r="Y78" s="128"/>
-      <c r="Z78" s="129"/>
-      <c r="AA78" s="128"/>
-    </row>
-    <row r="79" spans="1:30" hidden="1">
+      <c r="X78" s="128"/>
+      <c r="Y78" s="129"/>
+      <c r="Z78" s="128"/>
+    </row>
+    <row r="79" spans="1:29">
       <c r="A79" s="16">
         <v>75</v>
       </c>
       <c r="B79" s="16"/>
       <c r="C79" s="85" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E79" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C79),"",IF(ISBLANK($G79),"未着手",IF($J79=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F79" s="4">
@@ -33020,7 +33080,7 @@
         <v>4</v>
       </c>
       <c r="J79" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K79)=FALSE,OFFSET(J79,0,COUNTA(K79:V79)),"")</f>
         <v>0</v>
       </c>
       <c r="K79" s="22">
@@ -33051,23 +33111,22 @@
       <c r="T79" s="22"/>
       <c r="U79" s="22"/>
       <c r="V79" s="22"/>
-      <c r="W79" s="22"/>
-    </row>
-    <row r="80" spans="1:30" hidden="1">
+    </row>
+    <row r="80" spans="1:29">
       <c r="A80" s="16">
         <v>76</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C80" s="85" t="s">
+        <v>404</v>
+      </c>
+      <c r="D80" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="D80" s="18" t="s">
-        <v>406</v>
-      </c>
       <c r="E80" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C80),"",IF(ISBLANK($G80),"未着手",IF($J80=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F80" s="4">
@@ -33083,7 +33142,7 @@
         <v>4</v>
       </c>
       <c r="J80" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K80)=FALSE,OFFSET(J80,0,COUNTA(K80:V80)),"")</f>
         <v>0</v>
       </c>
       <c r="K80" s="22">
@@ -33102,23 +33161,22 @@
       <c r="T80" s="22"/>
       <c r="U80" s="22"/>
       <c r="V80" s="22"/>
-      <c r="W80" s="22"/>
-      <c r="Z80" s="106"/>
-    </row>
-    <row r="81" spans="1:26" hidden="1">
+      <c r="Y80" s="106"/>
+    </row>
+    <row r="81" spans="1:25">
       <c r="A81" s="16">
         <v>77</v>
       </c>
       <c r="B81" s="16"/>
       <c r="C81" s="85" t="s">
+        <v>412</v>
+      </c>
+      <c r="D81" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="D81" s="18" t="s">
-        <v>414</v>
-      </c>
       <c r="E81" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>作業中</v>
+        <f ca="1">IF(ISBLANK($C81),"",IF(ISBLANK($G81),"未着手",IF($J81=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F81" s="4">
         <v>43095</v>
@@ -33130,11 +33188,11 @@
         <v>6</v>
       </c>
       <c r="I81" s="19">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J81" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f ca="1">IF(ISBLANK(K81)=FALSE,OFFSET(J81,0,COUNTA(K81:V81)),"")</f>
+        <v>0</v>
       </c>
       <c r="K81" s="22">
         <v>6</v>
@@ -33163,25 +33221,30 @@
       <c r="S81" s="22">
         <v>2</v>
       </c>
-      <c r="T81" s="22"/>
-      <c r="U81" s="22"/>
-      <c r="V81" s="22"/>
-      <c r="W81" s="22"/>
-      <c r="Z81" s="106"/>
-    </row>
-    <row r="82" spans="1:26" hidden="1">
+      <c r="T81" s="22">
+        <v>2</v>
+      </c>
+      <c r="U81" s="22">
+        <v>2</v>
+      </c>
+      <c r="V81" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="106"/>
+    </row>
+    <row r="82" spans="1:25">
       <c r="A82" s="16">
         <v>78</v>
       </c>
       <c r="B82" s="16"/>
       <c r="C82" s="85" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E82" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C82),"",IF(ISBLANK($G82),"未着手",IF($J82=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F82" s="4">
@@ -33197,7 +33260,7 @@
         <v>1</v>
       </c>
       <c r="J82" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K82)=FALSE,OFFSET(J82,0,COUNTA(K82:V82)),"")</f>
         <v>0</v>
       </c>
       <c r="K82" s="22">
@@ -33218,21 +33281,20 @@
       <c r="T82" s="22"/>
       <c r="U82" s="22"/>
       <c r="V82" s="22"/>
-      <c r="W82" s="22"/>
-    </row>
-    <row r="83" spans="1:26" hidden="1">
+    </row>
+    <row r="83" spans="1:25">
       <c r="A83" s="16">
         <v>79</v>
       </c>
       <c r="B83" s="16"/>
       <c r="C83" s="85" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E83" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C83),"",IF(ISBLANK($G83),"未着手",IF($J83=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F83" s="4">
@@ -33248,7 +33310,7 @@
         <v>1</v>
       </c>
       <c r="J83" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K83)=FALSE,OFFSET(J83,0,COUNTA(K83:V83)),"")</f>
         <v>0</v>
       </c>
       <c r="K83" s="22">
@@ -33269,21 +33331,20 @@
       <c r="T83" s="22"/>
       <c r="U83" s="22"/>
       <c r="V83" s="22"/>
-      <c r="W83" s="22"/>
-    </row>
-    <row r="84" spans="1:26" hidden="1">
+    </row>
+    <row r="84" spans="1:25">
       <c r="A84" s="16">
         <v>80</v>
       </c>
       <c r="B84" s="16"/>
       <c r="C84" s="85" t="s">
+        <v>417</v>
+      </c>
+      <c r="D84" s="18" t="s">
         <v>418</v>
       </c>
-      <c r="D84" s="18" t="s">
-        <v>419</v>
-      </c>
       <c r="E84" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C84),"",IF(ISBLANK($G84),"未着手",IF($J84=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F84" s="4">
@@ -33299,7 +33360,7 @@
         <v>1</v>
       </c>
       <c r="J84" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K84)=FALSE,OFFSET(J84,0,COUNTA(K84:V84)),"")</f>
         <v>0</v>
       </c>
       <c r="K84" s="22">
@@ -33320,22 +33381,21 @@
       <c r="T84" s="22"/>
       <c r="U84" s="22"/>
       <c r="V84" s="22"/>
-      <c r="W84" s="22"/>
-    </row>
-    <row r="85" spans="1:26" hidden="1">
+    </row>
+    <row r="85" spans="1:25">
       <c r="A85" s="16">
         <v>81</v>
       </c>
       <c r="B85" s="16"/>
       <c r="C85" s="85" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E85" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>作業中</v>
+        <f ca="1">IF(ISBLANK($C85),"",IF(ISBLANK($G85),"未着手",IF($J85=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F85" s="4">
         <v>43111</v>
@@ -33350,8 +33410,8 @@
         <v>1</v>
       </c>
       <c r="J85" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f ca="1">IF(ISBLANK(K85)=FALSE,OFFSET(J85,0,COUNTA(K85:V85)),"")</f>
+        <v>0</v>
       </c>
       <c r="K85" s="22">
         <v>2</v>
@@ -33380,24 +33440,25 @@
       <c r="S85" s="22">
         <v>1</v>
       </c>
-      <c r="T85" s="22"/>
+      <c r="T85" s="22">
+        <v>0</v>
+      </c>
       <c r="U85" s="22"/>
       <c r="V85" s="22"/>
-      <c r="W85" s="22"/>
-    </row>
-    <row r="86" spans="1:26" hidden="1">
+    </row>
+    <row r="86" spans="1:25">
       <c r="A86" s="16">
         <v>82</v>
       </c>
       <c r="B86" s="16"/>
       <c r="C86" s="85" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E86" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C86),"",IF(ISBLANK($G86),"未着手",IF($J86=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F86" s="4">
@@ -33413,7 +33474,7 @@
         <v>2</v>
       </c>
       <c r="J86" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K86)=FALSE,OFFSET(J86,0,COUNTA(K86:V86)),"")</f>
         <v>0</v>
       </c>
       <c r="K86" s="22">
@@ -33438,21 +33499,20 @@
       <c r="T86" s="22"/>
       <c r="U86" s="22"/>
       <c r="V86" s="22"/>
-      <c r="W86" s="22"/>
-    </row>
-    <row r="87" spans="1:26" hidden="1">
+    </row>
+    <row r="87" spans="1:25">
       <c r="A87" s="16">
         <v>83</v>
       </c>
       <c r="B87" s="16"/>
       <c r="C87" s="85" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D87" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E87" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C87),"",IF(ISBLANK($G87),"未着手",IF($J87=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F87" s="4">
@@ -33468,7 +33528,7 @@
         <v>2</v>
       </c>
       <c r="J87" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K87)=FALSE,OFFSET(J87,0,COUNTA(K87:V87)),"")</f>
         <v>0</v>
       </c>
       <c r="K87" s="22">
@@ -33493,21 +33553,20 @@
       <c r="T87" s="22"/>
       <c r="U87" s="22"/>
       <c r="V87" s="22"/>
-      <c r="W87" s="22"/>
-    </row>
-    <row r="88" spans="1:26" hidden="1">
+    </row>
+    <row r="88" spans="1:25">
       <c r="A88" s="16">
         <v>84</v>
       </c>
       <c r="B88" s="16"/>
       <c r="C88" s="85" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D88" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E88" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C88),"",IF(ISBLANK($G88),"未着手",IF($J88=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F88" s="4">
@@ -33523,7 +33582,7 @@
         <v>2</v>
       </c>
       <c r="J88" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K88)=FALSE,OFFSET(J88,0,COUNTA(K88:V88)),"")</f>
         <v>0</v>
       </c>
       <c r="K88" s="22">
@@ -33550,80 +33609,52 @@
       <c r="T88" s="22"/>
       <c r="U88" s="22"/>
       <c r="V88" s="22"/>
-      <c r="W88" s="22"/>
-    </row>
-    <row r="89" spans="1:26" hidden="1">
+    </row>
+    <row r="89" spans="1:25">
       <c r="A89" s="16">
         <v>85</v>
       </c>
       <c r="B89" s="16"/>
-      <c r="C89" s="85" t="s">
-        <v>424</v>
-      </c>
-      <c r="D89" s="18" t="s">
-        <v>124</v>
-      </c>
+      <c r="C89" s="85"/>
+      <c r="D89" s="18"/>
       <c r="E89" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v>未着手</v>
-      </c>
-      <c r="F89" s="4">
-        <v>43093</v>
-      </c>
+        <f>IF(ISBLANK($C89),"",IF(ISBLANK($G89),"未着手",IF($J89=0,"完了","作業中")))</f>
+        <v/>
+      </c>
+      <c r="F89" s="4"/>
       <c r="G89" s="4"/>
-      <c r="H89" s="19">
-        <v>2</v>
-      </c>
+      <c r="H89" s="19"/>
       <c r="I89" s="19"/>
-      <c r="J89" s="12">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="K89" s="22">
-        <v>2</v>
-      </c>
-      <c r="L89" s="22">
-        <v>2</v>
-      </c>
-      <c r="M89" s="22">
-        <v>2</v>
-      </c>
-      <c r="N89" s="125">
-        <v>2</v>
-      </c>
-      <c r="O89" s="124">
-        <v>2</v>
-      </c>
-      <c r="P89" s="123">
-        <v>2</v>
-      </c>
-      <c r="Q89" s="123">
-        <v>2</v>
-      </c>
-      <c r="R89" s="22">
-        <v>2</v>
-      </c>
-      <c r="S89" s="22">
-        <v>2</v>
-      </c>
+      <c r="J89" s="12" t="str">
+        <f ca="1">IF(ISBLANK(K89)=FALSE,OFFSET(J89,0,COUNTA(K89:V89)),"")</f>
+        <v/>
+      </c>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="22"/>
+      <c r="N89" s="125"/>
+      <c r="O89" s="124"/>
+      <c r="P89" s="123"/>
+      <c r="Q89" s="123"/>
+      <c r="R89" s="22"/>
+      <c r="S89" s="22"/>
       <c r="T89" s="22"/>
       <c r="U89" s="22"/>
       <c r="V89" s="22"/>
-      <c r="W89" s="22"/>
-    </row>
-    <row r="90" spans="1:26" hidden="1">
+    </row>
+    <row r="90" spans="1:25">
       <c r="A90" s="16">
         <v>86</v>
       </c>
       <c r="B90" s="16"/>
       <c r="C90" s="85" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E90" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C90),"",IF(ISBLANK($G90),"未着手",IF($J90=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F90" s="4">
@@ -33639,7 +33670,7 @@
         <v>2</v>
       </c>
       <c r="J90" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K90)=FALSE,OFFSET(J90,0,COUNTA(K90:V90)),"")</f>
         <v>0</v>
       </c>
       <c r="K90" s="22">
@@ -33666,9 +33697,8 @@
       <c r="T90" s="22"/>
       <c r="U90" s="22"/>
       <c r="V90" s="22"/>
-      <c r="W90" s="22"/>
-    </row>
-    <row r="91" spans="1:26" hidden="1">
+    </row>
+    <row r="91" spans="1:25">
       <c r="A91" s="16">
         <v>87</v>
       </c>
@@ -33676,7 +33706,7 @@
       <c r="C91" s="85"/>
       <c r="D91" s="18"/>
       <c r="E91" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(ISBLANK($C91),"",IF(ISBLANK($G91),"未着手",IF($J91=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F91" s="4"/>
@@ -33684,7 +33714,7 @@
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
       <c r="J91" s="12" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K91)=FALSE,OFFSET(J91,0,COUNTA(K91:V91)),"")</f>
         <v/>
       </c>
       <c r="K91" s="22"/>
@@ -33699,21 +33729,20 @@
       <c r="T91" s="22"/>
       <c r="U91" s="22"/>
       <c r="V91" s="22"/>
-      <c r="W91" s="22"/>
-    </row>
-    <row r="92" spans="1:26" hidden="1">
+    </row>
+    <row r="92" spans="1:25">
       <c r="A92" s="16">
         <v>88</v>
       </c>
       <c r="B92" s="16"/>
       <c r="C92" s="85" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E92" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C92),"",IF(ISBLANK($G92),"未着手",IF($J92=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F92" s="4">
@@ -33729,7 +33758,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K92)=FALSE,OFFSET(J92,0,COUNTA(K92:V92)),"")</f>
         <v>0</v>
       </c>
       <c r="K92" s="22">
@@ -33756,21 +33785,20 @@
       <c r="T92" s="22"/>
       <c r="U92" s="22"/>
       <c r="V92" s="22"/>
-      <c r="W92" s="22"/>
-    </row>
-    <row r="93" spans="1:26" hidden="1">
+    </row>
+    <row r="93" spans="1:25">
       <c r="A93" s="16">
         <v>89</v>
       </c>
       <c r="B93" s="16"/>
       <c r="C93" s="85" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E93" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C93),"",IF(ISBLANK($G93),"未着手",IF($J93=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F93" s="4">
@@ -33786,7 +33814,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K93)=FALSE,OFFSET(J93,0,COUNTA(K93:V93)),"")</f>
         <v>0</v>
       </c>
       <c r="K93" s="22">
@@ -33813,21 +33841,20 @@
       <c r="T93" s="22"/>
       <c r="U93" s="22"/>
       <c r="V93" s="22"/>
-      <c r="W93" s="22"/>
-    </row>
-    <row r="94" spans="1:26" hidden="1">
+    </row>
+    <row r="94" spans="1:25">
       <c r="A94" s="16">
         <v>90</v>
       </c>
       <c r="B94" s="16"/>
       <c r="C94" s="85" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E94" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C94),"",IF(ISBLANK($G94),"未着手",IF($J94=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F94" s="4">
@@ -33843,7 +33870,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K94)=FALSE,OFFSET(J94,0,COUNTA(K94:V94)),"")</f>
         <v>0</v>
       </c>
       <c r="K94" s="22">
@@ -33874,21 +33901,20 @@
       <c r="T94" s="22"/>
       <c r="U94" s="22"/>
       <c r="V94" s="22"/>
-      <c r="W94" s="22"/>
-    </row>
-    <row r="95" spans="1:26" hidden="1">
+    </row>
+    <row r="95" spans="1:25">
       <c r="A95" s="16">
         <v>91</v>
       </c>
       <c r="B95" s="16"/>
       <c r="C95" s="85" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E95" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C95),"",IF(ISBLANK($G95),"未着手",IF($J95=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F95" s="4">
@@ -33904,7 +33930,7 @@
         <v>1</v>
       </c>
       <c r="J95" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K95)=FALSE,OFFSET(J95,0,COUNTA(K95:V95)),"")</f>
         <v>0</v>
       </c>
       <c r="K95" s="22">
@@ -33935,21 +33961,20 @@
       <c r="T95" s="22"/>
       <c r="U95" s="22"/>
       <c r="V95" s="22"/>
-      <c r="W95" s="22"/>
-    </row>
-    <row r="96" spans="1:26" hidden="1">
+    </row>
+    <row r="96" spans="1:25">
       <c r="A96" s="16">
         <v>92</v>
       </c>
       <c r="B96" s="16"/>
       <c r="C96" s="85" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E96" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C96),"",IF(ISBLANK($G96),"未着手",IF($J96=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F96" s="4">
@@ -33965,7 +33990,7 @@
         <v>1</v>
       </c>
       <c r="J96" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K96)=FALSE,OFFSET(J96,0,COUNTA(K96:V96)),"")</f>
         <v>0</v>
       </c>
       <c r="K96" s="22">
@@ -33996,21 +34021,20 @@
       <c r="T96" s="22"/>
       <c r="U96" s="22"/>
       <c r="V96" s="22"/>
-      <c r="W96" s="22"/>
-    </row>
-    <row r="97" spans="1:24" hidden="1">
+    </row>
+    <row r="97" spans="1:23">
       <c r="A97" s="16">
         <v>93</v>
       </c>
       <c r="B97" s="16"/>
       <c r="C97" s="85" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E97" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C97),"",IF(ISBLANK($G97),"未着手",IF($J97=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F97" s="4">
@@ -34026,7 +34050,7 @@
         <v>1</v>
       </c>
       <c r="J97" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K97)=FALSE,OFFSET(J97,0,COUNTA(K97:V97)),"")</f>
         <v>0</v>
       </c>
       <c r="K97" s="22">
@@ -34053,21 +34077,20 @@
       <c r="T97" s="22"/>
       <c r="U97" s="22"/>
       <c r="V97" s="22"/>
-      <c r="W97" s="22"/>
-    </row>
-    <row r="98" spans="1:24" hidden="1">
+    </row>
+    <row r="98" spans="1:23">
       <c r="A98" s="16">
         <v>94</v>
       </c>
       <c r="B98" s="16"/>
       <c r="C98" s="85" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E98" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C98),"",IF(ISBLANK($G98),"未着手",IF($J98=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F98" s="4">
@@ -34083,7 +34106,7 @@
         <v>1</v>
       </c>
       <c r="J98" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K98)=FALSE,OFFSET(J98,0,COUNTA(K98:V98)),"")</f>
         <v>0</v>
       </c>
       <c r="K98" s="22">
@@ -34110,21 +34133,20 @@
       <c r="T98" s="22"/>
       <c r="U98" s="22"/>
       <c r="V98" s="22"/>
-      <c r="W98" s="22"/>
-    </row>
-    <row r="99" spans="1:24" hidden="1">
+    </row>
+    <row r="99" spans="1:23">
       <c r="A99" s="16">
         <v>95</v>
       </c>
       <c r="B99" s="16"/>
       <c r="C99" s="85" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E99" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C99),"",IF(ISBLANK($G99),"未着手",IF($J99=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F99" s="4">
@@ -34140,7 +34162,7 @@
         <v>1</v>
       </c>
       <c r="J99" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K99)=FALSE,OFFSET(J99,0,COUNTA(K99:V99)),"")</f>
         <v>0</v>
       </c>
       <c r="K99" s="22">
@@ -34167,21 +34189,20 @@
       <c r="T99" s="22"/>
       <c r="U99" s="22"/>
       <c r="V99" s="22"/>
-      <c r="W99" s="22"/>
-    </row>
-    <row r="100" spans="1:24" hidden="1">
+    </row>
+    <row r="100" spans="1:23">
       <c r="A100" s="16">
         <v>96</v>
       </c>
       <c r="B100" s="16"/>
       <c r="C100" s="85" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E100" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C100),"",IF(ISBLANK($G100),"未着手",IF($J100=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F100" s="4">
@@ -34197,7 +34218,7 @@
         <v>1</v>
       </c>
       <c r="J100" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K100)=FALSE,OFFSET(J100,0,COUNTA(K100:V100)),"")</f>
         <v>0</v>
       </c>
       <c r="K100" s="22">
@@ -34224,21 +34245,20 @@
       <c r="T100" s="22"/>
       <c r="U100" s="22"/>
       <c r="V100" s="22"/>
-      <c r="W100" s="22"/>
-    </row>
-    <row r="101" spans="1:24" hidden="1">
+    </row>
+    <row r="101" spans="1:23">
       <c r="A101" s="16">
         <v>97</v>
       </c>
       <c r="B101" s="16"/>
       <c r="C101" s="85" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E101" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C101),"",IF(ISBLANK($G101),"未着手",IF($J101=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F101" s="4">
@@ -34254,7 +34274,7 @@
         <v>1</v>
       </c>
       <c r="J101" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K101)=FALSE,OFFSET(J101,0,COUNTA(K101:V101)),"")</f>
         <v>0</v>
       </c>
       <c r="K101" s="22">
@@ -34287,21 +34307,20 @@
       <c r="T101" s="22"/>
       <c r="U101" s="22"/>
       <c r="V101" s="22"/>
-      <c r="W101" s="22"/>
-    </row>
-    <row r="102" spans="1:24" hidden="1">
+    </row>
+    <row r="102" spans="1:23">
       <c r="A102" s="16">
         <v>98</v>
       </c>
       <c r="B102" s="16"/>
       <c r="C102" s="85" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E102" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C102),"",IF(ISBLANK($G102),"未着手",IF($J102=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F102" s="4">
@@ -34317,7 +34336,7 @@
         <v>2</v>
       </c>
       <c r="J102" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K102)=FALSE,OFFSET(J102,0,COUNTA(K102:V102)),"")</f>
         <v>0</v>
       </c>
       <c r="K102" s="22">
@@ -34350,21 +34369,20 @@
       <c r="T102" s="22"/>
       <c r="U102" s="22"/>
       <c r="V102" s="22"/>
-      <c r="W102" s="22"/>
-    </row>
-    <row r="103" spans="1:24" hidden="1">
+    </row>
+    <row r="103" spans="1:23">
       <c r="A103" s="16">
         <v>99</v>
       </c>
       <c r="B103" s="16"/>
       <c r="C103" s="85" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D103" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E103" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C103),"",IF(ISBLANK($G103),"未着手",IF($J103=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F103" s="4">
@@ -34380,7 +34398,7 @@
         <v>2</v>
       </c>
       <c r="J103" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K103)=FALSE,OFFSET(J103,0,COUNTA(K103:V103)),"")</f>
         <v>0</v>
       </c>
       <c r="K103" s="22">
@@ -34415,21 +34433,20 @@
       </c>
       <c r="U103" s="22"/>
       <c r="V103" s="22"/>
-      <c r="W103" s="22"/>
-    </row>
-    <row r="104" spans="1:24" hidden="1">
+    </row>
+    <row r="104" spans="1:23">
       <c r="A104" s="16">
         <v>100</v>
       </c>
       <c r="B104" s="16"/>
       <c r="C104" s="85" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E104" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C104),"",IF(ISBLANK($G104),"未着手",IF($J104=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F104" s="4">
@@ -34445,7 +34462,7 @@
         <v>3</v>
       </c>
       <c r="J104" s="12">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">IF(ISBLANK(K104)=FALSE,OFFSET(J104,0,COUNTA(K104:V104)),"")</f>
         <v>0</v>
       </c>
       <c r="K104" s="22">
@@ -34476,22 +34493,21 @@
       <c r="T104" s="22"/>
       <c r="U104" s="22"/>
       <c r="V104" s="22"/>
-      <c r="W104" s="22"/>
-    </row>
-    <row r="105" spans="1:24" ht="14.25" hidden="1" customHeight="1">
+    </row>
+    <row r="105" spans="1:23" ht="14.25" customHeight="1">
       <c r="A105" s="16">
         <v>101</v>
       </c>
       <c r="B105" s="16"/>
       <c r="C105" s="85" t="s">
+        <v>453</v>
+      </c>
+      <c r="D105" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="D105" s="18" t="s">
-        <v>457</v>
-      </c>
       <c r="E105" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>作業中</v>
+        <f ca="1">IF(ISBLANK($C105),"",IF(ISBLANK($G105),"未着手",IF($J105=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F105" s="4">
         <v>43109</v>
@@ -34503,11 +34519,11 @@
         <v>4</v>
       </c>
       <c r="I105" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J105" s="12">
-        <f t="shared" ref="J105:J168" ca="1" si="19">IF(ISBLANK(K105)=FALSE,OFFSET(J105,0,COUNTA(K105:W105)),"")</f>
-        <v>3</v>
+        <f ca="1">IF(ISBLANK(K105)=FALSE,OFFSET(J105,0,COUNTA(K105:V105)),"")</f>
+        <v>0</v>
       </c>
       <c r="K105" s="22">
         <v>4</v>
@@ -34536,12 +34552,17 @@
       <c r="S105" s="22">
         <v>3</v>
       </c>
-      <c r="T105" s="22"/>
-      <c r="U105" s="22"/>
-      <c r="V105" s="22"/>
-      <c r="W105" s="22"/>
-    </row>
-    <row r="106" spans="1:24" hidden="1">
+      <c r="T105" s="22">
+        <v>3</v>
+      </c>
+      <c r="U105" s="22">
+        <v>3</v>
+      </c>
+      <c r="V105" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
       <c r="A106" s="16">
         <v>102</v>
       </c>
@@ -34549,7 +34570,7 @@
       <c r="C106" s="85"/>
       <c r="D106" s="18"/>
       <c r="E106" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(ISBLANK($C106),"",IF(ISBLANK($G106),"未着手",IF($J106=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F106" s="4"/>
@@ -34557,7 +34578,7 @@
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
       <c r="J106" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K106)=FALSE,OFFSET(J106,0,COUNTA(K106:V106)),"")</f>
         <v/>
       </c>
       <c r="K106" s="22"/>
@@ -34572,21 +34593,20 @@
       <c r="T106" s="22"/>
       <c r="U106" s="22"/>
       <c r="V106" s="22"/>
-      <c r="W106" s="22"/>
-    </row>
-    <row r="107" spans="1:24">
+    </row>
+    <row r="107" spans="1:23">
       <c r="A107" s="16">
         <v>103</v>
       </c>
       <c r="B107" s="16"/>
       <c r="C107" s="85" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E107" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C107),"",IF(ISBLANK($G107),"未着手",IF($J107=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F107" s="4">
@@ -34602,7 +34622,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="12">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K107)=FALSE,OFFSET(J107,0,COUNTA(K107:V107)),"")</f>
         <v>0</v>
       </c>
       <c r="K107" s="22">
@@ -34633,10 +34653,9 @@
       <c r="T107" s="22"/>
       <c r="U107" s="22"/>
       <c r="V107" s="22"/>
-      <c r="W107" s="22"/>
-      <c r="X107" s="6"/>
-    </row>
-    <row r="108" spans="1:24" hidden="1">
+      <c r="W107" s="6"/>
+    </row>
+    <row r="108" spans="1:23">
       <c r="A108" s="16">
         <v>104</v>
       </c>
@@ -34644,7 +34663,7 @@
       <c r="C108" s="85"/>
       <c r="D108" s="18"/>
       <c r="E108" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(ISBLANK($C108),"",IF(ISBLANK($G108),"未着手",IF($J108=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F108" s="4"/>
@@ -34652,7 +34671,7 @@
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
       <c r="J108" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K108)=FALSE,OFFSET(J108,0,COUNTA(K108:V108)),"")</f>
         <v/>
       </c>
       <c r="K108" s="22"/>
@@ -34667,22 +34686,21 @@
       <c r="T108" s="22"/>
       <c r="U108" s="22"/>
       <c r="V108" s="22"/>
-      <c r="W108" s="22"/>
-      <c r="X108" s="6"/>
-    </row>
-    <row r="109" spans="1:24">
+      <c r="W108" s="6"/>
+    </row>
+    <row r="109" spans="1:23">
       <c r="A109" s="16">
         <v>105</v>
       </c>
       <c r="B109" s="16"/>
       <c r="C109" s="85" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E109" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C109),"",IF(ISBLANK($G109),"未着手",IF($J109=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F109" s="4">
@@ -34698,7 +34716,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="12">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K109)=FALSE,OFFSET(J109,0,COUNTA(K109:V109)),"")</f>
         <v>0</v>
       </c>
       <c r="K109" s="22">
@@ -34729,10 +34747,9 @@
       <c r="T109" s="22"/>
       <c r="U109" s="22"/>
       <c r="V109" s="22"/>
-      <c r="W109" s="22"/>
-      <c r="X109" s="6"/>
-    </row>
-    <row r="110" spans="1:24" hidden="1">
+      <c r="W109" s="6"/>
+    </row>
+    <row r="110" spans="1:23">
       <c r="A110" s="16">
         <v>106</v>
       </c>
@@ -34740,7 +34757,7 @@
       <c r="C110" s="85"/>
       <c r="D110" s="18"/>
       <c r="E110" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(ISBLANK($C110),"",IF(ISBLANK($G110),"未着手",IF($J110=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F110" s="4"/>
@@ -34748,7 +34765,7 @@
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
       <c r="J110" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K110)=FALSE,OFFSET(J110,0,COUNTA(K110:V110)),"")</f>
         <v/>
       </c>
       <c r="K110" s="22"/>
@@ -34763,22 +34780,21 @@
       <c r="T110" s="22"/>
       <c r="U110" s="22"/>
       <c r="V110" s="22"/>
-      <c r="W110" s="22"/>
-      <c r="X110" s="6"/>
-    </row>
-    <row r="111" spans="1:24" hidden="1">
+      <c r="W110" s="6"/>
+    </row>
+    <row r="111" spans="1:23">
       <c r="A111" s="16">
         <v>107</v>
       </c>
       <c r="B111" s="16"/>
       <c r="C111" s="85" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D111" s="18" t="s">
         <v>115</v>
       </c>
       <c r="E111" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C111),"",IF(ISBLANK($G111),"未着手",IF($J111=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F111" s="4">
@@ -34794,7 +34810,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="12">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K111)=FALSE,OFFSET(J111,0,COUNTA(K111:V111)),"")</f>
         <v>0</v>
       </c>
       <c r="K111" s="22">
@@ -34829,22 +34845,21 @@
       </c>
       <c r="U111" s="22"/>
       <c r="V111" s="22"/>
-      <c r="W111" s="22"/>
-      <c r="X111" s="6"/>
-    </row>
-    <row r="112" spans="1:24" hidden="1">
+      <c r="W111" s="6"/>
+    </row>
+    <row r="112" spans="1:23">
       <c r="A112" s="16">
         <v>108</v>
       </c>
       <c r="B112" s="16"/>
       <c r="C112" s="85" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D112" s="18" t="s">
         <v>115</v>
       </c>
       <c r="E112" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C112),"",IF(ISBLANK($G112),"未着手",IF($J112=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F112" s="4">
@@ -34860,7 +34875,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="12">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K112)=FALSE,OFFSET(J112,0,COUNTA(K112:V112)),"")</f>
         <v>0</v>
       </c>
       <c r="K112" s="22">
@@ -34895,22 +34910,21 @@
       </c>
       <c r="U112" s="22"/>
       <c r="V112" s="22"/>
-      <c r="W112" s="22"/>
-      <c r="X112" s="6"/>
-    </row>
-    <row r="113" spans="1:24" hidden="1">
+      <c r="W112" s="6"/>
+    </row>
+    <row r="113" spans="1:23">
       <c r="A113" s="16">
         <v>109</v>
       </c>
       <c r="B113" s="16"/>
       <c r="C113" s="85" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D113" s="18" t="s">
         <v>115</v>
       </c>
       <c r="E113" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C113),"",IF(ISBLANK($G113),"未着手",IF($J113=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F113" s="4">
@@ -34926,7 +34940,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="12">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K113)=FALSE,OFFSET(J113,0,COUNTA(K113:V113)),"")</f>
         <v>0</v>
       </c>
       <c r="K113" s="22">
@@ -34961,10 +34975,9 @@
       </c>
       <c r="U113" s="22"/>
       <c r="V113" s="22"/>
-      <c r="W113" s="22"/>
-      <c r="X113" s="6"/>
-    </row>
-    <row r="114" spans="1:24" hidden="1">
+      <c r="W113" s="6"/>
+    </row>
+    <row r="114" spans="1:23">
       <c r="A114" s="16">
         <v>110</v>
       </c>
@@ -34972,7 +34985,7 @@
       <c r="C114" s="85"/>
       <c r="D114" s="18"/>
       <c r="E114" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(ISBLANK($C114),"",IF(ISBLANK($G114),"未着手",IF($J114=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F114" s="4"/>
@@ -34980,7 +34993,7 @@
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
       <c r="J114" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K114)=FALSE,OFFSET(J114,0,COUNTA(K114:V114)),"")</f>
         <v/>
       </c>
       <c r="K114" s="22"/>
@@ -34995,22 +35008,21 @@
       <c r="T114" s="22"/>
       <c r="U114" s="22"/>
       <c r="V114" s="22"/>
-      <c r="W114" s="22"/>
-      <c r="X114" s="6"/>
-    </row>
-    <row r="115" spans="1:24" hidden="1">
+      <c r="W114" s="6"/>
+    </row>
+    <row r="115" spans="1:23">
       <c r="A115" s="16">
         <v>111</v>
       </c>
       <c r="B115" s="16"/>
       <c r="C115" s="85" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E115" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C115),"",IF(ISBLANK($G115),"未着手",IF($J115=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F115" s="4">
@@ -35026,7 +35038,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="12">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K115)=FALSE,OFFSET(J115,0,COUNTA(K115:V115)),"")</f>
         <v>0</v>
       </c>
       <c r="K115" s="22">
@@ -35061,10 +35073,9 @@
       </c>
       <c r="U115" s="22"/>
       <c r="V115" s="22"/>
-      <c r="W115" s="22"/>
-      <c r="X115" s="6"/>
-    </row>
-    <row r="116" spans="1:24" hidden="1">
+      <c r="W115" s="6"/>
+    </row>
+    <row r="116" spans="1:23">
       <c r="A116" s="16">
         <v>112</v>
       </c>
@@ -35072,7 +35083,7 @@
       <c r="C116" s="85"/>
       <c r="D116" s="18"/>
       <c r="E116" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(ISBLANK($C116),"",IF(ISBLANK($G116),"未着手",IF($J116=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F116" s="4"/>
@@ -35080,7 +35091,7 @@
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
       <c r="J116" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K116)=FALSE,OFFSET(J116,0,COUNTA(K116:V116)),"")</f>
         <v/>
       </c>
       <c r="K116" s="22"/>
@@ -35095,86 +35106,54 @@
       <c r="T116" s="22"/>
       <c r="U116" s="22"/>
       <c r="V116" s="22"/>
-      <c r="W116" s="22"/>
-      <c r="X116" s="6"/>
-    </row>
-    <row r="117" spans="1:24">
+      <c r="W116" s="6"/>
+    </row>
+    <row r="117" spans="1:23">
       <c r="A117" s="16">
         <v>113</v>
       </c>
       <c r="B117" s="16"/>
-      <c r="C117" s="85" t="s">
-        <v>472</v>
-      </c>
-      <c r="D117" s="18" t="s">
-        <v>473</v>
-      </c>
+      <c r="C117" s="85"/>
+      <c r="D117" s="18"/>
       <c r="E117" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>作業中</v>
-      </c>
-      <c r="F117" s="4">
-        <v>43112</v>
-      </c>
-      <c r="G117" s="4">
-        <v>43112</v>
-      </c>
-      <c r="H117" s="19">
-        <v>6</v>
-      </c>
+        <f>IF(ISBLANK($C117),"",IF(ISBLANK($G117),"未着手",IF($J117=0,"完了","作業中")))</f>
+        <v/>
+      </c>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="19"/>
       <c r="I117" s="19"/>
-      <c r="J117" s="12">
-        <f t="shared" ca="1" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="K117" s="22">
-        <v>6</v>
-      </c>
-      <c r="L117" s="22">
-        <v>6</v>
-      </c>
-      <c r="M117" s="22">
-        <v>6</v>
-      </c>
-      <c r="N117" s="125">
-        <v>6</v>
-      </c>
-      <c r="O117" s="124">
-        <v>6</v>
-      </c>
-      <c r="P117" s="123">
-        <v>6</v>
-      </c>
-      <c r="Q117" s="123">
-        <v>6</v>
-      </c>
-      <c r="R117" s="22">
-        <v>6</v>
-      </c>
-      <c r="S117" s="22">
-        <v>6</v>
-      </c>
-      <c r="T117" s="22">
-        <v>6</v>
-      </c>
+      <c r="J117" s="12" t="str">
+        <f ca="1">IF(ISBLANK(K117)=FALSE,OFFSET(J117,0,COUNTA(K117:V117)),"")</f>
+        <v/>
+      </c>
+      <c r="K117" s="22"/>
+      <c r="L117" s="22"/>
+      <c r="M117" s="22"/>
+      <c r="N117" s="125"/>
+      <c r="O117" s="124"/>
+      <c r="P117" s="123"/>
+      <c r="Q117" s="123"/>
+      <c r="R117" s="22"/>
+      <c r="S117" s="22"/>
+      <c r="T117" s="22"/>
       <c r="U117" s="22"/>
       <c r="V117" s="22"/>
-      <c r="W117" s="22"/>
-      <c r="X117" s="6"/>
-    </row>
-    <row r="118" spans="1:24">
+      <c r="W117" s="6"/>
+    </row>
+    <row r="118" spans="1:23">
       <c r="A118" s="16">
         <v>114</v>
       </c>
       <c r="B118" s="16"/>
       <c r="C118" s="85" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D118" s="18" t="s">
         <v>113</v>
       </c>
       <c r="E118" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C118),"",IF(ISBLANK($G118),"未着手",IF($J118=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F118" s="4">
@@ -35190,7 +35169,7 @@
         <v>3</v>
       </c>
       <c r="J118" s="12">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K118)=FALSE,OFFSET(J118,0,COUNTA(K118:V118)),"")</f>
         <v>0</v>
       </c>
       <c r="K118" s="22">
@@ -35227,22 +35206,21 @@
         <v>0</v>
       </c>
       <c r="V118" s="22"/>
-      <c r="W118" s="22"/>
-      <c r="X118" s="6"/>
-    </row>
-    <row r="119" spans="1:24">
+      <c r="W118" s="6"/>
+    </row>
+    <row r="119" spans="1:23">
       <c r="A119" s="16">
         <v>115</v>
       </c>
       <c r="B119" s="16"/>
       <c r="C119" s="85" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D119" s="18" t="s">
         <v>113</v>
       </c>
       <c r="E119" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C119),"",IF(ISBLANK($G119),"未着手",IF($J119=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F119" s="4">
@@ -35258,7 +35236,7 @@
         <v>1</v>
       </c>
       <c r="J119" s="12">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K119)=FALSE,OFFSET(J119,0,COUNTA(K119:V119)),"")</f>
         <v>0</v>
       </c>
       <c r="K119" s="22">
@@ -35293,23 +35271,22 @@
       </c>
       <c r="U119" s="22"/>
       <c r="V119" s="22"/>
-      <c r="W119" s="22"/>
-      <c r="X119" s="6"/>
-    </row>
-    <row r="120" spans="1:24">
+      <c r="W119" s="6"/>
+    </row>
+    <row r="120" spans="1:23">
       <c r="A120" s="16">
         <v>116</v>
       </c>
       <c r="B120" s="16"/>
       <c r="C120" s="85" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D120" s="18" t="s">
         <v>113</v>
       </c>
       <c r="E120" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>作業中</v>
+        <f ca="1">IF(ISBLANK($C120),"",IF(ISBLANK($G120),"未着手",IF($J120=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F120" s="4">
         <v>43112</v>
@@ -35321,11 +35298,11 @@
         <v>3</v>
       </c>
       <c r="I120" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J120" s="12">
-        <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <f ca="1">IF(ISBLANK(K120)=FALSE,OFFSET(J120,0,COUNTA(K120:V120)),"")</f>
+        <v>0</v>
       </c>
       <c r="K120" s="22">
         <v>3</v>
@@ -35360,11 +35337,12 @@
       <c r="U120" s="22">
         <v>1</v>
       </c>
-      <c r="V120" s="22"/>
-      <c r="W120" s="22"/>
-      <c r="X120" s="6"/>
-    </row>
-    <row r="121" spans="1:24" hidden="1">
+      <c r="V120" s="22">
+        <v>0</v>
+      </c>
+      <c r="W120" s="6"/>
+    </row>
+    <row r="121" spans="1:23">
       <c r="A121" s="16">
         <v>117</v>
       </c>
@@ -35372,7 +35350,7 @@
       <c r="C121" s="85"/>
       <c r="D121" s="18"/>
       <c r="E121" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(ISBLANK($C121),"",IF(ISBLANK($G121),"未着手",IF($J121=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F121" s="4"/>
@@ -35380,7 +35358,7 @@
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
       <c r="J121" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K121)=FALSE,OFFSET(J121,0,COUNTA(K121:V121)),"")</f>
         <v/>
       </c>
       <c r="K121" s="22"/>
@@ -35395,22 +35373,21 @@
       <c r="T121" s="22"/>
       <c r="U121" s="22"/>
       <c r="V121" s="22"/>
-      <c r="W121" s="22"/>
-      <c r="X121" s="6"/>
-    </row>
-    <row r="122" spans="1:24" hidden="1">
+      <c r="W121" s="6"/>
+    </row>
+    <row r="122" spans="1:23">
       <c r="A122" s="16">
         <v>118</v>
       </c>
       <c r="B122" s="16"/>
       <c r="C122" s="85" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D122" s="18" t="s">
         <v>112</v>
       </c>
       <c r="E122" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f ca="1">IF(ISBLANK($C122),"",IF(ISBLANK($G122),"未着手",IF($J122=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F122" s="4">
@@ -35426,7 +35403,7 @@
         <v>4</v>
       </c>
       <c r="J122" s="12">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K122)=FALSE,OFFSET(J122,0,COUNTA(K122:V122)),"")</f>
         <v>0</v>
       </c>
       <c r="K122" s="22">
@@ -35463,10 +35440,9 @@
         <v>0</v>
       </c>
       <c r="V122" s="22"/>
-      <c r="W122" s="22"/>
-      <c r="X122" s="6"/>
-    </row>
-    <row r="123" spans="1:24" hidden="1">
+      <c r="W122" s="6"/>
+    </row>
+    <row r="123" spans="1:23">
       <c r="A123" s="16">
         <v>119</v>
       </c>
@@ -35474,7 +35450,7 @@
       <c r="C123" s="85"/>
       <c r="D123" s="18"/>
       <c r="E123" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(ISBLANK($C123),"",IF(ISBLANK($G123),"未着手",IF($J123=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F123" s="4"/>
@@ -35482,7 +35458,7 @@
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
       <c r="J123" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K123)=FALSE,OFFSET(J123,0,COUNTA(K123:V123)),"")</f>
         <v/>
       </c>
       <c r="K123" s="22"/>
@@ -35497,95 +35473,71 @@
       <c r="T123" s="22"/>
       <c r="U123" s="22"/>
       <c r="V123" s="22"/>
-      <c r="W123" s="22"/>
-      <c r="X123" s="6"/>
-    </row>
-    <row r="124" spans="1:24" hidden="1">
+      <c r="W123" s="6"/>
+    </row>
+    <row r="124" spans="1:23">
       <c r="A124" s="16">
         <v>120</v>
       </c>
       <c r="B124" s="16"/>
-      <c r="C124" s="85" t="s">
-        <v>483</v>
-      </c>
-      <c r="D124" s="18" t="s">
-        <v>124</v>
-      </c>
+      <c r="C124" s="85"/>
+      <c r="D124" s="18"/>
       <c r="E124" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v>未着手</v>
-      </c>
-      <c r="F124" s="4">
-        <v>43112</v>
-      </c>
+        <f>IF(ISBLANK($C124),"",IF(ISBLANK($G124),"未着手",IF($J124=0,"完了","作業中")))</f>
+        <v/>
+      </c>
+      <c r="F124" s="4"/>
       <c r="G124" s="4"/>
-      <c r="H124" s="19">
-        <v>2</v>
-      </c>
+      <c r="H124" s="19"/>
       <c r="I124" s="19"/>
-      <c r="J124" s="12">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="K124" s="22">
-        <v>2</v>
-      </c>
-      <c r="L124" s="22">
-        <v>2</v>
-      </c>
-      <c r="M124" s="22">
-        <v>2</v>
-      </c>
-      <c r="N124" s="125">
-        <v>2</v>
-      </c>
-      <c r="O124" s="124">
-        <v>2</v>
-      </c>
-      <c r="P124" s="123">
-        <v>2</v>
-      </c>
-      <c r="Q124" s="123">
-        <v>2</v>
-      </c>
-      <c r="R124" s="22">
-        <v>2</v>
-      </c>
-      <c r="S124" s="22">
-        <v>2</v>
-      </c>
+      <c r="J124" s="12" t="str">
+        <f ca="1">IF(ISBLANK(K124)=FALSE,OFFSET(J124,0,COUNTA(K124:V124)),"")</f>
+        <v/>
+      </c>
+      <c r="K124" s="22"/>
+      <c r="L124" s="22"/>
+      <c r="M124" s="22"/>
+      <c r="N124" s="125"/>
+      <c r="O124" s="124"/>
+      <c r="P124" s="123"/>
+      <c r="Q124" s="123"/>
+      <c r="R124" s="22"/>
+      <c r="S124" s="22"/>
       <c r="T124" s="22"/>
       <c r="U124" s="22"/>
       <c r="V124" s="22"/>
-      <c r="W124" s="22"/>
-      <c r="X124" s="6"/>
-    </row>
-    <row r="125" spans="1:24" hidden="1">
+      <c r="W124" s="6"/>
+    </row>
+    <row r="125" spans="1:23">
       <c r="A125" s="16">
         <v>121</v>
       </c>
       <c r="B125" s="16"/>
       <c r="C125" s="85" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E125" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($C125),"",IF(ISBLANK($G125),"未着手",IF($J125=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F125" s="4">
         <v>43112</v>
       </c>
-      <c r="G125" s="4"/>
+      <c r="G125" s="4">
+        <v>43115</v>
+      </c>
       <c r="H125" s="19">
         <v>2</v>
       </c>
-      <c r="I125" s="19"/>
+      <c r="I125" s="19">
+        <v>1</v>
+      </c>
       <c r="J125" s="12">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
+        <f ca="1">IF(ISBLANK(K125)=FALSE,OFFSET(J125,0,COUNTA(K125:V125)),"")</f>
+        <v>0</v>
       </c>
       <c r="K125" s="22">
         <v>2</v>
@@ -35614,26 +35566,31 @@
       <c r="S125" s="22">
         <v>2</v>
       </c>
-      <c r="T125" s="22"/>
-      <c r="U125" s="22"/>
-      <c r="V125" s="22"/>
-      <c r="W125" s="22"/>
-      <c r="X125" s="6"/>
-    </row>
-    <row r="126" spans="1:24" hidden="1">
+      <c r="T125" s="22">
+        <v>2</v>
+      </c>
+      <c r="U125" s="22">
+        <v>2</v>
+      </c>
+      <c r="V125" s="22">
+        <v>0</v>
+      </c>
+      <c r="W125" s="6"/>
+    </row>
+    <row r="126" spans="1:23">
       <c r="A126" s="16">
         <v>122</v>
       </c>
       <c r="B126" s="16"/>
       <c r="C126" s="85" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="D126" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E126" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>作業中</v>
+        <f ca="1">IF(ISBLANK($C126),"",IF(ISBLANK($G126),"未着手",IF($J126=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F126" s="4">
         <v>43112</v>
@@ -35644,10 +35601,12 @@
       <c r="H126" s="19">
         <v>2</v>
       </c>
-      <c r="I126" s="19"/>
+      <c r="I126" s="19">
+        <v>2</v>
+      </c>
       <c r="J126" s="12">
-        <f t="shared" ca="1" si="19"/>
-        <v>2</v>
+        <f ca="1">IF(ISBLANK(K126)=FALSE,OFFSET(J126,0,COUNTA(K126:V126)),"")</f>
+        <v>0</v>
       </c>
       <c r="K126" s="22">
         <v>2</v>
@@ -35676,38 +35635,43 @@
       <c r="S126" s="22">
         <v>2</v>
       </c>
-      <c r="T126" s="22"/>
+      <c r="T126" s="22">
+        <v>0</v>
+      </c>
       <c r="U126" s="22"/>
       <c r="V126" s="22"/>
-      <c r="W126" s="22"/>
-      <c r="X126" s="6"/>
-    </row>
-    <row r="127" spans="1:24" hidden="1">
+      <c r="W126" s="6"/>
+    </row>
+    <row r="127" spans="1:23">
       <c r="A127" s="16">
         <v>123</v>
       </c>
       <c r="B127" s="16"/>
       <c r="C127" s="85" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D127" s="18" t="s">
         <v>124</v>
       </c>
       <c r="E127" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($C127),"",IF(ISBLANK($G127),"未着手",IF($J127=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F127" s="4">
         <v>43112</v>
       </c>
-      <c r="G127" s="4"/>
+      <c r="G127" s="4">
+        <v>43113</v>
+      </c>
       <c r="H127" s="19">
         <v>1</v>
       </c>
-      <c r="I127" s="19"/>
+      <c r="I127" s="19">
+        <v>2</v>
+      </c>
       <c r="J127" s="12">
-        <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <f ca="1">IF(ISBLANK(K127)=FALSE,OFFSET(J127,0,COUNTA(K127:V127)),"")</f>
+        <v>0</v>
       </c>
       <c r="K127" s="22">
         <v>1</v>
@@ -35736,26 +35700,31 @@
       <c r="S127" s="22">
         <v>1</v>
       </c>
-      <c r="T127" s="22"/>
-      <c r="U127" s="22"/>
-      <c r="V127" s="22"/>
-      <c r="W127" s="22"/>
-      <c r="X127" s="6"/>
-    </row>
-    <row r="128" spans="1:24" hidden="1">
+      <c r="T127" s="22">
+        <v>1</v>
+      </c>
+      <c r="U127" s="22">
+        <v>1</v>
+      </c>
+      <c r="V127" s="22">
+        <v>0</v>
+      </c>
+      <c r="W127" s="6"/>
+    </row>
+    <row r="128" spans="1:23">
       <c r="A128" s="16">
         <v>124</v>
       </c>
       <c r="B128" s="16"/>
       <c r="C128" s="85" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="E128" s="12" t="str">
-        <f t="shared" ca="1" si="18"/>
-        <v>作業中</v>
+        <f ca="1">IF(ISBLANK($C128),"",IF(ISBLANK($G128),"未着手",IF($J128=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F128" s="4">
         <v>43112</v>
@@ -35763,90 +35732,140 @@
       <c r="G128" s="4">
         <v>43112</v>
       </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="K128" s="22"/>
-      <c r="L128" s="22"/>
-      <c r="M128" s="22"/>
-      <c r="N128" s="125"/>
-      <c r="O128" s="124"/>
-      <c r="P128" s="123"/>
-      <c r="Q128" s="123"/>
-      <c r="R128" s="22"/>
-      <c r="S128" s="22"/>
-      <c r="T128" s="22"/>
-      <c r="U128" s="22"/>
-      <c r="V128" s="22"/>
-      <c r="W128" s="22"/>
-      <c r="X128" s="6"/>
-    </row>
-    <row r="129" spans="1:24" hidden="1">
+      <c r="H128" s="19">
+        <v>6</v>
+      </c>
+      <c r="I128" s="19">
+        <v>6</v>
+      </c>
+      <c r="J128" s="12">
+        <f ca="1">IF(ISBLANK(K128)=FALSE,OFFSET(J128,0,COUNTA(K128:V128)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K128" s="22">
+        <v>6</v>
+      </c>
+      <c r="L128" s="22">
+        <v>6</v>
+      </c>
+      <c r="M128" s="22">
+        <v>6</v>
+      </c>
+      <c r="N128" s="125">
+        <v>6</v>
+      </c>
+      <c r="O128" s="124">
+        <v>6</v>
+      </c>
+      <c r="P128" s="123">
+        <v>6</v>
+      </c>
+      <c r="Q128" s="123">
+        <v>6</v>
+      </c>
+      <c r="R128" s="22">
+        <v>6</v>
+      </c>
+      <c r="S128" s="22">
+        <v>6</v>
+      </c>
+      <c r="T128" s="22">
+        <v>4</v>
+      </c>
+      <c r="U128" s="22">
+        <v>4</v>
+      </c>
+      <c r="V128" s="22">
+        <v>0</v>
+      </c>
+      <c r="W128" s="6"/>
+    </row>
+    <row r="129" spans="1:23">
       <c r="A129" s="16">
         <v>125</v>
       </c>
       <c r="B129" s="16"/>
       <c r="C129" s="85" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D129" s="18" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E129" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($C129),"",IF(ISBLANK($G129),"未着手",IF($J129=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F129" s="4">
         <v>43113</v>
       </c>
-      <c r="G129" s="4"/>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
-        <v/>
-      </c>
-      <c r="K129" s="22"/>
-      <c r="L129" s="22"/>
-      <c r="M129" s="22"/>
-      <c r="N129" s="125"/>
-      <c r="O129" s="124"/>
-      <c r="P129" s="123"/>
-      <c r="Q129" s="123"/>
-      <c r="R129" s="22"/>
-      <c r="S129" s="22"/>
-      <c r="T129" s="22"/>
-      <c r="U129" s="22"/>
-      <c r="V129" s="22"/>
-      <c r="W129" s="22"/>
-      <c r="X129" s="6"/>
-    </row>
-    <row r="130" spans="1:24" hidden="1">
+      <c r="G129" s="4">
+        <v>43113</v>
+      </c>
+      <c r="H129" s="19">
+        <v>6</v>
+      </c>
+      <c r="I129" s="19">
+        <v>6</v>
+      </c>
+      <c r="J129" s="12">
+        <f ca="1">IF(ISBLANK(K129)=FALSE,OFFSET(J129,0,COUNTA(K129:V129)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K129" s="22">
+        <v>6</v>
+      </c>
+      <c r="L129" s="22">
+        <v>6</v>
+      </c>
+      <c r="M129" s="22">
+        <v>6</v>
+      </c>
+      <c r="N129" s="125">
+        <v>6</v>
+      </c>
+      <c r="O129" s="124">
+        <v>6</v>
+      </c>
+      <c r="P129" s="123">
+        <v>6</v>
+      </c>
+      <c r="Q129" s="123">
+        <v>6</v>
+      </c>
+      <c r="R129" s="22">
+        <v>6</v>
+      </c>
+      <c r="S129" s="22">
+        <v>6</v>
+      </c>
+      <c r="T129" s="22">
+        <v>5</v>
+      </c>
+      <c r="U129" s="22">
+        <v>5</v>
+      </c>
+      <c r="V129" s="22">
+        <v>0</v>
+      </c>
+      <c r="W129" s="6"/>
+    </row>
+    <row r="130" spans="1:23">
       <c r="A130" s="16">
         <v>126</v>
       </c>
       <c r="B130" s="16"/>
-      <c r="C130" s="85" t="s">
-        <v>487</v>
-      </c>
-      <c r="D130" s="18" t="s">
-        <v>488</v>
-      </c>
+      <c r="C130" s="85"/>
+      <c r="D130" s="18"/>
       <c r="E130" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v>未着手</v>
-      </c>
-      <c r="F130" s="4">
-        <v>43114</v>
-      </c>
+        <f>IF(ISBLANK($C130),"",IF(ISBLANK($G130),"未着手",IF($J130=0,"完了","作業中")))</f>
+        <v/>
+      </c>
+      <c r="F130" s="4"/>
       <c r="G130" s="4"/>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
       <c r="J130" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K130)=FALSE,OFFSET(J130,0,COUNTA(K130:V130)),"")</f>
         <v/>
       </c>
       <c r="K130" s="22"/>
@@ -35861,32 +35880,25 @@
       <c r="T130" s="22"/>
       <c r="U130" s="22"/>
       <c r="V130" s="22"/>
-      <c r="W130" s="22"/>
-      <c r="X130" s="6"/>
-    </row>
-    <row r="131" spans="1:24" hidden="1">
+      <c r="W130" s="6"/>
+    </row>
+    <row r="131" spans="1:23">
       <c r="A131" s="16">
         <v>127</v>
       </c>
       <c r="B131" s="16"/>
-      <c r="C131" s="85" t="s">
-        <v>486</v>
-      </c>
-      <c r="D131" s="18" t="s">
-        <v>488</v>
-      </c>
+      <c r="C131" s="85"/>
+      <c r="D131" s="18"/>
       <c r="E131" s="12" t="str">
-        <f t="shared" si="18"/>
-        <v>未着手</v>
-      </c>
-      <c r="F131" s="4">
-        <v>43115</v>
-      </c>
+        <f>IF(ISBLANK($C131),"",IF(ISBLANK($G131),"未着手",IF($J131=0,"完了","作業中")))</f>
+        <v/>
+      </c>
+      <c r="F131" s="4"/>
       <c r="G131" s="4"/>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
       <c r="J131" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K131)=FALSE,OFFSET(J131,0,COUNTA(K131:V131)),"")</f>
         <v/>
       </c>
       <c r="K131" s="22"/>
@@ -35901,10 +35913,9 @@
       <c r="T131" s="22"/>
       <c r="U131" s="22"/>
       <c r="V131" s="22"/>
-      <c r="W131" s="22"/>
-      <c r="X131" s="6"/>
-    </row>
-    <row r="132" spans="1:24" hidden="1">
+      <c r="W131" s="6"/>
+    </row>
+    <row r="132" spans="1:23">
       <c r="A132" s="16">
         <v>128</v>
       </c>
@@ -35912,7 +35923,7 @@
       <c r="C132" s="85"/>
       <c r="D132" s="18"/>
       <c r="E132" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(ISBLANK($C132),"",IF(ISBLANK($G132),"未着手",IF($J132=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F132" s="4"/>
@@ -35920,7 +35931,7 @@
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
       <c r="J132" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K132)=FALSE,OFFSET(J132,0,COUNTA(K132:V132)),"")</f>
         <v/>
       </c>
       <c r="K132" s="22"/>
@@ -35935,10 +35946,9 @@
       <c r="T132" s="22"/>
       <c r="U132" s="22"/>
       <c r="V132" s="22"/>
-      <c r="W132" s="22"/>
-      <c r="X132" s="6"/>
-    </row>
-    <row r="133" spans="1:24" hidden="1">
+      <c r="W132" s="6"/>
+    </row>
+    <row r="133" spans="1:23">
       <c r="A133" s="16">
         <v>129</v>
       </c>
@@ -35946,7 +35956,7 @@
       <c r="C133" s="85"/>
       <c r="D133" s="18"/>
       <c r="E133" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(ISBLANK($C133),"",IF(ISBLANK($G133),"未着手",IF($J133=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F133" s="4"/>
@@ -35954,7 +35964,7 @@
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
       <c r="J133" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K133)=FALSE,OFFSET(J133,0,COUNTA(K133:V133)),"")</f>
         <v/>
       </c>
       <c r="K133" s="22"/>
@@ -35969,10 +35979,9 @@
       <c r="T133" s="22"/>
       <c r="U133" s="22"/>
       <c r="V133" s="22"/>
-      <c r="W133" s="22"/>
-      <c r="X133" s="6"/>
-    </row>
-    <row r="134" spans="1:24" hidden="1">
+      <c r="W133" s="6"/>
+    </row>
+    <row r="134" spans="1:23">
       <c r="A134" s="16">
         <v>130</v>
       </c>
@@ -35980,7 +35989,7 @@
       <c r="C134" s="85"/>
       <c r="D134" s="18"/>
       <c r="E134" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(ISBLANK($C134),"",IF(ISBLANK($G134),"未着手",IF($J134=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F134" s="4"/>
@@ -35988,7 +35997,7 @@
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
       <c r="J134" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K134)=FALSE,OFFSET(J134,0,COUNTA(K134:V134)),"")</f>
         <v/>
       </c>
       <c r="K134" s="22"/>
@@ -36003,10 +36012,9 @@
       <c r="T134" s="22"/>
       <c r="U134" s="22"/>
       <c r="V134" s="22"/>
-      <c r="W134" s="22"/>
-      <c r="X134" s="6"/>
-    </row>
-    <row r="135" spans="1:24" hidden="1">
+      <c r="W134" s="6"/>
+    </row>
+    <row r="135" spans="1:23">
       <c r="A135" s="16">
         <v>131</v>
       </c>
@@ -36014,7 +36022,7 @@
       <c r="C135" s="85"/>
       <c r="D135" s="18"/>
       <c r="E135" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(ISBLANK($C135),"",IF(ISBLANK($G135),"未着手",IF($J135=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F135" s="4"/>
@@ -36022,7 +36030,7 @@
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
       <c r="J135" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K135)=FALSE,OFFSET(J135,0,COUNTA(K135:V135)),"")</f>
         <v/>
       </c>
       <c r="K135" s="22"/>
@@ -36037,10 +36045,9 @@
       <c r="T135" s="22"/>
       <c r="U135" s="22"/>
       <c r="V135" s="22"/>
-      <c r="W135" s="22"/>
-      <c r="X135" s="6"/>
-    </row>
-    <row r="136" spans="1:24" hidden="1">
+      <c r="W135" s="6"/>
+    </row>
+    <row r="136" spans="1:23">
       <c r="A136" s="16">
         <v>132</v>
       </c>
@@ -36048,7 +36055,7 @@
       <c r="C136" s="85"/>
       <c r="D136" s="18"/>
       <c r="E136" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(ISBLANK($C136),"",IF(ISBLANK($G136),"未着手",IF($J136=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F136" s="4"/>
@@ -36056,7 +36063,7 @@
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
       <c r="J136" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K136)=FALSE,OFFSET(J136,0,COUNTA(K136:V136)),"")</f>
         <v/>
       </c>
       <c r="K136" s="22"/>
@@ -36071,10 +36078,9 @@
       <c r="T136" s="22"/>
       <c r="U136" s="22"/>
       <c r="V136" s="22"/>
-      <c r="W136" s="22"/>
-      <c r="X136" s="6"/>
-    </row>
-    <row r="137" spans="1:24" hidden="1">
+      <c r="W136" s="6"/>
+    </row>
+    <row r="137" spans="1:23">
       <c r="A137" s="16">
         <v>133</v>
       </c>
@@ -36082,7 +36088,7 @@
       <c r="C137" s="85"/>
       <c r="D137" s="18"/>
       <c r="E137" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(ISBLANK($C137),"",IF(ISBLANK($G137),"未着手",IF($J137=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F137" s="4"/>
@@ -36090,7 +36096,7 @@
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
       <c r="J137" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K137)=FALSE,OFFSET(J137,0,COUNTA(K137:V137)),"")</f>
         <v/>
       </c>
       <c r="K137" s="22"/>
@@ -36105,10 +36111,9 @@
       <c r="T137" s="22"/>
       <c r="U137" s="22"/>
       <c r="V137" s="22"/>
-      <c r="W137" s="22"/>
-      <c r="X137" s="6"/>
-    </row>
-    <row r="138" spans="1:24" hidden="1">
+      <c r="W137" s="6"/>
+    </row>
+    <row r="138" spans="1:23">
       <c r="A138" s="16">
         <v>134</v>
       </c>
@@ -36116,7 +36121,7 @@
       <c r="C138" s="85"/>
       <c r="D138" s="18"/>
       <c r="E138" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(ISBLANK($C138),"",IF(ISBLANK($G138),"未着手",IF($J138=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F138" s="4"/>
@@ -36124,7 +36129,7 @@
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
       <c r="J138" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K138)=FALSE,OFFSET(J138,0,COUNTA(K138:V138)),"")</f>
         <v/>
       </c>
       <c r="K138" s="22"/>
@@ -36139,10 +36144,9 @@
       <c r="T138" s="22"/>
       <c r="U138" s="22"/>
       <c r="V138" s="22"/>
-      <c r="W138" s="22"/>
-      <c r="X138" s="6"/>
-    </row>
-    <row r="139" spans="1:24" hidden="1">
+      <c r="W138" s="6"/>
+    </row>
+    <row r="139" spans="1:23">
       <c r="A139" s="16">
         <v>135</v>
       </c>
@@ -36150,7 +36154,7 @@
       <c r="C139" s="85"/>
       <c r="D139" s="18"/>
       <c r="E139" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(ISBLANK($C139),"",IF(ISBLANK($G139),"未着手",IF($J139=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F139" s="4"/>
@@ -36158,7 +36162,7 @@
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
       <c r="J139" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K139)=FALSE,OFFSET(J139,0,COUNTA(K139:V139)),"")</f>
         <v/>
       </c>
       <c r="K139" s="22"/>
@@ -36173,10 +36177,9 @@
       <c r="T139" s="22"/>
       <c r="U139" s="22"/>
       <c r="V139" s="22"/>
-      <c r="W139" s="22"/>
-      <c r="X139" s="6"/>
-    </row>
-    <row r="140" spans="1:24" hidden="1">
+      <c r="W139" s="6"/>
+    </row>
+    <row r="140" spans="1:23">
       <c r="A140" s="16">
         <v>136</v>
       </c>
@@ -36184,7 +36187,7 @@
       <c r="C140" s="85"/>
       <c r="D140" s="18"/>
       <c r="E140" s="12" t="str">
-        <f t="shared" si="18"/>
+        <f>IF(ISBLANK($C140),"",IF(ISBLANK($G140),"未着手",IF($J140=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F140" s="4"/>
@@ -36192,7 +36195,7 @@
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
       <c r="J140" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K140)=FALSE,OFFSET(J140,0,COUNTA(K140:V140)),"")</f>
         <v/>
       </c>
       <c r="K140" s="22"/>
@@ -36207,10 +36210,9 @@
       <c r="T140" s="22"/>
       <c r="U140" s="22"/>
       <c r="V140" s="22"/>
-      <c r="W140" s="22"/>
-      <c r="X140" s="6"/>
-    </row>
-    <row r="141" spans="1:24" hidden="1">
+      <c r="W140" s="6"/>
+    </row>
+    <row r="141" spans="1:23">
       <c r="A141" s="16">
         <v>137</v>
       </c>
@@ -36218,7 +36220,7 @@
       <c r="C141" s="85"/>
       <c r="D141" s="18"/>
       <c r="E141" s="12" t="str">
-        <f t="shared" ref="E141:E175" si="20">IF(ISBLANK($C141),"",IF(ISBLANK($G141),"未着手",IF($J141=0,"完了","作業中")))</f>
+        <f>IF(ISBLANK($C141),"",IF(ISBLANK($G141),"未着手",IF($J141=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F141" s="4"/>
@@ -36226,7 +36228,7 @@
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
       <c r="J141" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K141)=FALSE,OFFSET(J141,0,COUNTA(K141:V141)),"")</f>
         <v/>
       </c>
       <c r="K141" s="22"/>
@@ -36241,10 +36243,9 @@
       <c r="T141" s="22"/>
       <c r="U141" s="22"/>
       <c r="V141" s="22"/>
-      <c r="W141" s="22"/>
-      <c r="X141" s="6"/>
-    </row>
-    <row r="142" spans="1:24" hidden="1">
+      <c r="W141" s="6"/>
+    </row>
+    <row r="142" spans="1:23">
       <c r="A142" s="16">
         <v>138</v>
       </c>
@@ -36252,7 +36253,7 @@
       <c r="C142" s="85"/>
       <c r="D142" s="18"/>
       <c r="E142" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C142),"",IF(ISBLANK($G142),"未着手",IF($J142=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F142" s="4"/>
@@ -36260,7 +36261,7 @@
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
       <c r="J142" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K142)=FALSE,OFFSET(J142,0,COUNTA(K142:V142)),"")</f>
         <v/>
       </c>
       <c r="K142" s="22"/>
@@ -36275,10 +36276,9 @@
       <c r="T142" s="22"/>
       <c r="U142" s="22"/>
       <c r="V142" s="22"/>
-      <c r="W142" s="22"/>
-      <c r="X142" s="6"/>
-    </row>
-    <row r="143" spans="1:24" hidden="1">
+      <c r="W142" s="6"/>
+    </row>
+    <row r="143" spans="1:23">
       <c r="A143" s="16">
         <v>139</v>
       </c>
@@ -36286,7 +36286,7 @@
       <c r="C143" s="85"/>
       <c r="D143" s="18"/>
       <c r="E143" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C143),"",IF(ISBLANK($G143),"未着手",IF($J143=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F143" s="4"/>
@@ -36294,7 +36294,7 @@
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
       <c r="J143" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K143)=FALSE,OFFSET(J143,0,COUNTA(K143:V143)),"")</f>
         <v/>
       </c>
       <c r="K143" s="22"/>
@@ -36309,10 +36309,9 @@
       <c r="T143" s="22"/>
       <c r="U143" s="22"/>
       <c r="V143" s="22"/>
-      <c r="W143" s="22"/>
-      <c r="X143" s="6"/>
-    </row>
-    <row r="144" spans="1:24" hidden="1">
+      <c r="W143" s="6"/>
+    </row>
+    <row r="144" spans="1:23">
       <c r="A144" s="16">
         <v>140</v>
       </c>
@@ -36320,7 +36319,7 @@
       <c r="C144" s="85"/>
       <c r="D144" s="18"/>
       <c r="E144" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C144),"",IF(ISBLANK($G144),"未着手",IF($J144=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F144" s="4"/>
@@ -36328,7 +36327,7 @@
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
       <c r="J144" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K144)=FALSE,OFFSET(J144,0,COUNTA(K144:V144)),"")</f>
         <v/>
       </c>
       <c r="K144" s="22"/>
@@ -36343,10 +36342,9 @@
       <c r="T144" s="22"/>
       <c r="U144" s="22"/>
       <c r="V144" s="22"/>
-      <c r="W144" s="22"/>
-      <c r="X144" s="6"/>
-    </row>
-    <row r="145" spans="1:24" hidden="1">
+      <c r="W144" s="6"/>
+    </row>
+    <row r="145" spans="1:23">
       <c r="A145" s="16">
         <v>141</v>
       </c>
@@ -36354,7 +36352,7 @@
       <c r="C145" s="85"/>
       <c r="D145" s="18"/>
       <c r="E145" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C145),"",IF(ISBLANK($G145),"未着手",IF($J145=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F145" s="4"/>
@@ -36362,7 +36360,7 @@
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
       <c r="J145" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K145)=FALSE,OFFSET(J145,0,COUNTA(K145:V145)),"")</f>
         <v/>
       </c>
       <c r="K145" s="22"/>
@@ -36377,10 +36375,9 @@
       <c r="T145" s="22"/>
       <c r="U145" s="22"/>
       <c r="V145" s="22"/>
-      <c r="W145" s="22"/>
-      <c r="X145" s="6"/>
-    </row>
-    <row r="146" spans="1:24" hidden="1">
+      <c r="W145" s="6"/>
+    </row>
+    <row r="146" spans="1:23">
       <c r="A146" s="16">
         <v>142</v>
       </c>
@@ -36388,7 +36385,7 @@
       <c r="C146" s="85"/>
       <c r="D146" s="18"/>
       <c r="E146" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C146),"",IF(ISBLANK($G146),"未着手",IF($J146=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F146" s="4"/>
@@ -36396,7 +36393,7 @@
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
       <c r="J146" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K146)=FALSE,OFFSET(J146,0,COUNTA(K146:V146)),"")</f>
         <v/>
       </c>
       <c r="K146" s="22"/>
@@ -36411,10 +36408,9 @@
       <c r="T146" s="22"/>
       <c r="U146" s="22"/>
       <c r="V146" s="22"/>
-      <c r="W146" s="22"/>
-      <c r="X146" s="6"/>
-    </row>
-    <row r="147" spans="1:24" hidden="1">
+      <c r="W146" s="6"/>
+    </row>
+    <row r="147" spans="1:23">
       <c r="A147" s="16">
         <v>143</v>
       </c>
@@ -36422,7 +36418,7 @@
       <c r="C147" s="85"/>
       <c r="D147" s="18"/>
       <c r="E147" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C147),"",IF(ISBLANK($G147),"未着手",IF($J147=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F147" s="4"/>
@@ -36430,7 +36426,7 @@
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
       <c r="J147" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K147)=FALSE,OFFSET(J147,0,COUNTA(K147:V147)),"")</f>
         <v/>
       </c>
       <c r="K147" s="22"/>
@@ -36445,10 +36441,9 @@
       <c r="T147" s="22"/>
       <c r="U147" s="22"/>
       <c r="V147" s="22"/>
-      <c r="W147" s="22"/>
-      <c r="X147" s="6"/>
-    </row>
-    <row r="148" spans="1:24" hidden="1">
+      <c r="W147" s="6"/>
+    </row>
+    <row r="148" spans="1:23">
       <c r="A148" s="16">
         <v>144</v>
       </c>
@@ -36456,7 +36451,7 @@
       <c r="C148" s="85"/>
       <c r="D148" s="18"/>
       <c r="E148" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C148),"",IF(ISBLANK($G148),"未着手",IF($J148=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F148" s="4"/>
@@ -36464,7 +36459,7 @@
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
       <c r="J148" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K148)=FALSE,OFFSET(J148,0,COUNTA(K148:V148)),"")</f>
         <v/>
       </c>
       <c r="K148" s="22"/>
@@ -36479,10 +36474,9 @@
       <c r="T148" s="22"/>
       <c r="U148" s="22"/>
       <c r="V148" s="22"/>
-      <c r="W148" s="22"/>
-      <c r="X148" s="6"/>
-    </row>
-    <row r="149" spans="1:24" hidden="1">
+      <c r="W148" s="6"/>
+    </row>
+    <row r="149" spans="1:23">
       <c r="A149" s="16">
         <v>145</v>
       </c>
@@ -36490,7 +36484,7 @@
       <c r="C149" s="85"/>
       <c r="D149" s="18"/>
       <c r="E149" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C149),"",IF(ISBLANK($G149),"未着手",IF($J149=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F149" s="4"/>
@@ -36498,7 +36492,7 @@
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
       <c r="J149" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K149)=FALSE,OFFSET(J149,0,COUNTA(K149:V149)),"")</f>
         <v/>
       </c>
       <c r="K149" s="22"/>
@@ -36513,10 +36507,9 @@
       <c r="T149" s="22"/>
       <c r="U149" s="22"/>
       <c r="V149" s="22"/>
-      <c r="W149" s="22"/>
-      <c r="X149" s="6"/>
-    </row>
-    <row r="150" spans="1:24" hidden="1">
+      <c r="W149" s="6"/>
+    </row>
+    <row r="150" spans="1:23">
       <c r="A150" s="16">
         <v>146</v>
       </c>
@@ -36524,7 +36517,7 @@
       <c r="C150" s="85"/>
       <c r="D150" s="18"/>
       <c r="E150" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C150),"",IF(ISBLANK($G150),"未着手",IF($J150=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F150" s="4"/>
@@ -36532,7 +36525,7 @@
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
       <c r="J150" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K150)=FALSE,OFFSET(J150,0,COUNTA(K150:V150)),"")</f>
         <v/>
       </c>
       <c r="K150" s="22"/>
@@ -36547,10 +36540,9 @@
       <c r="T150" s="22"/>
       <c r="U150" s="22"/>
       <c r="V150" s="22"/>
-      <c r="W150" s="22"/>
-      <c r="X150" s="6"/>
-    </row>
-    <row r="151" spans="1:24" hidden="1">
+      <c r="W150" s="6"/>
+    </row>
+    <row r="151" spans="1:23">
       <c r="A151" s="16">
         <v>147</v>
       </c>
@@ -36558,7 +36550,7 @@
       <c r="C151" s="85"/>
       <c r="D151" s="18"/>
       <c r="E151" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C151),"",IF(ISBLANK($G151),"未着手",IF($J151=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F151" s="4"/>
@@ -36566,7 +36558,7 @@
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
       <c r="J151" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K151)=FALSE,OFFSET(J151,0,COUNTA(K151:V151)),"")</f>
         <v/>
       </c>
       <c r="K151" s="22"/>
@@ -36581,10 +36573,9 @@
       <c r="T151" s="22"/>
       <c r="U151" s="22"/>
       <c r="V151" s="22"/>
-      <c r="W151" s="22"/>
-      <c r="X151" s="6"/>
-    </row>
-    <row r="152" spans="1:24" hidden="1">
+      <c r="W151" s="6"/>
+    </row>
+    <row r="152" spans="1:23">
       <c r="A152" s="16">
         <v>148</v>
       </c>
@@ -36592,7 +36583,7 @@
       <c r="C152" s="85"/>
       <c r="D152" s="18"/>
       <c r="E152" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C152),"",IF(ISBLANK($G152),"未着手",IF($J152=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F152" s="4"/>
@@ -36600,7 +36591,7 @@
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
       <c r="J152" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K152)=FALSE,OFFSET(J152,0,COUNTA(K152:V152)),"")</f>
         <v/>
       </c>
       <c r="K152" s="22"/>
@@ -36615,10 +36606,9 @@
       <c r="T152" s="22"/>
       <c r="U152" s="22"/>
       <c r="V152" s="22"/>
-      <c r="W152" s="22"/>
-      <c r="X152" s="6"/>
-    </row>
-    <row r="153" spans="1:24" hidden="1">
+      <c r="W152" s="6"/>
+    </row>
+    <row r="153" spans="1:23">
       <c r="A153" s="16">
         <v>149</v>
       </c>
@@ -36626,7 +36616,7 @@
       <c r="C153" s="85"/>
       <c r="D153" s="18"/>
       <c r="E153" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C153),"",IF(ISBLANK($G153),"未着手",IF($J153=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F153" s="4"/>
@@ -36634,7 +36624,7 @@
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
       <c r="J153" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K153)=FALSE,OFFSET(J153,0,COUNTA(K153:V153)),"")</f>
         <v/>
       </c>
       <c r="K153" s="22"/>
@@ -36649,10 +36639,9 @@
       <c r="T153" s="22"/>
       <c r="U153" s="22"/>
       <c r="V153" s="22"/>
-      <c r="W153" s="22"/>
-      <c r="X153" s="6"/>
-    </row>
-    <row r="154" spans="1:24" hidden="1">
+      <c r="W153" s="6"/>
+    </row>
+    <row r="154" spans="1:23">
       <c r="A154" s="16">
         <v>150</v>
       </c>
@@ -36660,7 +36649,7 @@
       <c r="C154" s="85"/>
       <c r="D154" s="18"/>
       <c r="E154" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C154),"",IF(ISBLANK($G154),"未着手",IF($J154=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F154" s="4"/>
@@ -36668,7 +36657,7 @@
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
       <c r="J154" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K154)=FALSE,OFFSET(J154,0,COUNTA(K154:V154)),"")</f>
         <v/>
       </c>
       <c r="K154" s="22"/>
@@ -36683,10 +36672,9 @@
       <c r="T154" s="22"/>
       <c r="U154" s="22"/>
       <c r="V154" s="22"/>
-      <c r="W154" s="22"/>
-      <c r="X154" s="6"/>
-    </row>
-    <row r="155" spans="1:24" hidden="1">
+      <c r="W154" s="6"/>
+    </row>
+    <row r="155" spans="1:23">
       <c r="A155" s="16">
         <v>151</v>
       </c>
@@ -36694,7 +36682,7 @@
       <c r="C155" s="85"/>
       <c r="D155" s="18"/>
       <c r="E155" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C155),"",IF(ISBLANK($G155),"未着手",IF($J155=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F155" s="4"/>
@@ -36702,7 +36690,7 @@
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
       <c r="J155" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K155)=FALSE,OFFSET(J155,0,COUNTA(K155:V155)),"")</f>
         <v/>
       </c>
       <c r="K155" s="22"/>
@@ -36717,10 +36705,9 @@
       <c r="T155" s="22"/>
       <c r="U155" s="22"/>
       <c r="V155" s="22"/>
-      <c r="W155" s="22"/>
-      <c r="X155" s="6"/>
-    </row>
-    <row r="156" spans="1:24" hidden="1">
+      <c r="W155" s="6"/>
+    </row>
+    <row r="156" spans="1:23">
       <c r="A156" s="16">
         <v>152</v>
       </c>
@@ -36728,7 +36715,7 @@
       <c r="C156" s="85"/>
       <c r="D156" s="18"/>
       <c r="E156" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C156),"",IF(ISBLANK($G156),"未着手",IF($J156=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F156" s="4"/>
@@ -36736,7 +36723,7 @@
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
       <c r="J156" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K156)=FALSE,OFFSET(J156,0,COUNTA(K156:V156)),"")</f>
         <v/>
       </c>
       <c r="K156" s="22"/>
@@ -36751,10 +36738,9 @@
       <c r="T156" s="22"/>
       <c r="U156" s="22"/>
       <c r="V156" s="22"/>
-      <c r="W156" s="22"/>
-      <c r="X156" s="6"/>
-    </row>
-    <row r="157" spans="1:24" hidden="1">
+      <c r="W156" s="6"/>
+    </row>
+    <row r="157" spans="1:23">
       <c r="A157" s="16">
         <v>153</v>
       </c>
@@ -36762,7 +36748,7 @@
       <c r="C157" s="85"/>
       <c r="D157" s="18"/>
       <c r="E157" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C157),"",IF(ISBLANK($G157),"未着手",IF($J157=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F157" s="4"/>
@@ -36770,7 +36756,7 @@
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
       <c r="J157" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K157)=FALSE,OFFSET(J157,0,COUNTA(K157:V157)),"")</f>
         <v/>
       </c>
       <c r="K157" s="22"/>
@@ -36785,10 +36771,9 @@
       <c r="T157" s="22"/>
       <c r="U157" s="22"/>
       <c r="V157" s="22"/>
-      <c r="W157" s="22"/>
-      <c r="X157" s="6"/>
-    </row>
-    <row r="158" spans="1:24" hidden="1">
+      <c r="W157" s="6"/>
+    </row>
+    <row r="158" spans="1:23">
       <c r="A158" s="16">
         <v>154</v>
       </c>
@@ -36796,7 +36781,7 @@
       <c r="C158" s="85"/>
       <c r="D158" s="18"/>
       <c r="E158" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C158),"",IF(ISBLANK($G158),"未着手",IF($J158=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F158" s="4"/>
@@ -36804,7 +36789,7 @@
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
       <c r="J158" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K158)=FALSE,OFFSET(J158,0,COUNTA(K158:V158)),"")</f>
         <v/>
       </c>
       <c r="K158" s="22"/>
@@ -36819,10 +36804,9 @@
       <c r="T158" s="22"/>
       <c r="U158" s="22"/>
       <c r="V158" s="22"/>
-      <c r="W158" s="22"/>
-      <c r="X158" s="6"/>
-    </row>
-    <row r="159" spans="1:24" hidden="1">
+      <c r="W158" s="6"/>
+    </row>
+    <row r="159" spans="1:23">
       <c r="A159" s="16">
         <v>155</v>
       </c>
@@ -36830,7 +36814,7 @@
       <c r="C159" s="85"/>
       <c r="D159" s="18"/>
       <c r="E159" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C159),"",IF(ISBLANK($G159),"未着手",IF($J159=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F159" s="4"/>
@@ -36838,7 +36822,7 @@
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
       <c r="J159" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K159)=FALSE,OFFSET(J159,0,COUNTA(K159:V159)),"")</f>
         <v/>
       </c>
       <c r="K159" s="22"/>
@@ -36853,10 +36837,9 @@
       <c r="T159" s="22"/>
       <c r="U159" s="22"/>
       <c r="V159" s="22"/>
-      <c r="W159" s="22"/>
-      <c r="X159" s="6"/>
-    </row>
-    <row r="160" spans="1:24" hidden="1">
+      <c r="W159" s="6"/>
+    </row>
+    <row r="160" spans="1:23">
       <c r="A160" s="16">
         <v>156</v>
       </c>
@@ -36864,7 +36847,7 @@
       <c r="C160" s="85"/>
       <c r="D160" s="18"/>
       <c r="E160" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C160),"",IF(ISBLANK($G160),"未着手",IF($J160=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F160" s="4"/>
@@ -36872,7 +36855,7 @@
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
       <c r="J160" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K160)=FALSE,OFFSET(J160,0,COUNTA(K160:V160)),"")</f>
         <v/>
       </c>
       <c r="K160" s="22"/>
@@ -36887,10 +36870,9 @@
       <c r="T160" s="22"/>
       <c r="U160" s="22"/>
       <c r="V160" s="22"/>
-      <c r="W160" s="22"/>
-      <c r="X160" s="6"/>
-    </row>
-    <row r="161" spans="1:24" hidden="1">
+      <c r="W160" s="6"/>
+    </row>
+    <row r="161" spans="1:23">
       <c r="A161" s="16">
         <v>157</v>
       </c>
@@ -36898,7 +36880,7 @@
       <c r="C161" s="85"/>
       <c r="D161" s="18"/>
       <c r="E161" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C161),"",IF(ISBLANK($G161),"未着手",IF($J161=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F161" s="4"/>
@@ -36906,7 +36888,7 @@
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
       <c r="J161" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K161)=FALSE,OFFSET(J161,0,COUNTA(K161:V161)),"")</f>
         <v/>
       </c>
       <c r="K161" s="22"/>
@@ -36921,10 +36903,9 @@
       <c r="T161" s="22"/>
       <c r="U161" s="22"/>
       <c r="V161" s="22"/>
-      <c r="W161" s="22"/>
-      <c r="X161" s="6"/>
-    </row>
-    <row r="162" spans="1:24" hidden="1">
+      <c r="W161" s="6"/>
+    </row>
+    <row r="162" spans="1:23">
       <c r="A162" s="16">
         <v>158</v>
       </c>
@@ -36932,7 +36913,7 @@
       <c r="C162" s="85"/>
       <c r="D162" s="18"/>
       <c r="E162" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C162),"",IF(ISBLANK($G162),"未着手",IF($J162=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F162" s="4"/>
@@ -36940,7 +36921,7 @@
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
       <c r="J162" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K162)=FALSE,OFFSET(J162,0,COUNTA(K162:V162)),"")</f>
         <v/>
       </c>
       <c r="K162" s="22"/>
@@ -36955,10 +36936,9 @@
       <c r="T162" s="22"/>
       <c r="U162" s="22"/>
       <c r="V162" s="22"/>
-      <c r="W162" s="22"/>
-      <c r="X162" s="6"/>
-    </row>
-    <row r="163" spans="1:24" hidden="1">
+      <c r="W162" s="6"/>
+    </row>
+    <row r="163" spans="1:23">
       <c r="A163" s="16">
         <v>159</v>
       </c>
@@ -36966,7 +36946,7 @@
       <c r="C163" s="85"/>
       <c r="D163" s="18"/>
       <c r="E163" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C163),"",IF(ISBLANK($G163),"未着手",IF($J163=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F163" s="4"/>
@@ -36974,7 +36954,7 @@
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
       <c r="J163" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K163)=FALSE,OFFSET(J163,0,COUNTA(K163:V163)),"")</f>
         <v/>
       </c>
       <c r="K163" s="22"/>
@@ -36989,10 +36969,9 @@
       <c r="T163" s="22"/>
       <c r="U163" s="22"/>
       <c r="V163" s="22"/>
-      <c r="W163" s="22"/>
-      <c r="X163" s="6"/>
-    </row>
-    <row r="164" spans="1:24" hidden="1">
+      <c r="W163" s="6"/>
+    </row>
+    <row r="164" spans="1:23">
       <c r="A164" s="16">
         <v>160</v>
       </c>
@@ -37000,7 +36979,7 @@
       <c r="C164" s="85"/>
       <c r="D164" s="18"/>
       <c r="E164" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C164),"",IF(ISBLANK($G164),"未着手",IF($J164=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F164" s="4"/>
@@ -37008,7 +36987,7 @@
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
       <c r="J164" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K164)=FALSE,OFFSET(J164,0,COUNTA(K164:V164)),"")</f>
         <v/>
       </c>
       <c r="K164" s="22"/>
@@ -37023,10 +37002,9 @@
       <c r="T164" s="22"/>
       <c r="U164" s="22"/>
       <c r="V164" s="22"/>
-      <c r="W164" s="22"/>
-      <c r="X164" s="6"/>
-    </row>
-    <row r="165" spans="1:24" hidden="1">
+      <c r="W164" s="6"/>
+    </row>
+    <row r="165" spans="1:23">
       <c r="A165" s="16">
         <v>161</v>
       </c>
@@ -37034,7 +37012,7 @@
       <c r="C165" s="85"/>
       <c r="D165" s="18"/>
       <c r="E165" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C165),"",IF(ISBLANK($G165),"未着手",IF($J165=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F165" s="4"/>
@@ -37042,7 +37020,7 @@
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
       <c r="J165" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K165)=FALSE,OFFSET(J165,0,COUNTA(K165:V165)),"")</f>
         <v/>
       </c>
       <c r="K165" s="22"/>
@@ -37057,10 +37035,9 @@
       <c r="T165" s="22"/>
       <c r="U165" s="22"/>
       <c r="V165" s="22"/>
-      <c r="W165" s="22"/>
-      <c r="X165" s="6"/>
-    </row>
-    <row r="166" spans="1:24" hidden="1">
+      <c r="W165" s="6"/>
+    </row>
+    <row r="166" spans="1:23">
       <c r="A166" s="16">
         <v>162</v>
       </c>
@@ -37068,7 +37045,7 @@
       <c r="C166" s="85"/>
       <c r="D166" s="18"/>
       <c r="E166" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C166),"",IF(ISBLANK($G166),"未着手",IF($J166=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F166" s="4"/>
@@ -37076,7 +37053,7 @@
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
       <c r="J166" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K166)=FALSE,OFFSET(J166,0,COUNTA(K166:V166)),"")</f>
         <v/>
       </c>
       <c r="K166" s="22"/>
@@ -37091,10 +37068,9 @@
       <c r="T166" s="22"/>
       <c r="U166" s="22"/>
       <c r="V166" s="22"/>
-      <c r="W166" s="22"/>
-      <c r="X166" s="6"/>
-    </row>
-    <row r="167" spans="1:24" hidden="1">
+      <c r="W166" s="6"/>
+    </row>
+    <row r="167" spans="1:23">
       <c r="A167" s="16">
         <v>163</v>
       </c>
@@ -37102,7 +37078,7 @@
       <c r="C167" s="85"/>
       <c r="D167" s="18"/>
       <c r="E167" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C167),"",IF(ISBLANK($G167),"未着手",IF($J167=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F167" s="4"/>
@@ -37110,7 +37086,7 @@
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
       <c r="J167" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K167)=FALSE,OFFSET(J167,0,COUNTA(K167:V167)),"")</f>
         <v/>
       </c>
       <c r="K167" s="22"/>
@@ -37125,10 +37101,9 @@
       <c r="T167" s="22"/>
       <c r="U167" s="22"/>
       <c r="V167" s="22"/>
-      <c r="W167" s="22"/>
-      <c r="X167" s="6"/>
-    </row>
-    <row r="168" spans="1:24" hidden="1">
+      <c r="W167" s="6"/>
+    </row>
+    <row r="168" spans="1:23">
       <c r="A168" s="16">
         <v>164</v>
       </c>
@@ -37136,7 +37111,7 @@
       <c r="C168" s="85"/>
       <c r="D168" s="18"/>
       <c r="E168" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C168),"",IF(ISBLANK($G168),"未着手",IF($J168=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F168" s="4"/>
@@ -37144,7 +37119,7 @@
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
       <c r="J168" s="12" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f ca="1">IF(ISBLANK(K168)=FALSE,OFFSET(J168,0,COUNTA(K168:V168)),"")</f>
         <v/>
       </c>
       <c r="K168" s="22"/>
@@ -37159,10 +37134,9 @@
       <c r="T168" s="22"/>
       <c r="U168" s="22"/>
       <c r="V168" s="22"/>
-      <c r="W168" s="22"/>
-      <c r="X168" s="6"/>
-    </row>
-    <row r="169" spans="1:24" hidden="1">
+      <c r="W168" s="6"/>
+    </row>
+    <row r="169" spans="1:23">
       <c r="A169" s="16">
         <v>165</v>
       </c>
@@ -37170,7 +37144,7 @@
       <c r="C169" s="85"/>
       <c r="D169" s="18"/>
       <c r="E169" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C169),"",IF(ISBLANK($G169),"未着手",IF($J169=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F169" s="4"/>
@@ -37178,7 +37152,7 @@
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
       <c r="J169" s="12" t="str">
-        <f t="shared" ref="J169:J175" ca="1" si="21">IF(ISBLANK(K169)=FALSE,OFFSET(J169,0,COUNTA(K169:W169)),"")</f>
+        <f ca="1">IF(ISBLANK(K169)=FALSE,OFFSET(J169,0,COUNTA(K169:V169)),"")</f>
         <v/>
       </c>
       <c r="K169" s="22"/>
@@ -37193,10 +37167,9 @@
       <c r="T169" s="22"/>
       <c r="U169" s="22"/>
       <c r="V169" s="22"/>
-      <c r="W169" s="22"/>
-      <c r="X169" s="6"/>
-    </row>
-    <row r="170" spans="1:24" hidden="1">
+      <c r="W169" s="6"/>
+    </row>
+    <row r="170" spans="1:23">
       <c r="A170" s="16">
         <v>166</v>
       </c>
@@ -37204,7 +37177,7 @@
       <c r="C170" s="85"/>
       <c r="D170" s="18"/>
       <c r="E170" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C170),"",IF(ISBLANK($G170),"未着手",IF($J170=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F170" s="4"/>
@@ -37212,7 +37185,7 @@
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
       <c r="J170" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">IF(ISBLANK(K170)=FALSE,OFFSET(J170,0,COUNTA(K170:V170)),"")</f>
         <v/>
       </c>
       <c r="K170" s="22"/>
@@ -37227,10 +37200,9 @@
       <c r="T170" s="22"/>
       <c r="U170" s="22"/>
       <c r="V170" s="22"/>
-      <c r="W170" s="22"/>
-      <c r="X170" s="6"/>
-    </row>
-    <row r="171" spans="1:24" hidden="1">
+      <c r="W170" s="6"/>
+    </row>
+    <row r="171" spans="1:23">
       <c r="A171" s="16">
         <v>167</v>
       </c>
@@ -37238,7 +37210,7 @@
       <c r="C171" s="85"/>
       <c r="D171" s="18"/>
       <c r="E171" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C171),"",IF(ISBLANK($G171),"未着手",IF($J171=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F171" s="4"/>
@@ -37246,7 +37218,7 @@
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
       <c r="J171" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">IF(ISBLANK(K171)=FALSE,OFFSET(J171,0,COUNTA(K171:V171)),"")</f>
         <v/>
       </c>
       <c r="K171" s="22"/>
@@ -37261,10 +37233,9 @@
       <c r="T171" s="22"/>
       <c r="U171" s="22"/>
       <c r="V171" s="22"/>
-      <c r="W171" s="22"/>
-      <c r="X171" s="6"/>
-    </row>
-    <row r="172" spans="1:24" hidden="1">
+      <c r="W171" s="6"/>
+    </row>
+    <row r="172" spans="1:23">
       <c r="A172" s="16">
         <v>168</v>
       </c>
@@ -37272,7 +37243,7 @@
       <c r="C172" s="85"/>
       <c r="D172" s="18"/>
       <c r="E172" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C172),"",IF(ISBLANK($G172),"未着手",IF($J172=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F172" s="4"/>
@@ -37280,7 +37251,7 @@
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
       <c r="J172" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">IF(ISBLANK(K172)=FALSE,OFFSET(J172,0,COUNTA(K172:V172)),"")</f>
         <v/>
       </c>
       <c r="K172" s="22"/>
@@ -37295,10 +37266,9 @@
       <c r="T172" s="22"/>
       <c r="U172" s="22"/>
       <c r="V172" s="22"/>
-      <c r="W172" s="22"/>
-      <c r="X172" s="6"/>
-    </row>
-    <row r="173" spans="1:24" hidden="1">
+      <c r="W172" s="6"/>
+    </row>
+    <row r="173" spans="1:23">
       <c r="A173" s="16">
         <v>169</v>
       </c>
@@ -37306,7 +37276,7 @@
       <c r="C173" s="85"/>
       <c r="D173" s="18"/>
       <c r="E173" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C173),"",IF(ISBLANK($G173),"未着手",IF($J173=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F173" s="4"/>
@@ -37314,7 +37284,7 @@
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
       <c r="J173" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">IF(ISBLANK(K173)=FALSE,OFFSET(J173,0,COUNTA(K173:V173)),"")</f>
         <v/>
       </c>
       <c r="K173" s="22"/>
@@ -37329,10 +37299,9 @@
       <c r="T173" s="22"/>
       <c r="U173" s="22"/>
       <c r="V173" s="22"/>
-      <c r="W173" s="22"/>
-      <c r="X173" s="6"/>
-    </row>
-    <row r="174" spans="1:24" hidden="1">
+      <c r="W173" s="6"/>
+    </row>
+    <row r="174" spans="1:23">
       <c r="A174" s="16">
         <v>170</v>
       </c>
@@ -37340,7 +37309,7 @@
       <c r="C174" s="85"/>
       <c r="D174" s="18"/>
       <c r="E174" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C174),"",IF(ISBLANK($G174),"未着手",IF($J174=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F174" s="4"/>
@@ -37348,7 +37317,7 @@
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
       <c r="J174" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">IF(ISBLANK(K174)=FALSE,OFFSET(J174,0,COUNTA(K174:V174)),"")</f>
         <v/>
       </c>
       <c r="K174" s="22"/>
@@ -37363,10 +37332,9 @@
       <c r="T174" s="22"/>
       <c r="U174" s="22"/>
       <c r="V174" s="22"/>
-      <c r="W174" s="22"/>
-      <c r="X174" s="6"/>
-    </row>
-    <row r="175" spans="1:24" hidden="1">
+      <c r="W174" s="6"/>
+    </row>
+    <row r="175" spans="1:23">
       <c r="A175" s="16">
         <v>171</v>
       </c>
@@ -37374,7 +37342,7 @@
       <c r="C175" s="85"/>
       <c r="D175" s="18"/>
       <c r="E175" s="12" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(ISBLANK($C175),"",IF(ISBLANK($G175),"未着手",IF($J175=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F175" s="4"/>
@@ -37382,7 +37350,7 @@
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
       <c r="J175" s="12" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f ca="1">IF(ISBLANK(K175)=FALSE,OFFSET(J175,0,COUNTA(K175:V175)),"")</f>
         <v/>
       </c>
       <c r="K175" s="22"/>
@@ -37397,10 +37365,9 @@
       <c r="T175" s="22"/>
       <c r="U175" s="22"/>
       <c r="V175" s="22"/>
-      <c r="W175" s="22"/>
-      <c r="X175" s="6"/>
-    </row>
-    <row r="176" spans="1:24">
+      <c r="W175" s="6"/>
+    </row>
+    <row r="176" spans="1:23">
       <c r="K176" s="6"/>
       <c r="L176" s="6"/>
       <c r="M176" s="6"/>
@@ -37414,9 +37381,8 @@
       <c r="U176" s="6"/>
       <c r="V176" s="6"/>
       <c r="W176" s="6"/>
-      <c r="X176" s="6"/>
-    </row>
-    <row r="177" spans="11:24">
+    </row>
+    <row r="177" spans="11:23">
       <c r="K177" s="6"/>
       <c r="L177" s="6"/>
       <c r="M177" s="6"/>
@@ -37430,9 +37396,8 @@
       <c r="U177" s="6"/>
       <c r="V177" s="6"/>
       <c r="W177" s="6"/>
-      <c r="X177" s="6"/>
-    </row>
-    <row r="178" spans="11:24">
+    </row>
+    <row r="178" spans="11:23">
       <c r="K178" s="6"/>
       <c r="L178" s="6"/>
       <c r="M178" s="6"/>
@@ -37446,9 +37411,8 @@
       <c r="U178" s="6"/>
       <c r="V178" s="6"/>
       <c r="W178" s="6"/>
-      <c r="X178" s="6"/>
-    </row>
-    <row r="179" spans="11:24">
+    </row>
+    <row r="179" spans="11:23">
       <c r="K179" s="6"/>
       <c r="L179" s="6"/>
       <c r="M179" s="6"/>
@@ -37462,9 +37426,8 @@
       <c r="U179" s="6"/>
       <c r="V179" s="6"/>
       <c r="W179" s="6"/>
-      <c r="X179" s="6"/>
-    </row>
-    <row r="180" spans="11:24">
+    </row>
+    <row r="180" spans="11:23">
       <c r="K180" s="6"/>
       <c r="L180" s="6"/>
       <c r="M180" s="6"/>
@@ -37478,9 +37441,8 @@
       <c r="U180" s="6"/>
       <c r="V180" s="6"/>
       <c r="W180" s="6"/>
-      <c r="X180" s="6"/>
-    </row>
-    <row r="181" spans="11:24">
+    </row>
+    <row r="181" spans="11:23">
       <c r="K181" s="6"/>
       <c r="L181" s="6"/>
       <c r="M181" s="6"/>
@@ -37494,9 +37456,8 @@
       <c r="U181" s="6"/>
       <c r="V181" s="6"/>
       <c r="W181" s="6"/>
-      <c r="X181" s="6"/>
-    </row>
-    <row r="182" spans="11:24">
+    </row>
+    <row r="182" spans="11:23">
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
       <c r="M182" s="6"/>
@@ -37510,9 +37471,8 @@
       <c r="U182" s="6"/>
       <c r="V182" s="6"/>
       <c r="W182" s="6"/>
-      <c r="X182" s="6"/>
-    </row>
-    <row r="183" spans="11:24">
+    </row>
+    <row r="183" spans="11:23">
       <c r="K183" s="6"/>
       <c r="L183" s="6"/>
       <c r="M183" s="6"/>
@@ -37526,9 +37486,8 @@
       <c r="U183" s="6"/>
       <c r="V183" s="6"/>
       <c r="W183" s="6"/>
-      <c r="X183" s="6"/>
-    </row>
-    <row r="184" spans="11:24">
+    </row>
+    <row r="184" spans="11:23">
       <c r="K184" s="6"/>
       <c r="L184" s="6"/>
       <c r="M184" s="6"/>
@@ -37542,9 +37501,8 @@
       <c r="U184" s="6"/>
       <c r="V184" s="6"/>
       <c r="W184" s="6"/>
-      <c r="X184" s="6"/>
-    </row>
-    <row r="185" spans="11:24">
+    </row>
+    <row r="185" spans="11:23">
       <c r="K185" s="6"/>
       <c r="L185" s="6"/>
       <c r="M185" s="6"/>
@@ -37558,9 +37516,8 @@
       <c r="U185" s="6"/>
       <c r="V185" s="6"/>
       <c r="W185" s="6"/>
-      <c r="X185" s="6"/>
-    </row>
-    <row r="186" spans="11:24">
+    </row>
+    <row r="186" spans="11:23">
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
       <c r="M186" s="6"/>
@@ -37574,9 +37531,8 @@
       <c r="U186" s="6"/>
       <c r="V186" s="6"/>
       <c r="W186" s="6"/>
-      <c r="X186" s="6"/>
-    </row>
-    <row r="187" spans="11:24">
+    </row>
+    <row r="187" spans="11:23">
       <c r="K187" s="6"/>
       <c r="L187" s="6"/>
       <c r="M187" s="6"/>
@@ -37590,9 +37546,8 @@
       <c r="U187" s="6"/>
       <c r="V187" s="6"/>
       <c r="W187" s="6"/>
-      <c r="X187" s="6"/>
-    </row>
-    <row r="188" spans="11:24">
+    </row>
+    <row r="188" spans="11:23">
       <c r="K188" s="6"/>
       <c r="L188" s="6"/>
       <c r="M188" s="6"/>
@@ -37606,15 +37561,9 @@
       <c r="U188" s="6"/>
       <c r="V188" s="6"/>
       <c r="W188" s="6"/>
-      <c r="X188" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W175">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="野澤"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:V175">
     <filterColumn colId="10" showButton="0"/>
     <filterColumn colId="11" showButton="0"/>
     <filterColumn colId="12" showButton="0"/>
@@ -37626,14 +37575,16 @@
     <filterColumn colId="18" hiddenButton="1" showButton="0"/>
     <filterColumn colId="19" hiddenButton="1" showButton="0"/>
     <filterColumn colId="20" hiddenButton="1" showButton="0"/>
-    <filterColumn colId="21" hiddenButton="1" showButton="0"/>
-    <filterColumn colId="22" showButton="0"/>
+    <filterColumn colId="21" showButton="0"/>
+    <sortState ref="A8:V175">
+      <sortCondition ref="A1:A175"/>
+    </sortState>
   </autoFilter>
   <mergeCells count="11">
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="I1:I4"/>
     <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:W1"/>
+    <mergeCell ref="K1:V1"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
@@ -37654,7 +37605,7 @@
       <formula>OR(E176="終了",E176="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA39:XFD50 B16:C16 B15 A6:B6 B12:C14 AE67:XFD77 D6:I6 F7:I38 A5:V5 Y78:XFD104 Y51:XFD66 Y5:XFD38 B7:B11 J6:V38 B17:B90 D7:E76 A91:B175 A7:A175 F39:V175 W5:W175">
+  <conditionalFormatting sqref="Z39:XFD50 B16:C16 B15 A6:B6 B12:C14 AD67:XFD77 D6:I6 F7:I38 A5:U5 X78:XFD104 X51:XFD66 X5:XFD38 B7:B11 J6:U38 B17:B90 D7:E76 A91:B175 A7:A175 F39:U175 V5:V175">
     <cfRule type="expression" dxfId="41" priority="67" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
@@ -37687,7 +37638,7 @@
       <formula>OR(E176="終了",E176="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F176:W65536">
+  <conditionalFormatting sqref="F176:V65536">
     <cfRule type="expression" dxfId="32" priority="76" stopIfTrue="1">
       <formula>$E176="未着手"</formula>
     </cfRule>
@@ -37698,7 +37649,7 @@
       <formula>OR($E176="終了",$E176="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y39:Z50">
+  <conditionalFormatting sqref="X39:Y50">
     <cfRule type="expression" dxfId="29" priority="61" stopIfTrue="1">
       <formula>$F39="未着手"</formula>
     </cfRule>
@@ -37786,7 +37737,7 @@
       <formula>OR($E77="終了",$E77="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X107:X65536">
+  <conditionalFormatting sqref="W107:W65536">
     <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>$D107="未着手"</formula>
     </cfRule>

--- a/バックログ/02班スプリントバックログ.xlsx
+++ b/バックログ/02班スプリントバックログ.xlsx
@@ -28737,7 +28737,7 @@
         <v>335</v>
       </c>
       <c r="E5" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C5),"",IF(ISBLANK($G5),"未着手",IF($J5=0,"完了","作業中")))</f>
+        <f t="shared" ref="E5:E36" ca="1" si="2">IF(ISBLANK($C5),"",IF(ISBLANK($G5),"未着手",IF($J5=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F5" s="4">
@@ -28753,7 +28753,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="12">
-        <f ca="1">IF(ISBLANK(K5)=FALSE,OFFSET(J5,0,COUNTA(K5:V5)),"")</f>
+        <f t="shared" ref="J5:J36" ca="1" si="3">IF(ISBLANK(K5)=FALSE,OFFSET(J5,0,COUNTA(K5:V5)),"")</f>
         <v>0</v>
       </c>
       <c r="K5" s="22">
@@ -28801,7 +28801,7 @@
         <v>113</v>
       </c>
       <c r="E6" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C6),"",IF(ISBLANK($G6),"未着手",IF($J6=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F6" s="4">
@@ -28817,7 +28817,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="12">
-        <f ca="1">IF(ISBLANK(K6)=FALSE,OFFSET(J6,0,COUNTA(K6:V6)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="22">
@@ -28861,7 +28861,7 @@
         <v>113</v>
       </c>
       <c r="E7" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C7),"",IF(ISBLANK($G7),"未着手",IF($J7=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F7" s="4">
@@ -28877,7 +28877,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="12">
-        <f ca="1">IF(ISBLANK(K7)=FALSE,OFFSET(J7,0,COUNTA(K7:V7)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="22">
@@ -28917,7 +28917,7 @@
       <c r="C8" s="17"/>
       <c r="D8" s="18"/>
       <c r="E8" s="12" t="str">
-        <f>IF(ISBLANK($C8),"",IF(ISBLANK($G8),"未着手",IF($J8=0,"完了","作業中")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F8" s="4"/>
@@ -28925,7 +28925,7 @@
       <c r="H8" s="19"/>
       <c r="I8" s="19"/>
       <c r="J8" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K8)=FALSE,OFFSET(J8,0,COUNTA(K8:V8)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K8" s="22"/>
@@ -28949,7 +28949,7 @@
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
       <c r="E9" s="12" t="str">
-        <f>IF(ISBLANK($C9),"",IF(ISBLANK($G9),"未着手",IF($J9=0,"完了","作業中")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F9" s="4"/>
@@ -28957,7 +28957,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K9)=FALSE,OFFSET(J9,0,COUNTA(K9:V9)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K9" s="22"/>
@@ -28985,7 +28985,7 @@
         <v>113</v>
       </c>
       <c r="E10" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C10),"",IF(ISBLANK($G10),"未着手",IF($J10=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F10" s="4">
@@ -29001,7 +29001,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="12">
-        <f ca="1">IF(ISBLANK(K10)=FALSE,OFFSET(J10,0,COUNTA(K10:V10)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="22">
@@ -29045,7 +29045,7 @@
         <v>113</v>
       </c>
       <c r="E11" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C11),"",IF(ISBLANK($G11),"未着手",IF($J11=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F11" s="4">
@@ -29061,7 +29061,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="12">
-        <f ca="1">IF(ISBLANK(K11)=FALSE,OFFSET(J11,0,COUNTA(K11:V11)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="22">
@@ -29105,7 +29105,7 @@
         <v>113</v>
       </c>
       <c r="E12" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C12),"",IF(ISBLANK($G12),"未着手",IF($J12=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F12" s="4">
@@ -29121,7 +29121,7 @@
         <v>5</v>
       </c>
       <c r="J12" s="12">
-        <f ca="1">IF(ISBLANK(K12)=FALSE,OFFSET(J12,0,COUNTA(K12:V12)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K12" s="22">
@@ -29169,7 +29169,7 @@
         <v>113</v>
       </c>
       <c r="E13" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C13),"",IF(ISBLANK($G13),"未着手",IF($J13=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F13" s="4">
@@ -29185,7 +29185,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="12">
-        <f ca="1">IF(ISBLANK(K13)=FALSE,OFFSET(J13,0,COUNTA(K13:V13)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="22">
@@ -29227,7 +29227,7 @@
         <v>113</v>
       </c>
       <c r="E14" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C14),"",IF(ISBLANK($G14),"未着手",IF($J14=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F14" s="4">
@@ -29243,7 +29243,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="12">
-        <f ca="1">IF(ISBLANK(K14)=FALSE,OFFSET(J14,0,COUNTA(K14:V14)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K14" s="22">
@@ -29285,7 +29285,7 @@
         <v>113</v>
       </c>
       <c r="E15" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C15),"",IF(ISBLANK($G15),"未着手",IF($J15=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F15" s="4">
@@ -29301,7 +29301,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="12">
-        <f ca="1">IF(ISBLANK(K15)=FALSE,OFFSET(J15,0,COUNTA(K15:V15)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K15" s="22">
@@ -29343,7 +29343,7 @@
         <v>113</v>
       </c>
       <c r="E16" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C16),"",IF(ISBLANK($G16),"未着手",IF($J16=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F16" s="4">
@@ -29359,7 +29359,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="12">
-        <f ca="1">IF(ISBLANK(K16)=FALSE,OFFSET(J16,0,COUNTA(K16:V16)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K16" s="22">
@@ -29389,7 +29389,7 @@
         <v>112</v>
       </c>
       <c r="E17" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C17),"",IF(ISBLANK($G17),"未着手",IF($J17=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F17" s="4">
@@ -29405,7 +29405,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="12">
-        <f ca="1">IF(ISBLANK(K17)=FALSE,OFFSET(J17,0,COUNTA(K17:V17)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K17" s="22">
@@ -29451,7 +29451,7 @@
         <v>113</v>
       </c>
       <c r="E18" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C18),"",IF(ISBLANK($G18),"未着手",IF($J18=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F18" s="4">
@@ -29467,7 +29467,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="12">
-        <f ca="1">IF(ISBLANK(K18)=FALSE,OFFSET(J18,0,COUNTA(K18:V18)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K18" s="22">
@@ -29509,7 +29509,7 @@
         <v>113</v>
       </c>
       <c r="E19" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C19),"",IF(ISBLANK($G19),"未着手",IF($J19=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F19" s="4">
@@ -29525,7 +29525,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="12">
-        <f ca="1">IF(ISBLANK(K19)=FALSE,OFFSET(J19,0,COUNTA(K19:V19)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K19" s="22">
@@ -29567,7 +29567,7 @@
         <v>113</v>
       </c>
       <c r="E20" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C20),"",IF(ISBLANK($G20),"未着手",IF($J20=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F20" s="4">
@@ -29583,7 +29583,7 @@
         <v>2</v>
       </c>
       <c r="J20" s="12">
-        <f ca="1">IF(ISBLANK(K20)=FALSE,OFFSET(J20,0,COUNTA(K20:V20)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K20" s="22">
@@ -29625,7 +29625,7 @@
         <v>113</v>
       </c>
       <c r="E21" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C21),"",IF(ISBLANK($G21),"未着手",IF($J21=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F21" s="4">
@@ -29641,7 +29641,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="12">
-        <f ca="1">IF(ISBLANK(K21)=FALSE,OFFSET(J21,0,COUNTA(K21:V21)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K21" s="22">
@@ -29677,7 +29677,7 @@
         <v>391</v>
       </c>
       <c r="E22" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C22),"",IF(ISBLANK($G22),"未着手",IF($J22=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F22" s="4">
@@ -29693,7 +29693,7 @@
         <v>3</v>
       </c>
       <c r="J22" s="12">
-        <f ca="1">IF(ISBLANK(K22)=FALSE,OFFSET(J22,0,COUNTA(K22:V22)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K22" s="22">
@@ -29727,7 +29727,7 @@
         <v>397</v>
       </c>
       <c r="E23" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C23),"",IF(ISBLANK($G23),"未着手",IF($J23=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F23" s="4">
@@ -29743,7 +29743,7 @@
         <v>4</v>
       </c>
       <c r="J23" s="12">
-        <f ca="1">IF(ISBLANK(K23)=FALSE,OFFSET(J23,0,COUNTA(K23:V23)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K23" s="22">
@@ -29773,7 +29773,7 @@
         <v>425</v>
       </c>
       <c r="E24" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C24),"",IF(ISBLANK($G24),"未着手",IF($J24=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F24" s="4">
@@ -29789,7 +29789,7 @@
         <v>2</v>
       </c>
       <c r="J24" s="12">
-        <f ca="1">IF(ISBLANK(K24)=FALSE,OFFSET(J24,0,COUNTA(K24:V24)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K24" s="22">
@@ -29831,7 +29831,7 @@
         <v>352</v>
       </c>
       <c r="E25" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C25),"",IF(ISBLANK($G25),"未着手",IF($J25=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F25" s="4">
@@ -29847,7 +29847,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="12">
-        <f ca="1">IF(ISBLANK(K25)=FALSE,OFFSET(J25,0,COUNTA(K25:V25)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K25" s="22">
@@ -29877,7 +29877,7 @@
       <c r="C26" s="17"/>
       <c r="D26" s="18"/>
       <c r="E26" s="12" t="str">
-        <f>IF(ISBLANK($C26),"",IF(ISBLANK($G26),"未着手",IF($J26=0,"完了","作業中")))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F26" s="4"/>
@@ -29885,7 +29885,7 @@
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K26)=FALSE,OFFSET(J26,0,COUNTA(K26:V26)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v/>
       </c>
       <c r="K26" s="22"/>
@@ -29913,7 +29913,7 @@
         <v>352</v>
       </c>
       <c r="E27" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C27),"",IF(ISBLANK($G27),"未着手",IF($J27=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F27" s="4">
@@ -29929,7 +29929,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="12">
-        <f ca="1">IF(ISBLANK(K27)=FALSE,OFFSET(J27,0,COUNTA(K27:V27)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K27" s="22">
@@ -29973,7 +29973,7 @@
         <v>352</v>
       </c>
       <c r="E28" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C28),"",IF(ISBLANK($G28),"未着手",IF($J28=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F28" s="4">
@@ -29989,7 +29989,7 @@
         <v>6</v>
       </c>
       <c r="J28" s="12">
-        <f ca="1">IF(ISBLANK(K28)=FALSE,OFFSET(J28,0,COUNTA(K28:V28)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K28" s="22">
@@ -30027,7 +30027,7 @@
         <v>352</v>
       </c>
       <c r="E29" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C29),"",IF(ISBLANK($G29),"未着手",IF($J29=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F29" s="4">
@@ -30043,7 +30043,7 @@
         <v>6</v>
       </c>
       <c r="J29" s="12">
-        <f ca="1">IF(ISBLANK(K29)=FALSE,OFFSET(J29,0,COUNTA(K29:V29)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K29" s="22">
@@ -30081,7 +30081,7 @@
         <v>352</v>
       </c>
       <c r="E30" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C30),"",IF(ISBLANK($G30),"未着手",IF($J30=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F30" s="4">
@@ -30097,7 +30097,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="12">
-        <f ca="1">IF(ISBLANK(K30)=FALSE,OFFSET(J30,0,COUNTA(K30:V30)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K30" s="22">
@@ -30149,7 +30149,7 @@
         <v>352</v>
       </c>
       <c r="E31" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C31),"",IF(ISBLANK($G31),"未着手",IF($J31=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F31" s="4">
@@ -30165,7 +30165,7 @@
         <v>1</v>
       </c>
       <c r="J31" s="12">
-        <f ca="1">IF(ISBLANK(K31)=FALSE,OFFSET(J31,0,COUNTA(K31:V31)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K31" s="22">
@@ -30217,7 +30217,7 @@
         <v>352</v>
       </c>
       <c r="E32" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C32),"",IF(ISBLANK($G32),"未着手",IF($J32=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F32" s="4">
@@ -30233,7 +30233,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="12">
-        <f ca="1">IF(ISBLANK(K32)=FALSE,OFFSET(J32,0,COUNTA(K32:V32)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K32" s="22">
@@ -30285,7 +30285,7 @@
         <v>352</v>
       </c>
       <c r="E33" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C33),"",IF(ISBLANK($G33),"未着手",IF($J33=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F33" s="4">
@@ -30301,7 +30301,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="12">
-        <f ca="1">IF(ISBLANK(K33)=FALSE,OFFSET(J33,0,COUNTA(K33:V33)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K33" s="22">
@@ -30353,7 +30353,7 @@
         <v>352</v>
       </c>
       <c r="E34" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C34),"",IF(ISBLANK($G34),"未着手",IF($J34=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F34" s="4">
@@ -30369,7 +30369,7 @@
         <v>6</v>
       </c>
       <c r="J34" s="12">
-        <f ca="1">IF(ISBLANK(K34)=FALSE,OFFSET(J34,0,COUNTA(K34:V34)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K34" s="22">
@@ -30403,7 +30403,7 @@
         <v>112</v>
       </c>
       <c r="E35" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C35),"",IF(ISBLANK($G35),"未着手",IF($J35=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F35" s="4">
@@ -30419,7 +30419,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="12">
-        <f ca="1">IF(ISBLANK(K35)=FALSE,OFFSET(J35,0,COUNTA(K35:V35)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K35" s="22">
@@ -30451,7 +30451,7 @@
         <v>112</v>
       </c>
       <c r="E36" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C36),"",IF(ISBLANK($G36),"未着手",IF($J36=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="2"/>
         <v>完了</v>
       </c>
       <c r="F36" s="4">
@@ -30467,7 +30467,7 @@
         <v>4</v>
       </c>
       <c r="J36" s="12">
-        <f ca="1">IF(ISBLANK(K36)=FALSE,OFFSET(J36,0,COUNTA(K36:V36)),"")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K36" s="22">
@@ -30513,7 +30513,7 @@
         <v>372</v>
       </c>
       <c r="E37" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C37),"",IF(ISBLANK($G37),"未着手",IF($J37=0,"完了","作業中")))</f>
+        <f t="shared" ref="E37:E68" ca="1" si="4">IF(ISBLANK($C37),"",IF(ISBLANK($G37),"未着手",IF($J37=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F37" s="4">
@@ -30529,7 +30529,7 @@
         <v>2</v>
       </c>
       <c r="J37" s="12">
-        <f ca="1">IF(ISBLANK(K37)=FALSE,OFFSET(J37,0,COUNTA(K37:V37)),"")</f>
+        <f t="shared" ref="J37:J68" ca="1" si="5">IF(ISBLANK(K37)=FALSE,OFFSET(J37,0,COUNTA(K37:V37)),"")</f>
         <v>0</v>
       </c>
       <c r="K37" s="22">
@@ -30563,7 +30563,7 @@
         <v>372</v>
       </c>
       <c r="E38" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C38),"",IF(ISBLANK($G38),"未着手",IF($J38=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F38" s="4">
@@ -30579,7 +30579,7 @@
         <v>2</v>
       </c>
       <c r="J38" s="12">
-        <f ca="1">IF(ISBLANK(K38)=FALSE,OFFSET(J38,0,COUNTA(K38:V38)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K38" s="22">
@@ -30618,7 +30618,7 @@
         <v>372</v>
       </c>
       <c r="E39" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C39),"",IF(ISBLANK($G39),"未着手",IF($J39=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F39" s="4">
@@ -30634,7 +30634,7 @@
         <v>0.5</v>
       </c>
       <c r="J39" s="12">
-        <f ca="1">IF(ISBLANK(K39)=FALSE,OFFSET(J39,0,COUNTA(K39:V39)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K39" s="22">
@@ -30677,7 +30677,7 @@
         <v>372</v>
       </c>
       <c r="E40" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C40),"",IF(ISBLANK($G40),"未着手",IF($J40=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F40" s="4">
@@ -30693,7 +30693,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="12">
-        <f ca="1">IF(ISBLANK(K40)=FALSE,OFFSET(J40,0,COUNTA(K40:V40)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K40" s="22">
@@ -30732,7 +30732,7 @@
         <v>113</v>
       </c>
       <c r="E41" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C41),"",IF(ISBLANK($G41),"未着手",IF($J41=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F41" s="4">
@@ -30748,7 +30748,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="12">
-        <f ca="1">IF(ISBLANK(K41)=FALSE,OFFSET(J41,0,COUNTA(K41:V41)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K41" s="22">
@@ -30799,7 +30799,7 @@
         <v>113</v>
       </c>
       <c r="E42" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C42),"",IF(ISBLANK($G42),"未着手",IF($J42=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F42" s="4">
@@ -30815,7 +30815,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="12">
-        <f ca="1">IF(ISBLANK(K42)=FALSE,OFFSET(J42,0,COUNTA(K42:V42)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K42" s="22">
@@ -30866,7 +30866,7 @@
         <v>372</v>
       </c>
       <c r="E43" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C43),"",IF(ISBLANK($G43),"未着手",IF($J43=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F43" s="4">
@@ -30882,7 +30882,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="12">
-        <f ca="1">IF(ISBLANK(K43)=FALSE,OFFSET(J43,0,COUNTA(K43:V43)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K43" s="22">
@@ -30933,7 +30933,7 @@
         <v>372</v>
       </c>
       <c r="E44" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C44),"",IF(ISBLANK($G44),"未着手",IF($J44=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F44" s="4">
@@ -30949,7 +30949,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="12">
-        <f ca="1">IF(ISBLANK(K44)=FALSE,OFFSET(J44,0,COUNTA(K44:V44)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K44" s="22">
@@ -31006,7 +31006,7 @@
         <v>113</v>
       </c>
       <c r="E45" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C45),"",IF(ISBLANK($G45),"未着手",IF($J45=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F45" s="4">
@@ -31022,7 +31022,7 @@
         <v>1</v>
       </c>
       <c r="J45" s="12">
-        <f ca="1">IF(ISBLANK(K45)=FALSE,OFFSET(J45,0,COUNTA(K45:V45)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K45" s="22">
@@ -31073,7 +31073,7 @@
       <c r="C46" s="17"/>
       <c r="D46" s="18"/>
       <c r="E46" s="12" t="str">
-        <f>IF(ISBLANK($C46),"",IF(ISBLANK($G46),"未着手",IF($J46=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F46" s="4"/>
@@ -31081,7 +31081,7 @@
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K46)=FALSE,OFFSET(J46,0,COUNTA(K46:V46)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
       <c r="K46" s="22"/>
@@ -31118,7 +31118,7 @@
         <v>372</v>
       </c>
       <c r="E47" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C47),"",IF(ISBLANK($G47),"未着手",IF($J47=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F47" s="4">
@@ -31134,7 +31134,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="12">
-        <f ca="1">IF(ISBLANK(K47)=FALSE,OFFSET(J47,0,COUNTA(K47:V47)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K47" s="22">
@@ -31191,7 +31191,7 @@
         <v>372</v>
       </c>
       <c r="E48" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C48),"",IF(ISBLANK($G48),"未着手",IF($J48=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F48" s="4">
@@ -31207,7 +31207,7 @@
         <v>1</v>
       </c>
       <c r="J48" s="12">
-        <f ca="1">IF(ISBLANK(K48)=FALSE,OFFSET(J48,0,COUNTA(K48:V48)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K48" s="22">
@@ -31264,7 +31264,7 @@
         <v>372</v>
       </c>
       <c r="E49" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C49),"",IF(ISBLANK($G49),"未着手",IF($J49=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F49" s="4">
@@ -31280,7 +31280,7 @@
         <v>1</v>
       </c>
       <c r="J49" s="12">
-        <f ca="1">IF(ISBLANK(K49)=FALSE,OFFSET(J49,0,COUNTA(K49:V49)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K49" s="22">
@@ -31337,7 +31337,7 @@
         <v>372</v>
       </c>
       <c r="E50" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C50),"",IF(ISBLANK($G50),"未着手",IF($J50=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F50" s="4">
@@ -31353,7 +31353,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="12">
-        <f ca="1">IF(ISBLANK(K50)=FALSE,OFFSET(J50,0,COUNTA(K50:V50)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K50" s="22">
@@ -31410,7 +31410,7 @@
         <v>372</v>
       </c>
       <c r="E51" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C51),"",IF(ISBLANK($G51),"未着手",IF($J51=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F51" s="4">
@@ -31426,7 +31426,7 @@
         <v>1</v>
       </c>
       <c r="J51" s="12">
-        <f ca="1">IF(ISBLANK(K51)=FALSE,OFFSET(J51,0,COUNTA(K51:V51)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K51" s="22">
@@ -31483,7 +31483,7 @@
         <v>124</v>
       </c>
       <c r="E52" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C52),"",IF(ISBLANK($G52),"未着手",IF($J52=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F52" s="4">
@@ -31499,7 +31499,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="12">
-        <f ca="1">IF(ISBLANK(K52)=FALSE,OFFSET(J52,0,COUNTA(K52:V52)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K52" s="22">
@@ -31542,7 +31542,7 @@
         <v>410</v>
       </c>
       <c r="E53" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C53),"",IF(ISBLANK($G53),"未着手",IF($J53=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F53" s="4">
@@ -31558,7 +31558,7 @@
         <v>1</v>
       </c>
       <c r="J53" s="12">
-        <f ca="1">IF(ISBLANK(K53)=FALSE,OFFSET(J53,0,COUNTA(K53:V53)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K53" s="22">
@@ -31599,7 +31599,7 @@
         <v>124</v>
       </c>
       <c r="E54" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C54),"",IF(ISBLANK($G54),"未着手",IF($J54=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F54" s="4">
@@ -31615,7 +31615,7 @@
         <v>2</v>
       </c>
       <c r="J54" s="12">
-        <f ca="1">IF(ISBLANK(K54)=FALSE,OFFSET(J54,0,COUNTA(K54:V54)),"")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="K54" s="22">
@@ -31655,7 +31655,7 @@
       <c r="C55" s="17"/>
       <c r="D55" s="18"/>
       <c r="E55" s="12" t="str">
-        <f>IF(ISBLANK($C55),"",IF(ISBLANK($G55),"未着手",IF($J55=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F55" s="4"/>
@@ -31684,7 +31684,7 @@
       <c r="C56" s="17"/>
       <c r="D56" s="18"/>
       <c r="E56" s="12" t="str">
-        <f>IF(ISBLANK($C56),"",IF(ISBLANK($G56),"未着手",IF($J56=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F56" s="4"/>
@@ -31692,7 +31692,7 @@
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K56)=FALSE,OFFSET(J56,0,COUNTA(K56:V56)),"")</f>
+        <f t="shared" ref="J56:J62" ca="1" si="6">IF(ISBLANK(K56)=FALSE,OFFSET(J56,0,COUNTA(K56:V56)),"")</f>
         <v/>
       </c>
       <c r="K56" s="22"/>
@@ -31720,7 +31720,7 @@
         <v>373</v>
       </c>
       <c r="E57" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C57),"",IF(ISBLANK($G57),"未着手",IF($J57=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F57" s="4">
@@ -31736,7 +31736,7 @@
         <v>1</v>
       </c>
       <c r="J57" s="12">
-        <f ca="1">IF(ISBLANK(K57)=FALSE,OFFSET(J57,0,COUNTA(K57:V57)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K57" s="22">
@@ -31770,7 +31770,7 @@
         <v>406</v>
       </c>
       <c r="E58" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C58),"",IF(ISBLANK($G58),"未着手",IF($J58=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F58" s="4">
@@ -31786,7 +31786,7 @@
         <v>3</v>
       </c>
       <c r="J58" s="12">
-        <f ca="1">IF(ISBLANK(K58)=FALSE,OFFSET(J58,0,COUNTA(K58:V58)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K58" s="22">
@@ -31828,7 +31828,7 @@
         <v>406</v>
       </c>
       <c r="E59" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C59),"",IF(ISBLANK($G59),"未着手",IF($J59=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F59" s="4">
@@ -31844,7 +31844,7 @@
         <v>3</v>
       </c>
       <c r="J59" s="12">
-        <f ca="1">IF(ISBLANK(K59)=FALSE,OFFSET(J59,0,COUNTA(K59:V59)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K59" s="22">
@@ -31886,7 +31886,7 @@
         <v>434</v>
       </c>
       <c r="E60" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C60),"",IF(ISBLANK($G60),"未着手",IF($J60=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F60" s="4">
@@ -31902,7 +31902,7 @@
         <v>1</v>
       </c>
       <c r="J60" s="12">
-        <f ca="1">IF(ISBLANK(K60)=FALSE,OFFSET(J60,0,COUNTA(K60:V60)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K60" s="22">
@@ -31942,7 +31942,7 @@
         <v>434</v>
       </c>
       <c r="E61" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C61),"",IF(ISBLANK($G61),"未着手",IF($J61=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F61" s="4">
@@ -31958,7 +31958,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="12">
-        <f ca="1">IF(ISBLANK(K61)=FALSE,OFFSET(J61,0,COUNTA(K61:V61)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K61" s="22">
@@ -32002,7 +32002,7 @@
         <v>434</v>
       </c>
       <c r="E62" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C62),"",IF(ISBLANK($G62),"未着手",IF($J62=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F62" s="4">
@@ -32018,7 +32018,7 @@
         <v>1</v>
       </c>
       <c r="J62" s="12">
-        <f ca="1">IF(ISBLANK(K62)=FALSE,OFFSET(J62,0,COUNTA(K62:V62)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
       <c r="K62" s="22">
@@ -32062,7 +32062,7 @@
         <v>429</v>
       </c>
       <c r="E63" s="12" t="str">
-        <f>IF(ISBLANK($C63),"",IF(ISBLANK($G63),"未着手",IF($J63=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v>完了</v>
       </c>
       <c r="F63" s="4">
@@ -32111,7 +32111,7 @@
       <c r="C64" s="17"/>
       <c r="D64" s="18"/>
       <c r="E64" s="12" t="str">
-        <f>IF(ISBLANK($C64),"",IF(ISBLANK($G64),"未着手",IF($J64=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F64" s="4"/>
@@ -32119,7 +32119,7 @@
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K64)=FALSE,OFFSET(J64,0,COUNTA(K64:V64)),"")</f>
+        <f t="shared" ref="J64:J95" ca="1" si="7">IF(ISBLANK(K64)=FALSE,OFFSET(J64,0,COUNTA(K64:V64)),"")</f>
         <v/>
       </c>
       <c r="K64" s="22"/>
@@ -32147,7 +32147,7 @@
         <v>377</v>
       </c>
       <c r="E65" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C65),"",IF(ISBLANK($G65),"未着手",IF($J65=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F65" s="4">
@@ -32163,7 +32163,7 @@
         <v>3</v>
       </c>
       <c r="J65" s="12">
-        <f ca="1">IF(ISBLANK(K65)=FALSE,OFFSET(J65,0,COUNTA(K65:V65)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K65" s="22">
@@ -32193,7 +32193,7 @@
         <v>377</v>
       </c>
       <c r="E66" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C66),"",IF(ISBLANK($G66),"未着手",IF($J66=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="4"/>
         <v>完了</v>
       </c>
       <c r="F66" s="4">
@@ -32209,7 +32209,7 @@
         <v>3</v>
       </c>
       <c r="J66" s="12">
-        <f ca="1">IF(ISBLANK(K66)=FALSE,OFFSET(J66,0,COUNTA(K66:V66)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K66" s="22">
@@ -32247,7 +32247,7 @@
       <c r="C67" s="17"/>
       <c r="D67" s="18"/>
       <c r="E67" s="12" t="str">
-        <f>IF(ISBLANK($C67),"",IF(ISBLANK($G67),"未着手",IF($J67=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F67" s="4"/>
@@ -32255,7 +32255,7 @@
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K67)=FALSE,OFFSET(J67,0,COUNTA(K67:V67)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="K67" s="22"/>
@@ -32297,7 +32297,7 @@
       <c r="C68" s="17"/>
       <c r="D68" s="18"/>
       <c r="E68" s="12" t="str">
-        <f>IF(ISBLANK($C68),"",IF(ISBLANK($G68),"未着手",IF($J68=0,"完了","作業中")))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F68" s="4"/>
@@ -32305,7 +32305,7 @@
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
       <c r="J68" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K68)=FALSE,OFFSET(J68,0,COUNTA(K68:V68)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="K68" s="22"/>
@@ -32336,7 +32336,7 @@
         <v>60</v>
       </c>
       <c r="AB68" s="14">
-        <f t="shared" ref="AB68:AB73" si="2">COUNTA($K$2:$V$2)*6-COUNTA($K$4:$V$4)*6</f>
+        <f t="shared" ref="AB68:AB73" si="8">COUNTA($K$2:$V$2)*6-COUNTA($K$4:$V$4)*6</f>
         <v>0</v>
       </c>
       <c r="AC68" s="15">
@@ -32356,7 +32356,7 @@
         <v>459</v>
       </c>
       <c r="E69" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C69),"",IF(ISBLANK($G69),"未着手",IF($J69=0,"完了","作業中")))</f>
+        <f t="shared" ref="E69:E100" ca="1" si="9">IF(ISBLANK($C69),"",IF(ISBLANK($G69),"未着手",IF($J69=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F69" s="4">
@@ -32372,7 +32372,7 @@
         <v>2</v>
       </c>
       <c r="J69" s="12">
-        <f ca="1">IF(ISBLANK(K69)=FALSE,OFFSET(J69,0,COUNTA(K69:V69)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K69" s="22">
@@ -32409,23 +32409,23 @@
         <v>352</v>
       </c>
       <c r="Y69" s="10">
-        <f t="shared" ref="Y69:Y73" si="3">SUMIF($D$5:$D$175,X69,$H$5:$H$175)</f>
+        <f t="shared" ref="Y69:Y73" si="10">SUMIF($D$5:$D$175,X69,$H$5:$H$175)</f>
         <v>45</v>
       </c>
       <c r="Z69" s="10">
-        <f t="shared" ref="Z69:Z73" ca="1" si="4">SUMIF($D$5:$D$175,X69,$J$5:$J$175)</f>
+        <f t="shared" ref="Z69:Z73" ca="1" si="11">SUMIF($D$5:$D$175,X69,$J$5:$J$175)</f>
         <v>0</v>
       </c>
       <c r="AA69" s="10">
-        <f t="shared" ref="AA69:AA73" si="5">SUMIF($D$5:$D$174,X69,$I$5:$I$175)</f>
+        <f t="shared" ref="AA69:AA73" si="12">SUMIF($D$5:$D$174,X69,$I$5:$I$175)</f>
         <v>46</v>
       </c>
       <c r="AB69" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC69" s="15">
-        <f t="shared" ref="AC69:AC77" ca="1" si="6">IF(AB69&gt;Z69,0,Z69-AB69)</f>
+        <f t="shared" ref="AC69:AC77" ca="1" si="13">IF(AB69&gt;Z69,0,Z69-AB69)</f>
         <v>0</v>
       </c>
     </row>
@@ -32441,7 +32441,7 @@
         <v>459</v>
       </c>
       <c r="E70" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C70),"",IF(ISBLANK($G70),"未着手",IF($J70=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F70" s="4">
@@ -32457,7 +32457,7 @@
         <v>1</v>
       </c>
       <c r="J70" s="12">
-        <f ca="1">IF(ISBLANK(K70)=FALSE,OFFSET(J70,0,COUNTA(K70:V70)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K70" s="22">
@@ -32494,23 +32494,23 @@
         <v>373</v>
       </c>
       <c r="Y70" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="Z70" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AA70" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="AB70" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC70" s="15">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -32526,7 +32526,7 @@
         <v>377</v>
       </c>
       <c r="E71" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C71),"",IF(ISBLANK($G71),"未着手",IF($J71=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F71" s="4">
@@ -32542,7 +32542,7 @@
         <v>1</v>
       </c>
       <c r="J71" s="12">
-        <f ca="1">IF(ISBLANK(K71)=FALSE,OFFSET(J71,0,COUNTA(K71:V71)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K71" s="22">
@@ -32565,23 +32565,23 @@
         <v>372</v>
       </c>
       <c r="Y71" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="Z71" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AA71" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>30.5</v>
       </c>
       <c r="AB71" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC71" s="15">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -32593,7 +32593,7 @@
       <c r="C72" s="17"/>
       <c r="D72" s="18"/>
       <c r="E72" s="12" t="str">
-        <f>IF(ISBLANK($C72),"",IF(ISBLANK($G72),"未着手",IF($J72=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F72" s="4"/>
@@ -32601,7 +32601,7 @@
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
       <c r="J72" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K72)=FALSE,OFFSET(J72,0,COUNTA(K72:V72)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="K72" s="22"/>
@@ -32620,23 +32620,23 @@
         <v>377</v>
       </c>
       <c r="Y72" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="Z72" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AA72" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>31</v>
       </c>
       <c r="AB72" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC72" s="15">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -32648,7 +32648,7 @@
       <c r="C73" s="17"/>
       <c r="D73" s="18"/>
       <c r="E73" s="12" t="str">
-        <f>IF(ISBLANK($C73),"",IF(ISBLANK($G73),"未着手",IF($J73=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F73" s="4"/>
@@ -32656,7 +32656,7 @@
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
       <c r="J73" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K73)=FALSE,OFFSET(J73,0,COUNTA(K73:V73)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="K73" s="22"/>
@@ -32675,23 +32675,23 @@
         <v>381</v>
       </c>
       <c r="Y73" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>39</v>
       </c>
       <c r="Z73" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="AA73" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>32</v>
       </c>
       <c r="AB73" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC73" s="15">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -32707,7 +32707,7 @@
         <v>381</v>
       </c>
       <c r="E74" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C74),"",IF(ISBLANK($G74),"未着手",IF($J74=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F74" s="4">
@@ -32723,7 +32723,7 @@
         <v>6</v>
       </c>
       <c r="J74" s="12">
-        <f ca="1">IF(ISBLANK(K74)=FALSE,OFFSET(J74,0,COUNTA(K74:V74)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K74" s="22">
@@ -32744,23 +32744,23 @@
       <c r="V74" s="22"/>
       <c r="X74" s="11"/>
       <c r="Y74" s="10">
-        <f t="shared" ref="Y74:Y77" si="7">SUMIF($D$5:$D$104,X74,$H$5:$H$104)</f>
+        <f t="shared" ref="Y74:Y77" si="14">SUMIF($D$5:$D$104,X74,$H$5:$H$104)</f>
         <v>0</v>
       </c>
       <c r="Z74" s="10">
-        <f t="shared" ref="Z74:Z77" si="8">SUMIF($D$5:$D$104,X74,$J$5:$J$104)</f>
+        <f t="shared" ref="Z74:Z77" si="15">SUMIF($D$5:$D$104,X74,$J$5:$J$104)</f>
         <v>0</v>
       </c>
       <c r="AA74" s="10">
-        <f t="shared" ref="AA74:AA77" si="9">SUMIF($D$5:$D$104,X74,$I$5:$I$104)</f>
+        <f t="shared" ref="AA74:AA77" si="16">SUMIF($D$5:$D$104,X74,$I$5:$I$104)</f>
         <v>0</v>
       </c>
       <c r="AB74" s="14">
-        <f t="shared" ref="AB74:AB77" si="10">COUNTA($K$2:$R$2)*6-COUNTA($K$4:$R$4)*6</f>
+        <f t="shared" ref="AB74:AB77" si="17">COUNTA($K$2:$R$2)*6-COUNTA($K$4:$R$4)*6</f>
         <v>0</v>
       </c>
       <c r="AC74" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -32776,7 +32776,7 @@
         <v>381</v>
       </c>
       <c r="E75" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C75),"",IF(ISBLANK($G75),"未着手",IF($J75=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F75" s="4">
@@ -32792,7 +32792,7 @@
         <v>3</v>
       </c>
       <c r="J75" s="12">
-        <f ca="1">IF(ISBLANK(K75)=FALSE,OFFSET(J75,0,COUNTA(K75:V75)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K75" s="22">
@@ -32813,23 +32813,23 @@
       <c r="V75" s="22"/>
       <c r="X75" s="11"/>
       <c r="Y75" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z75" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA75" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB75" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC75" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -32845,7 +32845,7 @@
         <v>381</v>
       </c>
       <c r="E76" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C76),"",IF(ISBLANK($G76),"未着手",IF($J76=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F76" s="4">
@@ -32861,7 +32861,7 @@
         <v>3</v>
       </c>
       <c r="J76" s="12">
-        <f ca="1">IF(ISBLANK(K76)=FALSE,OFFSET(J76,0,COUNTA(K76:V76)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K76" s="22">
@@ -32894,23 +32894,23 @@
       <c r="V76" s="22"/>
       <c r="X76" s="11"/>
       <c r="Y76" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z76" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA76" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB76" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC76" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -32926,7 +32926,7 @@
         <v>381</v>
       </c>
       <c r="E77" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C77),"",IF(ISBLANK($G77),"未着手",IF($J77=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F77" s="4">
@@ -32942,7 +32942,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="12">
-        <f ca="1">IF(ISBLANK(K77)=FALSE,OFFSET(J77,0,COUNTA(K77:V77)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K77" s="22">
@@ -32979,23 +32979,23 @@
       <c r="V77" s="22"/>
       <c r="X77" s="11"/>
       <c r="Y77" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z77" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA77" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB77" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC77" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -33013,7 +33013,7 @@
         <v>135</v>
       </c>
       <c r="E78" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C78),"",IF(ISBLANK($G78),"未着手",IF($J78=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F78" s="4">
@@ -33029,7 +33029,7 @@
         <v>3</v>
       </c>
       <c r="J78" s="12">
-        <f ca="1">IF(ISBLANK(K78)=FALSE,OFFSET(J78,0,COUNTA(K78:V78)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K78" s="22">
@@ -33064,7 +33064,7 @@
         <v>377</v>
       </c>
       <c r="E79" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C79),"",IF(ISBLANK($G79),"未着手",IF($J79=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F79" s="4">
@@ -33080,7 +33080,7 @@
         <v>4</v>
       </c>
       <c r="J79" s="12">
-        <f ca="1">IF(ISBLANK(K79)=FALSE,OFFSET(J79,0,COUNTA(K79:V79)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K79" s="22">
@@ -33126,7 +33126,7 @@
         <v>405</v>
       </c>
       <c r="E80" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C80),"",IF(ISBLANK($G80),"未着手",IF($J80=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F80" s="4">
@@ -33142,7 +33142,7 @@
         <v>4</v>
       </c>
       <c r="J80" s="12">
-        <f ca="1">IF(ISBLANK(K80)=FALSE,OFFSET(J80,0,COUNTA(K80:V80)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K80" s="22">
@@ -33175,7 +33175,7 @@
         <v>413</v>
       </c>
       <c r="E81" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C81),"",IF(ISBLANK($G81),"未着手",IF($J81=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F81" s="4">
@@ -33191,7 +33191,7 @@
         <v>9</v>
       </c>
       <c r="J81" s="12">
-        <f ca="1">IF(ISBLANK(K81)=FALSE,OFFSET(J81,0,COUNTA(K81:V81)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K81" s="22">
@@ -33244,7 +33244,7 @@
         <v>418</v>
       </c>
       <c r="E82" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C82),"",IF(ISBLANK($G82),"未着手",IF($J82=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F82" s="4">
@@ -33260,7 +33260,7 @@
         <v>1</v>
       </c>
       <c r="J82" s="12">
-        <f ca="1">IF(ISBLANK(K82)=FALSE,OFFSET(J82,0,COUNTA(K82:V82)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K82" s="22">
@@ -33294,7 +33294,7 @@
         <v>418</v>
       </c>
       <c r="E83" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C83),"",IF(ISBLANK($G83),"未着手",IF($J83=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F83" s="4">
@@ -33310,7 +33310,7 @@
         <v>1</v>
       </c>
       <c r="J83" s="12">
-        <f ca="1">IF(ISBLANK(K83)=FALSE,OFFSET(J83,0,COUNTA(K83:V83)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K83" s="22">
@@ -33344,7 +33344,7 @@
         <v>418</v>
       </c>
       <c r="E84" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C84),"",IF(ISBLANK($G84),"未着手",IF($J84=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F84" s="4">
@@ -33360,7 +33360,7 @@
         <v>1</v>
       </c>
       <c r="J84" s="12">
-        <f ca="1">IF(ISBLANK(K84)=FALSE,OFFSET(J84,0,COUNTA(K84:V84)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K84" s="22">
@@ -33394,7 +33394,7 @@
         <v>467</v>
       </c>
       <c r="E85" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C85),"",IF(ISBLANK($G85),"未着手",IF($J85=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F85" s="4">
@@ -33410,7 +33410,7 @@
         <v>1</v>
       </c>
       <c r="J85" s="12">
-        <f ca="1">IF(ISBLANK(K85)=FALSE,OFFSET(J85,0,COUNTA(K85:V85)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K85" s="22">
@@ -33458,7 +33458,7 @@
         <v>424</v>
       </c>
       <c r="E86" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C86),"",IF(ISBLANK($G86),"未着手",IF($J86=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F86" s="4">
@@ -33474,7 +33474,7 @@
         <v>2</v>
       </c>
       <c r="J86" s="12">
-        <f ca="1">IF(ISBLANK(K86)=FALSE,OFFSET(J86,0,COUNTA(K86:V86)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K86" s="22">
@@ -33512,7 +33512,7 @@
         <v>124</v>
       </c>
       <c r="E87" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C87),"",IF(ISBLANK($G87),"未着手",IF($J87=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F87" s="4">
@@ -33528,7 +33528,7 @@
         <v>2</v>
       </c>
       <c r="J87" s="12">
-        <f ca="1">IF(ISBLANK(K87)=FALSE,OFFSET(J87,0,COUNTA(K87:V87)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K87" s="22">
@@ -33566,7 +33566,7 @@
         <v>124</v>
       </c>
       <c r="E88" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C88),"",IF(ISBLANK($G88),"未着手",IF($J88=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F88" s="4">
@@ -33582,7 +33582,7 @@
         <v>2</v>
       </c>
       <c r="J88" s="12">
-        <f ca="1">IF(ISBLANK(K88)=FALSE,OFFSET(J88,0,COUNTA(K88:V88)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K88" s="22">
@@ -33618,7 +33618,7 @@
       <c r="C89" s="85"/>
       <c r="D89" s="18"/>
       <c r="E89" s="12" t="str">
-        <f>IF(ISBLANK($C89),"",IF(ISBLANK($G89),"未着手",IF($J89=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F89" s="4"/>
@@ -33626,7 +33626,7 @@
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
       <c r="J89" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K89)=FALSE,OFFSET(J89,0,COUNTA(K89:V89)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="K89" s="22"/>
@@ -33654,7 +33654,7 @@
         <v>124</v>
       </c>
       <c r="E90" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C90),"",IF(ISBLANK($G90),"未着手",IF($J90=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F90" s="4">
@@ -33670,7 +33670,7 @@
         <v>2</v>
       </c>
       <c r="J90" s="12">
-        <f ca="1">IF(ISBLANK(K90)=FALSE,OFFSET(J90,0,COUNTA(K90:V90)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K90" s="22">
@@ -33706,7 +33706,7 @@
       <c r="C91" s="85"/>
       <c r="D91" s="18"/>
       <c r="E91" s="12" t="str">
-        <f>IF(ISBLANK($C91),"",IF(ISBLANK($G91),"未着手",IF($J91=0,"完了","作業中")))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F91" s="4"/>
@@ -33714,7 +33714,7 @@
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
       <c r="J91" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K91)=FALSE,OFFSET(J91,0,COUNTA(K91:V91)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="K91" s="22"/>
@@ -33742,7 +33742,7 @@
         <v>434</v>
       </c>
       <c r="E92" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C92),"",IF(ISBLANK($G92),"未着手",IF($J92=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F92" s="4">
@@ -33758,7 +33758,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="12">
-        <f ca="1">IF(ISBLANK(K92)=FALSE,OFFSET(J92,0,COUNTA(K92:V92)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K92" s="22">
@@ -33798,7 +33798,7 @@
         <v>434</v>
       </c>
       <c r="E93" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C93),"",IF(ISBLANK($G93),"未着手",IF($J93=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F93" s="4">
@@ -33814,7 +33814,7 @@
         <v>1</v>
       </c>
       <c r="J93" s="12">
-        <f ca="1">IF(ISBLANK(K93)=FALSE,OFFSET(J93,0,COUNTA(K93:V93)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K93" s="22">
@@ -33854,7 +33854,7 @@
         <v>434</v>
       </c>
       <c r="E94" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C94),"",IF(ISBLANK($G94),"未着手",IF($J94=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F94" s="4">
@@ -33870,7 +33870,7 @@
         <v>1</v>
       </c>
       <c r="J94" s="12">
-        <f ca="1">IF(ISBLANK(K94)=FALSE,OFFSET(J94,0,COUNTA(K94:V94)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K94" s="22">
@@ -33914,7 +33914,7 @@
         <v>434</v>
       </c>
       <c r="E95" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C95),"",IF(ISBLANK($G95),"未着手",IF($J95=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F95" s="4">
@@ -33930,7 +33930,7 @@
         <v>1</v>
       </c>
       <c r="J95" s="12">
-        <f ca="1">IF(ISBLANK(K95)=FALSE,OFFSET(J95,0,COUNTA(K95:V95)),"")</f>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K95" s="22">
@@ -33974,7 +33974,7 @@
         <v>434</v>
       </c>
       <c r="E96" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C96),"",IF(ISBLANK($G96),"未着手",IF($J96=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F96" s="4">
@@ -33990,7 +33990,7 @@
         <v>1</v>
       </c>
       <c r="J96" s="12">
-        <f ca="1">IF(ISBLANK(K96)=FALSE,OFFSET(J96,0,COUNTA(K96:V96)),"")</f>
+        <f t="shared" ref="J96:J127" ca="1" si="18">IF(ISBLANK(K96)=FALSE,OFFSET(J96,0,COUNTA(K96:V96)),"")</f>
         <v>0</v>
       </c>
       <c r="K96" s="22">
@@ -34034,7 +34034,7 @@
         <v>434</v>
       </c>
       <c r="E97" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C97),"",IF(ISBLANK($G97),"未着手",IF($J97=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F97" s="4">
@@ -34050,7 +34050,7 @@
         <v>1</v>
       </c>
       <c r="J97" s="12">
-        <f ca="1">IF(ISBLANK(K97)=FALSE,OFFSET(J97,0,COUNTA(K97:V97)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K97" s="22">
@@ -34090,7 +34090,7 @@
         <v>434</v>
       </c>
       <c r="E98" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C98),"",IF(ISBLANK($G98),"未着手",IF($J98=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F98" s="4">
@@ -34106,7 +34106,7 @@
         <v>1</v>
       </c>
       <c r="J98" s="12">
-        <f ca="1">IF(ISBLANK(K98)=FALSE,OFFSET(J98,0,COUNTA(K98:V98)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K98" s="22">
@@ -34146,7 +34146,7 @@
         <v>434</v>
       </c>
       <c r="E99" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C99),"",IF(ISBLANK($G99),"未着手",IF($J99=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F99" s="4">
@@ -34162,7 +34162,7 @@
         <v>1</v>
       </c>
       <c r="J99" s="12">
-        <f ca="1">IF(ISBLANK(K99)=FALSE,OFFSET(J99,0,COUNTA(K99:V99)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K99" s="22">
@@ -34202,7 +34202,7 @@
         <v>434</v>
       </c>
       <c r="E100" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C100),"",IF(ISBLANK($G100),"未着手",IF($J100=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>完了</v>
       </c>
       <c r="F100" s="4">
@@ -34218,7 +34218,7 @@
         <v>1</v>
       </c>
       <c r="J100" s="12">
-        <f ca="1">IF(ISBLANK(K100)=FALSE,OFFSET(J100,0,COUNTA(K100:V100)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K100" s="22">
@@ -34258,7 +34258,7 @@
         <v>462</v>
       </c>
       <c r="E101" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C101),"",IF(ISBLANK($G101),"未着手",IF($J101=0,"完了","作業中")))</f>
+        <f t="shared" ref="E101:E132" ca="1" si="19">IF(ISBLANK($C101),"",IF(ISBLANK($G101),"未着手",IF($J101=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F101" s="4">
@@ -34274,7 +34274,7 @@
         <v>1</v>
       </c>
       <c r="J101" s="12">
-        <f ca="1">IF(ISBLANK(K101)=FALSE,OFFSET(J101,0,COUNTA(K101:V101)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K101" s="22">
@@ -34320,7 +34320,7 @@
         <v>448</v>
       </c>
       <c r="E102" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C102),"",IF(ISBLANK($G102),"未着手",IF($J102=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F102" s="4">
@@ -34336,7 +34336,7 @@
         <v>2</v>
       </c>
       <c r="J102" s="12">
-        <f ca="1">IF(ISBLANK(K102)=FALSE,OFFSET(J102,0,COUNTA(K102:V102)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K102" s="22">
@@ -34382,7 +34382,7 @@
         <v>124</v>
       </c>
       <c r="E103" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C103),"",IF(ISBLANK($G103),"未着手",IF($J103=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F103" s="4">
@@ -34398,7 +34398,7 @@
         <v>2</v>
       </c>
       <c r="J103" s="12">
-        <f ca="1">IF(ISBLANK(K103)=FALSE,OFFSET(J103,0,COUNTA(K103:V103)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K103" s="22">
@@ -34446,7 +34446,7 @@
         <v>455</v>
       </c>
       <c r="E104" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C104),"",IF(ISBLANK($G104),"未着手",IF($J104=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F104" s="4">
@@ -34462,7 +34462,7 @@
         <v>3</v>
       </c>
       <c r="J104" s="12">
-        <f ca="1">IF(ISBLANK(K104)=FALSE,OFFSET(J104,0,COUNTA(K104:V104)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K104" s="22">
@@ -34506,7 +34506,7 @@
         <v>455</v>
       </c>
       <c r="E105" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C105),"",IF(ISBLANK($G105),"未着手",IF($J105=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F105" s="4">
@@ -34522,7 +34522,7 @@
         <v>3</v>
       </c>
       <c r="J105" s="12">
-        <f ca="1">IF(ISBLANK(K105)=FALSE,OFFSET(J105,0,COUNTA(K105:V105)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K105" s="22">
@@ -34570,7 +34570,7 @@
       <c r="C106" s="85"/>
       <c r="D106" s="18"/>
       <c r="E106" s="12" t="str">
-        <f>IF(ISBLANK($C106),"",IF(ISBLANK($G106),"未着手",IF($J106=0,"完了","作業中")))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="F106" s="4"/>
@@ -34578,7 +34578,7 @@
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
       <c r="J106" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K106)=FALSE,OFFSET(J106,0,COUNTA(K106:V106)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="K106" s="22"/>
@@ -34606,7 +34606,7 @@
         <v>454</v>
       </c>
       <c r="E107" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C107),"",IF(ISBLANK($G107),"未着手",IF($J107=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F107" s="4">
@@ -34622,7 +34622,7 @@
         <v>1</v>
       </c>
       <c r="J107" s="12">
-        <f ca="1">IF(ISBLANK(K107)=FALSE,OFFSET(J107,0,COUNTA(K107:V107)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K107" s="22">
@@ -34663,7 +34663,7 @@
       <c r="C108" s="85"/>
       <c r="D108" s="18"/>
       <c r="E108" s="12" t="str">
-        <f>IF(ISBLANK($C108),"",IF(ISBLANK($G108),"未着手",IF($J108=0,"完了","作業中")))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="F108" s="4"/>
@@ -34671,7 +34671,7 @@
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
       <c r="J108" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K108)=FALSE,OFFSET(J108,0,COUNTA(K108:V108)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="K108" s="22"/>
@@ -34700,7 +34700,7 @@
         <v>454</v>
       </c>
       <c r="E109" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C109),"",IF(ISBLANK($G109),"未着手",IF($J109=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F109" s="4">
@@ -34716,7 +34716,7 @@
         <v>1</v>
       </c>
       <c r="J109" s="12">
-        <f ca="1">IF(ISBLANK(K109)=FALSE,OFFSET(J109,0,COUNTA(K109:V109)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K109" s="22">
@@ -34757,7 +34757,7 @@
       <c r="C110" s="85"/>
       <c r="D110" s="18"/>
       <c r="E110" s="12" t="str">
-        <f>IF(ISBLANK($C110),"",IF(ISBLANK($G110),"未着手",IF($J110=0,"完了","作業中")))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="F110" s="4"/>
@@ -34765,7 +34765,7 @@
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
       <c r="J110" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K110)=FALSE,OFFSET(J110,0,COUNTA(K110:V110)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="K110" s="22"/>
@@ -34794,7 +34794,7 @@
         <v>115</v>
       </c>
       <c r="E111" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C111),"",IF(ISBLANK($G111),"未着手",IF($J111=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F111" s="4">
@@ -34810,7 +34810,7 @@
         <v>1</v>
       </c>
       <c r="J111" s="12">
-        <f ca="1">IF(ISBLANK(K111)=FALSE,OFFSET(J111,0,COUNTA(K111:V111)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K111" s="22">
@@ -34859,7 +34859,7 @@
         <v>115</v>
       </c>
       <c r="E112" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C112),"",IF(ISBLANK($G112),"未着手",IF($J112=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F112" s="4">
@@ -34875,7 +34875,7 @@
         <v>1</v>
       </c>
       <c r="J112" s="12">
-        <f ca="1">IF(ISBLANK(K112)=FALSE,OFFSET(J112,0,COUNTA(K112:V112)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K112" s="22">
@@ -34924,7 +34924,7 @@
         <v>115</v>
       </c>
       <c r="E113" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C113),"",IF(ISBLANK($G113),"未着手",IF($J113=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F113" s="4">
@@ -34940,7 +34940,7 @@
         <v>1</v>
       </c>
       <c r="J113" s="12">
-        <f ca="1">IF(ISBLANK(K113)=FALSE,OFFSET(J113,0,COUNTA(K113:V113)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K113" s="22">
@@ -34985,7 +34985,7 @@
       <c r="C114" s="85"/>
       <c r="D114" s="18"/>
       <c r="E114" s="12" t="str">
-        <f>IF(ISBLANK($C114),"",IF(ISBLANK($G114),"未着手",IF($J114=0,"完了","作業中")))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="F114" s="4"/>
@@ -34993,7 +34993,7 @@
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
       <c r="J114" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K114)=FALSE,OFFSET(J114,0,COUNTA(K114:V114)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="K114" s="22"/>
@@ -35022,7 +35022,7 @@
         <v>470</v>
       </c>
       <c r="E115" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C115),"",IF(ISBLANK($G115),"未着手",IF($J115=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F115" s="4">
@@ -35038,7 +35038,7 @@
         <v>1</v>
       </c>
       <c r="J115" s="12">
-        <f ca="1">IF(ISBLANK(K115)=FALSE,OFFSET(J115,0,COUNTA(K115:V115)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K115" s="22">
@@ -35083,7 +35083,7 @@
       <c r="C116" s="85"/>
       <c r="D116" s="18"/>
       <c r="E116" s="12" t="str">
-        <f>IF(ISBLANK($C116),"",IF(ISBLANK($G116),"未着手",IF($J116=0,"完了","作業中")))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="F116" s="4"/>
@@ -35091,7 +35091,7 @@
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
       <c r="J116" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K116)=FALSE,OFFSET(J116,0,COUNTA(K116:V116)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="K116" s="22"/>
@@ -35116,7 +35116,7 @@
       <c r="C117" s="85"/>
       <c r="D117" s="18"/>
       <c r="E117" s="12" t="str">
-        <f>IF(ISBLANK($C117),"",IF(ISBLANK($G117),"未着手",IF($J117=0,"完了","作業中")))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="F117" s="4"/>
@@ -35124,7 +35124,7 @@
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
       <c r="J117" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K117)=FALSE,OFFSET(J117,0,COUNTA(K117:V117)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="K117" s="22"/>
@@ -35153,7 +35153,7 @@
         <v>113</v>
       </c>
       <c r="E118" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C118),"",IF(ISBLANK($G118),"未着手",IF($J118=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F118" s="4">
@@ -35169,7 +35169,7 @@
         <v>3</v>
       </c>
       <c r="J118" s="12">
-        <f ca="1">IF(ISBLANK(K118)=FALSE,OFFSET(J118,0,COUNTA(K118:V118)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K118" s="22">
@@ -35220,7 +35220,7 @@
         <v>113</v>
       </c>
       <c r="E119" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C119),"",IF(ISBLANK($G119),"未着手",IF($J119=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F119" s="4">
@@ -35236,7 +35236,7 @@
         <v>1</v>
       </c>
       <c r="J119" s="12">
-        <f ca="1">IF(ISBLANK(K119)=FALSE,OFFSET(J119,0,COUNTA(K119:V119)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K119" s="22">
@@ -35285,7 +35285,7 @@
         <v>113</v>
       </c>
       <c r="E120" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C120),"",IF(ISBLANK($G120),"未着手",IF($J120=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F120" s="4">
@@ -35301,7 +35301,7 @@
         <v>3</v>
       </c>
       <c r="J120" s="12">
-        <f ca="1">IF(ISBLANK(K120)=FALSE,OFFSET(J120,0,COUNTA(K120:V120)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K120" s="22">
@@ -35350,7 +35350,7 @@
       <c r="C121" s="85"/>
       <c r="D121" s="18"/>
       <c r="E121" s="12" t="str">
-        <f>IF(ISBLANK($C121),"",IF(ISBLANK($G121),"未着手",IF($J121=0,"完了","作業中")))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="F121" s="4"/>
@@ -35358,7 +35358,7 @@
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
       <c r="J121" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K121)=FALSE,OFFSET(J121,0,COUNTA(K121:V121)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="K121" s="22"/>
@@ -35387,7 +35387,7 @@
         <v>112</v>
       </c>
       <c r="E122" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C122),"",IF(ISBLANK($G122),"未着手",IF($J122=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F122" s="4">
@@ -35403,7 +35403,7 @@
         <v>4</v>
       </c>
       <c r="J122" s="12">
-        <f ca="1">IF(ISBLANK(K122)=FALSE,OFFSET(J122,0,COUNTA(K122:V122)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K122" s="22">
@@ -35450,7 +35450,7 @@
       <c r="C123" s="85"/>
       <c r="D123" s="18"/>
       <c r="E123" s="12" t="str">
-        <f>IF(ISBLANK($C123),"",IF(ISBLANK($G123),"未着手",IF($J123=0,"完了","作業中")))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="F123" s="4"/>
@@ -35458,7 +35458,7 @@
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
       <c r="J123" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K123)=FALSE,OFFSET(J123,0,COUNTA(K123:V123)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="K123" s="22"/>
@@ -35483,7 +35483,7 @@
       <c r="C124" s="85"/>
       <c r="D124" s="18"/>
       <c r="E124" s="12" t="str">
-        <f>IF(ISBLANK($C124),"",IF(ISBLANK($G124),"未着手",IF($J124=0,"完了","作業中")))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="F124" s="4"/>
@@ -35491,7 +35491,7 @@
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
       <c r="J124" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K124)=FALSE,OFFSET(J124,0,COUNTA(K124:V124)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v/>
       </c>
       <c r="K124" s="22"/>
@@ -35520,7 +35520,7 @@
         <v>113</v>
       </c>
       <c r="E125" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C125),"",IF(ISBLANK($G125),"未着手",IF($J125=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F125" s="4">
@@ -35536,7 +35536,7 @@
         <v>1</v>
       </c>
       <c r="J125" s="12">
-        <f ca="1">IF(ISBLANK(K125)=FALSE,OFFSET(J125,0,COUNTA(K125:V125)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K125" s="22">
@@ -35589,7 +35589,7 @@
         <v>124</v>
       </c>
       <c r="E126" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C126),"",IF(ISBLANK($G126),"未着手",IF($J126=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F126" s="4">
@@ -35605,7 +35605,7 @@
         <v>2</v>
       </c>
       <c r="J126" s="12">
-        <f ca="1">IF(ISBLANK(K126)=FALSE,OFFSET(J126,0,COUNTA(K126:V126)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K126" s="22">
@@ -35654,7 +35654,7 @@
         <v>124</v>
       </c>
       <c r="E127" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C127),"",IF(ISBLANK($G127),"未着手",IF($J127=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F127" s="4">
@@ -35670,7 +35670,7 @@
         <v>2</v>
       </c>
       <c r="J127" s="12">
-        <f ca="1">IF(ISBLANK(K127)=FALSE,OFFSET(J127,0,COUNTA(K127:V127)),"")</f>
+        <f t="shared" ca="1" si="18"/>
         <v>0</v>
       </c>
       <c r="K127" s="22">
@@ -35723,7 +35723,7 @@
         <v>479</v>
       </c>
       <c r="E128" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C128),"",IF(ISBLANK($G128),"未着手",IF($J128=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F128" s="4">
@@ -35739,7 +35739,7 @@
         <v>6</v>
       </c>
       <c r="J128" s="12">
-        <f ca="1">IF(ISBLANK(K128)=FALSE,OFFSET(J128,0,COUNTA(K128:V128)),"")</f>
+        <f t="shared" ref="J128:J159" ca="1" si="20">IF(ISBLANK(K128)=FALSE,OFFSET(J128,0,COUNTA(K128:V128)),"")</f>
         <v>0</v>
       </c>
       <c r="K128" s="22">
@@ -35792,7 +35792,7 @@
         <v>484</v>
       </c>
       <c r="E129" s="12" t="str">
-        <f ca="1">IF(ISBLANK($C129),"",IF(ISBLANK($G129),"未着手",IF($J129=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="19"/>
         <v>完了</v>
       </c>
       <c r="F129" s="4">
@@ -35808,7 +35808,7 @@
         <v>6</v>
       </c>
       <c r="J129" s="12">
-        <f ca="1">IF(ISBLANK(K129)=FALSE,OFFSET(J129,0,COUNTA(K129:V129)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="K129" s="22">
@@ -35857,7 +35857,7 @@
       <c r="C130" s="85"/>
       <c r="D130" s="18"/>
       <c r="E130" s="12" t="str">
-        <f>IF(ISBLANK($C130),"",IF(ISBLANK($G130),"未着手",IF($J130=0,"完了","作業中")))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="F130" s="4"/>
@@ -35865,7 +35865,7 @@
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
       <c r="J130" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K130)=FALSE,OFFSET(J130,0,COUNTA(K130:V130)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K130" s="22"/>
@@ -35890,7 +35890,7 @@
       <c r="C131" s="85"/>
       <c r="D131" s="18"/>
       <c r="E131" s="12" t="str">
-        <f>IF(ISBLANK($C131),"",IF(ISBLANK($G131),"未着手",IF($J131=0,"完了","作業中")))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="F131" s="4"/>
@@ -35898,7 +35898,7 @@
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
       <c r="J131" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K131)=FALSE,OFFSET(J131,0,COUNTA(K131:V131)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K131" s="22"/>
@@ -35923,7 +35923,7 @@
       <c r="C132" s="85"/>
       <c r="D132" s="18"/>
       <c r="E132" s="12" t="str">
-        <f>IF(ISBLANK($C132),"",IF(ISBLANK($G132),"未着手",IF($J132=0,"完了","作業中")))</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="F132" s="4"/>
@@ -35931,7 +35931,7 @@
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
       <c r="J132" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K132)=FALSE,OFFSET(J132,0,COUNTA(K132:V132)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K132" s="22"/>
@@ -35956,7 +35956,7 @@
       <c r="C133" s="85"/>
       <c r="D133" s="18"/>
       <c r="E133" s="12" t="str">
-        <f>IF(ISBLANK($C133),"",IF(ISBLANK($G133),"未着手",IF($J133=0,"完了","作業中")))</f>
+        <f t="shared" ref="E133:E164" si="21">IF(ISBLANK($C133),"",IF(ISBLANK($G133),"未着手",IF($J133=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F133" s="4"/>
@@ -35964,7 +35964,7 @@
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
       <c r="J133" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K133)=FALSE,OFFSET(J133,0,COUNTA(K133:V133)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K133" s="22"/>
@@ -35989,7 +35989,7 @@
       <c r="C134" s="85"/>
       <c r="D134" s="18"/>
       <c r="E134" s="12" t="str">
-        <f>IF(ISBLANK($C134),"",IF(ISBLANK($G134),"未着手",IF($J134=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F134" s="4"/>
@@ -35997,7 +35997,7 @@
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
       <c r="J134" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K134)=FALSE,OFFSET(J134,0,COUNTA(K134:V134)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K134" s="22"/>
@@ -36022,7 +36022,7 @@
       <c r="C135" s="85"/>
       <c r="D135" s="18"/>
       <c r="E135" s="12" t="str">
-        <f>IF(ISBLANK($C135),"",IF(ISBLANK($G135),"未着手",IF($J135=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F135" s="4"/>
@@ -36030,7 +36030,7 @@
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
       <c r="J135" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K135)=FALSE,OFFSET(J135,0,COUNTA(K135:V135)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K135" s="22"/>
@@ -36055,7 +36055,7 @@
       <c r="C136" s="85"/>
       <c r="D136" s="18"/>
       <c r="E136" s="12" t="str">
-        <f>IF(ISBLANK($C136),"",IF(ISBLANK($G136),"未着手",IF($J136=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F136" s="4"/>
@@ -36063,7 +36063,7 @@
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
       <c r="J136" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K136)=FALSE,OFFSET(J136,0,COUNTA(K136:V136)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K136" s="22"/>
@@ -36088,7 +36088,7 @@
       <c r="C137" s="85"/>
       <c r="D137" s="18"/>
       <c r="E137" s="12" t="str">
-        <f>IF(ISBLANK($C137),"",IF(ISBLANK($G137),"未着手",IF($J137=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F137" s="4"/>
@@ -36096,7 +36096,7 @@
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
       <c r="J137" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K137)=FALSE,OFFSET(J137,0,COUNTA(K137:V137)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K137" s="22"/>
@@ -36121,7 +36121,7 @@
       <c r="C138" s="85"/>
       <c r="D138" s="18"/>
       <c r="E138" s="12" t="str">
-        <f>IF(ISBLANK($C138),"",IF(ISBLANK($G138),"未着手",IF($J138=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F138" s="4"/>
@@ -36129,7 +36129,7 @@
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
       <c r="J138" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K138)=FALSE,OFFSET(J138,0,COUNTA(K138:V138)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K138" s="22"/>
@@ -36154,7 +36154,7 @@
       <c r="C139" s="85"/>
       <c r="D139" s="18"/>
       <c r="E139" s="12" t="str">
-        <f>IF(ISBLANK($C139),"",IF(ISBLANK($G139),"未着手",IF($J139=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F139" s="4"/>
@@ -36162,7 +36162,7 @@
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
       <c r="J139" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K139)=FALSE,OFFSET(J139,0,COUNTA(K139:V139)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K139" s="22"/>
@@ -36187,7 +36187,7 @@
       <c r="C140" s="85"/>
       <c r="D140" s="18"/>
       <c r="E140" s="12" t="str">
-        <f>IF(ISBLANK($C140),"",IF(ISBLANK($G140),"未着手",IF($J140=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F140" s="4"/>
@@ -36195,7 +36195,7 @@
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
       <c r="J140" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K140)=FALSE,OFFSET(J140,0,COUNTA(K140:V140)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K140" s="22"/>
@@ -36220,7 +36220,7 @@
       <c r="C141" s="85"/>
       <c r="D141" s="18"/>
       <c r="E141" s="12" t="str">
-        <f>IF(ISBLANK($C141),"",IF(ISBLANK($G141),"未着手",IF($J141=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F141" s="4"/>
@@ -36228,7 +36228,7 @@
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
       <c r="J141" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K141)=FALSE,OFFSET(J141,0,COUNTA(K141:V141)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K141" s="22"/>
@@ -36253,7 +36253,7 @@
       <c r="C142" s="85"/>
       <c r="D142" s="18"/>
       <c r="E142" s="12" t="str">
-        <f>IF(ISBLANK($C142),"",IF(ISBLANK($G142),"未着手",IF($J142=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F142" s="4"/>
@@ -36261,7 +36261,7 @@
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
       <c r="J142" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K142)=FALSE,OFFSET(J142,0,COUNTA(K142:V142)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K142" s="22"/>
@@ -36286,7 +36286,7 @@
       <c r="C143" s="85"/>
       <c r="D143" s="18"/>
       <c r="E143" s="12" t="str">
-        <f>IF(ISBLANK($C143),"",IF(ISBLANK($G143),"未着手",IF($J143=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F143" s="4"/>
@@ -36294,7 +36294,7 @@
       <c r="H143" s="19"/>
       <c r="I143" s="19"/>
       <c r="J143" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K143)=FALSE,OFFSET(J143,0,COUNTA(K143:V143)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K143" s="22"/>
@@ -36319,7 +36319,7 @@
       <c r="C144" s="85"/>
       <c r="D144" s="18"/>
       <c r="E144" s="12" t="str">
-        <f>IF(ISBLANK($C144),"",IF(ISBLANK($G144),"未着手",IF($J144=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F144" s="4"/>
@@ -36327,7 +36327,7 @@
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
       <c r="J144" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K144)=FALSE,OFFSET(J144,0,COUNTA(K144:V144)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K144" s="22"/>
@@ -36352,7 +36352,7 @@
       <c r="C145" s="85"/>
       <c r="D145" s="18"/>
       <c r="E145" s="12" t="str">
-        <f>IF(ISBLANK($C145),"",IF(ISBLANK($G145),"未着手",IF($J145=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F145" s="4"/>
@@ -36360,7 +36360,7 @@
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
       <c r="J145" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K145)=FALSE,OFFSET(J145,0,COUNTA(K145:V145)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K145" s="22"/>
@@ -36385,7 +36385,7 @@
       <c r="C146" s="85"/>
       <c r="D146" s="18"/>
       <c r="E146" s="12" t="str">
-        <f>IF(ISBLANK($C146),"",IF(ISBLANK($G146),"未着手",IF($J146=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F146" s="4"/>
@@ -36393,7 +36393,7 @@
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
       <c r="J146" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K146)=FALSE,OFFSET(J146,0,COUNTA(K146:V146)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K146" s="22"/>
@@ -36418,7 +36418,7 @@
       <c r="C147" s="85"/>
       <c r="D147" s="18"/>
       <c r="E147" s="12" t="str">
-        <f>IF(ISBLANK($C147),"",IF(ISBLANK($G147),"未着手",IF($J147=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F147" s="4"/>
@@ -36426,7 +36426,7 @@
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
       <c r="J147" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K147)=FALSE,OFFSET(J147,0,COUNTA(K147:V147)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K147" s="22"/>
@@ -36451,7 +36451,7 @@
       <c r="C148" s="85"/>
       <c r="D148" s="18"/>
       <c r="E148" s="12" t="str">
-        <f>IF(ISBLANK($C148),"",IF(ISBLANK($G148),"未着手",IF($J148=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F148" s="4"/>
@@ -36459,7 +36459,7 @@
       <c r="H148" s="19"/>
       <c r="I148" s="19"/>
       <c r="J148" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K148)=FALSE,OFFSET(J148,0,COUNTA(K148:V148)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K148" s="22"/>
@@ -36484,7 +36484,7 @@
       <c r="C149" s="85"/>
       <c r="D149" s="18"/>
       <c r="E149" s="12" t="str">
-        <f>IF(ISBLANK($C149),"",IF(ISBLANK($G149),"未着手",IF($J149=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F149" s="4"/>
@@ -36492,7 +36492,7 @@
       <c r="H149" s="19"/>
       <c r="I149" s="19"/>
       <c r="J149" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K149)=FALSE,OFFSET(J149,0,COUNTA(K149:V149)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K149" s="22"/>
@@ -36517,7 +36517,7 @@
       <c r="C150" s="85"/>
       <c r="D150" s="18"/>
       <c r="E150" s="12" t="str">
-        <f>IF(ISBLANK($C150),"",IF(ISBLANK($G150),"未着手",IF($J150=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F150" s="4"/>
@@ -36525,7 +36525,7 @@
       <c r="H150" s="19"/>
       <c r="I150" s="19"/>
       <c r="J150" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K150)=FALSE,OFFSET(J150,0,COUNTA(K150:V150)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K150" s="22"/>
@@ -36550,7 +36550,7 @@
       <c r="C151" s="85"/>
       <c r="D151" s="18"/>
       <c r="E151" s="12" t="str">
-        <f>IF(ISBLANK($C151),"",IF(ISBLANK($G151),"未着手",IF($J151=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F151" s="4"/>
@@ -36558,7 +36558,7 @@
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
       <c r="J151" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K151)=FALSE,OFFSET(J151,0,COUNTA(K151:V151)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K151" s="22"/>
@@ -36583,7 +36583,7 @@
       <c r="C152" s="85"/>
       <c r="D152" s="18"/>
       <c r="E152" s="12" t="str">
-        <f>IF(ISBLANK($C152),"",IF(ISBLANK($G152),"未着手",IF($J152=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F152" s="4"/>
@@ -36591,7 +36591,7 @@
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
       <c r="J152" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K152)=FALSE,OFFSET(J152,0,COUNTA(K152:V152)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K152" s="22"/>
@@ -36616,7 +36616,7 @@
       <c r="C153" s="85"/>
       <c r="D153" s="18"/>
       <c r="E153" s="12" t="str">
-        <f>IF(ISBLANK($C153),"",IF(ISBLANK($G153),"未着手",IF($J153=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F153" s="4"/>
@@ -36624,7 +36624,7 @@
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
       <c r="J153" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K153)=FALSE,OFFSET(J153,0,COUNTA(K153:V153)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K153" s="22"/>
@@ -36649,7 +36649,7 @@
       <c r="C154" s="85"/>
       <c r="D154" s="18"/>
       <c r="E154" s="12" t="str">
-        <f>IF(ISBLANK($C154),"",IF(ISBLANK($G154),"未着手",IF($J154=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F154" s="4"/>
@@ -36657,7 +36657,7 @@
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
       <c r="J154" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K154)=FALSE,OFFSET(J154,0,COUNTA(K154:V154)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K154" s="22"/>
@@ -36682,7 +36682,7 @@
       <c r="C155" s="85"/>
       <c r="D155" s="18"/>
       <c r="E155" s="12" t="str">
-        <f>IF(ISBLANK($C155),"",IF(ISBLANK($G155),"未着手",IF($J155=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F155" s="4"/>
@@ -36690,7 +36690,7 @@
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
       <c r="J155" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K155)=FALSE,OFFSET(J155,0,COUNTA(K155:V155)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K155" s="22"/>
@@ -36715,7 +36715,7 @@
       <c r="C156" s="85"/>
       <c r="D156" s="18"/>
       <c r="E156" s="12" t="str">
-        <f>IF(ISBLANK($C156),"",IF(ISBLANK($G156),"未着手",IF($J156=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F156" s="4"/>
@@ -36723,7 +36723,7 @@
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
       <c r="J156" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K156)=FALSE,OFFSET(J156,0,COUNTA(K156:V156)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K156" s="22"/>
@@ -36748,7 +36748,7 @@
       <c r="C157" s="85"/>
       <c r="D157" s="18"/>
       <c r="E157" s="12" t="str">
-        <f>IF(ISBLANK($C157),"",IF(ISBLANK($G157),"未着手",IF($J157=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F157" s="4"/>
@@ -36756,7 +36756,7 @@
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
       <c r="J157" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K157)=FALSE,OFFSET(J157,0,COUNTA(K157:V157)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K157" s="22"/>
@@ -36781,7 +36781,7 @@
       <c r="C158" s="85"/>
       <c r="D158" s="18"/>
       <c r="E158" s="12" t="str">
-        <f>IF(ISBLANK($C158),"",IF(ISBLANK($G158),"未着手",IF($J158=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F158" s="4"/>
@@ -36789,7 +36789,7 @@
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
       <c r="J158" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K158)=FALSE,OFFSET(J158,0,COUNTA(K158:V158)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K158" s="22"/>
@@ -36814,7 +36814,7 @@
       <c r="C159" s="85"/>
       <c r="D159" s="18"/>
       <c r="E159" s="12" t="str">
-        <f>IF(ISBLANK($C159),"",IF(ISBLANK($G159),"未着手",IF($J159=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F159" s="4"/>
@@ -36822,7 +36822,7 @@
       <c r="H159" s="19"/>
       <c r="I159" s="19"/>
       <c r="J159" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K159)=FALSE,OFFSET(J159,0,COUNTA(K159:V159)),"")</f>
+        <f t="shared" ca="1" si="20"/>
         <v/>
       </c>
       <c r="K159" s="22"/>
@@ -36847,7 +36847,7 @@
       <c r="C160" s="85"/>
       <c r="D160" s="18"/>
       <c r="E160" s="12" t="str">
-        <f>IF(ISBLANK($C160),"",IF(ISBLANK($G160),"未着手",IF($J160=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F160" s="4"/>
@@ -36855,7 +36855,7 @@
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
       <c r="J160" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K160)=FALSE,OFFSET(J160,0,COUNTA(K160:V160)),"")</f>
+        <f t="shared" ref="J160:J191" ca="1" si="22">IF(ISBLANK(K160)=FALSE,OFFSET(J160,0,COUNTA(K160:V160)),"")</f>
         <v/>
       </c>
       <c r="K160" s="22"/>
@@ -36880,7 +36880,7 @@
       <c r="C161" s="85"/>
       <c r="D161" s="18"/>
       <c r="E161" s="12" t="str">
-        <f>IF(ISBLANK($C161),"",IF(ISBLANK($G161),"未着手",IF($J161=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F161" s="4"/>
@@ -36888,7 +36888,7 @@
       <c r="H161" s="19"/>
       <c r="I161" s="19"/>
       <c r="J161" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K161)=FALSE,OFFSET(J161,0,COUNTA(K161:V161)),"")</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="K161" s="22"/>
@@ -36913,7 +36913,7 @@
       <c r="C162" s="85"/>
       <c r="D162" s="18"/>
       <c r="E162" s="12" t="str">
-        <f>IF(ISBLANK($C162),"",IF(ISBLANK($G162),"未着手",IF($J162=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F162" s="4"/>
@@ -36921,7 +36921,7 @@
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
       <c r="J162" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K162)=FALSE,OFFSET(J162,0,COUNTA(K162:V162)),"")</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="K162" s="22"/>
@@ -36946,7 +36946,7 @@
       <c r="C163" s="85"/>
       <c r="D163" s="18"/>
       <c r="E163" s="12" t="str">
-        <f>IF(ISBLANK($C163),"",IF(ISBLANK($G163),"未着手",IF($J163=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F163" s="4"/>
@@ -36954,7 +36954,7 @@
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
       <c r="J163" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K163)=FALSE,OFFSET(J163,0,COUNTA(K163:V163)),"")</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="K163" s="22"/>
@@ -36979,7 +36979,7 @@
       <c r="C164" s="85"/>
       <c r="D164" s="18"/>
       <c r="E164" s="12" t="str">
-        <f>IF(ISBLANK($C164),"",IF(ISBLANK($G164),"未着手",IF($J164=0,"完了","作業中")))</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="F164" s="4"/>
@@ -36987,7 +36987,7 @@
       <c r="H164" s="19"/>
       <c r="I164" s="19"/>
       <c r="J164" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K164)=FALSE,OFFSET(J164,0,COUNTA(K164:V164)),"")</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="K164" s="22"/>
@@ -37012,7 +37012,7 @@
       <c r="C165" s="85"/>
       <c r="D165" s="18"/>
       <c r="E165" s="12" t="str">
-        <f>IF(ISBLANK($C165),"",IF(ISBLANK($G165),"未着手",IF($J165=0,"完了","作業中")))</f>
+        <f t="shared" ref="E165:E175" si="23">IF(ISBLANK($C165),"",IF(ISBLANK($G165),"未着手",IF($J165=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F165" s="4"/>
@@ -37020,7 +37020,7 @@
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
       <c r="J165" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K165)=FALSE,OFFSET(J165,0,COUNTA(K165:V165)),"")</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="K165" s="22"/>
@@ -37045,7 +37045,7 @@
       <c r="C166" s="85"/>
       <c r="D166" s="18"/>
       <c r="E166" s="12" t="str">
-        <f>IF(ISBLANK($C166),"",IF(ISBLANK($G166),"未着手",IF($J166=0,"完了","作業中")))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="F166" s="4"/>
@@ -37053,7 +37053,7 @@
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
       <c r="J166" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K166)=FALSE,OFFSET(J166,0,COUNTA(K166:V166)),"")</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="K166" s="22"/>
@@ -37078,7 +37078,7 @@
       <c r="C167" s="85"/>
       <c r="D167" s="18"/>
       <c r="E167" s="12" t="str">
-        <f>IF(ISBLANK($C167),"",IF(ISBLANK($G167),"未着手",IF($J167=0,"完了","作業中")))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="F167" s="4"/>
@@ -37086,7 +37086,7 @@
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
       <c r="J167" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K167)=FALSE,OFFSET(J167,0,COUNTA(K167:V167)),"")</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="K167" s="22"/>
@@ -37111,7 +37111,7 @@
       <c r="C168" s="85"/>
       <c r="D168" s="18"/>
       <c r="E168" s="12" t="str">
-        <f>IF(ISBLANK($C168),"",IF(ISBLANK($G168),"未着手",IF($J168=0,"完了","作業中")))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="F168" s="4"/>
@@ -37119,7 +37119,7 @@
       <c r="H168" s="19"/>
       <c r="I168" s="19"/>
       <c r="J168" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K168)=FALSE,OFFSET(J168,0,COUNTA(K168:V168)),"")</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="K168" s="22"/>
@@ -37144,7 +37144,7 @@
       <c r="C169" s="85"/>
       <c r="D169" s="18"/>
       <c r="E169" s="12" t="str">
-        <f>IF(ISBLANK($C169),"",IF(ISBLANK($G169),"未着手",IF($J169=0,"完了","作業中")))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="F169" s="4"/>
@@ -37152,7 +37152,7 @@
       <c r="H169" s="19"/>
       <c r="I169" s="19"/>
       <c r="J169" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K169)=FALSE,OFFSET(J169,0,COUNTA(K169:V169)),"")</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="K169" s="22"/>
@@ -37177,7 +37177,7 @@
       <c r="C170" s="85"/>
       <c r="D170" s="18"/>
       <c r="E170" s="12" t="str">
-        <f>IF(ISBLANK($C170),"",IF(ISBLANK($G170),"未着手",IF($J170=0,"完了","作業中")))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="F170" s="4"/>
@@ -37185,7 +37185,7 @@
       <c r="H170" s="19"/>
       <c r="I170" s="19"/>
       <c r="J170" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K170)=FALSE,OFFSET(J170,0,COUNTA(K170:V170)),"")</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="K170" s="22"/>
@@ -37210,7 +37210,7 @@
       <c r="C171" s="85"/>
       <c r="D171" s="18"/>
       <c r="E171" s="12" t="str">
-        <f>IF(ISBLANK($C171),"",IF(ISBLANK($G171),"未着手",IF($J171=0,"完了","作業中")))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="F171" s="4"/>
@@ -37218,7 +37218,7 @@
       <c r="H171" s="19"/>
       <c r="I171" s="19"/>
       <c r="J171" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K171)=FALSE,OFFSET(J171,0,COUNTA(K171:V171)),"")</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="K171" s="22"/>
@@ -37243,7 +37243,7 @@
       <c r="C172" s="85"/>
       <c r="D172" s="18"/>
       <c r="E172" s="12" t="str">
-        <f>IF(ISBLANK($C172),"",IF(ISBLANK($G172),"未着手",IF($J172=0,"完了","作業中")))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="F172" s="4"/>
@@ -37251,7 +37251,7 @@
       <c r="H172" s="19"/>
       <c r="I172" s="19"/>
       <c r="J172" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K172)=FALSE,OFFSET(J172,0,COUNTA(K172:V172)),"")</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="K172" s="22"/>
@@ -37276,7 +37276,7 @@
       <c r="C173" s="85"/>
       <c r="D173" s="18"/>
       <c r="E173" s="12" t="str">
-        <f>IF(ISBLANK($C173),"",IF(ISBLANK($G173),"未着手",IF($J173=0,"完了","作業中")))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="F173" s="4"/>
@@ -37284,7 +37284,7 @@
       <c r="H173" s="19"/>
       <c r="I173" s="19"/>
       <c r="J173" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K173)=FALSE,OFFSET(J173,0,COUNTA(K173:V173)),"")</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="K173" s="22"/>
@@ -37309,7 +37309,7 @@
       <c r="C174" s="85"/>
       <c r="D174" s="18"/>
       <c r="E174" s="12" t="str">
-        <f>IF(ISBLANK($C174),"",IF(ISBLANK($G174),"未着手",IF($J174=0,"完了","作業中")))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="F174" s="4"/>
@@ -37317,7 +37317,7 @@
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
       <c r="J174" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K174)=FALSE,OFFSET(J174,0,COUNTA(K174:V174)),"")</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="K174" s="22"/>
@@ -37342,7 +37342,7 @@
       <c r="C175" s="85"/>
       <c r="D175" s="18"/>
       <c r="E175" s="12" t="str">
-        <f>IF(ISBLANK($C175),"",IF(ISBLANK($G175),"未着手",IF($J175=0,"完了","作業中")))</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="F175" s="4"/>
@@ -37350,7 +37350,7 @@
       <c r="H175" s="19"/>
       <c r="I175" s="19"/>
       <c r="J175" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K175)=FALSE,OFFSET(J175,0,COUNTA(K175:V175)),"")</f>
+        <f t="shared" ca="1" si="22"/>
         <v/>
       </c>
       <c r="K175" s="22"/>
